--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA324E3-82E7-4154-A6D5-D2853F9BF728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E10F18C-9DE3-4FBB-9CFD-F7303730BAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10989,5 +10989,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E10F18C-9DE3-4FBB-9CFD-F7303730BAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC9EC7-9B17-456A-B142-51D395FE5FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="297">
   <si>
     <t>المؤشرات المالية اليومية</t>
   </si>
@@ -916,7 +916,7 @@
     <t>* معلقة من التداول</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/06/15</t>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/06/16</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>57.3</v>
+        <v>59.5</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1361,7 +1361,7 @@
         <v>345.55</v>
       </c>
       <c r="F5">
-        <v>859.5</v>
+        <v>892.5</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1376,7 +1376,7 @@
         <v>23.03</v>
       </c>
       <c r="K5">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1396,22 +1396,22 @@
         <v>1473620</v>
       </c>
       <c r="F6" s="2">
-        <v>6146800</v>
+        <v>6122600</v>
       </c>
       <c r="G6">
-        <v>66.83</v>
+        <v>66.39</v>
       </c>
       <c r="H6">
         <v>1.627</v>
       </c>
       <c r="I6">
-        <v>15.612</v>
+        <v>15.551</v>
       </c>
       <c r="J6">
         <v>6.08</v>
       </c>
       <c r="K6">
-        <v>4.17</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>6.81</v>
+        <v>6.92</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1431,10 +1431,10 @@
         <v>10987</v>
       </c>
       <c r="F7" s="2">
-        <v>11379.51</v>
+        <v>11563.32</v>
       </c>
       <c r="G7">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H7">
         <v>-2.3170000000000002</v>
@@ -1446,7 +1446,7 @@
         <v>6.57</v>
       </c>
       <c r="K7">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>76.2</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1466,7 +1466,7 @@
         <v>6010</v>
       </c>
       <c r="F8" s="2">
-        <v>6781.8</v>
+        <v>6906.4</v>
       </c>
       <c r="G8">
         <v>7.0000000000000007E-2</v>
@@ -1475,13 +1475,13 @@
         <v>2.8090000000000002</v>
       </c>
       <c r="I8">
-        <v>27.128</v>
+        <v>27.626000000000001</v>
       </c>
       <c r="J8">
         <v>67.52</v>
       </c>
       <c r="K8">
-        <v>1.1200000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>12.78</v>
+        <v>12.86</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1501,7 +1501,7 @@
         <v>6418.9</v>
       </c>
       <c r="F9" s="2">
-        <v>14429.41</v>
+        <v>14519.74</v>
       </c>
       <c r="G9">
         <v>0.16</v>
@@ -1510,13 +1510,13 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="I9">
-        <v>17.768999999999998</v>
+        <v>17.88</v>
       </c>
       <c r="J9">
         <v>5.68</v>
       </c>
       <c r="K9">
-        <v>2.2400000000000002</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="C10">
         <v>738.28099999999995</v>
@@ -1536,7 +1536,7 @@
         <v>14127.19</v>
       </c>
       <c r="F10" s="2">
-        <v>22148.43</v>
+        <v>22517.57</v>
       </c>
       <c r="G10">
         <v>0.24</v>
@@ -1545,13 +1545,13 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="I10">
-        <v>9.8460000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="J10">
         <v>19.13</v>
       </c>
       <c r="K10">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1571,7 +1571,7 @@
         <v>1438.5</v>
       </c>
       <c r="F11" s="2">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="G11">
         <v>0.13</v>
@@ -1580,13 +1580,13 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="I11">
-        <v>32.713000000000001</v>
+        <v>34.098999999999997</v>
       </c>
       <c r="J11">
         <v>14.38</v>
       </c>
       <c r="K11">
-        <v>8.1999999999999993</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1603,22 +1603,22 @@
         <v>1512947.14</v>
       </c>
       <c r="F12" s="2">
-        <v>6214198.6500000004</v>
+        <v>6191299.5300000003</v>
       </c>
       <c r="G12">
-        <v>67.56</v>
+        <v>67.13</v>
       </c>
       <c r="H12">
         <v>1.601</v>
       </c>
       <c r="I12">
-        <v>15.606999999999999</v>
+        <v>15.548999999999999</v>
       </c>
       <c r="J12">
         <v>6.16</v>
       </c>
       <c r="K12">
-        <v>4.1100000000000003</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7.3</v>
+        <v>7.42</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1638,7 +1638,7 @@
         <v>382.18</v>
       </c>
       <c r="F13">
-        <v>558.19000000000005</v>
+        <v>567.36</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1653,7 +1653,7 @@
         <v>4.99</v>
       </c>
       <c r="K13">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>26.55</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1673,7 +1673,7 @@
         <v>1611.65</v>
       </c>
       <c r="F14" s="2">
-        <v>2253.3200000000002</v>
+        <v>2300.98</v>
       </c>
       <c r="G14">
         <v>0.02</v>
@@ -1688,7 +1688,7 @@
         <v>18.59</v>
       </c>
       <c r="K14">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>25.15</v>
+        <v>25.6</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -1708,7 +1708,7 @@
         <v>598.46</v>
       </c>
       <c r="F15">
-        <v>691.63</v>
+        <v>704</v>
       </c>
       <c r="G15">
         <v>0.01</v>
@@ -1717,13 +1717,13 @@
         <v>1.198</v>
       </c>
       <c r="I15">
-        <v>20.995999999999999</v>
+        <v>21.372</v>
       </c>
       <c r="J15">
         <v>21.76</v>
       </c>
       <c r="K15">
-        <v>1.1499999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>49.05</v>
+        <v>49.25</v>
       </c>
       <c r="C16" s="2">
         <v>3802.7849999999999</v>
@@ -1743,7 +1743,7 @@
         <v>53273.5</v>
       </c>
       <c r="F16" s="2">
-        <v>186526.6</v>
+        <v>187287.16</v>
       </c>
       <c r="G16">
         <v>2.0299999999999998</v>
@@ -1752,13 +1752,13 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="I16">
-        <v>54.225000000000001</v>
+        <v>54.445999999999998</v>
       </c>
       <c r="J16">
         <v>14</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>21.18</v>
+        <v>21.6</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1778,7 +1778,7 @@
         <v>366.9</v>
       </c>
       <c r="F17">
-        <v>594.73</v>
+        <v>606.53</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1787,13 +1787,13 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17">
-        <v>61.951000000000001</v>
+        <v>63.18</v>
       </c>
       <c r="J17">
         <v>13.06</v>
       </c>
       <c r="K17">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>28.3</v>
+        <v>29.05</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1813,7 +1813,7 @@
         <v>590.22</v>
       </c>
       <c r="F18" s="2">
-        <v>1437.64</v>
+        <v>1475.74</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1822,13 +1822,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="I18">
-        <v>38.594000000000001</v>
+        <v>39.616999999999997</v>
       </c>
       <c r="J18">
         <v>11.61</v>
       </c>
       <c r="K18">
-        <v>2.4300000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>49.7</v>
+        <v>51.1</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1848,7 +1848,7 @@
         <v>913</v>
       </c>
       <c r="F19" s="2">
-        <v>2534.6999999999998</v>
+        <v>2606.1</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1857,13 +1857,13 @@
         <v>4.7839999999999998</v>
       </c>
       <c r="I19">
-        <v>10.388</v>
+        <v>10.68</v>
       </c>
       <c r="J19">
         <v>17.899999999999999</v>
       </c>
       <c r="K19">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>105.6</v>
+        <v>108.2</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1883,7 +1883,7 @@
         <v>1049.6199999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>3326.4</v>
+        <v>3408.3</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1892,13 +1892,13 @@
         <v>15.114000000000001</v>
       </c>
       <c r="I20">
-        <v>6.9859999999999998</v>
+        <v>7.1580000000000004</v>
       </c>
       <c r="J20">
         <v>33.32</v>
       </c>
       <c r="K20">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>57.4</v>
+        <v>59.3</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1918,7 +1918,7 @@
         <v>1210.1199999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5166</v>
+        <v>5337</v>
       </c>
       <c r="G21">
         <v>0.06</v>
@@ -1927,13 +1927,13 @@
         <v>2.4220000000000002</v>
       </c>
       <c r="I21">
-        <v>23.696000000000002</v>
+        <v>24.48</v>
       </c>
       <c r="J21">
         <v>13.44</v>
       </c>
       <c r="K21">
-        <v>4.26</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>35.1</v>
+        <v>36.5</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1953,7 +1953,7 @@
         <v>564.17999999999995</v>
       </c>
       <c r="F22" s="2">
-        <v>1404</v>
+        <v>1460</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1962,13 +1962,13 @@
         <v>2.718</v>
       </c>
       <c r="I22">
-        <v>12.916</v>
+        <v>13.430999999999999</v>
       </c>
       <c r="J22">
         <v>14.1</v>
       </c>
       <c r="K22">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>11.54</v>
+        <v>12.06</v>
       </c>
       <c r="C23">
         <v>67.45</v>
@@ -1988,7 +1988,7 @@
         <v>728.24</v>
       </c>
       <c r="F23">
-        <v>778.37</v>
+        <v>813.45</v>
       </c>
       <c r="G23">
         <v>0.01</v>
@@ -2003,7 +2003,7 @@
         <v>10.79</v>
       </c>
       <c r="K23">
-        <v>1.06</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2023,22 +2023,22 @@
         <v>156110</v>
       </c>
       <c r="F24" s="2">
-        <v>162900</v>
+        <v>167400</v>
       </c>
       <c r="G24">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="H24">
         <v>2.7E-2</v>
       </c>
       <c r="I24">
-        <v>2036.25</v>
+        <v>2092.5</v>
       </c>
       <c r="J24">
         <v>52.03</v>
       </c>
       <c r="K24">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>98.7</v>
+        <v>103.8</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2058,22 +2058,22 @@
         <v>19286</v>
       </c>
       <c r="F25" s="2">
-        <v>46984.65</v>
+        <v>49412.43</v>
       </c>
       <c r="G25">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="H25">
         <v>7.2910000000000004</v>
       </c>
       <c r="I25">
-        <v>13.536</v>
+        <v>14.234999999999999</v>
       </c>
       <c r="J25">
         <v>40.51</v>
       </c>
       <c r="K25">
-        <v>2.4300000000000002</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>9.0399999999999991</v>
+        <v>9.34</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2093,7 +2093,7 @@
         <v>10484.4</v>
       </c>
       <c r="F26" s="2">
-        <v>6046.98</v>
+        <v>6247.66</v>
       </c>
       <c r="G26">
         <v>7.0000000000000007E-2</v>
@@ -2102,13 +2102,13 @@
         <v>1.601</v>
       </c>
       <c r="I26">
-        <v>5.6479999999999997</v>
+        <v>5.835</v>
       </c>
       <c r="J26">
         <v>15.67</v>
       </c>
       <c r="K26">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>17.66</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2128,7 +2128,7 @@
         <v>346.35</v>
       </c>
       <c r="F27">
-        <v>559.22</v>
+        <v>614.95000000000005</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2143,7 +2143,7 @@
         <v>10.93</v>
       </c>
       <c r="K27">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>40.200000000000003</v>
+        <v>41.15</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2163,7 +2163,7 @@
         <v>772.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1322.58</v>
+        <v>1353.84</v>
       </c>
       <c r="G28">
         <v>0.01</v>
@@ -2172,13 +2172,13 @@
         <v>2.7930000000000001</v>
       </c>
       <c r="I28">
-        <v>14.391</v>
+        <v>14.731</v>
       </c>
       <c r="J28">
         <v>23.47</v>
       </c>
       <c r="K28">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2186,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>36.25</v>
+        <v>36.4</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2198,7 +2198,7 @@
         <v>3475.91</v>
       </c>
       <c r="F29" s="2">
-        <v>2508.5</v>
+        <v>2518.88</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>31.85</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="C30">
         <v>11.5</v>
@@ -2233,7 +2233,7 @@
         <v>141.80000000000001</v>
       </c>
       <c r="F30">
-        <v>366.28</v>
+        <v>374.33</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2248,7 +2248,7 @@
         <v>12.33</v>
       </c>
       <c r="K30">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2291,7 +2291,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>26.05</v>
+        <v>26.75</v>
       </c>
       <c r="C32">
         <v>23.52</v>
@@ -2303,7 +2303,7 @@
         <v>194.63</v>
       </c>
       <c r="F32">
-        <v>612.70000000000005</v>
+        <v>629.16</v>
       </c>
       <c r="G32">
         <v>0.01</v>
@@ -2318,7 +2318,7 @@
         <v>8.27</v>
       </c>
       <c r="K32">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>12.74</v>
+        <v>13.28</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2338,10 +2338,10 @@
         <v>242.28</v>
       </c>
       <c r="F33">
-        <v>451</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
+        <v>470.11</v>
+      </c>
+      <c r="G33">
+        <v>0.01</v>
       </c>
       <c r="H33">
         <v>-1.0189999999999999</v>
@@ -2353,7 +2353,7 @@
         <v>6.84</v>
       </c>
       <c r="K33">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>97</v>
+        <v>97.6</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2373,7 +2373,7 @@
         <v>4075.05</v>
       </c>
       <c r="F34" s="2">
-        <v>16368.75</v>
+        <v>16470</v>
       </c>
       <c r="G34">
         <v>0.18</v>
@@ -2382,13 +2382,13 @@
         <v>5.6559999999999997</v>
       </c>
       <c r="I34">
-        <v>17.148</v>
+        <v>17.254000000000001</v>
       </c>
       <c r="J34">
         <v>24.14</v>
       </c>
       <c r="K34">
-        <v>4.01</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>36.9</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2408,7 +2408,7 @@
         <v>474.58</v>
       </c>
       <c r="F35" s="2">
-        <v>2214</v>
+        <v>2292</v>
       </c>
       <c r="G35">
         <v>0.02</v>
@@ -2417,13 +2417,13 @@
         <v>0.72</v>
       </c>
       <c r="I35">
-        <v>51.261000000000003</v>
+        <v>53.067</v>
       </c>
       <c r="J35">
         <v>7.9</v>
       </c>
       <c r="K35">
-        <v>4.66</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>16.899999999999999</v>
+        <v>16.88</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2443,7 +2443,7 @@
         <v>9853</v>
       </c>
       <c r="F36" s="2">
-        <v>11480.51</v>
+        <v>11466.92</v>
       </c>
       <c r="G36">
         <v>0.12</v>
@@ -2452,7 +2452,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I36">
-        <v>60.106999999999999</v>
+        <v>60.036000000000001</v>
       </c>
       <c r="J36">
         <v>14.5</v>
@@ -2466,7 +2466,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="C37">
         <v>562.5</v>
@@ -2478,7 +2478,7 @@
         <v>11252.6</v>
       </c>
       <c r="F37" s="2">
-        <v>16256.25</v>
+        <v>16593.75</v>
       </c>
       <c r="G37">
         <v>0.18</v>
@@ -2487,13 +2487,13 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="I37">
-        <v>48.655999999999999</v>
+        <v>49.667000000000002</v>
       </c>
       <c r="J37">
         <v>20</v>
       </c>
       <c r="K37">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>58.4</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2513,7 +2513,7 @@
         <v>533.52</v>
       </c>
       <c r="F38" s="2">
-        <v>2164.89</v>
+        <v>2261.27</v>
       </c>
       <c r="G38">
         <v>0.02</v>
@@ -2522,13 +2522,13 @@
         <v>1.825</v>
       </c>
       <c r="I38">
-        <v>31.995999999999999</v>
+        <v>33.420999999999999</v>
       </c>
       <c r="J38">
         <v>14.39</v>
       </c>
       <c r="K38">
-        <v>4.05</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>18.2</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2548,7 +2548,7 @@
         <v>15430</v>
       </c>
       <c r="F39" s="2">
-        <v>13346.66</v>
+        <v>13874.66</v>
       </c>
       <c r="G39">
         <v>0.15</v>
@@ -2557,13 +2557,13 @@
         <v>0.6</v>
       </c>
       <c r="I39">
-        <v>30.332999999999998</v>
+        <v>31.533000000000001</v>
       </c>
       <c r="J39">
         <v>21.04</v>
       </c>
       <c r="K39">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2583,7 +2583,7 @@
         <v>2915</v>
       </c>
       <c r="F40" s="2">
-        <v>7488</v>
+        <v>7514</v>
       </c>
       <c r="G40">
         <v>0.08</v>
@@ -2598,7 +2598,7 @@
         <v>11.21</v>
       </c>
       <c r="K40">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>4.68</v>
+        <v>4.74</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2618,7 +2618,7 @@
         <v>10731.37</v>
       </c>
       <c r="F41" s="2">
-        <v>7020</v>
+        <v>7110</v>
       </c>
       <c r="G41">
         <v>0.08</v>
@@ -2633,7 +2633,7 @@
         <v>7.15</v>
       </c>
       <c r="K41">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>25.9</v>
+        <v>26.95</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2653,7 +2653,7 @@
         <v>93.41</v>
       </c>
       <c r="F42">
-        <v>388.5</v>
+        <v>404.25</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2668,7 +2668,7 @@
         <v>6.22</v>
       </c>
       <c r="K42">
-        <v>4.1500000000000004</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>8.08</v>
+        <v>8.1</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2688,7 +2688,7 @@
         <v>2053.0500000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>1373.6</v>
+        <v>1377</v>
       </c>
       <c r="G43">
         <v>0.01</v>
@@ -2697,13 +2697,13 @@
         <v>0.437</v>
       </c>
       <c r="I43">
-        <v>18.509</v>
+        <v>18.555</v>
       </c>
       <c r="J43">
         <v>12.07</v>
       </c>
       <c r="K43">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>16.600000000000001</v>
+        <v>16.88</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2723,7 +2723,7 @@
         <v>1846.52</v>
       </c>
       <c r="F44" s="2">
-        <v>2324</v>
+        <v>2363.1999999999998</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2732,13 +2732,13 @@
         <v>1.101</v>
       </c>
       <c r="I44">
-        <v>15.084</v>
+        <v>15.337999999999999</v>
       </c>
       <c r="J44">
         <v>13.18</v>
       </c>
       <c r="K44">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,7 +2761,7 @@
         <v>1382.4</v>
       </c>
       <c r="G45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H45">
         <v>0.317</v>
@@ -2781,7 +2781,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C46">
         <v>55</v>
@@ -2793,7 +2793,7 @@
         <v>824.47</v>
       </c>
       <c r="F46">
-        <v>880</v>
+        <v>885.5</v>
       </c>
       <c r="G46">
         <v>0.01</v>
@@ -2802,13 +2802,13 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="I46">
-        <v>19.927</v>
+        <v>20.052</v>
       </c>
       <c r="J46">
         <v>14.99</v>
       </c>
       <c r="K46">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>24.18</v>
+        <v>24.78</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2828,7 +2828,7 @@
         <v>289.64999999999998</v>
       </c>
       <c r="F47">
-        <v>544.04999999999995</v>
+        <v>557.54999999999995</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2837,13 +2837,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I47">
-        <v>6045</v>
+        <v>6195</v>
       </c>
       <c r="J47">
         <v>12.87</v>
       </c>
       <c r="K47">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2863,7 +2863,7 @@
         <v>107.08</v>
       </c>
       <c r="F48">
-        <v>436.26</v>
+        <v>447.57</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -2878,7 +2878,7 @@
         <v>0.47</v>
       </c>
       <c r="K48">
-        <v>4.07</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>22.78</v>
+        <v>22.9</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2898,7 +2898,7 @@
         <v>2586.1</v>
       </c>
       <c r="F49" s="2">
-        <v>2278</v>
+        <v>2290</v>
       </c>
       <c r="G49">
         <v>0.02</v>
@@ -2907,7 +2907,7 @@
         <v>1.296</v>
       </c>
       <c r="I49">
-        <v>17.577000000000002</v>
+        <v>17.669</v>
       </c>
       <c r="J49">
         <v>25.86</v>
@@ -2956,7 +2956,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>39</v>
+        <v>38.75</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2968,7 +2968,7 @@
         <v>2349</v>
       </c>
       <c r="F51" s="2">
-        <v>5967</v>
+        <v>5928.75</v>
       </c>
       <c r="G51">
         <v>0.06</v>
@@ -2977,13 +2977,13 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="I51">
-        <v>14.323</v>
+        <v>14.231</v>
       </c>
       <c r="J51">
         <v>15.35</v>
       </c>
       <c r="K51">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>49.95</v>
+        <v>50.1</v>
       </c>
       <c r="C52">
         <v>110.559</v>
@@ -3003,7 +3003,7 @@
         <v>2770.28</v>
       </c>
       <c r="F52" s="2">
-        <v>5522.42</v>
+        <v>5539.01</v>
       </c>
       <c r="G52">
         <v>0.06</v>
@@ -3012,7 +3012,7 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="I52">
-        <v>17.192</v>
+        <v>17.244</v>
       </c>
       <c r="J52">
         <v>25.05</v>
@@ -3026,7 +3026,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>27.95</v>
+        <v>28.85</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3038,7 +3038,7 @@
         <v>3398</v>
       </c>
       <c r="F53" s="2">
-        <v>3913</v>
+        <v>4039</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3047,13 +3047,13 @@
         <v>1.4930000000000001</v>
       </c>
       <c r="I53">
-        <v>18.722000000000001</v>
+        <v>19.324999999999999</v>
       </c>
       <c r="J53">
         <v>24.27</v>
       </c>
       <c r="K53">
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>19.8</v>
+        <v>19.82</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3073,7 +3073,7 @@
         <v>2635.99</v>
       </c>
       <c r="F54" s="2">
-        <v>3118.5</v>
+        <v>3121.65</v>
       </c>
       <c r="G54">
         <v>0.03</v>
@@ -3082,7 +3082,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="I54">
-        <v>24.225000000000001</v>
+        <v>24.248999999999999</v>
       </c>
       <c r="J54">
         <v>16.73</v>
@@ -3096,7 +3096,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>30.35</v>
+        <v>30.7</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3108,7 +3108,7 @@
         <v>2267</v>
       </c>
       <c r="F55" s="2">
-        <v>2610.1</v>
+        <v>2640.2</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3117,13 +3117,13 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="I55">
-        <v>10.785</v>
+        <v>10.909000000000001</v>
       </c>
       <c r="J55">
         <v>26.36</v>
       </c>
       <c r="K55">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3131,7 +3131,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -3143,7 +3143,7 @@
         <v>1192.03</v>
       </c>
       <c r="F56">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="G56">
         <v>0.01</v>
@@ -3152,13 +3152,13 @@
         <v>0.85</v>
       </c>
       <c r="I56">
-        <v>12.472</v>
+        <v>12.707000000000001</v>
       </c>
       <c r="J56">
         <v>13.24</v>
       </c>
       <c r="K56">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3201,7 +3201,7 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>31.35</v>
+        <v>31.6</v>
       </c>
       <c r="C58">
         <v>120</v>
@@ -3213,7 +3213,7 @@
         <v>1856.93</v>
       </c>
       <c r="F58" s="2">
-        <v>3762</v>
+        <v>3792</v>
       </c>
       <c r="G58">
         <v>0.04</v>
@@ -3222,13 +3222,13 @@
         <v>2.6339999999999999</v>
       </c>
       <c r="I58">
-        <v>11.904</v>
+        <v>11.999000000000001</v>
       </c>
       <c r="J58">
         <v>15.47</v>
       </c>
       <c r="K58">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3245,22 +3245,22 @@
         <v>340669.09</v>
       </c>
       <c r="F59" s="2">
-        <v>547537.14</v>
+        <v>557631.42000000004</v>
       </c>
       <c r="G59">
-        <v>5.96</v>
+        <v>6.04</v>
       </c>
       <c r="H59">
         <v>0.752</v>
       </c>
       <c r="I59">
-        <v>37.159999999999997</v>
+        <v>37.851999999999997</v>
       </c>
       <c r="J59">
         <v>22.74</v>
       </c>
       <c r="K59">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>146</v>
+        <v>151.4</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3280,7 +3280,7 @@
         <v>2700.53</v>
       </c>
       <c r="F60" s="2">
-        <v>11680</v>
+        <v>12112</v>
       </c>
       <c r="G60">
         <v>0.13</v>
@@ -3289,13 +3289,13 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="I60">
-        <v>19.100999999999999</v>
+        <v>19.808</v>
       </c>
       <c r="J60">
         <v>33.75</v>
       </c>
       <c r="K60">
-        <v>4.32</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3315,7 +3315,7 @@
         <v>825.67</v>
       </c>
       <c r="F61" s="2">
-        <v>1459.65</v>
+        <v>1465.2</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3324,13 +3324,13 @@
         <v>1.379</v>
       </c>
       <c r="I61">
-        <v>19.07</v>
+        <v>19.141999999999999</v>
       </c>
       <c r="J61">
         <v>14.87</v>
       </c>
       <c r="K61">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>46.3</v>
+        <v>48.4</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3350,7 +3350,7 @@
         <v>964.6</v>
       </c>
       <c r="F62" s="2">
-        <v>2778</v>
+        <v>2904</v>
       </c>
       <c r="G62">
         <v>0.03</v>
@@ -3359,13 +3359,13 @@
         <v>1.89</v>
       </c>
       <c r="I62">
-        <v>24.498999999999999</v>
+        <v>25.61</v>
       </c>
       <c r="J62">
         <v>16.07</v>
       </c>
       <c r="K62">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3373,7 +3373,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>7.09</v>
+        <v>7.52</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3385,7 +3385,7 @@
         <v>930.83</v>
       </c>
       <c r="F63" s="2">
-        <v>7976.25</v>
+        <v>8460</v>
       </c>
       <c r="G63">
         <v>0.09</v>
@@ -3394,13 +3394,13 @@
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>17.727</v>
+        <v>18.802</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>8.56</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3408,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>25.95</v>
+        <v>27.1</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3420,7 +3420,7 @@
         <v>1444.71</v>
       </c>
       <c r="F64" s="2">
-        <v>2595</v>
+        <v>2710</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3435,7 +3435,7 @@
         <v>14.44</v>
       </c>
       <c r="K64">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>128.80000000000001</v>
+        <v>131.6</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>859.35</v>
+        <v>878.04</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3478,7 +3478,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>19.3</v>
+        <v>19.64</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3490,7 +3490,7 @@
         <v>908.22</v>
       </c>
       <c r="F66">
-        <v>859.82</v>
+        <v>874.96</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3505,7 +3505,7 @@
         <v>20.38</v>
       </c>
       <c r="K66">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>48.3</v>
+        <v>51.3</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3525,22 +3525,22 @@
         <v>1078.5999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>3088.59</v>
+        <v>3280.43</v>
       </c>
       <c r="G67">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H67">
         <v>4.2439999999999998</v>
       </c>
       <c r="I67">
-        <v>11.38</v>
+        <v>12.087</v>
       </c>
       <c r="J67">
         <v>16.86</v>
       </c>
       <c r="K67">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>30.9</v>
+        <v>30.55</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3560,7 +3560,7 @@
         <v>490.64</v>
       </c>
       <c r="F68" s="2">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3569,13 +3569,13 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="I68">
-        <v>14.673999999999999</v>
+        <v>14.507</v>
       </c>
       <c r="J68">
         <v>12.26</v>
       </c>
       <c r="K68">
-        <v>2.5099999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.0699999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3595,7 +3595,7 @@
         <v>409.58</v>
       </c>
       <c r="F69" s="2">
-        <v>1242</v>
+        <v>1278</v>
       </c>
       <c r="G69">
         <v>0.01</v>
@@ -3610,7 +3610,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3618,7 +3618,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>2.0099999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3630,7 +3630,7 @@
         <v>123.96</v>
       </c>
       <c r="F70">
-        <v>390.74</v>
+        <v>404.35</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3645,7 +3645,7 @@
         <v>0.63</v>
       </c>
       <c r="K70">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3653,7 +3653,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>25.85</v>
+        <v>26.8</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3665,7 +3665,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="F71">
-        <v>310.2</v>
+        <v>321.60000000000002</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3680,7 +3680,7 @@
         <v>12.81</v>
       </c>
       <c r="K71">
-        <v>2.0099999999999998</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3688,7 +3688,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>129.4</v>
+        <v>134.6</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3700,22 +3700,22 @@
         <v>2899.91</v>
       </c>
       <c r="F72" s="2">
-        <v>19410</v>
+        <v>20190</v>
       </c>
       <c r="G72">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H72">
         <v>6.0270000000000001</v>
       </c>
       <c r="I72">
-        <v>21.468</v>
+        <v>22.331</v>
       </c>
       <c r="J72">
         <v>19.329999999999998</v>
       </c>
       <c r="K72">
-        <v>6.69</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>39.9</v>
+        <v>41.6</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3735,7 +3735,7 @@
         <v>528.99</v>
       </c>
       <c r="F73" s="2">
-        <v>1596</v>
+        <v>1664</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3744,13 +3744,13 @@
         <v>2.0289999999999999</v>
       </c>
       <c r="I73">
-        <v>19.667000000000002</v>
+        <v>20.504999999999999</v>
       </c>
       <c r="J73">
         <v>13.22</v>
       </c>
       <c r="K73">
-        <v>3.01</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3758,7 +3758,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>63.3</v>
+        <v>64.3</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3770,7 +3770,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="F74">
-        <v>791.25</v>
+        <v>803.75</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3779,13 +3779,13 @@
         <v>1.913</v>
       </c>
       <c r="I74">
-        <v>33.091999999999999</v>
+        <v>33.615000000000002</v>
       </c>
       <c r="J74">
         <v>12.89</v>
       </c>
       <c r="K74">
-        <v>4.9000000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3802,22 +3802,22 @@
         <v>13621.27</v>
       </c>
       <c r="F75" s="2">
-        <v>56272.85</v>
+        <v>58568.33</v>
       </c>
       <c r="G75">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H75">
         <v>0.94699999999999995</v>
       </c>
       <c r="I75">
-        <v>19.117999999999999</v>
+        <v>19.914999999999999</v>
       </c>
       <c r="J75">
         <v>5.27</v>
       </c>
       <c r="K75">
-        <v>4.13</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3825,7 +3825,7 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>4.7300000000000004</v>
+        <v>4.78</v>
       </c>
       <c r="C76">
         <v>475</v>
@@ -3837,7 +3837,7 @@
         <v>613.96</v>
       </c>
       <c r="F76" s="2">
-        <v>2246.75</v>
+        <v>2270.5</v>
       </c>
       <c r="G76">
         <v>0.02</v>
@@ -3846,13 +3846,13 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="I76">
-        <v>22.213999999999999</v>
+        <v>22.449000000000002</v>
       </c>
       <c r="J76">
         <v>1.29</v>
       </c>
       <c r="K76">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>2.78</v>
+        <v>2.87</v>
       </c>
       <c r="C77">
         <v>175</v>
@@ -3872,7 +3872,7 @@
         <v>167.63</v>
       </c>
       <c r="F77">
-        <v>486.5</v>
+        <v>502.25</v>
       </c>
       <c r="G77">
         <v>0.01</v>
@@ -3887,7 +3887,7 @@
         <v>0.95</v>
       </c>
       <c r="K77">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>133.19999999999999</v>
+        <v>136.6</v>
       </c>
       <c r="C78">
         <v>15</v>
@@ -3907,7 +3907,7 @@
         <v>410.42</v>
       </c>
       <c r="F78" s="2">
-        <v>1998</v>
+        <v>2049</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -3916,13 +3916,13 @@
         <v>6.5970000000000004</v>
       </c>
       <c r="I78">
-        <v>20.192</v>
+        <v>20.707000000000001</v>
       </c>
       <c r="J78">
         <v>27.36</v>
       </c>
       <c r="K78">
-        <v>4.8600000000000003</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3930,7 +3930,7 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>5.74</v>
+        <v>5.92</v>
       </c>
       <c r="C79">
         <v>400</v>
@@ -3942,22 +3942,22 @@
         <v>586.20000000000005</v>
       </c>
       <c r="F79" s="2">
-        <v>2296</v>
+        <v>2368</v>
       </c>
       <c r="G79">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H79">
         <v>0.32200000000000001</v>
       </c>
       <c r="I79">
-        <v>17.838999999999999</v>
+        <v>18.399000000000001</v>
       </c>
       <c r="J79">
         <v>1.46</v>
       </c>
       <c r="K79">
-        <v>3.91</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3965,7 +3965,7 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>49.05</v>
+        <v>51.6</v>
       </c>
       <c r="C80">
         <v>26.5</v>
@@ -3977,7 +3977,7 @@
         <v>375.3</v>
       </c>
       <c r="F80" s="2">
-        <v>1299.83</v>
+        <v>1367.4</v>
       </c>
       <c r="G80">
         <v>0.01</v>
@@ -3986,13 +3986,13 @@
         <v>3.528</v>
       </c>
       <c r="I80">
-        <v>13.901</v>
+        <v>14.624000000000001</v>
       </c>
       <c r="J80">
         <v>14.16</v>
       </c>
       <c r="K80">
-        <v>3.46</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>10.1</v>
+        <v>10.38</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4012,7 +4012,7 @@
         <v>257.07</v>
       </c>
       <c r="F81">
-        <v>606</v>
+        <v>622.79999999999995</v>
       </c>
       <c r="G81">
         <v>0.01</v>
@@ -4027,7 +4027,7 @@
         <v>4.28</v>
       </c>
       <c r="K81">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>109.2</v>
+        <v>112.6</v>
       </c>
       <c r="C82">
         <v>82</v>
@@ -4047,7 +4047,7 @@
         <v>1432.29</v>
       </c>
       <c r="F82" s="2">
-        <v>8954.4</v>
+        <v>9233.2000000000007</v>
       </c>
       <c r="G82">
         <v>0.1</v>
@@ -4056,13 +4056,13 @@
         <v>4.3449999999999998</v>
       </c>
       <c r="I82">
-        <v>25.13</v>
+        <v>25.911999999999999</v>
       </c>
       <c r="J82">
         <v>17.46</v>
       </c>
       <c r="K82">
-        <v>6.25</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4079,22 +4079,22 @@
         <v>3842.87</v>
       </c>
       <c r="F83" s="2">
-        <v>17887.48</v>
+        <v>18413.150000000001</v>
       </c>
       <c r="G83">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H83">
         <v>0.45</v>
       </c>
       <c r="I83">
-        <v>21.57</v>
+        <v>22.204000000000001</v>
       </c>
       <c r="J83">
         <v>3.12</v>
       </c>
       <c r="K83">
-        <v>4.6500000000000004</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4102,7 +4102,7 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>27.7</v>
+        <v>28.05</v>
       </c>
       <c r="C84">
         <v>81.599999999999994</v>
@@ -4114,7 +4114,7 @@
         <v>1494</v>
       </c>
       <c r="F84" s="2">
-        <v>2260.3200000000002</v>
+        <v>2288.88</v>
       </c>
       <c r="G84">
         <v>0.02</v>
@@ -4123,13 +4123,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I84">
-        <v>50.116999999999997</v>
+        <v>50.750999999999998</v>
       </c>
       <c r="J84">
         <v>18.3</v>
       </c>
       <c r="K84">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>44.45</v>
+        <v>44.8</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -4149,7 +4149,7 @@
         <v>2423.3200000000002</v>
       </c>
       <c r="F85" s="2">
-        <v>8356.6</v>
+        <v>8422.4</v>
       </c>
       <c r="G85">
         <v>0.09</v>
@@ -4158,13 +4158,13 @@
         <v>1.88</v>
       </c>
       <c r="I85">
-        <v>23.638999999999999</v>
+        <v>23.824999999999999</v>
       </c>
       <c r="J85">
         <v>12.89</v>
       </c>
       <c r="K85">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>12.84</v>
+        <v>13.08</v>
       </c>
       <c r="C86">
         <v>125</v>
@@ -4184,7 +4184,7 @@
         <v>897.57</v>
       </c>
       <c r="F86" s="2">
-        <v>1605</v>
+        <v>1635</v>
       </c>
       <c r="G86">
         <v>0.02</v>
@@ -4193,13 +4193,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="I86">
-        <v>36.752000000000002</v>
+        <v>37.439</v>
       </c>
       <c r="J86">
         <v>7.18</v>
       </c>
       <c r="K86">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>69.2</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C87">
         <v>78.165999999999997</v>
@@ -4219,7 +4219,7 @@
         <v>2821.3</v>
       </c>
       <c r="F87" s="2">
-        <v>5409.09</v>
+        <v>5385.64</v>
       </c>
       <c r="G87">
         <v>0.06</v>
@@ -4228,13 +4228,13 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="I87">
-        <v>16.559000000000001</v>
+        <v>16.486999999999998</v>
       </c>
       <c r="J87">
         <v>36.090000000000003</v>
       </c>
       <c r="K87">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>63.7</v>
+        <v>66</v>
       </c>
       <c r="C88">
         <v>43</v>
@@ -4254,7 +4254,7 @@
         <v>850.43</v>
       </c>
       <c r="F88" s="2">
-        <v>2739.1</v>
+        <v>2838</v>
       </c>
       <c r="G88">
         <v>0.03</v>
@@ -4263,13 +4263,13 @@
         <v>4.3630000000000004</v>
       </c>
       <c r="I88">
-        <v>14.601000000000001</v>
+        <v>15.128</v>
       </c>
       <c r="J88">
         <v>19.77</v>
       </c>
       <c r="K88">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4277,7 +4277,7 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>57.4</v>
+        <v>58</v>
       </c>
       <c r="C89">
         <v>55</v>
@@ -4289,7 +4289,7 @@
         <v>1265.3900000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>3157</v>
+        <v>3190</v>
       </c>
       <c r="G89">
         <v>0.03</v>
@@ -4298,13 +4298,13 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="I89">
-        <v>16.725999999999999</v>
+        <v>16.901</v>
       </c>
       <c r="J89">
         <v>23</v>
       </c>
       <c r="K89">
-        <v>2.4900000000000002</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>165.2</v>
+        <v>171.2</v>
       </c>
       <c r="C90">
         <v>80</v>
@@ -4324,22 +4324,22 @@
         <v>1449</v>
       </c>
       <c r="F90" s="2">
-        <v>13216</v>
+        <v>13696</v>
       </c>
       <c r="G90">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H90">
         <v>7.5759999999999996</v>
       </c>
       <c r="I90">
-        <v>21.805</v>
+        <v>22.597000000000001</v>
       </c>
       <c r="J90">
         <v>18.11</v>
       </c>
       <c r="K90">
-        <v>9.1199999999999992</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4356,22 +4356,22 @@
         <v>11201.01</v>
       </c>
       <c r="F91" s="2">
-        <v>36743.11</v>
+        <v>37455.919999999998</v>
       </c>
       <c r="G91">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H91">
         <v>2.6909999999999998</v>
       </c>
       <c r="I91">
-        <v>20.98</v>
+        <v>21.387</v>
       </c>
       <c r="J91">
         <v>17.21</v>
       </c>
       <c r="K91">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4379,7 +4379,7 @@
         <v>102</v>
       </c>
       <c r="B92">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C92">
         <v>10.897</v>
@@ -4391,7 +4391,7 @@
         <v>39.29</v>
       </c>
       <c r="F92">
-        <v>817.28</v>
+        <v>828.17</v>
       </c>
       <c r="G92">
         <v>0.01</v>
@@ -4406,7 +4406,7 @@
         <v>3.6</v>
       </c>
       <c r="K92">
-        <v>20.8</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4414,7 +4414,7 @@
         <v>103</v>
       </c>
       <c r="B93">
-        <v>23.6</v>
+        <v>24.84</v>
       </c>
       <c r="C93">
         <v>13.5</v>
@@ -4426,7 +4426,7 @@
         <v>64.38</v>
       </c>
       <c r="F93">
-        <v>318.60000000000002</v>
+        <v>335.34</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -4441,7 +4441,7 @@
         <v>4.76</v>
       </c>
       <c r="K93">
-        <v>4.9400000000000004</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4449,7 +4449,7 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>12.3</v>
+        <v>12.54</v>
       </c>
       <c r="C94">
         <v>81.25</v>
@@ -4461,7 +4461,7 @@
         <v>1043.97</v>
       </c>
       <c r="F94" s="2">
-        <v>999.38</v>
+        <v>1018.88</v>
       </c>
       <c r="G94">
         <v>0.01</v>
@@ -4476,7 +4476,7 @@
         <v>12.84</v>
       </c>
       <c r="K94">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>105</v>
       </c>
       <c r="B95">
-        <v>12.06</v>
+        <v>12.28</v>
       </c>
       <c r="C95">
         <v>57.5</v>
@@ -4496,7 +4496,7 @@
         <v>293.3</v>
       </c>
       <c r="F95">
-        <v>693.45</v>
+        <v>706.1</v>
       </c>
       <c r="G95">
         <v>0.01</v>
@@ -4511,7 +4511,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K95">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4519,7 +4519,7 @@
         <v>106</v>
       </c>
       <c r="B96">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="C96">
         <v>400</v>
@@ -4531,7 +4531,7 @@
         <v>614.85</v>
       </c>
       <c r="F96" s="2">
-        <v>1500</v>
+        <v>1524</v>
       </c>
       <c r="G96">
         <v>0.02</v>
@@ -4540,13 +4540,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I96">
-        <v>14.034000000000001</v>
+        <v>14.257999999999999</v>
       </c>
       <c r="J96">
         <v>1.53</v>
       </c>
       <c r="K96">
-        <v>2.4300000000000002</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4554,7 +4554,7 @@
         <v>107</v>
       </c>
       <c r="B97">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C97">
         <v>275</v>
@@ -4566,7 +4566,7 @@
         <v>465.35</v>
       </c>
       <c r="F97">
-        <v>880</v>
+        <v>907.5</v>
       </c>
       <c r="G97">
         <v>0.01</v>
@@ -4575,13 +4575,13 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I97">
-        <v>76.521000000000001</v>
+        <v>78.912999999999997</v>
       </c>
       <c r="J97">
         <v>1.69</v>
       </c>
       <c r="K97">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>2521.14</v>
       </c>
       <c r="F98" s="2">
-        <v>5208.71</v>
+        <v>5319.99</v>
       </c>
       <c r="G98">
         <v>0.06</v>
@@ -4607,13 +4607,13 @@
         <v>-0.121</v>
       </c>
       <c r="I98">
-        <v>20.105</v>
+        <v>20.54</v>
       </c>
       <c r="J98">
         <v>3.01</v>
       </c>
       <c r="K98">
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4621,7 +4621,7 @@
         <v>109</v>
       </c>
       <c r="B99">
-        <v>22.28</v>
+        <v>22.58</v>
       </c>
       <c r="C99">
         <v>300</v>
@@ -4633,7 +4633,7 @@
         <v>5992</v>
       </c>
       <c r="F99" s="2">
-        <v>6684</v>
+        <v>6774</v>
       </c>
       <c r="G99">
         <v>7.0000000000000007E-2</v>
@@ -4648,7 +4648,7 @@
         <v>19.97</v>
       </c>
       <c r="K99">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
         <v>110</v>
       </c>
       <c r="B100">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="C100">
         <v>315</v>
@@ -4668,7 +4668,7 @@
         <v>191.56</v>
       </c>
       <c r="F100">
-        <v>595.35</v>
+        <v>601.65</v>
       </c>
       <c r="G100">
         <v>0.01</v>
@@ -4683,7 +4683,7 @@
         <v>0.6</v>
       </c>
       <c r="K100">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4691,7 +4691,7 @@
         <v>111</v>
       </c>
       <c r="B101">
-        <v>123.2</v>
+        <v>123.4</v>
       </c>
       <c r="C101">
         <v>52.383000000000003</v>
@@ -4703,7 +4703,7 @@
         <v>1238</v>
       </c>
       <c r="F101" s="2">
-        <v>6453.59</v>
+        <v>6464.06</v>
       </c>
       <c r="G101">
         <v>7.0000000000000007E-2</v>
@@ -4712,13 +4712,13 @@
         <v>8.266</v>
       </c>
       <c r="I101">
-        <v>14.904</v>
+        <v>14.928000000000001</v>
       </c>
       <c r="J101">
         <v>23.63</v>
       </c>
       <c r="K101">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4726,7 +4726,7 @@
         <v>112</v>
       </c>
       <c r="B102">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="C102" s="2">
         <v>1156.472</v>
@@ -4738,7 +4738,7 @@
         <v>504.42</v>
       </c>
       <c r="F102">
-        <v>855.79</v>
+        <v>867.35</v>
       </c>
       <c r="G102">
         <v>0.01</v>
@@ -4747,13 +4747,13 @@
         <v>1E-3</v>
       </c>
       <c r="I102">
-        <v>815.03800000000001</v>
+        <v>826.04700000000003</v>
       </c>
       <c r="J102">
         <v>0.43</v>
       </c>
       <c r="K102">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4761,7 +4761,7 @@
         <v>113</v>
       </c>
       <c r="B103">
-        <v>24.06</v>
+        <v>24.32</v>
       </c>
       <c r="C103">
         <v>65</v>
@@ -4773,7 +4773,7 @@
         <v>522.6</v>
       </c>
       <c r="F103" s="2">
-        <v>1563.9</v>
+        <v>1580.8</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4782,13 +4782,13 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I103">
-        <v>91.509</v>
+        <v>92.498000000000005</v>
       </c>
       <c r="J103">
         <v>8.0399999999999991</v>
       </c>
       <c r="K103">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
         <v>114</v>
       </c>
       <c r="B104">
-        <v>148.80000000000001</v>
+        <v>155.4</v>
       </c>
       <c r="C104">
         <v>43</v>
@@ -4808,7 +4808,7 @@
         <v>781.31</v>
       </c>
       <c r="F104" s="2">
-        <v>6398.4</v>
+        <v>6682.2</v>
       </c>
       <c r="G104">
         <v>7.0000000000000007E-2</v>
@@ -4817,13 +4817,13 @@
         <v>3.9769999999999999</v>
       </c>
       <c r="I104">
-        <v>37.417000000000002</v>
+        <v>39.076999999999998</v>
       </c>
       <c r="J104">
         <v>18.16</v>
       </c>
       <c r="K104">
-        <v>8.18</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4831,7 +4831,7 @@
         <v>115</v>
       </c>
       <c r="B105">
-        <v>61.6</v>
+        <v>63.4</v>
       </c>
       <c r="C105">
         <v>42.087000000000003</v>
@@ -4843,7 +4843,7 @@
         <v>789.11</v>
       </c>
       <c r="F105" s="2">
-        <v>2592.56</v>
+        <v>2668.32</v>
       </c>
       <c r="G105">
         <v>0.03</v>
@@ -4852,13 +4852,13 @@
         <v>1.669</v>
       </c>
       <c r="I105">
-        <v>36.899000000000001</v>
+        <v>37.976999999999997</v>
       </c>
       <c r="J105">
         <v>18.739999999999998</v>
       </c>
       <c r="K105">
-        <v>3.28</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,7 @@
         <v>116</v>
       </c>
       <c r="B106">
-        <v>20.88</v>
+        <v>21.12</v>
       </c>
       <c r="C106">
         <v>64.680000000000007</v>
@@ -4878,7 +4878,7 @@
         <v>906.39</v>
       </c>
       <c r="F106" s="2">
-        <v>1350.52</v>
+        <v>1366.04</v>
       </c>
       <c r="G106">
         <v>0.01</v>
@@ -4893,7 +4893,7 @@
         <v>14.01</v>
       </c>
       <c r="K106">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
         <v>117</v>
       </c>
       <c r="B107">
-        <v>12.84</v>
+        <v>13.38</v>
       </c>
       <c r="C107">
         <v>15.808</v>
@@ -4913,7 +4913,7 @@
         <v>73.14</v>
       </c>
       <c r="F107">
-        <v>202.97</v>
+        <v>211.51</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
@@ -4928,7 +4928,7 @@
         <v>4.62</v>
       </c>
       <c r="K107">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>118</v>
       </c>
       <c r="B108">
-        <v>100</v>
+        <v>102.4</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -4948,7 +4948,7 @@
         <v>23.69</v>
       </c>
       <c r="F108">
-        <v>300</v>
+        <v>307.2</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -4957,13 +4957,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="I108">
-        <v>209.79</v>
+        <v>214.82499999999999</v>
       </c>
       <c r="J108">
         <v>7.89</v>
       </c>
       <c r="K108">
-        <v>12.66</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4971,7 +4971,7 @@
         <v>119</v>
       </c>
       <c r="B109">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C109">
         <v>25.5</v>
@@ -4983,7 +4983,7 @@
         <v>284.67</v>
       </c>
       <c r="F109" s="2">
-        <v>1415.25</v>
+        <v>1417.8</v>
       </c>
       <c r="G109">
         <v>0.02</v>
@@ -4992,13 +4992,13 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="I109">
-        <v>27.788</v>
+        <v>27.838000000000001</v>
       </c>
       <c r="J109">
         <v>11.16</v>
       </c>
       <c r="K109">
-        <v>4.97</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5006,7 +5006,7 @@
         <v>120</v>
       </c>
       <c r="B110">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="C110" s="2">
         <v>8423.6329999999998</v>
@@ -5018,7 +5018,7 @@
         <v>1608.2</v>
       </c>
       <c r="F110" s="2">
-        <v>17184.21</v>
+        <v>17521.16</v>
       </c>
       <c r="G110">
         <v>0.19</v>
@@ -5027,13 +5027,13 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I110">
-        <v>28.047000000000001</v>
+        <v>28.597000000000001</v>
       </c>
       <c r="J110">
         <v>0.19</v>
       </c>
       <c r="K110">
-        <v>10.68</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5041,7 +5041,7 @@
         <v>121</v>
       </c>
       <c r="B111">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -5053,7 +5053,7 @@
         <v>74.260000000000005</v>
       </c>
       <c r="F111">
-        <v>535.5</v>
+        <v>542.5</v>
       </c>
       <c r="G111">
         <v>0.01</v>
@@ -5062,13 +5062,13 @@
         <v>0.154</v>
       </c>
       <c r="I111">
-        <v>99.534999999999997</v>
+        <v>100.836</v>
       </c>
       <c r="J111">
         <v>2.12</v>
       </c>
       <c r="K111">
-        <v>7.21</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
         <v>122</v>
       </c>
       <c r="B112">
-        <v>25.5</v>
+        <v>25.95</v>
       </c>
       <c r="C112">
         <v>209.83600000000001</v>
@@ -5088,7 +5088,7 @@
         <v>1277.28</v>
       </c>
       <c r="F112" s="2">
-        <v>5350.82</v>
+        <v>5445.24</v>
       </c>
       <c r="G112">
         <v>0.06</v>
@@ -5097,13 +5097,13 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="I112">
-        <v>25.376000000000001</v>
+        <v>25.823</v>
       </c>
       <c r="J112">
         <v>6.08</v>
       </c>
       <c r="K112">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5120,7 +5120,7 @@
         <v>14266.63</v>
       </c>
       <c r="F113" s="2">
-        <v>51482.86</v>
+        <v>52449.83</v>
       </c>
       <c r="G113">
         <v>0.56999999999999995</v>
@@ -5129,13 +5129,13 @@
         <v>0.111</v>
       </c>
       <c r="I113">
-        <v>27.102</v>
+        <v>27.64</v>
       </c>
       <c r="J113">
         <v>1.33</v>
       </c>
       <c r="K113">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5143,7 +5143,7 @@
         <v>124</v>
       </c>
       <c r="B114">
-        <v>15.12</v>
+        <v>15.22</v>
       </c>
       <c r="C114">
         <v>40</v>
@@ -5155,7 +5155,7 @@
         <v>199.72</v>
       </c>
       <c r="F114">
-        <v>604.79999999999995</v>
+        <v>608.79999999999995</v>
       </c>
       <c r="G114">
         <v>0.01</v>
@@ -5170,7 +5170,7 @@
         <v>4.99</v>
       </c>
       <c r="K114">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5178,7 +5178,7 @@
         <v>125</v>
       </c>
       <c r="B115">
-        <v>99.6</v>
+        <v>101</v>
       </c>
       <c r="C115">
         <v>55</v>
@@ -5190,7 +5190,7 @@
         <v>1420.63</v>
       </c>
       <c r="F115" s="2">
-        <v>5478</v>
+        <v>5555</v>
       </c>
       <c r="G115">
         <v>0.06</v>
@@ -5199,13 +5199,13 @@
         <v>3.976</v>
       </c>
       <c r="I115">
-        <v>25.048999999999999</v>
+        <v>25.401</v>
       </c>
       <c r="J115">
         <v>25.82</v>
       </c>
       <c r="K115">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5213,7 +5213,7 @@
         <v>126</v>
       </c>
       <c r="B116">
-        <v>36.950000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C116">
         <v>332.5</v>
@@ -5225,7 +5225,7 @@
         <v>4401.58</v>
       </c>
       <c r="F116" s="2">
-        <v>12285.88</v>
+        <v>11903.5</v>
       </c>
       <c r="G116">
         <v>0.13</v>
@@ -5234,13 +5234,13 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="I116">
-        <v>21.616</v>
+        <v>20.943000000000001</v>
       </c>
       <c r="J116">
         <v>13.23</v>
       </c>
       <c r="K116">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5248,7 +5248,7 @@
         <v>127</v>
       </c>
       <c r="B117">
-        <v>155.6</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="C117">
         <v>80</v>
@@ -5260,7 +5260,7 @@
         <v>3251.98</v>
       </c>
       <c r="F117" s="2">
-        <v>12448</v>
+        <v>12784</v>
       </c>
       <c r="G117">
         <v>0.14000000000000001</v>
@@ -5269,13 +5269,13 @@
         <v>1.8220000000000001</v>
       </c>
       <c r="I117">
-        <v>85.4</v>
+        <v>87.704999999999998</v>
       </c>
       <c r="J117">
         <v>40.64</v>
       </c>
       <c r="K117">
-        <v>3.82</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
         <v>9273.91</v>
       </c>
       <c r="F118" s="2">
-        <v>30816.68</v>
+        <v>30851.3</v>
       </c>
       <c r="G118">
         <v>0.34</v>
@@ -5301,13 +5301,13 @@
         <v>1.7789999999999999</v>
       </c>
       <c r="I118">
-        <v>32.387999999999998</v>
+        <v>32.420999999999999</v>
       </c>
       <c r="J118">
         <v>18.27</v>
       </c>
       <c r="K118">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5315,7 +5315,7 @@
         <v>129</v>
       </c>
       <c r="B119">
-        <v>87.3</v>
+        <v>86.9</v>
       </c>
       <c r="C119">
         <v>80</v>
@@ -5327,7 +5327,7 @@
         <v>1569.05</v>
       </c>
       <c r="F119" s="2">
-        <v>6984</v>
+        <v>6952</v>
       </c>
       <c r="G119">
         <v>0.08</v>
@@ -5336,13 +5336,13 @@
         <v>6.8</v>
       </c>
       <c r="I119">
-        <v>12.837</v>
+        <v>12.778</v>
       </c>
       <c r="J119">
         <v>19.61</v>
       </c>
       <c r="K119">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>130</v>
       </c>
       <c r="B120">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="C120">
         <v>36</v>
@@ -5362,7 +5362,7 @@
         <v>331.15</v>
       </c>
       <c r="F120" s="2">
-        <v>950.4</v>
+        <v>968.4</v>
       </c>
       <c r="G120">
         <v>0.01</v>
@@ -5377,7 +5377,7 @@
         <v>9.19</v>
       </c>
       <c r="K120">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5385,7 +5385,7 @@
         <v>131</v>
       </c>
       <c r="B121">
-        <v>57</v>
+        <v>58.7</v>
       </c>
       <c r="C121">
         <v>70</v>
@@ -5397,7 +5397,7 @@
         <v>853.88</v>
       </c>
       <c r="F121" s="2">
-        <v>3990</v>
+        <v>4109</v>
       </c>
       <c r="G121">
         <v>0.04</v>
@@ -5406,13 +5406,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I121">
-        <v>103.663</v>
+        <v>106.755</v>
       </c>
       <c r="J121">
         <v>12.19</v>
       </c>
       <c r="K121">
-        <v>4.67</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5420,7 +5420,7 @@
         <v>132</v>
       </c>
       <c r="B122">
-        <v>5.21</v>
+        <v>5.3</v>
       </c>
       <c r="C122">
         <v>101.25</v>
@@ -5432,7 +5432,7 @@
         <v>207.79</v>
       </c>
       <c r="F122">
-        <v>527.51</v>
+        <v>536.63</v>
       </c>
       <c r="G122">
         <v>0.01</v>
@@ -5441,13 +5441,13 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="I122">
-        <v>22.523</v>
+        <v>22.913</v>
       </c>
       <c r="J122">
         <v>2.0499999999999998</v>
       </c>
       <c r="K122">
-        <v>2.5299999999999998</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5455,7 +5455,7 @@
         <v>133</v>
       </c>
       <c r="B123">
-        <v>12.06</v>
+        <v>12.22</v>
       </c>
       <c r="C123" s="2">
         <v>1200</v>
@@ -5467,7 +5467,7 @@
         <v>1686.2</v>
       </c>
       <c r="F123" s="2">
-        <v>14472</v>
+        <v>14664</v>
       </c>
       <c r="G123">
         <v>0.16</v>
@@ -5476,13 +5476,13 @@
         <v>0.81</v>
       </c>
       <c r="I123">
-        <v>14.89</v>
+        <v>15.087</v>
       </c>
       <c r="J123">
         <v>1.4</v>
       </c>
       <c r="K123">
-        <v>8.58</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5490,7 +5490,7 @@
         <v>134</v>
       </c>
       <c r="B124">
-        <v>34.5</v>
+        <v>35.9</v>
       </c>
       <c r="C124">
         <v>20</v>
@@ -5502,7 +5502,7 @@
         <v>240.19</v>
       </c>
       <c r="F124">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="G124">
         <v>0.01</v>
@@ -5511,13 +5511,13 @@
         <v>1.23</v>
       </c>
       <c r="I124">
-        <v>28.06</v>
+        <v>29.198</v>
       </c>
       <c r="J124">
         <v>12</v>
       </c>
       <c r="K124">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
         <v>135</v>
       </c>
       <c r="B125">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
       <c r="C125">
         <v>350</v>
@@ -5537,7 +5537,7 @@
         <v>474.37</v>
       </c>
       <c r="F125" s="2">
-        <v>2485</v>
+        <v>2499</v>
       </c>
       <c r="G125">
         <v>0.03</v>
@@ -5546,13 +5546,13 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="I125">
-        <v>59.908000000000001</v>
+        <v>60.244999999999997</v>
       </c>
       <c r="J125">
         <v>1.35</v>
       </c>
       <c r="K125">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
         <v>136</v>
       </c>
       <c r="B126">
-        <v>29.6</v>
+        <v>30.35</v>
       </c>
       <c r="C126">
         <v>115.5</v>
@@ -5572,7 +5572,7 @@
         <v>400.6</v>
       </c>
       <c r="F126" s="2">
-        <v>3418.8</v>
+        <v>3505.43</v>
       </c>
       <c r="G126">
         <v>0.04</v>
@@ -5581,13 +5581,13 @@
         <v>0.64</v>
       </c>
       <c r="I126">
-        <v>46.218000000000004</v>
+        <v>47.389000000000003</v>
       </c>
       <c r="J126">
         <v>3.46</v>
       </c>
       <c r="K126">
-        <v>8.5299999999999994</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5595,7 +5595,7 @@
         <v>137</v>
       </c>
       <c r="B127">
-        <v>19.059999999999999</v>
+        <v>20.32</v>
       </c>
       <c r="C127">
         <v>114.76600000000001</v>
@@ -5607,10 +5607,10 @@
         <v>32</v>
       </c>
       <c r="F127" s="2">
-        <v>2187.44</v>
+        <v>2332.0500000000002</v>
       </c>
       <c r="G127">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H127" t="s">
         <v>32</v>
@@ -5639,22 +5639,22 @@
         <v>5763.23</v>
       </c>
       <c r="F128" s="2">
-        <v>35705.15</v>
+        <v>36284.51</v>
       </c>
       <c r="G128">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="H128">
         <v>0.82099999999999995</v>
       </c>
       <c r="I128">
-        <v>18.957999999999998</v>
+        <v>19.201000000000001</v>
       </c>
       <c r="J128">
         <v>2.76</v>
       </c>
       <c r="K128">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5662,7 +5662,7 @@
         <v>139</v>
       </c>
       <c r="B129">
-        <v>7.52</v>
+        <v>7.63</v>
       </c>
       <c r="C129">
         <v>900</v>
@@ -5674,7 +5674,7 @@
         <v>1352.04</v>
       </c>
       <c r="F129" s="2">
-        <v>6768</v>
+        <v>6867</v>
       </c>
       <c r="G129">
         <v>7.0000000000000007E-2</v>
@@ -5683,13 +5683,13 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="I129">
-        <v>14.119</v>
+        <v>14.324999999999999</v>
       </c>
       <c r="J129">
         <v>1.5</v>
       </c>
       <c r="K129">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5697,7 +5697,7 @@
         <v>140</v>
       </c>
       <c r="B130">
-        <v>17.079999999999998</v>
+        <v>17.2</v>
       </c>
       <c r="C130">
         <v>45</v>
@@ -5709,7 +5709,7 @@
         <v>690.64</v>
       </c>
       <c r="F130">
-        <v>768.6</v>
+        <v>774</v>
       </c>
       <c r="G130">
         <v>0.01</v>
@@ -5718,13 +5718,13 @@
         <v>0.54</v>
       </c>
       <c r="I130">
-        <v>31.629000000000001</v>
+        <v>31.850999999999999</v>
       </c>
       <c r="J130">
         <v>15.34</v>
       </c>
       <c r="K130">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
         <v>141</v>
       </c>
       <c r="B131">
-        <v>14.3</v>
+        <v>14.82</v>
       </c>
       <c r="C131">
         <v>31.5</v>
@@ -5744,10 +5744,10 @@
         <v>261.01</v>
       </c>
       <c r="F131">
-        <v>450.45</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
+        <v>466.83</v>
+      </c>
+      <c r="G131">
+        <v>0.01</v>
       </c>
       <c r="H131">
         <v>-0.33900000000000002</v>
@@ -5759,7 +5759,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="K131">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5767,7 +5767,7 @@
         <v>142</v>
       </c>
       <c r="B132">
-        <v>34.35</v>
+        <v>35.5</v>
       </c>
       <c r="C132">
         <v>6.5</v>
@@ -5779,7 +5779,7 @@
         <v>20.41</v>
       </c>
       <c r="F132">
-        <v>223.28</v>
+        <v>230.75</v>
       </c>
       <c r="G132" t="s">
         <v>32</v>
@@ -5794,7 +5794,7 @@
         <v>3.14</v>
       </c>
       <c r="K132">
-        <v>10.93</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5802,7 +5802,7 @@
         <v>143</v>
       </c>
       <c r="B133">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="C133" s="2">
         <v>1143</v>
@@ -5814,7 +5814,7 @@
         <v>1357.23</v>
       </c>
       <c r="F133" s="2">
-        <v>6377.94</v>
+        <v>6515.1</v>
       </c>
       <c r="G133">
         <v>7.0000000000000007E-2</v>
@@ -5823,13 +5823,13 @@
         <v>0.25</v>
       </c>
       <c r="I133">
-        <v>22.344999999999999</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="J133">
         <v>1.18</v>
       </c>
       <c r="K133">
-        <v>4.6900000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5837,7 +5837,7 @@
         <v>144</v>
       </c>
       <c r="B134">
-        <v>65.3</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C134">
         <v>60</v>
@@ -5849,7 +5849,7 @@
         <v>1050</v>
       </c>
       <c r="F134" s="2">
-        <v>3918</v>
+        <v>4026</v>
       </c>
       <c r="G134">
         <v>0.04</v>
@@ -5858,13 +5858,13 @@
         <v>3.41</v>
       </c>
       <c r="I134">
-        <v>19.149000000000001</v>
+        <v>19.677</v>
       </c>
       <c r="J134">
         <v>17.5</v>
       </c>
       <c r="K134">
-        <v>3.73</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
         <v>145</v>
       </c>
       <c r="B135">
-        <v>73.8</v>
+        <v>76.2</v>
       </c>
       <c r="C135">
         <v>85</v>
@@ -5884,7 +5884,7 @@
         <v>1496.75</v>
       </c>
       <c r="F135" s="2">
-        <v>6273</v>
+        <v>6477</v>
       </c>
       <c r="G135">
         <v>7.0000000000000007E-2</v>
@@ -5893,13 +5893,13 @@
         <v>4.47</v>
       </c>
       <c r="I135">
-        <v>16.510000000000002</v>
+        <v>17.045999999999999</v>
       </c>
       <c r="J135">
         <v>17.600000000000001</v>
       </c>
       <c r="K135">
-        <v>4.1900000000000004</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5907,7 +5907,7 @@
         <v>146</v>
       </c>
       <c r="B136">
-        <v>123.8</v>
+        <v>126.8</v>
       </c>
       <c r="C136">
         <v>130</v>
@@ -5919,22 +5919,22 @@
         <v>2449.1</v>
       </c>
       <c r="F136" s="2">
-        <v>16094</v>
+        <v>16484</v>
       </c>
       <c r="G136">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H136">
         <v>6.4850000000000003</v>
       </c>
       <c r="I136">
-        <v>19.091000000000001</v>
+        <v>19.553000000000001</v>
       </c>
       <c r="J136">
         <v>18.829999999999998</v>
       </c>
       <c r="K136">
-        <v>6.57</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5951,22 +5951,22 @@
         <v>8677.18</v>
       </c>
       <c r="F137" s="2">
-        <v>40873.269999999997</v>
+        <v>41840.68</v>
       </c>
       <c r="G137">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="H137">
         <v>0.91500000000000004</v>
       </c>
       <c r="I137">
-        <v>18.135999999999999</v>
+        <v>18.561</v>
       </c>
       <c r="J137">
         <v>3.61</v>
       </c>
       <c r="K137">
-        <v>4.71</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5974,7 +5974,7 @@
         <v>148</v>
       </c>
       <c r="B138">
-        <v>25.6</v>
+        <v>26.95</v>
       </c>
       <c r="C138">
         <v>300</v>
@@ -5986,22 +5986,22 @@
         <v>4798.75</v>
       </c>
       <c r="F138" s="2">
-        <v>7680</v>
+        <v>8085</v>
       </c>
       <c r="G138">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H138">
         <v>32.716000000000001</v>
       </c>
       <c r="I138">
-        <v>0.78200000000000003</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="J138">
         <v>15.99</v>
       </c>
       <c r="K138">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6009,7 +6009,7 @@
         <v>149</v>
       </c>
       <c r="B139">
-        <v>26.15</v>
+        <v>27.2</v>
       </c>
       <c r="C139">
         <v>23.151</v>
@@ -6021,7 +6021,7 @@
         <v>243.46</v>
       </c>
       <c r="F139">
-        <v>605.4</v>
+        <v>629.71</v>
       </c>
       <c r="G139">
         <v>0.01</v>
@@ -6036,7 +6036,7 @@
         <v>10.51</v>
       </c>
       <c r="K139">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6044,7 +6044,7 @@
         <v>150</v>
       </c>
       <c r="B140">
-        <v>264.39999999999998</v>
+        <v>268.2</v>
       </c>
       <c r="C140">
         <v>32.5</v>
@@ -6056,7 +6056,7 @@
         <v>1649.77</v>
       </c>
       <c r="F140" s="2">
-        <v>8593</v>
+        <v>8716.5</v>
       </c>
       <c r="G140">
         <v>0.09</v>
@@ -6065,13 +6065,13 @@
         <v>14.863</v>
       </c>
       <c r="I140">
-        <v>17.788</v>
+        <v>18.044</v>
       </c>
       <c r="J140">
         <v>50.76</v>
       </c>
       <c r="K140">
-        <v>5.2</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6079,7 +6079,7 @@
         <v>151</v>
       </c>
       <c r="B141">
-        <v>50.1</v>
+        <v>50.4</v>
       </c>
       <c r="C141" s="2">
         <v>1000</v>
@@ -6091,22 +6091,22 @@
         <v>19703.05</v>
       </c>
       <c r="F141" s="2">
-        <v>50100</v>
+        <v>50400</v>
       </c>
       <c r="G141">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H141">
         <v>2.3519999999999999</v>
       </c>
       <c r="I141">
-        <v>21.3</v>
+        <v>21.427</v>
       </c>
       <c r="J141">
         <v>19.7</v>
       </c>
       <c r="K141">
-        <v>2.54</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6114,7 +6114,7 @@
         <v>152</v>
       </c>
       <c r="B142">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="C142">
         <v>20</v>
@@ -6126,7 +6126,7 @@
         <v>700.9</v>
       </c>
       <c r="F142" s="2">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="G142">
         <v>0.02</v>
@@ -6135,13 +6135,13 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I142">
-        <v>19.872</v>
+        <v>19.893000000000001</v>
       </c>
       <c r="J142">
         <v>35.04</v>
       </c>
       <c r="K142">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6149,7 +6149,7 @@
         <v>153</v>
       </c>
       <c r="B143">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -6161,7 +6161,7 @@
         <v>277.77999999999997</v>
       </c>
       <c r="F143" s="2">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="G143">
         <v>0.01</v>
@@ -6170,13 +6170,13 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="I143">
-        <v>39.325000000000003</v>
+        <v>40.015000000000001</v>
       </c>
       <c r="J143">
         <v>13.88</v>
       </c>
       <c r="K143">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>154</v>
       </c>
       <c r="B144">
-        <v>50.5</v>
+        <v>51.7</v>
       </c>
       <c r="C144">
         <v>55.5</v>
@@ -6196,7 +6196,7 @@
         <v>951.96</v>
       </c>
       <c r="F144" s="2">
-        <v>2802.75</v>
+        <v>2869.35</v>
       </c>
       <c r="G144">
         <v>0.03</v>
@@ -6205,13 +6205,13 @@
         <v>4.556</v>
       </c>
       <c r="I144">
-        <v>11.085000000000001</v>
+        <v>11.348000000000001</v>
       </c>
       <c r="J144">
         <v>17.149999999999999</v>
       </c>
       <c r="K144">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6219,7 +6219,7 @@
         <v>155</v>
       </c>
       <c r="B145">
-        <v>30.85</v>
+        <v>30.95</v>
       </c>
       <c r="C145">
         <v>81.831999999999994</v>
@@ -6231,7 +6231,7 @@
         <v>328.2</v>
       </c>
       <c r="F145" s="2">
-        <v>2524.52</v>
+        <v>2532.6999999999998</v>
       </c>
       <c r="G145">
         <v>0.03</v>
@@ -6240,13 +6240,13 @@
         <v>2.5579999999999998</v>
       </c>
       <c r="I145">
-        <v>12.06</v>
+        <v>12.099</v>
       </c>
       <c r="J145">
         <v>4.01</v>
       </c>
       <c r="K145">
-        <v>7.69</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6254,7 +6254,7 @@
         <v>156</v>
       </c>
       <c r="B146">
-        <v>38.75</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="C146">
         <v>51.314999999999998</v>
@@ -6266,7 +6266,7 @@
         <v>1099.18</v>
       </c>
       <c r="F146" s="2">
-        <v>1988.46</v>
+        <v>2003.85</v>
       </c>
       <c r="G146">
         <v>0.02</v>
@@ -6275,13 +6275,13 @@
         <v>4.33</v>
       </c>
       <c r="I146">
-        <v>8.9489999999999998</v>
+        <v>9.0180000000000007</v>
       </c>
       <c r="J146">
         <v>21.42</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>157</v>
       </c>
       <c r="B147">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="C147">
         <v>540</v>
@@ -6301,7 +6301,7 @@
         <v>706.75</v>
       </c>
       <c r="F147" s="2">
-        <v>1868.4</v>
+        <v>1900.8</v>
       </c>
       <c r="G147">
         <v>0.02</v>
@@ -6310,13 +6310,13 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I147">
-        <v>10.673</v>
+        <v>10.858000000000001</v>
       </c>
       <c r="J147">
         <v>1.3</v>
       </c>
       <c r="K147">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
         <v>158</v>
       </c>
       <c r="B148">
-        <v>40.549999999999997</v>
+        <v>41.55</v>
       </c>
       <c r="C148">
         <v>30</v>
@@ -6336,7 +6336,7 @@
         <v>481.8</v>
       </c>
       <c r="F148" s="2">
-        <v>1216.5</v>
+        <v>1246.5</v>
       </c>
       <c r="G148">
         <v>0.01</v>
@@ -6345,13 +6345,13 @@
         <v>0.876</v>
       </c>
       <c r="I148">
-        <v>46.289000000000001</v>
+        <v>47.430999999999997</v>
       </c>
       <c r="J148">
         <v>16.059999999999999</v>
       </c>
       <c r="K148">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6359,7 +6359,7 @@
         <v>159</v>
       </c>
       <c r="B149">
-        <v>9.99</v>
+        <v>10.14</v>
       </c>
       <c r="C149">
         <v>126.38800000000001</v>
@@ -6371,7 +6371,7 @@
         <v>1184.5</v>
       </c>
       <c r="F149" s="2">
-        <v>1262.6199999999999</v>
+        <v>1281.57</v>
       </c>
       <c r="G149">
         <v>0.01</v>
@@ -6380,13 +6380,13 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I149">
-        <v>170.624</v>
+        <v>173.185</v>
       </c>
       <c r="J149">
         <v>9.3699999999999992</v>
       </c>
       <c r="K149">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6394,7 +6394,7 @@
         <v>160</v>
       </c>
       <c r="B150">
-        <v>40</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="C150">
         <v>35.356999999999999</v>
@@ -6406,7 +6406,7 @@
         <v>301.48</v>
       </c>
       <c r="F150" s="2">
-        <v>1414.28</v>
+        <v>1430.19</v>
       </c>
       <c r="G150">
         <v>0.02</v>
@@ -6415,13 +6415,13 @@
         <v>1.718</v>
       </c>
       <c r="I150">
-        <v>23.286999999999999</v>
+        <v>23.548999999999999</v>
       </c>
       <c r="J150">
         <v>8.52</v>
       </c>
       <c r="K150">
-        <v>4.6900000000000004</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
         <v>161</v>
       </c>
       <c r="B151">
-        <v>19.2</v>
+        <v>20.02</v>
       </c>
       <c r="C151">
         <v>301.64</v>
@@ -6441,22 +6441,22 @@
         <v>4400.12</v>
       </c>
       <c r="F151" s="2">
-        <v>5791.49</v>
+        <v>6038.83</v>
       </c>
       <c r="G151">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H151">
         <v>2.5750000000000002</v>
       </c>
       <c r="I151">
-        <v>7.4560000000000004</v>
+        <v>7.774</v>
       </c>
       <c r="J151">
         <v>14.58</v>
       </c>
       <c r="K151">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
         <v>162</v>
       </c>
       <c r="B152">
-        <v>15.84</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="C152">
         <v>30</v>
@@ -6476,7 +6476,7 @@
         <v>303.17</v>
       </c>
       <c r="F152">
-        <v>475.2</v>
+        <v>482.4</v>
       </c>
       <c r="G152">
         <v>0.01</v>
@@ -6485,13 +6485,13 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I152">
-        <v>55.84</v>
+        <v>56.686</v>
       </c>
       <c r="J152">
         <v>10.1</v>
       </c>
       <c r="K152">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6499,7 +6499,7 @@
         <v>163</v>
       </c>
       <c r="B153">
-        <v>9.99</v>
+        <v>10.18</v>
       </c>
       <c r="C153">
         <v>39.176000000000002</v>
@@ -6511,7 +6511,7 @@
         <v>172.43</v>
       </c>
       <c r="F153">
-        <v>391.37</v>
+        <v>398.81</v>
       </c>
       <c r="G153" t="s">
         <v>32</v>
@@ -6526,7 +6526,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K153">
-        <v>2.2599999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6534,7 +6534,7 @@
         <v>164</v>
       </c>
       <c r="B154">
-        <v>90.8</v>
+        <v>94</v>
       </c>
       <c r="C154">
         <v>6.6980000000000004</v>
@@ -6546,7 +6546,7 @@
         <v>74.41</v>
       </c>
       <c r="F154">
-        <v>608.17999999999995</v>
+        <v>629.61</v>
       </c>
       <c r="G154">
         <v>0.01</v>
@@ -6561,7 +6561,7 @@
         <v>11.1</v>
       </c>
       <c r="K154">
-        <v>8.17</v>
+        <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6569,7 +6569,7 @@
         <v>165</v>
       </c>
       <c r="B155">
-        <v>14.88</v>
+        <v>15.52</v>
       </c>
       <c r="C155">
         <v>30</v>
@@ -6581,10 +6581,10 @@
         <v>352.65</v>
       </c>
       <c r="F155">
-        <v>446.4</v>
-      </c>
-      <c r="G155" t="s">
-        <v>32</v>
+        <v>465.6</v>
+      </c>
+      <c r="G155">
+        <v>0.01</v>
       </c>
       <c r="H155">
         <v>-0.36699999999999999</v>
@@ -6596,7 +6596,7 @@
         <v>11.75</v>
       </c>
       <c r="K155">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>166</v>
       </c>
       <c r="B156">
-        <v>42.95</v>
+        <v>43</v>
       </c>
       <c r="C156">
         <v>30</v>
@@ -6616,7 +6616,7 @@
         <v>774.6</v>
       </c>
       <c r="F156" s="2">
-        <v>1288.5</v>
+        <v>1290</v>
       </c>
       <c r="G156">
         <v>0.01</v>
@@ -6625,7 +6625,7 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="I156">
-        <v>16.725000000000001</v>
+        <v>16.744</v>
       </c>
       <c r="J156">
         <v>25.82</v>
@@ -6639,7 +6639,7 @@
         <v>167</v>
       </c>
       <c r="B157">
-        <v>10.28</v>
+        <v>10.36</v>
       </c>
       <c r="C157">
         <v>50</v>
@@ -6651,7 +6651,7 @@
         <v>319.25</v>
       </c>
       <c r="F157">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G157">
         <v>0.01</v>
@@ -6666,7 +6666,7 @@
         <v>6.38</v>
       </c>
       <c r="K157">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6683,22 +6683,22 @@
         <v>38824.21</v>
       </c>
       <c r="F158" s="2">
-        <v>92461.07</v>
+        <v>93829.42</v>
       </c>
       <c r="G158">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="H158">
         <v>5.1230000000000002</v>
       </c>
       <c r="I158">
-        <v>6.1630000000000003</v>
+        <v>6.2519999999999998</v>
       </c>
       <c r="J158">
         <v>13.85</v>
       </c>
       <c r="K158">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -6706,7 +6706,7 @@
         <v>169</v>
       </c>
       <c r="B159">
-        <v>139.6</v>
+        <v>147</v>
       </c>
       <c r="C159">
         <v>25</v>
@@ -6718,7 +6718,7 @@
         <v>588.99</v>
       </c>
       <c r="F159" s="2">
-        <v>3490</v>
+        <v>3675</v>
       </c>
       <c r="G159">
         <v>0.04</v>
@@ -6727,13 +6727,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I159">
-        <v>16.321000000000002</v>
+        <v>17.186</v>
       </c>
       <c r="J159">
         <v>23.55</v>
       </c>
       <c r="K159">
-        <v>5.92</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6750,7 +6750,7 @@
         <v>588.99</v>
       </c>
       <c r="F160" s="2">
-        <v>3490</v>
+        <v>3675</v>
       </c>
       <c r="G160">
         <v>0.04</v>
@@ -6759,13 +6759,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I160">
-        <v>16.321000000000002</v>
+        <v>17.187000000000001</v>
       </c>
       <c r="J160">
         <v>23.56</v>
       </c>
       <c r="K160">
-        <v>5.93</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6773,7 +6773,7 @@
         <v>171</v>
       </c>
       <c r="B161">
-        <v>12</v>
+        <v>12.74</v>
       </c>
       <c r="C161">
         <v>100.636</v>
@@ -6785,7 +6785,7 @@
         <v>974.23</v>
       </c>
       <c r="F161" s="2">
-        <v>1207.6300000000001</v>
+        <v>1282.0999999999999</v>
       </c>
       <c r="G161">
         <v>0.01</v>
@@ -6794,13 +6794,13 @@
         <v>2.5630000000000002</v>
       </c>
       <c r="I161">
-        <v>4.681</v>
+        <v>4.97</v>
       </c>
       <c r="J161">
         <v>9.68</v>
       </c>
       <c r="K161">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6808,7 +6808,7 @@
         <v>172</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>7.18</v>
       </c>
       <c r="C162">
         <v>843.2</v>
@@ -6820,22 +6820,22 @@
         <v>2173.27</v>
       </c>
       <c r="F162" s="2">
-        <v>5902.4</v>
+        <v>6054.18</v>
       </c>
       <c r="G162">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H162">
         <v>0.33200000000000002</v>
       </c>
       <c r="I162">
-        <v>21.082999999999998</v>
+        <v>21.625</v>
       </c>
       <c r="J162">
         <v>2.57</v>
       </c>
       <c r="K162">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6843,7 +6843,7 @@
         <v>173</v>
       </c>
       <c r="B163">
-        <v>70.8</v>
+        <v>71</v>
       </c>
       <c r="C163">
         <v>200</v>
@@ -6855,7 +6855,7 @@
         <v>3765.39</v>
       </c>
       <c r="F163" s="2">
-        <v>14160</v>
+        <v>14200</v>
       </c>
       <c r="G163">
         <v>0.15</v>
@@ -6864,13 +6864,13 @@
         <v>3.3340000000000001</v>
       </c>
       <c r="I163">
-        <v>21.236999999999998</v>
+        <v>21.297000000000001</v>
       </c>
       <c r="J163">
         <v>18.82</v>
       </c>
       <c r="K163">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6913,7 +6913,7 @@
         <v>175</v>
       </c>
       <c r="B165">
-        <v>159.19999999999999</v>
+        <v>164</v>
       </c>
       <c r="C165">
         <v>44.85</v>
@@ -6925,7 +6925,7 @@
         <v>1714.87</v>
       </c>
       <c r="F165" s="2">
-        <v>7140.12</v>
+        <v>7355.4</v>
       </c>
       <c r="G165">
         <v>0.08</v>
@@ -6934,13 +6934,13 @@
         <v>6.7389999999999999</v>
       </c>
       <c r="I165">
-        <v>23.623999999999999</v>
+        <v>24.335999999999999</v>
       </c>
       <c r="J165">
         <v>38.229999999999997</v>
       </c>
       <c r="K165">
-        <v>4.16</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6948,7 +6948,7 @@
         <v>176</v>
       </c>
       <c r="B166">
-        <v>36.450000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="C166">
         <v>160</v>
@@ -6960,7 +6960,7 @@
         <v>1980.5</v>
       </c>
       <c r="F166" s="2">
-        <v>5832</v>
+        <v>5904</v>
       </c>
       <c r="G166">
         <v>0.06</v>
@@ -6969,13 +6969,13 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="I166">
-        <v>16.725000000000001</v>
+        <v>16.931000000000001</v>
       </c>
       <c r="J166">
         <v>12.37</v>
       </c>
       <c r="K166">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6983,7 +6983,7 @@
         <v>177</v>
       </c>
       <c r="B167">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="C167">
         <v>92.04</v>
@@ -6995,22 +6995,22 @@
         <v>1786.2</v>
       </c>
       <c r="F167" s="2">
-        <v>4942.55</v>
+        <v>5089.8100000000004</v>
       </c>
       <c r="G167">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H167">
         <v>4.2389999999999999</v>
       </c>
       <c r="I167">
-        <v>12.667</v>
+        <v>13.044</v>
       </c>
       <c r="J167">
         <v>19.399999999999999</v>
       </c>
       <c r="K167">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7018,7 +7018,7 @@
         <v>178</v>
       </c>
       <c r="B168">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C168">
         <v>350</v>
@@ -7030,22 +7030,22 @@
         <v>7291.14</v>
       </c>
       <c r="F168" s="2">
-        <v>91350</v>
+        <v>89250</v>
       </c>
       <c r="G168">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="H168">
         <v>6.6319999999999997</v>
       </c>
       <c r="I168">
-        <v>39.351999999999997</v>
+        <v>38.447000000000003</v>
       </c>
       <c r="J168">
         <v>20.83</v>
       </c>
       <c r="K168">
-        <v>12.52</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
         <v>179</v>
       </c>
       <c r="B169">
-        <v>34.5</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="C169">
         <v>30</v>
@@ -7065,7 +7065,7 @@
         <v>512.29999999999995</v>
       </c>
       <c r="F169" s="2">
-        <v>1035</v>
+        <v>1063.5</v>
       </c>
       <c r="G169">
         <v>0.01</v>
@@ -7074,13 +7074,13 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="I169">
-        <v>40.429000000000002</v>
+        <v>41.542000000000002</v>
       </c>
       <c r="J169">
         <v>17.07</v>
       </c>
       <c r="K169">
-        <v>2.02</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7088,7 +7088,7 @@
         <v>180</v>
       </c>
       <c r="B170">
-        <v>40.15</v>
+        <v>39.85</v>
       </c>
       <c r="C170">
         <v>232</v>
@@ -7100,7 +7100,7 @@
         <v>3019.85</v>
       </c>
       <c r="F170" s="2">
-        <v>9314.7999999999993</v>
+        <v>9245.2000000000007</v>
       </c>
       <c r="G170">
         <v>0.1</v>
@@ -7109,13 +7109,13 @@
         <v>1.165</v>
       </c>
       <c r="I170">
-        <v>34.457999999999998</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="J170">
         <v>13.01</v>
       </c>
       <c r="K170">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7123,7 +7123,7 @@
         <v>181</v>
       </c>
       <c r="B171">
-        <v>151.19999999999999</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="C171">
         <v>44.302999999999997</v>
@@ -7135,7 +7135,7 @@
         <v>1910.4</v>
       </c>
       <c r="F171" s="2">
-        <v>6698.61</v>
+        <v>6787.22</v>
       </c>
       <c r="G171">
         <v>7.0000000000000007E-2</v>
@@ -7144,13 +7144,13 @@
         <v>2.9740000000000002</v>
       </c>
       <c r="I171">
-        <v>50.835000000000001</v>
+        <v>51.508000000000003</v>
       </c>
       <c r="J171">
         <v>43.12</v>
       </c>
       <c r="K171">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>29189.08</v>
       </c>
       <c r="F172" s="2">
-        <v>159751.67999999999</v>
+        <v>158399.98000000001</v>
       </c>
       <c r="G172">
         <v>1.71</v>
@@ -7176,13 +7176,13 @@
         <v>2.5030000000000001</v>
       </c>
       <c r="I172">
-        <v>29.033999999999999</v>
+        <v>28.788</v>
       </c>
       <c r="J172">
         <v>13.28</v>
       </c>
       <c r="K172">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7190,7 +7190,7 @@
         <v>183</v>
       </c>
       <c r="B173">
-        <v>23.02</v>
+        <v>23.68</v>
       </c>
       <c r="C173">
         <v>120</v>
@@ -7202,7 +7202,7 @@
         <v>1459.4</v>
       </c>
       <c r="F173" s="2">
-        <v>2762.4</v>
+        <v>2841.6</v>
       </c>
       <c r="G173">
         <v>0.03</v>
@@ -7211,13 +7211,13 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="I173">
-        <v>41.167999999999999</v>
+        <v>42.347999999999999</v>
       </c>
       <c r="J173">
         <v>12.16</v>
       </c>
       <c r="K173">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7225,7 +7225,7 @@
         <v>184</v>
       </c>
       <c r="B174">
-        <v>158.4</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="C174">
         <v>70</v>
@@ -7237,7 +7237,7 @@
         <v>1546.52</v>
       </c>
       <c r="F174" s="2">
-        <v>11088</v>
+        <v>11354</v>
       </c>
       <c r="G174">
         <v>0.12</v>
@@ -7246,13 +7246,13 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="I174">
-        <v>27.004999999999999</v>
+        <v>27.652999999999999</v>
       </c>
       <c r="J174">
         <v>22.09</v>
       </c>
       <c r="K174">
-        <v>7.16</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7260,7 +7260,7 @@
         <v>185</v>
       </c>
       <c r="B175">
-        <v>117.2</v>
+        <v>119.8</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -7272,7 +7272,7 @@
         <v>387.61</v>
       </c>
       <c r="F175" s="2">
-        <v>2344</v>
+        <v>2396</v>
       </c>
       <c r="G175">
         <v>0.03</v>
@@ -7281,13 +7281,13 @@
         <v>4.4950000000000001</v>
       </c>
       <c r="I175">
-        <v>26.076000000000001</v>
+        <v>26.654</v>
       </c>
       <c r="J175">
         <v>19.38</v>
       </c>
       <c r="K175">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7304,7 +7304,7 @@
         <v>3393.53</v>
       </c>
       <c r="F176" s="2">
-        <v>16194.4</v>
+        <v>16591.599999999999</v>
       </c>
       <c r="G176">
         <v>0.18</v>
@@ -7313,13 +7313,13 @@
         <v>2.7029999999999998</v>
       </c>
       <c r="I176">
-        <v>28.533000000000001</v>
+        <v>29.233000000000001</v>
       </c>
       <c r="J176">
         <v>16.16</v>
       </c>
       <c r="K176">
-        <v>4.7699999999999996</v>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7327,7 +7327,7 @@
         <v>187</v>
       </c>
       <c r="B177">
-        <v>27.1</v>
+        <v>27.35</v>
       </c>
       <c r="C177" s="2">
         <v>3000</v>
@@ -7339,22 +7339,22 @@
         <v>61139.53</v>
       </c>
       <c r="F177" s="2">
-        <v>81300</v>
+        <v>82050</v>
       </c>
       <c r="G177">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="H177">
         <v>3.2450000000000001</v>
       </c>
       <c r="I177">
-        <v>8.3510000000000009</v>
+        <v>8.4280000000000008</v>
       </c>
       <c r="J177">
         <v>20.37</v>
       </c>
       <c r="K177">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7362,7 +7362,7 @@
         <v>188</v>
       </c>
       <c r="B178">
-        <v>12.48</v>
+        <v>12.46</v>
       </c>
       <c r="C178" s="2">
         <v>1281.25</v>
@@ -7374,7 +7374,7 @@
         <v>13993.3</v>
       </c>
       <c r="F178" s="2">
-        <v>15990</v>
+        <v>15964.38</v>
       </c>
       <c r="G178">
         <v>0.17</v>
@@ -7383,7 +7383,7 @@
         <v>1.008</v>
       </c>
       <c r="I178">
-        <v>12.38</v>
+        <v>12.361000000000001</v>
       </c>
       <c r="J178">
         <v>10.92</v>
@@ -7412,7 +7412,7 @@
         <v>17975</v>
       </c>
       <c r="G179">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H179">
         <v>1.6140000000000001</v>
@@ -7432,7 +7432,7 @@
         <v>190</v>
       </c>
       <c r="B180">
-        <v>17.36</v>
+        <v>17.32</v>
       </c>
       <c r="C180" s="2">
         <v>2500</v>
@@ -7444,7 +7444,7 @@
         <v>40429.949999999997</v>
       </c>
       <c r="F180" s="2">
-        <v>43400</v>
+        <v>43300</v>
       </c>
       <c r="G180">
         <v>0.47</v>
@@ -7453,7 +7453,7 @@
         <v>1.893</v>
       </c>
       <c r="I180">
-        <v>9.1709999999999994</v>
+        <v>9.15</v>
       </c>
       <c r="J180">
         <v>16.170000000000002</v>
@@ -7467,7 +7467,7 @@
         <v>191</v>
       </c>
       <c r="B181">
-        <v>31.95</v>
+        <v>31.85</v>
       </c>
       <c r="C181" s="2">
         <v>2054.7939999999999</v>
@@ -7479,7 +7479,7 @@
         <v>63783.8</v>
       </c>
       <c r="F181" s="2">
-        <v>65650.67</v>
+        <v>65445.19</v>
       </c>
       <c r="G181">
         <v>0.71</v>
@@ -7488,7 +7488,7 @@
         <v>3.972</v>
       </c>
       <c r="I181">
-        <v>8.0429999999999993</v>
+        <v>8.0180000000000007</v>
       </c>
       <c r="J181">
         <v>31.04</v>
@@ -7502,7 +7502,7 @@
         <v>192</v>
       </c>
       <c r="B182">
-        <v>21.02</v>
+        <v>20.9</v>
       </c>
       <c r="C182" s="2">
         <v>2000</v>
@@ -7514,22 +7514,22 @@
         <v>38480.25</v>
       </c>
       <c r="F182" s="2">
-        <v>42040</v>
+        <v>41800</v>
       </c>
       <c r="G182">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="H182">
         <v>2.5179999999999998</v>
       </c>
       <c r="I182">
-        <v>8.3490000000000002</v>
+        <v>8.3010000000000002</v>
       </c>
       <c r="J182">
         <v>19.239999999999998</v>
       </c>
       <c r="K182">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7537,7 +7537,7 @@
         <v>193</v>
       </c>
       <c r="B183">
-        <v>91.2</v>
+        <v>92.6</v>
       </c>
       <c r="C183" s="2">
         <v>4000</v>
@@ -7549,22 +7549,22 @@
         <v>105033.22</v>
       </c>
       <c r="F183" s="2">
-        <v>364800</v>
+        <v>370400</v>
       </c>
       <c r="G183">
-        <v>3.97</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H183">
         <v>5.306</v>
       </c>
       <c r="I183">
-        <v>17.187999999999999</v>
+        <v>17.452000000000002</v>
       </c>
       <c r="J183">
         <v>26.25</v>
       </c>
       <c r="K183">
-        <v>3.47</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>194</v>
       </c>
       <c r="B184">
-        <v>24.54</v>
+        <v>24.5</v>
       </c>
       <c r="C184" s="2">
         <v>1500</v>
@@ -7584,7 +7584,7 @@
         <v>17592.099999999999</v>
       </c>
       <c r="F184" s="2">
-        <v>36810</v>
+        <v>36750</v>
       </c>
       <c r="G184">
         <v>0.4</v>
@@ -7593,13 +7593,13 @@
         <v>1.909</v>
       </c>
       <c r="I184">
-        <v>12.853</v>
+        <v>12.832000000000001</v>
       </c>
       <c r="J184">
         <v>11.72</v>
       </c>
       <c r="K184">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7607,7 +7607,7 @@
         <v>195</v>
       </c>
       <c r="B185">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C185" s="2">
         <v>2500</v>
@@ -7619,16 +7619,16 @@
         <v>34201.360000000001</v>
       </c>
       <c r="F185" s="2">
-        <v>63250</v>
+        <v>63000</v>
       </c>
       <c r="G185">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="H185">
         <v>2.41</v>
       </c>
       <c r="I185">
-        <v>10.497</v>
+        <v>10.456</v>
       </c>
       <c r="J185">
         <v>13.68</v>
@@ -7642,7 +7642,7 @@
         <v>196</v>
       </c>
       <c r="B186">
-        <v>33.950000000000003</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C186" s="2">
         <v>6000</v>
@@ -7654,22 +7654,22 @@
         <v>172291.56</v>
       </c>
       <c r="F186" s="2">
-        <v>203700</v>
+        <v>205800</v>
       </c>
       <c r="G186">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="H186">
         <v>3.6960000000000002</v>
       </c>
       <c r="I186">
-        <v>9.1850000000000005</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="J186">
         <v>28.71</v>
       </c>
       <c r="K186">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7686,22 +7686,22 @@
         <v>562475.09</v>
       </c>
       <c r="F187" s="2">
-        <v>934915.67</v>
+        <v>942484.57</v>
       </c>
       <c r="G187">
-        <v>10.16</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="H187">
         <v>3.1920000000000002</v>
       </c>
       <c r="I187">
-        <v>11.228999999999999</v>
+        <v>11.32</v>
       </c>
       <c r="J187">
         <v>21.56</v>
       </c>
       <c r="K187">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7709,7 +7709,7 @@
         <v>198</v>
       </c>
       <c r="B188">
-        <v>161</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="C188">
         <v>120</v>
@@ -7721,7 +7721,7 @@
         <v>3581.9</v>
       </c>
       <c r="F188" s="2">
-        <v>19320</v>
+        <v>19464</v>
       </c>
       <c r="G188">
         <v>0.21</v>
@@ -7730,13 +7730,13 @@
         <v>4.5069999999999997</v>
       </c>
       <c r="I188">
-        <v>35.723999999999997</v>
+        <v>35.991</v>
       </c>
       <c r="J188">
         <v>29.84</v>
       </c>
       <c r="K188">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7744,7 +7744,7 @@
         <v>199</v>
       </c>
       <c r="B189">
-        <v>10.24</v>
+        <v>10.66</v>
       </c>
       <c r="C189">
         <v>101.925</v>
@@ -7756,7 +7756,7 @@
         <v>1231.8699999999999</v>
       </c>
       <c r="F189" s="2">
-        <v>1043.71</v>
+        <v>1086.52</v>
       </c>
       <c r="G189">
         <v>0.01</v>
@@ -7765,13 +7765,13 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="I189">
-        <v>21.033999999999999</v>
+        <v>21.896000000000001</v>
       </c>
       <c r="J189">
         <v>12.08</v>
       </c>
       <c r="K189">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>200</v>
       </c>
       <c r="B190">
-        <v>16.64</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="C190">
         <v>100</v>
@@ -7791,7 +7791,7 @@
         <v>1701.14</v>
       </c>
       <c r="F190" s="2">
-        <v>1664</v>
+        <v>1706</v>
       </c>
       <c r="G190">
         <v>0.02</v>
@@ -7800,13 +7800,13 @@
         <v>0.379</v>
       </c>
       <c r="I190">
-        <v>43.927999999999997</v>
+        <v>45.036000000000001</v>
       </c>
       <c r="J190">
         <v>17.010000000000002</v>
       </c>
       <c r="K190">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
         <v>201</v>
       </c>
       <c r="B191">
-        <v>24.34</v>
+        <v>24.88</v>
       </c>
       <c r="C191">
         <v>60</v>
@@ -7826,7 +7826,7 @@
         <v>1235.3499999999999</v>
       </c>
       <c r="F191" s="2">
-        <v>1460.4</v>
+        <v>1492.8</v>
       </c>
       <c r="G191">
         <v>0.02</v>
@@ -7835,13 +7835,13 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="I191">
-        <v>7.6219999999999999</v>
+        <v>7.7910000000000004</v>
       </c>
       <c r="J191">
         <v>20.58</v>
       </c>
       <c r="K191">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7849,7 +7849,7 @@
         <v>202</v>
       </c>
       <c r="B192">
-        <v>12.2</v>
+        <v>12.16</v>
       </c>
       <c r="C192">
         <v>120</v>
@@ -7861,7 +7861,7 @@
         <v>1471.53</v>
       </c>
       <c r="F192" s="2">
-        <v>1464</v>
+        <v>1459.2</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7870,7 +7870,7 @@
         <v>1.147</v>
       </c>
       <c r="I192">
-        <v>10.638</v>
+        <v>10.603</v>
       </c>
       <c r="J192">
         <v>12.26</v>
@@ -7884,7 +7884,7 @@
         <v>203</v>
       </c>
       <c r="B193">
-        <v>11.3</v>
+        <v>11.44</v>
       </c>
       <c r="C193">
         <v>71.427999999999997</v>
@@ -7896,7 +7896,7 @@
         <v>842.43</v>
       </c>
       <c r="F193">
-        <v>807.14</v>
+        <v>817.14</v>
       </c>
       <c r="G193">
         <v>0.01</v>
@@ -7905,13 +7905,13 @@
         <v>0.318</v>
       </c>
       <c r="I193">
-        <v>35.494</v>
+        <v>35.933999999999997</v>
       </c>
       <c r="J193">
         <v>11.79</v>
       </c>
       <c r="K193">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7919,7 +7919,7 @@
         <v>204</v>
       </c>
       <c r="B194">
-        <v>150</v>
+        <v>157.4</v>
       </c>
       <c r="C194">
         <v>25</v>
@@ -7931,7 +7931,7 @@
         <v>1170.45</v>
       </c>
       <c r="F194" s="2">
-        <v>3750</v>
+        <v>3935</v>
       </c>
       <c r="G194">
         <v>0.04</v>
@@ -7940,13 +7940,13 @@
         <v>9.1140000000000008</v>
       </c>
       <c r="I194">
-        <v>16.457999999999998</v>
+        <v>17.27</v>
       </c>
       <c r="J194">
         <v>46.81</v>
       </c>
       <c r="K194">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7954,7 +7954,7 @@
         <v>205</v>
       </c>
       <c r="B195">
-        <v>24.76</v>
+        <v>25</v>
       </c>
       <c r="C195">
         <v>249.73500000000001</v>
@@ -7966,7 +7966,7 @@
         <v>1084.1099999999999</v>
       </c>
       <c r="F195" s="2">
-        <v>6183.44</v>
+        <v>6243.38</v>
       </c>
       <c r="G195">
         <v>7.0000000000000007E-2</v>
@@ -7975,13 +7975,13 @@
         <v>1.6579999999999999</v>
       </c>
       <c r="I195">
-        <v>14.936</v>
+        <v>15.081</v>
       </c>
       <c r="J195">
         <v>4.34</v>
       </c>
       <c r="K195">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7989,7 +7989,7 @@
         <v>206</v>
       </c>
       <c r="B196">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="C196">
         <v>218.29499999999999</v>
@@ -8001,7 +8001,7 @@
         <v>224.38</v>
       </c>
       <c r="F196">
-        <v>702.91</v>
+        <v>731.29</v>
       </c>
       <c r="G196">
         <v>0.01</v>
@@ -8010,13 +8010,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I196">
-        <v>72.019000000000005</v>
+        <v>74.927000000000007</v>
       </c>
       <c r="J196">
         <v>1.02</v>
       </c>
       <c r="K196">
-        <v>3.13</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8068,7 +8068,7 @@
         <v>53873.83</v>
       </c>
       <c r="F198" s="2">
-        <v>67080.3</v>
+        <v>67620.03</v>
       </c>
       <c r="G198">
         <v>0.74</v>
@@ -8077,13 +8077,13 @@
         <v>0.65</v>
       </c>
       <c r="I198">
-        <v>21.61</v>
+        <v>21.783000000000001</v>
       </c>
       <c r="J198">
         <v>11.29</v>
       </c>
       <c r="K198">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8091,7 +8091,7 @@
         <v>209</v>
       </c>
       <c r="B199">
-        <v>141.6</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="C199">
         <v>150</v>
@@ -8103,22 +8103,22 @@
         <v>4742.4799999999996</v>
       </c>
       <c r="F199" s="2">
-        <v>21240</v>
+        <v>22020</v>
       </c>
       <c r="G199">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="H199">
         <v>7.2469999999999999</v>
       </c>
       <c r="I199">
-        <v>19.539000000000001</v>
+        <v>20.257000000000001</v>
       </c>
       <c r="J199">
         <v>31.61</v>
       </c>
       <c r="K199">
-        <v>4.47</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
         <v>210</v>
       </c>
       <c r="B200">
-        <v>12.68</v>
+        <v>12.88</v>
       </c>
       <c r="C200">
         <v>66</v>
@@ -8138,7 +8138,7 @@
         <v>994.3</v>
       </c>
       <c r="F200">
-        <v>836.88</v>
+        <v>850.08</v>
       </c>
       <c r="G200">
         <v>0.01</v>
@@ -8147,13 +8147,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I200">
-        <v>20.643000000000001</v>
+        <v>20.968</v>
       </c>
       <c r="J200">
         <v>15.06</v>
       </c>
       <c r="K200">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8161,7 +8161,7 @@
         <v>211</v>
       </c>
       <c r="B201">
-        <v>12.5</v>
+        <v>12.92</v>
       </c>
       <c r="C201">
         <v>50</v>
@@ -8173,7 +8173,7 @@
         <v>442.72</v>
       </c>
       <c r="F201">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="G201">
         <v>0.01</v>
@@ -8182,13 +8182,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="I201">
-        <v>24.673999999999999</v>
+        <v>25.503</v>
       </c>
       <c r="J201">
         <v>8.85</v>
       </c>
       <c r="K201">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8196,7 +8196,7 @@
         <v>212</v>
       </c>
       <c r="B202">
-        <v>17.7</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="C202">
         <v>105</v>
@@ -8208,7 +8208,7 @@
         <v>1050.79</v>
       </c>
       <c r="F202" s="2">
-        <v>1858.5</v>
+        <v>1896.3</v>
       </c>
       <c r="G202">
         <v>0.02</v>
@@ -8217,13 +8217,13 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I202">
-        <v>19.486999999999998</v>
+        <v>19.882999999999999</v>
       </c>
       <c r="J202">
         <v>10</v>
       </c>
       <c r="K202">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
         <v>213</v>
       </c>
       <c r="B203">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="C203">
         <v>60</v>
@@ -8243,7 +8243,7 @@
         <v>819.22</v>
       </c>
       <c r="F203">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="G203">
         <v>0.01</v>
@@ -8252,13 +8252,13 @@
         <v>0.183</v>
       </c>
       <c r="I203">
-        <v>77.049000000000007</v>
+        <v>79.233999999999995</v>
       </c>
       <c r="J203">
         <v>13.65</v>
       </c>
       <c r="K203">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8266,7 +8266,7 @@
         <v>214</v>
       </c>
       <c r="B204">
-        <v>11.5</v>
+        <v>11.94</v>
       </c>
       <c r="C204">
         <v>30</v>
@@ -8278,7 +8278,7 @@
         <v>317.36</v>
       </c>
       <c r="F204">
-        <v>345</v>
+        <v>358.2</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -8293,7 +8293,7 @@
         <v>10.57</v>
       </c>
       <c r="K204">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8301,7 +8301,7 @@
         <v>215</v>
       </c>
       <c r="B205">
-        <v>16.96</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="C205">
         <v>127.55800000000001</v>
@@ -8313,7 +8313,7 @@
         <v>1768.65</v>
       </c>
       <c r="F205" s="2">
-        <v>2163.38</v>
+        <v>2178.69</v>
       </c>
       <c r="G205">
         <v>0.02</v>
@@ -8328,7 +8328,7 @@
         <v>13.86</v>
       </c>
       <c r="K205">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>216</v>
       </c>
       <c r="B206">
-        <v>14.2</v>
+        <v>14.66</v>
       </c>
       <c r="C206">
         <v>79.814999999999998</v>
@@ -8348,7 +8348,7 @@
         <v>1666.07</v>
       </c>
       <c r="F206" s="2">
-        <v>1133.3699999999999</v>
+        <v>1170.0899999999999</v>
       </c>
       <c r="G206">
         <v>0.01</v>
@@ -8357,13 +8357,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I206">
-        <v>18.670999999999999</v>
+        <v>19.276</v>
       </c>
       <c r="J206">
         <v>20.87</v>
       </c>
       <c r="K206">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8371,7 +8371,7 @@
         <v>217</v>
       </c>
       <c r="B207">
-        <v>14.4</v>
+        <v>14.68</v>
       </c>
       <c r="C207">
         <v>30</v>
@@ -8383,7 +8383,7 @@
         <v>398.59</v>
       </c>
       <c r="F207">
-        <v>432</v>
+        <v>440.4</v>
       </c>
       <c r="G207" t="s">
         <v>32</v>
@@ -8392,13 +8392,13 @@
         <v>2.012</v>
       </c>
       <c r="I207">
-        <v>7.157</v>
+        <v>7.2960000000000003</v>
       </c>
       <c r="J207">
         <v>13.28</v>
       </c>
       <c r="K207">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8406,7 +8406,7 @@
         <v>218</v>
       </c>
       <c r="B208">
-        <v>14.76</v>
+        <v>14.52</v>
       </c>
       <c r="C208">
         <v>45.893999999999998</v>
@@ -8418,7 +8418,7 @@
         <v>591.83000000000004</v>
       </c>
       <c r="F208">
-        <v>677.4</v>
+        <v>666.38</v>
       </c>
       <c r="G208">
         <v>0.01</v>
@@ -8433,7 +8433,7 @@
         <v>12.89</v>
       </c>
       <c r="K208">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8441,7 +8441,7 @@
         <v>219</v>
       </c>
       <c r="B209">
-        <v>11.74</v>
+        <v>11.98</v>
       </c>
       <c r="C209">
         <v>29.1</v>
@@ -8453,7 +8453,7 @@
         <v>269.44</v>
       </c>
       <c r="F209">
-        <v>341.63</v>
+        <v>348.62</v>
       </c>
       <c r="G209" t="s">
         <v>32</v>
@@ -8468,7 +8468,7 @@
         <v>9.25</v>
       </c>
       <c r="K209">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8476,7 +8476,7 @@
         <v>220</v>
       </c>
       <c r="B210">
-        <v>10.98</v>
+        <v>11.06</v>
       </c>
       <c r="C210">
         <v>53</v>
@@ -8488,7 +8488,7 @@
         <v>612.03</v>
       </c>
       <c r="F210">
-        <v>581.94000000000005</v>
+        <v>586.17999999999995</v>
       </c>
       <c r="G210">
         <v>0.01</v>
@@ -8497,7 +8497,7 @@
         <v>0.505</v>
       </c>
       <c r="I210">
-        <v>21.745999999999999</v>
+        <v>21.905000000000001</v>
       </c>
       <c r="J210">
         <v>11.54</v>
@@ -8511,7 +8511,7 @@
         <v>221</v>
       </c>
       <c r="B211">
-        <v>12.96</v>
+        <v>13.08</v>
       </c>
       <c r="C211">
         <v>50</v>
@@ -8523,7 +8523,7 @@
         <v>702.25</v>
       </c>
       <c r="F211">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="G211">
         <v>0.01</v>
@@ -8532,13 +8532,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="I211">
-        <v>18.75</v>
+        <v>18.922999999999998</v>
       </c>
       <c r="J211">
         <v>14.04</v>
       </c>
       <c r="K211">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8546,7 +8546,7 @@
         <v>222</v>
       </c>
       <c r="B212">
-        <v>11.46</v>
+        <v>11.98</v>
       </c>
       <c r="C212">
         <v>30</v>
@@ -8558,7 +8558,7 @@
         <v>385.64</v>
       </c>
       <c r="F212">
-        <v>343.8</v>
+        <v>359.4</v>
       </c>
       <c r="G212" t="s">
         <v>32</v>
@@ -8567,13 +8567,13 @@
         <v>0.217</v>
       </c>
       <c r="I212">
-        <v>52.811</v>
+        <v>55.207000000000001</v>
       </c>
       <c r="J212">
         <v>12.85</v>
       </c>
       <c r="K212">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8581,7 +8581,7 @@
         <v>223</v>
       </c>
       <c r="B213">
-        <v>6.9</v>
+        <v>6.98</v>
       </c>
       <c r="C213">
         <v>40</v>
@@ -8593,7 +8593,7 @@
         <v>247.5</v>
       </c>
       <c r="F213">
-        <v>276</v>
+        <v>279.2</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -8608,7 +8608,7 @@
         <v>6.18</v>
       </c>
       <c r="K213">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8616,7 +8616,7 @@
         <v>224</v>
       </c>
       <c r="B214">
-        <v>45.55</v>
+        <v>46.85</v>
       </c>
       <c r="C214">
         <v>115.83</v>
@@ -8628,7 +8628,7 @@
         <v>2068.44</v>
       </c>
       <c r="F214" s="2">
-        <v>5276.06</v>
+        <v>5426.64</v>
       </c>
       <c r="G214">
         <v>0.06</v>
@@ -8637,13 +8637,13 @@
         <v>4.13</v>
       </c>
       <c r="I214">
-        <v>11.026999999999999</v>
+        <v>11.342000000000001</v>
       </c>
       <c r="J214">
         <v>17.850000000000001</v>
       </c>
       <c r="K214">
-        <v>2.5499999999999998</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8651,7 +8651,7 @@
         <v>225</v>
       </c>
       <c r="B215">
-        <v>163.80000000000001</v>
+        <v>167.4</v>
       </c>
       <c r="C215">
         <v>150</v>
@@ -8663,7 +8663,7 @@
         <v>5568.56</v>
       </c>
       <c r="F215" s="2">
-        <v>24570</v>
+        <v>25110</v>
       </c>
       <c r="G215">
         <v>0.27</v>
@@ -8672,13 +8672,13 @@
         <v>7.9119999999999999</v>
       </c>
       <c r="I215">
-        <v>20.702000000000002</v>
+        <v>21.157</v>
       </c>
       <c r="J215">
         <v>37.119999999999997</v>
       </c>
       <c r="K215">
-        <v>4.41</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8686,7 +8686,7 @@
         <v>226</v>
       </c>
       <c r="B216">
-        <v>111.6</v>
+        <v>114.2</v>
       </c>
       <c r="C216">
         <v>100</v>
@@ -8698,7 +8698,7 @@
         <v>2174.38</v>
       </c>
       <c r="F216" s="2">
-        <v>11160</v>
+        <v>11420</v>
       </c>
       <c r="G216">
         <v>0.12</v>
@@ -8707,13 +8707,13 @@
         <v>3.1179999999999999</v>
       </c>
       <c r="I216">
-        <v>35.795999999999999</v>
+        <v>36.630000000000003</v>
       </c>
       <c r="J216">
         <v>21.74</v>
       </c>
       <c r="K216">
-        <v>5.13</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8721,7 +8721,7 @@
         <v>227</v>
       </c>
       <c r="B217">
-        <v>30.55</v>
+        <v>33.6</v>
       </c>
       <c r="C217">
         <v>30</v>
@@ -8733,7 +8733,7 @@
         <v>460.26</v>
       </c>
       <c r="F217" s="2">
-        <v>916.5</v>
+        <v>1008</v>
       </c>
       <c r="G217">
         <v>0.01</v>
@@ -8742,13 +8742,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="I217">
-        <v>67.438999999999993</v>
+        <v>74.171999999999997</v>
       </c>
       <c r="J217">
         <v>15.34</v>
       </c>
       <c r="K217">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8756,7 +8756,7 @@
         <v>228</v>
       </c>
       <c r="B218">
-        <v>24.42</v>
+        <v>24.4</v>
       </c>
       <c r="C218">
         <v>52.5</v>
@@ -8768,7 +8768,7 @@
         <v>1145.97</v>
       </c>
       <c r="F218" s="2">
-        <v>1282.05</v>
+        <v>1281</v>
       </c>
       <c r="G218">
         <v>0.01</v>
@@ -8777,7 +8777,7 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I218">
-        <v>8.81</v>
+        <v>8.8030000000000008</v>
       </c>
       <c r="J218">
         <v>21.82</v>
@@ -8791,7 +8791,7 @@
         <v>229</v>
       </c>
       <c r="B219">
-        <v>5.81</v>
+        <v>5.96</v>
       </c>
       <c r="C219">
         <v>30</v>
@@ -8803,7 +8803,7 @@
         <v>202.63</v>
       </c>
       <c r="F219">
-        <v>174.3</v>
+        <v>178.8</v>
       </c>
       <c r="G219" t="s">
         <v>32</v>
@@ -8818,7 +8818,7 @@
         <v>6.75</v>
       </c>
       <c r="K219">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8826,7 +8826,7 @@
         <v>230</v>
       </c>
       <c r="B220">
-        <v>15.68</v>
+        <v>15.86</v>
       </c>
       <c r="C220">
         <v>30</v>
@@ -8838,7 +8838,7 @@
         <v>472.24</v>
       </c>
       <c r="F220">
-        <v>470.4</v>
+        <v>475.8</v>
       </c>
       <c r="G220">
         <v>0.01</v>
@@ -8847,13 +8847,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I220">
-        <v>68.570999999999998</v>
+        <v>69.358000000000004</v>
       </c>
       <c r="J220">
         <v>15.74</v>
       </c>
       <c r="K220">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8861,7 +8861,7 @@
         <v>231</v>
       </c>
       <c r="B221">
-        <v>11.22</v>
+        <v>11.66</v>
       </c>
       <c r="C221">
         <v>40</v>
@@ -8873,22 +8873,22 @@
         <v>444.9</v>
       </c>
       <c r="F221">
-        <v>448.8</v>
-      </c>
-      <c r="G221" t="s">
-        <v>32</v>
+        <v>466.4</v>
+      </c>
+      <c r="G221">
+        <v>0.01</v>
       </c>
       <c r="H221">
         <v>0.749</v>
       </c>
       <c r="I221">
-        <v>14.978999999999999</v>
+        <v>15.567</v>
       </c>
       <c r="J221">
         <v>11.12</v>
       </c>
       <c r="K221">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>232</v>
       </c>
       <c r="B222">
-        <v>15.66</v>
+        <v>16</v>
       </c>
       <c r="C222">
         <v>40</v>
@@ -8908,7 +8908,7 @@
         <v>617.19000000000005</v>
       </c>
       <c r="F222">
-        <v>626.4</v>
+        <v>640</v>
       </c>
       <c r="G222">
         <v>0.01</v>
@@ -8917,13 +8917,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I222">
-        <v>7.6379999999999999</v>
+        <v>7.8029999999999999</v>
       </c>
       <c r="J222">
         <v>15.42</v>
       </c>
       <c r="K222">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8931,7 +8931,7 @@
         <v>233</v>
       </c>
       <c r="B223">
-        <v>7.69</v>
+        <v>8.1</v>
       </c>
       <c r="C223">
         <v>43</v>
@@ -8943,7 +8943,7 @@
         <v>309.45999999999998</v>
       </c>
       <c r="F223">
-        <v>330.67</v>
+        <v>348.3</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -8952,13 +8952,13 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I223">
-        <v>78.356999999999999</v>
+        <v>82.534999999999997</v>
       </c>
       <c r="J223">
         <v>7.19</v>
       </c>
       <c r="K223">
-        <v>1.06</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8966,7 +8966,7 @@
         <v>234</v>
       </c>
       <c r="B224">
-        <v>8.6</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="C224">
         <v>23</v>
@@ -8978,7 +8978,7 @@
         <v>161.93</v>
       </c>
       <c r="F224">
-        <v>197.8</v>
+        <v>213.67</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -8993,7 +8993,7 @@
         <v>7.04</v>
       </c>
       <c r="K224">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9001,7 +9001,7 @@
         <v>235</v>
       </c>
       <c r="B225">
-        <v>79.7</v>
+        <v>80.2</v>
       </c>
       <c r="C225">
         <v>77.507000000000005</v>
@@ -9013,7 +9013,7 @@
         <v>450.47</v>
       </c>
       <c r="F225" s="2">
-        <v>6177.31</v>
+        <v>6216.06</v>
       </c>
       <c r="G225">
         <v>7.0000000000000007E-2</v>
@@ -9022,13 +9022,13 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="I225">
-        <v>53.594000000000001</v>
+        <v>53.93</v>
       </c>
       <c r="J225">
         <v>5.81</v>
       </c>
       <c r="K225">
-        <v>13.71</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -9045,22 +9045,22 @@
         <v>29085.3</v>
       </c>
       <c r="F226" s="2">
-        <v>83979.19</v>
+        <v>86108.21</v>
       </c>
       <c r="G226">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="H226">
         <v>2.11</v>
       </c>
       <c r="I226">
-        <v>20.876999999999999</v>
+        <v>21.420999999999999</v>
       </c>
       <c r="J226">
         <v>17.329999999999998</v>
       </c>
       <c r="K226">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9068,7 +9068,7 @@
         <v>237</v>
       </c>
       <c r="B227">
-        <v>132.80000000000001</v>
+        <v>134.4</v>
       </c>
       <c r="C227">
         <v>30</v>
@@ -9080,7 +9080,7 @@
         <v>457.58</v>
       </c>
       <c r="F227" s="2">
-        <v>3984</v>
+        <v>4032</v>
       </c>
       <c r="G227">
         <v>0.04</v>
@@ -9089,13 +9089,13 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="I227">
-        <v>41.203000000000003</v>
+        <v>41.7</v>
       </c>
       <c r="J227">
         <v>15.25</v>
       </c>
       <c r="K227">
-        <v>8.6999999999999993</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9103,7 +9103,7 @@
         <v>238</v>
       </c>
       <c r="B228">
-        <v>4.92</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="C228">
         <v>100</v>
@@ -9115,7 +9115,7 @@
         <v>116.65</v>
       </c>
       <c r="F228">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G228">
         <v>0.01</v>
@@ -9130,7 +9130,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K228">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9138,7 +9138,7 @@
         <v>239</v>
       </c>
       <c r="B229">
-        <v>250</v>
+        <v>251.6</v>
       </c>
       <c r="C229">
         <v>120</v>
@@ -9150,7 +9150,7 @@
         <v>4364</v>
       </c>
       <c r="F229" s="2">
-        <v>30000</v>
+        <v>30192</v>
       </c>
       <c r="G229">
         <v>0.33</v>
@@ -9159,13 +9159,13 @@
         <v>13.367000000000001</v>
       </c>
       <c r="I229">
-        <v>18.702999999999999</v>
+        <v>18.821999999999999</v>
       </c>
       <c r="J229">
         <v>36.36</v>
       </c>
       <c r="K229">
-        <v>6.87</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9173,7 +9173,7 @@
         <v>240</v>
       </c>
       <c r="B230" s="2">
-        <v>955</v>
+        <v>955.2</v>
       </c>
       <c r="C230">
         <v>80</v>
@@ -9185,7 +9185,7 @@
         <v>5489</v>
       </c>
       <c r="F230" s="2">
-        <v>76400</v>
+        <v>76416</v>
       </c>
       <c r="G230">
         <v>0.83</v>
@@ -9194,13 +9194,13 @@
         <v>24.7</v>
       </c>
       <c r="I230">
-        <v>38.662999999999997</v>
+        <v>38.671999999999997</v>
       </c>
       <c r="J230">
         <v>68.61</v>
       </c>
       <c r="K230">
-        <v>13.91</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9208,7 +9208,7 @@
         <v>241</v>
       </c>
       <c r="B231">
-        <v>10.24</v>
+        <v>10.52</v>
       </c>
       <c r="C231">
         <v>300</v>
@@ -9220,7 +9220,7 @@
         <v>577.71</v>
       </c>
       <c r="F231" s="2">
-        <v>3072</v>
+        <v>3156</v>
       </c>
       <c r="G231">
         <v>0.03</v>
@@ -9229,13 +9229,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I231">
-        <v>18.512</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="J231">
         <v>1.92</v>
       </c>
       <c r="K231">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -9252,7 +9252,7 @@
         <v>11004.94</v>
       </c>
       <c r="F232" s="2">
-        <v>113948</v>
+        <v>114298</v>
       </c>
       <c r="G232">
         <v>1.24</v>
@@ -9261,13 +9261,13 @@
         <v>6.0739999999999998</v>
       </c>
       <c r="I232">
-        <v>29.526</v>
+        <v>29.614000000000001</v>
       </c>
       <c r="J232">
         <v>17.47</v>
       </c>
       <c r="K232">
-        <v>10.35</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9275,7 +9275,7 @@
         <v>243</v>
       </c>
       <c r="B233">
-        <v>41.8</v>
+        <v>42.3</v>
       </c>
       <c r="C233" s="2">
         <v>5000</v>
@@ -9287,22 +9287,22 @@
         <v>91069</v>
       </c>
       <c r="F233" s="2">
-        <v>209000</v>
+        <v>211500</v>
       </c>
       <c r="G233">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="H233">
         <v>5.01</v>
       </c>
       <c r="I233">
-        <v>8.3420000000000005</v>
+        <v>8.4420000000000002</v>
       </c>
       <c r="J233">
         <v>18.21</v>
       </c>
       <c r="K233">
-        <v>2.29</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9310,7 +9310,7 @@
         <v>244</v>
       </c>
       <c r="B234">
-        <v>57.5</v>
+        <v>57.8</v>
       </c>
       <c r="C234">
         <v>770</v>
@@ -9322,7 +9322,7 @@
         <v>18637</v>
       </c>
       <c r="F234" s="2">
-        <v>44275</v>
+        <v>44506</v>
       </c>
       <c r="G234">
         <v>0.48</v>
@@ -9331,13 +9331,13 @@
         <v>4.2030000000000003</v>
       </c>
       <c r="I234">
-        <v>13.682</v>
+        <v>13.753</v>
       </c>
       <c r="J234">
         <v>24.2</v>
       </c>
       <c r="K234">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9345,7 +9345,7 @@
         <v>245</v>
       </c>
       <c r="B235">
-        <v>10.38</v>
+        <v>10.46</v>
       </c>
       <c r="C235">
         <v>898.72900000000004</v>
@@ -9357,7 +9357,7 @@
         <v>10792</v>
       </c>
       <c r="F235" s="2">
-        <v>9328.81</v>
+        <v>9400.7099999999991</v>
       </c>
       <c r="G235">
         <v>0.1</v>
@@ -9366,13 +9366,13 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="I235">
-        <v>14.997999999999999</v>
+        <v>15.113</v>
       </c>
       <c r="J235">
         <v>12</v>
       </c>
       <c r="K235">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -9380,7 +9380,7 @@
         <v>246</v>
       </c>
       <c r="B236">
-        <v>89</v>
+        <v>91.3</v>
       </c>
       <c r="C236">
         <v>33.999000000000002</v>
@@ -9392,7 +9392,7 @@
         <v>709.2</v>
       </c>
       <c r="F236" s="2">
-        <v>3025.91</v>
+        <v>3104.11</v>
       </c>
       <c r="G236">
         <v>0.03</v>
@@ -9401,13 +9401,13 @@
         <v>5.2549999999999999</v>
       </c>
       <c r="I236">
-        <v>16.934999999999999</v>
+        <v>17.373000000000001</v>
       </c>
       <c r="J236">
         <v>20.85</v>
       </c>
       <c r="K236">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9424,22 +9424,22 @@
         <v>121207.2</v>
       </c>
       <c r="F237" s="2">
-        <v>265629.71999999997</v>
+        <v>268510.82</v>
       </c>
       <c r="G237">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H237">
         <v>4.34</v>
       </c>
       <c r="I237">
-        <v>9.1319999999999997</v>
+        <v>9.2309999999999999</v>
       </c>
       <c r="J237">
         <v>18.079999999999998</v>
       </c>
       <c r="K237">
-        <v>2.19</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9447,7 +9447,7 @@
         <v>248</v>
       </c>
       <c r="B238">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C238">
         <v>75</v>
@@ -9459,7 +9459,7 @@
         <v>1943</v>
       </c>
       <c r="F238" s="2">
-        <v>5475</v>
+        <v>5550</v>
       </c>
       <c r="G238">
         <v>0.06</v>
@@ -9468,13 +9468,13 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="I238">
-        <v>23.588000000000001</v>
+        <v>23.911999999999999</v>
       </c>
       <c r="J238">
         <v>25.9</v>
       </c>
       <c r="K238">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9482,7 +9482,7 @@
         <v>249</v>
       </c>
       <c r="B239">
-        <v>135.6</v>
+        <v>139.6</v>
       </c>
       <c r="C239">
         <v>35</v>
@@ -9494,7 +9494,7 @@
         <v>814.29</v>
       </c>
       <c r="F239" s="2">
-        <v>4746</v>
+        <v>4886</v>
       </c>
       <c r="G239">
         <v>0.05</v>
@@ -9503,13 +9503,13 @@
         <v>7.0030000000000001</v>
       </c>
       <c r="I239">
-        <v>19.364000000000001</v>
+        <v>19.934999999999999</v>
       </c>
       <c r="J239">
         <v>23.26</v>
       </c>
       <c r="K239">
-        <v>5.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9517,7 +9517,7 @@
         <v>250</v>
       </c>
       <c r="B240">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C240">
         <v>732.56100000000004</v>
@@ -9529,22 +9529,22 @@
         <v>20994.04</v>
       </c>
       <c r="F240" s="2">
-        <v>179477.45</v>
+        <v>191930.98</v>
       </c>
       <c r="G240">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H240">
         <v>2.577</v>
       </c>
       <c r="I240">
-        <v>95.06</v>
+        <v>101.65600000000001</v>
       </c>
       <c r="J240">
         <v>28.65</v>
       </c>
       <c r="K240">
-        <v>8.5399999999999991</v>
+        <v>9.14</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>251</v>
       </c>
       <c r="B241">
-        <v>39.700000000000003</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="C241">
         <v>250</v>
@@ -9564,7 +9564,7 @@
         <v>5317.85</v>
       </c>
       <c r="F241" s="2">
-        <v>9925</v>
+        <v>10012.5</v>
       </c>
       <c r="G241">
         <v>0.11</v>
@@ -9579,7 +9579,7 @@
         <v>21.27</v>
       </c>
       <c r="K241">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9587,7 +9587,7 @@
         <v>252</v>
       </c>
       <c r="B242">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="C242">
         <v>160.92500000000001</v>
@@ -9599,7 +9599,7 @@
         <v>495.52</v>
       </c>
       <c r="F242" s="2">
-        <v>3540.35</v>
+        <v>3733.46</v>
       </c>
       <c r="G242">
         <v>0.04</v>
@@ -9608,13 +9608,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="I242">
-        <v>42.747</v>
+        <v>45.079000000000001</v>
       </c>
       <c r="J242">
         <v>3.07</v>
       </c>
       <c r="K242">
-        <v>7.14</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9622,7 +9622,7 @@
         <v>253</v>
       </c>
       <c r="B243">
-        <v>14.1</v>
+        <v>14.18</v>
       </c>
       <c r="C243" s="2">
         <v>4166.5929999999998</v>
@@ -9634,7 +9634,7 @@
         <v>257811</v>
       </c>
       <c r="F243" s="2">
-        <v>58748.959999999999</v>
+        <v>59082.29</v>
       </c>
       <c r="G243">
         <v>0.64</v>
@@ -9643,7 +9643,7 @@
         <v>1.665</v>
       </c>
       <c r="I243">
-        <v>8.4670000000000005</v>
+        <v>8.5150000000000006</v>
       </c>
       <c r="J243">
         <v>61.87</v>
@@ -9666,22 +9666,22 @@
         <v>287375.7</v>
       </c>
       <c r="F244" s="2">
-        <v>261912.76</v>
+        <v>275195.23</v>
       </c>
       <c r="G244">
-        <v>2.85</v>
+        <v>2.98</v>
       </c>
       <c r="H244">
         <v>1.7310000000000001</v>
       </c>
       <c r="I244">
-        <v>26.847000000000001</v>
+        <v>28.253</v>
       </c>
       <c r="J244">
         <v>53.02</v>
       </c>
       <c r="K244">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9689,7 +9689,7 @@
         <v>255</v>
       </c>
       <c r="B245">
-        <v>5.35</v>
+        <v>5.37</v>
       </c>
       <c r="C245">
         <v>171.697</v>
@@ -9701,7 +9701,7 @@
         <v>1746.23</v>
       </c>
       <c r="F245">
-        <v>918.58</v>
+        <v>922.01</v>
       </c>
       <c r="G245">
         <v>0.01</v>
@@ -9724,7 +9724,7 @@
         <v>256</v>
       </c>
       <c r="B246">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C246">
         <v>11.8</v>
@@ -9736,7 +9736,7 @@
         <v>86.31</v>
       </c>
       <c r="F246">
-        <v>148.68</v>
+        <v>152.22</v>
       </c>
       <c r="G246" t="s">
         <v>32</v>
@@ -9745,13 +9745,13 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I246">
-        <v>49.231000000000002</v>
+        <v>50.402999999999999</v>
       </c>
       <c r="J246">
         <v>7.31</v>
       </c>
       <c r="K246">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9759,7 +9759,7 @@
         <v>257</v>
       </c>
       <c r="B247">
-        <v>5.59</v>
+        <v>5.7</v>
       </c>
       <c r="C247">
         <v>66</v>
@@ -9771,7 +9771,7 @@
         <v>500.29</v>
       </c>
       <c r="F247">
-        <v>368.94</v>
+        <v>376.2</v>
       </c>
       <c r="G247" t="s">
         <v>32</v>
@@ -9780,13 +9780,13 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="I247">
-        <v>21.01</v>
+        <v>21.422999999999998</v>
       </c>
       <c r="J247">
         <v>7.58</v>
       </c>
       <c r="K247">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9794,7 +9794,7 @@
         <v>258</v>
       </c>
       <c r="B248">
-        <v>9.9</v>
+        <v>9.83</v>
       </c>
       <c r="C248">
         <v>51</v>
@@ -9806,7 +9806,7 @@
         <v>549.69000000000005</v>
       </c>
       <c r="F248">
-        <v>504.9</v>
+        <v>501.33</v>
       </c>
       <c r="G248">
         <v>0.01</v>
@@ -9815,7 +9815,7 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="I248">
-        <v>15.525</v>
+        <v>15.416</v>
       </c>
       <c r="J248">
         <v>10.77</v>
@@ -9829,7 +9829,7 @@
         <v>259</v>
       </c>
       <c r="B249">
-        <v>9.11</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="C249">
         <v>61.37</v>
@@ -9841,7 +9841,7 @@
         <v>514.29</v>
       </c>
       <c r="F249">
-        <v>559.08000000000004</v>
+        <v>560.30999999999995</v>
       </c>
       <c r="G249">
         <v>0.01</v>
@@ -9850,7 +9850,7 @@
         <v>0.67</v>
       </c>
       <c r="I249">
-        <v>13.589</v>
+        <v>13.619</v>
       </c>
       <c r="J249">
         <v>8.3800000000000008</v>
@@ -9864,7 +9864,7 @@
         <v>260</v>
       </c>
       <c r="B250">
-        <v>4.13</v>
+        <v>4.16</v>
       </c>
       <c r="C250">
         <v>88</v>
@@ -9876,7 +9876,7 @@
         <v>744.87</v>
       </c>
       <c r="F250">
-        <v>363.44</v>
+        <v>366.08</v>
       </c>
       <c r="G250" t="s">
         <v>32</v>
@@ -9891,7 +9891,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="K250">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9899,7 +9899,7 @@
         <v>261</v>
       </c>
       <c r="B251">
-        <v>4.68</v>
+        <v>4.74</v>
       </c>
       <c r="C251">
         <v>103.765</v>
@@ -9911,7 +9911,7 @@
         <v>771.32</v>
       </c>
       <c r="F251">
-        <v>485.62</v>
+        <v>491.85</v>
       </c>
       <c r="G251">
         <v>0.01</v>
@@ -9920,13 +9920,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I251">
-        <v>32.075000000000003</v>
+        <v>32.485999999999997</v>
       </c>
       <c r="J251">
         <v>7.43</v>
       </c>
       <c r="K251">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9934,7 +9934,7 @@
         <v>262</v>
       </c>
       <c r="B252">
-        <v>4.3099999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="C252">
         <v>57.24</v>
@@ -9946,7 +9946,7 @@
         <v>243.04</v>
       </c>
       <c r="F252">
-        <v>246.7</v>
+        <v>245.56</v>
       </c>
       <c r="G252" t="s">
         <v>32</v>
@@ -9969,7 +9969,7 @@
         <v>263</v>
       </c>
       <c r="B253">
-        <v>6.9</v>
+        <v>6.88</v>
       </c>
       <c r="C253">
         <v>137.5</v>
@@ -9981,7 +9981,7 @@
         <v>1195.8</v>
       </c>
       <c r="F253">
-        <v>948.75</v>
+        <v>946</v>
       </c>
       <c r="G253">
         <v>0.01</v>
@@ -9990,7 +9990,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="I253">
-        <v>35.56</v>
+        <v>35.457000000000001</v>
       </c>
       <c r="J253">
         <v>8.69</v>
@@ -10004,7 +10004,7 @@
         <v>264</v>
       </c>
       <c r="B254">
-        <v>5.42</v>
+        <v>5.45</v>
       </c>
       <c r="C254">
         <v>107.50700000000001</v>
@@ -10016,7 +10016,7 @@
         <v>869.57</v>
       </c>
       <c r="F254">
-        <v>582.69000000000005</v>
+        <v>585.91</v>
       </c>
       <c r="G254">
         <v>0.01</v>
@@ -10025,7 +10025,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="I254">
-        <v>39.264000000000003</v>
+        <v>39.481000000000002</v>
       </c>
       <c r="J254">
         <v>8.08</v>
@@ -10039,7 +10039,7 @@
         <v>265</v>
       </c>
       <c r="B255">
-        <v>8.2200000000000006</v>
+        <v>8.24</v>
       </c>
       <c r="C255">
         <v>275.60700000000003</v>
@@ -10051,7 +10051,7 @@
         <v>2250.7800000000002</v>
       </c>
       <c r="F255" s="2">
-        <v>2265.4899999999998</v>
+        <v>2271</v>
       </c>
       <c r="G255">
         <v>0.02</v>
@@ -10060,7 +10060,7 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="I255">
-        <v>12.098000000000001</v>
+        <v>12.128</v>
       </c>
       <c r="J255">
         <v>8.16</v>
@@ -10074,7 +10074,7 @@
         <v>266</v>
       </c>
       <c r="B256">
-        <v>10.039999999999999</v>
+        <v>10.16</v>
       </c>
       <c r="C256">
         <v>186.50899999999999</v>
@@ -10086,7 +10086,7 @@
         <v>2308.79</v>
       </c>
       <c r="F256" s="2">
-        <v>1872.55</v>
+        <v>1894.93</v>
       </c>
       <c r="G256">
         <v>0.02</v>
@@ -10095,13 +10095,13 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="I256">
-        <v>33.576000000000001</v>
+        <v>33.976999999999997</v>
       </c>
       <c r="J256">
         <v>12.37</v>
       </c>
       <c r="K256">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -10109,7 +10109,7 @@
         <v>267</v>
       </c>
       <c r="B257">
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="C257">
         <v>186.94399999999999</v>
@@ -10121,7 +10121,7 @@
         <v>1454.16</v>
       </c>
       <c r="F257" s="2">
-        <v>1261.8699999999999</v>
+        <v>1263.74</v>
       </c>
       <c r="G257">
         <v>0.01</v>
@@ -10130,7 +10130,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I257">
-        <v>87.569000000000003</v>
+        <v>87.697999999999993</v>
       </c>
       <c r="J257">
         <v>7.77</v>
@@ -10179,7 +10179,7 @@
         <v>269</v>
       </c>
       <c r="B259">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
       <c r="C259">
         <v>73.275999999999996</v>
@@ -10191,7 +10191,7 @@
         <v>515.41</v>
       </c>
       <c r="F259">
-        <v>270.39</v>
+        <v>271.85000000000002</v>
       </c>
       <c r="G259" t="s">
         <v>32</v>
@@ -10200,7 +10200,7 @@
         <v>0.111</v>
       </c>
       <c r="I259">
-        <v>33.298999999999999</v>
+        <v>33.478999999999999</v>
       </c>
       <c r="J259">
         <v>7.03</v>
@@ -10214,7 +10214,7 @@
         <v>270</v>
       </c>
       <c r="B260">
-        <v>9.06</v>
+        <v>9.07</v>
       </c>
       <c r="C260">
         <v>162.881</v>
@@ -10226,7 +10226,7 @@
         <v>1363.65</v>
       </c>
       <c r="F260" s="2">
-        <v>1475.7</v>
+        <v>1477.33</v>
       </c>
       <c r="G260">
         <v>0.02</v>
@@ -10235,7 +10235,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I260">
-        <v>16.684999999999999</v>
+        <v>16.704000000000001</v>
       </c>
       <c r="J260">
         <v>8.3699999999999992</v>
@@ -10249,7 +10249,7 @@
         <v>271</v>
       </c>
       <c r="B261">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="C261">
         <v>141.00800000000001</v>
@@ -10261,7 +10261,7 @@
         <v>1222.58</v>
       </c>
       <c r="F261">
-        <v>795.29</v>
+        <v>798.11</v>
       </c>
       <c r="G261">
         <v>0.01</v>
@@ -10270,7 +10270,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="I261">
-        <v>13.401999999999999</v>
+        <v>13.449</v>
       </c>
       <c r="J261">
         <v>8.67</v>
@@ -10284,7 +10284,7 @@
         <v>272</v>
       </c>
       <c r="B262">
-        <v>8.14</v>
+        <v>8.17</v>
       </c>
       <c r="C262">
         <v>102.002</v>
@@ -10296,7 +10296,7 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="F262">
-        <v>830.3</v>
+        <v>833.36</v>
       </c>
       <c r="G262">
         <v>0.01</v>
@@ -10305,7 +10305,7 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I262">
-        <v>16.995999999999999</v>
+        <v>17.059000000000001</v>
       </c>
       <c r="J262">
         <v>10.11</v>
@@ -10319,7 +10319,7 @@
         <v>273</v>
       </c>
       <c r="B263">
-        <v>7.11</v>
+        <v>7.23</v>
       </c>
       <c r="C263">
         <v>60.5</v>
@@ -10331,7 +10331,7 @@
         <v>582.99</v>
       </c>
       <c r="F263">
-        <v>430.16</v>
+        <v>437.42</v>
       </c>
       <c r="G263" t="s">
         <v>32</v>
@@ -10346,7 +10346,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="K263">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
         <v>18786.89</v>
       </c>
       <c r="F264" s="2">
-        <v>14858.95</v>
+        <v>14925.03</v>
       </c>
       <c r="G264">
         <v>0.16</v>
@@ -10372,7 +10372,7 @@
         <v>0.127</v>
       </c>
       <c r="I264">
-        <v>20.765999999999998</v>
+        <v>20.853000000000002</v>
       </c>
       <c r="J264">
         <v>8.69</v>
@@ -10386,7 +10386,7 @@
         <v>275</v>
       </c>
       <c r="B265">
-        <v>18.98</v>
+        <v>19.3</v>
       </c>
       <c r="C265">
         <v>375</v>
@@ -10398,7 +10398,7 @@
         <v>5177.7</v>
       </c>
       <c r="F265" s="2">
-        <v>7117.5</v>
+        <v>7237.5</v>
       </c>
       <c r="G265">
         <v>0.08</v>
@@ -10407,13 +10407,13 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="I265">
-        <v>20.492999999999999</v>
+        <v>20.838999999999999</v>
       </c>
       <c r="J265">
         <v>13.8</v>
       </c>
       <c r="K265">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10421,7 +10421,7 @@
         <v>276</v>
       </c>
       <c r="B266">
-        <v>35.1</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C266">
         <v>260.45699999999999</v>
@@ -10433,7 +10433,7 @@
         <v>6961</v>
       </c>
       <c r="F266" s="2">
-        <v>9142.0400000000009</v>
+        <v>9558.77</v>
       </c>
       <c r="G266">
         <v>0.1</v>
@@ -10442,13 +10442,13 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="I266">
-        <v>24.692</v>
+        <v>25.817</v>
       </c>
       <c r="J266">
         <v>26.72</v>
       </c>
       <c r="K266">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10456,7 +10456,7 @@
         <v>277</v>
       </c>
       <c r="B267">
-        <v>85.4</v>
+        <v>89.3</v>
       </c>
       <c r="C267">
         <v>200</v>
@@ -10468,7 +10468,7 @@
         <v>4813</v>
       </c>
       <c r="F267" s="2">
-        <v>17080</v>
+        <v>17860</v>
       </c>
       <c r="G267">
         <v>0.19</v>
@@ -10477,13 +10477,13 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="I267">
-        <v>38.125</v>
+        <v>39.866</v>
       </c>
       <c r="J267">
         <v>24.06</v>
       </c>
       <c r="K267">
-        <v>3.54</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10491,7 +10491,7 @@
         <v>278</v>
       </c>
       <c r="B268">
-        <v>30.85</v>
+        <v>32.4</v>
       </c>
       <c r="C268">
         <v>233.93</v>
@@ -10503,7 +10503,7 @@
         <v>3990</v>
       </c>
       <c r="F268" s="2">
-        <v>7216.74</v>
+        <v>7579.33</v>
       </c>
       <c r="G268">
         <v>0.08</v>
@@ -10512,13 +10512,13 @@
         <v>1.145</v>
       </c>
       <c r="I268">
-        <v>26.949000000000002</v>
+        <v>28.303000000000001</v>
       </c>
       <c r="J268">
         <v>17.05</v>
       </c>
       <c r="K268">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10526,7 +10526,7 @@
         <v>279</v>
       </c>
       <c r="B269">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
       <c r="C269">
         <v>523.25900000000001</v>
@@ -10538,7 +10538,7 @@
         <v>5136</v>
       </c>
       <c r="F269" s="2">
-        <v>6634.92</v>
+        <v>6645.39</v>
       </c>
       <c r="G269">
         <v>7.0000000000000007E-2</v>
@@ -10561,7 +10561,7 @@
         <v>280</v>
       </c>
       <c r="B270">
-        <v>33.5</v>
+        <v>36.85</v>
       </c>
       <c r="C270">
         <v>30.234000000000002</v>
@@ -10573,7 +10573,7 @@
         <v>32</v>
       </c>
       <c r="F270" s="2">
-        <v>1012.84</v>
+        <v>1114.1199999999999</v>
       </c>
       <c r="G270">
         <v>0.01</v>
@@ -10596,7 +10596,7 @@
         <v>281</v>
       </c>
       <c r="B271">
-        <v>19.78</v>
+        <v>20.12</v>
       </c>
       <c r="C271" s="2">
         <v>1180.0219999999999</v>
@@ -10608,22 +10608,22 @@
         <v>14415.73</v>
       </c>
       <c r="F271" s="2">
-        <v>23340.84</v>
+        <v>23742.04</v>
       </c>
       <c r="G271">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="H271">
         <v>0.95499999999999996</v>
       </c>
       <c r="I271">
-        <v>20.71</v>
+        <v>21.065999999999999</v>
       </c>
       <c r="J271">
         <v>12.21</v>
       </c>
       <c r="K271">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10631,7 +10631,7 @@
         <v>282</v>
       </c>
       <c r="B272">
-        <v>18.940000000000001</v>
+        <v>18.82</v>
       </c>
       <c r="C272" s="2">
         <v>1080</v>
@@ -10643,7 +10643,7 @@
         <v>21304.55</v>
       </c>
       <c r="F272" s="2">
-        <v>20455.2</v>
+        <v>20325.599999999999</v>
       </c>
       <c r="G272">
         <v>0.22</v>
@@ -10652,13 +10652,13 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="I272">
-        <v>23.713000000000001</v>
+        <v>23.562999999999999</v>
       </c>
       <c r="J272">
         <v>19.72</v>
       </c>
       <c r="K272">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10666,7 +10666,7 @@
         <v>283</v>
       </c>
       <c r="B273">
-        <v>12.3</v>
+        <v>12.62</v>
       </c>
       <c r="C273">
         <v>339.3</v>
@@ -10678,7 +10678,7 @@
         <v>2968.84</v>
       </c>
       <c r="F273" s="2">
-        <v>4173.3900000000003</v>
+        <v>4281.97</v>
       </c>
       <c r="G273">
         <v>0.05</v>
@@ -10693,7 +10693,7 @@
         <v>8.74</v>
       </c>
       <c r="K273">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -10701,7 +10701,7 @@
         <v>284</v>
       </c>
       <c r="B274">
-        <v>21.16</v>
+        <v>21.2</v>
       </c>
       <c r="C274">
         <v>93.332999999999998</v>
@@ -10713,7 +10713,7 @@
         <v>992.46</v>
       </c>
       <c r="F274" s="2">
-        <v>1974.93</v>
+        <v>1978.66</v>
       </c>
       <c r="G274">
         <v>0.02</v>
@@ -10728,7 +10728,7 @@
         <v>10.63</v>
       </c>
       <c r="K274">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -10736,7 +10736,7 @@
         <v>285</v>
       </c>
       <c r="B275">
-        <v>19.18</v>
+        <v>19.04</v>
       </c>
       <c r="C275">
         <v>475</v>
@@ -10748,7 +10748,7 @@
         <v>14824.3</v>
       </c>
       <c r="F275" s="2">
-        <v>9110.5</v>
+        <v>9044</v>
       </c>
       <c r="G275">
         <v>0.1</v>
@@ -10757,7 +10757,7 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="I275">
-        <v>7.2229999999999999</v>
+        <v>7.17</v>
       </c>
       <c r="J275">
         <v>31.2</v>
@@ -10771,7 +10771,7 @@
         <v>286</v>
       </c>
       <c r="B276">
-        <v>13.96</v>
+        <v>14.32</v>
       </c>
       <c r="C276">
         <v>500</v>
@@ -10783,7 +10783,7 @@
         <v>847.1</v>
       </c>
       <c r="F276" s="2">
-        <v>6980</v>
+        <v>7160</v>
       </c>
       <c r="G276">
         <v>0.08</v>
@@ -10792,13 +10792,13 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="I276">
-        <v>25.617000000000001</v>
+        <v>26.277999999999999</v>
       </c>
       <c r="J276">
         <v>1.69</v>
       </c>
       <c r="K276">
-        <v>8.23</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10806,7 +10806,7 @@
         <v>287</v>
       </c>
       <c r="B277">
-        <v>37</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="C277">
         <v>50</v>
@@ -10818,7 +10818,7 @@
         <v>630.74</v>
       </c>
       <c r="F277" s="2">
-        <v>1850</v>
+        <v>1897.5</v>
       </c>
       <c r="G277">
         <v>0.02</v>
@@ -10827,13 +10827,13 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="I277">
-        <v>16.841000000000001</v>
+        <v>17.273</v>
       </c>
       <c r="J277">
         <v>12.61</v>
       </c>
       <c r="K277">
-        <v>2.93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
         <v>288</v>
       </c>
       <c r="B278">
-        <v>4.3099999999999996</v>
+        <v>4.38</v>
       </c>
       <c r="C278">
         <v>200</v>
@@ -10853,7 +10853,7 @@
         <v>404.74</v>
       </c>
       <c r="F278">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="G278">
         <v>0.01</v>
@@ -10862,13 +10862,13 @@
         <v>0.16</v>
       </c>
       <c r="I278">
-        <v>26.945</v>
+        <v>27.382999999999999</v>
       </c>
       <c r="J278">
         <v>2.02</v>
       </c>
       <c r="K278">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10876,7 +10876,7 @@
         <v>289</v>
       </c>
       <c r="B279">
-        <v>20.76</v>
+        <v>21.96</v>
       </c>
       <c r="C279" s="2">
         <v>1438.6469999999999</v>
@@ -10888,22 +10888,22 @@
         <v>15037.78</v>
       </c>
       <c r="F279" s="2">
-        <v>29866.31</v>
+        <v>31592.69</v>
       </c>
       <c r="G279">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="H279">
         <v>0.45400000000000001</v>
       </c>
       <c r="I279">
-        <v>45.704000000000001</v>
+        <v>48.345999999999997</v>
       </c>
       <c r="J279">
         <v>10.45</v>
       </c>
       <c r="K279">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10920,22 +10920,22 @@
         <v>97503.94</v>
       </c>
       <c r="F280" s="2">
-        <v>146817.21</v>
+        <v>150893.57</v>
       </c>
       <c r="G280">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H280">
         <v>0.68500000000000005</v>
       </c>
       <c r="I280">
-        <v>23.126999999999999</v>
+        <v>23.795999999999999</v>
       </c>
       <c r="J280">
         <v>13.97</v>
       </c>
       <c r="K280">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10952,13 +10952,13 @@
         <v>3176092.17</v>
       </c>
       <c r="F281" s="2">
-        <v>9197764.8499999996</v>
+        <v>9222646.1199999992</v>
       </c>
       <c r="H281">
         <v>1.679</v>
       </c>
       <c r="I281">
-        <v>15.62</v>
+        <v>15.66</v>
       </c>
       <c r="J281">
         <v>9.3000000000000007</v>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA1F4F5-4D0B-4CC2-B02D-7621510053C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5670B071-859B-4602-8CA7-8FE0E06B59D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="298">
   <si>
     <t>المؤشرات المالية اليومية</t>
   </si>
@@ -916,10 +916,10 @@
     <t>* معلقة من التداول</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/06/18</t>
-  </si>
-  <si>
     <t>طيران ناس</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/06/22</t>
   </si>
 </sst>
 </file>
@@ -961,15 +961,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1276,7 +1283,7 @@
   <dimension ref="A1:K286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1308,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1352,7 +1359,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1364,7 +1371,7 @@
         <v>345.55</v>
       </c>
       <c r="F5">
-        <v>841.5</v>
+        <v>840</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1387,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>24.9</v>
+        <v>24.82</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1399,22 +1406,22 @@
         <v>1473620</v>
       </c>
       <c r="F6" s="2">
-        <v>6025800</v>
+        <v>6006440</v>
       </c>
       <c r="G6">
-        <v>66.58</v>
+        <v>66.53</v>
       </c>
       <c r="H6">
         <v>1.627</v>
       </c>
       <c r="I6">
-        <v>15.305</v>
+        <v>15.256</v>
       </c>
       <c r="J6">
         <v>6.08</v>
       </c>
       <c r="K6">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1422,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>6.73</v>
+        <v>6.6</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1434,7 +1441,7 @@
         <v>10987</v>
       </c>
       <c r="F7" s="2">
-        <v>11245.83</v>
+        <v>11028.6</v>
       </c>
       <c r="G7">
         <v>0.12</v>
@@ -1449,7 +1456,7 @@
         <v>6.57</v>
       </c>
       <c r="K7">
-        <v>1.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1457,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>73.5</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1469,7 +1476,7 @@
         <v>6010</v>
       </c>
       <c r="F8" s="2">
-        <v>6541.5</v>
+        <v>6497</v>
       </c>
       <c r="G8">
         <v>7.0000000000000007E-2</v>
@@ -1478,7 +1485,7 @@
         <v>2.8090000000000002</v>
       </c>
       <c r="I8">
-        <v>26.167000000000002</v>
+        <v>25.989000000000001</v>
       </c>
       <c r="J8">
         <v>67.52</v>
@@ -1492,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>12.28</v>
+        <v>12.2</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1504,7 +1511,7 @@
         <v>6418.9</v>
       </c>
       <c r="F9" s="2">
-        <v>13864.88</v>
+        <v>13774.56</v>
       </c>
       <c r="G9">
         <v>0.15</v>
@@ -1513,13 +1520,13 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="I9">
-        <v>17.074000000000002</v>
+        <v>16.963000000000001</v>
       </c>
       <c r="J9">
         <v>5.68</v>
       </c>
       <c r="K9">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1527,7 +1534,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>738.28099999999995</v>
@@ -1539,7 +1546,7 @@
         <v>14127.19</v>
       </c>
       <c r="F10" s="2">
-        <v>22296.09</v>
+        <v>22148.43</v>
       </c>
       <c r="G10">
         <v>0.25</v>
@@ -1548,13 +1555,13 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="I10">
-        <v>9.9120000000000008</v>
+        <v>9.8460000000000001</v>
       </c>
       <c r="J10">
         <v>19.13</v>
       </c>
       <c r="K10">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1562,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>117.2</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1574,7 +1581,7 @@
         <v>1438.5</v>
       </c>
       <c r="F11" s="2">
-        <v>11720</v>
+        <v>11700</v>
       </c>
       <c r="G11">
         <v>0.13</v>
@@ -1583,13 +1590,13 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="I11">
-        <v>32.491</v>
+        <v>32.436</v>
       </c>
       <c r="J11">
         <v>14.38</v>
       </c>
       <c r="K11">
-        <v>8.14</v>
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,22 +1613,22 @@
         <v>1512947.14</v>
       </c>
       <c r="F12" s="2">
-        <v>6092309.7999999998</v>
+        <v>6072428.5899999999</v>
       </c>
       <c r="G12">
-        <v>67.31</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="H12">
         <v>1.601</v>
       </c>
       <c r="I12">
-        <v>15.301</v>
+        <v>15.252000000000001</v>
       </c>
       <c r="J12">
         <v>6.16</v>
       </c>
       <c r="K12">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1629,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7.06</v>
+        <v>7.21</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1641,7 +1648,7 @@
         <v>382.18</v>
       </c>
       <c r="F13">
-        <v>539.84</v>
+        <v>551.30999999999995</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1656,7 +1663,7 @@
         <v>4.99</v>
       </c>
       <c r="K13">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1664,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>25.15</v>
+        <v>25.3</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1676,7 +1683,7 @@
         <v>1611.65</v>
       </c>
       <c r="F14" s="2">
-        <v>2179.65</v>
+        <v>2192.65</v>
       </c>
       <c r="G14">
         <v>0.02</v>
@@ -1691,7 +1698,7 @@
         <v>18.59</v>
       </c>
       <c r="K14">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1699,7 +1706,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>25.05</v>
+        <v>25.15</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -1711,7 +1718,7 @@
         <v>598.46</v>
       </c>
       <c r="F15">
-        <v>688.88</v>
+        <v>691.63</v>
       </c>
       <c r="G15">
         <v>0.01</v>
@@ -1720,7 +1727,7 @@
         <v>1.198</v>
       </c>
       <c r="I15">
-        <v>20.913</v>
+        <v>20.995999999999999</v>
       </c>
       <c r="J15">
         <v>21.76</v>
@@ -1734,7 +1741,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>47.3</v>
+        <v>47.25</v>
       </c>
       <c r="C16" s="2">
         <v>3802.7849999999999</v>
@@ -1746,7 +1753,7 @@
         <v>53273.5</v>
       </c>
       <c r="F16" s="2">
-        <v>179871.73</v>
+        <v>179681.59</v>
       </c>
       <c r="G16">
         <v>1.99</v>
@@ -1755,7 +1762,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="I16">
-        <v>52.290999999999997</v>
+        <v>52.234999999999999</v>
       </c>
       <c r="J16">
         <v>14</v>
@@ -1769,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>20.46</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1781,7 +1788,7 @@
         <v>366.9</v>
       </c>
       <c r="F17">
-        <v>574.52</v>
+        <v>589.67999999999995</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1790,13 +1797,13 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17">
-        <v>59.844999999999999</v>
+        <v>61.424999999999997</v>
       </c>
       <c r="J17">
         <v>13.06</v>
       </c>
       <c r="K17">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1804,7 +1811,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>27.65</v>
+        <v>28.2</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1816,7 +1823,7 @@
         <v>590.22</v>
       </c>
       <c r="F18" s="2">
-        <v>1404.62</v>
+        <v>1432.56</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1825,13 +1832,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="I18">
-        <v>37.707000000000001</v>
+        <v>38.457000000000001</v>
       </c>
       <c r="J18">
         <v>11.61</v>
       </c>
       <c r="K18">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1839,7 +1846,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>48.3</v>
+        <v>49.95</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1851,7 +1858,7 @@
         <v>913</v>
       </c>
       <c r="F19" s="2">
-        <v>2463.3000000000002</v>
+        <v>2547.4499999999998</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1860,13 +1867,13 @@
         <v>4.7839999999999998</v>
       </c>
       <c r="I19">
-        <v>10.095000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="J19">
         <v>17.899999999999999</v>
       </c>
       <c r="K19">
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,7 +1881,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>105.8</v>
+        <v>110.4</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1886,7 +1893,7 @@
         <v>1049.6199999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>3332.7</v>
+        <v>3477.6</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1895,13 +1902,13 @@
         <v>15.114000000000001</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>7.3040000000000003</v>
       </c>
       <c r="J20">
         <v>33.32</v>
       </c>
       <c r="K20">
-        <v>3.17</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>57.4</v>
+        <v>57.5</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1921,7 +1928,7 @@
         <v>1210.1199999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5166</v>
+        <v>5175</v>
       </c>
       <c r="G21">
         <v>0.06</v>
@@ -1930,13 +1937,13 @@
         <v>2.4220000000000002</v>
       </c>
       <c r="I21">
-        <v>23.696000000000002</v>
+        <v>23.736999999999998</v>
       </c>
       <c r="J21">
         <v>13.44</v>
       </c>
       <c r="K21">
-        <v>4.26</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1944,7 +1951,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>34.65</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1956,7 +1963,7 @@
         <v>564.17999999999995</v>
       </c>
       <c r="F22" s="2">
-        <v>1386</v>
+        <v>1358</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1965,13 +1972,13 @@
         <v>2.718</v>
       </c>
       <c r="I22">
-        <v>12.75</v>
+        <v>12.493</v>
       </c>
       <c r="J22">
         <v>14.1</v>
       </c>
       <c r="K22">
-        <v>2.4500000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1979,7 +1986,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>12.44</v>
+        <v>12.38</v>
       </c>
       <c r="C23">
         <v>67.45</v>
@@ -1991,7 +1998,7 @@
         <v>728.24</v>
       </c>
       <c r="F23">
-        <v>839.08</v>
+        <v>835.03</v>
       </c>
       <c r="G23">
         <v>0.01</v>
@@ -2006,7 +2013,7 @@
         <v>10.79</v>
       </c>
       <c r="K23">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2014,7 +2021,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2026,22 +2033,22 @@
         <v>156110</v>
       </c>
       <c r="F24" s="2">
-        <v>165900</v>
+        <v>162900</v>
       </c>
       <c r="G24">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H24">
         <v>2.7E-2</v>
       </c>
       <c r="I24">
-        <v>2073.75</v>
+        <v>2036.25</v>
       </c>
       <c r="J24">
         <v>52.03</v>
       </c>
       <c r="K24">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2049,7 +2056,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>106.8</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2061,22 +2068,22 @@
         <v>19286</v>
       </c>
       <c r="F25" s="2">
-        <v>51411.78</v>
+        <v>50840.54</v>
       </c>
       <c r="G25">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H25">
         <v>7.2910000000000004</v>
       </c>
       <c r="I25">
-        <v>14.811</v>
+        <v>14.647</v>
       </c>
       <c r="J25">
         <v>40.51</v>
       </c>
       <c r="K25">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2084,7 +2091,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>9.0299999999999994</v>
+        <v>8.98</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2096,7 +2103,7 @@
         <v>10484.4</v>
       </c>
       <c r="F26" s="2">
-        <v>6040.29</v>
+        <v>6006.85</v>
       </c>
       <c r="G26">
         <v>7.0000000000000007E-2</v>
@@ -2105,7 +2112,7 @@
         <v>1.601</v>
       </c>
       <c r="I26">
-        <v>5.641</v>
+        <v>5.61</v>
       </c>
       <c r="J26">
         <v>15.67</v>
@@ -2119,7 +2126,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>18.600000000000001</v>
+        <v>18.14</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2131,7 +2138,7 @@
         <v>346.35</v>
       </c>
       <c r="F27">
-        <v>588.99</v>
+        <v>574.41999999999996</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2146,7 +2153,7 @@
         <v>10.93</v>
       </c>
       <c r="K27">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2154,7 +2161,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>39.65</v>
+        <v>41.8</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2166,22 +2173,22 @@
         <v>772.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1304.49</v>
+        <v>1375.22</v>
       </c>
       <c r="G28">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H28">
         <v>2.7930000000000001</v>
       </c>
       <c r="I28">
-        <v>14.194000000000001</v>
+        <v>14.964</v>
       </c>
       <c r="J28">
         <v>23.47</v>
       </c>
       <c r="K28">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2189,7 +2196,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>34.65</v>
+        <v>36.25</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2201,7 +2208,7 @@
         <v>3475.91</v>
       </c>
       <c r="F29" s="2">
-        <v>2397.7800000000002</v>
+        <v>2508.5</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2216,7 +2223,7 @@
         <v>50.22</v>
       </c>
       <c r="K29">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2259,7 +2266,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>5.54</v>
+        <v>5.71</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -2271,7 +2278,7 @@
         <v>441.49</v>
       </c>
       <c r="F31" s="2">
-        <v>1108</v>
+        <v>1142</v>
       </c>
       <c r="G31">
         <v>0.01</v>
@@ -2280,13 +2287,13 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="I31">
-        <v>7.2140000000000004</v>
+        <v>7.4359999999999999</v>
       </c>
       <c r="J31">
         <v>2.2000000000000002</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2329,7 +2336,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2341,7 +2348,7 @@
         <v>242.28</v>
       </c>
       <c r="F33">
-        <v>453.12</v>
+        <v>456.66</v>
       </c>
       <c r="G33">
         <v>0.01</v>
@@ -2356,7 +2363,7 @@
         <v>6.84</v>
       </c>
       <c r="K33">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2364,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>94.4</v>
+        <v>94.8</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2376,7 +2383,7 @@
         <v>4075.05</v>
       </c>
       <c r="F34" s="2">
-        <v>15930</v>
+        <v>15997.5</v>
       </c>
       <c r="G34">
         <v>0.18</v>
@@ -2385,13 +2392,13 @@
         <v>5.6559999999999997</v>
       </c>
       <c r="I34">
-        <v>16.689</v>
+        <v>16.759</v>
       </c>
       <c r="J34">
         <v>24.14</v>
       </c>
       <c r="K34">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2399,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>39.200000000000003</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2411,7 +2418,7 @@
         <v>474.58</v>
       </c>
       <c r="F35" s="2">
-        <v>2352</v>
+        <v>2280</v>
       </c>
       <c r="G35">
         <v>0.03</v>
@@ -2420,13 +2427,13 @@
         <v>0.72</v>
       </c>
       <c r="I35">
-        <v>54.457000000000001</v>
+        <v>52.789000000000001</v>
       </c>
       <c r="J35">
         <v>7.9</v>
       </c>
       <c r="K35">
-        <v>4.95</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2434,7 +2441,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>16.600000000000001</v>
+        <v>16.82</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2446,22 +2453,22 @@
         <v>9853</v>
       </c>
       <c r="F36" s="2">
-        <v>11276.71</v>
+        <v>11426.16</v>
       </c>
       <c r="G36">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H36">
         <v>0.28100000000000003</v>
       </c>
       <c r="I36">
-        <v>59.04</v>
+        <v>59.822000000000003</v>
       </c>
       <c r="J36">
         <v>14.5</v>
       </c>
       <c r="K36">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2504,7 +2511,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>58.9</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2516,7 +2523,7 @@
         <v>533.52</v>
       </c>
       <c r="F38" s="2">
-        <v>2183.42</v>
+        <v>2224.1999999999998</v>
       </c>
       <c r="G38">
         <v>0.02</v>
@@ -2525,13 +2532,13 @@
         <v>1.825</v>
       </c>
       <c r="I38">
-        <v>32.270000000000003</v>
+        <v>32.872999999999998</v>
       </c>
       <c r="J38">
         <v>14.39</v>
       </c>
       <c r="K38">
-        <v>4.09</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2539,7 +2546,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>18.739999999999998</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2551,7 +2558,7 @@
         <v>15430</v>
       </c>
       <c r="F39" s="2">
-        <v>13742.66</v>
+        <v>13991.99</v>
       </c>
       <c r="G39">
         <v>0.15</v>
@@ -2560,13 +2567,13 @@
         <v>0.6</v>
       </c>
       <c r="I39">
-        <v>31.233000000000001</v>
+        <v>31.798999999999999</v>
       </c>
       <c r="J39">
         <v>21.04</v>
       </c>
       <c r="K39">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>28.1</v>
+        <v>28.35</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2586,7 +2593,7 @@
         <v>2915</v>
       </c>
       <c r="F40" s="2">
-        <v>7306</v>
+        <v>7371</v>
       </c>
       <c r="G40">
         <v>0.08</v>
@@ -2601,7 +2608,7 @@
         <v>11.21</v>
       </c>
       <c r="K40">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2609,7 +2616,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>4.53</v>
+        <v>4.49</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2621,10 +2628,10 @@
         <v>10731.37</v>
       </c>
       <c r="F41" s="2">
-        <v>6795</v>
+        <v>6735</v>
       </c>
       <c r="G41">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H41">
         <v>-1.3380000000000001</v>
@@ -2636,7 +2643,7 @@
         <v>7.15</v>
       </c>
       <c r="K41">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2644,7 +2651,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>26.4</v>
+        <v>26.85</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2656,7 +2663,7 @@
         <v>93.41</v>
       </c>
       <c r="F42">
-        <v>396</v>
+        <v>402.75</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2671,7 +2678,7 @@
         <v>6.22</v>
       </c>
       <c r="K42">
-        <v>4.2300000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,7 +2686,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>7.89</v>
+        <v>7.85</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2691,7 +2698,7 @@
         <v>2053.0500000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>1341.3</v>
+        <v>1334.5</v>
       </c>
       <c r="G43">
         <v>0.01</v>
@@ -2700,7 +2707,7 @@
         <v>0.437</v>
       </c>
       <c r="I43">
-        <v>18.074000000000002</v>
+        <v>17.981999999999999</v>
       </c>
       <c r="J43">
         <v>12.07</v>
@@ -2714,7 +2721,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>16.28</v>
+        <v>16.16</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2726,7 +2733,7 @@
         <v>1846.52</v>
       </c>
       <c r="F44" s="2">
-        <v>2279.1999999999998</v>
+        <v>2262.4</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2735,13 +2742,13 @@
         <v>1.101</v>
       </c>
       <c r="I44">
-        <v>14.792999999999999</v>
+        <v>14.683999999999999</v>
       </c>
       <c r="J44">
         <v>13.18</v>
       </c>
       <c r="K44">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2749,7 +2756,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>7.51</v>
+        <v>7.47</v>
       </c>
       <c r="C45">
         <v>180</v>
@@ -2761,7 +2768,7 @@
         <v>2264.7800000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>1351.8</v>
+        <v>1344.6</v>
       </c>
       <c r="G45">
         <v>0.01</v>
@@ -2770,7 +2777,7 @@
         <v>0.317</v>
       </c>
       <c r="I45">
-        <v>23.681999999999999</v>
+        <v>23.556000000000001</v>
       </c>
       <c r="J45">
         <v>12.58</v>
@@ -2784,7 +2791,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>15.5</v>
+        <v>15.66</v>
       </c>
       <c r="C46">
         <v>55</v>
@@ -2796,7 +2803,7 @@
         <v>824.47</v>
       </c>
       <c r="F46">
-        <v>852.5</v>
+        <v>861.3</v>
       </c>
       <c r="G46">
         <v>0.01</v>
@@ -2805,13 +2812,13 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="I46">
-        <v>19.303999999999998</v>
+        <v>19.504000000000001</v>
       </c>
       <c r="J46">
         <v>14.99</v>
       </c>
       <c r="K46">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2819,7 +2826,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>23.96</v>
+        <v>24.5</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2831,7 +2838,7 @@
         <v>289.64999999999998</v>
       </c>
       <c r="F47">
-        <v>539.1</v>
+        <v>551.25</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2840,13 +2847,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I47">
-        <v>5990</v>
+        <v>6125</v>
       </c>
       <c r="J47">
         <v>12.87</v>
       </c>
       <c r="K47">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2854,7 +2861,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2866,7 +2873,7 @@
         <v>107.08</v>
       </c>
       <c r="F48">
-        <v>431.74</v>
+        <v>436.26</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -2881,7 +2888,7 @@
         <v>0.47</v>
       </c>
       <c r="K48">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2889,7 +2896,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>22.58</v>
+        <v>22.42</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2901,7 +2908,7 @@
         <v>2586.1</v>
       </c>
       <c r="F49" s="2">
-        <v>2258</v>
+        <v>2242</v>
       </c>
       <c r="G49">
         <v>0.02</v>
@@ -2910,13 +2917,13 @@
         <v>1.296</v>
       </c>
       <c r="I49">
-        <v>17.422000000000001</v>
+        <v>17.298999999999999</v>
       </c>
       <c r="J49">
         <v>25.86</v>
       </c>
       <c r="K49">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2924,7 +2931,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="C50">
         <v>202.5</v>
@@ -2936,7 +2943,7 @@
         <v>4985.1000000000004</v>
       </c>
       <c r="F50" s="2">
-        <v>6500.25</v>
+        <v>6561</v>
       </c>
       <c r="G50">
         <v>7.0000000000000007E-2</v>
@@ -2945,13 +2952,13 @@
         <v>2.2109999999999999</v>
       </c>
       <c r="I50">
-        <v>14.516999999999999</v>
+        <v>14.653</v>
       </c>
       <c r="J50">
         <v>24.61</v>
       </c>
       <c r="K50">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2959,7 +2966,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>37.950000000000003</v>
+        <v>38.75</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2971,22 +2978,22 @@
         <v>2349</v>
       </c>
       <c r="F51" s="2">
-        <v>5806.35</v>
+        <v>5928.75</v>
       </c>
       <c r="G51">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H51">
         <v>2.7229999999999999</v>
       </c>
       <c r="I51">
-        <v>13.936999999999999</v>
+        <v>14.231</v>
       </c>
       <c r="J51">
         <v>15.35</v>
       </c>
       <c r="K51">
-        <v>2.4700000000000002</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3029,7 +3036,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>28.9</v>
+        <v>27.35</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3041,7 +3048,7 @@
         <v>3398</v>
       </c>
       <c r="F53" s="2">
-        <v>4046</v>
+        <v>3829</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3050,13 +3057,13 @@
         <v>1.4930000000000001</v>
       </c>
       <c r="I53">
-        <v>19.358000000000001</v>
+        <v>18.32</v>
       </c>
       <c r="J53">
         <v>24.27</v>
       </c>
       <c r="K53">
-        <v>1.19</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3064,7 +3071,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>19.88</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3076,7 +3083,7 @@
         <v>2635.99</v>
       </c>
       <c r="F54" s="2">
-        <v>3131.1</v>
+        <v>3080.7</v>
       </c>
       <c r="G54">
         <v>0.03</v>
@@ -3085,13 +3092,13 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="I54">
-        <v>24.323</v>
+        <v>23.931000000000001</v>
       </c>
       <c r="J54">
         <v>16.73</v>
       </c>
       <c r="K54">
-        <v>1.18</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3099,7 +3106,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>29.9</v>
+        <v>29.85</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3111,7 +3118,7 @@
         <v>2267</v>
       </c>
       <c r="F55" s="2">
-        <v>2571.4</v>
+        <v>2567.1</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3120,7 +3127,7 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="I55">
-        <v>10.625</v>
+        <v>10.606999999999999</v>
       </c>
       <c r="J55">
         <v>26.36</v>
@@ -3169,7 +3176,7 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>7.76</v>
+        <v>7.65</v>
       </c>
       <c r="C57">
         <v>108.7</v>
@@ -3181,7 +3188,7 @@
         <v>1101.25</v>
       </c>
       <c r="F57">
-        <v>843.51</v>
+        <v>831.56</v>
       </c>
       <c r="G57">
         <v>0.01</v>
@@ -3196,7 +3203,7 @@
         <v>10.130000000000001</v>
       </c>
       <c r="K57">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3204,7 +3211,7 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>30.15</v>
+        <v>31.4</v>
       </c>
       <c r="C58">
         <v>120</v>
@@ -3216,7 +3223,7 @@
         <v>1856.93</v>
       </c>
       <c r="F58" s="2">
-        <v>3618</v>
+        <v>3768</v>
       </c>
       <c r="G58">
         <v>0.04</v>
@@ -3225,13 +3232,13 @@
         <v>2.6339999999999999</v>
       </c>
       <c r="I58">
-        <v>11.448</v>
+        <v>11.923</v>
       </c>
       <c r="J58">
         <v>15.47</v>
       </c>
       <c r="K58">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3248,16 +3255,16 @@
         <v>340669.09</v>
       </c>
       <c r="F59" s="2">
-        <v>546728.44999999995</v>
+        <v>543889.35</v>
       </c>
       <c r="G59">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="H59">
         <v>0.752</v>
       </c>
       <c r="I59">
-        <v>37.140999999999998</v>
+        <v>36.930999999999997</v>
       </c>
       <c r="J59">
         <v>22.74</v>
@@ -3271,7 +3278,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3283,7 +3290,7 @@
         <v>2700.53</v>
       </c>
       <c r="F60" s="2">
-        <v>11520</v>
+        <v>11440</v>
       </c>
       <c r="G60">
         <v>0.13</v>
@@ -3292,13 +3299,13 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="I60">
-        <v>18.838999999999999</v>
+        <v>18.709</v>
       </c>
       <c r="J60">
         <v>33.75</v>
       </c>
       <c r="K60">
-        <v>4.26</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3306,7 +3313,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>26.45</v>
+        <v>25.2</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3318,7 +3325,7 @@
         <v>825.67</v>
       </c>
       <c r="F61" s="2">
-        <v>1467.98</v>
+        <v>1398.6</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3327,13 +3334,13 @@
         <v>1.379</v>
       </c>
       <c r="I61">
-        <v>19.178999999999998</v>
+        <v>18.271999999999998</v>
       </c>
       <c r="J61">
         <v>14.87</v>
       </c>
       <c r="K61">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3341,7 +3348,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>46.85</v>
+        <v>47.6</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3353,7 +3360,7 @@
         <v>964.6</v>
       </c>
       <c r="F62" s="2">
-        <v>2811</v>
+        <v>2856</v>
       </c>
       <c r="G62">
         <v>0.03</v>
@@ -3362,13 +3369,13 @@
         <v>1.89</v>
       </c>
       <c r="I62">
-        <v>24.79</v>
+        <v>25.187000000000001</v>
       </c>
       <c r="J62">
         <v>16.07</v>
       </c>
       <c r="K62">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3376,7 +3383,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3388,7 +3395,7 @@
         <v>930.83</v>
       </c>
       <c r="F63" s="2">
-        <v>8133.75</v>
+        <v>8145</v>
       </c>
       <c r="G63">
         <v>0.09</v>
@@ -3397,13 +3404,13 @@
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>18.077000000000002</v>
+        <v>18.102</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>8.73</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3411,7 +3418,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>26.05</v>
+        <v>25.6</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3423,7 +3430,7 @@
         <v>1444.71</v>
       </c>
       <c r="F64" s="2">
-        <v>2605</v>
+        <v>2560</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3438,7 +3445,7 @@
         <v>14.44</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3446,7 +3453,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>125.6</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3458,7 +3465,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>838</v>
+        <v>879.37</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3481,7 +3488,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>18.46</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3493,7 +3500,7 @@
         <v>908.22</v>
       </c>
       <c r="F66">
-        <v>822.39</v>
+        <v>828.63</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3508,7 +3515,7 @@
         <v>20.38</v>
       </c>
       <c r="K66">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3516,7 +3523,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>48.8</v>
+        <v>49.05</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3528,7 +3535,7 @@
         <v>1078.5999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>3120.56</v>
+        <v>3136.55</v>
       </c>
       <c r="G67">
         <v>0.03</v>
@@ -3537,13 +3544,13 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="I67">
-        <v>11.497999999999999</v>
+        <v>11.555999999999999</v>
       </c>
       <c r="J67">
         <v>16.86</v>
       </c>
       <c r="K67">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3551,7 +3558,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3563,7 +3570,7 @@
         <v>490.64</v>
       </c>
       <c r="F68" s="2">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3572,13 +3579,13 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="I68">
-        <v>13.961</v>
+        <v>13.866</v>
       </c>
       <c r="J68">
         <v>12.26</v>
       </c>
       <c r="K68">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3586,7 +3593,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3598,7 +3605,7 @@
         <v>409.58</v>
       </c>
       <c r="F69" s="2">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="G69">
         <v>0.01</v>
@@ -3613,7 +3620,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3621,7 +3628,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3633,7 +3640,7 @@
         <v>123.96</v>
       </c>
       <c r="F70">
-        <v>384.91</v>
+        <v>386.86</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3648,7 +3655,7 @@
         <v>0.63</v>
       </c>
       <c r="K70">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3656,7 +3663,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>25.35</v>
+        <v>25.75</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3668,7 +3675,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="F71">
-        <v>304.2</v>
+        <v>309</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3683,7 +3690,7 @@
         <v>12.81</v>
       </c>
       <c r="K71">
-        <v>1.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3691,7 +3698,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3703,7 +3710,7 @@
         <v>2899.91</v>
       </c>
       <c r="F72" s="2">
-        <v>19500</v>
+        <v>19800</v>
       </c>
       <c r="G72">
         <v>0.22</v>
@@ -3712,13 +3719,13 @@
         <v>6.0270000000000001</v>
       </c>
       <c r="I72">
-        <v>21.567</v>
+        <v>21.899000000000001</v>
       </c>
       <c r="J72">
         <v>19.329999999999998</v>
       </c>
       <c r="K72">
-        <v>6.72</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3726,7 +3733,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>39.85</v>
+        <v>40.65</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3738,7 +3745,7 @@
         <v>528.99</v>
       </c>
       <c r="F73" s="2">
-        <v>1594</v>
+        <v>1626</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3747,13 +3754,13 @@
         <v>2.0289999999999999</v>
       </c>
       <c r="I73">
-        <v>19.641999999999999</v>
+        <v>20.036000000000001</v>
       </c>
       <c r="J73">
         <v>13.22</v>
       </c>
       <c r="K73">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3761,7 +3768,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>59.1</v>
+        <v>59.7</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3773,7 +3780,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="F74">
-        <v>738.75</v>
+        <v>746.25</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3782,13 +3789,13 @@
         <v>1.913</v>
       </c>
       <c r="I74">
-        <v>30.896999999999998</v>
+        <v>31.21</v>
       </c>
       <c r="J74">
         <v>12.89</v>
       </c>
       <c r="K74">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3805,7 +3812,7 @@
         <v>13621.27</v>
       </c>
       <c r="F75" s="2">
-        <v>56228.54</v>
+        <v>56504.26</v>
       </c>
       <c r="G75">
         <v>0.62</v>
@@ -3814,13 +3821,13 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="I75">
-        <v>19.135999999999999</v>
+        <v>19.233000000000001</v>
       </c>
       <c r="J75">
         <v>5.27</v>
       </c>
       <c r="K75">
-        <v>4.13</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3828,7 +3835,7 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C76">
         <v>475</v>
@@ -3840,7 +3847,7 @@
         <v>613.96</v>
       </c>
       <c r="F76" s="2">
-        <v>2161.25</v>
+        <v>2156.5</v>
       </c>
       <c r="G76">
         <v>0.02</v>
@@ -3849,13 +3856,13 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="I76">
-        <v>21.367999999999999</v>
+        <v>21.321000000000002</v>
       </c>
       <c r="J76">
         <v>1.29</v>
       </c>
       <c r="K76">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3863,7 +3870,7 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="C77">
         <v>175</v>
@@ -3875,7 +3882,7 @@
         <v>167.63</v>
       </c>
       <c r="F77">
-        <v>490</v>
+        <v>486.5</v>
       </c>
       <c r="G77">
         <v>0.01</v>
@@ -3890,7 +3897,7 @@
         <v>0.95</v>
       </c>
       <c r="K77">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3968,7 +3975,7 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>49.3</v>
+        <v>51.2</v>
       </c>
       <c r="C80">
         <v>26.5</v>
@@ -3980,22 +3987,22 @@
         <v>375.3</v>
       </c>
       <c r="F80" s="2">
-        <v>1306.45</v>
+        <v>1356.8</v>
       </c>
       <c r="G80">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H80">
         <v>3.528</v>
       </c>
       <c r="I80">
-        <v>13.972</v>
+        <v>14.510999999999999</v>
       </c>
       <c r="J80">
         <v>14.16</v>
       </c>
       <c r="K80">
-        <v>3.48</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4003,7 +4010,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>9.7799999999999994</v>
+        <v>9.81</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4015,7 +4022,7 @@
         <v>257.07</v>
       </c>
       <c r="F81">
-        <v>586.79999999999995</v>
+        <v>588.6</v>
       </c>
       <c r="G81">
         <v>0.01</v>
@@ -4038,7 +4045,7 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>110.8</v>
+        <v>110.6</v>
       </c>
       <c r="C82">
         <v>82</v>
@@ -4050,7 +4057,7 @@
         <v>1432.29</v>
       </c>
       <c r="F82" s="2">
-        <v>9085.6</v>
+        <v>9069.2000000000007</v>
       </c>
       <c r="G82">
         <v>0.1</v>
@@ -4059,13 +4066,13 @@
         <v>4.3449999999999998</v>
       </c>
       <c r="I82">
-        <v>25.498000000000001</v>
+        <v>25.452000000000002</v>
       </c>
       <c r="J82">
         <v>17.46</v>
       </c>
       <c r="K82">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4082,22 +4089,22 @@
         <v>3842.87</v>
       </c>
       <c r="F83" s="2">
-        <v>17869.099999999999</v>
+        <v>17896.599999999999</v>
       </c>
       <c r="G83">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H83">
         <v>0.45</v>
       </c>
       <c r="I83">
-        <v>21.567</v>
+        <v>21.605</v>
       </c>
       <c r="J83">
         <v>3.12</v>
       </c>
       <c r="K83">
-        <v>4.6500000000000004</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4105,7 +4112,7 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="C84">
         <v>81.599999999999994</v>
@@ -4117,7 +4124,7 @@
         <v>1494</v>
       </c>
       <c r="F84" s="2">
-        <v>2178.7199999999998</v>
+        <v>2129.7600000000002</v>
       </c>
       <c r="G84">
         <v>0.02</v>
@@ -4126,13 +4133,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I84">
-        <v>48.308</v>
+        <v>47.222999999999999</v>
       </c>
       <c r="J84">
         <v>18.3</v>
       </c>
       <c r="K84">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4245,7 +4252,7 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>64.2</v>
+        <v>63.5</v>
       </c>
       <c r="C88">
         <v>43</v>
@@ -4257,7 +4264,7 @@
         <v>850.43</v>
       </c>
       <c r="F88" s="2">
-        <v>2760.6</v>
+        <v>2730.5</v>
       </c>
       <c r="G88">
         <v>0.03</v>
@@ -4266,13 +4273,13 @@
         <v>4.3630000000000004</v>
       </c>
       <c r="I88">
-        <v>14.715999999999999</v>
+        <v>14.555</v>
       </c>
       <c r="J88">
         <v>19.77</v>
       </c>
       <c r="K88">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4280,7 +4287,7 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="C89">
         <v>55</v>
@@ -4292,7 +4299,7 @@
         <v>1265.3900000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>3019.5</v>
+        <v>2992</v>
       </c>
       <c r="G89">
         <v>0.03</v>
@@ -4301,13 +4308,13 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="I89">
-        <v>15.997999999999999</v>
+        <v>15.852</v>
       </c>
       <c r="J89">
         <v>23</v>
       </c>
       <c r="K89">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4315,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>162.4</v>
+        <v>167.4</v>
       </c>
       <c r="C90">
         <v>80</v>
@@ -4327,30 +4334,30 @@
         <v>1449</v>
       </c>
       <c r="F90" s="2">
-        <v>12992</v>
+        <v>13392</v>
       </c>
       <c r="G90">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H90">
         <v>7.5759999999999996</v>
       </c>
       <c r="I90">
-        <v>21.436</v>
+        <v>22.096</v>
       </c>
       <c r="J90">
         <v>18.11</v>
       </c>
       <c r="K90">
-        <v>8.9600000000000009</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>297</v>
+      <c r="A91" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B91">
-        <v>77.3</v>
+        <v>74.2</v>
       </c>
       <c r="C91">
         <v>170.851</v>
@@ -4362,10 +4369,10 @@
         <v>32</v>
       </c>
       <c r="F91" s="2">
-        <v>13206.78</v>
+        <v>12677.14</v>
       </c>
       <c r="G91">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
@@ -4381,7 +4388,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C92">
@@ -4394,7 +4401,7 @@
         <v>11201.01</v>
       </c>
       <c r="F92" s="2">
-        <v>49329.06</v>
+        <v>49092.86</v>
       </c>
       <c r="G92">
         <v>0.54</v>
@@ -4403,13 +4410,13 @@
         <v>2.1320000000000001</v>
       </c>
       <c r="I92">
-        <v>20.626000000000001</v>
+        <v>20.792999999999999</v>
       </c>
       <c r="J92">
         <v>13.63</v>
       </c>
       <c r="K92">
-        <v>4.4000000000000004</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4417,7 +4424,7 @@
         <v>102</v>
       </c>
       <c r="B93">
-        <v>74.900000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="C93">
         <v>10.897</v>
@@ -4429,7 +4436,7 @@
         <v>39.29</v>
       </c>
       <c r="F93">
-        <v>816.19</v>
+        <v>800.93</v>
       </c>
       <c r="G93">
         <v>0.01</v>
@@ -4444,7 +4451,7 @@
         <v>3.6</v>
       </c>
       <c r="K93">
-        <v>20.77</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4452,7 +4459,7 @@
         <v>103</v>
       </c>
       <c r="B94">
-        <v>23.82</v>
+        <v>24.24</v>
       </c>
       <c r="C94">
         <v>13.5</v>
@@ -4464,7 +4471,7 @@
         <v>64.38</v>
       </c>
       <c r="F94" s="2">
-        <v>321.57</v>
+        <v>327.24</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -4479,7 +4486,7 @@
         <v>4.76</v>
       </c>
       <c r="K94">
-        <v>4.99</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4487,7 +4494,7 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>12.1</v>
+        <v>11.94</v>
       </c>
       <c r="C95">
         <v>81.25</v>
@@ -4499,7 +4506,7 @@
         <v>1043.97</v>
       </c>
       <c r="F95">
-        <v>983.13</v>
+        <v>970.13</v>
       </c>
       <c r="G95">
         <v>0.01</v>
@@ -4514,7 +4521,7 @@
         <v>12.84</v>
       </c>
       <c r="K95">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4522,7 +4529,7 @@
         <v>105</v>
       </c>
       <c r="B96">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="C96">
         <v>57.5</v>
@@ -4534,7 +4541,7 @@
         <v>293.3</v>
       </c>
       <c r="F96" s="2">
-        <v>684.25</v>
+        <v>707.25</v>
       </c>
       <c r="G96">
         <v>0.01</v>
@@ -4549,7 +4556,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K96">
-        <v>2.33</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4557,7 +4564,7 @@
         <v>106</v>
       </c>
       <c r="B97">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="C97">
         <v>400</v>
@@ -4569,7 +4576,7 @@
         <v>614.85</v>
       </c>
       <c r="F97" s="2">
-        <v>1480</v>
+        <v>1528</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -4578,21 +4585,21 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I97">
-        <v>13.847</v>
+        <v>14.295999999999999</v>
       </c>
       <c r="J97">
         <v>1.53</v>
       </c>
       <c r="K97">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B98">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="C98">
         <v>275</v>
@@ -4604,7 +4611,7 @@
         <v>465.35</v>
       </c>
       <c r="F98" s="2">
-        <v>858</v>
+        <v>855.25</v>
       </c>
       <c r="G98">
         <v>0.01</v>
@@ -4613,17 +4620,17 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I98">
-        <v>74.608000000000004</v>
+        <v>74.369</v>
       </c>
       <c r="J98">
         <v>1.69</v>
       </c>
       <c r="K98">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C99">
@@ -4636,7 +4643,7 @@
         <v>2521.14</v>
       </c>
       <c r="F99" s="2">
-        <v>5143.1400000000003</v>
+        <v>5188.8</v>
       </c>
       <c r="G99">
         <v>0.06</v>
@@ -4645,13 +4652,13 @@
         <v>-0.121</v>
       </c>
       <c r="I99">
-        <v>19.75</v>
+        <v>20.132000000000001</v>
       </c>
       <c r="J99">
         <v>3.01</v>
       </c>
       <c r="K99">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4659,7 +4666,7 @@
         <v>109</v>
       </c>
       <c r="B100">
-        <v>22.04</v>
+        <v>23.48</v>
       </c>
       <c r="C100">
         <v>300</v>
@@ -4671,10 +4678,10 @@
         <v>5992</v>
       </c>
       <c r="F100" s="2">
-        <v>6612</v>
+        <v>7044</v>
       </c>
       <c r="G100">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H100">
         <v>-0.48699999999999999</v>
@@ -4686,7 +4693,7 @@
         <v>19.97</v>
       </c>
       <c r="K100">
-        <v>1.1000000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4694,7 +4701,7 @@
         <v>110</v>
       </c>
       <c r="B101">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="C101">
         <v>315</v>
@@ -4706,7 +4713,7 @@
         <v>191.56</v>
       </c>
       <c r="F101" s="2">
-        <v>598.5</v>
+        <v>592.20000000000005</v>
       </c>
       <c r="G101">
         <v>0.01</v>
@@ -4721,7 +4728,7 @@
         <v>0.6</v>
       </c>
       <c r="K101">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4729,7 +4736,7 @@
         <v>111</v>
       </c>
       <c r="B102">
-        <v>119.6</v>
+        <v>118.4</v>
       </c>
       <c r="C102" s="2">
         <v>52.383000000000003</v>
@@ -4741,7 +4748,7 @@
         <v>1238</v>
       </c>
       <c r="F102" s="2">
-        <v>6265.01</v>
+        <v>6202.15</v>
       </c>
       <c r="G102">
         <v>7.0000000000000007E-2</v>
@@ -4750,13 +4757,13 @@
         <v>8.266</v>
       </c>
       <c r="I102">
-        <v>14.468</v>
+        <v>14.323</v>
       </c>
       <c r="J102">
         <v>23.63</v>
       </c>
       <c r="K102">
-        <v>5.0599999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4764,7 +4771,7 @@
         <v>112</v>
       </c>
       <c r="B103">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="C103" s="2">
         <v>1156.472</v>
@@ -4776,7 +4783,7 @@
         <v>504.42</v>
       </c>
       <c r="F103" s="2">
-        <v>821.1</v>
+        <v>844.22</v>
       </c>
       <c r="G103">
         <v>0.01</v>
@@ -4785,13 +4792,13 @@
         <v>1E-3</v>
       </c>
       <c r="I103">
-        <v>782</v>
+        <v>804.01900000000001</v>
       </c>
       <c r="J103">
         <v>0.43</v>
       </c>
       <c r="K103">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4799,7 +4806,7 @@
         <v>113</v>
       </c>
       <c r="B104">
-        <v>23.28</v>
+        <v>23.16</v>
       </c>
       <c r="C104">
         <v>65</v>
@@ -4811,7 +4818,7 @@
         <v>522.6</v>
       </c>
       <c r="F104" s="2">
-        <v>1513.2</v>
+        <v>1505.4</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4820,13 +4827,13 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I104">
-        <v>88.543000000000006</v>
+        <v>88.085999999999999</v>
       </c>
       <c r="J104">
         <v>8.0399999999999991</v>
       </c>
       <c r="K104">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4834,7 +4841,7 @@
         <v>114</v>
       </c>
       <c r="B105">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C105">
         <v>43</v>
@@ -4846,7 +4853,7 @@
         <v>781.31</v>
       </c>
       <c r="F105" s="2">
-        <v>6020</v>
+        <v>6192</v>
       </c>
       <c r="G105">
         <v>7.0000000000000007E-2</v>
@@ -4855,13 +4862,13 @@
         <v>3.9769999999999999</v>
       </c>
       <c r="I105">
-        <v>35.204000000000001</v>
+        <v>36.21</v>
       </c>
       <c r="J105">
         <v>18.16</v>
       </c>
       <c r="K105">
-        <v>7.7</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4869,7 +4876,7 @@
         <v>115</v>
       </c>
       <c r="B106">
-        <v>61.2</v>
+        <v>60.8</v>
       </c>
       <c r="C106">
         <v>42.087000000000003</v>
@@ -4881,7 +4888,7 @@
         <v>789.11</v>
       </c>
       <c r="F106" s="2">
-        <v>2575.7199999999998</v>
+        <v>2558.89</v>
       </c>
       <c r="G106">
         <v>0.03</v>
@@ -4890,13 +4897,13 @@
         <v>1.669</v>
       </c>
       <c r="I106">
-        <v>36.658999999999999</v>
+        <v>36.42</v>
       </c>
       <c r="J106">
         <v>18.739999999999998</v>
       </c>
       <c r="K106">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4904,7 +4911,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>20.2</v>
+        <v>20.22</v>
       </c>
       <c r="C107">
         <v>64.680000000000007</v>
@@ -4916,7 +4923,7 @@
         <v>906.39</v>
       </c>
       <c r="F107" s="2">
-        <v>1306.54</v>
+        <v>1307.83</v>
       </c>
       <c r="G107">
         <v>0.01</v>
@@ -4939,7 +4946,7 @@
         <v>117</v>
       </c>
       <c r="B108">
-        <v>12.76</v>
+        <v>12.64</v>
       </c>
       <c r="C108">
         <v>15.808</v>
@@ -4951,7 +4958,7 @@
         <v>73.14</v>
       </c>
       <c r="F108">
-        <v>201.71</v>
+        <v>199.81</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -4966,7 +4973,7 @@
         <v>4.62</v>
       </c>
       <c r="K108">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4974,7 +4981,7 @@
         <v>118</v>
       </c>
       <c r="B109">
-        <v>97.1</v>
+        <v>94.6</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4986,7 +4993,7 @@
         <v>23.69</v>
       </c>
       <c r="F109" s="2">
-        <v>291.3</v>
+        <v>283.8</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -4995,13 +5002,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="I109">
-        <v>203.70599999999999</v>
+        <v>198.46100000000001</v>
       </c>
       <c r="J109">
         <v>7.89</v>
       </c>
       <c r="K109">
-        <v>12.29</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5009,7 +5016,7 @@
         <v>119</v>
       </c>
       <c r="B110">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="C110" s="2">
         <v>25.5</v>
@@ -5021,7 +5028,7 @@
         <v>284.67</v>
       </c>
       <c r="F110" s="2">
-        <v>1361.7</v>
+        <v>1364.25</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -5030,13 +5037,13 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="I110">
-        <v>26.736000000000001</v>
+        <v>26.786000000000001</v>
       </c>
       <c r="J110">
         <v>11.16</v>
       </c>
       <c r="K110">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5044,7 +5051,7 @@
         <v>120</v>
       </c>
       <c r="B111">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="C111" s="2">
         <v>8423.6329999999998</v>
@@ -5056,7 +5063,7 @@
         <v>1608.2</v>
       </c>
       <c r="F111" s="2">
-        <v>16763.03</v>
+        <v>17184.21</v>
       </c>
       <c r="G111">
         <v>0.19</v>
@@ -5065,13 +5072,13 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I111">
-        <v>27.359000000000002</v>
+        <v>28.047000000000001</v>
       </c>
       <c r="J111">
         <v>0.19</v>
       </c>
       <c r="K111">
-        <v>10.42</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5079,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="B112">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -5091,7 +5098,7 @@
         <v>74.260000000000005</v>
       </c>
       <c r="F112" s="2">
-        <v>518</v>
+        <v>528.5</v>
       </c>
       <c r="G112">
         <v>0.01</v>
@@ -5100,21 +5107,21 @@
         <v>0.154</v>
       </c>
       <c r="I112">
-        <v>96.281999999999996</v>
+        <v>98.233999999999995</v>
       </c>
       <c r="J112">
         <v>2.12</v>
       </c>
       <c r="K112">
-        <v>6.97</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B113">
-        <v>24.44</v>
+        <v>24.36</v>
       </c>
       <c r="C113" s="2">
         <v>209.83600000000001</v>
@@ -5126,7 +5133,7 @@
         <v>1277.28</v>
       </c>
       <c r="F113" s="2">
-        <v>5128.3900000000003</v>
+        <v>5111.6000000000004</v>
       </c>
       <c r="G113">
         <v>0.06</v>
@@ -5135,17 +5142,17 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="I113">
-        <v>24.321000000000002</v>
+        <v>24.241</v>
       </c>
       <c r="J113">
         <v>6.08</v>
       </c>
       <c r="K113">
-        <v>4.01</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C114" s="2">
@@ -5158,22 +5165,22 @@
         <v>14266.63</v>
       </c>
       <c r="F114" s="2">
-        <v>49976.2</v>
+        <v>50918.86</v>
       </c>
       <c r="G114">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H114">
         <v>0.111</v>
       </c>
       <c r="I114">
-        <v>26.216999999999999</v>
+        <v>26.545999999999999</v>
       </c>
       <c r="J114">
         <v>1.33</v>
       </c>
       <c r="K114">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5181,7 +5188,7 @@
         <v>124</v>
       </c>
       <c r="B115">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="C115">
         <v>40</v>
@@ -5193,7 +5200,7 @@
         <v>199.72</v>
       </c>
       <c r="F115" s="2">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="G115">
         <v>0.01</v>
@@ -5208,7 +5215,7 @@
         <v>4.99</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5216,7 +5223,7 @@
         <v>125</v>
       </c>
       <c r="B116">
-        <v>95.1</v>
+        <v>93.3</v>
       </c>
       <c r="C116">
         <v>55</v>
@@ -5228,7 +5235,7 @@
         <v>1420.63</v>
       </c>
       <c r="F116" s="2">
-        <v>5230.5</v>
+        <v>5131.5</v>
       </c>
       <c r="G116">
         <v>0.06</v>
@@ -5237,13 +5244,13 @@
         <v>3.976</v>
       </c>
       <c r="I116">
-        <v>23.917000000000002</v>
+        <v>23.463999999999999</v>
       </c>
       <c r="J116">
         <v>25.82</v>
       </c>
       <c r="K116">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5251,7 +5258,7 @@
         <v>126</v>
       </c>
       <c r="B117">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="C117">
         <v>332.5</v>
@@ -5263,7 +5270,7 @@
         <v>4401.58</v>
       </c>
       <c r="F117" s="2">
-        <v>10640</v>
+        <v>10806.25</v>
       </c>
       <c r="G117">
         <v>0.12</v>
@@ -5272,21 +5279,21 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="I117">
-        <v>18.72</v>
+        <v>19.013000000000002</v>
       </c>
       <c r="J117">
         <v>13.23</v>
       </c>
       <c r="K117">
-        <v>2.41</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B118">
-        <v>164.4</v>
+        <v>163</v>
       </c>
       <c r="C118">
         <v>80</v>
@@ -5298,26 +5305,26 @@
         <v>3251.98</v>
       </c>
       <c r="F118" s="2">
-        <v>13152</v>
+        <v>13040</v>
       </c>
       <c r="G118">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H118">
         <v>1.8220000000000001</v>
       </c>
       <c r="I118">
-        <v>90.23</v>
+        <v>89.462000000000003</v>
       </c>
       <c r="J118">
         <v>40.64</v>
       </c>
       <c r="K118">
-        <v>4.04</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C119">
@@ -5330,16 +5337,16 @@
         <v>9273.91</v>
       </c>
       <c r="F119" s="2">
-        <v>29622.5</v>
+        <v>29593.75</v>
       </c>
       <c r="G119">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H119">
         <v>1.7789999999999999</v>
       </c>
       <c r="I119">
-        <v>31.113</v>
+        <v>31.065000000000001</v>
       </c>
       <c r="J119">
         <v>18.27</v>
@@ -5353,7 +5360,7 @@
         <v>129</v>
       </c>
       <c r="B120">
-        <v>83.7</v>
+        <v>84.3</v>
       </c>
       <c r="C120">
         <v>80</v>
@@ -5365,7 +5372,7 @@
         <v>1569.05</v>
       </c>
       <c r="F120" s="2">
-        <v>6696</v>
+        <v>6744</v>
       </c>
       <c r="G120">
         <v>7.0000000000000007E-2</v>
@@ -5374,13 +5381,13 @@
         <v>6.8</v>
       </c>
       <c r="I120">
-        <v>12.308</v>
+        <v>12.396000000000001</v>
       </c>
       <c r="J120">
         <v>19.61</v>
       </c>
       <c r="K120">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5388,7 +5395,7 @@
         <v>130</v>
       </c>
       <c r="B121">
-        <v>25.6</v>
+        <v>26.3</v>
       </c>
       <c r="C121">
         <v>36</v>
@@ -5400,7 +5407,7 @@
         <v>331.15</v>
       </c>
       <c r="F121" s="2">
-        <v>921.6</v>
+        <v>946.8</v>
       </c>
       <c r="G121">
         <v>0.01</v>
@@ -5415,7 +5422,7 @@
         <v>9.19</v>
       </c>
       <c r="K121">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5423,7 +5430,7 @@
         <v>131</v>
       </c>
       <c r="B122">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="C122">
         <v>70</v>
@@ -5435,7 +5442,7 @@
         <v>853.88</v>
       </c>
       <c r="F122" s="2">
-        <v>3871</v>
+        <v>3822</v>
       </c>
       <c r="G122">
         <v>0.04</v>
@@ -5444,13 +5451,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I122">
-        <v>100.571</v>
+        <v>99.298000000000002</v>
       </c>
       <c r="J122">
         <v>12.19</v>
       </c>
       <c r="K122">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5458,7 +5465,7 @@
         <v>132</v>
       </c>
       <c r="B123">
-        <v>5.12</v>
+        <v>5.18</v>
       </c>
       <c r="C123" s="2">
         <v>101.25</v>
@@ -5470,7 +5477,7 @@
         <v>207.79</v>
       </c>
       <c r="F123" s="2">
-        <v>518.4</v>
+        <v>524.48</v>
       </c>
       <c r="G123">
         <v>0.01</v>
@@ -5479,13 +5486,13 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="I123">
-        <v>22.134</v>
+        <v>22.393999999999998</v>
       </c>
       <c r="J123">
         <v>2.0499999999999998</v>
       </c>
       <c r="K123">
-        <v>2.4900000000000002</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5493,7 +5500,7 @@
         <v>133</v>
       </c>
       <c r="B124">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="C124" s="2">
         <v>1200</v>
@@ -5505,7 +5512,7 @@
         <v>1686.2</v>
       </c>
       <c r="F124" s="2">
-        <v>14544</v>
+        <v>14568</v>
       </c>
       <c r="G124">
         <v>0.16</v>
@@ -5514,13 +5521,13 @@
         <v>0.81</v>
       </c>
       <c r="I124">
-        <v>14.964</v>
+        <v>14.989000000000001</v>
       </c>
       <c r="J124">
         <v>1.4</v>
       </c>
       <c r="K124">
-        <v>8.6199999999999992</v>
+        <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5528,7 +5535,7 @@
         <v>134</v>
       </c>
       <c r="B125">
-        <v>33.6</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -5540,7 +5547,7 @@
         <v>240.19</v>
       </c>
       <c r="F125" s="2">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G125">
         <v>0.01</v>
@@ -5549,13 +5556,13 @@
         <v>1.23</v>
       </c>
       <c r="I125">
-        <v>27.327999999999999</v>
+        <v>26.798999999999999</v>
       </c>
       <c r="J125">
         <v>12</v>
       </c>
       <c r="K125">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5563,7 +5570,7 @@
         <v>135</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C126">
         <v>350</v>
@@ -5575,7 +5582,7 @@
         <v>474.37</v>
       </c>
       <c r="F126" s="2">
-        <v>2450</v>
+        <v>2380</v>
       </c>
       <c r="G126">
         <v>0.03</v>
@@ -5584,13 +5591,13 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="I126">
-        <v>59.064</v>
+        <v>57.377000000000002</v>
       </c>
       <c r="J126">
         <v>1.35</v>
       </c>
       <c r="K126">
-        <v>5.16</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5598,7 +5605,7 @@
         <v>136</v>
       </c>
       <c r="B127">
-        <v>28.95</v>
+        <v>28.8</v>
       </c>
       <c r="C127">
         <v>115.5</v>
@@ -5610,7 +5617,7 @@
         <v>400.6</v>
       </c>
       <c r="F127" s="2">
-        <v>3343.73</v>
+        <v>3326.4</v>
       </c>
       <c r="G127">
         <v>0.04</v>
@@ -5619,21 +5626,21 @@
         <v>0.64</v>
       </c>
       <c r="I127">
-        <v>45.203000000000003</v>
+        <v>44.969000000000001</v>
       </c>
       <c r="J127">
         <v>3.46</v>
       </c>
       <c r="K127">
-        <v>8.34</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B128">
-        <v>19.02</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C128" s="2">
         <v>114.76600000000001</v>
@@ -5645,7 +5652,7 @@
         <v>32</v>
       </c>
       <c r="F128" s="2">
-        <v>2182.85</v>
+        <v>2134.65</v>
       </c>
       <c r="G128">
         <v>0.02</v>
@@ -5664,7 +5671,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="2">
@@ -5677,7 +5684,7 @@
         <v>5763.23</v>
       </c>
       <c r="F129" s="2">
-        <v>35199.58</v>
+        <v>35105.33</v>
       </c>
       <c r="G129">
         <v>0.39</v>
@@ -5686,13 +5693,13 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="I129">
-        <v>18.683</v>
+        <v>18.641999999999999</v>
       </c>
       <c r="J129">
         <v>2.76</v>
       </c>
       <c r="K129">
-        <v>6.11</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5700,7 +5707,7 @@
         <v>139</v>
       </c>
       <c r="B130">
-        <v>7.48</v>
+        <v>7.64</v>
       </c>
       <c r="C130">
         <v>900</v>
@@ -5712,22 +5719,22 @@
         <v>1352.04</v>
       </c>
       <c r="F130" s="2">
-        <v>6732</v>
+        <v>6876</v>
       </c>
       <c r="G130">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H130">
         <v>0.53300000000000003</v>
       </c>
       <c r="I130">
-        <v>14.044</v>
+        <v>14.343999999999999</v>
       </c>
       <c r="J130">
         <v>1.5</v>
       </c>
       <c r="K130">
-        <v>4.97</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5735,7 +5742,7 @@
         <v>140</v>
       </c>
       <c r="B131">
-        <v>15.32</v>
+        <v>15.3</v>
       </c>
       <c r="C131">
         <v>45</v>
@@ -5747,7 +5754,7 @@
         <v>690.64</v>
       </c>
       <c r="F131">
-        <v>689.4</v>
+        <v>688.5</v>
       </c>
       <c r="G131">
         <v>0.01</v>
@@ -5756,7 +5763,7 @@
         <v>0.54</v>
       </c>
       <c r="I131">
-        <v>28.37</v>
+        <v>28.332999999999998</v>
       </c>
       <c r="J131">
         <v>15.34</v>
@@ -5770,7 +5777,7 @@
         <v>141</v>
       </c>
       <c r="B132">
-        <v>14.08</v>
+        <v>14.14</v>
       </c>
       <c r="C132">
         <v>31.5</v>
@@ -5782,7 +5789,7 @@
         <v>261.01</v>
       </c>
       <c r="F132">
-        <v>443.52</v>
+        <v>445.41</v>
       </c>
       <c r="G132" t="s">
         <v>32</v>
@@ -5797,7 +5804,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="K132">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5805,7 +5812,7 @@
         <v>142</v>
       </c>
       <c r="B133">
-        <v>34</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C133" s="2">
         <v>6.5</v>
@@ -5817,7 +5824,7 @@
         <v>20.41</v>
       </c>
       <c r="F133" s="2">
-        <v>221</v>
+        <v>219.7</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -5832,7 +5839,7 @@
         <v>3.14</v>
       </c>
       <c r="K133">
-        <v>10.82</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5840,7 +5847,7 @@
         <v>143</v>
       </c>
       <c r="B134">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="C134" s="2">
         <v>1143</v>
@@ -5852,7 +5859,7 @@
         <v>1357.23</v>
       </c>
       <c r="F134" s="2">
-        <v>6435.09</v>
+        <v>6400.8</v>
       </c>
       <c r="G134">
         <v>7.0000000000000007E-2</v>
@@ -5861,13 +5868,13 @@
         <v>0.25</v>
       </c>
       <c r="I134">
-        <v>22.545999999999999</v>
+        <v>22.425000000000001</v>
       </c>
       <c r="J134">
         <v>1.18</v>
       </c>
       <c r="K134">
-        <v>4.74</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5875,7 +5882,7 @@
         <v>144</v>
       </c>
       <c r="B135">
-        <v>64</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -5887,7 +5894,7 @@
         <v>1050</v>
       </c>
       <c r="F135" s="2">
-        <v>3840</v>
+        <v>3846</v>
       </c>
       <c r="G135">
         <v>0.04</v>
@@ -5896,13 +5903,13 @@
         <v>3.41</v>
       </c>
       <c r="I135">
-        <v>18.768000000000001</v>
+        <v>18.797000000000001</v>
       </c>
       <c r="J135">
         <v>17.5</v>
       </c>
       <c r="K135">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5910,7 +5917,7 @@
         <v>145</v>
       </c>
       <c r="B136">
-        <v>73.900000000000006</v>
+        <v>73.7</v>
       </c>
       <c r="C136">
         <v>85</v>
@@ -5922,7 +5929,7 @@
         <v>1496.75</v>
       </c>
       <c r="F136" s="2">
-        <v>6281.5</v>
+        <v>6264.5</v>
       </c>
       <c r="G136">
         <v>7.0000000000000007E-2</v>
@@ -5931,21 +5938,21 @@
         <v>4.47</v>
       </c>
       <c r="I136">
-        <v>16.532</v>
+        <v>16.486999999999998</v>
       </c>
       <c r="J136">
         <v>17.600000000000001</v>
       </c>
       <c r="K136">
-        <v>4.1900000000000004</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B137">
-        <v>123</v>
+        <v>123.6</v>
       </c>
       <c r="C137" s="2">
         <v>130</v>
@@ -5957,7 +5964,7 @@
         <v>2449.1</v>
       </c>
       <c r="F137" s="2">
-        <v>15990</v>
+        <v>16068</v>
       </c>
       <c r="G137">
         <v>0.18</v>
@@ -5966,17 +5973,17 @@
         <v>6.4850000000000003</v>
       </c>
       <c r="I137">
-        <v>18.966999999999999</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="J137">
         <v>18.829999999999998</v>
       </c>
       <c r="K137">
-        <v>6.52</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C138" s="2">
@@ -5989,22 +5996,22 @@
         <v>8677.18</v>
       </c>
       <c r="F138" s="2">
-        <v>40632.51</v>
+        <v>40808.910000000003</v>
       </c>
       <c r="G138">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="H138">
         <v>0.91500000000000004</v>
       </c>
       <c r="I138">
-        <v>18.030999999999999</v>
+        <v>18.11</v>
       </c>
       <c r="J138">
         <v>3.61</v>
       </c>
       <c r="K138">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6012,7 +6019,7 @@
         <v>148</v>
       </c>
       <c r="B139">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="C139">
         <v>300</v>
@@ -6024,7 +6031,7 @@
         <v>4798.75</v>
       </c>
       <c r="F139" s="2">
-        <v>7770</v>
+        <v>7950</v>
       </c>
       <c r="G139">
         <v>0.09</v>
@@ -6033,13 +6040,13 @@
         <v>32.716000000000001</v>
       </c>
       <c r="I139">
-        <v>0.79100000000000004</v>
+        <v>0.81</v>
       </c>
       <c r="J139">
         <v>15.99</v>
       </c>
       <c r="K139">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6047,7 +6054,7 @@
         <v>149</v>
       </c>
       <c r="B140">
-        <v>26.65</v>
+        <v>25.95</v>
       </c>
       <c r="C140">
         <v>23.151</v>
@@ -6059,7 +6066,7 @@
         <v>243.46</v>
       </c>
       <c r="F140" s="2">
-        <v>616.97</v>
+        <v>600.77</v>
       </c>
       <c r="G140">
         <v>0.01</v>
@@ -6074,7 +6081,7 @@
         <v>10.51</v>
       </c>
       <c r="K140">
-        <v>2.5299999999999998</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6082,7 +6089,7 @@
         <v>150</v>
       </c>
       <c r="B141">
-        <v>260.39999999999998</v>
+        <v>261</v>
       </c>
       <c r="C141" s="2">
         <v>32.5</v>
@@ -6094,7 +6101,7 @@
         <v>1649.77</v>
       </c>
       <c r="F141" s="2">
-        <v>8463</v>
+        <v>8482.5</v>
       </c>
       <c r="G141">
         <v>0.09</v>
@@ -6103,13 +6110,13 @@
         <v>14.863</v>
       </c>
       <c r="I141">
-        <v>17.518999999999998</v>
+        <v>17.559000000000001</v>
       </c>
       <c r="J141">
         <v>50.76</v>
       </c>
       <c r="K141">
-        <v>5.12</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6117,7 +6124,7 @@
         <v>151</v>
       </c>
       <c r="B142">
-        <v>48.85</v>
+        <v>48.8</v>
       </c>
       <c r="C142" s="2">
         <v>1000</v>
@@ -6129,7 +6136,7 @@
         <v>19703.05</v>
       </c>
       <c r="F142" s="2">
-        <v>48850</v>
+        <v>48800</v>
       </c>
       <c r="G142">
         <v>0.54</v>
@@ -6138,7 +6145,7 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="I142">
-        <v>20.768000000000001</v>
+        <v>20.747</v>
       </c>
       <c r="J142">
         <v>19.7</v>
@@ -6152,7 +6159,7 @@
         <v>152</v>
       </c>
       <c r="B143">
-        <v>89</v>
+        <v>88.8</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -6164,7 +6171,7 @@
         <v>700.9</v>
       </c>
       <c r="F143" s="2">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="G143">
         <v>0.02</v>
@@ -6173,7 +6180,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I143">
-        <v>18.975999999999999</v>
+        <v>18.933</v>
       </c>
       <c r="J143">
         <v>35.04</v>
@@ -6187,7 +6194,7 @@
         <v>153</v>
       </c>
       <c r="B144">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -6199,7 +6206,7 @@
         <v>277.77999999999997</v>
       </c>
       <c r="F144" s="2">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="G144">
         <v>0.01</v>
@@ -6208,13 +6215,13 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="I144">
-        <v>38.712000000000003</v>
+        <v>39.018000000000001</v>
       </c>
       <c r="J144">
         <v>13.88</v>
       </c>
       <c r="K144">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6222,7 +6229,7 @@
         <v>154</v>
       </c>
       <c r="B145">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="C145">
         <v>55.5</v>
@@ -6234,7 +6241,7 @@
         <v>951.96</v>
       </c>
       <c r="F145" s="2">
-        <v>2824.95</v>
+        <v>2813.85</v>
       </c>
       <c r="G145">
         <v>0.03</v>
@@ -6243,13 +6250,13 @@
         <v>4.556</v>
       </c>
       <c r="I145">
-        <v>11.172000000000001</v>
+        <v>11.128</v>
       </c>
       <c r="J145">
         <v>17.149999999999999</v>
       </c>
       <c r="K145">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6257,7 +6264,7 @@
         <v>155</v>
       </c>
       <c r="B146">
-        <v>29.75</v>
+        <v>29.8</v>
       </c>
       <c r="C146">
         <v>81.831999999999994</v>
@@ -6269,7 +6276,7 @@
         <v>328.2</v>
       </c>
       <c r="F146" s="2">
-        <v>2434.5</v>
+        <v>2438.59</v>
       </c>
       <c r="G146">
         <v>0.03</v>
@@ -6278,13 +6285,13 @@
         <v>2.5579999999999998</v>
       </c>
       <c r="I146">
-        <v>11.629</v>
+        <v>11.648999999999999</v>
       </c>
       <c r="J146">
         <v>4.01</v>
       </c>
       <c r="K146">
-        <v>7.41</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6292,7 +6299,7 @@
         <v>156</v>
       </c>
       <c r="B147">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="C147">
         <v>51.314999999999998</v>
@@ -6304,7 +6311,7 @@
         <v>1099.18</v>
       </c>
       <c r="F147" s="2">
-        <v>1970.5</v>
+        <v>1980.76</v>
       </c>
       <c r="G147">
         <v>0.02</v>
@@ -6313,13 +6320,13 @@
         <v>4.33</v>
       </c>
       <c r="I147">
-        <v>8.8680000000000003</v>
+        <v>8.9139999999999997</v>
       </c>
       <c r="J147">
         <v>21.42</v>
       </c>
       <c r="K147">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6327,7 +6334,7 @@
         <v>157</v>
       </c>
       <c r="B148">
-        <v>3.43</v>
+        <v>3.54</v>
       </c>
       <c r="C148">
         <v>540</v>
@@ -6339,7 +6346,7 @@
         <v>706.75</v>
       </c>
       <c r="F148" s="2">
-        <v>1852.2</v>
+        <v>1911.6</v>
       </c>
       <c r="G148">
         <v>0.02</v>
@@ -6348,13 +6355,13 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I148">
-        <v>10.58</v>
+        <v>10.92</v>
       </c>
       <c r="J148">
         <v>1.3</v>
       </c>
       <c r="K148">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6362,7 +6369,7 @@
         <v>158</v>
       </c>
       <c r="B149">
-        <v>39.5</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="C149">
         <v>30</v>
@@ -6374,7 +6381,7 @@
         <v>481.8</v>
       </c>
       <c r="F149" s="2">
-        <v>1185</v>
+        <v>1186.5</v>
       </c>
       <c r="G149">
         <v>0.01</v>
@@ -6383,13 +6390,13 @@
         <v>0.876</v>
       </c>
       <c r="I149">
-        <v>45.091000000000001</v>
+        <v>45.148000000000003</v>
       </c>
       <c r="J149">
         <v>16.059999999999999</v>
       </c>
       <c r="K149">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6397,7 +6404,7 @@
         <v>159</v>
       </c>
       <c r="B150">
-        <v>9.67</v>
+        <v>9.73</v>
       </c>
       <c r="C150">
         <v>126.38800000000001</v>
@@ -6409,7 +6416,7 @@
         <v>1184.5</v>
       </c>
       <c r="F150" s="2">
-        <v>1222.17</v>
+        <v>1229.76</v>
       </c>
       <c r="G150">
         <v>0.01</v>
@@ -6418,7 +6425,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I150">
-        <v>165.15799999999999</v>
+        <v>166.18299999999999</v>
       </c>
       <c r="J150">
         <v>9.3699999999999992</v>
@@ -6432,7 +6439,7 @@
         <v>160</v>
       </c>
       <c r="B151">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="C151">
         <v>35.356999999999999</v>
@@ -6444,22 +6451,22 @@
         <v>301.48</v>
       </c>
       <c r="F151" s="2">
-        <v>1364.78</v>
+        <v>1347.1</v>
       </c>
       <c r="G151">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H151">
         <v>1.718</v>
       </c>
       <c r="I151">
-        <v>22.472000000000001</v>
+        <v>22.181000000000001</v>
       </c>
       <c r="J151">
         <v>8.52</v>
       </c>
       <c r="K151">
-        <v>4.5199999999999996</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6467,7 +6474,7 @@
         <v>161</v>
       </c>
       <c r="B152">
-        <v>19.14</v>
+        <v>19.22</v>
       </c>
       <c r="C152">
         <v>301.64</v>
@@ -6479,7 +6486,7 @@
         <v>4400.12</v>
       </c>
       <c r="F152" s="2">
-        <v>5773.39</v>
+        <v>5797.52</v>
       </c>
       <c r="G152">
         <v>0.06</v>
@@ -6488,7 +6495,7 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="I152">
-        <v>7.4320000000000004</v>
+        <v>7.4640000000000004</v>
       </c>
       <c r="J152">
         <v>14.58</v>
@@ -6502,7 +6509,7 @@
         <v>162</v>
       </c>
       <c r="B153">
-        <v>15.46</v>
+        <v>15.8</v>
       </c>
       <c r="C153">
         <v>30</v>
@@ -6514,7 +6521,7 @@
         <v>303.17</v>
       </c>
       <c r="F153">
-        <v>463.8</v>
+        <v>474</v>
       </c>
       <c r="G153">
         <v>0.01</v>
@@ -6523,13 +6530,13 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I153">
-        <v>54.5</v>
+        <v>55.698999999999998</v>
       </c>
       <c r="J153">
         <v>10.1</v>
       </c>
       <c r="K153">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6537,7 +6544,7 @@
         <v>163</v>
       </c>
       <c r="B154">
-        <v>9.83</v>
+        <v>9.99</v>
       </c>
       <c r="C154">
         <v>39.176000000000002</v>
@@ -6549,7 +6556,7 @@
         <v>172.43</v>
       </c>
       <c r="F154">
-        <v>385.1</v>
+        <v>391.37</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -6564,7 +6571,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K154">
-        <v>2.23</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6572,7 +6579,7 @@
         <v>164</v>
       </c>
       <c r="B155">
-        <v>90</v>
+        <v>89.2</v>
       </c>
       <c r="C155">
         <v>6.6980000000000004</v>
@@ -6584,7 +6591,7 @@
         <v>74.41</v>
       </c>
       <c r="F155">
-        <v>602.82000000000005</v>
+        <v>597.46</v>
       </c>
       <c r="G155">
         <v>0.01</v>
@@ -6599,7 +6606,7 @@
         <v>11.1</v>
       </c>
       <c r="K155">
-        <v>8.1</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6607,7 +6614,7 @@
         <v>165</v>
       </c>
       <c r="B156">
-        <v>14.58</v>
+        <v>14.64</v>
       </c>
       <c r="C156">
         <v>30</v>
@@ -6619,7 +6626,7 @@
         <v>352.65</v>
       </c>
       <c r="F156" s="2">
-        <v>437.4</v>
+        <v>439.2</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -6642,7 +6649,7 @@
         <v>166</v>
       </c>
       <c r="B157">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="C157">
         <v>30</v>
@@ -6654,7 +6661,7 @@
         <v>774.6</v>
       </c>
       <c r="F157" s="2">
-        <v>1236</v>
+        <v>1245</v>
       </c>
       <c r="G157">
         <v>0.01</v>
@@ -6663,21 +6670,21 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="I157">
-        <v>16.042999999999999</v>
+        <v>16.16</v>
       </c>
       <c r="J157">
         <v>25.82</v>
       </c>
       <c r="K157">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>10.16</v>
       </c>
       <c r="C158" s="2">
         <v>50</v>
@@ -6689,7 +6696,7 @@
         <v>319.25</v>
       </c>
       <c r="F158" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G158">
         <v>0.01</v>
@@ -6704,11 +6711,11 @@
         <v>6.38</v>
       </c>
       <c r="K158">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C159" s="2">
@@ -6721,16 +6728,16 @@
         <v>38824.21</v>
       </c>
       <c r="F159" s="2">
-        <v>90742.58</v>
+        <v>90987.98</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H159">
         <v>5.1230000000000002</v>
       </c>
       <c r="I159">
-        <v>6.0469999999999997</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="J159">
         <v>13.85</v>
@@ -6740,11 +6747,11 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B160">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C160">
         <v>25</v>
@@ -6756,7 +6763,7 @@
         <v>588.99</v>
       </c>
       <c r="F160" s="2">
-        <v>3550</v>
+        <v>3575</v>
       </c>
       <c r="G160">
         <v>0.04</v>
@@ -6765,17 +6772,17 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I160">
-        <v>16.600999999999999</v>
+        <v>16.718</v>
       </c>
       <c r="J160">
         <v>23.55</v>
       </c>
       <c r="K160">
-        <v>6.02</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C161">
@@ -6788,7 +6795,7 @@
         <v>588.99</v>
       </c>
       <c r="F161" s="2">
-        <v>3550</v>
+        <v>3575</v>
       </c>
       <c r="G161">
         <v>0.04</v>
@@ -6797,13 +6804,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I161">
-        <v>16.602</v>
+        <v>16.719000000000001</v>
       </c>
       <c r="J161">
         <v>23.56</v>
       </c>
       <c r="K161">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6846,7 +6853,7 @@
         <v>172</v>
       </c>
       <c r="B163">
-        <v>6.58</v>
+        <v>6.24</v>
       </c>
       <c r="C163">
         <v>843.2</v>
@@ -6858,7 +6865,7 @@
         <v>2173.27</v>
       </c>
       <c r="F163" s="2">
-        <v>5548.26</v>
+        <v>5261.57</v>
       </c>
       <c r="G163">
         <v>0.06</v>
@@ -6867,13 +6874,13 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="I163">
-        <v>19.818000000000001</v>
+        <v>18.794</v>
       </c>
       <c r="J163">
         <v>2.57</v>
       </c>
       <c r="K163">
-        <v>2.5499999999999998</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6881,7 +6888,7 @@
         <v>173</v>
       </c>
       <c r="B164">
-        <v>69</v>
+        <v>70.3</v>
       </c>
       <c r="C164">
         <v>200</v>
@@ -6893,22 +6900,22 @@
         <v>3765.39</v>
       </c>
       <c r="F164" s="2">
-        <v>13800</v>
+        <v>14060</v>
       </c>
       <c r="G164">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H164">
         <v>3.3340000000000001</v>
       </c>
       <c r="I164">
-        <v>20.696999999999999</v>
+        <v>21.087</v>
       </c>
       <c r="J164">
         <v>18.82</v>
       </c>
       <c r="K164">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6916,7 +6923,7 @@
         <v>174</v>
       </c>
       <c r="B165">
-        <v>115.4</v>
+        <v>115</v>
       </c>
       <c r="C165">
         <v>101.574</v>
@@ -6928,7 +6935,7 @@
         <v>4060.93</v>
       </c>
       <c r="F165" s="2">
-        <v>11721.64</v>
+        <v>11681.01</v>
       </c>
       <c r="G165">
         <v>0.13</v>
@@ -6937,13 +6944,13 @@
         <v>4.9960000000000004</v>
       </c>
       <c r="I165">
-        <v>23.097999999999999</v>
+        <v>23.018000000000001</v>
       </c>
       <c r="J165">
         <v>39.979999999999997</v>
       </c>
       <c r="K165">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6951,7 +6958,7 @@
         <v>175</v>
       </c>
       <c r="B166">
-        <v>151</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="C166">
         <v>44.85</v>
@@ -6963,22 +6970,22 @@
         <v>1714.87</v>
       </c>
       <c r="F166" s="2">
-        <v>6772.35</v>
+        <v>6942.78</v>
       </c>
       <c r="G166">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H166">
         <v>6.7389999999999999</v>
       </c>
       <c r="I166">
-        <v>22.407</v>
+        <v>22.971</v>
       </c>
       <c r="J166">
         <v>38.229999999999997</v>
       </c>
       <c r="K166">
-        <v>3.94</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6986,7 +6993,7 @@
         <v>176</v>
       </c>
       <c r="B167">
-        <v>35.35</v>
+        <v>35.6</v>
       </c>
       <c r="C167">
         <v>160</v>
@@ -6998,7 +7005,7 @@
         <v>1980.5</v>
       </c>
       <c r="F167" s="2">
-        <v>5656</v>
+        <v>5696</v>
       </c>
       <c r="G167">
         <v>0.06</v>
@@ -7007,13 +7014,13 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="I167">
-        <v>16.22</v>
+        <v>16.335000000000001</v>
       </c>
       <c r="J167">
         <v>12.37</v>
       </c>
       <c r="K167">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7021,7 +7028,7 @@
         <v>177</v>
       </c>
       <c r="B168">
-        <v>51.3</v>
+        <v>50.5</v>
       </c>
       <c r="C168">
         <v>92.04</v>
@@ -7033,7 +7040,7 @@
         <v>1786.2</v>
       </c>
       <c r="F168" s="2">
-        <v>4721.6499999999996</v>
+        <v>4648.0200000000004</v>
       </c>
       <c r="G168">
         <v>0.05</v>
@@ -7042,13 +7049,13 @@
         <v>4.2389999999999999</v>
       </c>
       <c r="I168">
-        <v>12.101000000000001</v>
+        <v>11.912000000000001</v>
       </c>
       <c r="J168">
         <v>19.399999999999999</v>
       </c>
       <c r="K168">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7056,7 +7063,7 @@
         <v>178</v>
       </c>
       <c r="B169">
-        <v>240</v>
+        <v>249.8</v>
       </c>
       <c r="C169">
         <v>350</v>
@@ -7068,22 +7075,22 @@
         <v>7291.14</v>
       </c>
       <c r="F169" s="2">
-        <v>84000</v>
+        <v>87430</v>
       </c>
       <c r="G169">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="H169">
         <v>6.6319999999999997</v>
       </c>
       <c r="I169">
-        <v>36.185000000000002</v>
+        <v>37.662999999999997</v>
       </c>
       <c r="J169">
         <v>20.83</v>
       </c>
       <c r="K169">
-        <v>11.52</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7091,7 +7098,7 @@
         <v>179</v>
       </c>
       <c r="B170">
-        <v>33.450000000000003</v>
+        <v>33.5</v>
       </c>
       <c r="C170">
         <v>30</v>
@@ -7103,7 +7110,7 @@
         <v>512.29999999999995</v>
       </c>
       <c r="F170" s="2">
-        <v>1003.5</v>
+        <v>1005</v>
       </c>
       <c r="G170">
         <v>0.01</v>
@@ -7112,13 +7119,13 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="I170">
-        <v>39.198999999999998</v>
+        <v>39.256999999999998</v>
       </c>
       <c r="J170">
         <v>17.07</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7126,7 +7133,7 @@
         <v>180</v>
       </c>
       <c r="B171">
-        <v>38.299999999999997</v>
+        <v>37.75</v>
       </c>
       <c r="C171">
         <v>232</v>
@@ -7138,7 +7145,7 @@
         <v>3019.85</v>
       </c>
       <c r="F171" s="2">
-        <v>8885.6</v>
+        <v>8758</v>
       </c>
       <c r="G171">
         <v>0.1</v>
@@ -7147,21 +7154,21 @@
         <v>1.165</v>
       </c>
       <c r="I171">
-        <v>32.869999999999997</v>
+        <v>32.398000000000003</v>
       </c>
       <c r="J171">
         <v>13.01</v>
       </c>
       <c r="K171">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B172">
-        <v>147.6</v>
+        <v>156</v>
       </c>
       <c r="C172" s="2">
         <v>44.302999999999997</v>
@@ -7173,26 +7180,26 @@
         <v>1910.4</v>
       </c>
       <c r="F172" s="2">
-        <v>6539.12</v>
+        <v>6911.27</v>
       </c>
       <c r="G172">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H172">
         <v>2.9740000000000002</v>
       </c>
       <c r="I172">
-        <v>49.625</v>
+        <v>52.448999999999998</v>
       </c>
       <c r="J172">
         <v>43.12</v>
       </c>
       <c r="K172">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C173" s="2">
@@ -7205,22 +7212,22 @@
         <v>29189.08</v>
       </c>
       <c r="F173" s="2">
-        <v>149863.79999999999</v>
+        <v>153609.32999999999</v>
       </c>
       <c r="G173">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="H173">
         <v>2.5030000000000001</v>
       </c>
       <c r="I173">
-        <v>27.236999999999998</v>
+        <v>27.917000000000002</v>
       </c>
       <c r="J173">
         <v>13.28</v>
       </c>
       <c r="K173">
-        <v>5.13</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7228,7 +7235,7 @@
         <v>183</v>
       </c>
       <c r="B174">
-        <v>22.76</v>
+        <v>22.88</v>
       </c>
       <c r="C174">
         <v>120</v>
@@ -7240,7 +7247,7 @@
         <v>1459.4</v>
       </c>
       <c r="F174" s="2">
-        <v>2731.2</v>
+        <v>2745.6</v>
       </c>
       <c r="G174">
         <v>0.03</v>
@@ -7249,13 +7256,13 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="I174">
-        <v>40.703000000000003</v>
+        <v>40.917999999999999</v>
       </c>
       <c r="J174">
         <v>12.16</v>
       </c>
       <c r="K174">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7263,7 +7270,7 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>154.80000000000001</v>
+        <v>157</v>
       </c>
       <c r="C175">
         <v>70</v>
@@ -7275,7 +7282,7 @@
         <v>1546.52</v>
       </c>
       <c r="F175" s="2">
-        <v>10836</v>
+        <v>10990</v>
       </c>
       <c r="G175">
         <v>0.12</v>
@@ -7284,21 +7291,21 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="I175">
-        <v>26.390999999999998</v>
+        <v>26.766999999999999</v>
       </c>
       <c r="J175">
         <v>22.09</v>
       </c>
       <c r="K175">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B176">
-        <v>114</v>
+        <v>113.6</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -7310,7 +7317,7 @@
         <v>387.61</v>
       </c>
       <c r="F176" s="2">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="G176">
         <v>0.03</v>
@@ -7319,17 +7326,17 @@
         <v>4.4950000000000001</v>
       </c>
       <c r="I176">
-        <v>25.364000000000001</v>
+        <v>25.274999999999999</v>
       </c>
       <c r="J176">
         <v>19.38</v>
       </c>
       <c r="K176">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C177" s="2">
@@ -7342,7 +7349,7 @@
         <v>3393.53</v>
       </c>
       <c r="F177" s="2">
-        <v>15847.2</v>
+        <v>16007.6</v>
       </c>
       <c r="G177">
         <v>0.18</v>
@@ -7351,13 +7358,13 @@
         <v>2.7029999999999998</v>
       </c>
       <c r="I177">
-        <v>27.920999999999999</v>
+        <v>28.204000000000001</v>
       </c>
       <c r="J177">
         <v>16.16</v>
       </c>
       <c r="K177">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7365,7 +7372,7 @@
         <v>187</v>
       </c>
       <c r="B178">
-        <v>26.35</v>
+        <v>26.95</v>
       </c>
       <c r="C178" s="2">
         <v>3000</v>
@@ -7377,22 +7384,22 @@
         <v>61139.53</v>
       </c>
       <c r="F178" s="2">
-        <v>79050</v>
+        <v>80850</v>
       </c>
       <c r="G178">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="H178">
         <v>3.2450000000000001</v>
       </c>
       <c r="I178">
-        <v>8.1199999999999992</v>
+        <v>8.3040000000000003</v>
       </c>
       <c r="J178">
         <v>20.37</v>
       </c>
       <c r="K178">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7400,7 +7407,7 @@
         <v>188</v>
       </c>
       <c r="B179">
-        <v>12.16</v>
+        <v>12.08</v>
       </c>
       <c r="C179" s="2">
         <v>1281.25</v>
@@ -7412,7 +7419,7 @@
         <v>13993.3</v>
       </c>
       <c r="F179" s="2">
-        <v>15580</v>
+        <v>15477.5</v>
       </c>
       <c r="G179">
         <v>0.17</v>
@@ -7421,13 +7428,13 @@
         <v>1.008</v>
       </c>
       <c r="I179">
-        <v>12.063000000000001</v>
+        <v>11.984</v>
       </c>
       <c r="J179">
         <v>10.92</v>
       </c>
       <c r="K179">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7435,7 +7442,7 @@
         <v>189</v>
       </c>
       <c r="B180">
-        <v>14.12</v>
+        <v>14.02</v>
       </c>
       <c r="C180" s="2">
         <v>1250</v>
@@ -7447,22 +7454,22 @@
         <v>15530.02</v>
       </c>
       <c r="F180" s="2">
-        <v>17650</v>
+        <v>17525</v>
       </c>
       <c r="G180">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H180">
         <v>1.6140000000000001</v>
       </c>
       <c r="I180">
-        <v>8.7479999999999993</v>
+        <v>8.6859999999999999</v>
       </c>
       <c r="J180">
         <v>12.42</v>
       </c>
       <c r="K180">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7470,7 +7477,7 @@
         <v>190</v>
       </c>
       <c r="B181">
-        <v>16.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C181" s="2">
         <v>2500</v>
@@ -7482,7 +7489,7 @@
         <v>40429.949999999997</v>
       </c>
       <c r="F181" s="2">
-        <v>41750</v>
+        <v>41500</v>
       </c>
       <c r="G181">
         <v>0.46</v>
@@ -7491,13 +7498,13 @@
         <v>1.893</v>
       </c>
       <c r="I181">
-        <v>8.8219999999999992</v>
+        <v>8.77</v>
       </c>
       <c r="J181">
         <v>16.170000000000002</v>
       </c>
       <c r="K181">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7505,7 +7512,7 @@
         <v>191</v>
       </c>
       <c r="B182">
-        <v>31.3</v>
+        <v>31.25</v>
       </c>
       <c r="C182" s="2">
         <v>2054.7939999999999</v>
@@ -7517,7 +7524,7 @@
         <v>63783.8</v>
       </c>
       <c r="F182" s="2">
-        <v>64315.05</v>
+        <v>64212.31</v>
       </c>
       <c r="G182">
         <v>0.71</v>
@@ -7526,7 +7533,7 @@
         <v>3.972</v>
       </c>
       <c r="I182">
-        <v>7.8789999999999996</v>
+        <v>7.867</v>
       </c>
       <c r="J182">
         <v>31.04</v>
@@ -7540,7 +7547,7 @@
         <v>192</v>
       </c>
       <c r="B183">
-        <v>20.56</v>
+        <v>20.6</v>
       </c>
       <c r="C183" s="2">
         <v>2000</v>
@@ -7552,22 +7559,22 @@
         <v>38480.25</v>
       </c>
       <c r="F183" s="2">
-        <v>41120</v>
+        <v>41200</v>
       </c>
       <c r="G183">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H183">
         <v>2.5179999999999998</v>
       </c>
       <c r="I183">
-        <v>8.1660000000000004</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="J183">
         <v>19.239999999999998</v>
       </c>
       <c r="K183">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7575,7 +7582,7 @@
         <v>193</v>
       </c>
       <c r="B184">
-        <v>91.5</v>
+        <v>90.1</v>
       </c>
       <c r="C184" s="2">
         <v>4000</v>
@@ -7587,22 +7594,22 @@
         <v>105033.22</v>
       </c>
       <c r="F184" s="2">
-        <v>366000</v>
+        <v>360400</v>
       </c>
       <c r="G184">
-        <v>4.04</v>
+        <v>3.99</v>
       </c>
       <c r="H184">
         <v>5.306</v>
       </c>
       <c r="I184">
-        <v>17.245000000000001</v>
+        <v>16.981000000000002</v>
       </c>
       <c r="J184">
         <v>26.25</v>
       </c>
       <c r="K184">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7610,7 +7617,7 @@
         <v>194</v>
       </c>
       <c r="B185">
-        <v>23.66</v>
+        <v>23.76</v>
       </c>
       <c r="C185" s="2">
         <v>1500</v>
@@ -7622,7 +7629,7 @@
         <v>17592.099999999999</v>
       </c>
       <c r="F185" s="2">
-        <v>35490</v>
+        <v>35640</v>
       </c>
       <c r="G185">
         <v>0.39</v>
@@ -7631,13 +7638,13 @@
         <v>1.909</v>
       </c>
       <c r="I185">
-        <v>12.391999999999999</v>
+        <v>12.445</v>
       </c>
       <c r="J185">
         <v>11.72</v>
       </c>
       <c r="K185">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7645,7 +7652,7 @@
         <v>195</v>
       </c>
       <c r="B186">
-        <v>25</v>
+        <v>25.35</v>
       </c>
       <c r="C186" s="2">
         <v>2500</v>
@@ -7657,30 +7664,30 @@
         <v>34201.360000000001</v>
       </c>
       <c r="F186" s="2">
-        <v>62500</v>
+        <v>63375</v>
       </c>
       <c r="G186">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="H186">
         <v>2.41</v>
       </c>
       <c r="I186">
-        <v>10.372999999999999</v>
+        <v>10.518000000000001</v>
       </c>
       <c r="J186">
         <v>13.68</v>
       </c>
       <c r="K186">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B187">
-        <v>34.35</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C187" s="2">
         <v>6000</v>
@@ -7692,26 +7699,26 @@
         <v>172291.56</v>
       </c>
       <c r="F187" s="2">
-        <v>206100</v>
+        <v>202200</v>
       </c>
       <c r="G187">
-        <v>2.2799999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H187">
         <v>3.6960000000000002</v>
       </c>
       <c r="I187">
-        <v>9.2929999999999993</v>
+        <v>9.1170000000000009</v>
       </c>
       <c r="J187">
         <v>28.71</v>
       </c>
       <c r="K187">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C188" s="2">
@@ -7724,22 +7731,22 @@
         <v>562475.09</v>
       </c>
       <c r="F188" s="2">
-        <v>929555.05</v>
+        <v>922379.81</v>
       </c>
       <c r="G188">
-        <v>10.26</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="H188">
         <v>3.1920000000000002</v>
       </c>
       <c r="I188">
-        <v>11.164</v>
+        <v>11.077999999999999</v>
       </c>
       <c r="J188">
         <v>21.56</v>
       </c>
       <c r="K188">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7747,7 +7754,7 @@
         <v>198</v>
       </c>
       <c r="B189">
-        <v>162</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="C189">
         <v>120</v>
@@ -7759,7 +7766,7 @@
         <v>3581.9</v>
       </c>
       <c r="F189" s="2">
-        <v>19440</v>
+        <v>19224</v>
       </c>
       <c r="G189">
         <v>0.21</v>
@@ -7768,13 +7775,13 @@
         <v>4.5069999999999997</v>
       </c>
       <c r="I189">
-        <v>35.945999999999998</v>
+        <v>35.546999999999997</v>
       </c>
       <c r="J189">
         <v>29.84</v>
       </c>
       <c r="K189">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7782,7 +7789,7 @@
         <v>199</v>
       </c>
       <c r="B190">
-        <v>10.56</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="C190">
         <v>101.925</v>
@@ -7794,7 +7801,7 @@
         <v>1231.8699999999999</v>
       </c>
       <c r="F190" s="2">
-        <v>1076.33</v>
+        <v>1041.67</v>
       </c>
       <c r="G190">
         <v>0.01</v>
@@ -7803,13 +7810,13 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="I190">
-        <v>21.690999999999999</v>
+        <v>20.992000000000001</v>
       </c>
       <c r="J190">
         <v>12.08</v>
       </c>
       <c r="K190">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7817,7 +7824,7 @@
         <v>200</v>
       </c>
       <c r="B191">
-        <v>15.72</v>
+        <v>16</v>
       </c>
       <c r="C191">
         <v>100</v>
@@ -7829,7 +7836,7 @@
         <v>1701.14</v>
       </c>
       <c r="F191" s="2">
-        <v>1572</v>
+        <v>1600</v>
       </c>
       <c r="G191">
         <v>0.02</v>
@@ -7838,13 +7845,13 @@
         <v>0.379</v>
       </c>
       <c r="I191">
-        <v>41.499000000000002</v>
+        <v>42.238</v>
       </c>
       <c r="J191">
         <v>17.010000000000002</v>
       </c>
       <c r="K191">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7852,7 +7859,7 @@
         <v>201</v>
       </c>
       <c r="B192">
-        <v>23.9</v>
+        <v>25</v>
       </c>
       <c r="C192">
         <v>60</v>
@@ -7864,7 +7871,7 @@
         <v>1235.3499999999999</v>
       </c>
       <c r="F192" s="2">
-        <v>1434</v>
+        <v>1500</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7873,13 +7880,13 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="I192">
-        <v>7.484</v>
+        <v>7.8289999999999997</v>
       </c>
       <c r="J192">
         <v>20.58</v>
       </c>
       <c r="K192">
-        <v>1.1599999999999999</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7887,7 +7894,7 @@
         <v>202</v>
       </c>
       <c r="B193">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C193">
         <v>120</v>
@@ -7899,7 +7906,7 @@
         <v>1471.53</v>
       </c>
       <c r="F193" s="2">
-        <v>1464</v>
+        <v>1440</v>
       </c>
       <c r="G193">
         <v>0.02</v>
@@ -7908,13 +7915,13 @@
         <v>1.147</v>
       </c>
       <c r="I193">
-        <v>10.638</v>
+        <v>10.464</v>
       </c>
       <c r="J193">
         <v>12.26</v>
       </c>
       <c r="K193">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7922,7 +7929,7 @@
         <v>203</v>
       </c>
       <c r="B194">
-        <v>11.18</v>
+        <v>11.28</v>
       </c>
       <c r="C194">
         <v>71.427999999999997</v>
@@ -7934,7 +7941,7 @@
         <v>842.43</v>
       </c>
       <c r="F194" s="2">
-        <v>798.57</v>
+        <v>805.71</v>
       </c>
       <c r="G194">
         <v>0.01</v>
@@ -7943,13 +7950,13 @@
         <v>0.318</v>
       </c>
       <c r="I194">
-        <v>35.116999999999997</v>
+        <v>35.430999999999997</v>
       </c>
       <c r="J194">
         <v>11.79</v>
       </c>
       <c r="K194">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7957,7 +7964,7 @@
         <v>204</v>
       </c>
       <c r="B195">
-        <v>151</v>
+        <v>154.4</v>
       </c>
       <c r="C195">
         <v>25</v>
@@ -7969,7 +7976,7 @@
         <v>1170.45</v>
       </c>
       <c r="F195" s="2">
-        <v>3775</v>
+        <v>3860</v>
       </c>
       <c r="G195">
         <v>0.04</v>
@@ -7978,13 +7985,13 @@
         <v>9.1140000000000008</v>
       </c>
       <c r="I195">
-        <v>16.568000000000001</v>
+        <v>16.940999999999999</v>
       </c>
       <c r="J195">
         <v>46.81</v>
       </c>
       <c r="K195">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7992,7 +7999,7 @@
         <v>205</v>
       </c>
       <c r="B196">
-        <v>24.88</v>
+        <v>24.62</v>
       </c>
       <c r="C196">
         <v>249.73500000000001</v>
@@ -8004,7 +8011,7 @@
         <v>1084.1099999999999</v>
       </c>
       <c r="F196" s="2">
-        <v>6213.41</v>
+        <v>6148.48</v>
       </c>
       <c r="G196">
         <v>7.0000000000000007E-2</v>
@@ -8013,13 +8020,13 @@
         <v>1.6579999999999999</v>
       </c>
       <c r="I196">
-        <v>15.009</v>
+        <v>14.852</v>
       </c>
       <c r="J196">
         <v>4.34</v>
       </c>
       <c r="K196">
-        <v>5.73</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8027,7 +8034,7 @@
         <v>206</v>
       </c>
       <c r="B197">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="C197" s="2">
         <v>218.29499999999999</v>
@@ -8039,7 +8046,7 @@
         <v>224.38</v>
       </c>
       <c r="F197" s="2">
-        <v>683.26</v>
+        <v>696.36</v>
       </c>
       <c r="G197">
         <v>0.01</v>
@@ -8048,21 +8055,21 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I197">
-        <v>70.006</v>
+        <v>71.347999999999999</v>
       </c>
       <c r="J197">
         <v>1.02</v>
       </c>
       <c r="K197">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B198">
-        <v>8.0500000000000007</v>
+        <v>7.95</v>
       </c>
       <c r="C198" s="2">
         <v>3705.8820000000001</v>
@@ -8074,7 +8081,7 @@
         <v>41330.67</v>
       </c>
       <c r="F198" s="2">
-        <v>29832.35</v>
+        <v>29461.759999999998</v>
       </c>
       <c r="G198">
         <v>0.33</v>
@@ -8083,17 +8090,17 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="I198">
-        <v>20.260999999999999</v>
+        <v>20.009</v>
       </c>
       <c r="J198">
         <v>11.15</v>
       </c>
       <c r="K198">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C199" s="2">
@@ -8106,7 +8113,7 @@
         <v>53873.83</v>
       </c>
       <c r="F199" s="2">
-        <v>66288.92</v>
+        <v>65777.98</v>
       </c>
       <c r="G199">
         <v>0.74</v>
@@ -8115,13 +8122,13 @@
         <v>0.65</v>
       </c>
       <c r="I199">
-        <v>21.355</v>
+        <v>21.19</v>
       </c>
       <c r="J199">
         <v>11.29</v>
       </c>
       <c r="K199">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8129,7 +8136,7 @@
         <v>209</v>
       </c>
       <c r="B200">
-        <v>145</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="C200">
         <v>150</v>
@@ -8141,22 +8148,22 @@
         <v>4742.4799999999996</v>
       </c>
       <c r="F200" s="2">
-        <v>21750</v>
+        <v>20970</v>
       </c>
       <c r="G200">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="H200">
         <v>7.2469999999999999</v>
       </c>
       <c r="I200">
-        <v>20.007999999999999</v>
+        <v>19.291</v>
       </c>
       <c r="J200">
         <v>31.61</v>
       </c>
       <c r="K200">
-        <v>4.58</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8164,7 +8171,7 @@
         <v>210</v>
       </c>
       <c r="B201">
-        <v>12.04</v>
+        <v>12.22</v>
       </c>
       <c r="C201">
         <v>66</v>
@@ -8176,7 +8183,7 @@
         <v>994.3</v>
       </c>
       <c r="F201">
-        <v>794.64</v>
+        <v>806.52</v>
       </c>
       <c r="G201">
         <v>0.01</v>
@@ -8185,13 +8192,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I201">
-        <v>19.600999999999999</v>
+        <v>19.893999999999998</v>
       </c>
       <c r="J201">
         <v>15.06</v>
       </c>
       <c r="K201">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8234,7 +8241,7 @@
         <v>212</v>
       </c>
       <c r="B203">
-        <v>17.18</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="C203">
         <v>105</v>
@@ -8246,7 +8253,7 @@
         <v>1050.79</v>
       </c>
       <c r="F203" s="2">
-        <v>1803.9</v>
+        <v>1759.8</v>
       </c>
       <c r="G203">
         <v>0.02</v>
@@ -8255,13 +8262,13 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I203">
-        <v>18.914000000000001</v>
+        <v>18.452000000000002</v>
       </c>
       <c r="J203">
         <v>10</v>
       </c>
       <c r="K203">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8269,7 +8276,7 @@
         <v>213</v>
       </c>
       <c r="B204">
-        <v>14.06</v>
+        <v>14.04</v>
       </c>
       <c r="C204">
         <v>60</v>
@@ -8281,7 +8288,7 @@
         <v>819.22</v>
       </c>
       <c r="F204">
-        <v>843.6</v>
+        <v>842.4</v>
       </c>
       <c r="G204">
         <v>0.01</v>
@@ -8290,7 +8297,7 @@
         <v>0.183</v>
       </c>
       <c r="I204">
-        <v>76.83</v>
+        <v>76.721000000000004</v>
       </c>
       <c r="J204">
         <v>13.65</v>
@@ -8304,7 +8311,7 @@
         <v>214</v>
       </c>
       <c r="B205">
-        <v>11.42</v>
+        <v>11.82</v>
       </c>
       <c r="C205">
         <v>30</v>
@@ -8316,7 +8323,7 @@
         <v>317.36</v>
       </c>
       <c r="F205" s="2">
-        <v>342.6</v>
+        <v>354.6</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -8331,7 +8338,7 @@
         <v>10.57</v>
       </c>
       <c r="K205">
-        <v>1.07</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8339,7 +8346,7 @@
         <v>215</v>
       </c>
       <c r="B206">
-        <v>16.5</v>
+        <v>15.62</v>
       </c>
       <c r="C206">
         <v>127.55800000000001</v>
@@ -8351,7 +8358,7 @@
         <v>1768.65</v>
       </c>
       <c r="F206" s="2">
-        <v>2104.71</v>
+        <v>1992.46</v>
       </c>
       <c r="G206">
         <v>0.02</v>
@@ -8366,7 +8373,7 @@
         <v>13.86</v>
       </c>
       <c r="K206">
-        <v>1.19</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8374,7 +8381,7 @@
         <v>216</v>
       </c>
       <c r="B207">
-        <v>14.06</v>
+        <v>14.3</v>
       </c>
       <c r="C207">
         <v>79.814999999999998</v>
@@ -8386,7 +8393,7 @@
         <v>1666.07</v>
       </c>
       <c r="F207" s="2">
-        <v>1122.2</v>
+        <v>1141.3499999999999</v>
       </c>
       <c r="G207">
         <v>0.01</v>
@@ -8395,13 +8402,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I207">
-        <v>18.486999999999998</v>
+        <v>18.803000000000001</v>
       </c>
       <c r="J207">
         <v>20.87</v>
       </c>
       <c r="K207">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8409,7 +8416,7 @@
         <v>217</v>
       </c>
       <c r="B208">
-        <v>13.74</v>
+        <v>14.16</v>
       </c>
       <c r="C208">
         <v>30</v>
@@ -8421,7 +8428,7 @@
         <v>398.59</v>
       </c>
       <c r="F208">
-        <v>412.2</v>
+        <v>424.8</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -8430,13 +8437,13 @@
         <v>2.012</v>
       </c>
       <c r="I208">
-        <v>6.8289999999999997</v>
+        <v>7.0369999999999999</v>
       </c>
       <c r="J208">
         <v>13.28</v>
       </c>
       <c r="K208">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8444,7 +8451,7 @@
         <v>218</v>
       </c>
       <c r="B209">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="C209">
         <v>45.893999999999998</v>
@@ -8456,7 +8463,7 @@
         <v>591.83000000000004</v>
       </c>
       <c r="F209">
-        <v>619.57000000000005</v>
+        <v>620.49</v>
       </c>
       <c r="G209">
         <v>0.01</v>
@@ -8479,7 +8486,7 @@
         <v>219</v>
       </c>
       <c r="B210">
-        <v>11.3</v>
+        <v>11.56</v>
       </c>
       <c r="C210">
         <v>29.1</v>
@@ -8491,7 +8498,7 @@
         <v>269.44</v>
       </c>
       <c r="F210">
-        <v>328.83</v>
+        <v>336.4</v>
       </c>
       <c r="G210" t="s">
         <v>32</v>
@@ -8506,7 +8513,7 @@
         <v>9.25</v>
       </c>
       <c r="K210">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8514,7 +8521,7 @@
         <v>220</v>
       </c>
       <c r="B211">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C211">
         <v>53</v>
@@ -8526,7 +8533,7 @@
         <v>612.03</v>
       </c>
       <c r="F211">
-        <v>577.70000000000005</v>
+        <v>572.4</v>
       </c>
       <c r="G211">
         <v>0.01</v>
@@ -8535,13 +8542,13 @@
         <v>0.505</v>
       </c>
       <c r="I211">
-        <v>21.588000000000001</v>
+        <v>21.39</v>
       </c>
       <c r="J211">
         <v>11.54</v>
       </c>
       <c r="K211">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8549,7 +8556,7 @@
         <v>221</v>
       </c>
       <c r="B212">
-        <v>12.46</v>
+        <v>12.48</v>
       </c>
       <c r="C212">
         <v>50</v>
@@ -8561,7 +8568,7 @@
         <v>702.25</v>
       </c>
       <c r="F212">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G212">
         <v>0.01</v>
@@ -8570,7 +8577,7 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="I212">
-        <v>18.026</v>
+        <v>18.055</v>
       </c>
       <c r="J212">
         <v>14.04</v>
@@ -8584,7 +8591,7 @@
         <v>222</v>
       </c>
       <c r="B213">
-        <v>11.24</v>
+        <v>12.36</v>
       </c>
       <c r="C213">
         <v>30</v>
@@ -8596,7 +8603,7 @@
         <v>385.64</v>
       </c>
       <c r="F213">
-        <v>337.2</v>
+        <v>370.8</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -8605,13 +8612,13 @@
         <v>0.217</v>
       </c>
       <c r="I213">
-        <v>51.796999999999997</v>
+        <v>56.957999999999998</v>
       </c>
       <c r="J213">
         <v>12.85</v>
       </c>
       <c r="K213">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8619,7 +8626,7 @@
         <v>223</v>
       </c>
       <c r="B214">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="C214">
         <v>40</v>
@@ -8631,7 +8638,7 @@
         <v>247.5</v>
       </c>
       <c r="F214" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -8646,7 +8653,7 @@
         <v>6.18</v>
       </c>
       <c r="K214">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8654,7 +8661,7 @@
         <v>224</v>
       </c>
       <c r="B215">
-        <v>42.55</v>
+        <v>43</v>
       </c>
       <c r="C215">
         <v>115.83</v>
@@ -8666,22 +8673,22 @@
         <v>2068.44</v>
       </c>
       <c r="F215" s="2">
-        <v>4928.57</v>
+        <v>4980.6899999999996</v>
       </c>
       <c r="G215">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H215">
         <v>4.13</v>
       </c>
       <c r="I215">
-        <v>10.301</v>
+        <v>10.41</v>
       </c>
       <c r="J215">
         <v>17.850000000000001</v>
       </c>
       <c r="K215">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8689,7 +8696,7 @@
         <v>225</v>
       </c>
       <c r="B216">
-        <v>167.4</v>
+        <v>166.8</v>
       </c>
       <c r="C216">
         <v>150</v>
@@ -8701,7 +8708,7 @@
         <v>5568.56</v>
       </c>
       <c r="F216" s="2">
-        <v>25110</v>
+        <v>25020</v>
       </c>
       <c r="G216">
         <v>0.28000000000000003</v>
@@ -8710,13 +8717,13 @@
         <v>7.9119999999999999</v>
       </c>
       <c r="I216">
-        <v>21.157</v>
+        <v>21.081</v>
       </c>
       <c r="J216">
         <v>37.119999999999997</v>
       </c>
       <c r="K216">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8724,7 +8731,7 @@
         <v>226</v>
       </c>
       <c r="B217">
-        <v>105.4</v>
+        <v>103.8</v>
       </c>
       <c r="C217">
         <v>100</v>
@@ -8736,22 +8743,22 @@
         <v>2174.38</v>
       </c>
       <c r="F217" s="2">
-        <v>10540</v>
+        <v>10380</v>
       </c>
       <c r="G217">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H217">
         <v>3.1179999999999999</v>
       </c>
       <c r="I217">
-        <v>33.808</v>
+        <v>33.293999999999997</v>
       </c>
       <c r="J217">
         <v>21.74</v>
       </c>
       <c r="K217">
-        <v>4.84</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8759,7 +8766,7 @@
         <v>227</v>
       </c>
       <c r="B218">
-        <v>31.25</v>
+        <v>31.3</v>
       </c>
       <c r="C218">
         <v>30</v>
@@ -8771,7 +8778,7 @@
         <v>460.26</v>
       </c>
       <c r="F218" s="2">
-        <v>937.5</v>
+        <v>939</v>
       </c>
       <c r="G218">
         <v>0.01</v>
@@ -8780,13 +8787,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="I218">
-        <v>68.983999999999995</v>
+        <v>69.093999999999994</v>
       </c>
       <c r="J218">
         <v>15.34</v>
       </c>
       <c r="K218">
-        <v>2.0299999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8794,7 +8801,7 @@
         <v>228</v>
       </c>
       <c r="B219">
-        <v>23.4</v>
+        <v>23.46</v>
       </c>
       <c r="C219">
         <v>52.5</v>
@@ -8806,7 +8813,7 @@
         <v>1145.97</v>
       </c>
       <c r="F219" s="2">
-        <v>1228.5</v>
+        <v>1231.6500000000001</v>
       </c>
       <c r="G219">
         <v>0.01</v>
@@ -8815,7 +8822,7 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I219">
-        <v>8.4420000000000002</v>
+        <v>8.4640000000000004</v>
       </c>
       <c r="J219">
         <v>21.82</v>
@@ -8829,7 +8836,7 @@
         <v>229</v>
       </c>
       <c r="B220">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C220">
         <v>30</v>
@@ -8841,7 +8848,7 @@
         <v>202.63</v>
       </c>
       <c r="F220">
-        <v>165.3</v>
+        <v>164.1</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -8856,7 +8863,7 @@
         <v>6.75</v>
       </c>
       <c r="K220">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8864,7 +8871,7 @@
         <v>230</v>
       </c>
       <c r="B221">
-        <v>15.34</v>
+        <v>15.3</v>
       </c>
       <c r="C221">
         <v>30</v>
@@ -8876,7 +8883,7 @@
         <v>472.24</v>
       </c>
       <c r="F221">
-        <v>460.2</v>
+        <v>459</v>
       </c>
       <c r="G221">
         <v>0.01</v>
@@ -8885,7 +8892,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I221">
-        <v>67.084000000000003</v>
+        <v>66.909000000000006</v>
       </c>
       <c r="J221">
         <v>15.74</v>
@@ -8899,7 +8906,7 @@
         <v>231</v>
       </c>
       <c r="B222">
-        <v>11.16</v>
+        <v>11.62</v>
       </c>
       <c r="C222">
         <v>40</v>
@@ -8911,22 +8918,22 @@
         <v>444.9</v>
       </c>
       <c r="F222">
-        <v>446.4</v>
-      </c>
-      <c r="G222" t="s">
-        <v>32</v>
+        <v>464.8</v>
+      </c>
+      <c r="G222">
+        <v>0.01</v>
       </c>
       <c r="H222">
         <v>0.749</v>
       </c>
       <c r="I222">
-        <v>14.898999999999999</v>
+        <v>15.513999999999999</v>
       </c>
       <c r="J222">
         <v>11.12</v>
       </c>
       <c r="K222">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8934,7 +8941,7 @@
         <v>232</v>
       </c>
       <c r="B223">
-        <v>15.54</v>
+        <v>15.7</v>
       </c>
       <c r="C223">
         <v>40</v>
@@ -8946,7 +8953,7 @@
         <v>617.19000000000005</v>
       </c>
       <c r="F223">
-        <v>621.6</v>
+        <v>628</v>
       </c>
       <c r="G223">
         <v>0.01</v>
@@ -8955,13 +8962,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I223">
-        <v>7.5789999999999997</v>
+        <v>7.657</v>
       </c>
       <c r="J223">
         <v>15.42</v>
       </c>
       <c r="K223">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8969,7 +8976,7 @@
         <v>233</v>
       </c>
       <c r="B224">
-        <v>7.67</v>
+        <v>7.79</v>
       </c>
       <c r="C224">
         <v>43</v>
@@ -8981,7 +8988,7 @@
         <v>309.45999999999998</v>
       </c>
       <c r="F224">
-        <v>329.81</v>
+        <v>334.97</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -8990,13 +8997,13 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I224">
-        <v>78.153999999999996</v>
+        <v>79.376000000000005</v>
       </c>
       <c r="J224">
         <v>7.19</v>
       </c>
       <c r="K224">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9004,7 +9011,7 @@
         <v>234</v>
       </c>
       <c r="B225">
-        <v>8.65</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C225">
         <v>23</v>
@@ -9016,7 +9023,7 @@
         <v>161.93</v>
       </c>
       <c r="F225" s="2">
-        <v>198.95</v>
+        <v>202.4</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -9031,15 +9038,15 @@
         <v>7.04</v>
       </c>
       <c r="K225">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B226">
-        <v>78</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C226" s="2">
         <v>77.507000000000005</v>
@@ -9051,7 +9058,7 @@
         <v>450.47</v>
       </c>
       <c r="F226" s="2">
-        <v>6045.55</v>
+        <v>6037.8</v>
       </c>
       <c r="G226">
         <v>7.0000000000000007E-2</v>
@@ -9060,17 +9067,17 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="I226">
-        <v>52.451000000000001</v>
+        <v>52.384</v>
       </c>
       <c r="J226">
         <v>5.81</v>
       </c>
       <c r="K226">
-        <v>13.42</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C227" s="2">
@@ -9083,7 +9090,7 @@
         <v>29085.3</v>
       </c>
       <c r="F227" s="2">
-        <v>83560.53</v>
+        <v>82548.429999999993</v>
       </c>
       <c r="G227">
         <v>0.91</v>
@@ -9092,13 +9099,13 @@
         <v>2.11</v>
       </c>
       <c r="I227">
-        <v>20.806000000000001</v>
+        <v>20.564</v>
       </c>
       <c r="J227">
         <v>17.329999999999998</v>
       </c>
       <c r="K227">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9106,7 +9113,7 @@
         <v>237</v>
       </c>
       <c r="B228">
-        <v>127.4</v>
+        <v>126</v>
       </c>
       <c r="C228">
         <v>30</v>
@@ -9118,7 +9125,7 @@
         <v>457.58</v>
       </c>
       <c r="F228" s="2">
-        <v>3822</v>
+        <v>3780</v>
       </c>
       <c r="G228">
         <v>0.04</v>
@@ -9127,13 +9134,13 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="I228">
-        <v>39.527999999999999</v>
+        <v>39.094000000000001</v>
       </c>
       <c r="J228">
         <v>15.25</v>
       </c>
       <c r="K228">
-        <v>8.35</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9141,7 +9148,7 @@
         <v>238</v>
       </c>
       <c r="B229">
-        <v>4.87</v>
+        <v>4.97</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -9153,7 +9160,7 @@
         <v>116.65</v>
       </c>
       <c r="F229" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="G229">
         <v>0.01</v>
@@ -9168,7 +9175,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K229">
-        <v>4.17</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9176,7 +9183,7 @@
         <v>239</v>
       </c>
       <c r="B230" s="2">
-        <v>248</v>
+        <v>243.8</v>
       </c>
       <c r="C230">
         <v>120</v>
@@ -9188,22 +9195,22 @@
         <v>4364</v>
       </c>
       <c r="F230" s="2">
-        <v>29760</v>
+        <v>29256</v>
       </c>
       <c r="G230">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="H230">
         <v>13.367000000000001</v>
       </c>
       <c r="I230">
-        <v>18.553000000000001</v>
+        <v>18.239000000000001</v>
       </c>
       <c r="J230">
         <v>36.36</v>
       </c>
       <c r="K230">
-        <v>6.81</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9211,7 +9218,7 @@
         <v>240</v>
       </c>
       <c r="B231">
-        <v>897.6</v>
+        <v>920</v>
       </c>
       <c r="C231">
         <v>80</v>
@@ -9223,30 +9230,30 @@
         <v>5489</v>
       </c>
       <c r="F231" s="2">
-        <v>71808</v>
+        <v>73600</v>
       </c>
       <c r="G231">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="H231">
         <v>24.7</v>
       </c>
       <c r="I231">
-        <v>36.340000000000003</v>
+        <v>37.246000000000002</v>
       </c>
       <c r="J231">
         <v>68.61</v>
       </c>
       <c r="K231">
-        <v>13.08</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B232">
-        <v>10.119999999999999</v>
+        <v>10.08</v>
       </c>
       <c r="C232">
         <v>300</v>
@@ -9258,7 +9265,7 @@
         <v>577.71</v>
       </c>
       <c r="F232" s="2">
-        <v>3036</v>
+        <v>3024</v>
       </c>
       <c r="G232">
         <v>0.03</v>
@@ -9267,17 +9274,17 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I232">
-        <v>18.295000000000002</v>
+        <v>18.222999999999999</v>
       </c>
       <c r="J232">
         <v>1.92</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C233" s="2">
@@ -9290,22 +9297,22 @@
         <v>11004.94</v>
       </c>
       <c r="F233" s="2">
-        <v>108913</v>
+        <v>110157</v>
       </c>
       <c r="G233">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H233">
         <v>6.0739999999999998</v>
       </c>
       <c r="I233">
-        <v>28.216999999999999</v>
+        <v>28.538</v>
       </c>
       <c r="J233">
         <v>17.47</v>
       </c>
       <c r="K233">
-        <v>9.9</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9313,7 +9320,7 @@
         <v>243</v>
       </c>
       <c r="B234">
-        <v>41.75</v>
+        <v>41.7</v>
       </c>
       <c r="C234" s="2">
         <v>5000</v>
@@ -9325,7 +9332,7 @@
         <v>91069</v>
       </c>
       <c r="F234" s="2">
-        <v>208750</v>
+        <v>208500</v>
       </c>
       <c r="G234">
         <v>2.31</v>
@@ -9334,13 +9341,13 @@
         <v>5.01</v>
       </c>
       <c r="I234">
-        <v>8.3320000000000007</v>
+        <v>8.3219999999999992</v>
       </c>
       <c r="J234">
         <v>18.21</v>
       </c>
       <c r="K234">
-        <v>2.29</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9348,7 +9355,7 @@
         <v>244</v>
       </c>
       <c r="B235">
-        <v>55.6</v>
+        <v>57</v>
       </c>
       <c r="C235">
         <v>770</v>
@@ -9360,22 +9367,22 @@
         <v>18637</v>
       </c>
       <c r="F235" s="2">
-        <v>42812</v>
+        <v>43890</v>
       </c>
       <c r="G235">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="H235">
         <v>4.2030000000000003</v>
       </c>
       <c r="I235">
-        <v>13.228999999999999</v>
+        <v>13.563000000000001</v>
       </c>
       <c r="J235">
         <v>24.2</v>
       </c>
       <c r="K235">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -9383,7 +9390,7 @@
         <v>245</v>
       </c>
       <c r="B236">
-        <v>10.220000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C236">
         <v>898.72900000000004</v>
@@ -9395,7 +9402,7 @@
         <v>10792</v>
       </c>
       <c r="F236" s="2">
-        <v>9185.01</v>
+        <v>9167.0400000000009</v>
       </c>
       <c r="G236">
         <v>0.1</v>
@@ -9404,13 +9411,13 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="I236">
-        <v>14.766</v>
+        <v>14.738</v>
       </c>
       <c r="J236">
         <v>12</v>
       </c>
       <c r="K236">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9418,7 +9425,7 @@
         <v>246</v>
       </c>
       <c r="B237">
-        <v>90.2</v>
+        <v>92.2</v>
       </c>
       <c r="C237" s="2">
         <v>33.999000000000002</v>
@@ -9430,7 +9437,7 @@
         <v>709.2</v>
       </c>
       <c r="F237" s="2">
-        <v>3066.71</v>
+        <v>3134.71</v>
       </c>
       <c r="G237">
         <v>0.03</v>
@@ -9439,13 +9446,13 @@
         <v>5.2549999999999999</v>
       </c>
       <c r="I237">
-        <v>17.164000000000001</v>
+        <v>17.544</v>
       </c>
       <c r="J237">
         <v>20.85</v>
       </c>
       <c r="K237">
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9462,16 +9469,16 @@
         <v>121207.2</v>
       </c>
       <c r="F238" s="2">
-        <v>263813.71999999997</v>
+        <v>264691.75</v>
       </c>
       <c r="G238">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="H238">
         <v>4.34</v>
       </c>
       <c r="I238">
-        <v>9.0690000000000008</v>
+        <v>9.0990000000000002</v>
       </c>
       <c r="J238">
         <v>18.079999999999998</v>
@@ -9485,7 +9492,7 @@
         <v>248</v>
       </c>
       <c r="B239">
-        <v>72.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="C239">
         <v>75</v>
@@ -9497,7 +9504,7 @@
         <v>1943</v>
       </c>
       <c r="F239" s="2">
-        <v>5452.5</v>
+        <v>5542.5</v>
       </c>
       <c r="G239">
         <v>0.06</v>
@@ -9506,13 +9513,13 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="I239">
-        <v>23.492000000000001</v>
+        <v>23.879000000000001</v>
       </c>
       <c r="J239">
         <v>25.9</v>
       </c>
       <c r="K239">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9520,7 +9527,7 @@
         <v>249</v>
       </c>
       <c r="B240">
-        <v>133.19999999999999</v>
+        <v>136</v>
       </c>
       <c r="C240">
         <v>35</v>
@@ -9532,7 +9539,7 @@
         <v>814.29</v>
       </c>
       <c r="F240" s="2">
-        <v>4662</v>
+        <v>4760</v>
       </c>
       <c r="G240">
         <v>0.05</v>
@@ -9541,13 +9548,13 @@
         <v>7.0030000000000001</v>
       </c>
       <c r="I240">
-        <v>19.021000000000001</v>
+        <v>19.420999999999999</v>
       </c>
       <c r="J240">
         <v>23.26</v>
       </c>
       <c r="K240">
-        <v>5.72</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9555,7 +9562,7 @@
         <v>250</v>
       </c>
       <c r="B241">
-        <v>238</v>
+        <v>236.2</v>
       </c>
       <c r="C241">
         <v>732.56100000000004</v>
@@ -9567,22 +9574,22 @@
         <v>20994.04</v>
       </c>
       <c r="F241" s="2">
-        <v>174349.52</v>
+        <v>173030.91</v>
       </c>
       <c r="G241">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H241">
         <v>2.577</v>
       </c>
       <c r="I241">
-        <v>92.343999999999994</v>
+        <v>91.644999999999996</v>
       </c>
       <c r="J241">
         <v>28.65</v>
       </c>
       <c r="K241">
-        <v>8.3000000000000007</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9590,7 +9597,7 @@
         <v>251</v>
       </c>
       <c r="B242">
-        <v>39.200000000000003</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="C242">
         <v>250</v>
@@ -9602,7 +9609,7 @@
         <v>5317.85</v>
       </c>
       <c r="F242" s="2">
-        <v>9800</v>
+        <v>9887.5</v>
       </c>
       <c r="G242">
         <v>0.11</v>
@@ -9617,7 +9624,7 @@
         <v>21.27</v>
       </c>
       <c r="K242">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9625,7 +9632,7 @@
         <v>252</v>
       </c>
       <c r="B243">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C243" s="2">
         <v>160.92500000000001</v>
@@ -9637,7 +9644,7 @@
         <v>495.52</v>
       </c>
       <c r="F243" s="2">
-        <v>3475.98</v>
+        <v>3492.07</v>
       </c>
       <c r="G243">
         <v>0.04</v>
@@ -9646,21 +9653,21 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="I243">
-        <v>41.97</v>
+        <v>42.164000000000001</v>
       </c>
       <c r="J243">
         <v>3.07</v>
       </c>
       <c r="K243">
-        <v>7.01</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B244">
-        <v>13.88</v>
+        <v>13.96</v>
       </c>
       <c r="C244" s="2">
         <v>4166.5929999999998</v>
@@ -9672,7 +9679,7 @@
         <v>257811</v>
       </c>
       <c r="F244" s="2">
-        <v>57832.31</v>
+        <v>58165.64</v>
       </c>
       <c r="G244">
         <v>0.64</v>
@@ -9681,7 +9688,7 @@
         <v>1.665</v>
       </c>
       <c r="I244">
-        <v>8.3350000000000009</v>
+        <v>8.3829999999999991</v>
       </c>
       <c r="J244">
         <v>61.87</v>
@@ -9691,7 +9698,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C245" s="2">
@@ -9704,16 +9711,16 @@
         <v>287375.7</v>
       </c>
       <c r="F245" s="2">
-        <v>255572.31</v>
+        <v>254878.62</v>
       </c>
       <c r="G245">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="H245">
         <v>1.7310000000000001</v>
       </c>
       <c r="I245">
-        <v>26.184999999999999</v>
+        <v>26.102</v>
       </c>
       <c r="J245">
         <v>53.02</v>
@@ -9727,7 +9734,7 @@
         <v>255</v>
       </c>
       <c r="B246">
-        <v>5.25</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C246">
         <v>171.697</v>
@@ -9739,7 +9746,7 @@
         <v>1746.23</v>
       </c>
       <c r="F246">
-        <v>901.41</v>
+        <v>868.79</v>
       </c>
       <c r="G246">
         <v>0.01</v>
@@ -9754,7 +9761,7 @@
         <v>10.17</v>
       </c>
       <c r="K246">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9762,7 +9769,7 @@
         <v>256</v>
       </c>
       <c r="B247">
-        <v>12.52</v>
+        <v>13.28</v>
       </c>
       <c r="C247">
         <v>11.8</v>
@@ -9774,7 +9781,7 @@
         <v>86.31</v>
       </c>
       <c r="F247">
-        <v>147.74</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="G247" t="s">
         <v>32</v>
@@ -9783,13 +9790,13 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I247">
-        <v>48.92</v>
+        <v>51.887</v>
       </c>
       <c r="J247">
         <v>7.31</v>
       </c>
       <c r="K247">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9797,7 +9804,7 @@
         <v>257</v>
       </c>
       <c r="B248">
-        <v>5.54</v>
+        <v>5.25</v>
       </c>
       <c r="C248">
         <v>66</v>
@@ -9809,7 +9816,7 @@
         <v>500.29</v>
       </c>
       <c r="F248">
-        <v>365.64</v>
+        <v>346.5</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
@@ -9818,13 +9825,13 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="I248">
-        <v>20.821999999999999</v>
+        <v>19.731999999999999</v>
       </c>
       <c r="J248">
         <v>7.58</v>
       </c>
       <c r="K248">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9832,7 +9839,7 @@
         <v>258</v>
       </c>
       <c r="B249">
-        <v>9.48</v>
+        <v>9.39</v>
       </c>
       <c r="C249">
         <v>51</v>
@@ -9844,7 +9851,7 @@
         <v>549.69000000000005</v>
       </c>
       <c r="F249">
-        <v>483.48</v>
+        <v>478.89</v>
       </c>
       <c r="G249">
         <v>0.01</v>
@@ -9853,7 +9860,7 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="I249">
-        <v>14.867000000000001</v>
+        <v>14.726000000000001</v>
       </c>
       <c r="J249">
         <v>10.77</v>
@@ -9867,7 +9874,7 @@
         <v>259</v>
       </c>
       <c r="B250">
-        <v>9.08</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="C250">
         <v>61.37</v>
@@ -9879,7 +9886,7 @@
         <v>514.29</v>
       </c>
       <c r="F250">
-        <v>557.24</v>
+        <v>554.16999999999996</v>
       </c>
       <c r="G250">
         <v>0.01</v>
@@ -9888,13 +9895,13 @@
         <v>0.67</v>
       </c>
       <c r="I250">
-        <v>13.544</v>
+        <v>13.47</v>
       </c>
       <c r="J250">
         <v>8.3800000000000008</v>
       </c>
       <c r="K250">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9902,7 +9909,7 @@
         <v>260</v>
       </c>
       <c r="B251">
-        <v>4.08</v>
+        <v>4.01</v>
       </c>
       <c r="C251">
         <v>88</v>
@@ -9914,7 +9921,7 @@
         <v>744.87</v>
       </c>
       <c r="F251">
-        <v>359.04</v>
+        <v>352.88</v>
       </c>
       <c r="G251" t="s">
         <v>32</v>
@@ -9929,7 +9936,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="K251">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9937,7 +9944,7 @@
         <v>261</v>
       </c>
       <c r="B252">
-        <v>4.66</v>
+        <v>4.63</v>
       </c>
       <c r="C252">
         <v>103.765</v>
@@ -9949,7 +9956,7 @@
         <v>771.32</v>
       </c>
       <c r="F252">
-        <v>483.54</v>
+        <v>480.43</v>
       </c>
       <c r="G252">
         <v>0.01</v>
@@ -9958,7 +9965,7 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I252">
-        <v>31.937000000000001</v>
+        <v>31.731999999999999</v>
       </c>
       <c r="J252">
         <v>7.43</v>
@@ -9972,7 +9979,7 @@
         <v>262</v>
       </c>
       <c r="B253">
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C253">
         <v>57.24</v>
@@ -9984,7 +9991,7 @@
         <v>243.04</v>
       </c>
       <c r="F253">
-        <v>232.97</v>
+        <v>232.39</v>
       </c>
       <c r="G253" t="s">
         <v>32</v>
@@ -10007,7 +10014,7 @@
         <v>263</v>
       </c>
       <c r="B254">
-        <v>6.74</v>
+        <v>6.81</v>
       </c>
       <c r="C254">
         <v>137.5</v>
@@ -10019,7 +10026,7 @@
         <v>1195.8</v>
       </c>
       <c r="F254">
-        <v>926.75</v>
+        <v>936.38</v>
       </c>
       <c r="G254">
         <v>0.01</v>
@@ -10028,13 +10035,13 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="I254">
-        <v>34.734999999999999</v>
+        <v>35.095999999999997</v>
       </c>
       <c r="J254">
         <v>8.69</v>
       </c>
       <c r="K254">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -10042,7 +10049,7 @@
         <v>264</v>
       </c>
       <c r="B255">
-        <v>5.34</v>
+        <v>5.44</v>
       </c>
       <c r="C255">
         <v>107.50700000000001</v>
@@ -10054,7 +10061,7 @@
         <v>869.57</v>
       </c>
       <c r="F255" s="2">
-        <v>574.09</v>
+        <v>584.84</v>
       </c>
       <c r="G255">
         <v>0.01</v>
@@ -10063,13 +10070,13 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="I255">
-        <v>38.685000000000002</v>
+        <v>39.408999999999999</v>
       </c>
       <c r="J255">
         <v>8.08</v>
       </c>
       <c r="K255">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -10077,7 +10084,7 @@
         <v>265</v>
       </c>
       <c r="B256">
-        <v>8.17</v>
+        <v>8.19</v>
       </c>
       <c r="C256">
         <v>275.60700000000003</v>
@@ -10089,16 +10096,16 @@
         <v>2250.7800000000002</v>
       </c>
       <c r="F256" s="2">
-        <v>2251.71</v>
+        <v>2257.2199999999998</v>
       </c>
       <c r="G256">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H256">
         <v>0.67900000000000005</v>
       </c>
       <c r="I256">
-        <v>12.025</v>
+        <v>12.054</v>
       </c>
       <c r="J256">
         <v>8.16</v>
@@ -10112,7 +10119,7 @@
         <v>266</v>
       </c>
       <c r="B257">
-        <v>10.039999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="C257">
         <v>186.50899999999999</v>
@@ -10124,7 +10131,7 @@
         <v>2308.79</v>
       </c>
       <c r="F257" s="2">
-        <v>1872.55</v>
+        <v>1861.36</v>
       </c>
       <c r="G257">
         <v>0.02</v>
@@ -10133,13 +10140,13 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="I257">
-        <v>33.576000000000001</v>
+        <v>33.375</v>
       </c>
       <c r="J257">
         <v>12.37</v>
       </c>
       <c r="K257">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -10147,7 +10154,7 @@
         <v>267</v>
       </c>
       <c r="B258">
-        <v>6.63</v>
+        <v>6.72</v>
       </c>
       <c r="C258">
         <v>186.94399999999999</v>
@@ -10159,7 +10166,7 @@
         <v>1454.16</v>
       </c>
       <c r="F258" s="2">
-        <v>1239.44</v>
+        <v>1256.26</v>
       </c>
       <c r="G258">
         <v>0.01</v>
@@ -10168,13 +10175,13 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I258">
-        <v>86.012</v>
+        <v>87.179000000000002</v>
       </c>
       <c r="J258">
         <v>7.77</v>
       </c>
       <c r="K258">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10217,7 +10224,7 @@
         <v>269</v>
       </c>
       <c r="B260">
-        <v>3.63</v>
+        <v>3.56</v>
       </c>
       <c r="C260">
         <v>73.275999999999996</v>
@@ -10229,7 +10236,7 @@
         <v>515.41</v>
       </c>
       <c r="F260" s="2">
-        <v>265.99</v>
+        <v>260.86</v>
       </c>
       <c r="G260" t="s">
         <v>32</v>
@@ -10238,13 +10245,13 @@
         <v>0.111</v>
       </c>
       <c r="I260">
-        <v>32.756999999999998</v>
+        <v>32.125</v>
       </c>
       <c r="J260">
         <v>7.03</v>
       </c>
       <c r="K260">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10252,7 +10259,7 @@
         <v>270</v>
       </c>
       <c r="B261">
-        <v>8.98</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="C261">
         <v>162.881</v>
@@ -10264,7 +10271,7 @@
         <v>1363.65</v>
       </c>
       <c r="F261" s="2">
-        <v>1462.67</v>
+        <v>1461.04</v>
       </c>
       <c r="G261">
         <v>0.02</v>
@@ -10273,7 +10280,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I261">
-        <v>16.538</v>
+        <v>16.52</v>
       </c>
       <c r="J261">
         <v>8.3699999999999992</v>
@@ -10287,7 +10294,7 @@
         <v>271</v>
       </c>
       <c r="B262">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="C262">
         <v>141.00800000000001</v>
@@ -10299,7 +10306,7 @@
         <v>1222.58</v>
       </c>
       <c r="F262">
-        <v>786.82</v>
+        <v>784</v>
       </c>
       <c r="G262">
         <v>0.01</v>
@@ -10308,7 +10315,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="I262">
-        <v>13.259</v>
+        <v>13.211</v>
       </c>
       <c r="J262">
         <v>8.67</v>
@@ -10322,7 +10329,7 @@
         <v>272</v>
       </c>
       <c r="B263">
-        <v>8.15</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="C263">
         <v>102.002</v>
@@ -10334,7 +10341,7 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="F263">
-        <v>831.32</v>
+        <v>829.28</v>
       </c>
       <c r="G263">
         <v>0.01</v>
@@ -10343,7 +10350,7 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I263">
-        <v>17.016999999999999</v>
+        <v>16.975999999999999</v>
       </c>
       <c r="J263">
         <v>10.11</v>
@@ -10353,11 +10360,11 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B264">
-        <v>6.82</v>
+        <v>8.25</v>
       </c>
       <c r="C264" s="2">
         <v>60.5</v>
@@ -10369,10 +10376,10 @@
         <v>582.99</v>
       </c>
       <c r="F264" s="2">
-        <v>412.61</v>
-      </c>
-      <c r="G264" t="s">
-        <v>32</v>
+        <v>499.13</v>
+      </c>
+      <c r="G264">
+        <v>0.01</v>
       </c>
       <c r="H264">
         <v>-0.36399999999999999</v>
@@ -10384,11 +10391,11 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="K264">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C265" s="2">
@@ -10401,16 +10408,16 @@
         <v>18786.89</v>
       </c>
       <c r="F265" s="2">
-        <v>14673.03</v>
+        <v>14719.14</v>
       </c>
       <c r="G265">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H265">
         <v>0.127</v>
       </c>
       <c r="I265">
-        <v>20.552</v>
+        <v>20.55</v>
       </c>
       <c r="J265">
         <v>8.69</v>
@@ -10424,7 +10431,7 @@
         <v>275</v>
       </c>
       <c r="B266">
-        <v>18.7</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="C266">
         <v>375</v>
@@ -10436,7 +10443,7 @@
         <v>5177.7</v>
       </c>
       <c r="F266" s="2">
-        <v>7012.5</v>
+        <v>7102.5</v>
       </c>
       <c r="G266">
         <v>0.08</v>
@@ -10445,13 +10452,13 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="I266">
-        <v>20.190999999999999</v>
+        <v>20.45</v>
       </c>
       <c r="J266">
         <v>13.8</v>
       </c>
       <c r="K266">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10494,7 +10501,7 @@
         <v>277</v>
       </c>
       <c r="B268">
-        <v>85.3</v>
+        <v>85.7</v>
       </c>
       <c r="C268">
         <v>200</v>
@@ -10506,7 +10513,7 @@
         <v>4813</v>
       </c>
       <c r="F268" s="2">
-        <v>17060</v>
+        <v>17140</v>
       </c>
       <c r="G268">
         <v>0.19</v>
@@ -10515,13 +10522,13 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="I268">
-        <v>38.08</v>
+        <v>38.258000000000003</v>
       </c>
       <c r="J268">
         <v>24.06</v>
       </c>
       <c r="K268">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10529,7 +10536,7 @@
         <v>278</v>
       </c>
       <c r="B269">
-        <v>31.15</v>
+        <v>32.4</v>
       </c>
       <c r="C269">
         <v>233.93</v>
@@ -10541,7 +10548,7 @@
         <v>3990</v>
       </c>
       <c r="F269" s="2">
-        <v>7286.92</v>
+        <v>7579.33</v>
       </c>
       <c r="G269">
         <v>0.08</v>
@@ -10550,13 +10557,13 @@
         <v>1.145</v>
       </c>
       <c r="I269">
-        <v>27.210999999999999</v>
+        <v>28.303000000000001</v>
       </c>
       <c r="J269">
         <v>17.05</v>
       </c>
       <c r="K269">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10564,7 +10571,7 @@
         <v>279</v>
       </c>
       <c r="B270">
-        <v>11.98</v>
+        <v>11.94</v>
       </c>
       <c r="C270">
         <v>523.25900000000001</v>
@@ -10576,7 +10583,7 @@
         <v>5136</v>
       </c>
       <c r="F270" s="2">
-        <v>6268.64</v>
+        <v>6247.71</v>
       </c>
       <c r="G270">
         <v>7.0000000000000007E-2</v>
@@ -10591,7 +10598,7 @@
         <v>9.81</v>
       </c>
       <c r="K270">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10599,7 +10606,7 @@
         <v>280</v>
       </c>
       <c r="B271">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="C271" s="2">
         <v>30.234000000000002</v>
@@ -10611,7 +10618,7 @@
         <v>32</v>
       </c>
       <c r="F271" s="2">
-        <v>1076.33</v>
+        <v>1061.21</v>
       </c>
       <c r="G271">
         <v>0.01</v>
@@ -10634,7 +10641,7 @@
         <v>281</v>
       </c>
       <c r="B272">
-        <v>18.78</v>
+        <v>18.86</v>
       </c>
       <c r="C272" s="2">
         <v>1180.0219999999999</v>
@@ -10646,22 +10653,22 @@
         <v>14415.73</v>
       </c>
       <c r="F272" s="2">
-        <v>22160.81</v>
+        <v>22255.21</v>
       </c>
       <c r="G272">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H272">
         <v>0.95499999999999996</v>
       </c>
       <c r="I272">
-        <v>19.663</v>
+        <v>19.747</v>
       </c>
       <c r="J272">
         <v>12.21</v>
       </c>
       <c r="K272">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10669,7 +10676,7 @@
         <v>282</v>
       </c>
       <c r="B273">
-        <v>18.420000000000002</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="C273" s="2">
         <v>1080</v>
@@ -10681,7 +10688,7 @@
         <v>21304.55</v>
       </c>
       <c r="F273" s="2">
-        <v>19893.599999999999</v>
+        <v>19720.8</v>
       </c>
       <c r="G273">
         <v>0.22</v>
@@ -10690,13 +10697,13 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="I273">
-        <v>23.062000000000001</v>
+        <v>22.861999999999998</v>
       </c>
       <c r="J273">
         <v>19.72</v>
       </c>
       <c r="K273">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -10704,7 +10711,7 @@
         <v>283</v>
       </c>
       <c r="B274">
-        <v>12.1</v>
+        <v>12.98</v>
       </c>
       <c r="C274">
         <v>339.3</v>
@@ -10716,7 +10723,7 @@
         <v>2968.84</v>
       </c>
       <c r="F274" s="2">
-        <v>4105.53</v>
+        <v>4404.1099999999997</v>
       </c>
       <c r="G274">
         <v>0.05</v>
@@ -10731,7 +10738,7 @@
         <v>8.74</v>
       </c>
       <c r="K274">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -10739,7 +10746,7 @@
         <v>284</v>
       </c>
       <c r="B275">
-        <v>20.5</v>
+        <v>20.68</v>
       </c>
       <c r="C275">
         <v>93.332999999999998</v>
@@ -10751,7 +10758,7 @@
         <v>992.46</v>
       </c>
       <c r="F275" s="2">
-        <v>1913.33</v>
+        <v>1930.13</v>
       </c>
       <c r="G275">
         <v>0.02</v>
@@ -10766,7 +10773,7 @@
         <v>10.63</v>
       </c>
       <c r="K275">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -10774,7 +10781,7 @@
         <v>285</v>
       </c>
       <c r="B276">
-        <v>18.34</v>
+        <v>18.48</v>
       </c>
       <c r="C276">
         <v>475</v>
@@ -10786,7 +10793,7 @@
         <v>14824.3</v>
       </c>
       <c r="F276" s="2">
-        <v>8711.5</v>
+        <v>8778</v>
       </c>
       <c r="G276">
         <v>0.1</v>
@@ -10795,13 +10802,13 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="I276">
-        <v>6.907</v>
+        <v>6.96</v>
       </c>
       <c r="J276">
         <v>31.2</v>
       </c>
       <c r="K276">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10809,7 +10816,7 @@
         <v>286</v>
       </c>
       <c r="B277">
-        <v>13.72</v>
+        <v>13.02</v>
       </c>
       <c r="C277">
         <v>500</v>
@@ -10821,22 +10828,22 @@
         <v>847.1</v>
       </c>
       <c r="F277" s="2">
-        <v>6860</v>
+        <v>6510</v>
       </c>
       <c r="G277">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H277">
         <v>0.54500000000000004</v>
       </c>
       <c r="I277">
-        <v>25.177</v>
+        <v>23.891999999999999</v>
       </c>
       <c r="J277">
         <v>1.69</v>
       </c>
       <c r="K277">
-        <v>8.09</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10844,7 +10851,7 @@
         <v>287</v>
       </c>
       <c r="B278">
-        <v>35.4</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="C278">
         <v>50</v>
@@ -10856,7 +10863,7 @@
         <v>630.74</v>
       </c>
       <c r="F278" s="2">
-        <v>1770</v>
+        <v>1785</v>
       </c>
       <c r="G278">
         <v>0.02</v>
@@ -10865,13 +10872,13 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="I278">
-        <v>16.111999999999998</v>
+        <v>16.248999999999999</v>
       </c>
       <c r="J278">
         <v>12.61</v>
       </c>
       <c r="K278">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10879,7 +10886,7 @@
         <v>288</v>
       </c>
       <c r="B279">
-        <v>4.2</v>
+        <v>4.43</v>
       </c>
       <c r="C279" s="2">
         <v>200</v>
@@ -10891,7 +10898,7 @@
         <v>404.74</v>
       </c>
       <c r="F279" s="2">
-        <v>840</v>
+        <v>886</v>
       </c>
       <c r="G279">
         <v>0.01</v>
@@ -10900,21 +10907,21 @@
         <v>0.16</v>
       </c>
       <c r="I279">
-        <v>26.257999999999999</v>
+        <v>27.696000000000002</v>
       </c>
       <c r="J279">
         <v>2.02</v>
       </c>
       <c r="K279">
-        <v>2.0699999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B280">
-        <v>21.66</v>
+        <v>22.2</v>
       </c>
       <c r="C280" s="2">
         <v>1438.6469999999999</v>
@@ -10926,22 +10933,22 @@
         <v>15037.78</v>
       </c>
       <c r="F280" s="2">
-        <v>31161.09</v>
+        <v>31937.96</v>
       </c>
       <c r="G280">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H280">
         <v>0.45400000000000001</v>
       </c>
       <c r="I280">
-        <v>47.686</v>
+        <v>48.875</v>
       </c>
       <c r="J280">
         <v>10.45</v>
       </c>
       <c r="K280">
-        <v>2.0699999999999998</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10958,22 +10965,22 @@
         <v>97503.94</v>
       </c>
       <c r="F281" s="2">
-        <v>145652.98000000001</v>
+        <v>146870.69</v>
       </c>
       <c r="G281">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H281">
         <v>0.68500000000000005</v>
       </c>
       <c r="I281">
-        <v>22.998999999999999</v>
+        <v>23.161999999999999</v>
       </c>
       <c r="J281">
         <v>13.97</v>
       </c>
       <c r="K281">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -10990,19 +10997,19 @@
         <v>3176092.17</v>
       </c>
       <c r="F282" s="2">
-        <v>9051072</v>
+        <v>9027630.6400000006</v>
       </c>
       <c r="H282">
         <v>1.6779999999999999</v>
       </c>
       <c r="I282">
-        <v>15.349</v>
+        <v>15.308</v>
       </c>
       <c r="J282">
         <v>9.3000000000000007</v>
       </c>
       <c r="K282">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -11021,11 +11028,16 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="1" t="s">
         <v>295</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A281">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$A$281</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5670B071-859B-4602-8CA7-8FE0E06B59D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76BD32A-4175-43A1-86CB-F2DB1BA29B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="298">
   <si>
     <t>المؤشرات المالية اليومية</t>
   </si>
@@ -919,7 +919,7 @@
     <t>طيران ناس</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/06/22</t>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/06/23</t>
   </si>
 </sst>
 </file>
@@ -961,11 +961,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1359,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>57.6</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1371,7 +1370,7 @@
         <v>345.55</v>
       </c>
       <c r="F5">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1386,7 +1385,7 @@
         <v>23.03</v>
       </c>
       <c r="K5">
-        <v>2.4300000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1394,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>24.82</v>
+        <v>24.74</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1406,22 +1405,22 @@
         <v>1473620</v>
       </c>
       <c r="F6" s="2">
-        <v>6006440</v>
+        <v>5987080</v>
       </c>
       <c r="G6">
-        <v>66.53</v>
+        <v>66.11</v>
       </c>
       <c r="H6">
         <v>1.627</v>
       </c>
       <c r="I6">
-        <v>15.256</v>
+        <v>15.207000000000001</v>
       </c>
       <c r="J6">
         <v>6.08</v>
       </c>
       <c r="K6">
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1429,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1441,7 +1440,7 @@
         <v>10987</v>
       </c>
       <c r="F7" s="2">
-        <v>11028.6</v>
+        <v>11195.7</v>
       </c>
       <c r="G7">
         <v>0.12</v>
@@ -1456,7 +1455,7 @@
         <v>6.57</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1464,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>73.7</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1476,7 +1475,7 @@
         <v>6010</v>
       </c>
       <c r="F8" s="2">
-        <v>6497</v>
+        <v>6559.3</v>
       </c>
       <c r="G8">
         <v>7.0000000000000007E-2</v>
@@ -1485,13 +1484,13 @@
         <v>2.8090000000000002</v>
       </c>
       <c r="I8">
-        <v>25.989000000000001</v>
+        <v>26.238</v>
       </c>
       <c r="J8">
         <v>67.52</v>
       </c>
       <c r="K8">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1499,7 +1498,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>12.2</v>
+        <v>12.26</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1511,7 +1510,7 @@
         <v>6418.9</v>
       </c>
       <c r="F9" s="2">
-        <v>13774.56</v>
+        <v>13842.3</v>
       </c>
       <c r="G9">
         <v>0.15</v>
@@ -1520,13 +1519,13 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="I9">
-        <v>16.963000000000001</v>
+        <v>17.045999999999999</v>
       </c>
       <c r="J9">
         <v>5.68</v>
       </c>
       <c r="K9">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1534,7 +1533,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="C10">
         <v>738.28099999999995</v>
@@ -1546,7 +1545,7 @@
         <v>14127.19</v>
       </c>
       <c r="F10" s="2">
-        <v>22148.43</v>
+        <v>22369.91</v>
       </c>
       <c r="G10">
         <v>0.25</v>
@@ -1555,13 +1554,13 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="I10">
-        <v>9.8460000000000001</v>
+        <v>9.9450000000000003</v>
       </c>
       <c r="J10">
         <v>19.13</v>
       </c>
       <c r="K10">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1569,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1581,7 +1580,7 @@
         <v>1438.5</v>
       </c>
       <c r="F11" s="2">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="G11">
         <v>0.13</v>
@@ -1590,13 +1589,13 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="I11">
-        <v>32.436</v>
+        <v>33.267000000000003</v>
       </c>
       <c r="J11">
         <v>14.38</v>
       </c>
       <c r="K11">
-        <v>8.1300000000000008</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1613,22 +1612,22 @@
         <v>1512947.14</v>
       </c>
       <c r="F12" s="2">
-        <v>6072428.5899999999</v>
+        <v>6053911.21</v>
       </c>
       <c r="G12">
-        <v>67.260000000000005</v>
+        <v>66.84</v>
       </c>
       <c r="H12">
         <v>1.601</v>
       </c>
       <c r="I12">
-        <v>15.252000000000001</v>
+        <v>15.205</v>
       </c>
       <c r="J12">
         <v>6.16</v>
       </c>
       <c r="K12">
-        <v>4.01</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1636,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7.21</v>
+        <v>7.37</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1648,7 +1647,7 @@
         <v>382.18</v>
       </c>
       <c r="F13">
-        <v>551.30999999999995</v>
+        <v>563.54</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1663,7 +1662,7 @@
         <v>4.99</v>
       </c>
       <c r="K13">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1671,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1683,7 +1682,7 @@
         <v>1611.65</v>
       </c>
       <c r="F14" s="2">
-        <v>2192.65</v>
+        <v>2218.65</v>
       </c>
       <c r="G14">
         <v>0.02</v>
@@ -1698,7 +1697,7 @@
         <v>18.59</v>
       </c>
       <c r="K14">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1706,7 +1705,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>25.15</v>
+        <v>25.4</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -1718,7 +1717,7 @@
         <v>598.46</v>
       </c>
       <c r="F15">
-        <v>691.63</v>
+        <v>698.5</v>
       </c>
       <c r="G15">
         <v>0.01</v>
@@ -1727,13 +1726,13 @@
         <v>1.198</v>
       </c>
       <c r="I15">
-        <v>20.995999999999999</v>
+        <v>21.204999999999998</v>
       </c>
       <c r="J15">
         <v>21.76</v>
       </c>
       <c r="K15">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1741,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>47.25</v>
+        <v>48.55</v>
       </c>
       <c r="C16" s="2">
         <v>3802.7849999999999</v>
@@ -1753,22 +1752,22 @@
         <v>53273.5</v>
       </c>
       <c r="F16" s="2">
-        <v>179681.59</v>
+        <v>184625.21</v>
       </c>
       <c r="G16">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="H16">
         <v>0.90500000000000003</v>
       </c>
       <c r="I16">
-        <v>52.234999999999999</v>
+        <v>53.673000000000002</v>
       </c>
       <c r="J16">
         <v>14</v>
       </c>
       <c r="K16">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1776,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1788,7 +1787,7 @@
         <v>366.9</v>
       </c>
       <c r="F17">
-        <v>589.67999999999995</v>
+        <v>603.72</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1797,13 +1796,13 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17">
-        <v>61.424999999999997</v>
+        <v>62.887</v>
       </c>
       <c r="J17">
         <v>13.06</v>
       </c>
       <c r="K17">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1811,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>28.2</v>
+        <v>28.95</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1823,7 +1822,7 @@
         <v>590.22</v>
       </c>
       <c r="F18" s="2">
-        <v>1432.56</v>
+        <v>1470.66</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1832,13 +1831,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="I18">
-        <v>38.457000000000001</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="J18">
         <v>11.61</v>
       </c>
       <c r="K18">
-        <v>2.42</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1846,7 +1845,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>49.95</v>
+        <v>51.4</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1858,7 +1857,7 @@
         <v>913</v>
       </c>
       <c r="F19" s="2">
-        <v>2547.4499999999998</v>
+        <v>2621.4</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1867,13 +1866,13 @@
         <v>4.7839999999999998</v>
       </c>
       <c r="I19">
-        <v>10.44</v>
+        <v>10.743</v>
       </c>
       <c r="J19">
         <v>17.899999999999999</v>
       </c>
       <c r="K19">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1881,7 +1880,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>110.4</v>
+        <v>117.4</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1893,7 +1892,7 @@
         <v>1049.6199999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>3477.6</v>
+        <v>3698.1</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1902,13 +1901,13 @@
         <v>15.114000000000001</v>
       </c>
       <c r="I20">
-        <v>7.3040000000000003</v>
+        <v>7.7670000000000003</v>
       </c>
       <c r="J20">
         <v>33.32</v>
       </c>
       <c r="K20">
-        <v>3.31</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1916,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>57.5</v>
+        <v>57.8</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1928,7 +1927,7 @@
         <v>1210.1199999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5175</v>
+        <v>5202</v>
       </c>
       <c r="G21">
         <v>0.06</v>
@@ -1937,13 +1936,13 @@
         <v>2.4220000000000002</v>
       </c>
       <c r="I21">
-        <v>23.736999999999998</v>
+        <v>23.861000000000001</v>
       </c>
       <c r="J21">
         <v>13.44</v>
       </c>
       <c r="K21">
-        <v>4.2699999999999996</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1951,7 +1950,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>33.950000000000003</v>
+        <v>35.25</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1963,7 +1962,7 @@
         <v>564.17999999999995</v>
       </c>
       <c r="F22" s="2">
-        <v>1358</v>
+        <v>1410</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1972,13 +1971,13 @@
         <v>2.718</v>
       </c>
       <c r="I22">
-        <v>12.493</v>
+        <v>12.971</v>
       </c>
       <c r="J22">
         <v>14.1</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1986,7 +1985,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>12.38</v>
+        <v>12.42</v>
       </c>
       <c r="C23">
         <v>67.45</v>
@@ -1998,7 +1997,7 @@
         <v>728.24</v>
       </c>
       <c r="F23">
-        <v>835.03</v>
+        <v>837.73</v>
       </c>
       <c r="G23">
         <v>0.01</v>
@@ -2013,7 +2012,7 @@
         <v>10.79</v>
       </c>
       <c r="K23">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,7 +2020,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>54.3</v>
+        <v>54.9</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2033,22 +2032,22 @@
         <v>156110</v>
       </c>
       <c r="F24" s="2">
-        <v>162900</v>
+        <v>164700</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H24">
         <v>2.7E-2</v>
       </c>
       <c r="I24">
-        <v>2036.25</v>
+        <v>2058.75</v>
       </c>
       <c r="J24">
         <v>52.03</v>
       </c>
       <c r="K24">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2056,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>106.8</v>
+        <v>109.2</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2068,22 +2067,22 @@
         <v>19286</v>
       </c>
       <c r="F25" s="2">
-        <v>50840.54</v>
+        <v>51983.02</v>
       </c>
       <c r="G25">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H25">
         <v>7.2910000000000004</v>
       </c>
       <c r="I25">
-        <v>14.647</v>
+        <v>14.976000000000001</v>
       </c>
       <c r="J25">
         <v>40.51</v>
       </c>
       <c r="K25">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,7 +2090,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>8.98</v>
+        <v>9.14</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2103,7 +2102,7 @@
         <v>10484.4</v>
       </c>
       <c r="F26" s="2">
-        <v>6006.85</v>
+        <v>6113.87</v>
       </c>
       <c r="G26">
         <v>7.0000000000000007E-2</v>
@@ -2112,13 +2111,13 @@
         <v>1.601</v>
       </c>
       <c r="I26">
-        <v>5.61</v>
+        <v>5.71</v>
       </c>
       <c r="J26">
         <v>15.67</v>
       </c>
       <c r="K26">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2126,7 +2125,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>18.14</v>
+        <v>19.52</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2138,7 +2137,7 @@
         <v>346.35</v>
       </c>
       <c r="F27">
-        <v>574.41999999999996</v>
+        <v>618.12</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2153,7 +2152,7 @@
         <v>10.93</v>
       </c>
       <c r="K27">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2161,7 +2160,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>41.8</v>
+        <v>42.6</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2173,7 +2172,7 @@
         <v>772.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1375.22</v>
+        <v>1401.54</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2182,13 +2181,13 @@
         <v>2.7930000000000001</v>
       </c>
       <c r="I28">
-        <v>14.964</v>
+        <v>15.25</v>
       </c>
       <c r="J28">
         <v>23.47</v>
       </c>
       <c r="K28">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2196,7 +2195,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>36.25</v>
+        <v>36.1</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2208,7 +2207,7 @@
         <v>3475.91</v>
       </c>
       <c r="F29" s="2">
-        <v>2508.5</v>
+        <v>2498.12</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2223,7 +2222,7 @@
         <v>50.22</v>
       </c>
       <c r="K29">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2231,7 +2230,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>31.6</v>
+        <v>32.25</v>
       </c>
       <c r="C30">
         <v>11.5</v>
@@ -2243,7 +2242,7 @@
         <v>141.80000000000001</v>
       </c>
       <c r="F30">
-        <v>363.4</v>
+        <v>370.88</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2258,7 +2257,7 @@
         <v>12.33</v>
       </c>
       <c r="K30">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2266,7 +2265,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>5.71</v>
+        <v>5.79</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -2278,7 +2277,7 @@
         <v>441.49</v>
       </c>
       <c r="F31" s="2">
-        <v>1142</v>
+        <v>1158</v>
       </c>
       <c r="G31">
         <v>0.01</v>
@@ -2287,13 +2286,13 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="I31">
-        <v>7.4359999999999999</v>
+        <v>7.54</v>
       </c>
       <c r="J31">
         <v>2.2000000000000002</v>
       </c>
       <c r="K31">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2336,7 +2335,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>12.9</v>
+        <v>13.26</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2348,7 +2347,7 @@
         <v>242.28</v>
       </c>
       <c r="F33">
-        <v>456.66</v>
+        <v>469.4</v>
       </c>
       <c r="G33">
         <v>0.01</v>
@@ -2363,7 +2362,7 @@
         <v>6.84</v>
       </c>
       <c r="K33">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2371,7 +2370,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>94.8</v>
+        <v>96.3</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2383,7 +2382,7 @@
         <v>4075.05</v>
       </c>
       <c r="F34" s="2">
-        <v>15997.5</v>
+        <v>16250.63</v>
       </c>
       <c r="G34">
         <v>0.18</v>
@@ -2392,13 +2391,13 @@
         <v>5.6559999999999997</v>
       </c>
       <c r="I34">
-        <v>16.759</v>
+        <v>17.024000000000001</v>
       </c>
       <c r="J34">
         <v>24.14</v>
       </c>
       <c r="K34">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2406,7 +2405,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>38</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2418,7 +2417,7 @@
         <v>474.58</v>
       </c>
       <c r="F35" s="2">
-        <v>2280</v>
+        <v>2343</v>
       </c>
       <c r="G35">
         <v>0.03</v>
@@ -2427,13 +2426,13 @@
         <v>0.72</v>
       </c>
       <c r="I35">
-        <v>52.789000000000001</v>
+        <v>54.247999999999998</v>
       </c>
       <c r="J35">
         <v>7.9</v>
       </c>
       <c r="K35">
-        <v>4.8</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2441,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>16.82</v>
+        <v>16.7</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2453,7 +2452,7 @@
         <v>9853</v>
       </c>
       <c r="F36" s="2">
-        <v>11426.16</v>
+        <v>11344.64</v>
       </c>
       <c r="G36">
         <v>0.13</v>
@@ -2462,7 +2461,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I36">
-        <v>59.822000000000003</v>
+        <v>59.396000000000001</v>
       </c>
       <c r="J36">
         <v>14.5</v>
@@ -2476,7 +2475,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C37">
         <v>562.5</v>
@@ -2488,7 +2487,7 @@
         <v>11252.6</v>
       </c>
       <c r="F37" s="2">
-        <v>16200</v>
+        <v>16256.25</v>
       </c>
       <c r="G37">
         <v>0.18</v>
@@ -2497,13 +2496,13 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="I37">
-        <v>48.488</v>
+        <v>48.655999999999999</v>
       </c>
       <c r="J37">
         <v>20</v>
       </c>
       <c r="K37">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2511,7 +2510,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>60</v>
+        <v>63.1</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2523,22 +2522,22 @@
         <v>533.52</v>
       </c>
       <c r="F38" s="2">
-        <v>2224.1999999999998</v>
+        <v>2339.12</v>
       </c>
       <c r="G38">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H38">
         <v>1.825</v>
       </c>
       <c r="I38">
-        <v>32.872999999999998</v>
+        <v>34.570999999999998</v>
       </c>
       <c r="J38">
         <v>14.39</v>
       </c>
       <c r="K38">
-        <v>4.16</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2546,7 +2545,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>19.079999999999998</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2558,7 +2557,7 @@
         <v>15430</v>
       </c>
       <c r="F39" s="2">
-        <v>13991.99</v>
+        <v>13977.33</v>
       </c>
       <c r="G39">
         <v>0.15</v>
@@ -2567,7 +2566,7 @@
         <v>0.6</v>
       </c>
       <c r="I39">
-        <v>31.798999999999999</v>
+        <v>31.765999999999998</v>
       </c>
       <c r="J39">
         <v>21.04</v>
@@ -2581,7 +2580,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>28.35</v>
+        <v>29.15</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2593,7 +2592,7 @@
         <v>2915</v>
       </c>
       <c r="F40" s="2">
-        <v>7371</v>
+        <v>7579</v>
       </c>
       <c r="G40">
         <v>0.08</v>
@@ -2608,7 +2607,7 @@
         <v>11.21</v>
       </c>
       <c r="K40">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2616,7 +2615,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2628,7 +2627,7 @@
         <v>10731.37</v>
       </c>
       <c r="F41" s="2">
-        <v>6735</v>
+        <v>6765</v>
       </c>
       <c r="G41">
         <v>7.0000000000000007E-2</v>
@@ -2643,7 +2642,7 @@
         <v>7.15</v>
       </c>
       <c r="K41">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2651,7 +2650,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>26.85</v>
+        <v>27.2</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2663,7 +2662,7 @@
         <v>93.41</v>
       </c>
       <c r="F42">
-        <v>402.75</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2678,7 +2677,7 @@
         <v>6.22</v>
       </c>
       <c r="K42">
-        <v>4.3099999999999996</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,7 +2685,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>7.85</v>
+        <v>7.88</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2698,7 +2697,7 @@
         <v>2053.0500000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>1334.5</v>
+        <v>1339.6</v>
       </c>
       <c r="G43">
         <v>0.01</v>
@@ -2707,7 +2706,7 @@
         <v>0.437</v>
       </c>
       <c r="I43">
-        <v>17.981999999999999</v>
+        <v>18.050999999999998</v>
       </c>
       <c r="J43">
         <v>12.07</v>
@@ -2721,7 +2720,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>16.16</v>
+        <v>16.3</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2733,7 +2732,7 @@
         <v>1846.52</v>
       </c>
       <c r="F44" s="2">
-        <v>2262.4</v>
+        <v>2282</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2742,13 +2741,13 @@
         <v>1.101</v>
       </c>
       <c r="I44">
-        <v>14.683999999999999</v>
+        <v>14.811</v>
       </c>
       <c r="J44">
         <v>13.18</v>
       </c>
       <c r="K44">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2756,7 +2755,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>7.47</v>
+        <v>7.51</v>
       </c>
       <c r="C45">
         <v>180</v>
@@ -2768,7 +2767,7 @@
         <v>2264.7800000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>1344.6</v>
+        <v>1351.8</v>
       </c>
       <c r="G45">
         <v>0.01</v>
@@ -2777,7 +2776,7 @@
         <v>0.317</v>
       </c>
       <c r="I45">
-        <v>23.556000000000001</v>
+        <v>23.681999999999999</v>
       </c>
       <c r="J45">
         <v>12.58</v>
@@ -2826,7 +2825,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>24.5</v>
+        <v>24.78</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2838,7 +2837,7 @@
         <v>289.64999999999998</v>
       </c>
       <c r="F47">
-        <v>551.25</v>
+        <v>557.54999999999995</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2847,13 +2846,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I47">
-        <v>6125</v>
+        <v>6195</v>
       </c>
       <c r="J47">
         <v>12.87</v>
       </c>
       <c r="K47">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2861,7 +2860,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2873,7 +2872,7 @@
         <v>107.08</v>
       </c>
       <c r="F48">
-        <v>436.26</v>
+        <v>445.31</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -2888,7 +2887,7 @@
         <v>0.47</v>
       </c>
       <c r="K48">
-        <v>4.07</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2896,7 +2895,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>22.42</v>
+        <v>22.76</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2908,22 +2907,22 @@
         <v>2586.1</v>
       </c>
       <c r="F49" s="2">
-        <v>2242</v>
+        <v>2276</v>
       </c>
       <c r="G49">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H49">
         <v>1.296</v>
       </c>
       <c r="I49">
-        <v>17.298999999999999</v>
+        <v>17.561</v>
       </c>
       <c r="J49">
         <v>25.86</v>
       </c>
       <c r="K49">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,7 +2930,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>32.4</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>202.5</v>
@@ -2943,7 +2942,7 @@
         <v>4985.1000000000004</v>
       </c>
       <c r="F50" s="2">
-        <v>6561</v>
+        <v>6682.5</v>
       </c>
       <c r="G50">
         <v>7.0000000000000007E-2</v>
@@ -2952,13 +2951,13 @@
         <v>2.2109999999999999</v>
       </c>
       <c r="I50">
-        <v>14.653</v>
+        <v>14.923999999999999</v>
       </c>
       <c r="J50">
         <v>24.61</v>
       </c>
       <c r="K50">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2966,7 +2965,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>38.75</v>
+        <v>38.85</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2978,7 +2977,7 @@
         <v>2349</v>
       </c>
       <c r="F51" s="2">
-        <v>5928.75</v>
+        <v>5944.05</v>
       </c>
       <c r="G51">
         <v>7.0000000000000007E-2</v>
@@ -2987,13 +2986,13 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="I51">
-        <v>14.231</v>
+        <v>14.268000000000001</v>
       </c>
       <c r="J51">
         <v>15.35</v>
       </c>
       <c r="K51">
-        <v>2.52</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3001,7 +3000,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>49.15</v>
+        <v>49.65</v>
       </c>
       <c r="C52">
         <v>110.559</v>
@@ -3013,7 +3012,7 @@
         <v>2770.28</v>
       </c>
       <c r="F52" s="2">
-        <v>5433.97</v>
+        <v>5489.25</v>
       </c>
       <c r="G52">
         <v>0.06</v>
@@ -3022,13 +3021,13 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="I52">
-        <v>16.917000000000002</v>
+        <v>17.088999999999999</v>
       </c>
       <c r="J52">
         <v>25.05</v>
       </c>
       <c r="K52">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3036,7 +3035,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>27.35</v>
+        <v>27.4</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3048,7 +3047,7 @@
         <v>3398</v>
       </c>
       <c r="F53" s="2">
-        <v>3829</v>
+        <v>3836</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3057,7 +3056,7 @@
         <v>1.4930000000000001</v>
       </c>
       <c r="I53">
-        <v>18.32</v>
+        <v>18.353999999999999</v>
       </c>
       <c r="J53">
         <v>24.27</v>
@@ -3071,7 +3070,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>19.559999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3083,7 +3082,7 @@
         <v>2635.99</v>
       </c>
       <c r="F54" s="2">
-        <v>3080.7</v>
+        <v>3118.5</v>
       </c>
       <c r="G54">
         <v>0.03</v>
@@ -3092,13 +3091,13 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="I54">
-        <v>23.931000000000001</v>
+        <v>24.225000000000001</v>
       </c>
       <c r="J54">
         <v>16.73</v>
       </c>
       <c r="K54">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3106,7 +3105,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>29.85</v>
+        <v>29.5</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3118,7 +3117,7 @@
         <v>2267</v>
       </c>
       <c r="F55" s="2">
-        <v>2567.1</v>
+        <v>2537</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3127,13 +3126,13 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="I55">
-        <v>10.606999999999999</v>
+        <v>10.483000000000001</v>
       </c>
       <c r="J55">
         <v>26.36</v>
       </c>
       <c r="K55">
-        <v>1.1299999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3141,7 +3140,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>10.16</v>
+        <v>10.34</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -3153,7 +3152,7 @@
         <v>1192.03</v>
       </c>
       <c r="F56">
-        <v>914.4</v>
+        <v>930.6</v>
       </c>
       <c r="G56">
         <v>0.01</v>
@@ -3162,13 +3161,13 @@
         <v>0.85</v>
       </c>
       <c r="I56">
-        <v>11.954000000000001</v>
+        <v>12.166</v>
       </c>
       <c r="J56">
         <v>13.24</v>
       </c>
       <c r="K56">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3176,7 +3175,7 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="C57">
         <v>108.7</v>
@@ -3188,7 +3187,7 @@
         <v>1101.25</v>
       </c>
       <c r="F57">
-        <v>831.56</v>
+        <v>830.47</v>
       </c>
       <c r="G57">
         <v>0.01</v>
@@ -3255,22 +3254,22 @@
         <v>340669.09</v>
       </c>
       <c r="F59" s="2">
-        <v>543889.35</v>
+        <v>553389.23</v>
       </c>
       <c r="G59">
-        <v>6.03</v>
+        <v>6.13</v>
       </c>
       <c r="H59">
         <v>0.752</v>
       </c>
       <c r="I59">
-        <v>36.930999999999997</v>
+        <v>37.581000000000003</v>
       </c>
       <c r="J59">
         <v>22.74</v>
       </c>
       <c r="K59">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3278,7 +3277,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3290,7 +3289,7 @@
         <v>2700.53</v>
       </c>
       <c r="F60" s="2">
-        <v>11440</v>
+        <v>11600</v>
       </c>
       <c r="G60">
         <v>0.13</v>
@@ -3299,13 +3298,13 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="I60">
-        <v>18.709</v>
+        <v>18.97</v>
       </c>
       <c r="J60">
         <v>33.75</v>
       </c>
       <c r="K60">
-        <v>4.2300000000000004</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3313,7 +3312,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>25.2</v>
+        <v>25.8</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3325,7 +3324,7 @@
         <v>825.67</v>
       </c>
       <c r="F61" s="2">
-        <v>1398.6</v>
+        <v>1431.9</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3334,13 +3333,13 @@
         <v>1.379</v>
       </c>
       <c r="I61">
-        <v>18.271999999999998</v>
+        <v>18.707000000000001</v>
       </c>
       <c r="J61">
         <v>14.87</v>
       </c>
       <c r="K61">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3348,7 +3347,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3360,7 +3359,7 @@
         <v>964.6</v>
       </c>
       <c r="F62" s="2">
-        <v>2856</v>
+        <v>2910</v>
       </c>
       <c r="G62">
         <v>0.03</v>
@@ -3369,13 +3368,13 @@
         <v>1.89</v>
       </c>
       <c r="I62">
-        <v>25.187000000000001</v>
+        <v>25.663</v>
       </c>
       <c r="J62">
         <v>16.07</v>
       </c>
       <c r="K62">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3383,7 +3382,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>7.24</v>
+        <v>7.53</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3395,7 +3394,7 @@
         <v>930.83</v>
       </c>
       <c r="F63" s="2">
-        <v>8145</v>
+        <v>8471.25</v>
       </c>
       <c r="G63">
         <v>0.09</v>
@@ -3404,13 +3403,13 @@
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>18.102</v>
+        <v>18.827000000000002</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>8.75</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3418,7 +3417,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>25.6</v>
+        <v>26.7</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3430,7 +3429,7 @@
         <v>1444.71</v>
       </c>
       <c r="F64" s="2">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3445,7 +3444,7 @@
         <v>14.44</v>
       </c>
       <c r="K64">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3453,7 +3452,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>131.80000000000001</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3465,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>879.37</v>
+        <v>926.07</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3488,7 +3487,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>18.600000000000001</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3500,7 +3499,7 @@
         <v>908.22</v>
       </c>
       <c r="F66">
-        <v>828.63</v>
+        <v>857.14</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3515,7 +3514,7 @@
         <v>20.38</v>
       </c>
       <c r="K66">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3523,7 +3522,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>49.05</v>
+        <v>50.6</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3535,22 +3534,22 @@
         <v>1078.5999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>3136.55</v>
+        <v>3235.67</v>
       </c>
       <c r="G67">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H67">
         <v>4.2439999999999998</v>
       </c>
       <c r="I67">
-        <v>11.555999999999999</v>
+        <v>11.922000000000001</v>
       </c>
       <c r="J67">
         <v>16.86</v>
       </c>
       <c r="K67">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3558,7 +3557,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>29.2</v>
+        <v>30.3</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3570,7 +3569,7 @@
         <v>490.64</v>
       </c>
       <c r="F68" s="2">
-        <v>1168</v>
+        <v>1212</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3579,13 +3578,13 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="I68">
-        <v>13.866</v>
+        <v>14.388999999999999</v>
       </c>
       <c r="J68">
         <v>12.26</v>
       </c>
       <c r="K68">
-        <v>2.38</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3593,7 +3592,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3605,7 +3604,7 @@
         <v>409.58</v>
       </c>
       <c r="F69" s="2">
-        <v>1224</v>
+        <v>1278</v>
       </c>
       <c r="G69">
         <v>0.01</v>
@@ -3620,7 +3619,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3628,7 +3627,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3640,7 +3639,7 @@
         <v>123.96</v>
       </c>
       <c r="F70">
-        <v>386.86</v>
+        <v>396.58</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3655,7 +3654,7 @@
         <v>0.63</v>
       </c>
       <c r="K70">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3663,7 +3662,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>25.75</v>
+        <v>26.6</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3675,7 +3674,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="F71">
-        <v>309</v>
+        <v>319.2</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3690,7 +3689,7 @@
         <v>12.81</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3698,7 +3697,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3710,22 +3709,22 @@
         <v>2899.91</v>
       </c>
       <c r="F72" s="2">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="G72">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H72">
         <v>6.0270000000000001</v>
       </c>
       <c r="I72">
-        <v>21.899000000000001</v>
+        <v>22.562999999999999</v>
       </c>
       <c r="J72">
         <v>19.329999999999998</v>
       </c>
       <c r="K72">
-        <v>6.82</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3733,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>40.65</v>
+        <v>41.7</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3745,7 +3744,7 @@
         <v>528.99</v>
       </c>
       <c r="F73" s="2">
-        <v>1626</v>
+        <v>1668</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3754,13 +3753,13 @@
         <v>2.0289999999999999</v>
       </c>
       <c r="I73">
-        <v>20.036000000000001</v>
+        <v>20.553999999999998</v>
       </c>
       <c r="J73">
         <v>13.22</v>
       </c>
       <c r="K73">
-        <v>3.07</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3768,7 +3767,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>59.7</v>
+        <v>62.1</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3780,7 +3779,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="F74">
-        <v>746.25</v>
+        <v>776.25</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3789,13 +3788,13 @@
         <v>1.913</v>
       </c>
       <c r="I74">
-        <v>31.21</v>
+        <v>32.465000000000003</v>
       </c>
       <c r="J74">
         <v>12.89</v>
       </c>
       <c r="K74">
-        <v>4.62</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3812,22 +3811,22 @@
         <v>13621.27</v>
       </c>
       <c r="F75" s="2">
-        <v>56504.26</v>
+        <v>58152.06</v>
       </c>
       <c r="G75">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="H75">
         <v>0.94699999999999995</v>
       </c>
       <c r="I75">
-        <v>19.233000000000001</v>
+        <v>19.763999999999999</v>
       </c>
       <c r="J75">
         <v>5.27</v>
       </c>
       <c r="K75">
-        <v>4.1500000000000004</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3835,7 +3834,7 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>4.54</v>
+        <v>4.7</v>
       </c>
       <c r="C76">
         <v>475</v>
@@ -3847,7 +3846,7 @@
         <v>613.96</v>
       </c>
       <c r="F76" s="2">
-        <v>2156.5</v>
+        <v>2232.5</v>
       </c>
       <c r="G76">
         <v>0.02</v>
@@ -3856,13 +3855,13 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="I76">
-        <v>21.321000000000002</v>
+        <v>22.073</v>
       </c>
       <c r="J76">
         <v>1.29</v>
       </c>
       <c r="K76">
-        <v>3.51</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3870,7 +3869,7 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="C77">
         <v>175</v>
@@ -3882,7 +3881,7 @@
         <v>167.63</v>
       </c>
       <c r="F77">
-        <v>486.5</v>
+        <v>495.25</v>
       </c>
       <c r="G77">
         <v>0.01</v>
@@ -3897,7 +3896,7 @@
         <v>0.95</v>
       </c>
       <c r="K77">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3905,7 +3904,7 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C78">
         <v>15</v>
@@ -3917,7 +3916,7 @@
         <v>410.42</v>
       </c>
       <c r="F78" s="2">
-        <v>1995</v>
+        <v>2025</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -3926,13 +3925,13 @@
         <v>6.5970000000000004</v>
       </c>
       <c r="I78">
-        <v>20.161000000000001</v>
+        <v>20.463999999999999</v>
       </c>
       <c r="J78">
         <v>27.36</v>
       </c>
       <c r="K78">
-        <v>4.8600000000000003</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3940,7 +3939,7 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>5.61</v>
+        <v>5.68</v>
       </c>
       <c r="C79">
         <v>400</v>
@@ -3952,22 +3951,22 @@
         <v>586.20000000000005</v>
       </c>
       <c r="F79" s="2">
-        <v>2244</v>
+        <v>2272</v>
       </c>
       <c r="G79">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H79">
         <v>0.32200000000000001</v>
       </c>
       <c r="I79">
-        <v>17.434999999999999</v>
+        <v>17.652999999999999</v>
       </c>
       <c r="J79">
         <v>1.46</v>
       </c>
       <c r="K79">
-        <v>3.82</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,7 +3974,7 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>51.2</v>
+        <v>51.7</v>
       </c>
       <c r="C80">
         <v>26.5</v>
@@ -3987,7 +3986,7 @@
         <v>375.3</v>
       </c>
       <c r="F80" s="2">
-        <v>1356.8</v>
+        <v>1370.05</v>
       </c>
       <c r="G80">
         <v>0.02</v>
@@ -3996,13 +3995,13 @@
         <v>3.528</v>
       </c>
       <c r="I80">
-        <v>14.510999999999999</v>
+        <v>14.651999999999999</v>
       </c>
       <c r="J80">
         <v>14.16</v>
       </c>
       <c r="K80">
-        <v>3.61</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4010,7 +4009,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>9.81</v>
+        <v>10.02</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4022,7 +4021,7 @@
         <v>257.07</v>
       </c>
       <c r="F81">
-        <v>588.6</v>
+        <v>601.20000000000005</v>
       </c>
       <c r="G81">
         <v>0.01</v>
@@ -4037,7 +4036,7 @@
         <v>4.28</v>
       </c>
       <c r="K81">
-        <v>2.2799999999999998</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4045,7 +4044,7 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>110.6</v>
+        <v>113.2</v>
       </c>
       <c r="C82">
         <v>82</v>
@@ -4057,7 +4056,7 @@
         <v>1432.29</v>
       </c>
       <c r="F82" s="2">
-        <v>9069.2000000000007</v>
+        <v>9282.4</v>
       </c>
       <c r="G82">
         <v>0.1</v>
@@ -4066,13 +4065,13 @@
         <v>4.3449999999999998</v>
       </c>
       <c r="I82">
-        <v>25.452000000000002</v>
+        <v>26.05</v>
       </c>
       <c r="J82">
         <v>17.46</v>
       </c>
       <c r="K82">
-        <v>6.33</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4089,22 +4088,22 @@
         <v>3842.87</v>
       </c>
       <c r="F83" s="2">
-        <v>17896.599999999999</v>
+        <v>18278.400000000001</v>
       </c>
       <c r="G83">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H83">
         <v>0.45</v>
       </c>
       <c r="I83">
-        <v>21.605</v>
+        <v>22.067</v>
       </c>
       <c r="J83">
         <v>3.12</v>
       </c>
       <c r="K83">
-        <v>4.66</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4112,7 +4111,7 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>26.1</v>
+        <v>25.3</v>
       </c>
       <c r="C84">
         <v>81.599999999999994</v>
@@ -4124,7 +4123,7 @@
         <v>1494</v>
       </c>
       <c r="F84" s="2">
-        <v>2129.7600000000002</v>
+        <v>2064.48</v>
       </c>
       <c r="G84">
         <v>0.02</v>
@@ -4133,13 +4132,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I84">
-        <v>47.222999999999999</v>
+        <v>45.774999999999999</v>
       </c>
       <c r="J84">
         <v>18.3</v>
       </c>
       <c r="K84">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4147,7 +4146,7 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>45</v>
+        <v>46.4</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -4159,22 +4158,22 @@
         <v>2423.3200000000002</v>
       </c>
       <c r="F85" s="2">
-        <v>8460</v>
+        <v>8723.2000000000007</v>
       </c>
       <c r="G85">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H85">
         <v>1.88</v>
       </c>
       <c r="I85">
-        <v>23.931999999999999</v>
+        <v>24.675999999999998</v>
       </c>
       <c r="J85">
         <v>12.89</v>
       </c>
       <c r="K85">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4182,7 +4181,7 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>12.42</v>
+        <v>12.88</v>
       </c>
       <c r="C86">
         <v>125</v>
@@ -4194,7 +4193,7 @@
         <v>897.57</v>
       </c>
       <c r="F86" s="2">
-        <v>1552.5</v>
+        <v>1610</v>
       </c>
       <c r="G86">
         <v>0.02</v>
@@ -4203,13 +4202,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="I86">
-        <v>35.549999999999997</v>
+        <v>36.866999999999997</v>
       </c>
       <c r="J86">
         <v>7.18</v>
       </c>
       <c r="K86">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4217,7 +4216,7 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>66</v>
+        <v>68.2</v>
       </c>
       <c r="C87">
         <v>78.165999999999997</v>
@@ -4229,7 +4228,7 @@
         <v>2821.3</v>
       </c>
       <c r="F87" s="2">
-        <v>5158.96</v>
+        <v>5330.92</v>
       </c>
       <c r="G87">
         <v>0.06</v>
@@ -4238,13 +4237,13 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="I87">
-        <v>15.794</v>
+        <v>16.32</v>
       </c>
       <c r="J87">
         <v>36.090000000000003</v>
       </c>
       <c r="K87">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4252,7 +4251,7 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>63.5</v>
+        <v>63.8</v>
       </c>
       <c r="C88">
         <v>43</v>
@@ -4264,7 +4263,7 @@
         <v>850.43</v>
       </c>
       <c r="F88" s="2">
-        <v>2730.5</v>
+        <v>2743.4</v>
       </c>
       <c r="G88">
         <v>0.03</v>
@@ -4273,13 +4272,13 @@
         <v>4.3630000000000004</v>
       </c>
       <c r="I88">
-        <v>14.555</v>
+        <v>14.624000000000001</v>
       </c>
       <c r="J88">
         <v>19.77</v>
       </c>
       <c r="K88">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4287,7 +4286,7 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>54.4</v>
+        <v>56.9</v>
       </c>
       <c r="C89">
         <v>55</v>
@@ -4299,7 +4298,7 @@
         <v>1265.3900000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>2992</v>
+        <v>3129.5</v>
       </c>
       <c r="G89">
         <v>0.03</v>
@@ -4308,13 +4307,13 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="I89">
-        <v>15.852</v>
+        <v>16.581</v>
       </c>
       <c r="J89">
         <v>23</v>
       </c>
       <c r="K89">
-        <v>2.36</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4322,7 +4321,7 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>167.4</v>
+        <v>170</v>
       </c>
       <c r="C90">
         <v>80</v>
@@ -4334,7 +4333,7 @@
         <v>1449</v>
       </c>
       <c r="F90" s="2">
-        <v>13392</v>
+        <v>13600</v>
       </c>
       <c r="G90">
         <v>0.15</v>
@@ -4343,21 +4342,21 @@
         <v>7.5759999999999996</v>
       </c>
       <c r="I90">
-        <v>22.096</v>
+        <v>22.439</v>
       </c>
       <c r="J90">
         <v>18.11</v>
       </c>
       <c r="K90">
-        <v>9.24</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>296</v>
       </c>
       <c r="B91">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="C91">
         <v>170.851</v>
@@ -4369,7 +4368,7 @@
         <v>32</v>
       </c>
       <c r="F91" s="2">
-        <v>12677.14</v>
+        <v>12694.23</v>
       </c>
       <c r="G91">
         <v>0.14000000000000001</v>
@@ -4401,22 +4400,22 @@
         <v>11201.01</v>
       </c>
       <c r="F92" s="2">
-        <v>49092.86</v>
+        <v>49895.73</v>
       </c>
       <c r="G92">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H92">
         <v>2.1320000000000001</v>
       </c>
       <c r="I92">
-        <v>20.792999999999999</v>
+        <v>21.242000000000001</v>
       </c>
       <c r="J92">
         <v>13.63</v>
       </c>
       <c r="K92">
-        <v>4.38</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4424,7 +4423,7 @@
         <v>102</v>
       </c>
       <c r="B93">
-        <v>73.5</v>
+        <v>78.3</v>
       </c>
       <c r="C93">
         <v>10.897</v>
@@ -4436,7 +4435,7 @@
         <v>39.29</v>
       </c>
       <c r="F93">
-        <v>800.93</v>
+        <v>853.24</v>
       </c>
       <c r="G93">
         <v>0.01</v>
@@ -4451,7 +4450,7 @@
         <v>3.6</v>
       </c>
       <c r="K93">
-        <v>20.38</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4459,7 +4458,7 @@
         <v>103</v>
       </c>
       <c r="B94">
-        <v>24.24</v>
+        <v>24.78</v>
       </c>
       <c r="C94">
         <v>13.5</v>
@@ -4471,7 +4470,7 @@
         <v>64.38</v>
       </c>
       <c r="F94" s="2">
-        <v>327.24</v>
+        <v>334.53</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -4486,7 +4485,7 @@
         <v>4.76</v>
       </c>
       <c r="K94">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4494,7 +4493,7 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>11.94</v>
+        <v>12.12</v>
       </c>
       <c r="C95">
         <v>81.25</v>
@@ -4506,7 +4505,7 @@
         <v>1043.97</v>
       </c>
       <c r="F95">
-        <v>970.13</v>
+        <v>984.75</v>
       </c>
       <c r="G95">
         <v>0.01</v>
@@ -4521,7 +4520,7 @@
         <v>12.84</v>
       </c>
       <c r="K95">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4529,7 +4528,7 @@
         <v>105</v>
       </c>
       <c r="B96">
-        <v>12.3</v>
+        <v>12.54</v>
       </c>
       <c r="C96">
         <v>57.5</v>
@@ -4541,7 +4540,7 @@
         <v>293.3</v>
       </c>
       <c r="F96" s="2">
-        <v>707.25</v>
+        <v>721.05</v>
       </c>
       <c r="G96">
         <v>0.01</v>
@@ -4556,7 +4555,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K96">
-        <v>2.41</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4564,7 +4563,7 @@
         <v>106</v>
       </c>
       <c r="B97">
-        <v>3.82</v>
+        <v>3.91</v>
       </c>
       <c r="C97">
         <v>400</v>
@@ -4576,7 +4575,7 @@
         <v>614.85</v>
       </c>
       <c r="F97" s="2">
-        <v>1528</v>
+        <v>1564</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -4585,21 +4584,21 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I97">
-        <v>14.295999999999999</v>
+        <v>14.632999999999999</v>
       </c>
       <c r="J97">
         <v>1.53</v>
       </c>
       <c r="K97">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" t="s">
         <v>107</v>
       </c>
       <c r="B98">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="C98">
         <v>275</v>
@@ -4611,7 +4610,7 @@
         <v>465.35</v>
       </c>
       <c r="F98" s="2">
-        <v>855.25</v>
+        <v>880</v>
       </c>
       <c r="G98">
         <v>0.01</v>
@@ -4620,13 +4619,13 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I98">
-        <v>74.369</v>
+        <v>76.521000000000001</v>
       </c>
       <c r="J98">
         <v>1.69</v>
       </c>
       <c r="K98">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4643,7 +4642,7 @@
         <v>2521.14</v>
       </c>
       <c r="F99" s="2">
-        <v>5188.8</v>
+        <v>5337.57</v>
       </c>
       <c r="G99">
         <v>0.06</v>
@@ -4652,13 +4651,13 @@
         <v>-0.121</v>
       </c>
       <c r="I99">
-        <v>20.132000000000001</v>
+        <v>20.645</v>
       </c>
       <c r="J99">
         <v>3.01</v>
       </c>
       <c r="K99">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4666,7 +4665,7 @@
         <v>109</v>
       </c>
       <c r="B100">
-        <v>23.48</v>
+        <v>24.08</v>
       </c>
       <c r="C100">
         <v>300</v>
@@ -4678,7 +4677,7 @@
         <v>5992</v>
       </c>
       <c r="F100" s="2">
-        <v>7044</v>
+        <v>7224</v>
       </c>
       <c r="G100">
         <v>0.08</v>
@@ -4693,7 +4692,7 @@
         <v>19.97</v>
       </c>
       <c r="K100">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4701,7 +4700,7 @@
         <v>110</v>
       </c>
       <c r="B101">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="C101">
         <v>315</v>
@@ -4713,7 +4712,7 @@
         <v>191.56</v>
       </c>
       <c r="F101" s="2">
-        <v>592.20000000000005</v>
+        <v>611.1</v>
       </c>
       <c r="G101">
         <v>0.01</v>
@@ -4728,7 +4727,7 @@
         <v>0.6</v>
       </c>
       <c r="K101">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4736,7 +4735,7 @@
         <v>111</v>
       </c>
       <c r="B102">
-        <v>118.4</v>
+        <v>119.6</v>
       </c>
       <c r="C102" s="2">
         <v>52.383000000000003</v>
@@ -4748,7 +4747,7 @@
         <v>1238</v>
       </c>
       <c r="F102" s="2">
-        <v>6202.15</v>
+        <v>6265.01</v>
       </c>
       <c r="G102">
         <v>7.0000000000000007E-2</v>
@@ -4757,13 +4756,13 @@
         <v>8.266</v>
       </c>
       <c r="I102">
-        <v>14.323</v>
+        <v>14.468</v>
       </c>
       <c r="J102">
         <v>23.63</v>
       </c>
       <c r="K102">
-        <v>5</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4806,7 +4805,7 @@
         <v>113</v>
       </c>
       <c r="B104">
-        <v>23.16</v>
+        <v>23.6</v>
       </c>
       <c r="C104">
         <v>65</v>
@@ -4818,7 +4817,7 @@
         <v>522.6</v>
       </c>
       <c r="F104" s="2">
-        <v>1505.4</v>
+        <v>1534</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4827,13 +4826,13 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I104">
-        <v>88.085999999999999</v>
+        <v>89.76</v>
       </c>
       <c r="J104">
         <v>8.0399999999999991</v>
       </c>
       <c r="K104">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4841,7 +4840,7 @@
         <v>114</v>
       </c>
       <c r="B105">
-        <v>144</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="C105">
         <v>43</v>
@@ -4853,7 +4852,7 @@
         <v>781.31</v>
       </c>
       <c r="F105" s="2">
-        <v>6192</v>
+        <v>6200.6</v>
       </c>
       <c r="G105">
         <v>7.0000000000000007E-2</v>
@@ -4862,13 +4861,13 @@
         <v>3.9769999999999999</v>
       </c>
       <c r="I105">
-        <v>36.21</v>
+        <v>36.26</v>
       </c>
       <c r="J105">
         <v>18.16</v>
       </c>
       <c r="K105">
-        <v>7.92</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4876,7 +4875,7 @@
         <v>115</v>
       </c>
       <c r="B106">
-        <v>60.8</v>
+        <v>60.4</v>
       </c>
       <c r="C106">
         <v>42.087000000000003</v>
@@ -4888,7 +4887,7 @@
         <v>789.11</v>
       </c>
       <c r="F106" s="2">
-        <v>2558.89</v>
+        <v>2542.0500000000002</v>
       </c>
       <c r="G106">
         <v>0.03</v>
@@ -4897,13 +4896,13 @@
         <v>1.669</v>
       </c>
       <c r="I106">
-        <v>36.42</v>
+        <v>36.18</v>
       </c>
       <c r="J106">
         <v>18.739999999999998</v>
       </c>
       <c r="K106">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4911,7 +4910,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>20.22</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="C107">
         <v>64.680000000000007</v>
@@ -4923,7 +4922,7 @@
         <v>906.39</v>
       </c>
       <c r="F107" s="2">
-        <v>1307.83</v>
+        <v>1322.06</v>
       </c>
       <c r="G107">
         <v>0.01</v>
@@ -4938,7 +4937,7 @@
         <v>14.01</v>
       </c>
       <c r="K107">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4946,7 +4945,7 @@
         <v>117</v>
       </c>
       <c r="B108">
-        <v>12.64</v>
+        <v>12.82</v>
       </c>
       <c r="C108">
         <v>15.808</v>
@@ -4958,7 +4957,7 @@
         <v>73.14</v>
       </c>
       <c r="F108">
-        <v>199.81</v>
+        <v>202.66</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -4973,7 +4972,7 @@
         <v>4.62</v>
       </c>
       <c r="K108">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4981,7 +4980,7 @@
         <v>118</v>
       </c>
       <c r="B109">
-        <v>94.6</v>
+        <v>97.2</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4993,7 +4992,7 @@
         <v>23.69</v>
       </c>
       <c r="F109" s="2">
-        <v>283.8</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -5002,13 +5001,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="I109">
-        <v>198.46100000000001</v>
+        <v>203.916</v>
       </c>
       <c r="J109">
         <v>7.89</v>
       </c>
       <c r="K109">
-        <v>11.97</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5016,7 +5015,7 @@
         <v>119</v>
       </c>
       <c r="B110">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="C110" s="2">
         <v>25.5</v>
@@ -5028,7 +5027,7 @@
         <v>284.67</v>
       </c>
       <c r="F110" s="2">
-        <v>1364.25</v>
+        <v>1374.45</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -5037,13 +5036,13 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="I110">
-        <v>26.786000000000001</v>
+        <v>26.986999999999998</v>
       </c>
       <c r="J110">
         <v>11.16</v>
       </c>
       <c r="K110">
-        <v>4.79</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5051,7 +5050,7 @@
         <v>120</v>
       </c>
       <c r="B111">
-        <v>2.04</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C111" s="2">
         <v>8423.6329999999998</v>
@@ -5063,22 +5062,22 @@
         <v>1608.2</v>
       </c>
       <c r="F111" s="2">
-        <v>17184.21</v>
+        <v>18363.52</v>
       </c>
       <c r="G111">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H111">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I111">
-        <v>28.047000000000001</v>
+        <v>29.971</v>
       </c>
       <c r="J111">
         <v>0.19</v>
       </c>
       <c r="K111">
-        <v>10.68</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5086,7 +5085,7 @@
         <v>121</v>
       </c>
       <c r="B112">
-        <v>15.1</v>
+        <v>15.38</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -5098,7 +5097,7 @@
         <v>74.260000000000005</v>
       </c>
       <c r="F112" s="2">
-        <v>528.5</v>
+        <v>538.29999999999995</v>
       </c>
       <c r="G112">
         <v>0.01</v>
@@ -5107,21 +5106,21 @@
         <v>0.154</v>
       </c>
       <c r="I112">
-        <v>98.233999999999995</v>
+        <v>100.05500000000001</v>
       </c>
       <c r="J112">
         <v>2.12</v>
       </c>
       <c r="K112">
-        <v>7.11</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" t="s">
         <v>122</v>
       </c>
       <c r="B113">
-        <v>24.36</v>
+        <v>25.05</v>
       </c>
       <c r="C113" s="2">
         <v>209.83600000000001</v>
@@ -5133,7 +5132,7 @@
         <v>1277.28</v>
       </c>
       <c r="F113" s="2">
-        <v>5111.6000000000004</v>
+        <v>5256.39</v>
       </c>
       <c r="G113">
         <v>0.06</v>
@@ -5142,13 +5141,13 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="I113">
-        <v>24.241</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="J113">
         <v>6.08</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5165,22 +5164,22 @@
         <v>14266.63</v>
       </c>
       <c r="F114" s="2">
-        <v>50918.86</v>
+        <v>52569.96</v>
       </c>
       <c r="G114">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="H114">
         <v>0.111</v>
       </c>
       <c r="I114">
-        <v>26.545999999999999</v>
+        <v>27.457999999999998</v>
       </c>
       <c r="J114">
         <v>1.33</v>
       </c>
       <c r="K114">
-        <v>3.57</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5188,7 +5187,7 @@
         <v>124</v>
       </c>
       <c r="B115">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C115">
         <v>40</v>
@@ -5200,7 +5199,7 @@
         <v>199.72</v>
       </c>
       <c r="F115" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G115">
         <v>0.01</v>
@@ -5215,7 +5214,7 @@
         <v>4.99</v>
       </c>
       <c r="K115">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5223,7 +5222,7 @@
         <v>125</v>
       </c>
       <c r="B116">
-        <v>93.3</v>
+        <v>95</v>
       </c>
       <c r="C116">
         <v>55</v>
@@ -5235,7 +5234,7 @@
         <v>1420.63</v>
       </c>
       <c r="F116" s="2">
-        <v>5131.5</v>
+        <v>5225</v>
       </c>
       <c r="G116">
         <v>0.06</v>
@@ -5244,13 +5243,13 @@
         <v>3.976</v>
       </c>
       <c r="I116">
-        <v>23.463999999999999</v>
+        <v>23.891999999999999</v>
       </c>
       <c r="J116">
         <v>25.82</v>
       </c>
       <c r="K116">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5258,7 +5257,7 @@
         <v>126</v>
       </c>
       <c r="B117">
-        <v>32.5</v>
+        <v>33.15</v>
       </c>
       <c r="C117">
         <v>332.5</v>
@@ -5270,7 +5269,7 @@
         <v>4401.58</v>
       </c>
       <c r="F117" s="2">
-        <v>10806.25</v>
+        <v>11022.38</v>
       </c>
       <c r="G117">
         <v>0.12</v>
@@ -5279,21 +5278,21 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="I117">
-        <v>19.013000000000002</v>
+        <v>19.393000000000001</v>
       </c>
       <c r="J117">
         <v>13.23</v>
       </c>
       <c r="K117">
-        <v>2.4500000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" t="s">
         <v>127</v>
       </c>
       <c r="B118">
-        <v>163</v>
+        <v>168.2</v>
       </c>
       <c r="C118">
         <v>80</v>
@@ -5305,22 +5304,22 @@
         <v>3251.98</v>
       </c>
       <c r="F118" s="2">
-        <v>13040</v>
+        <v>13456</v>
       </c>
       <c r="G118">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H118">
         <v>1.8220000000000001</v>
       </c>
       <c r="I118">
-        <v>89.462000000000003</v>
+        <v>92.316000000000003</v>
       </c>
       <c r="J118">
         <v>40.64</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5337,22 +5336,22 @@
         <v>9273.91</v>
       </c>
       <c r="F119" s="2">
-        <v>29593.75</v>
+        <v>30327.38</v>
       </c>
       <c r="G119">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="H119">
         <v>1.7789999999999999</v>
       </c>
       <c r="I119">
-        <v>31.065000000000001</v>
+        <v>31.843</v>
       </c>
       <c r="J119">
         <v>18.27</v>
       </c>
       <c r="K119">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5360,7 +5359,7 @@
         <v>129</v>
       </c>
       <c r="B120">
-        <v>84.3</v>
+        <v>84.1</v>
       </c>
       <c r="C120">
         <v>80</v>
@@ -5372,7 +5371,7 @@
         <v>1569.05</v>
       </c>
       <c r="F120" s="2">
-        <v>6744</v>
+        <v>6728</v>
       </c>
       <c r="G120">
         <v>7.0000000000000007E-2</v>
@@ -5381,13 +5380,13 @@
         <v>6.8</v>
       </c>
       <c r="I120">
-        <v>12.396000000000001</v>
+        <v>12.367000000000001</v>
       </c>
       <c r="J120">
         <v>19.61</v>
       </c>
       <c r="K120">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5395,7 +5394,7 @@
         <v>130</v>
       </c>
       <c r="B121">
-        <v>26.3</v>
+        <v>26.55</v>
       </c>
       <c r="C121">
         <v>36</v>
@@ -5407,7 +5406,7 @@
         <v>331.15</v>
       </c>
       <c r="F121" s="2">
-        <v>946.8</v>
+        <v>955.8</v>
       </c>
       <c r="G121">
         <v>0.01</v>
@@ -5422,7 +5421,7 @@
         <v>9.19</v>
       </c>
       <c r="K121">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5430,7 +5429,7 @@
         <v>131</v>
       </c>
       <c r="B122">
-        <v>54.6</v>
+        <v>56.4</v>
       </c>
       <c r="C122">
         <v>70</v>
@@ -5442,7 +5441,7 @@
         <v>853.88</v>
       </c>
       <c r="F122" s="2">
-        <v>3822</v>
+        <v>3948</v>
       </c>
       <c r="G122">
         <v>0.04</v>
@@ -5451,13 +5450,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I122">
-        <v>99.298000000000002</v>
+        <v>102.572</v>
       </c>
       <c r="J122">
         <v>12.19</v>
       </c>
       <c r="K122">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5465,7 +5464,7 @@
         <v>132</v>
       </c>
       <c r="B123">
-        <v>5.18</v>
+        <v>5.26</v>
       </c>
       <c r="C123" s="2">
         <v>101.25</v>
@@ -5477,7 +5476,7 @@
         <v>207.79</v>
       </c>
       <c r="F123" s="2">
-        <v>524.48</v>
+        <v>532.58000000000004</v>
       </c>
       <c r="G123">
         <v>0.01</v>
@@ -5486,13 +5485,13 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="I123">
-        <v>22.393999999999998</v>
+        <v>22.74</v>
       </c>
       <c r="J123">
         <v>2.0499999999999998</v>
       </c>
       <c r="K123">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5500,7 +5499,7 @@
         <v>133</v>
       </c>
       <c r="B124">
-        <v>12.14</v>
+        <v>12.22</v>
       </c>
       <c r="C124" s="2">
         <v>1200</v>
@@ -5512,7 +5511,7 @@
         <v>1686.2</v>
       </c>
       <c r="F124" s="2">
-        <v>14568</v>
+        <v>14664</v>
       </c>
       <c r="G124">
         <v>0.16</v>
@@ -5521,13 +5520,13 @@
         <v>0.81</v>
       </c>
       <c r="I124">
-        <v>14.989000000000001</v>
+        <v>15.087</v>
       </c>
       <c r="J124">
         <v>1.4</v>
       </c>
       <c r="K124">
-        <v>8.6300000000000008</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5535,7 +5534,7 @@
         <v>134</v>
       </c>
       <c r="B125">
-        <v>32.950000000000003</v>
+        <v>34</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -5547,7 +5546,7 @@
         <v>240.19</v>
       </c>
       <c r="F125" s="2">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="G125">
         <v>0.01</v>
@@ -5556,13 +5555,13 @@
         <v>1.23</v>
       </c>
       <c r="I125">
-        <v>26.798999999999999</v>
+        <v>27.652999999999999</v>
       </c>
       <c r="J125">
         <v>12</v>
       </c>
       <c r="K125">
-        <v>2.74</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5570,7 +5569,7 @@
         <v>135</v>
       </c>
       <c r="B126">
-        <v>6.8</v>
+        <v>6.97</v>
       </c>
       <c r="C126">
         <v>350</v>
@@ -5582,7 +5581,7 @@
         <v>474.37</v>
       </c>
       <c r="F126" s="2">
-        <v>2380</v>
+        <v>2439.5</v>
       </c>
       <c r="G126">
         <v>0.03</v>
@@ -5591,13 +5590,13 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="I126">
-        <v>57.377000000000002</v>
+        <v>58.811</v>
       </c>
       <c r="J126">
         <v>1.35</v>
       </c>
       <c r="K126">
-        <v>5.01</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5605,7 +5604,7 @@
         <v>136</v>
       </c>
       <c r="B127">
-        <v>28.8</v>
+        <v>29.45</v>
       </c>
       <c r="C127">
         <v>115.5</v>
@@ -5617,7 +5616,7 @@
         <v>400.6</v>
       </c>
       <c r="F127" s="2">
-        <v>3326.4</v>
+        <v>3401.48</v>
       </c>
       <c r="G127">
         <v>0.04</v>
@@ -5626,21 +5625,21 @@
         <v>0.64</v>
       </c>
       <c r="I127">
-        <v>44.969000000000001</v>
+        <v>45.984000000000002</v>
       </c>
       <c r="J127">
         <v>3.46</v>
       </c>
       <c r="K127">
-        <v>8.3000000000000007</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" t="s">
         <v>137</v>
       </c>
       <c r="B128">
-        <v>18.600000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="C128" s="2">
         <v>114.76600000000001</v>
@@ -5652,7 +5651,7 @@
         <v>32</v>
       </c>
       <c r="F128" s="2">
-        <v>2134.65</v>
+        <v>2157.6</v>
       </c>
       <c r="G128">
         <v>0.02</v>
@@ -5684,7 +5683,7 @@
         <v>5763.23</v>
       </c>
       <c r="F129" s="2">
-        <v>35105.33</v>
+        <v>35506.959999999999</v>
       </c>
       <c r="G129">
         <v>0.39</v>
@@ -5693,13 +5692,13 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="I129">
-        <v>18.641999999999999</v>
+        <v>18.856999999999999</v>
       </c>
       <c r="J129">
         <v>2.76</v>
       </c>
       <c r="K129">
-        <v>6.09</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5707,7 +5706,7 @@
         <v>139</v>
       </c>
       <c r="B130">
-        <v>7.64</v>
+        <v>7.68</v>
       </c>
       <c r="C130">
         <v>900</v>
@@ -5719,7 +5718,7 @@
         <v>1352.04</v>
       </c>
       <c r="F130" s="2">
-        <v>6876</v>
+        <v>6912</v>
       </c>
       <c r="G130">
         <v>0.08</v>
@@ -5728,13 +5727,13 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="I130">
-        <v>14.343999999999999</v>
+        <v>14.419</v>
       </c>
       <c r="J130">
         <v>1.5</v>
       </c>
       <c r="K130">
-        <v>5.08</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5742,7 +5741,7 @@
         <v>140</v>
       </c>
       <c r="B131">
-        <v>15.3</v>
+        <v>15.64</v>
       </c>
       <c r="C131">
         <v>45</v>
@@ -5754,7 +5753,7 @@
         <v>690.64</v>
       </c>
       <c r="F131">
-        <v>688.5</v>
+        <v>703.8</v>
       </c>
       <c r="G131">
         <v>0.01</v>
@@ -5763,13 +5762,13 @@
         <v>0.54</v>
       </c>
       <c r="I131">
-        <v>28.332999999999998</v>
+        <v>28.962</v>
       </c>
       <c r="J131">
         <v>15.34</v>
       </c>
       <c r="K131">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5777,7 +5776,7 @@
         <v>141</v>
       </c>
       <c r="B132">
-        <v>14.14</v>
+        <v>14.56</v>
       </c>
       <c r="C132">
         <v>31.5</v>
@@ -5789,10 +5788,10 @@
         <v>261.01</v>
       </c>
       <c r="F132">
-        <v>445.41</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
+        <v>458.64</v>
+      </c>
+      <c r="G132">
+        <v>0.01</v>
       </c>
       <c r="H132">
         <v>-0.33900000000000002</v>
@@ -5804,7 +5803,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="K132">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5812,7 +5811,7 @@
         <v>142</v>
       </c>
       <c r="B133">
-        <v>33.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="C133" s="2">
         <v>6.5</v>
@@ -5824,7 +5823,7 @@
         <v>20.41</v>
       </c>
       <c r="F133" s="2">
-        <v>219.7</v>
+        <v>227.5</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -5839,7 +5838,7 @@
         <v>3.14</v>
       </c>
       <c r="K133">
-        <v>10.76</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5847,7 +5846,7 @@
         <v>143</v>
       </c>
       <c r="B134">
-        <v>5.6</v>
+        <v>5.71</v>
       </c>
       <c r="C134" s="2">
         <v>1143</v>
@@ -5859,7 +5858,7 @@
         <v>1357.23</v>
       </c>
       <c r="F134" s="2">
-        <v>6400.8</v>
+        <v>6526.53</v>
       </c>
       <c r="G134">
         <v>7.0000000000000007E-2</v>
@@ -5868,13 +5867,13 @@
         <v>0.25</v>
       </c>
       <c r="I134">
-        <v>22.425000000000001</v>
+        <v>22.866</v>
       </c>
       <c r="J134">
         <v>1.18</v>
       </c>
       <c r="K134">
-        <v>4.71</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5882,7 +5881,7 @@
         <v>144</v>
       </c>
       <c r="B135">
-        <v>64.099999999999994</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -5894,7 +5893,7 @@
         <v>1050</v>
       </c>
       <c r="F135" s="2">
-        <v>3846</v>
+        <v>3954</v>
       </c>
       <c r="G135">
         <v>0.04</v>
@@ -5903,13 +5902,13 @@
         <v>3.41</v>
       </c>
       <c r="I135">
-        <v>18.797000000000001</v>
+        <v>19.324999999999999</v>
       </c>
       <c r="J135">
         <v>17.5</v>
       </c>
       <c r="K135">
-        <v>3.66</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5917,7 +5916,7 @@
         <v>145</v>
       </c>
       <c r="B136">
-        <v>73.7</v>
+        <v>75</v>
       </c>
       <c r="C136">
         <v>85</v>
@@ -5929,7 +5928,7 @@
         <v>1496.75</v>
       </c>
       <c r="F136" s="2">
-        <v>6264.5</v>
+        <v>6375</v>
       </c>
       <c r="G136">
         <v>7.0000000000000007E-2</v>
@@ -5938,21 +5937,21 @@
         <v>4.47</v>
       </c>
       <c r="I136">
-        <v>16.486999999999998</v>
+        <v>16.777999999999999</v>
       </c>
       <c r="J136">
         <v>17.600000000000001</v>
       </c>
       <c r="K136">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" t="s">
         <v>146</v>
       </c>
       <c r="B137">
-        <v>123.6</v>
+        <v>125.8</v>
       </c>
       <c r="C137" s="2">
         <v>130</v>
@@ -5964,7 +5963,7 @@
         <v>2449.1</v>
       </c>
       <c r="F137" s="2">
-        <v>16068</v>
+        <v>16354</v>
       </c>
       <c r="G137">
         <v>0.18</v>
@@ -5973,13 +5972,13 @@
         <v>6.4850000000000003</v>
       </c>
       <c r="I137">
-        <v>19.059999999999999</v>
+        <v>19.399000000000001</v>
       </c>
       <c r="J137">
         <v>18.829999999999998</v>
       </c>
       <c r="K137">
-        <v>6.56</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5996,22 +5995,22 @@
         <v>8677.18</v>
       </c>
       <c r="F138" s="2">
-        <v>40808.910000000003</v>
+        <v>41511.47</v>
       </c>
       <c r="G138">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H138">
         <v>0.91500000000000004</v>
       </c>
       <c r="I138">
-        <v>18.11</v>
+        <v>18.417999999999999</v>
       </c>
       <c r="J138">
         <v>3.61</v>
       </c>
       <c r="K138">
-        <v>4.7</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6019,7 +6018,7 @@
         <v>148</v>
       </c>
       <c r="B139">
-        <v>26.5</v>
+        <v>26.65</v>
       </c>
       <c r="C139">
         <v>300</v>
@@ -6031,7 +6030,7 @@
         <v>4798.75</v>
       </c>
       <c r="F139" s="2">
-        <v>7950</v>
+        <v>7995</v>
       </c>
       <c r="G139">
         <v>0.09</v>
@@ -6040,13 +6039,13 @@
         <v>32.716000000000001</v>
       </c>
       <c r="I139">
-        <v>0.81</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="J139">
         <v>15.99</v>
       </c>
       <c r="K139">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6054,7 +6053,7 @@
         <v>149</v>
       </c>
       <c r="B140">
-        <v>25.95</v>
+        <v>26.8</v>
       </c>
       <c r="C140">
         <v>23.151</v>
@@ -6066,7 +6065,7 @@
         <v>243.46</v>
       </c>
       <c r="F140" s="2">
-        <v>600.77</v>
+        <v>620.45000000000005</v>
       </c>
       <c r="G140">
         <v>0.01</v>
@@ -6081,7 +6080,7 @@
         <v>10.51</v>
       </c>
       <c r="K140">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6089,7 +6088,7 @@
         <v>150</v>
       </c>
       <c r="B141">
-        <v>261</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="C141" s="2">
         <v>32.5</v>
@@ -6101,7 +6100,7 @@
         <v>1649.77</v>
       </c>
       <c r="F141" s="2">
-        <v>8482.5</v>
+        <v>8599.5</v>
       </c>
       <c r="G141">
         <v>0.09</v>
@@ -6110,13 +6109,13 @@
         <v>14.863</v>
       </c>
       <c r="I141">
-        <v>17.559000000000001</v>
+        <v>17.802</v>
       </c>
       <c r="J141">
         <v>50.76</v>
       </c>
       <c r="K141">
-        <v>5.14</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6124,7 +6123,7 @@
         <v>151</v>
       </c>
       <c r="B142">
-        <v>48.8</v>
+        <v>50.1</v>
       </c>
       <c r="C142" s="2">
         <v>1000</v>
@@ -6136,22 +6135,22 @@
         <v>19703.05</v>
       </c>
       <c r="F142" s="2">
-        <v>48800</v>
+        <v>50100</v>
       </c>
       <c r="G142">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H142">
         <v>2.3519999999999999</v>
       </c>
       <c r="I142">
-        <v>20.747</v>
+        <v>21.3</v>
       </c>
       <c r="J142">
         <v>19.7</v>
       </c>
       <c r="K142">
-        <v>2.4700000000000002</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6159,7 +6158,7 @@
         <v>152</v>
       </c>
       <c r="B143">
-        <v>88.8</v>
+        <v>90.6</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -6171,7 +6170,7 @@
         <v>700.9</v>
       </c>
       <c r="F143" s="2">
-        <v>1776</v>
+        <v>1812</v>
       </c>
       <c r="G143">
         <v>0.02</v>
@@ -6180,13 +6179,13 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I143">
-        <v>18.933</v>
+        <v>19.317</v>
       </c>
       <c r="J143">
         <v>35.04</v>
       </c>
       <c r="K143">
-        <v>2.5299999999999998</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6194,7 +6193,7 @@
         <v>153</v>
       </c>
       <c r="B144">
-        <v>50.9</v>
+        <v>51.5</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -6206,7 +6205,7 @@
         <v>277.77999999999997</v>
       </c>
       <c r="F144" s="2">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="G144">
         <v>0.01</v>
@@ -6215,13 +6214,13 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="I144">
-        <v>39.018000000000001</v>
+        <v>39.478000000000002</v>
       </c>
       <c r="J144">
         <v>13.88</v>
       </c>
       <c r="K144">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6229,7 +6228,7 @@
         <v>154</v>
       </c>
       <c r="B145">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="C145">
         <v>55.5</v>
@@ -6241,7 +6240,7 @@
         <v>951.96</v>
       </c>
       <c r="F145" s="2">
-        <v>2813.85</v>
+        <v>2841.6</v>
       </c>
       <c r="G145">
         <v>0.03</v>
@@ -6250,13 +6249,13 @@
         <v>4.556</v>
       </c>
       <c r="I145">
-        <v>11.128</v>
+        <v>11.238</v>
       </c>
       <c r="J145">
         <v>17.149999999999999</v>
       </c>
       <c r="K145">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6264,7 +6263,7 @@
         <v>155</v>
       </c>
       <c r="B146">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="C146">
         <v>81.831999999999994</v>
@@ -6276,7 +6275,7 @@
         <v>328.2</v>
       </c>
       <c r="F146" s="2">
-        <v>2438.59</v>
+        <v>2463.14</v>
       </c>
       <c r="G146">
         <v>0.03</v>
@@ -6285,13 +6284,13 @@
         <v>2.5579999999999998</v>
       </c>
       <c r="I146">
-        <v>11.648999999999999</v>
+        <v>11.766</v>
       </c>
       <c r="J146">
         <v>4.01</v>
       </c>
       <c r="K146">
-        <v>7.43</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6299,7 +6298,7 @@
         <v>156</v>
       </c>
       <c r="B147">
-        <v>38.6</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C147">
         <v>51.314999999999998</v>
@@ -6311,7 +6310,7 @@
         <v>1099.18</v>
       </c>
       <c r="F147" s="2">
-        <v>1980.76</v>
+        <v>2016.68</v>
       </c>
       <c r="G147">
         <v>0.02</v>
@@ -6320,13 +6319,13 @@
         <v>4.33</v>
       </c>
       <c r="I147">
-        <v>8.9139999999999997</v>
+        <v>9.0760000000000005</v>
       </c>
       <c r="J147">
         <v>21.42</v>
       </c>
       <c r="K147">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6334,7 +6333,7 @@
         <v>157</v>
       </c>
       <c r="B148">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="C148">
         <v>540</v>
@@ -6346,7 +6345,7 @@
         <v>706.75</v>
       </c>
       <c r="F148" s="2">
-        <v>1911.6</v>
+        <v>1960.2</v>
       </c>
       <c r="G148">
         <v>0.02</v>
@@ -6355,13 +6354,13 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I148">
-        <v>10.92</v>
+        <v>11.196999999999999</v>
       </c>
       <c r="J148">
         <v>1.3</v>
       </c>
       <c r="K148">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6369,7 +6368,7 @@
         <v>158</v>
       </c>
       <c r="B149">
-        <v>39.549999999999997</v>
+        <v>41.5</v>
       </c>
       <c r="C149">
         <v>30</v>
@@ -6381,7 +6380,7 @@
         <v>481.8</v>
       </c>
       <c r="F149" s="2">
-        <v>1186.5</v>
+        <v>1245</v>
       </c>
       <c r="G149">
         <v>0.01</v>
@@ -6390,13 +6389,13 @@
         <v>0.876</v>
       </c>
       <c r="I149">
-        <v>45.148000000000003</v>
+        <v>47.374000000000002</v>
       </c>
       <c r="J149">
         <v>16.059999999999999</v>
       </c>
       <c r="K149">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6404,7 +6403,7 @@
         <v>159</v>
       </c>
       <c r="B150">
-        <v>9.73</v>
+        <v>9.98</v>
       </c>
       <c r="C150">
         <v>126.38800000000001</v>
@@ -6416,7 +6415,7 @@
         <v>1184.5</v>
       </c>
       <c r="F150" s="2">
-        <v>1229.76</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="G150">
         <v>0.01</v>
@@ -6425,13 +6424,13 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I150">
-        <v>166.18299999999999</v>
+        <v>170.452</v>
       </c>
       <c r="J150">
         <v>9.3699999999999992</v>
       </c>
       <c r="K150">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6439,7 +6438,7 @@
         <v>160</v>
       </c>
       <c r="B151">
-        <v>38.1</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="C151">
         <v>35.356999999999999</v>
@@ -6451,22 +6450,22 @@
         <v>301.48</v>
       </c>
       <c r="F151" s="2">
-        <v>1347.1</v>
+        <v>1394.83</v>
       </c>
       <c r="G151">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H151">
         <v>1.718</v>
       </c>
       <c r="I151">
-        <v>22.181000000000001</v>
+        <v>22.966999999999999</v>
       </c>
       <c r="J151">
         <v>8.52</v>
       </c>
       <c r="K151">
-        <v>4.46</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6474,7 +6473,7 @@
         <v>161</v>
       </c>
       <c r="B152">
-        <v>19.22</v>
+        <v>19.78</v>
       </c>
       <c r="C152">
         <v>301.64</v>
@@ -6486,22 +6485,22 @@
         <v>4400.12</v>
       </c>
       <c r="F152" s="2">
-        <v>5797.52</v>
+        <v>5966.44</v>
       </c>
       <c r="G152">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H152">
         <v>2.5750000000000002</v>
       </c>
       <c r="I152">
-        <v>7.4640000000000004</v>
+        <v>7.681</v>
       </c>
       <c r="J152">
         <v>14.58</v>
       </c>
       <c r="K152">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6509,7 +6508,7 @@
         <v>162</v>
       </c>
       <c r="B153">
-        <v>15.8</v>
+        <v>15.84</v>
       </c>
       <c r="C153">
         <v>30</v>
@@ -6521,7 +6520,7 @@
         <v>303.17</v>
       </c>
       <c r="F153">
-        <v>474</v>
+        <v>475.2</v>
       </c>
       <c r="G153">
         <v>0.01</v>
@@ -6530,7 +6529,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I153">
-        <v>55.698999999999998</v>
+        <v>55.84</v>
       </c>
       <c r="J153">
         <v>10.1</v>
@@ -6544,7 +6543,7 @@
         <v>163</v>
       </c>
       <c r="B154">
-        <v>9.99</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C154">
         <v>39.176000000000002</v>
@@ -6556,7 +6555,7 @@
         <v>172.43</v>
       </c>
       <c r="F154">
-        <v>391.37</v>
+        <v>399.6</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -6571,7 +6570,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K154">
-        <v>2.2599999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6579,7 +6578,7 @@
         <v>164</v>
       </c>
       <c r="B155">
-        <v>89.2</v>
+        <v>92.6</v>
       </c>
       <c r="C155">
         <v>6.6980000000000004</v>
@@ -6591,7 +6590,7 @@
         <v>74.41</v>
       </c>
       <c r="F155">
-        <v>597.46</v>
+        <v>620.23</v>
       </c>
       <c r="G155">
         <v>0.01</v>
@@ -6606,7 +6605,7 @@
         <v>11.1</v>
       </c>
       <c r="K155">
-        <v>8.02</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6614,7 +6613,7 @@
         <v>165</v>
       </c>
       <c r="B156">
-        <v>14.64</v>
+        <v>14.96</v>
       </c>
       <c r="C156">
         <v>30</v>
@@ -6626,7 +6625,7 @@
         <v>352.65</v>
       </c>
       <c r="F156" s="2">
-        <v>439.2</v>
+        <v>448.8</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -6641,7 +6640,7 @@
         <v>11.75</v>
       </c>
       <c r="K156">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6680,11 +6679,11 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" t="s">
         <v>167</v>
       </c>
       <c r="B158">
-        <v>10.16</v>
+        <v>10.4</v>
       </c>
       <c r="C158" s="2">
         <v>50</v>
@@ -6696,7 +6695,7 @@
         <v>319.25</v>
       </c>
       <c r="F158" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="G158">
         <v>0.01</v>
@@ -6711,11 +6710,11 @@
         <v>6.38</v>
       </c>
       <c r="K158">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" t="s">
         <v>168</v>
       </c>
       <c r="C159" s="2">
@@ -6728,30 +6727,30 @@
         <v>38824.21</v>
       </c>
       <c r="F159" s="2">
-        <v>90987.98</v>
+        <v>93015.02</v>
       </c>
       <c r="G159">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="H159">
         <v>5.1230000000000002</v>
       </c>
       <c r="I159">
-        <v>6.0640000000000001</v>
+        <v>6.1980000000000004</v>
       </c>
       <c r="J159">
         <v>13.85</v>
       </c>
       <c r="K159">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" t="s">
         <v>169</v>
       </c>
       <c r="B160">
-        <v>143</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="C160">
         <v>25</v>
@@ -6763,7 +6762,7 @@
         <v>588.99</v>
       </c>
       <c r="F160" s="2">
-        <v>3575</v>
+        <v>3570</v>
       </c>
       <c r="G160">
         <v>0.04</v>
@@ -6772,7 +6771,7 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I160">
-        <v>16.718</v>
+        <v>16.695</v>
       </c>
       <c r="J160">
         <v>23.55</v>
@@ -6795,7 +6794,7 @@
         <v>588.99</v>
       </c>
       <c r="F161" s="2">
-        <v>3575</v>
+        <v>3570</v>
       </c>
       <c r="G161">
         <v>0.04</v>
@@ -6804,13 +6803,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I161">
-        <v>16.719000000000001</v>
+        <v>16.696000000000002</v>
       </c>
       <c r="J161">
         <v>23.56</v>
       </c>
       <c r="K161">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6818,7 +6817,7 @@
         <v>171</v>
       </c>
       <c r="B162">
-        <v>12.08</v>
+        <v>12.26</v>
       </c>
       <c r="C162">
         <v>100.636</v>
@@ -6830,7 +6829,7 @@
         <v>974.23</v>
       </c>
       <c r="F162" s="2">
-        <v>1215.68</v>
+        <v>1233.8</v>
       </c>
       <c r="G162">
         <v>0.01</v>
@@ -6839,13 +6838,13 @@
         <v>2.5630000000000002</v>
       </c>
       <c r="I162">
-        <v>4.7130000000000001</v>
+        <v>4.7830000000000004</v>
       </c>
       <c r="J162">
         <v>9.68</v>
       </c>
       <c r="K162">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6853,7 +6852,7 @@
         <v>172</v>
       </c>
       <c r="B163">
-        <v>6.24</v>
+        <v>6.4</v>
       </c>
       <c r="C163">
         <v>843.2</v>
@@ -6865,7 +6864,7 @@
         <v>2173.27</v>
       </c>
       <c r="F163" s="2">
-        <v>5261.57</v>
+        <v>5396.48</v>
       </c>
       <c r="G163">
         <v>0.06</v>
@@ -6874,13 +6873,13 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="I163">
-        <v>18.794</v>
+        <v>19.274999999999999</v>
       </c>
       <c r="J163">
         <v>2.57</v>
       </c>
       <c r="K163">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6888,7 +6887,7 @@
         <v>173</v>
       </c>
       <c r="B164">
-        <v>70.3</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C164">
         <v>200</v>
@@ -6900,7 +6899,7 @@
         <v>3765.39</v>
       </c>
       <c r="F164" s="2">
-        <v>14060</v>
+        <v>14220</v>
       </c>
       <c r="G164">
         <v>0.16</v>
@@ -6909,13 +6908,13 @@
         <v>3.3340000000000001</v>
       </c>
       <c r="I164">
-        <v>21.087</v>
+        <v>21.327000000000002</v>
       </c>
       <c r="J164">
         <v>18.82</v>
       </c>
       <c r="K164">
-        <v>3.73</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6923,7 +6922,7 @@
         <v>174</v>
       </c>
       <c r="B165">
-        <v>115</v>
+        <v>116.2</v>
       </c>
       <c r="C165">
         <v>101.574</v>
@@ -6935,7 +6934,7 @@
         <v>4060.93</v>
       </c>
       <c r="F165" s="2">
-        <v>11681.01</v>
+        <v>11802.9</v>
       </c>
       <c r="G165">
         <v>0.13</v>
@@ -6944,13 +6943,13 @@
         <v>4.9960000000000004</v>
       </c>
       <c r="I165">
-        <v>23.018000000000001</v>
+        <v>23.257999999999999</v>
       </c>
       <c r="J165">
         <v>39.979999999999997</v>
       </c>
       <c r="K165">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6958,7 +6957,7 @@
         <v>175</v>
       </c>
       <c r="B166">
-        <v>154.80000000000001</v>
+        <v>154.4</v>
       </c>
       <c r="C166">
         <v>44.85</v>
@@ -6970,7 +6969,7 @@
         <v>1714.87</v>
       </c>
       <c r="F166" s="2">
-        <v>6942.78</v>
+        <v>6924.84</v>
       </c>
       <c r="G166">
         <v>0.08</v>
@@ -6979,13 +6978,13 @@
         <v>6.7389999999999999</v>
       </c>
       <c r="I166">
-        <v>22.971</v>
+        <v>22.911000000000001</v>
       </c>
       <c r="J166">
         <v>38.229999999999997</v>
       </c>
       <c r="K166">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6993,7 +6992,7 @@
         <v>176</v>
       </c>
       <c r="B167">
-        <v>35.6</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="C167">
         <v>160</v>
@@ -7005,7 +7004,7 @@
         <v>1980.5</v>
       </c>
       <c r="F167" s="2">
-        <v>5696</v>
+        <v>5848</v>
       </c>
       <c r="G167">
         <v>0.06</v>
@@ -7014,13 +7013,13 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="I167">
-        <v>16.335000000000001</v>
+        <v>16.771000000000001</v>
       </c>
       <c r="J167">
         <v>12.37</v>
       </c>
       <c r="K167">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7028,7 +7027,7 @@
         <v>177</v>
       </c>
       <c r="B168">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="C168">
         <v>92.04</v>
@@ -7040,7 +7039,7 @@
         <v>1786.2</v>
       </c>
       <c r="F168" s="2">
-        <v>4648.0200000000004</v>
+        <v>4675.63</v>
       </c>
       <c r="G168">
         <v>0.05</v>
@@ -7049,13 +7048,13 @@
         <v>4.2389999999999999</v>
       </c>
       <c r="I168">
-        <v>11.912000000000001</v>
+        <v>11.983000000000001</v>
       </c>
       <c r="J168">
         <v>19.399999999999999</v>
       </c>
       <c r="K168">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7063,7 +7062,7 @@
         <v>178</v>
       </c>
       <c r="B169">
-        <v>249.8</v>
+        <v>250.8</v>
       </c>
       <c r="C169">
         <v>350</v>
@@ -7075,7 +7074,7 @@
         <v>7291.14</v>
       </c>
       <c r="F169" s="2">
-        <v>87430</v>
+        <v>87780</v>
       </c>
       <c r="G169">
         <v>0.97</v>
@@ -7084,13 +7083,13 @@
         <v>6.6319999999999997</v>
       </c>
       <c r="I169">
-        <v>37.662999999999997</v>
+        <v>37.814</v>
       </c>
       <c r="J169">
         <v>20.83</v>
       </c>
       <c r="K169">
-        <v>11.99</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7098,7 +7097,7 @@
         <v>179</v>
       </c>
       <c r="B170">
-        <v>33.5</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="C170">
         <v>30</v>
@@ -7110,7 +7109,7 @@
         <v>512.29999999999995</v>
       </c>
       <c r="F170" s="2">
-        <v>1005</v>
+        <v>1036.5</v>
       </c>
       <c r="G170">
         <v>0.01</v>
@@ -7119,13 +7118,13 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="I170">
-        <v>39.256999999999998</v>
+        <v>40.488</v>
       </c>
       <c r="J170">
         <v>17.07</v>
       </c>
       <c r="K170">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7133,7 +7132,7 @@
         <v>180</v>
       </c>
       <c r="B171">
-        <v>37.75</v>
+        <v>39.25</v>
       </c>
       <c r="C171">
         <v>232</v>
@@ -7145,7 +7144,7 @@
         <v>3019.85</v>
       </c>
       <c r="F171" s="2">
-        <v>8758</v>
+        <v>9106</v>
       </c>
       <c r="G171">
         <v>0.1</v>
@@ -7154,17 +7153,17 @@
         <v>1.165</v>
       </c>
       <c r="I171">
-        <v>32.398000000000003</v>
+        <v>33.686</v>
       </c>
       <c r="J171">
         <v>13.01</v>
       </c>
       <c r="K171">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" t="s">
         <v>181</v>
       </c>
       <c r="B172">
@@ -7212,7 +7211,7 @@
         <v>29189.08</v>
       </c>
       <c r="F173" s="2">
-        <v>153609.32999999999</v>
+        <v>154935.42000000001</v>
       </c>
       <c r="G173">
         <v>1.71</v>
@@ -7221,13 +7220,13 @@
         <v>2.5030000000000001</v>
       </c>
       <c r="I173">
-        <v>27.917000000000002</v>
+        <v>28.158999999999999</v>
       </c>
       <c r="J173">
         <v>13.28</v>
       </c>
       <c r="K173">
-        <v>5.26</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7235,7 +7234,7 @@
         <v>183</v>
       </c>
       <c r="B174">
-        <v>22.88</v>
+        <v>23.78</v>
       </c>
       <c r="C174">
         <v>120</v>
@@ -7247,7 +7246,7 @@
         <v>1459.4</v>
       </c>
       <c r="F174" s="2">
-        <v>2745.6</v>
+        <v>2853.6</v>
       </c>
       <c r="G174">
         <v>0.03</v>
@@ -7256,13 +7255,13 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="I174">
-        <v>40.917999999999999</v>
+        <v>42.527000000000001</v>
       </c>
       <c r="J174">
         <v>12.16</v>
       </c>
       <c r="K174">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7270,7 +7269,7 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>157</v>
+        <v>164.2</v>
       </c>
       <c r="C175">
         <v>70</v>
@@ -7282,30 +7281,30 @@
         <v>1546.52</v>
       </c>
       <c r="F175" s="2">
-        <v>10990</v>
+        <v>11494</v>
       </c>
       <c r="G175">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H175">
         <v>5.8650000000000002</v>
       </c>
       <c r="I175">
-        <v>26.766999999999999</v>
+        <v>27.994</v>
       </c>
       <c r="J175">
         <v>22.09</v>
       </c>
       <c r="K175">
-        <v>7.1</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" t="s">
         <v>185</v>
       </c>
       <c r="B176">
-        <v>113.6</v>
+        <v>117.2</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -7317,7 +7316,7 @@
         <v>387.61</v>
       </c>
       <c r="F176" s="2">
-        <v>2272</v>
+        <v>2344</v>
       </c>
       <c r="G176">
         <v>0.03</v>
@@ -7326,13 +7325,13 @@
         <v>4.4950000000000001</v>
       </c>
       <c r="I176">
-        <v>25.274999999999999</v>
+        <v>26.076000000000001</v>
       </c>
       <c r="J176">
         <v>19.38</v>
       </c>
       <c r="K176">
-        <v>5.86</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7349,22 +7348,22 @@
         <v>3393.53</v>
       </c>
       <c r="F177" s="2">
-        <v>16007.6</v>
+        <v>16691.599999999999</v>
       </c>
       <c r="G177">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H177">
         <v>2.7029999999999998</v>
       </c>
       <c r="I177">
-        <v>28.204000000000001</v>
+        <v>29.408999999999999</v>
       </c>
       <c r="J177">
         <v>16.16</v>
       </c>
       <c r="K177">
-        <v>4.72</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7372,7 +7371,7 @@
         <v>187</v>
       </c>
       <c r="B178">
-        <v>26.95</v>
+        <v>27</v>
       </c>
       <c r="C178" s="2">
         <v>3000</v>
@@ -7384,16 +7383,16 @@
         <v>61139.53</v>
       </c>
       <c r="F178" s="2">
-        <v>80850</v>
+        <v>81000</v>
       </c>
       <c r="G178">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H178">
         <v>3.2450000000000001</v>
       </c>
       <c r="I178">
-        <v>8.3040000000000003</v>
+        <v>8.32</v>
       </c>
       <c r="J178">
         <v>20.37</v>
@@ -7407,7 +7406,7 @@
         <v>188</v>
       </c>
       <c r="B179">
-        <v>12.08</v>
+        <v>12.34</v>
       </c>
       <c r="C179" s="2">
         <v>1281.25</v>
@@ -7419,7 +7418,7 @@
         <v>13993.3</v>
       </c>
       <c r="F179" s="2">
-        <v>15477.5</v>
+        <v>15810.63</v>
       </c>
       <c r="G179">
         <v>0.17</v>
@@ -7428,13 +7427,13 @@
         <v>1.008</v>
       </c>
       <c r="I179">
-        <v>11.984</v>
+        <v>12.242000000000001</v>
       </c>
       <c r="J179">
         <v>10.92</v>
       </c>
       <c r="K179">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7442,7 +7441,7 @@
         <v>189</v>
       </c>
       <c r="B180">
-        <v>14.02</v>
+        <v>14.1</v>
       </c>
       <c r="C180" s="2">
         <v>1250</v>
@@ -7454,7 +7453,7 @@
         <v>15530.02</v>
       </c>
       <c r="F180" s="2">
-        <v>17525</v>
+        <v>17625</v>
       </c>
       <c r="G180">
         <v>0.19</v>
@@ -7463,13 +7462,13 @@
         <v>1.6140000000000001</v>
       </c>
       <c r="I180">
-        <v>8.6859999999999999</v>
+        <v>8.7360000000000007</v>
       </c>
       <c r="J180">
         <v>12.42</v>
       </c>
       <c r="K180">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7477,7 +7476,7 @@
         <v>190</v>
       </c>
       <c r="B181">
-        <v>16.600000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="C181" s="2">
         <v>2500</v>
@@ -7489,7 +7488,7 @@
         <v>40429.949999999997</v>
       </c>
       <c r="F181" s="2">
-        <v>41500</v>
+        <v>42000</v>
       </c>
       <c r="G181">
         <v>0.46</v>
@@ -7498,13 +7497,13 @@
         <v>1.893</v>
       </c>
       <c r="I181">
-        <v>8.77</v>
+        <v>8.875</v>
       </c>
       <c r="J181">
         <v>16.170000000000002</v>
       </c>
       <c r="K181">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7512,7 +7511,7 @@
         <v>191</v>
       </c>
       <c r="B182">
-        <v>31.25</v>
+        <v>31.6</v>
       </c>
       <c r="C182" s="2">
         <v>2054.7939999999999</v>
@@ -7524,22 +7523,22 @@
         <v>63783.8</v>
       </c>
       <c r="F182" s="2">
-        <v>64212.31</v>
+        <v>64931.49</v>
       </c>
       <c r="G182">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="H182">
         <v>3.972</v>
       </c>
       <c r="I182">
-        <v>7.867</v>
+        <v>7.9550000000000001</v>
       </c>
       <c r="J182">
         <v>31.04</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7547,7 +7546,7 @@
         <v>192</v>
       </c>
       <c r="B183">
-        <v>20.6</v>
+        <v>20.74</v>
       </c>
       <c r="C183" s="2">
         <v>2000</v>
@@ -7559,7 +7558,7 @@
         <v>38480.25</v>
       </c>
       <c r="F183" s="2">
-        <v>41200</v>
+        <v>41480</v>
       </c>
       <c r="G183">
         <v>0.46</v>
@@ -7568,7 +7567,7 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="I183">
-        <v>8.1820000000000004</v>
+        <v>8.2379999999999995</v>
       </c>
       <c r="J183">
         <v>19.239999999999998</v>
@@ -7582,7 +7581,7 @@
         <v>193</v>
       </c>
       <c r="B184">
-        <v>90.1</v>
+        <v>91.5</v>
       </c>
       <c r="C184" s="2">
         <v>4000</v>
@@ -7594,22 +7593,22 @@
         <v>105033.22</v>
       </c>
       <c r="F184" s="2">
-        <v>360400</v>
+        <v>366000</v>
       </c>
       <c r="G184">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
       <c r="H184">
         <v>5.306</v>
       </c>
       <c r="I184">
-        <v>16.981000000000002</v>
+        <v>17.245000000000001</v>
       </c>
       <c r="J184">
         <v>26.25</v>
       </c>
       <c r="K184">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7617,7 +7616,7 @@
         <v>194</v>
       </c>
       <c r="B185">
-        <v>23.76</v>
+        <v>24.8</v>
       </c>
       <c r="C185" s="2">
         <v>1500</v>
@@ -7629,22 +7628,22 @@
         <v>17592.099999999999</v>
       </c>
       <c r="F185" s="2">
-        <v>35640</v>
+        <v>37200</v>
       </c>
       <c r="G185">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="H185">
         <v>1.909</v>
       </c>
       <c r="I185">
-        <v>12.445</v>
+        <v>12.989000000000001</v>
       </c>
       <c r="J185">
         <v>11.72</v>
       </c>
       <c r="K185">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7652,7 +7651,7 @@
         <v>195</v>
       </c>
       <c r="B186">
-        <v>25.35</v>
+        <v>25.5</v>
       </c>
       <c r="C186" s="2">
         <v>2500</v>
@@ -7664,7 +7663,7 @@
         <v>34201.360000000001</v>
       </c>
       <c r="F186" s="2">
-        <v>63375</v>
+        <v>63750</v>
       </c>
       <c r="G186">
         <v>0.7</v>
@@ -7673,21 +7672,21 @@
         <v>2.41</v>
       </c>
       <c r="I186">
-        <v>10.518000000000001</v>
+        <v>10.58</v>
       </c>
       <c r="J186">
         <v>13.68</v>
       </c>
       <c r="K186">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" t="s">
         <v>196</v>
       </c>
       <c r="B187">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C187" s="2">
         <v>6000</v>
@@ -7699,22 +7698,22 @@
         <v>172291.56</v>
       </c>
       <c r="F187" s="2">
-        <v>202200</v>
+        <v>205200</v>
       </c>
       <c r="G187">
-        <v>2.2400000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="H187">
         <v>3.6960000000000002</v>
       </c>
       <c r="I187">
-        <v>9.1170000000000009</v>
+        <v>9.2530000000000001</v>
       </c>
       <c r="J187">
         <v>28.71</v>
       </c>
       <c r="K187">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7731,22 +7730,22 @@
         <v>562475.09</v>
       </c>
       <c r="F188" s="2">
-        <v>922379.81</v>
+        <v>934997.12</v>
       </c>
       <c r="G188">
-        <v>10.210000000000001</v>
+        <v>10.31</v>
       </c>
       <c r="H188">
         <v>3.1920000000000002</v>
       </c>
       <c r="I188">
-        <v>11.077999999999999</v>
+        <v>11.23</v>
       </c>
       <c r="J188">
         <v>21.56</v>
       </c>
       <c r="K188">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7754,7 +7753,7 @@
         <v>198</v>
       </c>
       <c r="B189">
-        <v>160.19999999999999</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="C189">
         <v>120</v>
@@ -7766,22 +7765,22 @@
         <v>3581.9</v>
       </c>
       <c r="F189" s="2">
-        <v>19224</v>
+        <v>19536</v>
       </c>
       <c r="G189">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H189">
         <v>4.5069999999999997</v>
       </c>
       <c r="I189">
-        <v>35.546999999999997</v>
+        <v>36.124000000000002</v>
       </c>
       <c r="J189">
         <v>29.84</v>
       </c>
       <c r="K189">
-        <v>5.36</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7789,7 +7788,7 @@
         <v>199</v>
       </c>
       <c r="B190">
-        <v>10.220000000000001</v>
+        <v>10.36</v>
       </c>
       <c r="C190">
         <v>101.925</v>
@@ -7801,7 +7800,7 @@
         <v>1231.8699999999999</v>
       </c>
       <c r="F190" s="2">
-        <v>1041.67</v>
+        <v>1055.94</v>
       </c>
       <c r="G190">
         <v>0.01</v>
@@ -7810,13 +7809,13 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="I190">
-        <v>20.992000000000001</v>
+        <v>21.28</v>
       </c>
       <c r="J190">
         <v>12.08</v>
       </c>
       <c r="K190">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7824,7 +7823,7 @@
         <v>200</v>
       </c>
       <c r="B191">
-        <v>16</v>
+        <v>16.32</v>
       </c>
       <c r="C191">
         <v>100</v>
@@ -7836,7 +7835,7 @@
         <v>1701.14</v>
       </c>
       <c r="F191" s="2">
-        <v>1600</v>
+        <v>1632</v>
       </c>
       <c r="G191">
         <v>0.02</v>
@@ -7845,13 +7844,13 @@
         <v>0.379</v>
       </c>
       <c r="I191">
-        <v>42.238</v>
+        <v>43.082999999999998</v>
       </c>
       <c r="J191">
         <v>17.010000000000002</v>
       </c>
       <c r="K191">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7859,7 +7858,7 @@
         <v>201</v>
       </c>
       <c r="B192">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="C192">
         <v>60</v>
@@ -7871,7 +7870,7 @@
         <v>1235.3499999999999</v>
       </c>
       <c r="F192" s="2">
-        <v>1500</v>
+        <v>1590</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7880,13 +7879,13 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="I192">
-        <v>7.8289999999999997</v>
+        <v>8.298</v>
       </c>
       <c r="J192">
         <v>20.58</v>
       </c>
       <c r="K192">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7894,7 +7893,7 @@
         <v>202</v>
       </c>
       <c r="B193">
-        <v>12</v>
+        <v>12.06</v>
       </c>
       <c r="C193">
         <v>120</v>
@@ -7906,7 +7905,7 @@
         <v>1471.53</v>
       </c>
       <c r="F193" s="2">
-        <v>1440</v>
+        <v>1447.2</v>
       </c>
       <c r="G193">
         <v>0.02</v>
@@ -7915,13 +7914,13 @@
         <v>1.147</v>
       </c>
       <c r="I193">
-        <v>10.464</v>
+        <v>10.516</v>
       </c>
       <c r="J193">
         <v>12.26</v>
       </c>
       <c r="K193">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7929,7 +7928,7 @@
         <v>203</v>
       </c>
       <c r="B194">
-        <v>11.28</v>
+        <v>11.26</v>
       </c>
       <c r="C194">
         <v>71.427999999999997</v>
@@ -7941,7 +7940,7 @@
         <v>842.43</v>
       </c>
       <c r="F194" s="2">
-        <v>805.71</v>
+        <v>804.28</v>
       </c>
       <c r="G194">
         <v>0.01</v>
@@ -7950,7 +7949,7 @@
         <v>0.318</v>
       </c>
       <c r="I194">
-        <v>35.430999999999997</v>
+        <v>35.368000000000002</v>
       </c>
       <c r="J194">
         <v>11.79</v>
@@ -7964,7 +7963,7 @@
         <v>204</v>
       </c>
       <c r="B195">
-        <v>154.4</v>
+        <v>155</v>
       </c>
       <c r="C195">
         <v>25</v>
@@ -7976,7 +7975,7 @@
         <v>1170.45</v>
       </c>
       <c r="F195" s="2">
-        <v>3860</v>
+        <v>3875</v>
       </c>
       <c r="G195">
         <v>0.04</v>
@@ -7985,13 +7984,13 @@
         <v>9.1140000000000008</v>
       </c>
       <c r="I195">
-        <v>16.940999999999999</v>
+        <v>17.007000000000001</v>
       </c>
       <c r="J195">
         <v>46.81</v>
       </c>
       <c r="K195">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7999,7 +7998,7 @@
         <v>205</v>
       </c>
       <c r="B196">
-        <v>24.62</v>
+        <v>25.7</v>
       </c>
       <c r="C196">
         <v>249.73500000000001</v>
@@ -8011,7 +8010,7 @@
         <v>1084.1099999999999</v>
       </c>
       <c r="F196" s="2">
-        <v>6148.48</v>
+        <v>6418.19</v>
       </c>
       <c r="G196">
         <v>7.0000000000000007E-2</v>
@@ -8020,13 +8019,13 @@
         <v>1.6579999999999999</v>
       </c>
       <c r="I196">
-        <v>14.852</v>
+        <v>15.503</v>
       </c>
       <c r="J196">
         <v>4.34</v>
       </c>
       <c r="K196">
-        <v>5.67</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8034,7 +8033,7 @@
         <v>206</v>
       </c>
       <c r="B197">
-        <v>3.19</v>
+        <v>3.3</v>
       </c>
       <c r="C197" s="2">
         <v>218.29499999999999</v>
@@ -8046,7 +8045,7 @@
         <v>224.38</v>
       </c>
       <c r="F197" s="2">
-        <v>696.36</v>
+        <v>720.37</v>
       </c>
       <c r="G197">
         <v>0.01</v>
@@ -8055,21 +8054,21 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I197">
-        <v>71.347999999999999</v>
+        <v>73.808000000000007</v>
       </c>
       <c r="J197">
         <v>1.02</v>
       </c>
       <c r="K197">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" t="s">
         <v>207</v>
       </c>
       <c r="B198">
-        <v>7.95</v>
+        <v>8.15</v>
       </c>
       <c r="C198" s="2">
         <v>3705.8820000000001</v>
@@ -8081,7 +8080,7 @@
         <v>41330.67</v>
       </c>
       <c r="F198" s="2">
-        <v>29461.759999999998</v>
+        <v>30202.94</v>
       </c>
       <c r="G198">
         <v>0.33</v>
@@ -8090,13 +8089,13 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="I198">
-        <v>20.009</v>
+        <v>20.512</v>
       </c>
       <c r="J198">
         <v>11.15</v>
       </c>
       <c r="K198">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8113,22 +8112,22 @@
         <v>53873.83</v>
       </c>
       <c r="F199" s="2">
-        <v>65777.98</v>
+        <v>67281.919999999998</v>
       </c>
       <c r="G199">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H199">
         <v>0.65</v>
       </c>
       <c r="I199">
-        <v>21.19</v>
+        <v>21.673999999999999</v>
       </c>
       <c r="J199">
         <v>11.29</v>
       </c>
       <c r="K199">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8136,7 +8135,7 @@
         <v>209</v>
       </c>
       <c r="B200">
-        <v>139.80000000000001</v>
+        <v>143.6</v>
       </c>
       <c r="C200">
         <v>150</v>
@@ -8148,22 +8147,22 @@
         <v>4742.4799999999996</v>
       </c>
       <c r="F200" s="2">
-        <v>20970</v>
+        <v>21540</v>
       </c>
       <c r="G200">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="H200">
         <v>7.2469999999999999</v>
       </c>
       <c r="I200">
-        <v>19.291</v>
+        <v>19.815000000000001</v>
       </c>
       <c r="J200">
         <v>31.61</v>
       </c>
       <c r="K200">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8171,7 +8170,7 @@
         <v>210</v>
       </c>
       <c r="B201">
-        <v>12.22</v>
+        <v>12.6</v>
       </c>
       <c r="C201">
         <v>66</v>
@@ -8183,7 +8182,7 @@
         <v>994.3</v>
       </c>
       <c r="F201">
-        <v>806.52</v>
+        <v>831.6</v>
       </c>
       <c r="G201">
         <v>0.01</v>
@@ -8192,13 +8191,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I201">
-        <v>19.893999999999998</v>
+        <v>20.513000000000002</v>
       </c>
       <c r="J201">
         <v>15.06</v>
       </c>
       <c r="K201">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8206,7 +8205,7 @@
         <v>211</v>
       </c>
       <c r="B202">
-        <v>12.4</v>
+        <v>12.88</v>
       </c>
       <c r="C202">
         <v>50</v>
@@ -8218,7 +8217,7 @@
         <v>442.72</v>
       </c>
       <c r="F202" s="2">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="G202">
         <v>0.01</v>
@@ -8227,13 +8226,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="I202">
-        <v>24.475999999999999</v>
+        <v>25.423999999999999</v>
       </c>
       <c r="J202">
         <v>8.85</v>
       </c>
       <c r="K202">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8241,7 +8240,7 @@
         <v>212</v>
       </c>
       <c r="B203">
-        <v>16.760000000000002</v>
+        <v>17.16</v>
       </c>
       <c r="C203">
         <v>105</v>
@@ -8253,7 +8252,7 @@
         <v>1050.79</v>
       </c>
       <c r="F203" s="2">
-        <v>1759.8</v>
+        <v>1801.8</v>
       </c>
       <c r="G203">
         <v>0.02</v>
@@ -8262,13 +8261,13 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I203">
-        <v>18.452000000000002</v>
+        <v>18.891999999999999</v>
       </c>
       <c r="J203">
         <v>10</v>
       </c>
       <c r="K203">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8276,7 +8275,7 @@
         <v>213</v>
       </c>
       <c r="B204">
-        <v>14.04</v>
+        <v>14.34</v>
       </c>
       <c r="C204">
         <v>60</v>
@@ -8288,7 +8287,7 @@
         <v>819.22</v>
       </c>
       <c r="F204">
-        <v>842.4</v>
+        <v>860.4</v>
       </c>
       <c r="G204">
         <v>0.01</v>
@@ -8297,13 +8296,13 @@
         <v>0.183</v>
       </c>
       <c r="I204">
-        <v>76.721000000000004</v>
+        <v>78.36</v>
       </c>
       <c r="J204">
         <v>13.65</v>
       </c>
       <c r="K204">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8311,7 +8310,7 @@
         <v>214</v>
       </c>
       <c r="B205">
-        <v>11.82</v>
+        <v>12.3</v>
       </c>
       <c r="C205">
         <v>30</v>
@@ -8323,7 +8322,7 @@
         <v>317.36</v>
       </c>
       <c r="F205" s="2">
-        <v>354.6</v>
+        <v>369</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -8338,7 +8337,7 @@
         <v>10.57</v>
       </c>
       <c r="K205">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8346,7 +8345,7 @@
         <v>215</v>
       </c>
       <c r="B206">
-        <v>15.62</v>
+        <v>16.04</v>
       </c>
       <c r="C206">
         <v>127.55800000000001</v>
@@ -8358,7 +8357,7 @@
         <v>1768.65</v>
       </c>
       <c r="F206" s="2">
-        <v>1992.46</v>
+        <v>2046.03</v>
       </c>
       <c r="G206">
         <v>0.02</v>
@@ -8373,7 +8372,7 @@
         <v>13.86</v>
       </c>
       <c r="K206">
-        <v>1.1200000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8381,7 +8380,7 @@
         <v>216</v>
       </c>
       <c r="B207">
-        <v>14.3</v>
+        <v>14.66</v>
       </c>
       <c r="C207">
         <v>79.814999999999998</v>
@@ -8393,7 +8392,7 @@
         <v>1666.07</v>
       </c>
       <c r="F207" s="2">
-        <v>1141.3499999999999</v>
+        <v>1170.0899999999999</v>
       </c>
       <c r="G207">
         <v>0.01</v>
@@ -8402,13 +8401,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I207">
-        <v>18.803000000000001</v>
+        <v>19.276</v>
       </c>
       <c r="J207">
         <v>20.87</v>
       </c>
       <c r="K207">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8416,7 +8415,7 @@
         <v>217</v>
       </c>
       <c r="B208">
-        <v>14.16</v>
+        <v>14.6</v>
       </c>
       <c r="C208">
         <v>30</v>
@@ -8428,7 +8427,7 @@
         <v>398.59</v>
       </c>
       <c r="F208">
-        <v>424.8</v>
+        <v>438</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -8437,13 +8436,13 @@
         <v>2.012</v>
       </c>
       <c r="I208">
-        <v>7.0369999999999999</v>
+        <v>7.2560000000000002</v>
       </c>
       <c r="J208">
         <v>13.28</v>
       </c>
       <c r="K208">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8451,7 +8450,7 @@
         <v>218</v>
       </c>
       <c r="B209">
-        <v>13.52</v>
+        <v>13.62</v>
       </c>
       <c r="C209">
         <v>45.893999999999998</v>
@@ -8463,7 +8462,7 @@
         <v>591.83000000000004</v>
       </c>
       <c r="F209">
-        <v>620.49</v>
+        <v>625.08000000000004</v>
       </c>
       <c r="G209">
         <v>0.01</v>
@@ -8478,7 +8477,7 @@
         <v>12.89</v>
       </c>
       <c r="K209">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8521,7 +8520,7 @@
         <v>220</v>
       </c>
       <c r="B211">
-        <v>10.8</v>
+        <v>11.04</v>
       </c>
       <c r="C211">
         <v>53</v>
@@ -8533,7 +8532,7 @@
         <v>612.03</v>
       </c>
       <c r="F211">
-        <v>572.4</v>
+        <v>585.12</v>
       </c>
       <c r="G211">
         <v>0.01</v>
@@ -8542,13 +8541,13 @@
         <v>0.505</v>
       </c>
       <c r="I211">
-        <v>21.39</v>
+        <v>21.864999999999998</v>
       </c>
       <c r="J211">
         <v>11.54</v>
       </c>
       <c r="K211">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8556,7 +8555,7 @@
         <v>221</v>
       </c>
       <c r="B212">
-        <v>12.48</v>
+        <v>12.82</v>
       </c>
       <c r="C212">
         <v>50</v>
@@ -8568,7 +8567,7 @@
         <v>702.25</v>
       </c>
       <c r="F212">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="G212">
         <v>0.01</v>
@@ -8577,13 +8576,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="I212">
-        <v>18.055</v>
+        <v>18.547000000000001</v>
       </c>
       <c r="J212">
         <v>14.04</v>
       </c>
       <c r="K212">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8591,7 +8590,7 @@
         <v>222</v>
       </c>
       <c r="B213">
-        <v>12.36</v>
+        <v>13.06</v>
       </c>
       <c r="C213">
         <v>30</v>
@@ -8603,7 +8602,7 @@
         <v>385.64</v>
       </c>
       <c r="F213">
-        <v>370.8</v>
+        <v>391.8</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -8612,13 +8611,13 @@
         <v>0.217</v>
       </c>
       <c r="I213">
-        <v>56.957999999999998</v>
+        <v>60.183999999999997</v>
       </c>
       <c r="J213">
         <v>12.85</v>
       </c>
       <c r="K213">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8626,7 +8625,7 @@
         <v>223</v>
       </c>
       <c r="B214">
-        <v>6.75</v>
+        <v>6.92</v>
       </c>
       <c r="C214">
         <v>40</v>
@@ -8638,7 +8637,7 @@
         <v>247.5</v>
       </c>
       <c r="F214" s="2">
-        <v>270</v>
+        <v>276.8</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -8653,7 +8652,7 @@
         <v>6.18</v>
       </c>
       <c r="K214">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8661,7 +8660,7 @@
         <v>224</v>
       </c>
       <c r="B215">
-        <v>43</v>
+        <v>45.55</v>
       </c>
       <c r="C215">
         <v>115.83</v>
@@ -8673,7 +8672,7 @@
         <v>2068.44</v>
       </c>
       <c r="F215" s="2">
-        <v>4980.6899999999996</v>
+        <v>5276.06</v>
       </c>
       <c r="G215">
         <v>0.06</v>
@@ -8682,13 +8681,13 @@
         <v>4.13</v>
       </c>
       <c r="I215">
-        <v>10.41</v>
+        <v>11.026999999999999</v>
       </c>
       <c r="J215">
         <v>17.850000000000001</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8696,7 +8695,7 @@
         <v>225</v>
       </c>
       <c r="B216">
-        <v>166.8</v>
+        <v>171</v>
       </c>
       <c r="C216">
         <v>150</v>
@@ -8708,7 +8707,7 @@
         <v>5568.56</v>
       </c>
       <c r="F216" s="2">
-        <v>25020</v>
+        <v>25650</v>
       </c>
       <c r="G216">
         <v>0.28000000000000003</v>
@@ -8717,13 +8716,13 @@
         <v>7.9119999999999999</v>
       </c>
       <c r="I216">
-        <v>21.081</v>
+        <v>21.611999999999998</v>
       </c>
       <c r="J216">
         <v>37.119999999999997</v>
       </c>
       <c r="K216">
-        <v>4.49</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8731,7 +8730,7 @@
         <v>226</v>
       </c>
       <c r="B217">
-        <v>103.8</v>
+        <v>113</v>
       </c>
       <c r="C217">
         <v>100</v>
@@ -8743,22 +8742,22 @@
         <v>2174.38</v>
       </c>
       <c r="F217" s="2">
-        <v>10380</v>
+        <v>11300</v>
       </c>
       <c r="G217">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H217">
         <v>3.1179999999999999</v>
       </c>
       <c r="I217">
-        <v>33.293999999999997</v>
+        <v>36.244999999999997</v>
       </c>
       <c r="J217">
         <v>21.74</v>
       </c>
       <c r="K217">
-        <v>4.7699999999999996</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8766,7 +8765,7 @@
         <v>227</v>
       </c>
       <c r="B218">
-        <v>31.3</v>
+        <v>32.5</v>
       </c>
       <c r="C218">
         <v>30</v>
@@ -8778,7 +8777,7 @@
         <v>460.26</v>
       </c>
       <c r="F218" s="2">
-        <v>939</v>
+        <v>975</v>
       </c>
       <c r="G218">
         <v>0.01</v>
@@ -8787,13 +8786,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="I218">
-        <v>69.093999999999994</v>
+        <v>71.742999999999995</v>
       </c>
       <c r="J218">
         <v>15.34</v>
       </c>
       <c r="K218">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8801,7 +8800,7 @@
         <v>228</v>
       </c>
       <c r="B219">
-        <v>23.46</v>
+        <v>24.1</v>
       </c>
       <c r="C219">
         <v>52.5</v>
@@ -8813,7 +8812,7 @@
         <v>1145.97</v>
       </c>
       <c r="F219" s="2">
-        <v>1231.6500000000001</v>
+        <v>1265.25</v>
       </c>
       <c r="G219">
         <v>0.01</v>
@@ -8822,13 +8821,13 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I219">
-        <v>8.4640000000000004</v>
+        <v>8.6950000000000003</v>
       </c>
       <c r="J219">
         <v>21.82</v>
       </c>
       <c r="K219">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8836,7 +8835,7 @@
         <v>229</v>
       </c>
       <c r="B220">
-        <v>5.47</v>
+        <v>5.72</v>
       </c>
       <c r="C220">
         <v>30</v>
@@ -8848,7 +8847,7 @@
         <v>202.63</v>
       </c>
       <c r="F220">
-        <v>164.1</v>
+        <v>171.6</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -8863,7 +8862,7 @@
         <v>6.75</v>
       </c>
       <c r="K220">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8871,7 +8870,7 @@
         <v>230</v>
       </c>
       <c r="B221">
-        <v>15.3</v>
+        <v>15.58</v>
       </c>
       <c r="C221">
         <v>30</v>
@@ -8883,7 +8882,7 @@
         <v>472.24</v>
       </c>
       <c r="F221">
-        <v>459</v>
+        <v>467.4</v>
       </c>
       <c r="G221">
         <v>0.01</v>
@@ -8892,13 +8891,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I221">
-        <v>66.909000000000006</v>
+        <v>68.134</v>
       </c>
       <c r="J221">
         <v>15.74</v>
       </c>
       <c r="K221">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8906,7 +8905,7 @@
         <v>231</v>
       </c>
       <c r="B222">
-        <v>11.62</v>
+        <v>12.12</v>
       </c>
       <c r="C222">
         <v>40</v>
@@ -8918,7 +8917,7 @@
         <v>444.9</v>
       </c>
       <c r="F222">
-        <v>464.8</v>
+        <v>484.8</v>
       </c>
       <c r="G222">
         <v>0.01</v>
@@ -8927,13 +8926,13 @@
         <v>0.749</v>
       </c>
       <c r="I222">
-        <v>15.513999999999999</v>
+        <v>16.181000000000001</v>
       </c>
       <c r="J222">
         <v>11.12</v>
       </c>
       <c r="K222">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8941,7 +8940,7 @@
         <v>232</v>
       </c>
       <c r="B223">
-        <v>15.7</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="C223">
         <v>40</v>
@@ -8953,7 +8952,7 @@
         <v>617.19000000000005</v>
       </c>
       <c r="F223">
-        <v>628</v>
+        <v>649.6</v>
       </c>
       <c r="G223">
         <v>0.01</v>
@@ -8962,13 +8961,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I223">
-        <v>7.657</v>
+        <v>7.92</v>
       </c>
       <c r="J223">
         <v>15.42</v>
       </c>
       <c r="K223">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8976,7 +8975,7 @@
         <v>233</v>
       </c>
       <c r="B224">
-        <v>7.79</v>
+        <v>8.19</v>
       </c>
       <c r="C224">
         <v>43</v>
@@ -8988,7 +8987,7 @@
         <v>309.45999999999998</v>
       </c>
       <c r="F224">
-        <v>334.97</v>
+        <v>352.17</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -8997,13 +8996,13 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I224">
-        <v>79.376000000000005</v>
+        <v>83.451999999999998</v>
       </c>
       <c r="J224">
         <v>7.19</v>
       </c>
       <c r="K224">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9011,7 +9010,7 @@
         <v>234</v>
       </c>
       <c r="B225">
-        <v>8.8000000000000007</v>
+        <v>9.18</v>
       </c>
       <c r="C225">
         <v>23</v>
@@ -9023,7 +9022,7 @@
         <v>161.93</v>
       </c>
       <c r="F225" s="2">
-        <v>202.4</v>
+        <v>211.14</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -9038,15 +9037,15 @@
         <v>7.04</v>
       </c>
       <c r="K225">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="A226" t="s">
         <v>235</v>
       </c>
       <c r="B226">
-        <v>77.900000000000006</v>
+        <v>79.5</v>
       </c>
       <c r="C226" s="2">
         <v>77.507000000000005</v>
@@ -9058,7 +9057,7 @@
         <v>450.47</v>
       </c>
       <c r="F226" s="2">
-        <v>6037.8</v>
+        <v>6161.81</v>
       </c>
       <c r="G226">
         <v>7.0000000000000007E-2</v>
@@ -9067,13 +9066,13 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="I226">
-        <v>52.384</v>
+        <v>53.46</v>
       </c>
       <c r="J226">
         <v>5.81</v>
       </c>
       <c r="K226">
-        <v>13.4</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9090,22 +9089,22 @@
         <v>29085.3</v>
       </c>
       <c r="F227" s="2">
-        <v>82548.429999999993</v>
+        <v>85521.95</v>
       </c>
       <c r="G227">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="H227">
         <v>2.11</v>
       </c>
       <c r="I227">
-        <v>20.564</v>
+        <v>21.317</v>
       </c>
       <c r="J227">
         <v>17.329999999999998</v>
       </c>
       <c r="K227">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9113,7 +9112,7 @@
         <v>237</v>
       </c>
       <c r="B228">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C228">
         <v>30</v>
@@ -9125,7 +9124,7 @@
         <v>457.58</v>
       </c>
       <c r="F228" s="2">
-        <v>3780</v>
+        <v>3810</v>
       </c>
       <c r="G228">
         <v>0.04</v>
@@ -9134,13 +9133,13 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="I228">
-        <v>39.094000000000001</v>
+        <v>39.404000000000003</v>
       </c>
       <c r="J228">
         <v>15.25</v>
       </c>
       <c r="K228">
-        <v>8.26</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9148,7 +9147,7 @@
         <v>238</v>
       </c>
       <c r="B229">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -9160,7 +9159,7 @@
         <v>116.65</v>
       </c>
       <c r="F229" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G229">
         <v>0.01</v>
@@ -9175,7 +9174,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K229">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9183,7 +9182,7 @@
         <v>239</v>
       </c>
       <c r="B230" s="2">
-        <v>243.8</v>
+        <v>248.6</v>
       </c>
       <c r="C230">
         <v>120</v>
@@ -9195,22 +9194,22 @@
         <v>4364</v>
       </c>
       <c r="F230" s="2">
-        <v>29256</v>
+        <v>29832</v>
       </c>
       <c r="G230">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="H230">
         <v>13.367000000000001</v>
       </c>
       <c r="I230">
-        <v>18.239000000000001</v>
+        <v>18.597999999999999</v>
       </c>
       <c r="J230">
         <v>36.36</v>
       </c>
       <c r="K230">
-        <v>6.7</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9233,7 +9232,7 @@
         <v>73600</v>
       </c>
       <c r="G231">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="H231">
         <v>24.7</v>
@@ -9249,11 +9248,11 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" t="s">
         <v>241</v>
       </c>
       <c r="B232">
-        <v>10.08</v>
+        <v>10.4</v>
       </c>
       <c r="C232">
         <v>300</v>
@@ -9265,7 +9264,7 @@
         <v>577.71</v>
       </c>
       <c r="F232" s="2">
-        <v>3024</v>
+        <v>3120</v>
       </c>
       <c r="G232">
         <v>0.03</v>
@@ -9274,13 +9273,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I232">
-        <v>18.222999999999999</v>
+        <v>18.800999999999998</v>
       </c>
       <c r="J232">
         <v>1.92</v>
       </c>
       <c r="K232">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9297,7 +9296,7 @@
         <v>11004.94</v>
       </c>
       <c r="F233" s="2">
-        <v>110157</v>
+        <v>110862</v>
       </c>
       <c r="G233">
         <v>1.22</v>
@@ -9306,13 +9305,13 @@
         <v>6.0739999999999998</v>
       </c>
       <c r="I233">
-        <v>28.538</v>
+        <v>28.72</v>
       </c>
       <c r="J233">
         <v>17.47</v>
       </c>
       <c r="K233">
-        <v>10.01</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9320,7 +9319,7 @@
         <v>243</v>
       </c>
       <c r="B234">
-        <v>41.7</v>
+        <v>42.1</v>
       </c>
       <c r="C234" s="2">
         <v>5000</v>
@@ -9332,22 +9331,22 @@
         <v>91069</v>
       </c>
       <c r="F234" s="2">
-        <v>208500</v>
+        <v>210500</v>
       </c>
       <c r="G234">
-        <v>2.31</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H234">
         <v>5.01</v>
       </c>
       <c r="I234">
-        <v>8.3219999999999992</v>
+        <v>8.4019999999999992</v>
       </c>
       <c r="J234">
         <v>18.21</v>
       </c>
       <c r="K234">
-        <v>2.2799999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9355,7 +9354,7 @@
         <v>244</v>
       </c>
       <c r="B235">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="C235">
         <v>770</v>
@@ -9367,16 +9366,16 @@
         <v>18637</v>
       </c>
       <c r="F235" s="2">
-        <v>43890</v>
+        <v>43813</v>
       </c>
       <c r="G235">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="H235">
         <v>4.2030000000000003</v>
       </c>
       <c r="I235">
-        <v>13.563000000000001</v>
+        <v>13.539</v>
       </c>
       <c r="J235">
         <v>24.2</v>
@@ -9390,7 +9389,7 @@
         <v>245</v>
       </c>
       <c r="B236">
-        <v>10.199999999999999</v>
+        <v>10.28</v>
       </c>
       <c r="C236">
         <v>898.72900000000004</v>
@@ -9402,7 +9401,7 @@
         <v>10792</v>
       </c>
       <c r="F236" s="2">
-        <v>9167.0400000000009</v>
+        <v>9238.93</v>
       </c>
       <c r="G236">
         <v>0.1</v>
@@ -9411,13 +9410,13 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="I236">
-        <v>14.738</v>
+        <v>14.853</v>
       </c>
       <c r="J236">
         <v>12</v>
       </c>
       <c r="K236">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9425,7 +9424,7 @@
         <v>246</v>
       </c>
       <c r="B237">
-        <v>92.2</v>
+        <v>93.1</v>
       </c>
       <c r="C237" s="2">
         <v>33.999000000000002</v>
@@ -9437,7 +9436,7 @@
         <v>709.2</v>
       </c>
       <c r="F237" s="2">
-        <v>3134.71</v>
+        <v>3165.31</v>
       </c>
       <c r="G237">
         <v>0.03</v>
@@ -9446,13 +9445,13 @@
         <v>5.2549999999999999</v>
       </c>
       <c r="I237">
-        <v>17.544</v>
+        <v>17.715</v>
       </c>
       <c r="J237">
         <v>20.85</v>
       </c>
       <c r="K237">
-        <v>4.42</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9469,7 +9468,7 @@
         <v>121207.2</v>
       </c>
       <c r="F238" s="2">
-        <v>264691.75</v>
+        <v>266717.24</v>
       </c>
       <c r="G238">
         <v>2.93</v>
@@ -9478,13 +9477,13 @@
         <v>4.34</v>
       </c>
       <c r="I238">
-        <v>9.0990000000000002</v>
+        <v>9.1690000000000005</v>
       </c>
       <c r="J238">
         <v>18.079999999999998</v>
       </c>
       <c r="K238">
-        <v>2.1800000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9492,7 +9491,7 @@
         <v>248</v>
       </c>
       <c r="B239">
-        <v>73.900000000000006</v>
+        <v>73.7</v>
       </c>
       <c r="C239">
         <v>75</v>
@@ -9504,7 +9503,7 @@
         <v>1943</v>
       </c>
       <c r="F239" s="2">
-        <v>5542.5</v>
+        <v>5527.5</v>
       </c>
       <c r="G239">
         <v>0.06</v>
@@ -9513,13 +9512,13 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="I239">
-        <v>23.879000000000001</v>
+        <v>23.815000000000001</v>
       </c>
       <c r="J239">
         <v>25.9</v>
       </c>
       <c r="K239">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9527,7 +9526,7 @@
         <v>249</v>
       </c>
       <c r="B240">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C240">
         <v>35</v>
@@ -9539,7 +9538,7 @@
         <v>814.29</v>
       </c>
       <c r="F240" s="2">
-        <v>4760</v>
+        <v>4795</v>
       </c>
       <c r="G240">
         <v>0.05</v>
@@ -9548,13 +9547,13 @@
         <v>7.0030000000000001</v>
       </c>
       <c r="I240">
-        <v>19.420999999999999</v>
+        <v>19.564</v>
       </c>
       <c r="J240">
         <v>23.26</v>
       </c>
       <c r="K240">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9562,7 +9561,7 @@
         <v>250</v>
       </c>
       <c r="B241">
-        <v>236.2</v>
+        <v>242</v>
       </c>
       <c r="C241">
         <v>732.56100000000004</v>
@@ -9574,22 +9573,22 @@
         <v>20994.04</v>
       </c>
       <c r="F241" s="2">
-        <v>173030.91</v>
+        <v>177279.76</v>
       </c>
       <c r="G241">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="H241">
         <v>2.577</v>
       </c>
       <c r="I241">
-        <v>91.644999999999996</v>
+        <v>93.896000000000001</v>
       </c>
       <c r="J241">
         <v>28.65</v>
       </c>
       <c r="K241">
-        <v>8.24</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9597,7 +9596,7 @@
         <v>251</v>
       </c>
       <c r="B242">
-        <v>39.549999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C242">
         <v>250</v>
@@ -9609,7 +9608,7 @@
         <v>5317.85</v>
       </c>
       <c r="F242" s="2">
-        <v>9887.5</v>
+        <v>10200</v>
       </c>
       <c r="G242">
         <v>0.11</v>
@@ -9624,7 +9623,7 @@
         <v>21.27</v>
       </c>
       <c r="K242">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9632,7 +9631,7 @@
         <v>252</v>
       </c>
       <c r="B243">
-        <v>21.7</v>
+        <v>22.56</v>
       </c>
       <c r="C243" s="2">
         <v>160.92500000000001</v>
@@ -9644,7 +9643,7 @@
         <v>495.52</v>
       </c>
       <c r="F243" s="2">
-        <v>3492.07</v>
+        <v>3630.47</v>
       </c>
       <c r="G243">
         <v>0.04</v>
@@ -9653,21 +9652,21 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="I243">
-        <v>42.164000000000001</v>
+        <v>43.835000000000001</v>
       </c>
       <c r="J243">
         <v>3.07</v>
       </c>
       <c r="K243">
-        <v>7.04</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+      <c r="A244" t="s">
         <v>253</v>
       </c>
       <c r="B244">
-        <v>13.96</v>
+        <v>14</v>
       </c>
       <c r="C244" s="2">
         <v>4166.5929999999998</v>
@@ -9679,7 +9678,7 @@
         <v>257811</v>
       </c>
       <c r="F244" s="2">
-        <v>58165.64</v>
+        <v>58332.3</v>
       </c>
       <c r="G244">
         <v>0.64</v>
@@ -9688,7 +9687,7 @@
         <v>1.665</v>
       </c>
       <c r="I244">
-        <v>8.3829999999999991</v>
+        <v>8.407</v>
       </c>
       <c r="J244">
         <v>61.87</v>
@@ -9711,22 +9710,22 @@
         <v>287375.7</v>
       </c>
       <c r="F245" s="2">
-        <v>254878.62</v>
+        <v>259765.03</v>
       </c>
       <c r="G245">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H245">
         <v>1.7310000000000001</v>
       </c>
       <c r="I245">
-        <v>26.102</v>
+        <v>26.588999999999999</v>
       </c>
       <c r="J245">
         <v>53.02</v>
       </c>
       <c r="K245">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9769,7 +9768,7 @@
         <v>256</v>
       </c>
       <c r="B247">
-        <v>13.28</v>
+        <v>13.3</v>
       </c>
       <c r="C247">
         <v>11.8</v>
@@ -9781,7 +9780,7 @@
         <v>86.31</v>
       </c>
       <c r="F247">
-        <v>156.69999999999999</v>
+        <v>156.94</v>
       </c>
       <c r="G247" t="s">
         <v>32</v>
@@ -9790,7 +9789,7 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I247">
-        <v>51.887</v>
+        <v>51.966000000000001</v>
       </c>
       <c r="J247">
         <v>7.31</v>
@@ -9804,7 +9803,7 @@
         <v>257</v>
       </c>
       <c r="B248">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="C248">
         <v>66</v>
@@ -9816,7 +9815,7 @@
         <v>500.29</v>
       </c>
       <c r="F248">
-        <v>346.5</v>
+        <v>345.18</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
@@ -9825,13 +9824,13 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="I248">
-        <v>19.731999999999999</v>
+        <v>19.657</v>
       </c>
       <c r="J248">
         <v>7.58</v>
       </c>
       <c r="K248">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9839,7 +9838,7 @@
         <v>258</v>
       </c>
       <c r="B249">
-        <v>9.39</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="C249">
         <v>51</v>
@@ -9851,7 +9850,7 @@
         <v>549.69000000000005</v>
       </c>
       <c r="F249">
-        <v>478.89</v>
+        <v>478.38</v>
       </c>
       <c r="G249">
         <v>0.01</v>
@@ -9860,7 +9859,7 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="I249">
-        <v>14.726000000000001</v>
+        <v>14.71</v>
       </c>
       <c r="J249">
         <v>10.77</v>
@@ -9874,7 +9873,7 @@
         <v>259</v>
       </c>
       <c r="B250">
-        <v>9.0299999999999994</v>
+        <v>9.1</v>
       </c>
       <c r="C250">
         <v>61.37</v>
@@ -9886,7 +9885,7 @@
         <v>514.29</v>
       </c>
       <c r="F250">
-        <v>554.16999999999996</v>
+        <v>558.47</v>
       </c>
       <c r="G250">
         <v>0.01</v>
@@ -9895,13 +9894,13 @@
         <v>0.67</v>
       </c>
       <c r="I250">
-        <v>13.47</v>
+        <v>13.574</v>
       </c>
       <c r="J250">
         <v>8.3800000000000008</v>
       </c>
       <c r="K250">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9909,7 +9908,7 @@
         <v>260</v>
       </c>
       <c r="B251">
-        <v>4.01</v>
+        <v>4.07</v>
       </c>
       <c r="C251">
         <v>88</v>
@@ -9921,7 +9920,7 @@
         <v>744.87</v>
       </c>
       <c r="F251">
-        <v>352.88</v>
+        <v>358.16</v>
       </c>
       <c r="G251" t="s">
         <v>32</v>
@@ -9936,7 +9935,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="K251">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9944,7 +9943,7 @@
         <v>261</v>
       </c>
       <c r="B252">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C252">
         <v>103.765</v>
@@ -9956,7 +9955,7 @@
         <v>771.32</v>
       </c>
       <c r="F252">
-        <v>480.43</v>
+        <v>479.39</v>
       </c>
       <c r="G252">
         <v>0.01</v>
@@ -9965,7 +9964,7 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I252">
-        <v>31.731999999999999</v>
+        <v>31.663</v>
       </c>
       <c r="J252">
         <v>7.43</v>
@@ -9979,7 +9978,7 @@
         <v>262</v>
       </c>
       <c r="B253">
-        <v>4.0599999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="C253">
         <v>57.24</v>
@@ -9991,7 +9990,7 @@
         <v>243.04</v>
       </c>
       <c r="F253">
-        <v>232.39</v>
+        <v>234.11</v>
       </c>
       <c r="G253" t="s">
         <v>32</v>
@@ -10006,7 +10005,7 @@
         <v>4.24</v>
       </c>
       <c r="K253">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -10014,7 +10013,7 @@
         <v>263</v>
       </c>
       <c r="B254">
-        <v>6.81</v>
+        <v>6.85</v>
       </c>
       <c r="C254">
         <v>137.5</v>
@@ -10026,7 +10025,7 @@
         <v>1195.8</v>
       </c>
       <c r="F254">
-        <v>936.38</v>
+        <v>941.88</v>
       </c>
       <c r="G254">
         <v>0.01</v>
@@ -10035,7 +10034,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="I254">
-        <v>35.095999999999997</v>
+        <v>35.302</v>
       </c>
       <c r="J254">
         <v>8.69</v>
@@ -10084,7 +10083,7 @@
         <v>265</v>
       </c>
       <c r="B256">
-        <v>8.19</v>
+        <v>8.26</v>
       </c>
       <c r="C256">
         <v>275.60700000000003</v>
@@ -10096,7 +10095,7 @@
         <v>2250.7800000000002</v>
       </c>
       <c r="F256" s="2">
-        <v>2257.2199999999998</v>
+        <v>2276.5100000000002</v>
       </c>
       <c r="G256">
         <v>0.03</v>
@@ -10105,13 +10104,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="I256">
-        <v>12.054</v>
+        <v>12.157</v>
       </c>
       <c r="J256">
         <v>8.16</v>
       </c>
       <c r="K256">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -10119,7 +10118,7 @@
         <v>266</v>
       </c>
       <c r="B257">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="C257">
         <v>186.50899999999999</v>
@@ -10131,7 +10130,7 @@
         <v>2308.79</v>
       </c>
       <c r="F257" s="2">
-        <v>1861.36</v>
+        <v>1865.09</v>
       </c>
       <c r="G257">
         <v>0.02</v>
@@ -10140,7 +10139,7 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="I257">
-        <v>33.375</v>
+        <v>33.442</v>
       </c>
       <c r="J257">
         <v>12.37</v>
@@ -10154,7 +10153,7 @@
         <v>267</v>
       </c>
       <c r="B258">
-        <v>6.72</v>
+        <v>6.75</v>
       </c>
       <c r="C258">
         <v>186.94399999999999</v>
@@ -10166,7 +10165,7 @@
         <v>1454.16</v>
       </c>
       <c r="F258" s="2">
-        <v>1256.26</v>
+        <v>1261.8699999999999</v>
       </c>
       <c r="G258">
         <v>0.01</v>
@@ -10175,7 +10174,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I258">
-        <v>87.179000000000002</v>
+        <v>87.569000000000003</v>
       </c>
       <c r="J258">
         <v>7.77</v>
@@ -10189,7 +10188,7 @@
         <v>268</v>
       </c>
       <c r="B259">
-        <v>4.3899999999999997</v>
+        <v>4.42</v>
       </c>
       <c r="C259">
         <v>118</v>
@@ -10201,7 +10200,7 @@
         <v>835.72</v>
       </c>
       <c r="F259">
-        <v>518.02</v>
+        <v>521.55999999999995</v>
       </c>
       <c r="G259">
         <v>0.01</v>
@@ -10210,13 +10209,13 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I259">
-        <v>63.716999999999999</v>
+        <v>64.152000000000001</v>
       </c>
       <c r="J259">
         <v>7.08</v>
       </c>
       <c r="K259">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -10224,7 +10223,7 @@
         <v>269</v>
       </c>
       <c r="B260">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="C260">
         <v>73.275999999999996</v>
@@ -10236,7 +10235,7 @@
         <v>515.41</v>
       </c>
       <c r="F260" s="2">
-        <v>260.86</v>
+        <v>263.79000000000002</v>
       </c>
       <c r="G260" t="s">
         <v>32</v>
@@ -10245,13 +10244,13 @@
         <v>0.111</v>
       </c>
       <c r="I260">
-        <v>32.125</v>
+        <v>32.485999999999997</v>
       </c>
       <c r="J260">
         <v>7.03</v>
       </c>
       <c r="K260">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10259,7 +10258,7 @@
         <v>270</v>
       </c>
       <c r="B261">
-        <v>8.9700000000000006</v>
+        <v>8.94</v>
       </c>
       <c r="C261">
         <v>162.881</v>
@@ -10271,7 +10270,7 @@
         <v>1363.65</v>
       </c>
       <c r="F261" s="2">
-        <v>1461.04</v>
+        <v>1456.16</v>
       </c>
       <c r="G261">
         <v>0.02</v>
@@ -10280,13 +10279,13 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I261">
-        <v>16.52</v>
+        <v>16.463999999999999</v>
       </c>
       <c r="J261">
         <v>8.3699999999999992</v>
       </c>
       <c r="K261">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10294,7 +10293,7 @@
         <v>271</v>
       </c>
       <c r="B262">
-        <v>5.56</v>
+        <v>5.59</v>
       </c>
       <c r="C262">
         <v>141.00800000000001</v>
@@ -10306,7 +10305,7 @@
         <v>1222.58</v>
       </c>
       <c r="F262">
-        <v>784</v>
+        <v>788.23</v>
       </c>
       <c r="G262">
         <v>0.01</v>
@@ -10315,7 +10314,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="I262">
-        <v>13.211</v>
+        <v>13.282999999999999</v>
       </c>
       <c r="J262">
         <v>8.67</v>
@@ -10329,7 +10328,7 @@
         <v>272</v>
       </c>
       <c r="B263">
-        <v>8.1300000000000008</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C263">
         <v>102.002</v>
@@ -10341,7 +10340,7 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="F263">
-        <v>829.28</v>
+        <v>836.42</v>
       </c>
       <c r="G263">
         <v>0.01</v>
@@ -10350,21 +10349,21 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I263">
-        <v>16.975999999999999</v>
+        <v>17.122</v>
       </c>
       <c r="J263">
         <v>10.11</v>
       </c>
       <c r="K263">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+      <c r="A264" t="s">
         <v>273</v>
       </c>
       <c r="B264">
-        <v>8.25</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="C264" s="2">
         <v>60.5</v>
@@ -10376,7 +10375,7 @@
         <v>582.99</v>
       </c>
       <c r="F264" s="2">
-        <v>499.13</v>
+        <v>491.26</v>
       </c>
       <c r="G264">
         <v>0.01</v>
@@ -10391,7 +10390,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="K264">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -10408,7 +10407,7 @@
         <v>18786.89</v>
       </c>
       <c r="F265" s="2">
-        <v>14719.14</v>
+        <v>14767.03</v>
       </c>
       <c r="G265">
         <v>0.18</v>
@@ -10417,13 +10416,13 @@
         <v>0.127</v>
       </c>
       <c r="I265">
-        <v>20.55</v>
+        <v>20.629000000000001</v>
       </c>
       <c r="J265">
         <v>8.69</v>
       </c>
       <c r="K265">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10431,7 +10430,7 @@
         <v>275</v>
       </c>
       <c r="B266">
-        <v>18.940000000000001</v>
+        <v>19.22</v>
       </c>
       <c r="C266">
         <v>375</v>
@@ -10443,7 +10442,7 @@
         <v>5177.7</v>
       </c>
       <c r="F266" s="2">
-        <v>7102.5</v>
+        <v>7207.5</v>
       </c>
       <c r="G266">
         <v>0.08</v>
@@ -10452,13 +10451,13 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="I266">
-        <v>20.45</v>
+        <v>20.751999999999999</v>
       </c>
       <c r="J266">
         <v>13.8</v>
       </c>
       <c r="K266">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10466,7 +10465,7 @@
         <v>276</v>
       </c>
       <c r="B267">
-        <v>36.6</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="C267">
         <v>260.45699999999999</v>
@@ -10478,7 +10477,7 @@
         <v>6961</v>
       </c>
       <c r="F267" s="2">
-        <v>9532.73</v>
+        <v>9649.93</v>
       </c>
       <c r="G267">
         <v>0.11</v>
@@ -10487,13 +10486,13 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="I267">
-        <v>25.747</v>
+        <v>26.062999999999999</v>
       </c>
       <c r="J267">
         <v>26.72</v>
       </c>
       <c r="K267">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10501,7 +10500,7 @@
         <v>277</v>
       </c>
       <c r="B268">
-        <v>85.7</v>
+        <v>87.8</v>
       </c>
       <c r="C268">
         <v>200</v>
@@ -10513,7 +10512,7 @@
         <v>4813</v>
       </c>
       <c r="F268" s="2">
-        <v>17140</v>
+        <v>17560</v>
       </c>
       <c r="G268">
         <v>0.19</v>
@@ -10522,13 +10521,13 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="I268">
-        <v>38.258000000000003</v>
+        <v>39.195999999999998</v>
       </c>
       <c r="J268">
         <v>24.06</v>
       </c>
       <c r="K268">
-        <v>3.56</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10536,7 +10535,7 @@
         <v>278</v>
       </c>
       <c r="B269">
-        <v>32.4</v>
+        <v>32.65</v>
       </c>
       <c r="C269">
         <v>233.93</v>
@@ -10548,7 +10547,7 @@
         <v>3990</v>
       </c>
       <c r="F269" s="2">
-        <v>7579.33</v>
+        <v>7637.81</v>
       </c>
       <c r="G269">
         <v>0.08</v>
@@ -10557,13 +10556,13 @@
         <v>1.145</v>
       </c>
       <c r="I269">
-        <v>28.303000000000001</v>
+        <v>28.521000000000001</v>
       </c>
       <c r="J269">
         <v>17.05</v>
       </c>
       <c r="K269">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10571,7 +10570,7 @@
         <v>279</v>
       </c>
       <c r="B270">
-        <v>11.94</v>
+        <v>12.28</v>
       </c>
       <c r="C270">
         <v>523.25900000000001</v>
@@ -10583,7 +10582,7 @@
         <v>5136</v>
       </c>
       <c r="F270" s="2">
-        <v>6247.71</v>
+        <v>6425.62</v>
       </c>
       <c r="G270">
         <v>7.0000000000000007E-2</v>
@@ -10598,7 +10597,7 @@
         <v>9.81</v>
       </c>
       <c r="K270">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10606,7 +10605,7 @@
         <v>280</v>
       </c>
       <c r="B271">
-        <v>35.1</v>
+        <v>38.6</v>
       </c>
       <c r="C271" s="2">
         <v>30.234000000000002</v>
@@ -10618,7 +10617,7 @@
         <v>32</v>
       </c>
       <c r="F271" s="2">
-        <v>1061.21</v>
+        <v>1167.03</v>
       </c>
       <c r="G271">
         <v>0.01</v>
@@ -10641,7 +10640,7 @@
         <v>281</v>
       </c>
       <c r="B272">
-        <v>18.86</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="C272" s="2">
         <v>1180.0219999999999</v>
@@ -10653,7 +10652,7 @@
         <v>14415.73</v>
       </c>
       <c r="F272" s="2">
-        <v>22255.21</v>
+        <v>22491.22</v>
       </c>
       <c r="G272">
         <v>0.25</v>
@@ -10662,13 +10661,13 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="I272">
-        <v>19.747</v>
+        <v>19.956</v>
       </c>
       <c r="J272">
         <v>12.21</v>
       </c>
       <c r="K272">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10676,7 +10675,7 @@
         <v>282</v>
       </c>
       <c r="B273">
-        <v>18.260000000000002</v>
+        <v>18.5</v>
       </c>
       <c r="C273" s="2">
         <v>1080</v>
@@ -10688,7 +10687,7 @@
         <v>21304.55</v>
       </c>
       <c r="F273" s="2">
-        <v>19720.8</v>
+        <v>19980</v>
       </c>
       <c r="G273">
         <v>0.22</v>
@@ -10697,13 +10696,13 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="I273">
-        <v>22.861999999999998</v>
+        <v>23.163</v>
       </c>
       <c r="J273">
         <v>19.72</v>
       </c>
       <c r="K273">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -10711,7 +10710,7 @@
         <v>283</v>
       </c>
       <c r="B274">
-        <v>12.98</v>
+        <v>12.86</v>
       </c>
       <c r="C274">
         <v>339.3</v>
@@ -10723,7 +10722,7 @@
         <v>2968.84</v>
       </c>
       <c r="F274" s="2">
-        <v>4404.1099999999997</v>
+        <v>4363.3999999999996</v>
       </c>
       <c r="G274">
         <v>0.05</v>
@@ -10738,7 +10737,7 @@
         <v>8.74</v>
       </c>
       <c r="K274">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -10746,7 +10745,7 @@
         <v>284</v>
       </c>
       <c r="B275">
-        <v>20.68</v>
+        <v>20.8</v>
       </c>
       <c r="C275">
         <v>93.332999999999998</v>
@@ -10758,7 +10757,7 @@
         <v>992.46</v>
       </c>
       <c r="F275" s="2">
-        <v>1930.13</v>
+        <v>1941.33</v>
       </c>
       <c r="G275">
         <v>0.02</v>
@@ -10773,7 +10772,7 @@
         <v>10.63</v>
       </c>
       <c r="K275">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -10781,7 +10780,7 @@
         <v>285</v>
       </c>
       <c r="B276">
-        <v>18.48</v>
+        <v>18.68</v>
       </c>
       <c r="C276">
         <v>475</v>
@@ -10793,7 +10792,7 @@
         <v>14824.3</v>
       </c>
       <c r="F276" s="2">
-        <v>8778</v>
+        <v>8873</v>
       </c>
       <c r="G276">
         <v>0.1</v>
@@ -10802,7 +10801,7 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="I276">
-        <v>6.96</v>
+        <v>7.0350000000000001</v>
       </c>
       <c r="J276">
         <v>31.2</v>
@@ -10816,7 +10815,7 @@
         <v>286</v>
       </c>
       <c r="B277">
-        <v>13.02</v>
+        <v>13.56</v>
       </c>
       <c r="C277">
         <v>500</v>
@@ -10828,7 +10827,7 @@
         <v>847.1</v>
       </c>
       <c r="F277" s="2">
-        <v>6510</v>
+        <v>6780</v>
       </c>
       <c r="G277">
         <v>7.0000000000000007E-2</v>
@@ -10837,13 +10836,13 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="I277">
-        <v>23.891999999999999</v>
+        <v>24.882999999999999</v>
       </c>
       <c r="J277">
         <v>1.69</v>
       </c>
       <c r="K277">
-        <v>7.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10851,7 +10850,7 @@
         <v>287</v>
       </c>
       <c r="B278">
-        <v>35.700000000000003</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="C278">
         <v>50</v>
@@ -10863,7 +10862,7 @@
         <v>630.74</v>
       </c>
       <c r="F278" s="2">
-        <v>1785</v>
+        <v>1822.5</v>
       </c>
       <c r="G278">
         <v>0.02</v>
@@ -10872,13 +10871,13 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="I278">
-        <v>16.248999999999999</v>
+        <v>16.59</v>
       </c>
       <c r="J278">
         <v>12.61</v>
       </c>
       <c r="K278">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10886,7 +10885,7 @@
         <v>288</v>
       </c>
       <c r="B279">
-        <v>4.43</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="C279" s="2">
         <v>200</v>
@@ -10898,7 +10897,7 @@
         <v>404.74</v>
       </c>
       <c r="F279" s="2">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="G279">
         <v>0.01</v>
@@ -10907,21 +10906,21 @@
         <v>0.16</v>
       </c>
       <c r="I279">
-        <v>27.696000000000002</v>
+        <v>28.257999999999999</v>
       </c>
       <c r="J279">
         <v>2.02</v>
       </c>
       <c r="K279">
-        <v>2.1800000000000002</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
+      <c r="A280" t="s">
         <v>289</v>
       </c>
       <c r="B280">
-        <v>22.2</v>
+        <v>22.46</v>
       </c>
       <c r="C280" s="2">
         <v>1438.6469999999999</v>
@@ -10933,22 +10932,22 @@
         <v>15037.78</v>
       </c>
       <c r="F280" s="2">
-        <v>31937.96</v>
+        <v>32312.01</v>
       </c>
       <c r="G280">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="H280">
         <v>0.45400000000000001</v>
       </c>
       <c r="I280">
-        <v>48.875</v>
+        <v>49.447000000000003</v>
       </c>
       <c r="J280">
         <v>10.45</v>
       </c>
       <c r="K280">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10965,22 +10964,22 @@
         <v>97503.94</v>
       </c>
       <c r="F281" s="2">
-        <v>146870.69</v>
+        <v>149115.35</v>
       </c>
       <c r="G281">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H281">
         <v>0.68500000000000005</v>
       </c>
       <c r="I281">
-        <v>23.161999999999999</v>
+        <v>23.507999999999999</v>
       </c>
       <c r="J281">
         <v>13.97</v>
       </c>
       <c r="K281">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -10997,19 +10996,19 @@
         <v>3176092.17</v>
       </c>
       <c r="F282" s="2">
-        <v>9027630.6400000006</v>
+        <v>9056119.6500000004</v>
       </c>
       <c r="H282">
         <v>1.6779999999999999</v>
       </c>
       <c r="I282">
-        <v>15.308</v>
+        <v>15.353999999999999</v>
       </c>
       <c r="J282">
         <v>9.3000000000000007</v>
       </c>
       <c r="K282">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76BD32A-4175-43A1-86CB-F2DB1BA29B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5932FFDF-5ACF-4D21-996D-1C175C3F9545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="298">
   <si>
     <t>المؤشرات المالية اليومية</t>
   </si>
@@ -919,7 +919,7 @@
     <t>طيران ناس</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/06/23</t>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/06/24</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>57.6</v>
+        <v>60.2</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1370,7 +1370,7 @@
         <v>345.55</v>
       </c>
       <c r="F5">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1385,7 +1385,7 @@
         <v>23.03</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>24.74</v>
+        <v>24.34</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1405,22 +1405,22 @@
         <v>1473620</v>
       </c>
       <c r="F6" s="2">
-        <v>5987080</v>
+        <v>5890280</v>
       </c>
       <c r="G6">
-        <v>66.11</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="H6">
         <v>1.627</v>
       </c>
       <c r="I6">
-        <v>15.207000000000001</v>
+        <v>14.961</v>
       </c>
       <c r="J6">
         <v>6.08</v>
       </c>
       <c r="K6">
-        <v>4.0599999999999996</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>6.7</v>
+        <v>6.85</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1440,10 +1440,10 @@
         <v>10987</v>
       </c>
       <c r="F7" s="2">
-        <v>11195.7</v>
+        <v>11446.35</v>
       </c>
       <c r="G7">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H7">
         <v>-2.3170000000000002</v>
@@ -1455,7 +1455,7 @@
         <v>6.57</v>
       </c>
       <c r="K7">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>73.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1475,22 +1475,22 @@
         <v>6010</v>
       </c>
       <c r="F8" s="2">
-        <v>6559.3</v>
+        <v>6817.4</v>
       </c>
       <c r="G8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H8">
         <v>2.8090000000000002</v>
       </c>
       <c r="I8">
-        <v>26.238</v>
+        <v>27.27</v>
       </c>
       <c r="J8">
         <v>67.52</v>
       </c>
       <c r="K8">
-        <v>1.0900000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>12.26</v>
+        <v>12.74</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1510,22 +1510,22 @@
         <v>6418.9</v>
       </c>
       <c r="F9" s="2">
-        <v>13842.3</v>
+        <v>14384.25</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H9">
         <v>0.71899999999999997</v>
       </c>
       <c r="I9">
-        <v>17.045999999999999</v>
+        <v>17.713000000000001</v>
       </c>
       <c r="J9">
         <v>5.68</v>
       </c>
       <c r="K9">
-        <v>2.15</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="C10">
         <v>738.28099999999995</v>
@@ -1545,7 +1545,7 @@
         <v>14127.19</v>
       </c>
       <c r="F10" s="2">
-        <v>22369.91</v>
+        <v>22739.05</v>
       </c>
       <c r="G10">
         <v>0.25</v>
@@ -1554,13 +1554,13 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="I10">
-        <v>9.9450000000000003</v>
+        <v>10.109</v>
       </c>
       <c r="J10">
         <v>19.13</v>
       </c>
       <c r="K10">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>122.4</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1580,22 +1580,22 @@
         <v>1438.5</v>
       </c>
       <c r="F11" s="2">
-        <v>12000</v>
+        <v>12240</v>
       </c>
       <c r="G11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H11">
         <v>3.6070000000000002</v>
       </c>
       <c r="I11">
-        <v>33.267000000000003</v>
+        <v>33.933</v>
       </c>
       <c r="J11">
         <v>14.38</v>
       </c>
       <c r="K11">
-        <v>8.34</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1612,22 +1612,22 @@
         <v>1512947.14</v>
       </c>
       <c r="F12" s="2">
-        <v>6053911.21</v>
+        <v>5958810.0499999998</v>
       </c>
       <c r="G12">
-        <v>66.84</v>
+        <v>65.84</v>
       </c>
       <c r="H12">
         <v>1.601</v>
       </c>
       <c r="I12">
-        <v>15.205</v>
+        <v>14.964</v>
       </c>
       <c r="J12">
         <v>6.16</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7.37</v>
+        <v>7.54</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1647,7 +1647,7 @@
         <v>382.18</v>
       </c>
       <c r="F13">
-        <v>563.54</v>
+        <v>576.54</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1662,7 +1662,7 @@
         <v>4.99</v>
       </c>
       <c r="K13">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>25.6</v>
+        <v>27.25</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1682,10 +1682,10 @@
         <v>1611.65</v>
       </c>
       <c r="F14" s="2">
-        <v>2218.65</v>
+        <v>2361.65</v>
       </c>
       <c r="G14">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H14">
         <v>-0.626</v>
@@ -1697,7 +1697,7 @@
         <v>18.59</v>
       </c>
       <c r="K14">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>25.4</v>
+        <v>26.4</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -1717,7 +1717,7 @@
         <v>598.46</v>
       </c>
       <c r="F15">
-        <v>698.5</v>
+        <v>726</v>
       </c>
       <c r="G15">
         <v>0.01</v>
@@ -1726,13 +1726,13 @@
         <v>1.198</v>
       </c>
       <c r="I15">
-        <v>21.204999999999998</v>
+        <v>22.04</v>
       </c>
       <c r="J15">
         <v>21.76</v>
       </c>
       <c r="K15">
-        <v>1.1599999999999999</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>48.55</v>
+        <v>50.6</v>
       </c>
       <c r="C16" s="2">
         <v>3802.7849999999999</v>
@@ -1752,22 +1752,22 @@
         <v>53273.5</v>
       </c>
       <c r="F16" s="2">
-        <v>184625.21</v>
+        <v>192420.92</v>
       </c>
       <c r="G16">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="H16">
         <v>0.90500000000000003</v>
       </c>
       <c r="I16">
-        <v>53.673000000000002</v>
+        <v>55.939</v>
       </c>
       <c r="J16">
         <v>14</v>
       </c>
       <c r="K16">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>21.5</v>
+        <v>22.34</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1787,7 +1787,7 @@
         <v>366.9</v>
       </c>
       <c r="F17">
-        <v>603.72</v>
+        <v>627.30999999999995</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1796,13 +1796,13 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17">
-        <v>62.887</v>
+        <v>65.343999999999994</v>
       </c>
       <c r="J17">
         <v>13.06</v>
       </c>
       <c r="K17">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>28.95</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1822,7 +1822,7 @@
         <v>590.22</v>
       </c>
       <c r="F18" s="2">
-        <v>1470.66</v>
+        <v>1524</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1831,13 +1831,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="I18">
-        <v>39.479999999999997</v>
+        <v>40.911999999999999</v>
       </c>
       <c r="J18">
         <v>11.61</v>
       </c>
       <c r="K18">
-        <v>2.4900000000000002</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>51.4</v>
+        <v>53.6</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1857,7 +1857,7 @@
         <v>913</v>
       </c>
       <c r="F19" s="2">
-        <v>2621.4</v>
+        <v>2733.6</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1866,13 +1866,13 @@
         <v>4.7839999999999998</v>
       </c>
       <c r="I19">
-        <v>10.743</v>
+        <v>11.202999999999999</v>
       </c>
       <c r="J19">
         <v>17.899999999999999</v>
       </c>
       <c r="K19">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>117.4</v>
+        <v>122.8</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1892,7 +1892,7 @@
         <v>1049.6199999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>3698.1</v>
+        <v>3868.2</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1901,13 +1901,13 @@
         <v>15.114000000000001</v>
       </c>
       <c r="I20">
-        <v>7.7670000000000003</v>
+        <v>8.1240000000000006</v>
       </c>
       <c r="J20">
         <v>33.32</v>
       </c>
       <c r="K20">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>57.8</v>
+        <v>59.8</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1927,7 +1927,7 @@
         <v>1210.1199999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5202</v>
+        <v>5382</v>
       </c>
       <c r="G21">
         <v>0.06</v>
@@ -1936,13 +1936,13 @@
         <v>2.4220000000000002</v>
       </c>
       <c r="I21">
-        <v>23.861000000000001</v>
+        <v>24.686</v>
       </c>
       <c r="J21">
         <v>13.44</v>
       </c>
       <c r="K21">
-        <v>4.29</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>35.25</v>
+        <v>36.5</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1962,7 +1962,7 @@
         <v>564.17999999999995</v>
       </c>
       <c r="F22" s="2">
-        <v>1410</v>
+        <v>1460</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1971,13 +1971,13 @@
         <v>2.718</v>
       </c>
       <c r="I22">
-        <v>12.971</v>
+        <v>13.430999999999999</v>
       </c>
       <c r="J22">
         <v>14.1</v>
       </c>
       <c r="K22">
-        <v>2.4900000000000002</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2032,7 +2032,7 @@
         <v>156110</v>
       </c>
       <c r="F24" s="2">
-        <v>164700</v>
+        <v>164400</v>
       </c>
       <c r="G24">
         <v>1.82</v>
@@ -2041,7 +2041,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="I24">
-        <v>2058.75</v>
+        <v>2055</v>
       </c>
       <c r="J24">
         <v>52.03</v>
@@ -2055,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>109.2</v>
+        <v>104.2</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2067,22 +2067,22 @@
         <v>19286</v>
       </c>
       <c r="F25" s="2">
-        <v>51983.02</v>
+        <v>49602.85</v>
       </c>
       <c r="G25">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H25">
         <v>7.2910000000000004</v>
       </c>
       <c r="I25">
-        <v>14.976000000000001</v>
+        <v>14.29</v>
       </c>
       <c r="J25">
         <v>40.51</v>
       </c>
       <c r="K25">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>9.14</v>
+        <v>9.24</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2102,7 +2102,7 @@
         <v>10484.4</v>
       </c>
       <c r="F26" s="2">
-        <v>6113.87</v>
+        <v>6180.77</v>
       </c>
       <c r="G26">
         <v>7.0000000000000007E-2</v>
@@ -2111,7 +2111,7 @@
         <v>1.601</v>
       </c>
       <c r="I26">
-        <v>5.71</v>
+        <v>5.7729999999999997</v>
       </c>
       <c r="J26">
         <v>15.67</v>
@@ -2125,7 +2125,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>19.52</v>
+        <v>20.78</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2137,7 +2137,7 @@
         <v>346.35</v>
       </c>
       <c r="F27">
-        <v>618.12</v>
+        <v>658.02</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2152,7 +2152,7 @@
         <v>10.93</v>
       </c>
       <c r="K27">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>42.6</v>
+        <v>43.3</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2172,7 +2172,7 @@
         <v>772.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1401.54</v>
+        <v>1424.57</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2181,13 +2181,13 @@
         <v>2.7930000000000001</v>
       </c>
       <c r="I28">
-        <v>15.25</v>
+        <v>15.500999999999999</v>
       </c>
       <c r="J28">
         <v>23.47</v>
       </c>
       <c r="K28">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>36.1</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2207,7 +2207,7 @@
         <v>3475.91</v>
       </c>
       <c r="F29" s="2">
-        <v>2498.12</v>
+        <v>2574.2399999999998</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2222,7 +2222,7 @@
         <v>50.22</v>
       </c>
       <c r="K29">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>32.25</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="C30">
         <v>11.5</v>
@@ -2242,7 +2242,7 @@
         <v>141.80000000000001</v>
       </c>
       <c r="F30">
-        <v>370.88</v>
+        <v>391.58</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2257,7 +2257,7 @@
         <v>12.33</v>
       </c>
       <c r="K30">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>5.79</v>
+        <v>6.03</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -2277,7 +2277,7 @@
         <v>441.49</v>
       </c>
       <c r="F31" s="2">
-        <v>1158</v>
+        <v>1206</v>
       </c>
       <c r="G31">
         <v>0.01</v>
@@ -2286,13 +2286,13 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="I31">
-        <v>7.54</v>
+        <v>7.8529999999999998</v>
       </c>
       <c r="J31">
         <v>2.2000000000000002</v>
       </c>
       <c r="K31">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>26.1</v>
+        <v>26.65</v>
       </c>
       <c r="C32">
         <v>23.52</v>
@@ -2312,7 +2312,7 @@
         <v>194.63</v>
       </c>
       <c r="F32">
-        <v>613.87</v>
+        <v>626.80999999999995</v>
       </c>
       <c r="G32">
         <v>0.01</v>
@@ -2327,7 +2327,7 @@
         <v>8.27</v>
       </c>
       <c r="K32">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>13.26</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2347,7 +2347,7 @@
         <v>242.28</v>
       </c>
       <c r="F33">
-        <v>469.4</v>
+        <v>495.6</v>
       </c>
       <c r="G33">
         <v>0.01</v>
@@ -2362,7 +2362,7 @@
         <v>6.84</v>
       </c>
       <c r="K33">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>96.3</v>
+        <v>100.8</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2382,22 +2382,22 @@
         <v>4075.05</v>
       </c>
       <c r="F34" s="2">
-        <v>16250.63</v>
+        <v>17010</v>
       </c>
       <c r="G34">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H34">
         <v>5.6559999999999997</v>
       </c>
       <c r="I34">
-        <v>17.024000000000001</v>
+        <v>17.82</v>
       </c>
       <c r="J34">
         <v>24.14</v>
       </c>
       <c r="K34">
-        <v>3.98</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>39.049999999999997</v>
+        <v>41.55</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2417,7 +2417,7 @@
         <v>474.58</v>
       </c>
       <c r="F35" s="2">
-        <v>2343</v>
+        <v>2493</v>
       </c>
       <c r="G35">
         <v>0.03</v>
@@ -2426,13 +2426,13 @@
         <v>0.72</v>
       </c>
       <c r="I35">
-        <v>54.247999999999998</v>
+        <v>57.720999999999997</v>
       </c>
       <c r="J35">
         <v>7.9</v>
       </c>
       <c r="K35">
-        <v>4.93</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>16.7</v>
+        <v>17.12</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2452,7 +2452,7 @@
         <v>9853</v>
       </c>
       <c r="F36" s="2">
-        <v>11344.64</v>
+        <v>11629.96</v>
       </c>
       <c r="G36">
         <v>0.13</v>
@@ -2461,13 +2461,13 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I36">
-        <v>59.396000000000001</v>
+        <v>60.889000000000003</v>
       </c>
       <c r="J36">
         <v>14.5</v>
       </c>
       <c r="K36">
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2475,7 +2475,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>28.9</v>
+        <v>29.35</v>
       </c>
       <c r="C37">
         <v>562.5</v>
@@ -2487,7 +2487,7 @@
         <v>11252.6</v>
       </c>
       <c r="F37" s="2">
-        <v>16256.25</v>
+        <v>16509.38</v>
       </c>
       <c r="G37">
         <v>0.18</v>
@@ -2496,13 +2496,13 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="I37">
-        <v>48.655999999999999</v>
+        <v>49.414000000000001</v>
       </c>
       <c r="J37">
         <v>20</v>
       </c>
       <c r="K37">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2510,7 +2510,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>63.1</v>
+        <v>65.5</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2522,7 +2522,7 @@
         <v>533.52</v>
       </c>
       <c r="F38" s="2">
-        <v>2339.12</v>
+        <v>2428.09</v>
       </c>
       <c r="G38">
         <v>0.03</v>
@@ -2531,13 +2531,13 @@
         <v>1.825</v>
       </c>
       <c r="I38">
-        <v>34.570999999999998</v>
+        <v>35.886000000000003</v>
       </c>
       <c r="J38">
         <v>14.39</v>
       </c>
       <c r="K38">
-        <v>4.38</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>19.059999999999999</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2557,7 +2557,7 @@
         <v>15430</v>
       </c>
       <c r="F39" s="2">
-        <v>13977.33</v>
+        <v>13991.99</v>
       </c>
       <c r="G39">
         <v>0.15</v>
@@ -2566,7 +2566,7 @@
         <v>0.6</v>
       </c>
       <c r="I39">
-        <v>31.765999999999998</v>
+        <v>31.798999999999999</v>
       </c>
       <c r="J39">
         <v>21.04</v>
@@ -2580,7 +2580,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>29.15</v>
+        <v>30.2</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2592,10 +2592,10 @@
         <v>2915</v>
       </c>
       <c r="F40" s="2">
-        <v>7579</v>
+        <v>7852</v>
       </c>
       <c r="G40">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H40">
         <v>-0.49199999999999999</v>
@@ -2607,7 +2607,7 @@
         <v>11.21</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>4.51</v>
+        <v>4.58</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2627,10 +2627,10 @@
         <v>10731.37</v>
       </c>
       <c r="F41" s="2">
-        <v>6765</v>
+        <v>6870</v>
       </c>
       <c r="G41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H41">
         <v>-1.3380000000000001</v>
@@ -2642,7 +2642,7 @@
         <v>7.15</v>
       </c>
       <c r="K41">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>27.2</v>
+        <v>28.35</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2662,7 +2662,7 @@
         <v>93.41</v>
       </c>
       <c r="F42">
-        <v>408</v>
+        <v>425.25</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2677,7 +2677,7 @@
         <v>6.22</v>
       </c>
       <c r="K42">
-        <v>4.3600000000000003</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2685,7 +2685,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2697,7 +2697,7 @@
         <v>2053.0500000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>1339.6</v>
+        <v>1353.2</v>
       </c>
       <c r="G43">
         <v>0.01</v>
@@ -2706,7 +2706,7 @@
         <v>0.437</v>
       </c>
       <c r="I43">
-        <v>18.050999999999998</v>
+        <v>18.234000000000002</v>
       </c>
       <c r="J43">
         <v>12.07</v>
@@ -2720,7 +2720,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>16.3</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2732,7 +2732,7 @@
         <v>1846.52</v>
       </c>
       <c r="F44" s="2">
-        <v>2282</v>
+        <v>2321.1999999999998</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2741,13 +2741,13 @@
         <v>1.101</v>
       </c>
       <c r="I44">
-        <v>14.811</v>
+        <v>15.065</v>
       </c>
       <c r="J44">
         <v>13.18</v>
       </c>
       <c r="K44">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>7.51</v>
+        <v>7.74</v>
       </c>
       <c r="C45">
         <v>180</v>
@@ -2767,22 +2767,22 @@
         <v>2264.7800000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>1351.8</v>
+        <v>1393.2</v>
       </c>
       <c r="G45">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H45">
         <v>0.317</v>
       </c>
       <c r="I45">
-        <v>23.681999999999999</v>
+        <v>24.407</v>
       </c>
       <c r="J45">
         <v>12.58</v>
       </c>
       <c r="K45">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>15.66</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="C46">
         <v>55</v>
@@ -2802,7 +2802,7 @@
         <v>824.47</v>
       </c>
       <c r="F46">
-        <v>861.3</v>
+        <v>883.3</v>
       </c>
       <c r="G46">
         <v>0.01</v>
@@ -2811,13 +2811,13 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="I46">
-        <v>19.504000000000001</v>
+        <v>20.001999999999999</v>
       </c>
       <c r="J46">
         <v>14.99</v>
       </c>
       <c r="K46">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>24.78</v>
+        <v>25.8</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2837,7 +2837,7 @@
         <v>289.64999999999998</v>
       </c>
       <c r="F47">
-        <v>557.54999999999995</v>
+        <v>580.5</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2846,13 +2846,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I47">
-        <v>6195</v>
+        <v>6450</v>
       </c>
       <c r="J47">
         <v>12.87</v>
       </c>
       <c r="K47">
-        <v>1.92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2872,10 +2872,10 @@
         <v>107.08</v>
       </c>
       <c r="F48">
-        <v>445.31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
+        <v>479.21</v>
+      </c>
+      <c r="G48">
+        <v>0.01</v>
       </c>
       <c r="H48">
         <v>-0.11</v>
@@ -2887,7 +2887,7 @@
         <v>0.47</v>
       </c>
       <c r="K48">
-        <v>4.1500000000000004</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>22.76</v>
+        <v>23.36</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2907,7 +2907,7 @@
         <v>2586.1</v>
       </c>
       <c r="F49" s="2">
-        <v>2276</v>
+        <v>2336</v>
       </c>
       <c r="G49">
         <v>0.03</v>
@@ -2916,13 +2916,13 @@
         <v>1.296</v>
       </c>
       <c r="I49">
-        <v>17.561</v>
+        <v>18.024000000000001</v>
       </c>
       <c r="J49">
         <v>25.86</v>
       </c>
       <c r="K49">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>33</v>
+        <v>33.35</v>
       </c>
       <c r="C50">
         <v>202.5</v>
@@ -2942,7 +2942,7 @@
         <v>4985.1000000000004</v>
       </c>
       <c r="F50" s="2">
-        <v>6682.5</v>
+        <v>6753.38</v>
       </c>
       <c r="G50">
         <v>7.0000000000000007E-2</v>
@@ -2951,13 +2951,13 @@
         <v>2.2109999999999999</v>
       </c>
       <c r="I50">
-        <v>14.923999999999999</v>
+        <v>15.082000000000001</v>
       </c>
       <c r="J50">
         <v>24.61</v>
       </c>
       <c r="K50">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>38.85</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2977,7 +2977,7 @@
         <v>2349</v>
       </c>
       <c r="F51" s="2">
-        <v>5944.05</v>
+        <v>6112.35</v>
       </c>
       <c r="G51">
         <v>7.0000000000000007E-2</v>
@@ -2986,13 +2986,13 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="I51">
-        <v>14.268000000000001</v>
+        <v>14.670999999999999</v>
       </c>
       <c r="J51">
         <v>15.35</v>
       </c>
       <c r="K51">
-        <v>2.5299999999999998</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>49.65</v>
+        <v>50.5</v>
       </c>
       <c r="C52">
         <v>110.559</v>
@@ -3012,7 +3012,7 @@
         <v>2770.28</v>
       </c>
       <c r="F52" s="2">
-        <v>5489.25</v>
+        <v>5583.23</v>
       </c>
       <c r="G52">
         <v>0.06</v>
@@ -3021,13 +3021,13 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="I52">
-        <v>17.088999999999999</v>
+        <v>17.381</v>
       </c>
       <c r="J52">
         <v>25.05</v>
       </c>
       <c r="K52">
-        <v>1.98</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3035,7 +3035,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3047,7 +3047,7 @@
         <v>3398</v>
       </c>
       <c r="F53" s="2">
-        <v>3836</v>
+        <v>3892</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3056,13 +3056,13 @@
         <v>1.4930000000000001</v>
       </c>
       <c r="I53">
-        <v>18.353999999999999</v>
+        <v>18.622</v>
       </c>
       <c r="J53">
         <v>24.27</v>
       </c>
       <c r="K53">
-        <v>1.1200000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>19.8</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3082,7 +3082,7 @@
         <v>2635.99</v>
       </c>
       <c r="F54" s="2">
-        <v>3118.5</v>
+        <v>3165.75</v>
       </c>
       <c r="G54">
         <v>0.03</v>
@@ -3091,13 +3091,13 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="I54">
-        <v>24.225000000000001</v>
+        <v>24.591999999999999</v>
       </c>
       <c r="J54">
         <v>16.73</v>
       </c>
       <c r="K54">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>29.5</v>
+        <v>30.55</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3117,7 +3117,7 @@
         <v>2267</v>
       </c>
       <c r="F55" s="2">
-        <v>2537</v>
+        <v>2627.3</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3126,13 +3126,13 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="I55">
-        <v>10.483000000000001</v>
+        <v>10.856</v>
       </c>
       <c r="J55">
         <v>26.36</v>
       </c>
       <c r="K55">
-        <v>1.1100000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>10.34</v>
+        <v>10.64</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -3152,7 +3152,7 @@
         <v>1192.03</v>
       </c>
       <c r="F56">
-        <v>930.6</v>
+        <v>957.6</v>
       </c>
       <c r="G56">
         <v>0.01</v>
@@ -3161,13 +3161,13 @@
         <v>0.85</v>
       </c>
       <c r="I56">
-        <v>12.166</v>
+        <v>12.519</v>
       </c>
       <c r="J56">
         <v>13.24</v>
       </c>
       <c r="K56">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>7.64</v>
+        <v>7.7</v>
       </c>
       <c r="C57">
         <v>108.7</v>
@@ -3187,7 +3187,7 @@
         <v>1101.25</v>
       </c>
       <c r="F57">
-        <v>830.47</v>
+        <v>836.99</v>
       </c>
       <c r="G57">
         <v>0.01</v>
@@ -3202,7 +3202,7 @@
         <v>10.130000000000001</v>
       </c>
       <c r="K57">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3254,22 +3254,22 @@
         <v>340669.09</v>
       </c>
       <c r="F59" s="2">
-        <v>553389.23</v>
+        <v>562331.27</v>
       </c>
       <c r="G59">
-        <v>6.13</v>
+        <v>6.26</v>
       </c>
       <c r="H59">
         <v>0.752</v>
       </c>
       <c r="I59">
-        <v>37.581000000000003</v>
+        <v>38.161000000000001</v>
       </c>
       <c r="J59">
         <v>22.74</v>
       </c>
       <c r="K59">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3289,7 +3289,7 @@
         <v>2700.53</v>
       </c>
       <c r="F60" s="2">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="G60">
         <v>0.13</v>
@@ -3298,13 +3298,13 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="I60">
-        <v>18.97</v>
+        <v>19.623999999999999</v>
       </c>
       <c r="J60">
         <v>33.75</v>
       </c>
       <c r="K60">
-        <v>4.29</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>25.8</v>
+        <v>26.9</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3324,7 +3324,7 @@
         <v>825.67</v>
       </c>
       <c r="F61" s="2">
-        <v>1431.9</v>
+        <v>1492.95</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3333,13 +3333,13 @@
         <v>1.379</v>
       </c>
       <c r="I61">
-        <v>18.707000000000001</v>
+        <v>19.504999999999999</v>
       </c>
       <c r="J61">
         <v>14.87</v>
       </c>
       <c r="K61">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3347,7 +3347,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>48.5</v>
+        <v>50.3</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3359,7 +3359,7 @@
         <v>964.6</v>
       </c>
       <c r="F62" s="2">
-        <v>2910</v>
+        <v>3018</v>
       </c>
       <c r="G62">
         <v>0.03</v>
@@ -3368,13 +3368,13 @@
         <v>1.89</v>
       </c>
       <c r="I62">
-        <v>25.663</v>
+        <v>26.616</v>
       </c>
       <c r="J62">
         <v>16.07</v>
       </c>
       <c r="K62">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3382,7 +3382,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>7.53</v>
+        <v>7.8</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3394,22 +3394,22 @@
         <v>930.83</v>
       </c>
       <c r="F63" s="2">
-        <v>8471.25</v>
+        <v>8775</v>
       </c>
       <c r="G63">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H63">
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>18.827000000000002</v>
+        <v>19.503</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>9.1</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>26.7</v>
+        <v>28.85</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3429,7 +3429,7 @@
         <v>1444.71</v>
       </c>
       <c r="F64" s="2">
-        <v>2670</v>
+        <v>2885</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3444,7 +3444,7 @@
         <v>14.44</v>
       </c>
       <c r="K64">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>138.80000000000001</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>926.07</v>
+        <v>982.12</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3487,7 +3487,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>19.239999999999998</v>
+        <v>20.52</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3499,7 +3499,7 @@
         <v>908.22</v>
       </c>
       <c r="F66">
-        <v>857.14</v>
+        <v>914.17</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3514,7 +3514,7 @@
         <v>20.38</v>
       </c>
       <c r="K66">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>50.6</v>
+        <v>51.7</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3534,7 +3534,7 @@
         <v>1078.5999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>3235.67</v>
+        <v>3306.01</v>
       </c>
       <c r="G67">
         <v>0.04</v>
@@ -3543,13 +3543,13 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="I67">
-        <v>11.922000000000001</v>
+        <v>12.180999999999999</v>
       </c>
       <c r="J67">
         <v>16.86</v>
       </c>
       <c r="K67">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>30.3</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3569,7 +3569,7 @@
         <v>490.64</v>
       </c>
       <c r="F68" s="2">
-        <v>1212</v>
+        <v>1280</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3578,13 +3578,13 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="I68">
-        <v>14.388999999999999</v>
+        <v>15.196</v>
       </c>
       <c r="J68">
         <v>12.26</v>
       </c>
       <c r="K68">
-        <v>2.4700000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.13</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3604,10 +3604,10 @@
         <v>409.58</v>
       </c>
       <c r="F69" s="2">
-        <v>1278</v>
+        <v>1368</v>
       </c>
       <c r="G69">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H69">
         <v>-7.5999999999999998E-2</v>
@@ -3619,7 +3619,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>3.12</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3639,7 +3639,7 @@
         <v>123.96</v>
       </c>
       <c r="F70">
-        <v>396.58</v>
+        <v>417.96</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3654,7 +3654,7 @@
         <v>0.63</v>
       </c>
       <c r="K70">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3662,7 +3662,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>26.6</v>
+        <v>28.15</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3674,7 +3674,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="F71">
-        <v>319.2</v>
+        <v>337.8</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3689,7 +3689,7 @@
         <v>12.81</v>
       </c>
       <c r="K71">
-        <v>2.0699999999999998</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3709,7 +3709,7 @@
         <v>2899.91</v>
       </c>
       <c r="F72" s="2">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="G72">
         <v>0.23</v>
@@ -3718,13 +3718,13 @@
         <v>6.0270000000000001</v>
       </c>
       <c r="I72">
-        <v>22.562999999999999</v>
+        <v>23.227</v>
       </c>
       <c r="J72">
         <v>19.329999999999998</v>
       </c>
       <c r="K72">
-        <v>7.03</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>41.7</v>
+        <v>43.3</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3744,7 +3744,7 @@
         <v>528.99</v>
       </c>
       <c r="F73" s="2">
-        <v>1668</v>
+        <v>1732</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3753,13 +3753,13 @@
         <v>2.0289999999999999</v>
       </c>
       <c r="I73">
-        <v>20.553999999999998</v>
+        <v>21.343</v>
       </c>
       <c r="J73">
         <v>13.22</v>
       </c>
       <c r="K73">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>62.1</v>
+        <v>65</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3779,7 +3779,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="F74">
-        <v>776.25</v>
+        <v>812.5</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3788,13 +3788,13 @@
         <v>1.913</v>
       </c>
       <c r="I74">
-        <v>32.465000000000003</v>
+        <v>33.981000000000002</v>
       </c>
       <c r="J74">
         <v>12.89</v>
       </c>
       <c r="K74">
-        <v>4.8099999999999996</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3811,22 +3811,22 @@
         <v>13621.27</v>
       </c>
       <c r="F75" s="2">
-        <v>58152.06</v>
+        <v>60321.51</v>
       </c>
       <c r="G75">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="H75">
         <v>0.94699999999999995</v>
       </c>
       <c r="I75">
-        <v>19.763999999999999</v>
+        <v>20.417999999999999</v>
       </c>
       <c r="J75">
         <v>5.27</v>
       </c>
       <c r="K75">
-        <v>4.2699999999999996</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>4.7</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C76">
         <v>475</v>
@@ -3846,22 +3846,22 @@
         <v>613.96</v>
       </c>
       <c r="F76" s="2">
-        <v>2232.5</v>
+        <v>2346.5</v>
       </c>
       <c r="G76">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H76">
         <v>0.21299999999999999</v>
       </c>
       <c r="I76">
-        <v>22.073</v>
+        <v>23.2</v>
       </c>
       <c r="J76">
         <v>1.29</v>
       </c>
       <c r="K76">
-        <v>3.63</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="C77">
         <v>175</v>
@@ -3881,7 +3881,7 @@
         <v>167.63</v>
       </c>
       <c r="F77">
-        <v>495.25</v>
+        <v>512.75</v>
       </c>
       <c r="G77">
         <v>0.01</v>
@@ -3896,7 +3896,7 @@
         <v>0.95</v>
       </c>
       <c r="K77">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>135</v>
+        <v>138.4</v>
       </c>
       <c r="C78">
         <v>15</v>
@@ -3916,7 +3916,7 @@
         <v>410.42</v>
       </c>
       <c r="F78" s="2">
-        <v>2025</v>
+        <v>2076</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -3925,13 +3925,13 @@
         <v>6.5970000000000004</v>
       </c>
       <c r="I78">
-        <v>20.463999999999999</v>
+        <v>20.98</v>
       </c>
       <c r="J78">
         <v>27.36</v>
       </c>
       <c r="K78">
-        <v>4.93</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>5.68</v>
+        <v>6.03</v>
       </c>
       <c r="C79">
         <v>400</v>
@@ -3951,7 +3951,7 @@
         <v>586.20000000000005</v>
       </c>
       <c r="F79" s="2">
-        <v>2272</v>
+        <v>2412</v>
       </c>
       <c r="G79">
         <v>0.03</v>
@@ -3960,13 +3960,13 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="I79">
-        <v>17.652999999999999</v>
+        <v>18.741</v>
       </c>
       <c r="J79">
         <v>1.46</v>
       </c>
       <c r="K79">
-        <v>3.87</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3974,7 +3974,7 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>51.7</v>
+        <v>53.5</v>
       </c>
       <c r="C80">
         <v>26.5</v>
@@ -3986,7 +3986,7 @@
         <v>375.3</v>
       </c>
       <c r="F80" s="2">
-        <v>1370.05</v>
+        <v>1417.75</v>
       </c>
       <c r="G80">
         <v>0.02</v>
@@ -3995,13 +3995,13 @@
         <v>3.528</v>
       </c>
       <c r="I80">
-        <v>14.651999999999999</v>
+        <v>15.163</v>
       </c>
       <c r="J80">
         <v>14.16</v>
       </c>
       <c r="K80">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>10.02</v>
+        <v>10.78</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4021,7 +4021,7 @@
         <v>257.07</v>
       </c>
       <c r="F81">
-        <v>601.20000000000005</v>
+        <v>646.79999999999995</v>
       </c>
       <c r="G81">
         <v>0.01</v>
@@ -4036,7 +4036,7 @@
         <v>4.28</v>
       </c>
       <c r="K81">
-        <v>2.33</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>113.2</v>
+        <v>118.2</v>
       </c>
       <c r="C82">
         <v>82</v>
@@ -4056,22 +4056,22 @@
         <v>1432.29</v>
       </c>
       <c r="F82" s="2">
-        <v>9282.4</v>
+        <v>9692.4</v>
       </c>
       <c r="G82">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H82">
         <v>4.3449999999999998</v>
       </c>
       <c r="I82">
-        <v>26.05</v>
+        <v>27.201000000000001</v>
       </c>
       <c r="J82">
         <v>17.46</v>
       </c>
       <c r="K82">
-        <v>6.48</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4088,22 +4088,22 @@
         <v>3842.87</v>
       </c>
       <c r="F83" s="2">
-        <v>18278.400000000001</v>
+        <v>19104.2</v>
       </c>
       <c r="G83">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="H83">
         <v>0.45</v>
       </c>
       <c r="I83">
-        <v>22.067</v>
+        <v>23.047000000000001</v>
       </c>
       <c r="J83">
         <v>3.12</v>
       </c>
       <c r="K83">
-        <v>4.76</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>25.3</v>
+        <v>27.8</v>
       </c>
       <c r="C84">
         <v>81.599999999999994</v>
@@ -4123,22 +4123,22 @@
         <v>1494</v>
       </c>
       <c r="F84" s="2">
-        <v>2064.48</v>
+        <v>2268.48</v>
       </c>
       <c r="G84">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H84">
         <v>0.55300000000000005</v>
       </c>
       <c r="I84">
-        <v>45.774999999999999</v>
+        <v>50.298000000000002</v>
       </c>
       <c r="J84">
         <v>18.3</v>
       </c>
       <c r="K84">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>46.4</v>
+        <v>47.9</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -4158,7 +4158,7 @@
         <v>2423.3200000000002</v>
       </c>
       <c r="F85" s="2">
-        <v>8723.2000000000007</v>
+        <v>9005.2000000000007</v>
       </c>
       <c r="G85">
         <v>0.1</v>
@@ -4167,13 +4167,13 @@
         <v>1.88</v>
       </c>
       <c r="I85">
-        <v>24.675999999999998</v>
+        <v>25.474</v>
       </c>
       <c r="J85">
         <v>12.89</v>
       </c>
       <c r="K85">
-        <v>3.59</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4181,7 +4181,7 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>12.88</v>
+        <v>13.46</v>
       </c>
       <c r="C86">
         <v>125</v>
@@ -4193,7 +4193,7 @@
         <v>897.57</v>
       </c>
       <c r="F86" s="2">
-        <v>1610</v>
+        <v>1682.5</v>
       </c>
       <c r="G86">
         <v>0.02</v>
@@ -4202,13 +4202,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="I86">
-        <v>36.866999999999997</v>
+        <v>38.527000000000001</v>
       </c>
       <c r="J86">
         <v>7.18</v>
       </c>
       <c r="K86">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>68.2</v>
+        <v>72</v>
       </c>
       <c r="C87">
         <v>78.165999999999997</v>
@@ -4228,7 +4228,7 @@
         <v>2821.3</v>
       </c>
       <c r="F87" s="2">
-        <v>5330.92</v>
+        <v>5627.95</v>
       </c>
       <c r="G87">
         <v>0.06</v>
@@ -4237,13 +4237,13 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="I87">
-        <v>16.32</v>
+        <v>17.228999999999999</v>
       </c>
       <c r="J87">
         <v>36.090000000000003</v>
       </c>
       <c r="K87">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>63.8</v>
+        <v>65.8</v>
       </c>
       <c r="C88">
         <v>43</v>
@@ -4263,7 +4263,7 @@
         <v>850.43</v>
       </c>
       <c r="F88" s="2">
-        <v>2743.4</v>
+        <v>2829.4</v>
       </c>
       <c r="G88">
         <v>0.03</v>
@@ -4272,13 +4272,13 @@
         <v>4.3630000000000004</v>
       </c>
       <c r="I88">
-        <v>14.624000000000001</v>
+        <v>15.082000000000001</v>
       </c>
       <c r="J88">
         <v>19.77</v>
       </c>
       <c r="K88">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4286,7 +4286,7 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>56.9</v>
+        <v>59.4</v>
       </c>
       <c r="C89">
         <v>55</v>
@@ -4298,22 +4298,22 @@
         <v>1265.3900000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>3129.5</v>
+        <v>3267</v>
       </c>
       <c r="G89">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H89">
         <v>3.4319999999999999</v>
       </c>
       <c r="I89">
-        <v>16.581</v>
+        <v>17.309000000000001</v>
       </c>
       <c r="J89">
         <v>23</v>
       </c>
       <c r="K89">
-        <v>2.4700000000000002</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>170</v>
+        <v>178.2</v>
       </c>
       <c r="C90">
         <v>80</v>
@@ -4333,22 +4333,22 @@
         <v>1449</v>
       </c>
       <c r="F90" s="2">
-        <v>13600</v>
+        <v>14256</v>
       </c>
       <c r="G90">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H90">
         <v>7.5759999999999996</v>
       </c>
       <c r="I90">
-        <v>22.439</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="J90">
         <v>18.11</v>
       </c>
       <c r="K90">
-        <v>9.3800000000000008</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>296</v>
       </c>
       <c r="B91">
-        <v>74.3</v>
+        <v>79.2</v>
       </c>
       <c r="C91">
         <v>170.851</v>
@@ -4368,10 +4368,10 @@
         <v>32</v>
       </c>
       <c r="F91" s="2">
-        <v>12694.23</v>
+        <v>13531.4</v>
       </c>
       <c r="G91">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
@@ -4400,22 +4400,22 @@
         <v>11201.01</v>
       </c>
       <c r="F92" s="2">
-        <v>49895.73</v>
+        <v>52467.93</v>
       </c>
       <c r="G92">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
       <c r="H92">
         <v>2.1320000000000001</v>
       </c>
       <c r="I92">
-        <v>21.242000000000001</v>
+        <v>22.233000000000001</v>
       </c>
       <c r="J92">
         <v>13.63</v>
       </c>
       <c r="K92">
-        <v>4.45</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>102</v>
       </c>
       <c r="B93">
-        <v>78.3</v>
+        <v>85.2</v>
       </c>
       <c r="C93">
         <v>10.897</v>
@@ -4435,7 +4435,7 @@
         <v>39.29</v>
       </c>
       <c r="F93">
-        <v>853.24</v>
+        <v>928.42</v>
       </c>
       <c r="G93">
         <v>0.01</v>
@@ -4450,7 +4450,7 @@
         <v>3.6</v>
       </c>
       <c r="K93">
-        <v>21.71</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4458,7 +4458,7 @@
         <v>103</v>
       </c>
       <c r="B94">
-        <v>24.78</v>
+        <v>26.2</v>
       </c>
       <c r="C94">
         <v>13.5</v>
@@ -4470,7 +4470,7 @@
         <v>64.38</v>
       </c>
       <c r="F94" s="2">
-        <v>334.53</v>
+        <v>353.7</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -4485,7 +4485,7 @@
         <v>4.76</v>
       </c>
       <c r="K94">
-        <v>5.19</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4493,7 +4493,7 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>12.12</v>
+        <v>12.76</v>
       </c>
       <c r="C95">
         <v>81.25</v>
@@ -4504,8 +4504,8 @@
       <c r="E95" s="2">
         <v>1043.97</v>
       </c>
-      <c r="F95">
-        <v>984.75</v>
+      <c r="F95" s="2">
+        <v>1036.75</v>
       </c>
       <c r="G95">
         <v>0.01</v>
@@ -4520,7 +4520,7 @@
         <v>12.84</v>
       </c>
       <c r="K95">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>105</v>
       </c>
       <c r="B96">
-        <v>12.54</v>
+        <v>12.8</v>
       </c>
       <c r="C96">
         <v>57.5</v>
@@ -4540,7 +4540,7 @@
         <v>293.3</v>
       </c>
       <c r="F96" s="2">
-        <v>721.05</v>
+        <v>736</v>
       </c>
       <c r="G96">
         <v>0.01</v>
@@ -4555,7 +4555,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K96">
-        <v>2.4500000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4563,7 +4563,7 @@
         <v>106</v>
       </c>
       <c r="B97">
-        <v>3.91</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>400</v>
@@ -4575,7 +4575,7 @@
         <v>614.85</v>
       </c>
       <c r="F97" s="2">
-        <v>1564</v>
+        <v>1600</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -4584,13 +4584,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I97">
-        <v>14.632999999999999</v>
+        <v>14.97</v>
       </c>
       <c r="J97">
         <v>1.53</v>
       </c>
       <c r="K97">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>107</v>
       </c>
       <c r="B98">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="C98">
         <v>275</v>
@@ -4610,7 +4610,7 @@
         <v>465.35</v>
       </c>
       <c r="F98" s="2">
-        <v>880</v>
+        <v>926.75</v>
       </c>
       <c r="G98">
         <v>0.01</v>
@@ -4619,13 +4619,13 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I98">
-        <v>76.521000000000001</v>
+        <v>80.585999999999999</v>
       </c>
       <c r="J98">
         <v>1.69</v>
       </c>
       <c r="K98">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4642,7 +4642,7 @@
         <v>2521.14</v>
       </c>
       <c r="F99" s="2">
-        <v>5337.57</v>
+        <v>5581.62</v>
       </c>
       <c r="G99">
         <v>0.06</v>
@@ -4651,13 +4651,13 @@
         <v>-0.121</v>
       </c>
       <c r="I99">
-        <v>20.645</v>
+        <v>21.344000000000001</v>
       </c>
       <c r="J99">
         <v>3.01</v>
       </c>
       <c r="K99">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
         <v>109</v>
       </c>
       <c r="B100">
-        <v>24.08</v>
+        <v>24.6</v>
       </c>
       <c r="C100">
         <v>300</v>
@@ -4677,7 +4677,7 @@
         <v>5992</v>
       </c>
       <c r="F100" s="2">
-        <v>7224</v>
+        <v>7380</v>
       </c>
       <c r="G100">
         <v>0.08</v>
@@ -4692,7 +4692,7 @@
         <v>19.97</v>
       </c>
       <c r="K100">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4700,7 +4700,7 @@
         <v>110</v>
       </c>
       <c r="B101">
-        <v>1.94</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C101">
         <v>315</v>
@@ -4712,7 +4712,7 @@
         <v>191.56</v>
       </c>
       <c r="F101" s="2">
-        <v>611.1</v>
+        <v>639.45000000000005</v>
       </c>
       <c r="G101">
         <v>0.01</v>
@@ -4727,7 +4727,7 @@
         <v>0.6</v>
       </c>
       <c r="K101">
-        <v>3.19</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4735,7 +4735,7 @@
         <v>111</v>
       </c>
       <c r="B102">
-        <v>119.6</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2">
         <v>52.383000000000003</v>
@@ -4747,7 +4747,7 @@
         <v>1238</v>
       </c>
       <c r="F102" s="2">
-        <v>6265.01</v>
+        <v>6443.11</v>
       </c>
       <c r="G102">
         <v>7.0000000000000007E-2</v>
@@ -4756,13 +4756,13 @@
         <v>8.266</v>
       </c>
       <c r="I102">
-        <v>14.468</v>
+        <v>14.88</v>
       </c>
       <c r="J102">
         <v>23.63</v>
       </c>
       <c r="K102">
-        <v>5.0599999999999996</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
         <v>112</v>
       </c>
       <c r="B103">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="C103" s="2">
         <v>1156.472</v>
@@ -4782,7 +4782,7 @@
         <v>504.42</v>
       </c>
       <c r="F103" s="2">
-        <v>844.22</v>
+        <v>913.61</v>
       </c>
       <c r="G103">
         <v>0.01</v>
@@ -4791,13 +4791,13 @@
         <v>1E-3</v>
       </c>
       <c r="I103">
-        <v>804.01900000000001</v>
+        <v>870.10400000000004</v>
       </c>
       <c r="J103">
         <v>0.43</v>
       </c>
       <c r="K103">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4805,7 +4805,7 @@
         <v>113</v>
       </c>
       <c r="B104">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="C104">
         <v>65</v>
@@ -4817,7 +4817,7 @@
         <v>522.6</v>
       </c>
       <c r="F104" s="2">
-        <v>1534</v>
+        <v>1618.5</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4826,13 +4826,13 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I104">
-        <v>89.76</v>
+        <v>94.703999999999994</v>
       </c>
       <c r="J104">
         <v>8.0399999999999991</v>
       </c>
       <c r="K104">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
         <v>114</v>
       </c>
       <c r="B105">
-        <v>144.19999999999999</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="C105">
         <v>43</v>
@@ -4852,7 +4852,7 @@
         <v>781.31</v>
       </c>
       <c r="F105" s="2">
-        <v>6200.6</v>
+        <v>6398.4</v>
       </c>
       <c r="G105">
         <v>7.0000000000000007E-2</v>
@@ -4861,13 +4861,13 @@
         <v>3.9769999999999999</v>
       </c>
       <c r="I105">
-        <v>36.26</v>
+        <v>37.417000000000002</v>
       </c>
       <c r="J105">
         <v>18.16</v>
       </c>
       <c r="K105">
-        <v>7.93</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4875,7 +4875,7 @@
         <v>115</v>
       </c>
       <c r="B106">
-        <v>60.4</v>
+        <v>63</v>
       </c>
       <c r="C106">
         <v>42.087000000000003</v>
@@ -4887,7 +4887,7 @@
         <v>789.11</v>
       </c>
       <c r="F106" s="2">
-        <v>2542.0500000000002</v>
+        <v>2651.48</v>
       </c>
       <c r="G106">
         <v>0.03</v>
@@ -4896,13 +4896,13 @@
         <v>1.669</v>
       </c>
       <c r="I106">
-        <v>36.18</v>
+        <v>37.738</v>
       </c>
       <c r="J106">
         <v>18.739999999999998</v>
       </c>
       <c r="K106">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4910,7 +4910,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>20.440000000000001</v>
+        <v>21.5</v>
       </c>
       <c r="C107">
         <v>64.680000000000007</v>
@@ -4922,10 +4922,10 @@
         <v>906.39</v>
       </c>
       <c r="F107" s="2">
-        <v>1322.06</v>
+        <v>1390.62</v>
       </c>
       <c r="G107">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H107">
         <v>-2.0960000000000001</v>
@@ -4937,7 +4937,7 @@
         <v>14.01</v>
       </c>
       <c r="K107">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
         <v>117</v>
       </c>
       <c r="B108">
-        <v>12.82</v>
+        <v>13.68</v>
       </c>
       <c r="C108">
         <v>15.808</v>
@@ -4957,7 +4957,7 @@
         <v>73.14</v>
       </c>
       <c r="F108">
-        <v>202.66</v>
+        <v>216.25</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -4972,7 +4972,7 @@
         <v>4.62</v>
       </c>
       <c r="K108">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
         <v>118</v>
       </c>
       <c r="B109">
-        <v>97.2</v>
+        <v>102.8</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4992,7 +4992,7 @@
         <v>23.69</v>
       </c>
       <c r="F109" s="2">
-        <v>291.60000000000002</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -5001,13 +5001,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="I109">
-        <v>203.916</v>
+        <v>215.66399999999999</v>
       </c>
       <c r="J109">
         <v>7.89</v>
       </c>
       <c r="K109">
-        <v>12.3</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
         <v>119</v>
       </c>
       <c r="B110">
-        <v>53.9</v>
+        <v>55.4</v>
       </c>
       <c r="C110" s="2">
         <v>25.5</v>
@@ -5027,7 +5027,7 @@
         <v>284.67</v>
       </c>
       <c r="F110" s="2">
-        <v>1374.45</v>
+        <v>1412.7</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -5036,13 +5036,13 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="I110">
-        <v>26.986999999999998</v>
+        <v>27.738</v>
       </c>
       <c r="J110">
         <v>11.16</v>
       </c>
       <c r="K110">
-        <v>4.82</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5050,7 +5050,7 @@
         <v>120</v>
       </c>
       <c r="B111">
-        <v>2.1800000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C111" s="2">
         <v>8423.6329999999998</v>
@@ -5062,22 +5062,22 @@
         <v>1608.2</v>
       </c>
       <c r="F111" s="2">
-        <v>18363.52</v>
+        <v>19374.36</v>
       </c>
       <c r="G111">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H111">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I111">
-        <v>29.971</v>
+        <v>31.620999999999999</v>
       </c>
       <c r="J111">
         <v>0.19</v>
       </c>
       <c r="K111">
-        <v>11.41</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5085,7 +5085,7 @@
         <v>121</v>
       </c>
       <c r="B112">
-        <v>15.38</v>
+        <v>16.48</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -5097,7 +5097,7 @@
         <v>74.260000000000005</v>
       </c>
       <c r="F112" s="2">
-        <v>538.29999999999995</v>
+        <v>576.79999999999995</v>
       </c>
       <c r="G112">
         <v>0.01</v>
@@ -5106,13 +5106,13 @@
         <v>0.154</v>
       </c>
       <c r="I112">
-        <v>100.05500000000001</v>
+        <v>107.211</v>
       </c>
       <c r="J112">
         <v>2.12</v>
       </c>
       <c r="K112">
-        <v>7.24</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5120,7 +5120,7 @@
         <v>122</v>
       </c>
       <c r="B113">
-        <v>25.05</v>
+        <v>25.9</v>
       </c>
       <c r="C113" s="2">
         <v>209.83600000000001</v>
@@ -5132,7 +5132,7 @@
         <v>1277.28</v>
       </c>
       <c r="F113" s="2">
-        <v>5256.39</v>
+        <v>5434.75</v>
       </c>
       <c r="G113">
         <v>0.06</v>
@@ -5141,13 +5141,13 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="I113">
-        <v>24.928000000000001</v>
+        <v>25.774000000000001</v>
       </c>
       <c r="J113">
         <v>6.08</v>
       </c>
       <c r="K113">
-        <v>4.1100000000000003</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5164,22 +5164,22 @@
         <v>14266.63</v>
       </c>
       <c r="F114" s="2">
-        <v>52569.96</v>
+        <v>54758.43</v>
       </c>
       <c r="G114">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="H114">
         <v>0.111</v>
       </c>
       <c r="I114">
-        <v>27.457999999999998</v>
+        <v>28.678999999999998</v>
       </c>
       <c r="J114">
         <v>1.33</v>
       </c>
       <c r="K114">
-        <v>3.68</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>124</v>
       </c>
       <c r="B115">
-        <v>15.6</v>
+        <v>15.74</v>
       </c>
       <c r="C115">
         <v>40</v>
@@ -5199,7 +5199,7 @@
         <v>199.72</v>
       </c>
       <c r="F115" s="2">
-        <v>624</v>
+        <v>629.6</v>
       </c>
       <c r="G115">
         <v>0.01</v>
@@ -5214,7 +5214,7 @@
         <v>4.99</v>
       </c>
       <c r="K115">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5222,7 +5222,7 @@
         <v>125</v>
       </c>
       <c r="B116">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C116">
         <v>55</v>
@@ -5234,7 +5234,7 @@
         <v>1420.63</v>
       </c>
       <c r="F116" s="2">
-        <v>5225</v>
+        <v>5445</v>
       </c>
       <c r="G116">
         <v>0.06</v>
@@ -5243,13 +5243,13 @@
         <v>3.976</v>
       </c>
       <c r="I116">
-        <v>23.891999999999999</v>
+        <v>24.898</v>
       </c>
       <c r="J116">
         <v>25.82</v>
       </c>
       <c r="K116">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5257,7 +5257,7 @@
         <v>126</v>
       </c>
       <c r="B117">
-        <v>33.15</v>
+        <v>35.9</v>
       </c>
       <c r="C117">
         <v>332.5</v>
@@ -5269,22 +5269,22 @@
         <v>4401.58</v>
       </c>
       <c r="F117" s="2">
-        <v>11022.38</v>
+        <v>11936.75</v>
       </c>
       <c r="G117">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H117">
         <v>1.7090000000000001</v>
       </c>
       <c r="I117">
-        <v>19.393000000000001</v>
+        <v>21.001999999999999</v>
       </c>
       <c r="J117">
         <v>13.23</v>
       </c>
       <c r="K117">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
         <v>127</v>
       </c>
       <c r="B118">
-        <v>168.2</v>
+        <v>178</v>
       </c>
       <c r="C118">
         <v>80</v>
@@ -5304,22 +5304,22 @@
         <v>3251.98</v>
       </c>
       <c r="F118" s="2">
-        <v>13456</v>
+        <v>14240</v>
       </c>
       <c r="G118">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H118">
         <v>1.8220000000000001</v>
       </c>
       <c r="I118">
-        <v>92.316000000000003</v>
+        <v>97.694000000000003</v>
       </c>
       <c r="J118">
         <v>40.64</v>
       </c>
       <c r="K118">
-        <v>4.13</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5336,22 +5336,22 @@
         <v>9273.91</v>
       </c>
       <c r="F119" s="2">
-        <v>30327.38</v>
+        <v>32251.35</v>
       </c>
       <c r="G119">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="H119">
         <v>1.7789999999999999</v>
       </c>
       <c r="I119">
-        <v>31.843</v>
+        <v>33.899000000000001</v>
       </c>
       <c r="J119">
         <v>18.27</v>
       </c>
       <c r="K119">
-        <v>3.27</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5359,7 +5359,7 @@
         <v>129</v>
       </c>
       <c r="B120">
-        <v>84.1</v>
+        <v>87.4</v>
       </c>
       <c r="C120">
         <v>80</v>
@@ -5371,22 +5371,22 @@
         <v>1569.05</v>
       </c>
       <c r="F120" s="2">
-        <v>6728</v>
+        <v>6992</v>
       </c>
       <c r="G120">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H120">
         <v>6.8</v>
       </c>
       <c r="I120">
-        <v>12.367000000000001</v>
+        <v>12.852</v>
       </c>
       <c r="J120">
         <v>19.61</v>
       </c>
       <c r="K120">
-        <v>4.28</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5394,7 +5394,7 @@
         <v>130</v>
       </c>
       <c r="B121">
-        <v>26.55</v>
+        <v>27.75</v>
       </c>
       <c r="C121">
         <v>36</v>
@@ -5406,7 +5406,7 @@
         <v>331.15</v>
       </c>
       <c r="F121" s="2">
-        <v>955.8</v>
+        <v>999</v>
       </c>
       <c r="G121">
         <v>0.01</v>
@@ -5421,7 +5421,7 @@
         <v>9.19</v>
       </c>
       <c r="K121">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5429,7 +5429,7 @@
         <v>131</v>
       </c>
       <c r="B122">
-        <v>56.4</v>
+        <v>60.5</v>
       </c>
       <c r="C122">
         <v>70</v>
@@ -5441,22 +5441,22 @@
         <v>853.88</v>
       </c>
       <c r="F122" s="2">
-        <v>3948</v>
+        <v>4235</v>
       </c>
       <c r="G122">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H122">
         <v>0.55000000000000004</v>
       </c>
       <c r="I122">
-        <v>102.572</v>
+        <v>110.02800000000001</v>
       </c>
       <c r="J122">
         <v>12.19</v>
       </c>
       <c r="K122">
-        <v>4.62</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5464,7 +5464,7 @@
         <v>132</v>
       </c>
       <c r="B123">
-        <v>5.26</v>
+        <v>5.43</v>
       </c>
       <c r="C123" s="2">
         <v>101.25</v>
@@ -5476,7 +5476,7 @@
         <v>207.79</v>
       </c>
       <c r="F123" s="2">
-        <v>532.58000000000004</v>
+        <v>549.79</v>
       </c>
       <c r="G123">
         <v>0.01</v>
@@ -5485,13 +5485,13 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="I123">
-        <v>22.74</v>
+        <v>23.475000000000001</v>
       </c>
       <c r="J123">
         <v>2.0499999999999998</v>
       </c>
       <c r="K123">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5499,7 +5499,7 @@
         <v>133</v>
       </c>
       <c r="B124">
-        <v>12.22</v>
+        <v>12.38</v>
       </c>
       <c r="C124" s="2">
         <v>1200</v>
@@ -5511,7 +5511,7 @@
         <v>1686.2</v>
       </c>
       <c r="F124" s="2">
-        <v>14664</v>
+        <v>14856</v>
       </c>
       <c r="G124">
         <v>0.16</v>
@@ -5520,13 +5520,13 @@
         <v>0.81</v>
       </c>
       <c r="I124">
-        <v>15.087</v>
+        <v>15.285</v>
       </c>
       <c r="J124">
         <v>1.4</v>
       </c>
       <c r="K124">
-        <v>8.69</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
         <v>134</v>
       </c>
       <c r="B125">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -5546,7 +5546,7 @@
         <v>240.19</v>
       </c>
       <c r="F125" s="2">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="G125">
         <v>0.01</v>
@@ -5555,13 +5555,13 @@
         <v>1.23</v>
       </c>
       <c r="I125">
-        <v>27.652999999999999</v>
+        <v>30.093</v>
       </c>
       <c r="J125">
         <v>12</v>
       </c>
       <c r="K125">
-        <v>2.83</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5569,7 +5569,7 @@
         <v>135</v>
       </c>
       <c r="B126">
-        <v>6.97</v>
+        <v>7.11</v>
       </c>
       <c r="C126">
         <v>350</v>
@@ -5581,7 +5581,7 @@
         <v>474.37</v>
       </c>
       <c r="F126" s="2">
-        <v>2439.5</v>
+        <v>2488.5</v>
       </c>
       <c r="G126">
         <v>0.03</v>
@@ -5590,13 +5590,13 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="I126">
-        <v>58.811</v>
+        <v>59.991999999999997</v>
       </c>
       <c r="J126">
         <v>1.35</v>
       </c>
       <c r="K126">
-        <v>5.14</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5604,7 +5604,7 @@
         <v>136</v>
       </c>
       <c r="B127">
-        <v>29.45</v>
+        <v>30.8</v>
       </c>
       <c r="C127">
         <v>115.5</v>
@@ -5616,7 +5616,7 @@
         <v>400.6</v>
       </c>
       <c r="F127" s="2">
-        <v>3401.48</v>
+        <v>3557.4</v>
       </c>
       <c r="G127">
         <v>0.04</v>
@@ -5625,13 +5625,13 @@
         <v>0.64</v>
       </c>
       <c r="I127">
-        <v>45.984000000000002</v>
+        <v>48.091999999999999</v>
       </c>
       <c r="J127">
         <v>3.46</v>
       </c>
       <c r="K127">
-        <v>8.49</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
         <v>137</v>
       </c>
       <c r="B128">
-        <v>18.8</v>
+        <v>19.18</v>
       </c>
       <c r="C128" s="2">
         <v>114.76600000000001</v>
@@ -5651,7 +5651,7 @@
         <v>32</v>
       </c>
       <c r="F128" s="2">
-        <v>2157.6</v>
+        <v>2201.21</v>
       </c>
       <c r="G128">
         <v>0.02</v>
@@ -5683,22 +5683,22 @@
         <v>5763.23</v>
       </c>
       <c r="F129" s="2">
-        <v>35506.959999999999</v>
+        <v>36618.9</v>
       </c>
       <c r="G129">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="H129">
         <v>0.82099999999999995</v>
       </c>
       <c r="I129">
-        <v>18.856999999999999</v>
+        <v>19.454000000000001</v>
       </c>
       <c r="J129">
         <v>2.76</v>
       </c>
       <c r="K129">
-        <v>6.16</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5706,7 +5706,7 @@
         <v>139</v>
       </c>
       <c r="B130">
-        <v>7.68</v>
+        <v>7.83</v>
       </c>
       <c r="C130">
         <v>900</v>
@@ -5718,7 +5718,7 @@
         <v>1352.04</v>
       </c>
       <c r="F130" s="2">
-        <v>6912</v>
+        <v>7047</v>
       </c>
       <c r="G130">
         <v>0.08</v>
@@ -5727,13 +5727,13 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="I130">
-        <v>14.419</v>
+        <v>14.701000000000001</v>
       </c>
       <c r="J130">
         <v>1.5</v>
       </c>
       <c r="K130">
-        <v>5.1100000000000003</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5741,7 +5741,7 @@
         <v>140</v>
       </c>
       <c r="B131">
-        <v>15.64</v>
+        <v>16.54</v>
       </c>
       <c r="C131">
         <v>45</v>
@@ -5753,7 +5753,7 @@
         <v>690.64</v>
       </c>
       <c r="F131">
-        <v>703.8</v>
+        <v>744.3</v>
       </c>
       <c r="G131">
         <v>0.01</v>
@@ -5762,13 +5762,13 @@
         <v>0.54</v>
       </c>
       <c r="I131">
-        <v>28.962</v>
+        <v>30.629000000000001</v>
       </c>
       <c r="J131">
         <v>15.34</v>
       </c>
       <c r="K131">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>141</v>
       </c>
       <c r="B132">
-        <v>14.56</v>
+        <v>15.38</v>
       </c>
       <c r="C132">
         <v>31.5</v>
@@ -5788,7 +5788,7 @@
         <v>261.01</v>
       </c>
       <c r="F132">
-        <v>458.64</v>
+        <v>484.47</v>
       </c>
       <c r="G132">
         <v>0.01</v>
@@ -5803,7 +5803,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5811,7 +5811,7 @@
         <v>142</v>
       </c>
       <c r="B133">
-        <v>35</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C133" s="2">
         <v>6.5</v>
@@ -5823,7 +5823,7 @@
         <v>20.41</v>
       </c>
       <c r="F133" s="2">
-        <v>227.5</v>
+        <v>239.2</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -5838,7 +5838,7 @@
         <v>3.14</v>
       </c>
       <c r="K133">
-        <v>11.14</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5846,7 +5846,7 @@
         <v>143</v>
       </c>
       <c r="B134">
-        <v>5.71</v>
+        <v>5.82</v>
       </c>
       <c r="C134" s="2">
         <v>1143</v>
@@ -5858,7 +5858,7 @@
         <v>1357.23</v>
       </c>
       <c r="F134" s="2">
-        <v>6526.53</v>
+        <v>6652.26</v>
       </c>
       <c r="G134">
         <v>7.0000000000000007E-2</v>
@@ -5867,13 +5867,13 @@
         <v>0.25</v>
       </c>
       <c r="I134">
-        <v>22.866</v>
+        <v>23.306000000000001</v>
       </c>
       <c r="J134">
         <v>1.18</v>
       </c>
       <c r="K134">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
         <v>144</v>
       </c>
       <c r="B135">
-        <v>65.900000000000006</v>
+        <v>68.8</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -5893,22 +5893,22 @@
         <v>1050</v>
       </c>
       <c r="F135" s="2">
-        <v>3954</v>
+        <v>4128</v>
       </c>
       <c r="G135">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H135">
         <v>3.41</v>
       </c>
       <c r="I135">
-        <v>19.324999999999999</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="J135">
         <v>17.5</v>
       </c>
       <c r="K135">
-        <v>3.76</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
         <v>145</v>
       </c>
       <c r="B136">
-        <v>75</v>
+        <v>77.3</v>
       </c>
       <c r="C136">
         <v>85</v>
@@ -5928,7 +5928,7 @@
         <v>1496.75</v>
       </c>
       <c r="F136" s="2">
-        <v>6375</v>
+        <v>6570.5</v>
       </c>
       <c r="G136">
         <v>7.0000000000000007E-2</v>
@@ -5937,13 +5937,13 @@
         <v>4.47</v>
       </c>
       <c r="I136">
-        <v>16.777999999999999</v>
+        <v>17.292999999999999</v>
       </c>
       <c r="J136">
         <v>17.600000000000001</v>
       </c>
       <c r="K136">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>146</v>
       </c>
       <c r="B137">
-        <v>125.8</v>
+        <v>126.4</v>
       </c>
       <c r="C137" s="2">
         <v>130</v>
@@ -5963,7 +5963,7 @@
         <v>2449.1</v>
       </c>
       <c r="F137" s="2">
-        <v>16354</v>
+        <v>16432</v>
       </c>
       <c r="G137">
         <v>0.18</v>
@@ -5972,13 +5972,13 @@
         <v>6.4850000000000003</v>
       </c>
       <c r="I137">
-        <v>19.399000000000001</v>
+        <v>19.492000000000001</v>
       </c>
       <c r="J137">
         <v>18.829999999999998</v>
       </c>
       <c r="K137">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5995,22 +5995,22 @@
         <v>8677.18</v>
       </c>
       <c r="F138" s="2">
-        <v>41511.47</v>
+        <v>42297.73</v>
       </c>
       <c r="G138">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="H138">
         <v>0.91500000000000004</v>
       </c>
       <c r="I138">
-        <v>18.417999999999999</v>
+        <v>18.756</v>
       </c>
       <c r="J138">
         <v>3.61</v>
       </c>
       <c r="K138">
-        <v>4.78</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6018,7 +6018,7 @@
         <v>148</v>
       </c>
       <c r="B139">
-        <v>26.65</v>
+        <v>27.6</v>
       </c>
       <c r="C139">
         <v>300</v>
@@ -6030,7 +6030,7 @@
         <v>4798.75</v>
       </c>
       <c r="F139" s="2">
-        <v>7995</v>
+        <v>8280</v>
       </c>
       <c r="G139">
         <v>0.09</v>
@@ -6039,13 +6039,13 @@
         <v>32.716000000000001</v>
       </c>
       <c r="I139">
-        <v>0.81399999999999995</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="J139">
         <v>15.99</v>
       </c>
       <c r="K139">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6053,7 +6053,7 @@
         <v>149</v>
       </c>
       <c r="B140">
-        <v>26.8</v>
+        <v>28.05</v>
       </c>
       <c r="C140">
         <v>23.151</v>
@@ -6065,7 +6065,7 @@
         <v>243.46</v>
       </c>
       <c r="F140" s="2">
-        <v>620.45000000000005</v>
+        <v>649.39</v>
       </c>
       <c r="G140">
         <v>0.01</v>
@@ -6080,7 +6080,7 @@
         <v>10.51</v>
       </c>
       <c r="K140">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6088,7 +6088,7 @@
         <v>150</v>
       </c>
       <c r="B141">
-        <v>264.60000000000002</v>
+        <v>272</v>
       </c>
       <c r="C141" s="2">
         <v>32.5</v>
@@ -6100,22 +6100,22 @@
         <v>1649.77</v>
       </c>
       <c r="F141" s="2">
-        <v>8599.5</v>
+        <v>8840</v>
       </c>
       <c r="G141">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H141">
         <v>14.863</v>
       </c>
       <c r="I141">
-        <v>17.802</v>
+        <v>18.3</v>
       </c>
       <c r="J141">
         <v>50.76</v>
       </c>
       <c r="K141">
-        <v>5.21</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6123,7 +6123,7 @@
         <v>151</v>
       </c>
       <c r="B142">
-        <v>50.1</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2">
         <v>1000</v>
@@ -6135,22 +6135,22 @@
         <v>19703.05</v>
       </c>
       <c r="F142" s="2">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="G142">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H142">
         <v>2.3519999999999999</v>
       </c>
       <c r="I142">
-        <v>21.3</v>
+        <v>21.683</v>
       </c>
       <c r="J142">
         <v>19.7</v>
       </c>
       <c r="K142">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6158,7 +6158,7 @@
         <v>152</v>
       </c>
       <c r="B143">
-        <v>90.6</v>
+        <v>95.1</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -6170,7 +6170,7 @@
         <v>700.9</v>
       </c>
       <c r="F143" s="2">
-        <v>1812</v>
+        <v>1902</v>
       </c>
       <c r="G143">
         <v>0.02</v>
@@ -6179,13 +6179,13 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I143">
-        <v>19.317</v>
+        <v>20.277000000000001</v>
       </c>
       <c r="J143">
         <v>35.04</v>
       </c>
       <c r="K143">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6193,7 +6193,7 @@
         <v>153</v>
       </c>
       <c r="B144">
-        <v>51.5</v>
+        <v>52.8</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -6205,7 +6205,7 @@
         <v>277.77999999999997</v>
       </c>
       <c r="F144" s="2">
-        <v>1030</v>
+        <v>1056</v>
       </c>
       <c r="G144">
         <v>0.01</v>
@@ -6214,13 +6214,13 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="I144">
-        <v>39.478000000000002</v>
+        <v>40.475000000000001</v>
       </c>
       <c r="J144">
         <v>13.88</v>
       </c>
       <c r="K144">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6228,7 +6228,7 @@
         <v>154</v>
       </c>
       <c r="B145">
-        <v>51.2</v>
+        <v>53.6</v>
       </c>
       <c r="C145">
         <v>55.5</v>
@@ -6240,7 +6240,7 @@
         <v>951.96</v>
       </c>
       <c r="F145" s="2">
-        <v>2841.6</v>
+        <v>2974.8</v>
       </c>
       <c r="G145">
         <v>0.03</v>
@@ -6249,13 +6249,13 @@
         <v>4.556</v>
       </c>
       <c r="I145">
-        <v>11.238</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="J145">
         <v>17.149999999999999</v>
       </c>
       <c r="K145">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6263,7 +6263,7 @@
         <v>155</v>
       </c>
       <c r="B146">
-        <v>30.1</v>
+        <v>31.45</v>
       </c>
       <c r="C146">
         <v>81.831999999999994</v>
@@ -6275,7 +6275,7 @@
         <v>328.2</v>
       </c>
       <c r="F146" s="2">
-        <v>2463.14</v>
+        <v>2573.62</v>
       </c>
       <c r="G146">
         <v>0.03</v>
@@ -6284,13 +6284,13 @@
         <v>2.5579999999999998</v>
       </c>
       <c r="I146">
-        <v>11.766</v>
+        <v>12.294</v>
       </c>
       <c r="J146">
         <v>4.01</v>
       </c>
       <c r="K146">
-        <v>7.5</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6298,7 +6298,7 @@
         <v>156</v>
       </c>
       <c r="B147">
-        <v>39.299999999999997</v>
+        <v>40</v>
       </c>
       <c r="C147">
         <v>51.314999999999998</v>
@@ -6310,7 +6310,7 @@
         <v>1099.18</v>
       </c>
       <c r="F147" s="2">
-        <v>2016.68</v>
+        <v>2052.6</v>
       </c>
       <c r="G147">
         <v>0.02</v>
@@ -6319,13 +6319,13 @@
         <v>4.33</v>
       </c>
       <c r="I147">
-        <v>9.0760000000000005</v>
+        <v>9.2379999999999995</v>
       </c>
       <c r="J147">
         <v>21.42</v>
       </c>
       <c r="K147">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6333,7 +6333,7 @@
         <v>157</v>
       </c>
       <c r="B148">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="C148">
         <v>540</v>
@@ -6345,7 +6345,7 @@
         <v>706.75</v>
       </c>
       <c r="F148" s="2">
-        <v>1960.2</v>
+        <v>1998</v>
       </c>
       <c r="G148">
         <v>0.02</v>
@@ -6354,13 +6354,13 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I148">
-        <v>11.196999999999999</v>
+        <v>11.413</v>
       </c>
       <c r="J148">
         <v>1.3</v>
       </c>
       <c r="K148">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>158</v>
       </c>
       <c r="B149">
-        <v>41.5</v>
+        <v>43.1</v>
       </c>
       <c r="C149">
         <v>30</v>
@@ -6380,7 +6380,7 @@
         <v>481.8</v>
       </c>
       <c r="F149" s="2">
-        <v>1245</v>
+        <v>1293</v>
       </c>
       <c r="G149">
         <v>0.01</v>
@@ -6389,13 +6389,13 @@
         <v>0.876</v>
       </c>
       <c r="I149">
-        <v>47.374000000000002</v>
+        <v>49.2</v>
       </c>
       <c r="J149">
         <v>16.059999999999999</v>
       </c>
       <c r="K149">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6403,7 +6403,7 @@
         <v>159</v>
       </c>
       <c r="B150">
-        <v>9.98</v>
+        <v>10.46</v>
       </c>
       <c r="C150">
         <v>126.38800000000001</v>
@@ -6415,7 +6415,7 @@
         <v>1184.5</v>
       </c>
       <c r="F150" s="2">
-        <v>1261.3499999999999</v>
+        <v>1322.02</v>
       </c>
       <c r="G150">
         <v>0.01</v>
@@ -6424,13 +6424,13 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I150">
-        <v>170.452</v>
+        <v>178.65100000000001</v>
       </c>
       <c r="J150">
         <v>9.3699999999999992</v>
       </c>
       <c r="K150">
-        <v>1.06</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6438,7 +6438,7 @@
         <v>160</v>
       </c>
       <c r="B151">
-        <v>39.450000000000003</v>
+        <v>40.9</v>
       </c>
       <c r="C151">
         <v>35.356999999999999</v>
@@ -6450,7 +6450,7 @@
         <v>301.48</v>
       </c>
       <c r="F151" s="2">
-        <v>1394.83</v>
+        <v>1446.1</v>
       </c>
       <c r="G151">
         <v>0.02</v>
@@ -6459,13 +6459,13 @@
         <v>1.718</v>
       </c>
       <c r="I151">
-        <v>22.966999999999999</v>
+        <v>23.811</v>
       </c>
       <c r="J151">
         <v>8.52</v>
       </c>
       <c r="K151">
-        <v>4.62</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>161</v>
       </c>
       <c r="B152">
-        <v>19.78</v>
+        <v>20.48</v>
       </c>
       <c r="C152">
         <v>301.64</v>
@@ -6485,7 +6485,7 @@
         <v>4400.12</v>
       </c>
       <c r="F152" s="2">
-        <v>5966.44</v>
+        <v>6177.59</v>
       </c>
       <c r="G152">
         <v>7.0000000000000007E-2</v>
@@ -6494,13 +6494,13 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="I152">
-        <v>7.681</v>
+        <v>7.9530000000000003</v>
       </c>
       <c r="J152">
         <v>14.58</v>
       </c>
       <c r="K152">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
         <v>162</v>
       </c>
       <c r="B153">
-        <v>15.84</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C153">
         <v>30</v>
@@ -6520,7 +6520,7 @@
         <v>303.17</v>
       </c>
       <c r="F153">
-        <v>475.2</v>
+        <v>498</v>
       </c>
       <c r="G153">
         <v>0.01</v>
@@ -6529,13 +6529,13 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I153">
-        <v>55.84</v>
+        <v>58.518999999999998</v>
       </c>
       <c r="J153">
         <v>10.1</v>
       </c>
       <c r="K153">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6543,7 +6543,7 @@
         <v>163</v>
       </c>
       <c r="B154">
-        <v>10.199999999999999</v>
+        <v>10.52</v>
       </c>
       <c r="C154">
         <v>39.176000000000002</v>
@@ -6555,7 +6555,7 @@
         <v>172.43</v>
       </c>
       <c r="F154">
-        <v>399.6</v>
+        <v>412.13</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -6570,7 +6570,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K154">
-        <v>2.31</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6578,7 +6578,7 @@
         <v>164</v>
       </c>
       <c r="B155">
-        <v>92.6</v>
+        <v>96.5</v>
       </c>
       <c r="C155">
         <v>6.6980000000000004</v>
@@ -6590,7 +6590,7 @@
         <v>74.41</v>
       </c>
       <c r="F155">
-        <v>620.23</v>
+        <v>646.36</v>
       </c>
       <c r="G155">
         <v>0.01</v>
@@ -6605,7 +6605,7 @@
         <v>11.1</v>
       </c>
       <c r="K155">
-        <v>8.33</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6613,7 +6613,7 @@
         <v>165</v>
       </c>
       <c r="B156">
-        <v>14.96</v>
+        <v>15.72</v>
       </c>
       <c r="C156">
         <v>30</v>
@@ -6625,10 +6625,10 @@
         <v>352.65</v>
       </c>
       <c r="F156" s="2">
-        <v>448.8</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
+        <v>471.6</v>
+      </c>
+      <c r="G156">
+        <v>0.01</v>
       </c>
       <c r="H156">
         <v>-0.36699999999999999</v>
@@ -6640,7 +6640,7 @@
         <v>11.75</v>
       </c>
       <c r="K156">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>166</v>
       </c>
       <c r="B157">
-        <v>41.5</v>
+        <v>42.85</v>
       </c>
       <c r="C157">
         <v>30</v>
@@ -6660,7 +6660,7 @@
         <v>774.6</v>
       </c>
       <c r="F157" s="2">
-        <v>1245</v>
+        <v>1285.5</v>
       </c>
       <c r="G157">
         <v>0.01</v>
@@ -6669,13 +6669,13 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="I157">
-        <v>16.16</v>
+        <v>16.686</v>
       </c>
       <c r="J157">
         <v>25.82</v>
       </c>
       <c r="K157">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6683,7 +6683,7 @@
         <v>167</v>
       </c>
       <c r="B158">
-        <v>10.4</v>
+        <v>10.76</v>
       </c>
       <c r="C158" s="2">
         <v>50</v>
@@ -6695,7 +6695,7 @@
         <v>319.25</v>
       </c>
       <c r="F158" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="G158">
         <v>0.01</v>
@@ -6710,7 +6710,7 @@
         <v>6.38</v>
       </c>
       <c r="K158">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -6727,22 +6727,22 @@
         <v>38824.21</v>
       </c>
       <c r="F159" s="2">
-        <v>93015.02</v>
+        <v>95416.71</v>
       </c>
       <c r="G159">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="H159">
         <v>5.1230000000000002</v>
       </c>
       <c r="I159">
-        <v>6.1980000000000004</v>
+        <v>6.3550000000000004</v>
       </c>
       <c r="J159">
         <v>13.85</v>
       </c>
       <c r="K159">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6750,7 +6750,7 @@
         <v>169</v>
       </c>
       <c r="B160">
-        <v>142.80000000000001</v>
+        <v>147.4</v>
       </c>
       <c r="C160">
         <v>25</v>
@@ -6762,7 +6762,7 @@
         <v>588.99</v>
       </c>
       <c r="F160" s="2">
-        <v>3570</v>
+        <v>3685</v>
       </c>
       <c r="G160">
         <v>0.04</v>
@@ -6771,13 +6771,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I160">
-        <v>16.695</v>
+        <v>17.233000000000001</v>
       </c>
       <c r="J160">
         <v>23.55</v>
       </c>
       <c r="K160">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6794,7 +6794,7 @@
         <v>588.99</v>
       </c>
       <c r="F161" s="2">
-        <v>3570</v>
+        <v>3685</v>
       </c>
       <c r="G161">
         <v>0.04</v>
@@ -6803,13 +6803,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I161">
-        <v>16.696000000000002</v>
+        <v>17.233000000000001</v>
       </c>
       <c r="J161">
         <v>23.56</v>
       </c>
       <c r="K161">
-        <v>6.06</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6817,7 +6817,7 @@
         <v>171</v>
       </c>
       <c r="B162">
-        <v>12.26</v>
+        <v>12.68</v>
       </c>
       <c r="C162">
         <v>100.636</v>
@@ -6829,7 +6829,7 @@
         <v>974.23</v>
       </c>
       <c r="F162" s="2">
-        <v>1233.8</v>
+        <v>1276.06</v>
       </c>
       <c r="G162">
         <v>0.01</v>
@@ -6838,13 +6838,13 @@
         <v>2.5630000000000002</v>
       </c>
       <c r="I162">
-        <v>4.7830000000000004</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="J162">
         <v>9.68</v>
       </c>
       <c r="K162">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6852,7 +6852,7 @@
         <v>172</v>
       </c>
       <c r="B163">
-        <v>6.4</v>
+        <v>6.72</v>
       </c>
       <c r="C163">
         <v>843.2</v>
@@ -6864,7 +6864,7 @@
         <v>2173.27</v>
       </c>
       <c r="F163" s="2">
-        <v>5396.48</v>
+        <v>5666.3</v>
       </c>
       <c r="G163">
         <v>0.06</v>
@@ -6873,13 +6873,13 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="I163">
-        <v>19.274999999999999</v>
+        <v>20.239000000000001</v>
       </c>
       <c r="J163">
         <v>2.57</v>
       </c>
       <c r="K163">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6887,7 +6887,7 @@
         <v>173</v>
       </c>
       <c r="B164">
-        <v>71.099999999999994</v>
+        <v>73</v>
       </c>
       <c r="C164">
         <v>200</v>
@@ -6899,7 +6899,7 @@
         <v>3765.39</v>
       </c>
       <c r="F164" s="2">
-        <v>14220</v>
+        <v>14600</v>
       </c>
       <c r="G164">
         <v>0.16</v>
@@ -6908,13 +6908,13 @@
         <v>3.3340000000000001</v>
       </c>
       <c r="I164">
-        <v>21.327000000000002</v>
+        <v>21.896999999999998</v>
       </c>
       <c r="J164">
         <v>18.82</v>
       </c>
       <c r="K164">
-        <v>3.77</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6922,7 +6922,7 @@
         <v>174</v>
       </c>
       <c r="B165">
-        <v>116.2</v>
+        <v>120.8</v>
       </c>
       <c r="C165">
         <v>101.574</v>
@@ -6934,22 +6934,22 @@
         <v>4060.93</v>
       </c>
       <c r="F165" s="2">
-        <v>11802.9</v>
+        <v>12270.14</v>
       </c>
       <c r="G165">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H165">
         <v>4.9960000000000004</v>
       </c>
       <c r="I165">
-        <v>23.257999999999999</v>
+        <v>24.178999999999998</v>
       </c>
       <c r="J165">
         <v>39.979999999999997</v>
       </c>
       <c r="K165">
-        <v>2.9</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6957,7 +6957,7 @@
         <v>175</v>
       </c>
       <c r="B166">
-        <v>154.4</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="C166">
         <v>44.85</v>
@@ -6969,7 +6969,7 @@
         <v>1714.87</v>
       </c>
       <c r="F166" s="2">
-        <v>6924.84</v>
+        <v>7050.42</v>
       </c>
       <c r="G166">
         <v>0.08</v>
@@ -6978,13 +6978,13 @@
         <v>6.7389999999999999</v>
       </c>
       <c r="I166">
-        <v>22.911000000000001</v>
+        <v>23.327000000000002</v>
       </c>
       <c r="J166">
         <v>38.229999999999997</v>
       </c>
       <c r="K166">
-        <v>4.03</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
         <v>176</v>
       </c>
       <c r="B167">
-        <v>36.549999999999997</v>
+        <v>37.65</v>
       </c>
       <c r="C167">
         <v>160</v>
@@ -7004,22 +7004,22 @@
         <v>1980.5</v>
       </c>
       <c r="F167" s="2">
-        <v>5848</v>
+        <v>6024</v>
       </c>
       <c r="G167">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H167">
         <v>2.1789999999999998</v>
       </c>
       <c r="I167">
-        <v>16.771000000000001</v>
+        <v>17.276</v>
       </c>
       <c r="J167">
         <v>12.37</v>
       </c>
       <c r="K167">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7027,7 +7027,7 @@
         <v>177</v>
       </c>
       <c r="B168">
-        <v>50.8</v>
+        <v>55.4</v>
       </c>
       <c r="C168">
         <v>92.04</v>
@@ -7039,22 +7039,22 @@
         <v>1786.2</v>
       </c>
       <c r="F168" s="2">
-        <v>4675.63</v>
+        <v>5099.0200000000004</v>
       </c>
       <c r="G168">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H168">
         <v>4.2389999999999999</v>
       </c>
       <c r="I168">
-        <v>11.983000000000001</v>
+        <v>13.068</v>
       </c>
       <c r="J168">
         <v>19.399999999999999</v>
       </c>
       <c r="K168">
-        <v>2.61</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7062,7 +7062,7 @@
         <v>178</v>
       </c>
       <c r="B169">
-        <v>250.8</v>
+        <v>265</v>
       </c>
       <c r="C169">
         <v>350</v>
@@ -7074,22 +7074,22 @@
         <v>7291.14</v>
       </c>
       <c r="F169" s="2">
-        <v>87780</v>
+        <v>92750</v>
       </c>
       <c r="G169">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="H169">
         <v>6.6319999999999997</v>
       </c>
       <c r="I169">
-        <v>37.814</v>
+        <v>39.954999999999998</v>
       </c>
       <c r="J169">
         <v>20.83</v>
       </c>
       <c r="K169">
-        <v>12.03</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7097,7 +7097,7 @@
         <v>179</v>
       </c>
       <c r="B170">
-        <v>34.549999999999997</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="C170">
         <v>30</v>
@@ -7109,7 +7109,7 @@
         <v>512.29999999999995</v>
       </c>
       <c r="F170" s="2">
-        <v>1036.5</v>
+        <v>1096.5</v>
       </c>
       <c r="G170">
         <v>0.01</v>
@@ -7118,13 +7118,13 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="I170">
-        <v>40.488</v>
+        <v>42.832000000000001</v>
       </c>
       <c r="J170">
         <v>17.07</v>
       </c>
       <c r="K170">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
         <v>180</v>
       </c>
       <c r="B171">
-        <v>39.25</v>
+        <v>41.45</v>
       </c>
       <c r="C171">
         <v>232</v>
@@ -7144,22 +7144,22 @@
         <v>3019.85</v>
       </c>
       <c r="F171" s="2">
-        <v>9106</v>
+        <v>9616.4</v>
       </c>
       <c r="G171">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H171">
         <v>1.165</v>
       </c>
       <c r="I171">
-        <v>33.686</v>
+        <v>35.573999999999998</v>
       </c>
       <c r="J171">
         <v>13.01</v>
       </c>
       <c r="K171">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>181</v>
       </c>
       <c r="B172">
-        <v>156</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="C172" s="2">
         <v>44.302999999999997</v>
@@ -7179,7 +7179,7 @@
         <v>1910.4</v>
       </c>
       <c r="F172" s="2">
-        <v>6911.27</v>
+        <v>7008.73</v>
       </c>
       <c r="G172">
         <v>0.08</v>
@@ -7188,13 +7188,13 @@
         <v>2.9740000000000002</v>
       </c>
       <c r="I172">
-        <v>52.448999999999998</v>
+        <v>53.189</v>
       </c>
       <c r="J172">
         <v>43.12</v>
       </c>
       <c r="K172">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7211,22 +7211,22 @@
         <v>29189.08</v>
       </c>
       <c r="F173" s="2">
-        <v>154935.42000000001</v>
+        <v>162457.57</v>
       </c>
       <c r="G173">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="H173">
         <v>2.5030000000000001</v>
       </c>
       <c r="I173">
-        <v>28.158999999999999</v>
+        <v>29.526</v>
       </c>
       <c r="J173">
         <v>13.28</v>
       </c>
       <c r="K173">
-        <v>5.31</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7234,7 +7234,7 @@
         <v>183</v>
       </c>
       <c r="B174">
-        <v>23.78</v>
+        <v>24.7</v>
       </c>
       <c r="C174">
         <v>120</v>
@@ -7246,7 +7246,7 @@
         <v>1459.4</v>
       </c>
       <c r="F174" s="2">
-        <v>2853.6</v>
+        <v>2964</v>
       </c>
       <c r="G174">
         <v>0.03</v>
@@ -7255,13 +7255,13 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="I174">
-        <v>42.527000000000001</v>
+        <v>44.171999999999997</v>
       </c>
       <c r="J174">
         <v>12.16</v>
       </c>
       <c r="K174">
-        <v>1.95</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7269,7 +7269,7 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>164.2</v>
+        <v>170.4</v>
       </c>
       <c r="C175">
         <v>70</v>
@@ -7281,7 +7281,7 @@
         <v>1546.52</v>
       </c>
       <c r="F175" s="2">
-        <v>11494</v>
+        <v>11928</v>
       </c>
       <c r="G175">
         <v>0.13</v>
@@ -7290,13 +7290,13 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="I175">
-        <v>27.994</v>
+        <v>29.050999999999998</v>
       </c>
       <c r="J175">
         <v>22.09</v>
       </c>
       <c r="K175">
-        <v>7.43</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7304,7 +7304,7 @@
         <v>185</v>
       </c>
       <c r="B176">
-        <v>117.2</v>
+        <v>120.6</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -7316,7 +7316,7 @@
         <v>387.61</v>
       </c>
       <c r="F176" s="2">
-        <v>2344</v>
+        <v>2412</v>
       </c>
       <c r="G176">
         <v>0.03</v>
@@ -7325,13 +7325,13 @@
         <v>4.4950000000000001</v>
       </c>
       <c r="I176">
-        <v>26.076000000000001</v>
+        <v>26.832000000000001</v>
       </c>
       <c r="J176">
         <v>19.38</v>
       </c>
       <c r="K176">
-        <v>6.04</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7348,7 +7348,7 @@
         <v>3393.53</v>
       </c>
       <c r="F177" s="2">
-        <v>16691.599999999999</v>
+        <v>17304</v>
       </c>
       <c r="G177">
         <v>0.19</v>
@@ -7357,13 +7357,13 @@
         <v>2.7029999999999998</v>
       </c>
       <c r="I177">
-        <v>29.408999999999999</v>
+        <v>30.488</v>
       </c>
       <c r="J177">
         <v>16.16</v>
       </c>
       <c r="K177">
-        <v>4.92</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7371,7 +7371,7 @@
         <v>187</v>
       </c>
       <c r="B178">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="C178" s="2">
         <v>3000</v>
@@ -7383,22 +7383,22 @@
         <v>61139.53</v>
       </c>
       <c r="F178" s="2">
-        <v>81000</v>
+        <v>83400</v>
       </c>
       <c r="G178">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="H178">
         <v>3.2450000000000001</v>
       </c>
       <c r="I178">
-        <v>8.32</v>
+        <v>8.5660000000000007</v>
       </c>
       <c r="J178">
         <v>20.37</v>
       </c>
       <c r="K178">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7406,7 +7406,7 @@
         <v>188</v>
       </c>
       <c r="B179">
-        <v>12.34</v>
+        <v>12.86</v>
       </c>
       <c r="C179" s="2">
         <v>1281.25</v>
@@ -7418,22 +7418,22 @@
         <v>13993.3</v>
       </c>
       <c r="F179" s="2">
-        <v>15810.63</v>
+        <v>16476.88</v>
       </c>
       <c r="G179">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H179">
         <v>1.008</v>
       </c>
       <c r="I179">
-        <v>12.242000000000001</v>
+        <v>12.757</v>
       </c>
       <c r="J179">
         <v>10.92</v>
       </c>
       <c r="K179">
-        <v>1.1200000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7441,7 +7441,7 @@
         <v>189</v>
       </c>
       <c r="B180">
-        <v>14.1</v>
+        <v>14.42</v>
       </c>
       <c r="C180" s="2">
         <v>1250</v>
@@ -7453,22 +7453,22 @@
         <v>15530.02</v>
       </c>
       <c r="F180" s="2">
-        <v>17625</v>
+        <v>18025</v>
       </c>
       <c r="G180">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H180">
         <v>1.6140000000000001</v>
       </c>
       <c r="I180">
-        <v>8.7360000000000007</v>
+        <v>8.9339999999999993</v>
       </c>
       <c r="J180">
         <v>12.42</v>
       </c>
       <c r="K180">
-        <v>1.1299999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
         <v>190</v>
       </c>
       <c r="B181">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="C181" s="2">
         <v>2500</v>
@@ -7488,22 +7488,22 @@
         <v>40429.949999999997</v>
       </c>
       <c r="F181" s="2">
-        <v>42000</v>
+        <v>43250</v>
       </c>
       <c r="G181">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="H181">
         <v>1.893</v>
       </c>
       <c r="I181">
-        <v>8.875</v>
+        <v>9.1389999999999993</v>
       </c>
       <c r="J181">
         <v>16.170000000000002</v>
       </c>
       <c r="K181">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7511,7 +7511,7 @@
         <v>191</v>
       </c>
       <c r="B182">
-        <v>31.6</v>
+        <v>32.6</v>
       </c>
       <c r="C182" s="2">
         <v>2054.7939999999999</v>
@@ -7523,22 +7523,22 @@
         <v>63783.8</v>
       </c>
       <c r="F182" s="2">
-        <v>64931.49</v>
+        <v>66986.28</v>
       </c>
       <c r="G182">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="H182">
         <v>3.972</v>
       </c>
       <c r="I182">
-        <v>7.9550000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="J182">
         <v>31.04</v>
       </c>
       <c r="K182">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7546,7 +7546,7 @@
         <v>192</v>
       </c>
       <c r="B183">
-        <v>20.74</v>
+        <v>21.4</v>
       </c>
       <c r="C183" s="2">
         <v>2000</v>
@@ -7558,22 +7558,22 @@
         <v>38480.25</v>
       </c>
       <c r="F183" s="2">
-        <v>41480</v>
+        <v>42800</v>
       </c>
       <c r="G183">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="H183">
         <v>2.5179999999999998</v>
       </c>
       <c r="I183">
-        <v>8.2379999999999995</v>
+        <v>8.5</v>
       </c>
       <c r="J183">
         <v>19.239999999999998</v>
       </c>
       <c r="K183">
-        <v>1.07</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7581,7 +7581,7 @@
         <v>193</v>
       </c>
       <c r="B184">
-        <v>91.5</v>
+        <v>94.1</v>
       </c>
       <c r="C184" s="2">
         <v>4000</v>
@@ -7593,22 +7593,22 @@
         <v>105033.22</v>
       </c>
       <c r="F184" s="2">
-        <v>366000</v>
+        <v>376400</v>
       </c>
       <c r="G184">
-        <v>4.04</v>
+        <v>4.16</v>
       </c>
       <c r="H184">
         <v>5.306</v>
       </c>
       <c r="I184">
-        <v>17.245000000000001</v>
+        <v>17.734999999999999</v>
       </c>
       <c r="J184">
         <v>26.25</v>
       </c>
       <c r="K184">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7616,7 +7616,7 @@
         <v>194</v>
       </c>
       <c r="B185">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="C185" s="2">
         <v>1500</v>
@@ -7628,22 +7628,22 @@
         <v>17592.099999999999</v>
       </c>
       <c r="F185" s="2">
-        <v>37200</v>
+        <v>39000</v>
       </c>
       <c r="G185">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="H185">
         <v>1.909</v>
       </c>
       <c r="I185">
-        <v>12.989000000000001</v>
+        <v>13.618</v>
       </c>
       <c r="J185">
         <v>11.72</v>
       </c>
       <c r="K185">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>195</v>
       </c>
       <c r="B186">
-        <v>25.5</v>
+        <v>26.8</v>
       </c>
       <c r="C186" s="2">
         <v>2500</v>
@@ -7663,22 +7663,22 @@
         <v>34201.360000000001</v>
       </c>
       <c r="F186" s="2">
-        <v>63750</v>
+        <v>67000</v>
       </c>
       <c r="G186">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="H186">
         <v>2.41</v>
       </c>
       <c r="I186">
-        <v>10.58</v>
+        <v>11.12</v>
       </c>
       <c r="J186">
         <v>13.68</v>
       </c>
       <c r="K186">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7686,7 +7686,7 @@
         <v>196</v>
       </c>
       <c r="B187">
-        <v>34.200000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C187" s="2">
         <v>6000</v>
@@ -7698,22 +7698,22 @@
         <v>172291.56</v>
       </c>
       <c r="F187" s="2">
-        <v>205200</v>
+        <v>211800</v>
       </c>
       <c r="G187">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="H187">
         <v>3.6960000000000002</v>
       </c>
       <c r="I187">
-        <v>9.2530000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="J187">
         <v>28.71</v>
       </c>
       <c r="K187">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7730,22 +7730,22 @@
         <v>562475.09</v>
       </c>
       <c r="F188" s="2">
-        <v>934997.12</v>
+        <v>965138.16</v>
       </c>
       <c r="G188">
-        <v>10.31</v>
+        <v>10.66</v>
       </c>
       <c r="H188">
         <v>3.1920000000000002</v>
       </c>
       <c r="I188">
-        <v>11.23</v>
+        <v>11.592000000000001</v>
       </c>
       <c r="J188">
         <v>21.56</v>
       </c>
       <c r="K188">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7753,7 +7753,7 @@
         <v>198</v>
       </c>
       <c r="B189">
-        <v>162.80000000000001</v>
+        <v>172.4</v>
       </c>
       <c r="C189">
         <v>120</v>
@@ -7765,22 +7765,22 @@
         <v>3581.9</v>
       </c>
       <c r="F189" s="2">
-        <v>19536</v>
+        <v>20688</v>
       </c>
       <c r="G189">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H189">
         <v>4.5069999999999997</v>
       </c>
       <c r="I189">
-        <v>36.124000000000002</v>
+        <v>38.253999999999998</v>
       </c>
       <c r="J189">
         <v>29.84</v>
       </c>
       <c r="K189">
-        <v>5.45</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7788,7 +7788,7 @@
         <v>199</v>
       </c>
       <c r="B190">
-        <v>10.36</v>
+        <v>10.9</v>
       </c>
       <c r="C190">
         <v>101.925</v>
@@ -7800,7 +7800,7 @@
         <v>1231.8699999999999</v>
       </c>
       <c r="F190" s="2">
-        <v>1055.94</v>
+        <v>1110.98</v>
       </c>
       <c r="G190">
         <v>0.01</v>
@@ -7809,13 +7809,13 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="I190">
-        <v>21.28</v>
+        <v>22.388999999999999</v>
       </c>
       <c r="J190">
         <v>12.08</v>
       </c>
       <c r="K190">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7823,7 +7823,7 @@
         <v>200</v>
       </c>
       <c r="B191">
-        <v>16.32</v>
+        <v>16.82</v>
       </c>
       <c r="C191">
         <v>100</v>
@@ -7835,7 +7835,7 @@
         <v>1701.14</v>
       </c>
       <c r="F191" s="2">
-        <v>1632</v>
+        <v>1682</v>
       </c>
       <c r="G191">
         <v>0.02</v>
@@ -7844,13 +7844,13 @@
         <v>0.379</v>
       </c>
       <c r="I191">
-        <v>43.082999999999998</v>
+        <v>44.402999999999999</v>
       </c>
       <c r="J191">
         <v>17.010000000000002</v>
       </c>
       <c r="K191">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7858,7 +7858,7 @@
         <v>201</v>
       </c>
       <c r="B192">
-        <v>26.5</v>
+        <v>27.35</v>
       </c>
       <c r="C192">
         <v>60</v>
@@ -7870,7 +7870,7 @@
         <v>1235.3499999999999</v>
       </c>
       <c r="F192" s="2">
-        <v>1590</v>
+        <v>1641</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7879,13 +7879,13 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="I192">
-        <v>8.298</v>
+        <v>8.5649999999999995</v>
       </c>
       <c r="J192">
         <v>20.58</v>
       </c>
       <c r="K192">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7893,7 +7893,7 @@
         <v>202</v>
       </c>
       <c r="B193">
-        <v>12.06</v>
+        <v>12.5</v>
       </c>
       <c r="C193">
         <v>120</v>
@@ -7905,7 +7905,7 @@
         <v>1471.53</v>
       </c>
       <c r="F193" s="2">
-        <v>1447.2</v>
+        <v>1500</v>
       </c>
       <c r="G193">
         <v>0.02</v>
@@ -7914,13 +7914,13 @@
         <v>1.147</v>
       </c>
       <c r="I193">
-        <v>10.516</v>
+        <v>10.9</v>
       </c>
       <c r="J193">
         <v>12.26</v>
       </c>
       <c r="K193">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7928,7 +7928,7 @@
         <v>203</v>
       </c>
       <c r="B194">
-        <v>11.26</v>
+        <v>11.56</v>
       </c>
       <c r="C194">
         <v>71.427999999999997</v>
@@ -7940,7 +7940,7 @@
         <v>842.43</v>
       </c>
       <c r="F194" s="2">
-        <v>804.28</v>
+        <v>825.71</v>
       </c>
       <c r="G194">
         <v>0.01</v>
@@ -7949,13 +7949,13 @@
         <v>0.318</v>
       </c>
       <c r="I194">
-        <v>35.368000000000002</v>
+        <v>36.31</v>
       </c>
       <c r="J194">
         <v>11.79</v>
       </c>
       <c r="K194">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7963,7 +7963,7 @@
         <v>204</v>
       </c>
       <c r="B195">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C195">
         <v>25</v>
@@ -7975,7 +7975,7 @@
         <v>1170.45</v>
       </c>
       <c r="F195" s="2">
-        <v>3875</v>
+        <v>4000</v>
       </c>
       <c r="G195">
         <v>0.04</v>
@@ -7984,13 +7984,13 @@
         <v>9.1140000000000008</v>
       </c>
       <c r="I195">
-        <v>17.007000000000001</v>
+        <v>17.556000000000001</v>
       </c>
       <c r="J195">
         <v>46.81</v>
       </c>
       <c r="K195">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7998,7 +7998,7 @@
         <v>205</v>
       </c>
       <c r="B196">
-        <v>25.7</v>
+        <v>26.15</v>
       </c>
       <c r="C196">
         <v>249.73500000000001</v>
@@ -8010,7 +8010,7 @@
         <v>1084.1099999999999</v>
       </c>
       <c r="F196" s="2">
-        <v>6418.19</v>
+        <v>6530.57</v>
       </c>
       <c r="G196">
         <v>7.0000000000000007E-2</v>
@@ -8019,13 +8019,13 @@
         <v>1.6579999999999999</v>
       </c>
       <c r="I196">
-        <v>15.503</v>
+        <v>15.775</v>
       </c>
       <c r="J196">
         <v>4.34</v>
       </c>
       <c r="K196">
-        <v>5.92</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8033,7 +8033,7 @@
         <v>206</v>
       </c>
       <c r="B197">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="C197" s="2">
         <v>218.29499999999999</v>
@@ -8045,7 +8045,7 @@
         <v>224.38</v>
       </c>
       <c r="F197" s="2">
-        <v>720.37</v>
+        <v>759.67</v>
       </c>
       <c r="G197">
         <v>0.01</v>
@@ -8054,13 +8054,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I197">
-        <v>73.808000000000007</v>
+        <v>77.834999999999994</v>
       </c>
       <c r="J197">
         <v>1.02</v>
       </c>
       <c r="K197">
-        <v>3.21</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8068,7 +8068,7 @@
         <v>207</v>
       </c>
       <c r="B198">
-        <v>8.15</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="C198" s="2">
         <v>3705.8820000000001</v>
@@ -8080,22 +8080,22 @@
         <v>41330.67</v>
       </c>
       <c r="F198" s="2">
-        <v>30202.94</v>
+        <v>31055.29</v>
       </c>
       <c r="G198">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="H198">
         <v>0.39700000000000002</v>
       </c>
       <c r="I198">
-        <v>20.512</v>
+        <v>21.091000000000001</v>
       </c>
       <c r="J198">
         <v>11.15</v>
       </c>
       <c r="K198">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8112,22 +8112,22 @@
         <v>53873.83</v>
       </c>
       <c r="F199" s="2">
-        <v>67281.919999999998</v>
+        <v>69793.22</v>
       </c>
       <c r="G199">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="H199">
         <v>0.65</v>
       </c>
       <c r="I199">
-        <v>21.673999999999999</v>
+        <v>22.483000000000001</v>
       </c>
       <c r="J199">
         <v>11.29</v>
       </c>
       <c r="K199">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8135,7 +8135,7 @@
         <v>209</v>
       </c>
       <c r="B200">
-        <v>143.6</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="C200">
         <v>150</v>
@@ -8147,22 +8147,22 @@
         <v>4742.4799999999996</v>
       </c>
       <c r="F200" s="2">
-        <v>21540</v>
+        <v>22470</v>
       </c>
       <c r="G200">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H200">
         <v>7.2469999999999999</v>
       </c>
       <c r="I200">
-        <v>19.815000000000001</v>
+        <v>20.670999999999999</v>
       </c>
       <c r="J200">
         <v>31.61</v>
       </c>
       <c r="K200">
-        <v>4.54</v>
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8170,7 +8170,7 @@
         <v>210</v>
       </c>
       <c r="B201">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C201">
         <v>66</v>
@@ -8182,7 +8182,7 @@
         <v>994.3</v>
       </c>
       <c r="F201">
-        <v>831.6</v>
+        <v>864.6</v>
       </c>
       <c r="G201">
         <v>0.01</v>
@@ -8191,13 +8191,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I201">
-        <v>20.513000000000002</v>
+        <v>21.327000000000002</v>
       </c>
       <c r="J201">
         <v>15.06</v>
       </c>
       <c r="K201">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8205,7 +8205,7 @@
         <v>211</v>
       </c>
       <c r="B202">
-        <v>12.88</v>
+        <v>13.4</v>
       </c>
       <c r="C202">
         <v>50</v>
@@ -8217,7 +8217,7 @@
         <v>442.72</v>
       </c>
       <c r="F202" s="2">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="G202">
         <v>0.01</v>
@@ -8226,13 +8226,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="I202">
-        <v>25.423999999999999</v>
+        <v>26.45</v>
       </c>
       <c r="J202">
         <v>8.85</v>
       </c>
       <c r="K202">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8240,7 +8240,7 @@
         <v>212</v>
       </c>
       <c r="B203">
-        <v>17.16</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C203">
         <v>105</v>
@@ -8252,7 +8252,7 @@
         <v>1050.79</v>
       </c>
       <c r="F203" s="2">
-        <v>1801.8</v>
+        <v>1848</v>
       </c>
       <c r="G203">
         <v>0.02</v>
@@ -8261,13 +8261,13 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I203">
-        <v>18.891999999999999</v>
+        <v>19.376999999999999</v>
       </c>
       <c r="J203">
         <v>10</v>
       </c>
       <c r="K203">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8275,7 +8275,7 @@
         <v>213</v>
       </c>
       <c r="B204">
-        <v>14.34</v>
+        <v>15.22</v>
       </c>
       <c r="C204">
         <v>60</v>
@@ -8287,7 +8287,7 @@
         <v>819.22</v>
       </c>
       <c r="F204">
-        <v>860.4</v>
+        <v>913.2</v>
       </c>
       <c r="G204">
         <v>0.01</v>
@@ -8296,13 +8296,13 @@
         <v>0.183</v>
       </c>
       <c r="I204">
-        <v>78.36</v>
+        <v>83.168999999999997</v>
       </c>
       <c r="J204">
         <v>13.65</v>
       </c>
       <c r="K204">
-        <v>1.05</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8310,7 +8310,7 @@
         <v>214</v>
       </c>
       <c r="B205">
-        <v>12.3</v>
+        <v>13.52</v>
       </c>
       <c r="C205">
         <v>30</v>
@@ -8322,7 +8322,7 @@
         <v>317.36</v>
       </c>
       <c r="F205" s="2">
-        <v>369</v>
+        <v>405.6</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -8337,7 +8337,7 @@
         <v>10.57</v>
       </c>
       <c r="K205">
-        <v>1.1599999999999999</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8345,7 +8345,7 @@
         <v>215</v>
       </c>
       <c r="B206">
-        <v>16.04</v>
+        <v>16.7</v>
       </c>
       <c r="C206">
         <v>127.55800000000001</v>
@@ -8357,7 +8357,7 @@
         <v>1768.65</v>
       </c>
       <c r="F206" s="2">
-        <v>2046.03</v>
+        <v>2130.2199999999998</v>
       </c>
       <c r="G206">
         <v>0.02</v>
@@ -8372,7 +8372,7 @@
         <v>13.86</v>
       </c>
       <c r="K206">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>216</v>
       </c>
       <c r="B207">
-        <v>14.66</v>
+        <v>15.6</v>
       </c>
       <c r="C207">
         <v>79.814999999999998</v>
@@ -8392,7 +8392,7 @@
         <v>1666.07</v>
       </c>
       <c r="F207" s="2">
-        <v>1170.0899999999999</v>
+        <v>1245.1099999999999</v>
       </c>
       <c r="G207">
         <v>0.01</v>
@@ -8401,13 +8401,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I207">
-        <v>19.276</v>
+        <v>20.512</v>
       </c>
       <c r="J207">
         <v>20.87</v>
       </c>
       <c r="K207">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8415,7 +8415,7 @@
         <v>217</v>
       </c>
       <c r="B208">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="C208">
         <v>30</v>
@@ -8427,22 +8427,22 @@
         <v>398.59</v>
       </c>
       <c r="F208">
-        <v>438</v>
-      </c>
-      <c r="G208" t="s">
-        <v>32</v>
+        <v>459</v>
+      </c>
+      <c r="G208">
+        <v>0.01</v>
       </c>
       <c r="H208">
         <v>2.012</v>
       </c>
       <c r="I208">
-        <v>7.2560000000000002</v>
+        <v>7.6040000000000001</v>
       </c>
       <c r="J208">
         <v>13.28</v>
       </c>
       <c r="K208">
-        <v>1.0900000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8450,7 +8450,7 @@
         <v>218</v>
       </c>
       <c r="B209">
-        <v>13.62</v>
+        <v>14.08</v>
       </c>
       <c r="C209">
         <v>45.893999999999998</v>
@@ -8462,7 +8462,7 @@
         <v>591.83000000000004</v>
       </c>
       <c r="F209">
-        <v>625.08000000000004</v>
+        <v>646.19000000000005</v>
       </c>
       <c r="G209">
         <v>0.01</v>
@@ -8477,7 +8477,7 @@
         <v>12.89</v>
       </c>
       <c r="K209">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8485,7 +8485,7 @@
         <v>219</v>
       </c>
       <c r="B210">
-        <v>11.56</v>
+        <v>12.32</v>
       </c>
       <c r="C210">
         <v>29.1</v>
@@ -8497,7 +8497,7 @@
         <v>269.44</v>
       </c>
       <c r="F210">
-        <v>336.4</v>
+        <v>358.51</v>
       </c>
       <c r="G210" t="s">
         <v>32</v>
@@ -8512,7 +8512,7 @@
         <v>9.25</v>
       </c>
       <c r="K210">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8520,7 +8520,7 @@
         <v>220</v>
       </c>
       <c r="B211">
-        <v>11.04</v>
+        <v>11.48</v>
       </c>
       <c r="C211">
         <v>53</v>
@@ -8532,7 +8532,7 @@
         <v>612.03</v>
       </c>
       <c r="F211">
-        <v>585.12</v>
+        <v>608.44000000000005</v>
       </c>
       <c r="G211">
         <v>0.01</v>
@@ -8541,13 +8541,13 @@
         <v>0.505</v>
       </c>
       <c r="I211">
-        <v>21.864999999999998</v>
+        <v>22.736000000000001</v>
       </c>
       <c r="J211">
         <v>11.54</v>
       </c>
       <c r="K211">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8555,7 +8555,7 @@
         <v>221</v>
       </c>
       <c r="B212">
-        <v>12.82</v>
+        <v>13.6</v>
       </c>
       <c r="C212">
         <v>50</v>
@@ -8567,7 +8567,7 @@
         <v>702.25</v>
       </c>
       <c r="F212">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="G212">
         <v>0.01</v>
@@ -8576,13 +8576,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="I212">
-        <v>18.547000000000001</v>
+        <v>19.675000000000001</v>
       </c>
       <c r="J212">
         <v>14.04</v>
       </c>
       <c r="K212">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8590,7 +8590,7 @@
         <v>222</v>
       </c>
       <c r="B213">
-        <v>13.06</v>
+        <v>13.84</v>
       </c>
       <c r="C213">
         <v>30</v>
@@ -8602,7 +8602,7 @@
         <v>385.64</v>
       </c>
       <c r="F213">
-        <v>391.8</v>
+        <v>415.2</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -8611,13 +8611,13 @@
         <v>0.217</v>
       </c>
       <c r="I213">
-        <v>60.183999999999997</v>
+        <v>63.777999999999999</v>
       </c>
       <c r="J213">
         <v>12.85</v>
       </c>
       <c r="K213">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8625,7 +8625,7 @@
         <v>223</v>
       </c>
       <c r="B214">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="C214">
         <v>40</v>
@@ -8637,7 +8637,7 @@
         <v>247.5</v>
       </c>
       <c r="F214" s="2">
-        <v>276.8</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -8652,7 +8652,7 @@
         <v>6.18</v>
       </c>
       <c r="K214">
-        <v>1.1100000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8660,7 +8660,7 @@
         <v>224</v>
       </c>
       <c r="B215">
-        <v>45.55</v>
+        <v>47.3</v>
       </c>
       <c r="C215">
         <v>115.83</v>
@@ -8672,7 +8672,7 @@
         <v>2068.44</v>
       </c>
       <c r="F215" s="2">
-        <v>5276.06</v>
+        <v>5478.76</v>
       </c>
       <c r="G215">
         <v>0.06</v>
@@ -8681,13 +8681,13 @@
         <v>4.13</v>
       </c>
       <c r="I215">
-        <v>11.026999999999999</v>
+        <v>11.451000000000001</v>
       </c>
       <c r="J215">
         <v>17.850000000000001</v>
       </c>
       <c r="K215">
-        <v>2.5499999999999998</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8695,7 +8695,7 @@
         <v>225</v>
       </c>
       <c r="B216">
-        <v>171</v>
+        <v>175.8</v>
       </c>
       <c r="C216">
         <v>150</v>
@@ -8707,22 +8707,22 @@
         <v>5568.56</v>
       </c>
       <c r="F216" s="2">
-        <v>25650</v>
+        <v>26370</v>
       </c>
       <c r="G216">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H216">
         <v>7.9119999999999999</v>
       </c>
       <c r="I216">
-        <v>21.611999999999998</v>
+        <v>22.219000000000001</v>
       </c>
       <c r="J216">
         <v>37.119999999999997</v>
       </c>
       <c r="K216">
-        <v>4.5999999999999996</v>
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8730,7 +8730,7 @@
         <v>226</v>
       </c>
       <c r="B217">
-        <v>113</v>
+        <v>121.2</v>
       </c>
       <c r="C217">
         <v>100</v>
@@ -8742,22 +8742,22 @@
         <v>2174.38</v>
       </c>
       <c r="F217" s="2">
-        <v>11300</v>
+        <v>12120</v>
       </c>
       <c r="G217">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H217">
         <v>3.1179999999999999</v>
       </c>
       <c r="I217">
-        <v>36.244999999999997</v>
+        <v>38.875999999999998</v>
       </c>
       <c r="J217">
         <v>21.74</v>
       </c>
       <c r="K217">
-        <v>5.19</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8765,7 +8765,7 @@
         <v>227</v>
       </c>
       <c r="B218">
-        <v>32.5</v>
+        <v>34.9</v>
       </c>
       <c r="C218">
         <v>30</v>
@@ -8777,7 +8777,7 @@
         <v>460.26</v>
       </c>
       <c r="F218" s="2">
-        <v>975</v>
+        <v>1047</v>
       </c>
       <c r="G218">
         <v>0.01</v>
@@ -8786,13 +8786,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="I218">
-        <v>71.742999999999995</v>
+        <v>77.040999999999997</v>
       </c>
       <c r="J218">
         <v>15.34</v>
       </c>
       <c r="K218">
-        <v>2.11</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8800,7 +8800,7 @@
         <v>228</v>
       </c>
       <c r="B219">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="C219">
         <v>52.5</v>
@@ -8812,7 +8812,7 @@
         <v>1145.97</v>
       </c>
       <c r="F219" s="2">
-        <v>1265.25</v>
+        <v>1317.75</v>
       </c>
       <c r="G219">
         <v>0.01</v>
@@ -8821,13 +8821,13 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I219">
-        <v>8.6950000000000003</v>
+        <v>9.0559999999999992</v>
       </c>
       <c r="J219">
         <v>21.82</v>
       </c>
       <c r="K219">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8835,7 +8835,7 @@
         <v>229</v>
       </c>
       <c r="B220">
-        <v>5.72</v>
+        <v>5.96</v>
       </c>
       <c r="C220">
         <v>30</v>
@@ -8847,7 +8847,7 @@
         <v>202.63</v>
       </c>
       <c r="F220">
-        <v>171.6</v>
+        <v>178.8</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -8862,7 +8862,7 @@
         <v>6.75</v>
       </c>
       <c r="K220">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8870,7 +8870,7 @@
         <v>230</v>
       </c>
       <c r="B221">
-        <v>15.58</v>
+        <v>16.22</v>
       </c>
       <c r="C221">
         <v>30</v>
@@ -8882,7 +8882,7 @@
         <v>472.24</v>
       </c>
       <c r="F221">
-        <v>467.4</v>
+        <v>486.6</v>
       </c>
       <c r="G221">
         <v>0.01</v>
@@ -8891,13 +8891,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I221">
-        <v>68.134</v>
+        <v>70.932000000000002</v>
       </c>
       <c r="J221">
         <v>15.74</v>
       </c>
       <c r="K221">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8905,7 +8905,7 @@
         <v>231</v>
       </c>
       <c r="B222">
-        <v>12.12</v>
+        <v>12.98</v>
       </c>
       <c r="C222">
         <v>40</v>
@@ -8917,7 +8917,7 @@
         <v>444.9</v>
       </c>
       <c r="F222">
-        <v>484.8</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="G222">
         <v>0.01</v>
@@ -8926,13 +8926,13 @@
         <v>0.749</v>
       </c>
       <c r="I222">
-        <v>16.181000000000001</v>
+        <v>17.329000000000001</v>
       </c>
       <c r="J222">
         <v>11.12</v>
       </c>
       <c r="K222">
-        <v>1.08</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8940,7 +8940,7 @@
         <v>232</v>
       </c>
       <c r="B223">
-        <v>16.239999999999998</v>
+        <v>16.88</v>
       </c>
       <c r="C223">
         <v>40</v>
@@ -8952,7 +8952,7 @@
         <v>617.19000000000005</v>
       </c>
       <c r="F223">
-        <v>649.6</v>
+        <v>675.2</v>
       </c>
       <c r="G223">
         <v>0.01</v>
@@ -8961,13 +8961,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I223">
-        <v>7.92</v>
+        <v>8.2330000000000005</v>
       </c>
       <c r="J223">
         <v>15.42</v>
       </c>
       <c r="K223">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8975,7 +8975,7 @@
         <v>233</v>
       </c>
       <c r="B224">
-        <v>8.19</v>
+        <v>8.52</v>
       </c>
       <c r="C224">
         <v>43</v>
@@ -8987,7 +8987,7 @@
         <v>309.45999999999998</v>
       </c>
       <c r="F224">
-        <v>352.17</v>
+        <v>366.36</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -8996,13 +8996,13 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I224">
-        <v>83.451999999999998</v>
+        <v>86.814999999999998</v>
       </c>
       <c r="J224">
         <v>7.19</v>
       </c>
       <c r="K224">
-        <v>1.1299999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9010,7 +9010,7 @@
         <v>234</v>
       </c>
       <c r="B225">
-        <v>9.18</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="C225">
         <v>23</v>
@@ -9022,7 +9022,7 @@
         <v>161.93</v>
       </c>
       <c r="F225" s="2">
-        <v>211.14</v>
+        <v>223.56</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -9037,7 +9037,7 @@
         <v>7.04</v>
       </c>
       <c r="K225">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -9045,7 +9045,7 @@
         <v>235</v>
       </c>
       <c r="B226">
-        <v>79.5</v>
+        <v>83.9</v>
       </c>
       <c r="C226" s="2">
         <v>77.507000000000005</v>
@@ -9057,7 +9057,7 @@
         <v>450.47</v>
       </c>
       <c r="F226" s="2">
-        <v>6161.81</v>
+        <v>6502.84</v>
       </c>
       <c r="G226">
         <v>7.0000000000000007E-2</v>
@@ -9066,13 +9066,13 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="I226">
-        <v>53.46</v>
+        <v>56.417999999999999</v>
       </c>
       <c r="J226">
         <v>5.81</v>
       </c>
       <c r="K226">
-        <v>13.67</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9089,22 +9089,22 @@
         <v>29085.3</v>
       </c>
       <c r="F227" s="2">
-        <v>85521.95</v>
+        <v>89290.54</v>
       </c>
       <c r="G227">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="H227">
         <v>2.11</v>
       </c>
       <c r="I227">
-        <v>21.317</v>
+        <v>22.251000000000001</v>
       </c>
       <c r="J227">
         <v>17.329999999999998</v>
       </c>
       <c r="K227">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>237</v>
       </c>
       <c r="B228">
-        <v>127</v>
+        <v>131.4</v>
       </c>
       <c r="C228">
         <v>30</v>
@@ -9124,7 +9124,7 @@
         <v>457.58</v>
       </c>
       <c r="F228" s="2">
-        <v>3810</v>
+        <v>3942</v>
       </c>
       <c r="G228">
         <v>0.04</v>
@@ -9133,13 +9133,13 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="I228">
-        <v>39.404000000000003</v>
+        <v>40.768999999999998</v>
       </c>
       <c r="J228">
         <v>15.25</v>
       </c>
       <c r="K228">
-        <v>8.32</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9147,7 +9147,7 @@
         <v>238</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C229">
         <v>100</v>
@@ -9159,7 +9159,7 @@
         <v>116.65</v>
       </c>
       <c r="F229" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="G229">
         <v>0.01</v>
@@ -9174,7 +9174,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K229">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9182,7 +9182,7 @@
         <v>239</v>
       </c>
       <c r="B230" s="2">
-        <v>248.6</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="C230">
         <v>120</v>
@@ -9194,22 +9194,22 @@
         <v>4364</v>
       </c>
       <c r="F230" s="2">
-        <v>29832</v>
+        <v>30912</v>
       </c>
       <c r="G230">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="H230">
         <v>13.367000000000001</v>
       </c>
       <c r="I230">
-        <v>18.597999999999999</v>
+        <v>19.271000000000001</v>
       </c>
       <c r="J230">
         <v>36.36</v>
       </c>
       <c r="K230">
-        <v>6.83</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9217,7 +9217,7 @@
         <v>240</v>
       </c>
       <c r="B231">
-        <v>920</v>
+        <v>952.8</v>
       </c>
       <c r="C231">
         <v>80</v>
@@ -9229,22 +9229,22 @@
         <v>5489</v>
       </c>
       <c r="F231" s="2">
-        <v>73600</v>
+        <v>76224</v>
       </c>
       <c r="G231">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="H231">
         <v>24.7</v>
       </c>
       <c r="I231">
-        <v>37.246000000000002</v>
+        <v>38.573999999999998</v>
       </c>
       <c r="J231">
         <v>68.61</v>
       </c>
       <c r="K231">
-        <v>13.4</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -9252,7 +9252,7 @@
         <v>241</v>
       </c>
       <c r="B232">
-        <v>10.4</v>
+        <v>10.98</v>
       </c>
       <c r="C232">
         <v>300</v>
@@ -9264,22 +9264,22 @@
         <v>577.71</v>
       </c>
       <c r="F232" s="2">
-        <v>3120</v>
+        <v>3294</v>
       </c>
       <c r="G232">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H232">
         <v>0.55300000000000005</v>
       </c>
       <c r="I232">
-        <v>18.800999999999998</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="J232">
         <v>1.92</v>
       </c>
       <c r="K232">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9296,22 +9296,22 @@
         <v>11004.94</v>
       </c>
       <c r="F233" s="2">
-        <v>110862</v>
+        <v>114897</v>
       </c>
       <c r="G233">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H233">
         <v>6.0739999999999998</v>
       </c>
       <c r="I233">
-        <v>28.72</v>
+        <v>29.763999999999999</v>
       </c>
       <c r="J233">
         <v>17.47</v>
       </c>
       <c r="K233">
-        <v>10.07</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9319,7 +9319,7 @@
         <v>243</v>
       </c>
       <c r="B234">
-        <v>42.1</v>
+        <v>42.7</v>
       </c>
       <c r="C234" s="2">
         <v>5000</v>
@@ -9331,22 +9331,22 @@
         <v>91069</v>
       </c>
       <c r="F234" s="2">
-        <v>210500</v>
+        <v>213500</v>
       </c>
       <c r="G234">
-        <v>2.3199999999999998</v>
+        <v>2.36</v>
       </c>
       <c r="H234">
         <v>5.01</v>
       </c>
       <c r="I234">
-        <v>8.4019999999999992</v>
+        <v>8.5220000000000002</v>
       </c>
       <c r="J234">
         <v>18.21</v>
       </c>
       <c r="K234">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9354,7 +9354,7 @@
         <v>244</v>
       </c>
       <c r="B235">
-        <v>56.9</v>
+        <v>59</v>
       </c>
       <c r="C235">
         <v>770</v>
@@ -9366,22 +9366,22 @@
         <v>18637</v>
       </c>
       <c r="F235" s="2">
-        <v>43813</v>
+        <v>45430</v>
       </c>
       <c r="G235">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H235">
         <v>4.2030000000000003</v>
       </c>
       <c r="I235">
-        <v>13.539</v>
+        <v>14.038</v>
       </c>
       <c r="J235">
         <v>24.2</v>
       </c>
       <c r="K235">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -9389,7 +9389,7 @@
         <v>245</v>
       </c>
       <c r="B236">
-        <v>10.28</v>
+        <v>10.48</v>
       </c>
       <c r="C236">
         <v>898.72900000000004</v>
@@ -9401,7 +9401,7 @@
         <v>10792</v>
       </c>
       <c r="F236" s="2">
-        <v>9238.93</v>
+        <v>9418.68</v>
       </c>
       <c r="G236">
         <v>0.1</v>
@@ -9410,13 +9410,13 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="I236">
-        <v>14.853</v>
+        <v>15.141999999999999</v>
       </c>
       <c r="J236">
         <v>12</v>
       </c>
       <c r="K236">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9424,7 +9424,7 @@
         <v>246</v>
       </c>
       <c r="B237">
-        <v>93.1</v>
+        <v>98</v>
       </c>
       <c r="C237" s="2">
         <v>33.999000000000002</v>
@@ -9436,22 +9436,22 @@
         <v>709.2</v>
       </c>
       <c r="F237" s="2">
-        <v>3165.31</v>
+        <v>3331.9</v>
       </c>
       <c r="G237">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H237">
         <v>5.2549999999999999</v>
       </c>
       <c r="I237">
-        <v>17.715</v>
+        <v>18.648</v>
       </c>
       <c r="J237">
         <v>20.85</v>
       </c>
       <c r="K237">
-        <v>4.46</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9468,22 +9468,22 @@
         <v>121207.2</v>
       </c>
       <c r="F238" s="2">
-        <v>266717.24</v>
+        <v>271680.58</v>
       </c>
       <c r="G238">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="H238">
         <v>4.34</v>
       </c>
       <c r="I238">
-        <v>9.1690000000000005</v>
+        <v>9.34</v>
       </c>
       <c r="J238">
         <v>18.079999999999998</v>
       </c>
       <c r="K238">
-        <v>2.2000000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9491,7 +9491,7 @@
         <v>248</v>
       </c>
       <c r="B239">
-        <v>73.7</v>
+        <v>75.7</v>
       </c>
       <c r="C239">
         <v>75</v>
@@ -9503,7 +9503,7 @@
         <v>1943</v>
       </c>
       <c r="F239" s="2">
-        <v>5527.5</v>
+        <v>5677.5</v>
       </c>
       <c r="G239">
         <v>0.06</v>
@@ -9512,13 +9512,13 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="I239">
-        <v>23.815000000000001</v>
+        <v>24.460999999999999</v>
       </c>
       <c r="J239">
         <v>25.9</v>
       </c>
       <c r="K239">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9526,7 +9526,7 @@
         <v>249</v>
       </c>
       <c r="B240">
-        <v>137</v>
+        <v>141.6</v>
       </c>
       <c r="C240">
         <v>35</v>
@@ -9538,7 +9538,7 @@
         <v>814.29</v>
       </c>
       <c r="F240" s="2">
-        <v>4795</v>
+        <v>4956</v>
       </c>
       <c r="G240">
         <v>0.05</v>
@@ -9547,13 +9547,13 @@
         <v>7.0030000000000001</v>
       </c>
       <c r="I240">
-        <v>19.564</v>
+        <v>20.221</v>
       </c>
       <c r="J240">
         <v>23.26</v>
       </c>
       <c r="K240">
-        <v>5.88</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9561,7 +9561,7 @@
         <v>250</v>
       </c>
       <c r="B241">
-        <v>242</v>
+        <v>250.4</v>
       </c>
       <c r="C241">
         <v>732.56100000000004</v>
@@ -9573,22 +9573,22 @@
         <v>20994.04</v>
       </c>
       <c r="F241" s="2">
-        <v>177279.76</v>
+        <v>183433.27</v>
       </c>
       <c r="G241">
-        <v>1.96</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H241">
         <v>2.577</v>
       </c>
       <c r="I241">
-        <v>93.896000000000001</v>
+        <v>97.155000000000001</v>
       </c>
       <c r="J241">
         <v>28.65</v>
       </c>
       <c r="K241">
-        <v>8.44</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9596,7 +9596,7 @@
         <v>251</v>
       </c>
       <c r="B242">
-        <v>40.799999999999997</v>
+        <v>41.95</v>
       </c>
       <c r="C242">
         <v>250</v>
@@ -9608,10 +9608,10 @@
         <v>5317.85</v>
       </c>
       <c r="F242" s="2">
-        <v>10200</v>
+        <v>10487.5</v>
       </c>
       <c r="G242">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H242">
         <v>-6.0000000000000001E-3</v>
@@ -9623,7 +9623,7 @@
         <v>21.27</v>
       </c>
       <c r="K242">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9631,7 +9631,7 @@
         <v>252</v>
       </c>
       <c r="B243">
-        <v>22.56</v>
+        <v>24.12</v>
       </c>
       <c r="C243" s="2">
         <v>160.92500000000001</v>
@@ -9643,7 +9643,7 @@
         <v>495.52</v>
       </c>
       <c r="F243" s="2">
-        <v>3630.47</v>
+        <v>3881.51</v>
       </c>
       <c r="G243">
         <v>0.04</v>
@@ -9652,13 +9652,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="I243">
-        <v>43.835000000000001</v>
+        <v>46.866</v>
       </c>
       <c r="J243">
         <v>3.07</v>
       </c>
       <c r="K243">
-        <v>7.32</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9666,7 +9666,7 @@
         <v>253</v>
       </c>
       <c r="B244">
-        <v>14</v>
+        <v>14.38</v>
       </c>
       <c r="C244" s="2">
         <v>4166.5929999999998</v>
@@ -9678,22 +9678,22 @@
         <v>257811</v>
       </c>
       <c r="F244" s="2">
-        <v>58332.3</v>
+        <v>59915.61</v>
       </c>
       <c r="G244">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="H244">
         <v>1.665</v>
       </c>
       <c r="I244">
-        <v>8.407</v>
+        <v>8.6349999999999998</v>
       </c>
       <c r="J244">
         <v>61.87</v>
       </c>
       <c r="K244">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9710,22 +9710,22 @@
         <v>287375.7</v>
       </c>
       <c r="F245" s="2">
-        <v>259765.03</v>
+        <v>268351.39</v>
       </c>
       <c r="G245">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="H245">
         <v>1.7310000000000001</v>
       </c>
       <c r="I245">
-        <v>26.588999999999999</v>
+        <v>27.472999999999999</v>
       </c>
       <c r="J245">
         <v>53.02</v>
       </c>
       <c r="K245">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9733,7 +9733,7 @@
         <v>255</v>
       </c>
       <c r="B246">
-        <v>5.0599999999999996</v>
+        <v>5.15</v>
       </c>
       <c r="C246">
         <v>171.697</v>
@@ -9745,7 +9745,7 @@
         <v>1746.23</v>
       </c>
       <c r="F246">
-        <v>868.79</v>
+        <v>884.24</v>
       </c>
       <c r="G246">
         <v>0.01</v>
@@ -9760,7 +9760,7 @@
         <v>10.17</v>
       </c>
       <c r="K246">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9768,7 +9768,7 @@
         <v>256</v>
       </c>
       <c r="B247">
-        <v>13.3</v>
+        <v>13.72</v>
       </c>
       <c r="C247">
         <v>11.8</v>
@@ -9780,7 +9780,7 @@
         <v>86.31</v>
       </c>
       <c r="F247">
-        <v>156.94</v>
+        <v>161.9</v>
       </c>
       <c r="G247" t="s">
         <v>32</v>
@@ -9789,13 +9789,13 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I247">
-        <v>51.966000000000001</v>
+        <v>53.609000000000002</v>
       </c>
       <c r="J247">
         <v>7.31</v>
       </c>
       <c r="K247">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9803,7 +9803,7 @@
         <v>257</v>
       </c>
       <c r="B248">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
       <c r="C248">
         <v>66</v>
@@ -9815,7 +9815,7 @@
         <v>500.29</v>
       </c>
       <c r="F248">
-        <v>345.18</v>
+        <v>347.16</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
@@ -9824,13 +9824,13 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="I248">
-        <v>19.657</v>
+        <v>19.768999999999998</v>
       </c>
       <c r="J248">
         <v>7.58</v>
       </c>
       <c r="K248">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9838,7 +9838,7 @@
         <v>258</v>
       </c>
       <c r="B249">
-        <v>9.3800000000000008</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C249">
         <v>51</v>
@@ -9850,7 +9850,7 @@
         <v>549.69000000000005</v>
       </c>
       <c r="F249">
-        <v>478.38</v>
+        <v>474.3</v>
       </c>
       <c r="G249">
         <v>0.01</v>
@@ -9859,13 +9859,13 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="I249">
-        <v>14.71</v>
+        <v>14.584</v>
       </c>
       <c r="J249">
         <v>10.77</v>
       </c>
       <c r="K249">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9873,7 +9873,7 @@
         <v>259</v>
       </c>
       <c r="B250">
-        <v>9.1</v>
+        <v>9.14</v>
       </c>
       <c r="C250">
         <v>61.37</v>
@@ -9885,7 +9885,7 @@
         <v>514.29</v>
       </c>
       <c r="F250">
-        <v>558.47</v>
+        <v>560.91999999999996</v>
       </c>
       <c r="G250">
         <v>0.01</v>
@@ -9894,13 +9894,13 @@
         <v>0.67</v>
       </c>
       <c r="I250">
-        <v>13.574</v>
+        <v>13.634</v>
       </c>
       <c r="J250">
         <v>8.3800000000000008</v>
       </c>
       <c r="K250">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9908,7 +9908,7 @@
         <v>260</v>
       </c>
       <c r="B251">
-        <v>4.07</v>
+        <v>4.18</v>
       </c>
       <c r="C251">
         <v>88</v>
@@ -9920,7 +9920,7 @@
         <v>744.87</v>
       </c>
       <c r="F251">
-        <v>358.16</v>
+        <v>367.84</v>
       </c>
       <c r="G251" t="s">
         <v>32</v>
@@ -9935,7 +9935,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="K251">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9943,7 +9943,7 @@
         <v>261</v>
       </c>
       <c r="B252">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="C252">
         <v>103.765</v>
@@ -9955,7 +9955,7 @@
         <v>771.32</v>
       </c>
       <c r="F252">
-        <v>479.39</v>
+        <v>487.7</v>
       </c>
       <c r="G252">
         <v>0.01</v>
@@ -9964,13 +9964,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I252">
-        <v>31.663</v>
+        <v>32.212000000000003</v>
       </c>
       <c r="J252">
         <v>7.43</v>
       </c>
       <c r="K252">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -9978,7 +9978,7 @@
         <v>262</v>
       </c>
       <c r="B253">
-        <v>4.09</v>
+        <v>4.21</v>
       </c>
       <c r="C253">
         <v>57.24</v>
@@ -9990,7 +9990,7 @@
         <v>243.04</v>
       </c>
       <c r="F253">
-        <v>234.11</v>
+        <v>240.98</v>
       </c>
       <c r="G253" t="s">
         <v>32</v>
@@ -10005,7 +10005,7 @@
         <v>4.24</v>
       </c>
       <c r="K253">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -10013,7 +10013,7 @@
         <v>263</v>
       </c>
       <c r="B254">
-        <v>6.85</v>
+        <v>6.92</v>
       </c>
       <c r="C254">
         <v>137.5</v>
@@ -10025,7 +10025,7 @@
         <v>1195.8</v>
       </c>
       <c r="F254">
-        <v>941.88</v>
+        <v>951.5</v>
       </c>
       <c r="G254">
         <v>0.01</v>
@@ -10034,13 +10034,13 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="I254">
-        <v>35.302</v>
+        <v>35.662999999999997</v>
       </c>
       <c r="J254">
         <v>8.69</v>
       </c>
       <c r="K254">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -10048,7 +10048,7 @@
         <v>264</v>
       </c>
       <c r="B255">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="C255">
         <v>107.50700000000001</v>
@@ -10060,7 +10060,7 @@
         <v>869.57</v>
       </c>
       <c r="F255" s="2">
-        <v>584.84</v>
+        <v>591.29</v>
       </c>
       <c r="G255">
         <v>0.01</v>
@@ -10069,7 +10069,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="I255">
-        <v>39.408999999999999</v>
+        <v>39.844000000000001</v>
       </c>
       <c r="J255">
         <v>8.08</v>
@@ -10083,7 +10083,7 @@
         <v>265</v>
       </c>
       <c r="B256">
-        <v>8.26</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C256">
         <v>275.60700000000003</v>
@@ -10095,7 +10095,7 @@
         <v>2250.7800000000002</v>
       </c>
       <c r="F256" s="2">
-        <v>2276.5100000000002</v>
+        <v>2287.54</v>
       </c>
       <c r="G256">
         <v>0.03</v>
@@ -10104,7 +10104,7 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="I256">
-        <v>12.157</v>
+        <v>12.215999999999999</v>
       </c>
       <c r="J256">
         <v>8.16</v>
@@ -10118,7 +10118,7 @@
         <v>266</v>
       </c>
       <c r="B257">
-        <v>10</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C257">
         <v>186.50899999999999</v>
@@ -10130,7 +10130,7 @@
         <v>2308.79</v>
       </c>
       <c r="F257" s="2">
-        <v>1865.09</v>
+        <v>1872.55</v>
       </c>
       <c r="G257">
         <v>0.02</v>
@@ -10139,13 +10139,13 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="I257">
-        <v>33.442</v>
+        <v>33.576000000000001</v>
       </c>
       <c r="J257">
         <v>12.37</v>
       </c>
       <c r="K257">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -10153,7 +10153,7 @@
         <v>267</v>
       </c>
       <c r="B258">
-        <v>6.75</v>
+        <v>6.84</v>
       </c>
       <c r="C258">
         <v>186.94399999999999</v>
@@ -10165,7 +10165,7 @@
         <v>1454.16</v>
       </c>
       <c r="F258" s="2">
-        <v>1261.8699999999999</v>
+        <v>1278.7</v>
       </c>
       <c r="G258">
         <v>0.01</v>
@@ -10174,13 +10174,13 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I258">
-        <v>87.569000000000003</v>
+        <v>88.736000000000004</v>
       </c>
       <c r="J258">
         <v>7.77</v>
       </c>
       <c r="K258">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10188,7 +10188,7 @@
         <v>268</v>
       </c>
       <c r="B259">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="C259">
         <v>118</v>
@@ -10200,7 +10200,7 @@
         <v>835.72</v>
       </c>
       <c r="F259">
-        <v>521.55999999999995</v>
+        <v>531</v>
       </c>
       <c r="G259">
         <v>0.01</v>
@@ -10209,13 +10209,13 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I259">
-        <v>64.152000000000001</v>
+        <v>65.313000000000002</v>
       </c>
       <c r="J259">
         <v>7.08</v>
       </c>
       <c r="K259">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -10223,7 +10223,7 @@
         <v>269</v>
       </c>
       <c r="B260">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="C260">
         <v>73.275999999999996</v>
@@ -10235,7 +10235,7 @@
         <v>515.41</v>
       </c>
       <c r="F260" s="2">
-        <v>263.79000000000002</v>
+        <v>268.19</v>
       </c>
       <c r="G260" t="s">
         <v>32</v>
@@ -10244,13 +10244,13 @@
         <v>0.111</v>
       </c>
       <c r="I260">
-        <v>32.485999999999997</v>
+        <v>33.027999999999999</v>
       </c>
       <c r="J260">
         <v>7.03</v>
       </c>
       <c r="K260">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10258,7 +10258,7 @@
         <v>270</v>
       </c>
       <c r="B261">
-        <v>8.94</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="C261">
         <v>162.881</v>
@@ -10270,7 +10270,7 @@
         <v>1363.65</v>
       </c>
       <c r="F261" s="2">
-        <v>1456.16</v>
+        <v>1459.41</v>
       </c>
       <c r="G261">
         <v>0.02</v>
@@ -10279,13 +10279,13 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I261">
-        <v>16.463999999999999</v>
+        <v>16.501000000000001</v>
       </c>
       <c r="J261">
         <v>8.3699999999999992</v>
       </c>
       <c r="K261">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
         <v>271</v>
       </c>
       <c r="B262">
-        <v>5.59</v>
+        <v>5.67</v>
       </c>
       <c r="C262">
         <v>141.00800000000001</v>
@@ -10305,7 +10305,7 @@
         <v>1222.58</v>
       </c>
       <c r="F262">
-        <v>788.23</v>
+        <v>799.52</v>
       </c>
       <c r="G262">
         <v>0.01</v>
@@ -10314,13 +10314,13 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="I262">
-        <v>13.282999999999999</v>
+        <v>13.473000000000001</v>
       </c>
       <c r="J262">
         <v>8.67</v>
       </c>
       <c r="K262">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>272</v>
       </c>
       <c r="B263">
-        <v>8.1999999999999993</v>
+        <v>8.23</v>
       </c>
       <c r="C263">
         <v>102.002</v>
@@ -10340,7 +10340,7 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="F263">
-        <v>836.42</v>
+        <v>839.48</v>
       </c>
       <c r="G263">
         <v>0.01</v>
@@ -10349,7 +10349,7 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I263">
-        <v>17.122</v>
+        <v>17.184000000000001</v>
       </c>
       <c r="J263">
         <v>10.11</v>
@@ -10363,7 +10363,7 @@
         <v>273</v>
       </c>
       <c r="B264">
-        <v>8.1199999999999992</v>
+        <v>8.09</v>
       </c>
       <c r="C264" s="2">
         <v>60.5</v>
@@ -10375,7 +10375,7 @@
         <v>582.99</v>
       </c>
       <c r="F264" s="2">
-        <v>491.26</v>
+        <v>489.45</v>
       </c>
       <c r="G264">
         <v>0.01</v>
@@ -10390,7 +10390,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="K264">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -10407,7 +10407,7 @@
         <v>18786.89</v>
       </c>
       <c r="F265" s="2">
-        <v>14767.03</v>
+        <v>14893.67</v>
       </c>
       <c r="G265">
         <v>0.18</v>
@@ -10416,7 +10416,7 @@
         <v>0.127</v>
       </c>
       <c r="I265">
-        <v>20.629000000000001</v>
+        <v>20.783999999999999</v>
       </c>
       <c r="J265">
         <v>8.69</v>
@@ -10430,7 +10430,7 @@
         <v>275</v>
       </c>
       <c r="B266">
-        <v>19.22</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="C266">
         <v>375</v>
@@ -10442,7 +10442,7 @@
         <v>5177.7</v>
       </c>
       <c r="F266" s="2">
-        <v>7207.5</v>
+        <v>7410</v>
       </c>
       <c r="G266">
         <v>0.08</v>
@@ -10451,13 +10451,13 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="I266">
-        <v>20.751999999999999</v>
+        <v>21.335999999999999</v>
       </c>
       <c r="J266">
         <v>13.8</v>
       </c>
       <c r="K266">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10465,7 +10465,7 @@
         <v>276</v>
       </c>
       <c r="B267">
-        <v>37.049999999999997</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="C267">
         <v>260.45699999999999</v>
@@ -10477,7 +10477,7 @@
         <v>6961</v>
       </c>
       <c r="F267" s="2">
-        <v>9649.93</v>
+        <v>10144.799999999999</v>
       </c>
       <c r="G267">
         <v>0.11</v>
@@ -10486,13 +10486,13 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="I267">
-        <v>26.062999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="J267">
         <v>26.72</v>
       </c>
       <c r="K267">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10500,7 +10500,7 @@
         <v>277</v>
       </c>
       <c r="B268">
-        <v>87.8</v>
+        <v>89.5</v>
       </c>
       <c r="C268">
         <v>200</v>
@@ -10512,22 +10512,22 @@
         <v>4813</v>
       </c>
       <c r="F268" s="2">
-        <v>17560</v>
+        <v>17900</v>
       </c>
       <c r="G268">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H268">
         <v>2.2400000000000002</v>
       </c>
       <c r="I268">
-        <v>39.195999999999998</v>
+        <v>39.954999999999998</v>
       </c>
       <c r="J268">
         <v>24.06</v>
       </c>
       <c r="K268">
-        <v>3.64</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10535,7 +10535,7 @@
         <v>278</v>
       </c>
       <c r="B269">
-        <v>32.65</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="C269">
         <v>233.93</v>
@@ -10547,22 +10547,22 @@
         <v>3990</v>
       </c>
       <c r="F269" s="2">
-        <v>7637.81</v>
+        <v>7707.99</v>
       </c>
       <c r="G269">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H269">
         <v>1.145</v>
       </c>
       <c r="I269">
-        <v>28.521000000000001</v>
+        <v>28.783000000000001</v>
       </c>
       <c r="J269">
         <v>17.05</v>
       </c>
       <c r="K269">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10570,7 +10570,7 @@
         <v>279</v>
       </c>
       <c r="B270">
-        <v>12.28</v>
+        <v>12.74</v>
       </c>
       <c r="C270">
         <v>523.25900000000001</v>
@@ -10582,7 +10582,7 @@
         <v>5136</v>
       </c>
       <c r="F270" s="2">
-        <v>6425.62</v>
+        <v>6666.32</v>
       </c>
       <c r="G270">
         <v>7.0000000000000007E-2</v>
@@ -10597,7 +10597,7 @@
         <v>9.81</v>
       </c>
       <c r="K270">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10605,7 +10605,7 @@
         <v>280</v>
       </c>
       <c r="B271">
-        <v>38.6</v>
+        <v>42.45</v>
       </c>
       <c r="C271" s="2">
         <v>30.234000000000002</v>
@@ -10617,7 +10617,7 @@
         <v>32</v>
       </c>
       <c r="F271" s="2">
-        <v>1167.03</v>
+        <v>1283.43</v>
       </c>
       <c r="G271">
         <v>0.01</v>
@@ -10640,7 +10640,7 @@
         <v>281</v>
       </c>
       <c r="B272">
-        <v>19.059999999999999</v>
+        <v>20.16</v>
       </c>
       <c r="C272" s="2">
         <v>1180.0219999999999</v>
@@ -10652,22 +10652,22 @@
         <v>14415.73</v>
       </c>
       <c r="F272" s="2">
-        <v>22491.22</v>
+        <v>23789.24</v>
       </c>
       <c r="G272">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="H272">
         <v>0.95499999999999996</v>
       </c>
       <c r="I272">
-        <v>19.956</v>
+        <v>21.108000000000001</v>
       </c>
       <c r="J272">
         <v>12.21</v>
       </c>
       <c r="K272">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10675,7 +10675,7 @@
         <v>282</v>
       </c>
       <c r="B273">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="C273" s="2">
         <v>1080</v>
@@ -10687,22 +10687,22 @@
         <v>21304.55</v>
       </c>
       <c r="F273" s="2">
-        <v>19980</v>
+        <v>20520</v>
       </c>
       <c r="G273">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H273">
         <v>0.79900000000000004</v>
       </c>
       <c r="I273">
-        <v>23.163</v>
+        <v>23.789000000000001</v>
       </c>
       <c r="J273">
         <v>19.72</v>
       </c>
       <c r="K273">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -10710,7 +10710,7 @@
         <v>283</v>
       </c>
       <c r="B274">
-        <v>12.86</v>
+        <v>13.24</v>
       </c>
       <c r="C274">
         <v>339.3</v>
@@ -10722,7 +10722,7 @@
         <v>2968.84</v>
       </c>
       <c r="F274" s="2">
-        <v>4363.3999999999996</v>
+        <v>4492.33</v>
       </c>
       <c r="G274">
         <v>0.05</v>
@@ -10737,7 +10737,7 @@
         <v>8.74</v>
       </c>
       <c r="K274">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -10745,7 +10745,7 @@
         <v>284</v>
       </c>
       <c r="B275">
-        <v>20.8</v>
+        <v>21.48</v>
       </c>
       <c r="C275">
         <v>93.332999999999998</v>
@@ -10757,7 +10757,7 @@
         <v>992.46</v>
       </c>
       <c r="F275" s="2">
-        <v>1941.33</v>
+        <v>2004.79</v>
       </c>
       <c r="G275">
         <v>0.02</v>
@@ -10772,7 +10772,7 @@
         <v>10.63</v>
       </c>
       <c r="K275">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -10780,7 +10780,7 @@
         <v>285</v>
       </c>
       <c r="B276">
-        <v>18.68</v>
+        <v>19.22</v>
       </c>
       <c r="C276">
         <v>475</v>
@@ -10792,7 +10792,7 @@
         <v>14824.3</v>
       </c>
       <c r="F276" s="2">
-        <v>8873</v>
+        <v>9129.5</v>
       </c>
       <c r="G276">
         <v>0.1</v>
@@ -10801,13 +10801,13 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="I276">
-        <v>7.0350000000000001</v>
+        <v>7.2380000000000004</v>
       </c>
       <c r="J276">
         <v>31.2</v>
       </c>
       <c r="K276">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10815,7 +10815,7 @@
         <v>286</v>
       </c>
       <c r="B277">
-        <v>13.56</v>
+        <v>14.28</v>
       </c>
       <c r="C277">
         <v>500</v>
@@ -10827,22 +10827,22 @@
         <v>847.1</v>
       </c>
       <c r="F277" s="2">
-        <v>6780</v>
+        <v>7140</v>
       </c>
       <c r="G277">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H277">
         <v>0.54500000000000004</v>
       </c>
       <c r="I277">
-        <v>24.882999999999999</v>
+        <v>26.204000000000001</v>
       </c>
       <c r="J277">
         <v>1.69</v>
       </c>
       <c r="K277">
-        <v>8</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>287</v>
       </c>
       <c r="B278">
-        <v>36.450000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="C278">
         <v>50</v>
@@ -10862,7 +10862,7 @@
         <v>630.74</v>
       </c>
       <c r="F278" s="2">
-        <v>1822.5</v>
+        <v>1935</v>
       </c>
       <c r="G278">
         <v>0.02</v>
@@ -10871,13 +10871,13 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="I278">
-        <v>16.59</v>
+        <v>17.614000000000001</v>
       </c>
       <c r="J278">
         <v>12.61</v>
       </c>
       <c r="K278">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10885,7 +10885,7 @@
         <v>288</v>
       </c>
       <c r="B279">
-        <v>4.5199999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="C279" s="2">
         <v>200</v>
@@ -10897,7 +10897,7 @@
         <v>404.74</v>
       </c>
       <c r="F279" s="2">
-        <v>904</v>
+        <v>964</v>
       </c>
       <c r="G279">
         <v>0.01</v>
@@ -10906,13 +10906,13 @@
         <v>0.16</v>
       </c>
       <c r="I279">
-        <v>28.257999999999999</v>
+        <v>30.134</v>
       </c>
       <c r="J279">
         <v>2.02</v>
       </c>
       <c r="K279">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10920,7 +10920,7 @@
         <v>289</v>
       </c>
       <c r="B280">
-        <v>22.46</v>
+        <v>23.76</v>
       </c>
       <c r="C280" s="2">
         <v>1438.6469999999999</v>
@@ -10932,22 +10932,22 @@
         <v>15037.78</v>
       </c>
       <c r="F280" s="2">
-        <v>32312.01</v>
+        <v>34182.25</v>
       </c>
       <c r="G280">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H280">
         <v>0.45400000000000001</v>
       </c>
       <c r="I280">
-        <v>49.447000000000003</v>
+        <v>52.308999999999997</v>
       </c>
       <c r="J280">
         <v>10.45</v>
       </c>
       <c r="K280">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10964,22 +10964,22 @@
         <v>97503.94</v>
       </c>
       <c r="F281" s="2">
-        <v>149115.35</v>
+        <v>155269.65</v>
       </c>
       <c r="G281">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="H281">
         <v>0.68500000000000005</v>
       </c>
       <c r="I281">
-        <v>23.507999999999999</v>
+        <v>24.483000000000001</v>
       </c>
       <c r="J281">
         <v>13.97</v>
       </c>
       <c r="K281">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -10996,13 +10996,13 @@
         <v>3176092.17</v>
       </c>
       <c r="F282" s="2">
-        <v>9056119.6500000004</v>
+        <v>9052720.4800000004</v>
       </c>
       <c r="H282">
         <v>1.6779999999999999</v>
       </c>
       <c r="I282">
-        <v>15.353999999999999</v>
+        <v>15.340999999999999</v>
       </c>
       <c r="J282">
         <v>9.3000000000000007</v>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4B2FBF-0B13-4183-92D5-884C8D14BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C8906-C0E2-4BCA-9911-A7A0BE3B7514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="299">
   <si>
     <t>المؤشرات المالية اليومية</t>
   </si>
@@ -919,10 +919,10 @@
     <t>طيران ناس</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/06/25</t>
-  </si>
-  <si>
     <t>اس ام سي للرعاية الصحية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/06/30</t>
   </si>
 </sst>
 </file>
@@ -964,11 +964,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1310,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1362,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>63.5</v>
+        <v>64.25</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1374,7 +1373,7 @@
         <v>345.55</v>
       </c>
       <c r="F5">
-        <v>952.5</v>
+        <v>963.75</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1389,7 +1388,7 @@
         <v>23.03</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1397,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>24.14</v>
+        <v>24.32</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1409,22 +1408,22 @@
         <v>1473620</v>
       </c>
       <c r="F6" s="2">
-        <v>5841880</v>
+        <v>5885440</v>
       </c>
       <c r="G6">
-        <v>64.760000000000005</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="H6">
         <v>1.627</v>
       </c>
       <c r="I6">
-        <v>14.837999999999999</v>
+        <v>14.949</v>
       </c>
       <c r="J6">
         <v>6.08</v>
       </c>
       <c r="K6">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1432,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>6.85</v>
+        <v>7.22</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1444,7 +1443,7 @@
         <v>10987</v>
       </c>
       <c r="F7" s="2">
-        <v>11446.35</v>
+        <v>12064.62</v>
       </c>
       <c r="G7">
         <v>0.13</v>
@@ -1459,7 +1458,7 @@
         <v>6.57</v>
       </c>
       <c r="K7">
-        <v>1.04</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1467,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>77.3</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1479,7 +1478,7 @@
         <v>6010</v>
       </c>
       <c r="F8" s="2">
-        <v>6879.7</v>
+        <v>7111.1</v>
       </c>
       <c r="G8">
         <v>0.08</v>
@@ -1488,13 +1487,13 @@
         <v>2.8090000000000002</v>
       </c>
       <c r="I8">
-        <v>27.518999999999998</v>
+        <v>28.445</v>
       </c>
       <c r="J8">
         <v>67.52</v>
       </c>
       <c r="K8">
-        <v>1.1399999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1502,7 +1501,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>12.92</v>
+        <v>13.7</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1514,22 +1513,22 @@
         <v>6418.9</v>
       </c>
       <c r="F9" s="2">
-        <v>14587.48</v>
+        <v>15468.15</v>
       </c>
       <c r="G9">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H9">
         <v>0.71899999999999997</v>
       </c>
       <c r="I9">
-        <v>17.963999999999999</v>
+        <v>19.047999999999998</v>
       </c>
       <c r="J9">
         <v>5.68</v>
       </c>
       <c r="K9">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1537,10 +1536,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>30.6</v>
+        <v>24.48</v>
       </c>
       <c r="C10">
-        <v>738.28099999999995</v>
+        <v>922.851</v>
       </c>
       <c r="D10" s="2">
         <v>2249.29</v>
@@ -1549,19 +1548,19 @@
         <v>14127.19</v>
       </c>
       <c r="F10" s="2">
-        <v>22591.4</v>
+        <v>22591.39</v>
       </c>
       <c r="G10">
         <v>0.25</v>
       </c>
       <c r="H10">
-        <v>3.0470000000000002</v>
+        <v>2.4369999999999998</v>
       </c>
       <c r="I10">
         <v>10.042999999999999</v>
       </c>
       <c r="J10">
-        <v>19.13</v>
+        <v>15.3</v>
       </c>
       <c r="K10">
         <v>1.59</v>
@@ -1572,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>122.4</v>
+        <v>127.4</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1584,7 +1583,7 @@
         <v>1438.5</v>
       </c>
       <c r="F11" s="2">
-        <v>12240</v>
+        <v>12740</v>
       </c>
       <c r="G11">
         <v>0.14000000000000001</v>
@@ -1593,13 +1592,13 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="I11">
-        <v>33.933</v>
+        <v>35.319000000000003</v>
       </c>
       <c r="J11">
         <v>14.38</v>
       </c>
       <c r="K11">
-        <v>8.5</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1607,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>245742.34299999999</v>
+        <v>245926.913</v>
       </c>
       <c r="D12" s="2">
         <v>393450.19</v>
@@ -1616,22 +1615,22 @@
         <v>1512947.14</v>
       </c>
       <c r="F12" s="2">
-        <v>5910577.4299999997</v>
+        <v>5956379.0099999998</v>
       </c>
       <c r="G12">
-        <v>65.53</v>
+        <v>65.27</v>
       </c>
       <c r="H12">
-        <v>1.601</v>
+        <v>1.6</v>
       </c>
       <c r="I12">
-        <v>14.843</v>
+        <v>14.957000000000001</v>
       </c>
       <c r="J12">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="K12">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1639,7 +1638,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7.55</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1651,7 +1650,7 @@
         <v>382.18</v>
       </c>
       <c r="F13">
-        <v>577.29999999999995</v>
+        <v>620.89</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1666,7 +1665,7 @@
         <v>4.99</v>
       </c>
       <c r="K13">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1674,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>27.65</v>
+        <v>28.98</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1686,7 +1685,7 @@
         <v>1611.65</v>
       </c>
       <c r="F14" s="2">
-        <v>2396.31</v>
+        <v>2511.58</v>
       </c>
       <c r="G14">
         <v>0.03</v>
@@ -1701,7 +1700,7 @@
         <v>18.59</v>
       </c>
       <c r="K14">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1709,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>26.2</v>
+        <v>26.94</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -1721,7 +1720,7 @@
         <v>598.46</v>
       </c>
       <c r="F15">
-        <v>720.5</v>
+        <v>740.85</v>
       </c>
       <c r="G15">
         <v>0.01</v>
@@ -1730,13 +1729,13 @@
         <v>1.198</v>
       </c>
       <c r="I15">
-        <v>21.873000000000001</v>
+        <v>22.49</v>
       </c>
       <c r="J15">
         <v>21.76</v>
       </c>
       <c r="K15">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1744,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>50.7</v>
+        <v>53.6</v>
       </c>
       <c r="C16" s="2">
         <v>3802.7849999999999</v>
@@ -1756,22 +1755,22 @@
         <v>53273.5</v>
       </c>
       <c r="F16" s="2">
-        <v>192801.2</v>
+        <v>203829.28</v>
       </c>
       <c r="G16">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="H16">
         <v>0.90500000000000003</v>
       </c>
       <c r="I16">
-        <v>56.048999999999999</v>
+        <v>59.255000000000003</v>
       </c>
       <c r="J16">
         <v>14</v>
       </c>
       <c r="K16">
-        <v>3.61</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1779,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>22.42</v>
+        <v>23.56</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1791,7 +1790,7 @@
         <v>366.9</v>
       </c>
       <c r="F17">
-        <v>629.54999999999995</v>
+        <v>661.56</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1800,13 +1799,13 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17">
-        <v>65.578000000000003</v>
+        <v>68.912000000000006</v>
       </c>
       <c r="J17">
         <v>13.06</v>
       </c>
       <c r="K17">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1814,7 +1813,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>30.6</v>
+        <v>31.7</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1826,7 +1825,7 @@
         <v>590.22</v>
       </c>
       <c r="F18" s="2">
-        <v>1554.48</v>
+        <v>1610.36</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1835,13 +1834,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="I18">
-        <v>41.731000000000002</v>
+        <v>43.231000000000002</v>
       </c>
       <c r="J18">
         <v>11.61</v>
       </c>
       <c r="K18">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1849,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>54.2</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1861,7 +1860,7 @@
         <v>913</v>
       </c>
       <c r="F19" s="2">
-        <v>2764.2</v>
+        <v>2856</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1870,13 +1869,13 @@
         <v>4.7839999999999998</v>
       </c>
       <c r="I19">
-        <v>11.327999999999999</v>
+        <v>11.704000000000001</v>
       </c>
       <c r="J19">
         <v>17.899999999999999</v>
       </c>
       <c r="K19">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1884,7 +1883,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>126.4</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1896,7 +1895,7 @@
         <v>1049.6199999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>3874.5</v>
+        <v>3981.6</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1905,13 +1904,13 @@
         <v>15.114000000000001</v>
       </c>
       <c r="I20">
-        <v>8.1379999999999999</v>
+        <v>8.3629999999999995</v>
       </c>
       <c r="J20">
         <v>33.32</v>
       </c>
       <c r="K20">
-        <v>3.69</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1919,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>63.4</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1931,7 +1930,7 @@
         <v>1210.1199999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5490</v>
+        <v>5706</v>
       </c>
       <c r="G21">
         <v>0.06</v>
@@ -1940,13 +1939,13 @@
         <v>2.4220000000000002</v>
       </c>
       <c r="I21">
-        <v>25.181999999999999</v>
+        <v>26.172999999999998</v>
       </c>
       <c r="J21">
         <v>13.44</v>
       </c>
       <c r="K21">
-        <v>4.53</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1954,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>38</v>
+        <v>37.4</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1966,7 +1965,7 @@
         <v>564.17999999999995</v>
       </c>
       <c r="F22" s="2">
-        <v>1520</v>
+        <v>1496</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1975,13 +1974,13 @@
         <v>2.718</v>
       </c>
       <c r="I22">
-        <v>13.983000000000001</v>
+        <v>13.762</v>
       </c>
       <c r="J22">
         <v>14.1</v>
       </c>
       <c r="K22">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1989,7 +1988,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>12.38</v>
+        <v>13.11</v>
       </c>
       <c r="C23">
         <v>67.45</v>
@@ -2001,7 +2000,7 @@
         <v>728.24</v>
       </c>
       <c r="F23">
-        <v>835.03</v>
+        <v>884.27</v>
       </c>
       <c r="G23">
         <v>0.01</v>
@@ -2016,7 +2015,7 @@
         <v>10.79</v>
       </c>
       <c r="K23">
-        <v>1.1399999999999999</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2024,7 +2023,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>54.5</v>
+        <v>54.65</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2036,22 +2035,22 @@
         <v>156110</v>
       </c>
       <c r="F24" s="2">
-        <v>163500</v>
+        <v>163950</v>
       </c>
       <c r="G24">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H24">
         <v>2.7E-2</v>
       </c>
       <c r="I24">
-        <v>2043.75</v>
+        <v>2049.375</v>
       </c>
       <c r="J24">
         <v>52.03</v>
       </c>
       <c r="K24">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2059,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>103.2</v>
+        <v>107.2</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2071,22 +2070,22 @@
         <v>19286</v>
       </c>
       <c r="F25" s="2">
-        <v>49126.81</v>
+        <v>51030.95</v>
       </c>
       <c r="G25">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H25">
         <v>7.2910000000000004</v>
       </c>
       <c r="I25">
-        <v>14.153</v>
+        <v>14.702</v>
       </c>
       <c r="J25">
         <v>40.51</v>
       </c>
       <c r="K25">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2094,7 +2093,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>9.32</v>
+        <v>9.6</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2106,7 +2105,7 @@
         <v>10484.4</v>
       </c>
       <c r="F26" s="2">
-        <v>6234.28</v>
+        <v>6421.57</v>
       </c>
       <c r="G26">
         <v>7.0000000000000007E-2</v>
@@ -2115,13 +2114,13 @@
         <v>1.601</v>
       </c>
       <c r="I26">
-        <v>5.8230000000000004</v>
+        <v>5.9980000000000002</v>
       </c>
       <c r="J26">
         <v>15.67</v>
       </c>
       <c r="K26">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2129,7 +2128,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>21.2</v>
+        <v>23.32</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2141,7 +2140,7 @@
         <v>346.35</v>
       </c>
       <c r="F27">
-        <v>671.32</v>
+        <v>738.45</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2156,7 +2155,7 @@
         <v>10.93</v>
       </c>
       <c r="K27">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2164,7 +2163,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>42.55</v>
+        <v>43.66</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2176,7 +2175,7 @@
         <v>772.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1399.9</v>
+        <v>1436.41</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2185,13 +2184,13 @@
         <v>2.7930000000000001</v>
       </c>
       <c r="I28">
-        <v>15.231999999999999</v>
+        <v>15.63</v>
       </c>
       <c r="J28">
         <v>23.47</v>
       </c>
       <c r="K28">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2199,7 +2198,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>37.1</v>
+        <v>37.08</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2211,7 +2210,7 @@
         <v>3475.91</v>
       </c>
       <c r="F29" s="2">
-        <v>2567.3200000000002</v>
+        <v>2565.94</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2234,7 +2233,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>34.65</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>11.5</v>
@@ -2246,7 +2245,7 @@
         <v>141.80000000000001</v>
       </c>
       <c r="F30">
-        <v>398.48</v>
+        <v>414</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2261,7 +2260,7 @@
         <v>12.33</v>
       </c>
       <c r="K30">
-        <v>2.81</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2269,7 +2268,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -2281,7 +2280,7 @@
         <v>441.49</v>
       </c>
       <c r="F31" s="2">
-        <v>1240</v>
+        <v>1280</v>
       </c>
       <c r="G31">
         <v>0.01</v>
@@ -2290,13 +2289,13 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="I31">
-        <v>8.0739999999999998</v>
+        <v>8.3339999999999996</v>
       </c>
       <c r="J31">
         <v>2.2000000000000002</v>
       </c>
       <c r="K31">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2304,7 +2303,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>28.82</v>
       </c>
       <c r="C32">
         <v>23.52</v>
@@ -2316,7 +2315,7 @@
         <v>194.63</v>
       </c>
       <c r="F32">
-        <v>635.04</v>
+        <v>677.85</v>
       </c>
       <c r="G32">
         <v>0.01</v>
@@ -2331,7 +2330,7 @@
         <v>8.27</v>
       </c>
       <c r="K32">
-        <v>3.26</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2339,7 +2338,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>13.96</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2351,7 +2350,7 @@
         <v>242.28</v>
       </c>
       <c r="F33">
-        <v>494.18</v>
+        <v>595.78</v>
       </c>
       <c r="G33">
         <v>0.01</v>
@@ -2366,7 +2365,7 @@
         <v>6.84</v>
       </c>
       <c r="K33">
-        <v>2.0299999999999998</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2374,7 +2373,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>101.4</v>
+        <v>102.2</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2386,7 +2385,7 @@
         <v>4075.05</v>
       </c>
       <c r="F34" s="2">
-        <v>17111.25</v>
+        <v>17246.25</v>
       </c>
       <c r="G34">
         <v>0.19</v>
@@ -2395,13 +2394,13 @@
         <v>5.6559999999999997</v>
       </c>
       <c r="I34">
-        <v>17.925999999999998</v>
+        <v>18.067</v>
       </c>
       <c r="J34">
         <v>24.14</v>
       </c>
       <c r="K34">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2409,7 +2408,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>40.6</v>
+        <v>44.1</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2421,7 +2420,7 @@
         <v>474.58</v>
       </c>
       <c r="F35" s="2">
-        <v>2436</v>
+        <v>2646</v>
       </c>
       <c r="G35">
         <v>0.03</v>
@@ -2430,13 +2429,13 @@
         <v>0.72</v>
       </c>
       <c r="I35">
-        <v>56.401000000000003</v>
+        <v>61.264000000000003</v>
       </c>
       <c r="J35">
         <v>7.9</v>
       </c>
       <c r="K35">
-        <v>5.13</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2444,7 +2443,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>16.940000000000001</v>
+        <v>16.77</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2456,22 +2455,22 @@
         <v>9853</v>
       </c>
       <c r="F36" s="2">
-        <v>11507.68</v>
+        <v>11392.2</v>
       </c>
       <c r="G36">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H36">
         <v>0.28100000000000003</v>
       </c>
       <c r="I36">
-        <v>60.249000000000002</v>
+        <v>59.645000000000003</v>
       </c>
       <c r="J36">
         <v>14.5</v>
       </c>
       <c r="K36">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2479,7 +2478,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>29.55</v>
+        <v>30.2</v>
       </c>
       <c r="C37">
         <v>562.5</v>
@@ -2491,22 +2490,22 @@
         <v>11252.6</v>
       </c>
       <c r="F37" s="2">
-        <v>16621.88</v>
+        <v>16987.5</v>
       </c>
       <c r="G37">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H37">
         <v>0.59399999999999997</v>
       </c>
       <c r="I37">
-        <v>49.750999999999998</v>
+        <v>50.844999999999999</v>
       </c>
       <c r="J37">
         <v>20</v>
       </c>
       <c r="K37">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2514,7 +2513,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>65.3</v>
+        <v>64.3</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2526,7 +2525,7 @@
         <v>533.52</v>
       </c>
       <c r="F38" s="2">
-        <v>2420.67</v>
+        <v>2383.6</v>
       </c>
       <c r="G38">
         <v>0.03</v>
@@ -2535,13 +2534,13 @@
         <v>1.825</v>
       </c>
       <c r="I38">
-        <v>35.776000000000003</v>
+        <v>35.228999999999999</v>
       </c>
       <c r="J38">
         <v>14.39</v>
       </c>
       <c r="K38">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2549,7 +2548,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>18.88</v>
+        <v>19.82</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2561,22 +2560,22 @@
         <v>15430</v>
       </c>
       <c r="F39" s="2">
-        <v>13845.33</v>
+        <v>14534.66</v>
       </c>
       <c r="G39">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H39">
         <v>0.6</v>
       </c>
       <c r="I39">
-        <v>31.466000000000001</v>
+        <v>33.033000000000001</v>
       </c>
       <c r="J39">
         <v>21.04</v>
       </c>
       <c r="K39">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2584,7 +2583,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>30.6</v>
+        <v>30.98</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2596,7 +2595,7 @@
         <v>2915</v>
       </c>
       <c r="F40" s="2">
-        <v>7956</v>
+        <v>8054.8</v>
       </c>
       <c r="G40">
         <v>0.09</v>
@@ -2611,7 +2610,7 @@
         <v>11.21</v>
       </c>
       <c r="K40">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2619,7 +2618,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>4.6100000000000003</v>
+        <v>5.17</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2631,7 +2630,7 @@
         <v>10731.37</v>
       </c>
       <c r="F41" s="2">
-        <v>6915</v>
+        <v>7755</v>
       </c>
       <c r="G41">
         <v>0.08</v>
@@ -2646,7 +2645,7 @@
         <v>7.15</v>
       </c>
       <c r="K41">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2654,7 +2653,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>28.95</v>
+        <v>31.66</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2666,10 +2665,10 @@
         <v>93.41</v>
       </c>
       <c r="F42">
-        <v>434.25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
+        <v>474.9</v>
+      </c>
+      <c r="G42">
+        <v>0.01</v>
       </c>
       <c r="H42">
         <v>-7.3730000000000002</v>
@@ -2681,7 +2680,7 @@
         <v>6.22</v>
       </c>
       <c r="K42">
-        <v>4.6399999999999997</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2689,7 +2688,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>7.97</v>
+        <v>8.24</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2701,7 +2700,7 @@
         <v>2053.0500000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>1354.9</v>
+        <v>1400.8</v>
       </c>
       <c r="G43">
         <v>0.02</v>
@@ -2710,13 +2709,13 @@
         <v>0.437</v>
       </c>
       <c r="I43">
-        <v>18.257000000000001</v>
+        <v>18.876000000000001</v>
       </c>
       <c r="J43">
         <v>12.07</v>
       </c>
       <c r="K43">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2724,7 +2723,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>16.84</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2736,7 +2735,7 @@
         <v>1846.52</v>
       </c>
       <c r="F44" s="2">
-        <v>2357.6</v>
+        <v>2436</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2745,13 +2744,13 @@
         <v>1.101</v>
       </c>
       <c r="I44">
-        <v>15.302</v>
+        <v>15.81</v>
       </c>
       <c r="J44">
         <v>13.18</v>
       </c>
       <c r="K44">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2759,7 +2758,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>7.78</v>
+        <v>7.84</v>
       </c>
       <c r="C45">
         <v>180</v>
@@ -2771,7 +2770,7 @@
         <v>2264.7800000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>1400.4</v>
+        <v>1411.2</v>
       </c>
       <c r="G45">
         <v>0.02</v>
@@ -2780,13 +2779,13 @@
         <v>0.317</v>
       </c>
       <c r="I45">
-        <v>24.533000000000001</v>
+        <v>24.722999999999999</v>
       </c>
       <c r="J45">
         <v>12.58</v>
       </c>
       <c r="K45">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2794,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>16.3</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>55</v>
@@ -2806,7 +2805,7 @@
         <v>824.47</v>
       </c>
       <c r="F46">
-        <v>896.5</v>
+        <v>935</v>
       </c>
       <c r="G46">
         <v>0.01</v>
@@ -2815,13 +2814,13 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="I46">
-        <v>20.300999999999998</v>
+        <v>21.172999999999998</v>
       </c>
       <c r="J46">
         <v>14.99</v>
       </c>
       <c r="K46">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2829,7 +2828,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2841,7 +2840,7 @@
         <v>289.64999999999998</v>
       </c>
       <c r="F47">
-        <v>580.5</v>
+        <v>591.75</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2850,13 +2849,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I47">
-        <v>6450</v>
+        <v>6575</v>
       </c>
       <c r="J47">
         <v>12.87</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2864,7 +2863,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2876,7 +2875,7 @@
         <v>107.08</v>
       </c>
       <c r="F48">
-        <v>488.26</v>
+        <v>490.52</v>
       </c>
       <c r="G48">
         <v>0.01</v>
@@ -2891,7 +2890,7 @@
         <v>0.47</v>
       </c>
       <c r="K48">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2899,7 +2898,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>23.48</v>
+        <v>23.56</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2911,7 +2910,7 @@
         <v>2586.1</v>
       </c>
       <c r="F49" s="2">
-        <v>2348</v>
+        <v>2356</v>
       </c>
       <c r="G49">
         <v>0.03</v>
@@ -2920,13 +2919,13 @@
         <v>1.296</v>
       </c>
       <c r="I49">
-        <v>18.117000000000001</v>
+        <v>18.178999999999998</v>
       </c>
       <c r="J49">
         <v>25.86</v>
       </c>
       <c r="K49">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2934,7 +2933,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>33.5</v>
+        <v>34.06</v>
       </c>
       <c r="C50">
         <v>202.5</v>
@@ -2946,7 +2945,7 @@
         <v>4985.1000000000004</v>
       </c>
       <c r="F50" s="2">
-        <v>6783.75</v>
+        <v>6897.15</v>
       </c>
       <c r="G50">
         <v>0.08</v>
@@ -2955,13 +2954,13 @@
         <v>2.2109999999999999</v>
       </c>
       <c r="I50">
-        <v>15.15</v>
+        <v>15.404</v>
       </c>
       <c r="J50">
         <v>24.61</v>
       </c>
       <c r="K50">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2969,7 +2968,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>40</v>
+        <v>39.58</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2981,7 +2980,7 @@
         <v>2349</v>
       </c>
       <c r="F51" s="2">
-        <v>6120</v>
+        <v>6055.74</v>
       </c>
       <c r="G51">
         <v>7.0000000000000007E-2</v>
@@ -2990,13 +2989,13 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="I51">
-        <v>14.69</v>
+        <v>14.536</v>
       </c>
       <c r="J51">
         <v>15.35</v>
       </c>
       <c r="K51">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3004,7 +3003,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>50.1</v>
+        <v>51.05</v>
       </c>
       <c r="C52">
         <v>110.559</v>
@@ -3016,7 +3015,7 @@
         <v>2770.28</v>
       </c>
       <c r="F52" s="2">
-        <v>5539.01</v>
+        <v>5644.04</v>
       </c>
       <c r="G52">
         <v>0.06</v>
@@ -3025,13 +3024,13 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="I52">
-        <v>17.244</v>
+        <v>17.571000000000002</v>
       </c>
       <c r="J52">
         <v>25.05</v>
       </c>
       <c r="K52">
-        <v>1.99</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3039,7 +3038,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>27.95</v>
+        <v>28.72</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3051,7 +3050,7 @@
         <v>3398</v>
       </c>
       <c r="F53" s="2">
-        <v>3913</v>
+        <v>4020.8</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3060,13 +3059,13 @@
         <v>1.4930000000000001</v>
       </c>
       <c r="I53">
-        <v>18.722000000000001</v>
+        <v>19.238</v>
       </c>
       <c r="J53">
         <v>24.27</v>
       </c>
       <c r="K53">
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3074,7 +3073,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>20.32</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3086,22 +3085,22 @@
         <v>2635.99</v>
       </c>
       <c r="F54" s="2">
-        <v>3150</v>
+        <v>3200.4</v>
       </c>
       <c r="G54">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H54">
         <v>0.81699999999999995</v>
       </c>
       <c r="I54">
-        <v>24.469000000000001</v>
+        <v>24.861000000000001</v>
       </c>
       <c r="J54">
         <v>16.73</v>
       </c>
       <c r="K54">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3109,7 +3108,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>30.7</v>
+        <v>31.16</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3121,7 +3120,7 @@
         <v>2267</v>
       </c>
       <c r="F55" s="2">
-        <v>2640.2</v>
+        <v>2679.76</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3130,13 +3129,13 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="I55">
-        <v>10.909000000000001</v>
+        <v>11.073</v>
       </c>
       <c r="J55">
         <v>26.36</v>
       </c>
       <c r="K55">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3144,7 +3143,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>10.92</v>
+        <v>11.12</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -3155,8 +3154,8 @@
       <c r="E56" s="2">
         <v>1192.03</v>
       </c>
-      <c r="F56">
-        <v>982.8</v>
+      <c r="F56" s="2">
+        <v>1000.8</v>
       </c>
       <c r="G56">
         <v>0.01</v>
@@ -3165,13 +3164,13 @@
         <v>0.85</v>
       </c>
       <c r="I56">
-        <v>12.848000000000001</v>
+        <v>13.084</v>
       </c>
       <c r="J56">
         <v>13.24</v>
       </c>
       <c r="K56">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3179,7 +3178,7 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="C57">
         <v>108.7</v>
@@ -3191,7 +3190,7 @@
         <v>1101.25</v>
       </c>
       <c r="F57">
-        <v>832.64</v>
+        <v>831.56</v>
       </c>
       <c r="G57">
         <v>0.01</v>
@@ -3214,7 +3213,7 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>31.35</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="C58">
         <v>120</v>
@@ -3226,7 +3225,7 @@
         <v>1856.93</v>
       </c>
       <c r="F58" s="2">
-        <v>3762</v>
+        <v>3854.4</v>
       </c>
       <c r="G58">
         <v>0.04</v>
@@ -3235,13 +3234,13 @@
         <v>2.6339999999999999</v>
       </c>
       <c r="I58">
-        <v>11.904</v>
+        <v>12.196</v>
       </c>
       <c r="J58">
         <v>15.47</v>
       </c>
       <c r="K58">
-        <v>2.02</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3258,22 +3257,22 @@
         <v>340669.09</v>
       </c>
       <c r="F59" s="2">
-        <v>561828.02</v>
+        <v>579290.17000000004</v>
       </c>
       <c r="G59">
-        <v>6.27</v>
+        <v>6.4</v>
       </c>
       <c r="H59">
         <v>0.752</v>
       </c>
       <c r="I59">
-        <v>38.11</v>
+        <v>39.25</v>
       </c>
       <c r="J59">
         <v>22.74</v>
       </c>
       <c r="K59">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3281,7 +3280,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>153</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3293,7 +3292,7 @@
         <v>2700.53</v>
       </c>
       <c r="F60" s="2">
-        <v>12240</v>
+        <v>12864</v>
       </c>
       <c r="G60">
         <v>0.14000000000000001</v>
@@ -3302,13 +3301,13 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="I60">
-        <v>20.016999999999999</v>
+        <v>21.036999999999999</v>
       </c>
       <c r="J60">
         <v>33.75</v>
       </c>
       <c r="K60">
-        <v>4.53</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3316,7 +3315,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>26.8</v>
+        <v>27.82</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3328,7 +3327,7 @@
         <v>825.67</v>
       </c>
       <c r="F61" s="2">
-        <v>1487.4</v>
+        <v>1544.01</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3337,13 +3336,13 @@
         <v>1.379</v>
       </c>
       <c r="I61">
-        <v>19.431999999999999</v>
+        <v>20.172000000000001</v>
       </c>
       <c r="J61">
         <v>14.87</v>
       </c>
       <c r="K61">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3351,7 +3350,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>51.5</v>
+        <v>52.8</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3363,7 +3362,7 @@
         <v>964.6</v>
       </c>
       <c r="F62" s="2">
-        <v>3090</v>
+        <v>3168</v>
       </c>
       <c r="G62">
         <v>0.03</v>
@@ -3372,13 +3371,13 @@
         <v>1.89</v>
       </c>
       <c r="I62">
-        <v>27.251000000000001</v>
+        <v>27.937999999999999</v>
       </c>
       <c r="J62">
         <v>16.07</v>
       </c>
       <c r="K62">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3386,7 +3385,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>7.9</v>
+        <v>8.41</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3398,7 +3397,7 @@
         <v>930.83</v>
       </c>
       <c r="F63" s="2">
-        <v>8887.5</v>
+        <v>9461.25</v>
       </c>
       <c r="G63">
         <v>0.1</v>
@@ -3407,13 +3406,13 @@
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>19.753</v>
+        <v>21.027999999999999</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>9.5399999999999991</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3421,7 +3420,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>29.2</v>
+        <v>29.98</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3433,7 +3432,7 @@
         <v>1444.71</v>
       </c>
       <c r="F64" s="2">
-        <v>2920</v>
+        <v>2998</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3448,7 +3447,7 @@
         <v>14.44</v>
       </c>
       <c r="K64">
-        <v>2.02</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3456,7 +3455,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>146.19999999999999</v>
+        <v>147</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3468,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>975.45</v>
+        <v>980.78</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3491,7 +3490,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>20.8</v>
+        <v>22.59</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3502,8 +3501,8 @@
       <c r="E66">
         <v>908.22</v>
       </c>
-      <c r="F66">
-        <v>926.64</v>
+      <c r="F66" s="2">
+        <v>1006.38</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3518,7 +3517,7 @@
         <v>20.38</v>
       </c>
       <c r="K66">
-        <v>1.02</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3526,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>53.5</v>
+        <v>54.75</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3538,7 +3537,7 @@
         <v>1078.5999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>3421.11</v>
+        <v>3501.04</v>
       </c>
       <c r="G67">
         <v>0.04</v>
@@ -3547,13 +3546,13 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="I67">
-        <v>12.605</v>
+        <v>12.898999999999999</v>
       </c>
       <c r="J67">
         <v>16.86</v>
       </c>
       <c r="K67">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3561,7 +3560,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>33</v>
+        <v>33.42</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3573,7 +3572,7 @@
         <v>490.64</v>
       </c>
       <c r="F68" s="2">
-        <v>1320</v>
+        <v>1336.8</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3582,13 +3581,13 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="I68">
-        <v>15.670999999999999</v>
+        <v>15.87</v>
       </c>
       <c r="J68">
         <v>12.26</v>
       </c>
       <c r="K68">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3596,7 +3595,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3608,7 +3607,7 @@
         <v>409.58</v>
       </c>
       <c r="F69" s="2">
-        <v>1374</v>
+        <v>1404</v>
       </c>
       <c r="G69">
         <v>0.02</v>
@@ -3623,7 +3622,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3631,7 +3630,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3643,7 +3642,7 @@
         <v>123.96</v>
       </c>
       <c r="F70">
-        <v>419.9</v>
+        <v>429.62</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3658,7 +3657,7 @@
         <v>0.63</v>
       </c>
       <c r="K70">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3666,7 +3665,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>28.2</v>
+        <v>29.2</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3678,7 +3677,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="F71">
-        <v>338.4</v>
+        <v>350.4</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3693,7 +3692,7 @@
         <v>12.81</v>
       </c>
       <c r="K71">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3701,7 +3700,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>141</v>
+        <v>141.4</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3713,7 +3712,7 @@
         <v>2899.91</v>
       </c>
       <c r="F72" s="2">
-        <v>21150</v>
+        <v>21210</v>
       </c>
       <c r="G72">
         <v>0.23</v>
@@ -3722,13 +3721,13 @@
         <v>6.0270000000000001</v>
       </c>
       <c r="I72">
-        <v>23.391999999999999</v>
+        <v>23.459</v>
       </c>
       <c r="J72">
         <v>19.329999999999998</v>
       </c>
       <c r="K72">
-        <v>7.29</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,7 +3735,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>44.1</v>
+        <v>43.18</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3748,7 +3747,7 @@
         <v>528.99</v>
       </c>
       <c r="F73" s="2">
-        <v>1764</v>
+        <v>1727.2</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3757,13 +3756,13 @@
         <v>2.0289999999999999</v>
       </c>
       <c r="I73">
-        <v>21.736999999999998</v>
+        <v>21.283999999999999</v>
       </c>
       <c r="J73">
         <v>13.22</v>
       </c>
       <c r="K73">
-        <v>3.33</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3771,7 +3770,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>64</v>
+        <v>66.3</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3783,7 +3782,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="F74">
-        <v>800</v>
+        <v>828.75</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3792,13 +3791,13 @@
         <v>1.913</v>
       </c>
       <c r="I74">
-        <v>33.457999999999998</v>
+        <v>34.661000000000001</v>
       </c>
       <c r="J74">
         <v>12.89</v>
       </c>
       <c r="K74">
-        <v>4.96</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3815,7 +3814,7 @@
         <v>13621.27</v>
       </c>
       <c r="F75" s="2">
-        <v>61114.400000000001</v>
+        <v>62810.23</v>
       </c>
       <c r="G75">
         <v>0.67</v>
@@ -3824,13 +3823,13 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="I75">
-        <v>20.702000000000002</v>
+        <v>21.268000000000001</v>
       </c>
       <c r="J75">
         <v>5.27</v>
       </c>
       <c r="K75">
-        <v>4.49</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3838,7 +3837,7 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>4.9800000000000004</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="C76">
         <v>475</v>
@@ -3850,7 +3849,7 @@
         <v>613.96</v>
       </c>
       <c r="F76" s="2">
-        <v>2365.5</v>
+        <v>2427.25</v>
       </c>
       <c r="G76">
         <v>0.03</v>
@@ -3859,13 +3858,13 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="I76">
-        <v>23.388000000000002</v>
+        <v>23.998000000000001</v>
       </c>
       <c r="J76">
         <v>1.29</v>
       </c>
       <c r="K76">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3873,7 +3872,7 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="C77">
         <v>175</v>
@@ -3885,7 +3884,7 @@
         <v>167.63</v>
       </c>
       <c r="F77">
-        <v>528.5</v>
+        <v>523.25</v>
       </c>
       <c r="G77">
         <v>0.01</v>
@@ -3900,7 +3899,7 @@
         <v>0.95</v>
       </c>
       <c r="K77">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3908,7 +3907,7 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>139.6</v>
+        <v>138.5</v>
       </c>
       <c r="C78">
         <v>15</v>
@@ -3920,7 +3919,7 @@
         <v>410.42</v>
       </c>
       <c r="F78" s="2">
-        <v>2094</v>
+        <v>2077.5</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -3929,13 +3928,13 @@
         <v>6.5970000000000004</v>
       </c>
       <c r="I78">
-        <v>21.161999999999999</v>
+        <v>20.995000000000001</v>
       </c>
       <c r="J78">
         <v>27.36</v>
       </c>
       <c r="K78">
-        <v>5.0999999999999996</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3943,7 +3942,7 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="C79">
         <v>400</v>
@@ -3955,7 +3954,7 @@
         <v>586.20000000000005</v>
       </c>
       <c r="F79" s="2">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="G79">
         <v>0.03</v>
@@ -3964,13 +3963,13 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="I79">
-        <v>18.834</v>
+        <v>18.864999999999998</v>
       </c>
       <c r="J79">
         <v>1.46</v>
       </c>
       <c r="K79">
-        <v>4.13</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3978,7 +3977,7 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>54</v>
+        <v>53.85</v>
       </c>
       <c r="C80">
         <v>26.5</v>
@@ -3990,7 +3989,7 @@
         <v>375.3</v>
       </c>
       <c r="F80" s="2">
-        <v>1431</v>
+        <v>1427.03</v>
       </c>
       <c r="G80">
         <v>0.02</v>
@@ -3999,13 +3998,13 @@
         <v>3.528</v>
       </c>
       <c r="I80">
-        <v>15.304</v>
+        <v>15.262</v>
       </c>
       <c r="J80">
         <v>14.16</v>
       </c>
       <c r="K80">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4013,7 +4012,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>11.84</v>
+        <v>12.28</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4025,7 +4024,7 @@
         <v>257.07</v>
       </c>
       <c r="F81">
-        <v>710.4</v>
+        <v>736.8</v>
       </c>
       <c r="G81">
         <v>0.01</v>
@@ -4040,7 +4039,7 @@
         <v>4.28</v>
       </c>
       <c r="K81">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4092,7 +4091,7 @@
         <v>3842.87</v>
       </c>
       <c r="F83" s="2">
-        <v>19459</v>
+        <v>19525.43</v>
       </c>
       <c r="G83">
         <v>0.23</v>
@@ -4101,13 +4100,13 @@
         <v>0.45</v>
       </c>
       <c r="I83">
-        <v>23.401</v>
+        <v>23.459</v>
       </c>
       <c r="J83">
         <v>3.12</v>
       </c>
       <c r="K83">
-        <v>5.0599999999999996</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4115,7 +4114,7 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>30.55</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="C84">
         <v>81.599999999999994</v>
@@ -4127,7 +4126,7 @@
         <v>1494</v>
       </c>
       <c r="F84" s="2">
-        <v>2492.88</v>
+        <v>2683.01</v>
       </c>
       <c r="G84">
         <v>0.03</v>
@@ -4136,13 +4135,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I84">
-        <v>55.274000000000001</v>
+        <v>59.49</v>
       </c>
       <c r="J84">
         <v>18.3</v>
       </c>
       <c r="K84">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4150,7 +4149,7 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>48.1</v>
+        <v>48.96</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -4162,7 +4161,7 @@
         <v>2423.3200000000002</v>
       </c>
       <c r="F85" s="2">
-        <v>9042.7999999999993</v>
+        <v>9204.48</v>
       </c>
       <c r="G85">
         <v>0.1</v>
@@ -4171,13 +4170,13 @@
         <v>1.88</v>
       </c>
       <c r="I85">
-        <v>25.58</v>
+        <v>26.038</v>
       </c>
       <c r="J85">
         <v>12.89</v>
       </c>
       <c r="K85">
-        <v>3.73</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4185,7 +4184,7 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>13.74</v>
+        <v>14.12</v>
       </c>
       <c r="C86">
         <v>125</v>
@@ -4197,7 +4196,7 @@
         <v>897.57</v>
       </c>
       <c r="F86" s="2">
-        <v>1717.5</v>
+        <v>1765</v>
       </c>
       <c r="G86">
         <v>0.02</v>
@@ -4206,13 +4205,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="I86">
-        <v>39.329000000000001</v>
+        <v>40.415999999999997</v>
       </c>
       <c r="J86">
         <v>7.18</v>
       </c>
       <c r="K86">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4220,7 +4219,7 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>72.7</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C87">
         <v>78.165999999999997</v>
@@ -4232,7 +4231,7 @@
         <v>2821.3</v>
       </c>
       <c r="F87" s="2">
-        <v>5682.67</v>
+        <v>5659.22</v>
       </c>
       <c r="G87">
         <v>0.06</v>
@@ -4241,13 +4240,13 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="I87">
-        <v>17.396999999999998</v>
+        <v>17.324999999999999</v>
       </c>
       <c r="J87">
         <v>36.090000000000003</v>
       </c>
       <c r="K87">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4255,7 +4254,7 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>66.2</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C88">
         <v>43</v>
@@ -4267,7 +4266,7 @@
         <v>850.43</v>
       </c>
       <c r="F88" s="2">
-        <v>2846.6</v>
+        <v>2885.3</v>
       </c>
       <c r="G88">
         <v>0.03</v>
@@ -4276,13 +4275,13 @@
         <v>4.3630000000000004</v>
       </c>
       <c r="I88">
-        <v>15.173999999999999</v>
+        <v>15.38</v>
       </c>
       <c r="J88">
         <v>19.77</v>
       </c>
       <c r="K88">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4290,7 +4289,7 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>59.2</v>
+        <v>61.65</v>
       </c>
       <c r="C89">
         <v>55</v>
@@ -4302,7 +4301,7 @@
         <v>1265.3900000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>3256</v>
+        <v>3390.75</v>
       </c>
       <c r="G89">
         <v>0.04</v>
@@ -4311,13 +4310,13 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="I89">
-        <v>17.251000000000001</v>
+        <v>17.965</v>
       </c>
       <c r="J89">
         <v>23</v>
       </c>
       <c r="K89">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4325,7 +4324,7 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>179.6</v>
+        <v>187.8</v>
       </c>
       <c r="C90">
         <v>80</v>
@@ -4337,7 +4336,7 @@
         <v>1449</v>
       </c>
       <c r="F90" s="2">
-        <v>14368</v>
+        <v>15024</v>
       </c>
       <c r="G90">
         <v>0.16</v>
@@ -4346,13 +4345,13 @@
         <v>7.5759999999999996</v>
       </c>
       <c r="I90">
-        <v>23.706</v>
+        <v>24.788</v>
       </c>
       <c r="J90">
         <v>18.11</v>
       </c>
       <c r="K90">
-        <v>9.91</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4360,7 +4359,7 @@
         <v>296</v>
       </c>
       <c r="B91">
-        <v>80.599999999999994</v>
+        <v>82.2</v>
       </c>
       <c r="C91">
         <v>170.851</v>
@@ -4372,7 +4371,7 @@
         <v>32</v>
       </c>
       <c r="F91" s="2">
-        <v>13770.59</v>
+        <v>14043.95</v>
       </c>
       <c r="G91">
         <v>0.15</v>
@@ -4404,7 +4403,7 @@
         <v>11201.01</v>
       </c>
       <c r="F92" s="2">
-        <v>53177.04</v>
+        <v>54655.71</v>
       </c>
       <c r="G92">
         <v>0.59</v>
@@ -4413,13 +4412,13 @@
         <v>2.1320000000000001</v>
       </c>
       <c r="I92">
-        <v>22.501000000000001</v>
+        <v>23.189</v>
       </c>
       <c r="J92">
         <v>13.63</v>
       </c>
       <c r="K92">
-        <v>4.75</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4427,7 +4426,7 @@
         <v>102</v>
       </c>
       <c r="B93">
-        <v>86.6</v>
+        <v>97</v>
       </c>
       <c r="C93">
         <v>10.897</v>
@@ -4438,8 +4437,8 @@
       <c r="E93">
         <v>39.29</v>
       </c>
-      <c r="F93">
-        <v>943.68</v>
+      <c r="F93" s="2">
+        <v>1057.01</v>
       </c>
       <c r="G93">
         <v>0.01</v>
@@ -4454,7 +4453,7 @@
         <v>3.6</v>
       </c>
       <c r="K93">
-        <v>24.01</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4462,7 +4461,7 @@
         <v>103</v>
       </c>
       <c r="B94">
-        <v>26.6</v>
+        <v>30.92</v>
       </c>
       <c r="C94">
         <v>13.5</v>
@@ -4474,7 +4473,7 @@
         <v>64.38</v>
       </c>
       <c r="F94" s="2">
-        <v>359.1</v>
+        <v>417.42</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -4489,7 +4488,7 @@
         <v>4.76</v>
       </c>
       <c r="K94">
-        <v>5.57</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4497,7 +4496,7 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>12.62</v>
+        <v>13.62</v>
       </c>
       <c r="C95">
         <v>81.25</v>
@@ -4509,7 +4508,7 @@
         <v>1043.97</v>
       </c>
       <c r="F95" s="2">
-        <v>1025.3800000000001</v>
+        <v>1106.6300000000001</v>
       </c>
       <c r="G95">
         <v>0.01</v>
@@ -4524,7 +4523,7 @@
         <v>12.84</v>
       </c>
       <c r="K95">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4532,7 +4531,7 @@
         <v>105</v>
       </c>
       <c r="B96">
-        <v>12.98</v>
+        <v>13.26</v>
       </c>
       <c r="C96">
         <v>57.5</v>
@@ -4544,7 +4543,7 @@
         <v>293.3</v>
       </c>
       <c r="F96" s="2">
-        <v>746.35</v>
+        <v>762.45</v>
       </c>
       <c r="G96">
         <v>0.01</v>
@@ -4559,7 +4558,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K96">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4567,7 +4566,7 @@
         <v>106</v>
       </c>
       <c r="B97">
-        <v>3.98</v>
+        <v>4.09</v>
       </c>
       <c r="C97">
         <v>400</v>
@@ -4579,7 +4578,7 @@
         <v>614.85</v>
       </c>
       <c r="F97" s="2">
-        <v>1592</v>
+        <v>1636</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -4588,13 +4587,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I97">
-        <v>14.895</v>
+        <v>15.305999999999999</v>
       </c>
       <c r="J97">
         <v>1.53</v>
       </c>
       <c r="K97">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4602,7 +4601,7 @@
         <v>107</v>
       </c>
       <c r="B98">
-        <v>3.43</v>
+        <v>3.51</v>
       </c>
       <c r="C98">
         <v>275</v>
@@ -4614,7 +4613,7 @@
         <v>465.35</v>
       </c>
       <c r="F98" s="2">
-        <v>943.25</v>
+        <v>965.25</v>
       </c>
       <c r="G98">
         <v>0.01</v>
@@ -4623,13 +4622,13 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I98">
-        <v>82.021000000000001</v>
+        <v>83.933999999999997</v>
       </c>
       <c r="J98">
         <v>1.69</v>
       </c>
       <c r="K98">
-        <v>2.02</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4646,7 +4645,7 @@
         <v>2521.14</v>
       </c>
       <c r="F99" s="2">
-        <v>5609.76</v>
+        <v>5944.76</v>
       </c>
       <c r="G99">
         <v>0.06</v>
@@ -4655,13 +4654,13 @@
         <v>-0.121</v>
       </c>
       <c r="I99">
-        <v>21.416</v>
+        <v>21.974</v>
       </c>
       <c r="J99">
         <v>3.01</v>
       </c>
       <c r="K99">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4669,7 +4668,7 @@
         <v>109</v>
       </c>
       <c r="B100">
-        <v>24.84</v>
+        <v>25.38</v>
       </c>
       <c r="C100">
         <v>300</v>
@@ -4681,7 +4680,7 @@
         <v>5992</v>
       </c>
       <c r="F100" s="2">
-        <v>7452</v>
+        <v>7614</v>
       </c>
       <c r="G100">
         <v>0.08</v>
@@ -4696,7 +4695,7 @@
         <v>19.97</v>
       </c>
       <c r="K100">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4704,7 +4703,7 @@
         <v>110</v>
       </c>
       <c r="B101">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="C101">
         <v>315</v>
@@ -4716,7 +4715,7 @@
         <v>191.56</v>
       </c>
       <c r="F101" s="2">
-        <v>642.6</v>
+        <v>670.95</v>
       </c>
       <c r="G101">
         <v>0.01</v>
@@ -4731,7 +4730,7 @@
         <v>0.6</v>
       </c>
       <c r="K101">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4739,7 +4738,7 @@
         <v>111</v>
       </c>
       <c r="B102">
-        <v>125.2</v>
+        <v>129.6</v>
       </c>
       <c r="C102" s="2">
         <v>52.383000000000003</v>
@@ -4751,7 +4750,7 @@
         <v>1238</v>
       </c>
       <c r="F102" s="2">
-        <v>6558.35</v>
+        <v>6788.84</v>
       </c>
       <c r="G102">
         <v>7.0000000000000007E-2</v>
@@ -4760,13 +4759,13 @@
         <v>8.266</v>
       </c>
       <c r="I102">
-        <v>15.146000000000001</v>
+        <v>15.678000000000001</v>
       </c>
       <c r="J102">
         <v>23.63</v>
       </c>
       <c r="K102">
-        <v>5.29</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4774,7 +4773,7 @@
         <v>112</v>
       </c>
       <c r="B103">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="C103" s="2">
         <v>1156.472</v>
@@ -4786,7 +4785,7 @@
         <v>504.42</v>
       </c>
       <c r="F103" s="2">
-        <v>925.18</v>
+        <v>959.87</v>
       </c>
       <c r="G103">
         <v>0.01</v>
@@ -4795,13 +4794,13 @@
         <v>1E-3</v>
       </c>
       <c r="I103">
-        <v>881.12300000000005</v>
+        <v>914.16099999999994</v>
       </c>
       <c r="J103">
         <v>0.43</v>
       </c>
       <c r="K103">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4809,7 +4808,7 @@
         <v>113</v>
       </c>
       <c r="B104">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="C104">
         <v>65</v>
@@ -4821,7 +4820,7 @@
         <v>522.6</v>
       </c>
       <c r="F104" s="2">
-        <v>1618.5</v>
+        <v>1657.5</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4830,13 +4829,13 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I104">
-        <v>94.703999999999994</v>
+        <v>96.986000000000004</v>
       </c>
       <c r="J104">
         <v>8.0399999999999991</v>
       </c>
       <c r="K104">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4844,7 +4843,7 @@
         <v>114</v>
       </c>
       <c r="B105">
-        <v>148</v>
+        <v>160.9</v>
       </c>
       <c r="C105">
         <v>43</v>
@@ -4856,22 +4855,22 @@
         <v>781.31</v>
       </c>
       <c r="F105" s="2">
-        <v>6364</v>
+        <v>6918.7</v>
       </c>
       <c r="G105">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H105">
         <v>3.9769999999999999</v>
       </c>
       <c r="I105">
-        <v>37.216000000000001</v>
+        <v>40.46</v>
       </c>
       <c r="J105">
         <v>18.16</v>
       </c>
       <c r="K105">
-        <v>8.14</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4879,7 +4878,7 @@
         <v>115</v>
       </c>
       <c r="B106">
-        <v>65.2</v>
+        <v>66</v>
       </c>
       <c r="C106">
         <v>42.087000000000003</v>
@@ -4891,7 +4890,7 @@
         <v>789.11</v>
       </c>
       <c r="F106" s="2">
-        <v>2744.07</v>
+        <v>2777.74</v>
       </c>
       <c r="G106">
         <v>0.03</v>
@@ -4900,13 +4899,13 @@
         <v>1.669</v>
       </c>
       <c r="I106">
-        <v>39.055</v>
+        <v>39.534999999999997</v>
       </c>
       <c r="J106">
         <v>18.739999999999998</v>
       </c>
       <c r="K106">
-        <v>3.47</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4914,7 +4913,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>21.7</v>
+        <v>24.11</v>
       </c>
       <c r="C107">
         <v>64.680000000000007</v>
@@ -4926,7 +4925,7 @@
         <v>906.39</v>
       </c>
       <c r="F107" s="2">
-        <v>1403.56</v>
+        <v>1559.43</v>
       </c>
       <c r="G107">
         <v>0.02</v>
@@ -4941,7 +4940,7 @@
         <v>14.01</v>
       </c>
       <c r="K107">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4949,7 +4948,7 @@
         <v>117</v>
       </c>
       <c r="B108">
-        <v>13.76</v>
+        <v>14.08</v>
       </c>
       <c r="C108">
         <v>15.808</v>
@@ -4961,7 +4960,7 @@
         <v>73.14</v>
       </c>
       <c r="F108">
-        <v>217.52</v>
+        <v>222.58</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -4976,7 +4975,7 @@
         <v>4.62</v>
       </c>
       <c r="K108">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4984,7 +4983,7 @@
         <v>118</v>
       </c>
       <c r="B109">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4996,7 +4995,7 @@
         <v>23.69</v>
       </c>
       <c r="F109" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -5005,13 +5004,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="I109">
-        <v>220.279</v>
+        <v>228.67099999999999</v>
       </c>
       <c r="J109">
         <v>7.89</v>
       </c>
       <c r="K109">
-        <v>13.29</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5019,7 +5018,7 @@
         <v>119</v>
       </c>
       <c r="B110">
-        <v>55.6</v>
+        <v>56.55</v>
       </c>
       <c r="C110" s="2">
         <v>25.5</v>
@@ -5031,7 +5030,7 @@
         <v>284.67</v>
       </c>
       <c r="F110" s="2">
-        <v>1417.8</v>
+        <v>1442.03</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -5040,13 +5039,13 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="I110">
-        <v>27.838000000000001</v>
+        <v>28.312999999999999</v>
       </c>
       <c r="J110">
         <v>11.16</v>
       </c>
       <c r="K110">
-        <v>4.9800000000000004</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5054,7 +5053,7 @@
         <v>120</v>
       </c>
       <c r="B111">
-        <v>2.35</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C111" s="2">
         <v>8423.6329999999998</v>
@@ -5066,22 +5065,22 @@
         <v>1608.2</v>
       </c>
       <c r="F111" s="2">
-        <v>19795.54</v>
+        <v>19374.36</v>
       </c>
       <c r="G111">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H111">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I111">
-        <v>32.308999999999997</v>
+        <v>31.620999999999999</v>
       </c>
       <c r="J111">
         <v>0.19</v>
       </c>
       <c r="K111">
-        <v>12.3</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5089,7 +5088,7 @@
         <v>121</v>
       </c>
       <c r="B112">
-        <v>16.32</v>
+        <v>16.78</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -5101,7 +5100,7 @@
         <v>74.260000000000005</v>
       </c>
       <c r="F112" s="2">
-        <v>571.20000000000005</v>
+        <v>587.29999999999995</v>
       </c>
       <c r="G112">
         <v>0.01</v>
@@ -5110,13 +5109,13 @@
         <v>0.154</v>
       </c>
       <c r="I112">
-        <v>106.17100000000001</v>
+        <v>109.163</v>
       </c>
       <c r="J112">
         <v>2.12</v>
       </c>
       <c r="K112">
-        <v>7.69</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5124,7 +5123,7 @@
         <v>122</v>
       </c>
       <c r="B113">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="C113" s="2">
         <v>209.83600000000001</v>
@@ -5136,7 +5135,7 @@
         <v>1277.28</v>
       </c>
       <c r="F113" s="2">
-        <v>5518.69</v>
+        <v>5875.41</v>
       </c>
       <c r="G113">
         <v>0.06</v>
@@ -5145,13 +5144,13 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="I113">
-        <v>26.172000000000001</v>
+        <v>27.864000000000001</v>
       </c>
       <c r="J113">
         <v>6.08</v>
       </c>
       <c r="K113">
-        <v>4.32</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5168,7 +5167,7 @@
         <v>14266.63</v>
       </c>
       <c r="F114" s="2">
-        <v>55544.01</v>
+        <v>56775.71</v>
       </c>
       <c r="G114">
         <v>0.62</v>
@@ -5177,13 +5176,13 @@
         <v>0.111</v>
       </c>
       <c r="I114">
-        <v>29.122</v>
+        <v>29.681000000000001</v>
       </c>
       <c r="J114">
         <v>1.33</v>
       </c>
       <c r="K114">
-        <v>3.89</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5191,7 +5190,7 @@
         <v>124</v>
       </c>
       <c r="B115">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="C115">
         <v>40</v>
@@ -5203,7 +5202,7 @@
         <v>199.72</v>
       </c>
       <c r="F115" s="2">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="G115">
         <v>0.01</v>
@@ -5218,7 +5217,7 @@
         <v>4.99</v>
       </c>
       <c r="K115">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5226,7 +5225,7 @@
         <v>125</v>
       </c>
       <c r="B116">
-        <v>96.9</v>
+        <v>104</v>
       </c>
       <c r="C116">
         <v>55</v>
@@ -5238,7 +5237,7 @@
         <v>1420.63</v>
       </c>
       <c r="F116" s="2">
-        <v>5329.5</v>
+        <v>5720</v>
       </c>
       <c r="G116">
         <v>0.06</v>
@@ -5247,13 +5246,13 @@
         <v>3.976</v>
       </c>
       <c r="I116">
-        <v>24.37</v>
+        <v>26.155000000000001</v>
       </c>
       <c r="J116">
         <v>25.82</v>
       </c>
       <c r="K116">
-        <v>3.75</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5261,7 +5260,7 @@
         <v>126</v>
       </c>
       <c r="B117">
-        <v>36.1</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="C117">
         <v>332.5</v>
@@ -5273,7 +5272,7 @@
         <v>4401.58</v>
       </c>
       <c r="F117" s="2">
-        <v>12003.25</v>
+        <v>11870.25</v>
       </c>
       <c r="G117">
         <v>0.13</v>
@@ -5282,13 +5281,13 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="I117">
-        <v>21.119</v>
+        <v>20.885000000000002</v>
       </c>
       <c r="J117">
         <v>13.23</v>
       </c>
       <c r="K117">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5296,7 +5295,7 @@
         <v>127</v>
       </c>
       <c r="B118">
-        <v>179.8</v>
+        <v>193.4</v>
       </c>
       <c r="C118">
         <v>80</v>
@@ -5308,22 +5307,22 @@
         <v>3251.98</v>
       </c>
       <c r="F118" s="2">
-        <v>14384</v>
+        <v>15472</v>
       </c>
       <c r="G118">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H118">
         <v>1.8220000000000001</v>
       </c>
       <c r="I118">
-        <v>98.682000000000002</v>
+        <v>106.14700000000001</v>
       </c>
       <c r="J118">
         <v>40.64</v>
       </c>
       <c r="K118">
-        <v>4.42</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5340,22 +5339,22 @@
         <v>9273.91</v>
       </c>
       <c r="F119" s="2">
-        <v>32348.75</v>
+        <v>33742.25</v>
       </c>
       <c r="G119">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="H119">
         <v>1.7789999999999999</v>
       </c>
       <c r="I119">
-        <v>34.000999999999998</v>
+        <v>35.444000000000003</v>
       </c>
       <c r="J119">
         <v>18.27</v>
       </c>
       <c r="K119">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5363,7 +5362,7 @@
         <v>129</v>
       </c>
       <c r="B120">
-        <v>87.2</v>
+        <v>88.25</v>
       </c>
       <c r="C120">
         <v>80</v>
@@ -5375,7 +5374,7 @@
         <v>1569.05</v>
       </c>
       <c r="F120" s="2">
-        <v>6976</v>
+        <v>7060</v>
       </c>
       <c r="G120">
         <v>0.08</v>
@@ -5384,13 +5383,13 @@
         <v>6.8</v>
       </c>
       <c r="I120">
-        <v>12.823</v>
+        <v>12.977</v>
       </c>
       <c r="J120">
         <v>19.61</v>
       </c>
       <c r="K120">
-        <v>4.4400000000000004</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5398,7 +5397,7 @@
         <v>130</v>
       </c>
       <c r="B121">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="C121">
         <v>36</v>
@@ -5410,7 +5409,7 @@
         <v>331.15</v>
       </c>
       <c r="F121" s="2">
-        <v>1033.2</v>
+        <v>1072.8</v>
       </c>
       <c r="G121">
         <v>0.01</v>
@@ -5425,7 +5424,7 @@
         <v>9.19</v>
       </c>
       <c r="K121">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5433,7 +5432,7 @@
         <v>131</v>
       </c>
       <c r="B122">
-        <v>61.5</v>
+        <v>63</v>
       </c>
       <c r="C122">
         <v>70</v>
@@ -5445,7 +5444,7 @@
         <v>853.88</v>
       </c>
       <c r="F122" s="2">
-        <v>4305</v>
+        <v>4410</v>
       </c>
       <c r="G122">
         <v>0.05</v>
@@ -5454,13 +5453,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I122">
-        <v>111.84699999999999</v>
+        <v>114.575</v>
       </c>
       <c r="J122">
         <v>12.19</v>
       </c>
       <c r="K122">
-        <v>5.04</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5468,7 +5467,7 @@
         <v>132</v>
       </c>
       <c r="B123">
-        <v>5.55</v>
+        <v>5.74</v>
       </c>
       <c r="C123" s="2">
         <v>101.25</v>
@@ -5480,7 +5479,7 @@
         <v>207.79</v>
       </c>
       <c r="F123" s="2">
-        <v>561.94000000000005</v>
+        <v>581.17999999999995</v>
       </c>
       <c r="G123">
         <v>0.01</v>
@@ -5489,13 +5488,13 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="I123">
-        <v>23.994</v>
+        <v>24.815000000000001</v>
       </c>
       <c r="J123">
         <v>2.0499999999999998</v>
       </c>
       <c r="K123">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5503,7 +5502,7 @@
         <v>133</v>
       </c>
       <c r="B124">
-        <v>12.4</v>
+        <v>12.54</v>
       </c>
       <c r="C124" s="2">
         <v>1200</v>
@@ -5515,7 +5514,7 @@
         <v>1686.2</v>
       </c>
       <c r="F124" s="2">
-        <v>14880</v>
+        <v>15048</v>
       </c>
       <c r="G124">
         <v>0.16</v>
@@ -5524,13 +5523,13 @@
         <v>0.81</v>
       </c>
       <c r="I124">
-        <v>15.31</v>
+        <v>15.483000000000001</v>
       </c>
       <c r="J124">
         <v>1.4</v>
       </c>
       <c r="K124">
-        <v>8.82</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5538,7 +5537,7 @@
         <v>134</v>
       </c>
       <c r="B125">
-        <v>37.35</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -5550,7 +5549,7 @@
         <v>240.19</v>
       </c>
       <c r="F125" s="2">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="G125">
         <v>0.01</v>
@@ -5559,13 +5558,13 @@
         <v>1.23</v>
       </c>
       <c r="I125">
-        <v>30.378</v>
+        <v>31.882000000000001</v>
       </c>
       <c r="J125">
         <v>12</v>
       </c>
       <c r="K125">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5573,7 +5572,7 @@
         <v>135</v>
       </c>
       <c r="B126">
-        <v>7.12</v>
+        <v>7.14</v>
       </c>
       <c r="C126">
         <v>350</v>
@@ -5585,7 +5584,7 @@
         <v>474.37</v>
       </c>
       <c r="F126" s="2">
-        <v>2492</v>
+        <v>2499</v>
       </c>
       <c r="G126">
         <v>0.03</v>
@@ -5594,13 +5593,13 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="I126">
-        <v>60.076999999999998</v>
+        <v>60.244999999999997</v>
       </c>
       <c r="J126">
         <v>1.35</v>
       </c>
       <c r="K126">
-        <v>5.25</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5608,7 +5607,7 @@
         <v>136</v>
       </c>
       <c r="B127">
-        <v>31.2</v>
+        <v>33.04</v>
       </c>
       <c r="C127">
         <v>115.5</v>
@@ -5620,7 +5619,7 @@
         <v>400.6</v>
       </c>
       <c r="F127" s="2">
-        <v>3603.6</v>
+        <v>3816.12</v>
       </c>
       <c r="G127">
         <v>0.04</v>
@@ -5629,13 +5628,13 @@
         <v>0.64</v>
       </c>
       <c r="I127">
-        <v>48.716999999999999</v>
+        <v>51.59</v>
       </c>
       <c r="J127">
         <v>3.46</v>
       </c>
       <c r="K127">
-        <v>8.99</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5643,7 +5642,7 @@
         <v>137</v>
       </c>
       <c r="B128">
-        <v>19.36</v>
+        <v>24.62</v>
       </c>
       <c r="C128" s="2">
         <v>114.76600000000001</v>
@@ -5655,10 +5654,10 @@
         <v>32</v>
       </c>
       <c r="F128" s="2">
-        <v>2221.87</v>
+        <v>2825.54</v>
       </c>
       <c r="G128">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H128" t="s">
         <v>32</v>
@@ -5687,22 +5686,22 @@
         <v>5763.23</v>
       </c>
       <c r="F129" s="2">
-        <v>36820.61</v>
+        <v>38096.639999999999</v>
       </c>
       <c r="G129">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="H129">
         <v>0.82099999999999995</v>
       </c>
       <c r="I129">
-        <v>19.539000000000001</v>
+        <v>19.907</v>
       </c>
       <c r="J129">
         <v>2.76</v>
       </c>
       <c r="K129">
-        <v>6.39</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5710,7 +5709,7 @@
         <v>139</v>
       </c>
       <c r="B130">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="C130">
         <v>900</v>
@@ -5722,7 +5721,7 @@
         <v>1352.04</v>
       </c>
       <c r="F130" s="2">
-        <v>7092</v>
+        <v>7002</v>
       </c>
       <c r="G130">
         <v>0.08</v>
@@ -5731,13 +5730,13 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="I130">
-        <v>14.795</v>
+        <v>14.606999999999999</v>
       </c>
       <c r="J130">
         <v>1.5</v>
       </c>
       <c r="K130">
-        <v>5.24</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5745,7 +5744,7 @@
         <v>140</v>
       </c>
       <c r="B131">
-        <v>16.8</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="C131">
         <v>45</v>
@@ -5757,7 +5756,7 @@
         <v>690.64</v>
       </c>
       <c r="F131">
-        <v>756</v>
+        <v>829.8</v>
       </c>
       <c r="G131">
         <v>0.01</v>
@@ -5766,13 +5765,13 @@
         <v>0.54</v>
       </c>
       <c r="I131">
-        <v>31.111000000000001</v>
+        <v>34.148000000000003</v>
       </c>
       <c r="J131">
         <v>15.34</v>
       </c>
       <c r="K131">
-        <v>1.0900000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5780,7 +5779,7 @@
         <v>141</v>
       </c>
       <c r="B132">
-        <v>15.64</v>
+        <v>16.41</v>
       </c>
       <c r="C132">
         <v>31.5</v>
@@ -5792,7 +5791,7 @@
         <v>261.01</v>
       </c>
       <c r="F132">
-        <v>492.66</v>
+        <v>516.91999999999996</v>
       </c>
       <c r="G132">
         <v>0.01</v>
@@ -5807,7 +5806,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="K132">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5815,7 +5814,7 @@
         <v>142</v>
       </c>
       <c r="B133">
-        <v>37.200000000000003</v>
+        <v>38.22</v>
       </c>
       <c r="C133" s="2">
         <v>6.5</v>
@@ -5827,7 +5826,7 @@
         <v>20.41</v>
       </c>
       <c r="F133" s="2">
-        <v>241.8</v>
+        <v>248.43</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -5842,7 +5841,7 @@
         <v>3.14</v>
       </c>
       <c r="K133">
-        <v>11.84</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5850,7 +5849,7 @@
         <v>143</v>
       </c>
       <c r="B134">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="C134" s="2">
         <v>1143</v>
@@ -5862,7 +5861,7 @@
         <v>1357.23</v>
       </c>
       <c r="F134" s="2">
-        <v>6869.43</v>
+        <v>6972.3</v>
       </c>
       <c r="G134">
         <v>0.08</v>
@@ -5871,13 +5870,13 @@
         <v>0.25</v>
       </c>
       <c r="I134">
-        <v>24.067</v>
+        <v>24.428000000000001</v>
       </c>
       <c r="J134">
         <v>1.18</v>
       </c>
       <c r="K134">
-        <v>5.0599999999999996</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5885,7 +5884,7 @@
         <v>144</v>
       </c>
       <c r="B135">
-        <v>68.5</v>
+        <v>72</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -5897,7 +5896,7 @@
         <v>1050</v>
       </c>
       <c r="F135" s="2">
-        <v>4110</v>
+        <v>4320</v>
       </c>
       <c r="G135">
         <v>0.05</v>
@@ -5906,13 +5905,13 @@
         <v>3.41</v>
       </c>
       <c r="I135">
-        <v>20.087</v>
+        <v>21.114000000000001</v>
       </c>
       <c r="J135">
         <v>17.5</v>
       </c>
       <c r="K135">
-        <v>3.91</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5920,7 +5919,7 @@
         <v>145</v>
       </c>
       <c r="B136">
-        <v>77.400000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="C136">
         <v>85</v>
@@ -5932,7 +5931,7 @@
         <v>1496.75</v>
       </c>
       <c r="F136" s="2">
-        <v>6579</v>
+        <v>6655.5</v>
       </c>
       <c r="G136">
         <v>7.0000000000000007E-2</v>
@@ -5941,13 +5940,13 @@
         <v>4.47</v>
       </c>
       <c r="I136">
-        <v>17.315000000000001</v>
+        <v>17.515999999999998</v>
       </c>
       <c r="J136">
         <v>17.600000000000001</v>
       </c>
       <c r="K136">
-        <v>4.3899999999999997</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5955,7 +5954,7 @@
         <v>146</v>
       </c>
       <c r="B137">
-        <v>128</v>
+        <v>127.7</v>
       </c>
       <c r="C137" s="2">
         <v>130</v>
@@ -5967,7 +5966,7 @@
         <v>2449.1</v>
       </c>
       <c r="F137" s="2">
-        <v>16640</v>
+        <v>16601</v>
       </c>
       <c r="G137">
         <v>0.18</v>
@@ -5976,13 +5975,13 @@
         <v>6.4850000000000003</v>
       </c>
       <c r="I137">
-        <v>19.739000000000001</v>
+        <v>19.692</v>
       </c>
       <c r="J137">
         <v>18.829999999999998</v>
       </c>
       <c r="K137">
-        <v>6.79</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5999,7 +5998,7 @@
         <v>8677.18</v>
       </c>
       <c r="F138" s="2">
-        <v>42780.89</v>
+        <v>43145.95</v>
       </c>
       <c r="G138">
         <v>0.48</v>
@@ -6008,13 +6007,13 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="I138">
-        <v>18.969000000000001</v>
+        <v>19.119</v>
       </c>
       <c r="J138">
         <v>3.61</v>
       </c>
       <c r="K138">
-        <v>4.93</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6022,7 +6021,7 @@
         <v>148</v>
       </c>
       <c r="B139">
-        <v>27.75</v>
+        <v>27.74</v>
       </c>
       <c r="C139">
         <v>300</v>
@@ -6034,7 +6033,7 @@
         <v>4798.75</v>
       </c>
       <c r="F139" s="2">
-        <v>8325</v>
+        <v>8322</v>
       </c>
       <c r="G139">
         <v>0.09</v>
@@ -6043,7 +6042,7 @@
         <v>32.716000000000001</v>
       </c>
       <c r="I139">
-        <v>0.84799999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="J139">
         <v>15.99</v>
@@ -6057,7 +6056,7 @@
         <v>149</v>
       </c>
       <c r="B140">
-        <v>28.55</v>
+        <v>29.84</v>
       </c>
       <c r="C140">
         <v>23.151</v>
@@ -6069,7 +6068,7 @@
         <v>243.46</v>
       </c>
       <c r="F140" s="2">
-        <v>660.96</v>
+        <v>690.83</v>
       </c>
       <c r="G140">
         <v>0.01</v>
@@ -6084,7 +6083,7 @@
         <v>10.51</v>
       </c>
       <c r="K140">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6092,7 +6091,7 @@
         <v>150</v>
       </c>
       <c r="B141">
-        <v>273.2</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="C141" s="2">
         <v>32.5</v>
@@ -6104,7 +6103,7 @@
         <v>1649.77</v>
       </c>
       <c r="F141" s="2">
-        <v>8879</v>
+        <v>8892</v>
       </c>
       <c r="G141">
         <v>0.1</v>
@@ -6113,7 +6112,7 @@
         <v>14.863</v>
       </c>
       <c r="I141">
-        <v>18.38</v>
+        <v>18.407</v>
       </c>
       <c r="J141">
         <v>50.76</v>
@@ -6127,7 +6126,7 @@
         <v>151</v>
       </c>
       <c r="B142">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="C142" s="2">
         <v>1000</v>
@@ -6139,22 +6138,22 @@
         <v>19703.05</v>
       </c>
       <c r="F142" s="2">
-        <v>51100</v>
+        <v>50700</v>
       </c>
       <c r="G142">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H142">
         <v>2.3519999999999999</v>
       </c>
       <c r="I142">
-        <v>21.725000000000001</v>
+        <v>21.555</v>
       </c>
       <c r="J142">
         <v>19.7</v>
       </c>
       <c r="K142">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6162,7 +6161,7 @@
         <v>152</v>
       </c>
       <c r="B143">
-        <v>97</v>
+        <v>97.15</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -6174,7 +6173,7 @@
         <v>700.9</v>
       </c>
       <c r="F143" s="2">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="G143">
         <v>0.02</v>
@@ -6183,13 +6182,13 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I143">
-        <v>20.681999999999999</v>
+        <v>20.713999999999999</v>
       </c>
       <c r="J143">
         <v>35.04</v>
       </c>
       <c r="K143">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6197,7 +6196,7 @@
         <v>153</v>
       </c>
       <c r="B144">
-        <v>53</v>
+        <v>53.85</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -6209,7 +6208,7 @@
         <v>277.77999999999997</v>
       </c>
       <c r="F144" s="2">
-        <v>1060</v>
+        <v>1077</v>
       </c>
       <c r="G144">
         <v>0.01</v>
@@ -6218,13 +6217,13 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="I144">
-        <v>40.628</v>
+        <v>41.28</v>
       </c>
       <c r="J144">
         <v>13.88</v>
       </c>
       <c r="K144">
-        <v>3.81</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6232,7 +6231,7 @@
         <v>154</v>
       </c>
       <c r="B145">
-        <v>53.5</v>
+        <v>54.3</v>
       </c>
       <c r="C145">
         <v>55.5</v>
@@ -6244,7 +6243,7 @@
         <v>951.96</v>
       </c>
       <c r="F145" s="2">
-        <v>2969.25</v>
+        <v>3013.65</v>
       </c>
       <c r="G145">
         <v>0.03</v>
@@ -6253,13 +6252,13 @@
         <v>4.556</v>
       </c>
       <c r="I145">
-        <v>11.743</v>
+        <v>11.919</v>
       </c>
       <c r="J145">
         <v>17.149999999999999</v>
       </c>
       <c r="K145">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6267,7 +6266,7 @@
         <v>155</v>
       </c>
       <c r="B146">
-        <v>31.65</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C146">
         <v>81.831999999999994</v>
@@ -6279,7 +6278,7 @@
         <v>328.2</v>
       </c>
       <c r="F146" s="2">
-        <v>2589.98</v>
+        <v>2643.17</v>
       </c>
       <c r="G146">
         <v>0.03</v>
@@ -6288,13 +6287,13 @@
         <v>2.5579999999999998</v>
       </c>
       <c r="I146">
-        <v>12.372</v>
+        <v>12.625999999999999</v>
       </c>
       <c r="J146">
         <v>4.01</v>
       </c>
       <c r="K146">
-        <v>7.89</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6302,7 +6301,7 @@
         <v>156</v>
       </c>
       <c r="B147">
-        <v>40.200000000000003</v>
+        <v>41.94</v>
       </c>
       <c r="C147">
         <v>51.314999999999998</v>
@@ -6314,7 +6313,7 @@
         <v>1099.18</v>
       </c>
       <c r="F147" s="2">
-        <v>2062.86</v>
+        <v>2152.15</v>
       </c>
       <c r="G147">
         <v>0.02</v>
@@ -6323,13 +6322,13 @@
         <v>4.33</v>
       </c>
       <c r="I147">
-        <v>9.2840000000000007</v>
+        <v>9.6859999999999999</v>
       </c>
       <c r="J147">
         <v>21.42</v>
       </c>
       <c r="K147">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6337,7 +6336,7 @@
         <v>157</v>
       </c>
       <c r="B148">
-        <v>3.73</v>
+        <v>3.86</v>
       </c>
       <c r="C148">
         <v>540</v>
@@ -6349,7 +6348,7 @@
         <v>706.75</v>
       </c>
       <c r="F148" s="2">
-        <v>2014.2</v>
+        <v>2084.4</v>
       </c>
       <c r="G148">
         <v>0.02</v>
@@ -6358,13 +6357,13 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I148">
-        <v>11.506</v>
+        <v>11.907</v>
       </c>
       <c r="J148">
         <v>1.3</v>
       </c>
       <c r="K148">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6372,7 +6371,7 @@
         <v>158</v>
       </c>
       <c r="B149">
-        <v>43.45</v>
+        <v>43.72</v>
       </c>
       <c r="C149">
         <v>30</v>
@@ -6384,7 +6383,7 @@
         <v>481.8</v>
       </c>
       <c r="F149" s="2">
-        <v>1303.5</v>
+        <v>1311.6</v>
       </c>
       <c r="G149">
         <v>0.01</v>
@@ -6393,13 +6392,13 @@
         <v>0.876</v>
       </c>
       <c r="I149">
-        <v>49.6</v>
+        <v>49.908000000000001</v>
       </c>
       <c r="J149">
         <v>16.059999999999999</v>
       </c>
       <c r="K149">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6407,7 +6406,7 @@
         <v>159</v>
       </c>
       <c r="B150">
-        <v>10.54</v>
+        <v>11.06</v>
       </c>
       <c r="C150">
         <v>126.38800000000001</v>
@@ -6419,22 +6418,22 @@
         <v>1184.5</v>
       </c>
       <c r="F150" s="2">
-        <v>1332.13</v>
+        <v>1397.85</v>
       </c>
       <c r="G150">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H150">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I150">
-        <v>180.017</v>
+        <v>188.898</v>
       </c>
       <c r="J150">
         <v>9.3699999999999992</v>
       </c>
       <c r="K150">
-        <v>1.1200000000000001</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6442,7 +6441,7 @@
         <v>160</v>
       </c>
       <c r="B151">
-        <v>41.4</v>
+        <v>43.62</v>
       </c>
       <c r="C151">
         <v>35.356999999999999</v>
@@ -6454,7 +6453,7 @@
         <v>301.48</v>
       </c>
       <c r="F151" s="2">
-        <v>1463.78</v>
+        <v>1542.27</v>
       </c>
       <c r="G151">
         <v>0.02</v>
@@ -6463,13 +6462,13 @@
         <v>1.718</v>
       </c>
       <c r="I151">
-        <v>24.103000000000002</v>
+        <v>25.395</v>
       </c>
       <c r="J151">
         <v>8.52</v>
       </c>
       <c r="K151">
-        <v>4.8499999999999996</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6477,7 +6476,7 @@
         <v>161</v>
       </c>
       <c r="B152">
-        <v>20.76</v>
+        <v>21.12</v>
       </c>
       <c r="C152">
         <v>301.64</v>
@@ -6489,7 +6488,7 @@
         <v>4400.12</v>
       </c>
       <c r="F152" s="2">
-        <v>6262.05</v>
+        <v>6370.64</v>
       </c>
       <c r="G152">
         <v>7.0000000000000007E-2</v>
@@ -6498,13 +6497,13 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="I152">
-        <v>8.0619999999999994</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="J152">
         <v>14.58</v>
       </c>
       <c r="K152">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6512,7 +6511,7 @@
         <v>162</v>
       </c>
       <c r="B153">
-        <v>16.68</v>
+        <v>17.25</v>
       </c>
       <c r="C153">
         <v>30</v>
@@ -6524,7 +6523,7 @@
         <v>303.17</v>
       </c>
       <c r="F153">
-        <v>500.4</v>
+        <v>517.5</v>
       </c>
       <c r="G153">
         <v>0.01</v>
@@ -6533,13 +6532,13 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I153">
-        <v>58.801000000000002</v>
+        <v>60.81</v>
       </c>
       <c r="J153">
         <v>10.1</v>
       </c>
       <c r="K153">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6547,7 +6546,7 @@
         <v>163</v>
       </c>
       <c r="B154">
-        <v>10.66</v>
+        <v>11.2</v>
       </c>
       <c r="C154">
         <v>39.176000000000002</v>
@@ -6559,7 +6558,7 @@
         <v>172.43</v>
       </c>
       <c r="F154">
-        <v>417.62</v>
+        <v>438.77</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -6574,7 +6573,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K154">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6582,7 +6581,7 @@
         <v>164</v>
       </c>
       <c r="B155">
-        <v>97.5</v>
+        <v>102.4</v>
       </c>
       <c r="C155">
         <v>6.6980000000000004</v>
@@ -6594,7 +6593,7 @@
         <v>74.41</v>
       </c>
       <c r="F155">
-        <v>653.05999999999995</v>
+        <v>685.88</v>
       </c>
       <c r="G155">
         <v>0.01</v>
@@ -6609,7 +6608,7 @@
         <v>11.1</v>
       </c>
       <c r="K155">
-        <v>8.77</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6617,7 +6616,7 @@
         <v>165</v>
       </c>
       <c r="B156">
-        <v>16.12</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C156">
         <v>30</v>
@@ -6629,7 +6628,7 @@
         <v>352.65</v>
       </c>
       <c r="F156" s="2">
-        <v>483.6</v>
+        <v>508.2</v>
       </c>
       <c r="G156">
         <v>0.01</v>
@@ -6644,7 +6643,7 @@
         <v>11.75</v>
       </c>
       <c r="K156">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6652,7 +6651,7 @@
         <v>166</v>
       </c>
       <c r="B157">
-        <v>43</v>
+        <v>44.18</v>
       </c>
       <c r="C157">
         <v>30</v>
@@ -6664,7 +6663,7 @@
         <v>774.6</v>
       </c>
       <c r="F157" s="2">
-        <v>1290</v>
+        <v>1325.4</v>
       </c>
       <c r="G157">
         <v>0.01</v>
@@ -6673,13 +6672,13 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="I157">
-        <v>16.744</v>
+        <v>17.204000000000001</v>
       </c>
       <c r="J157">
         <v>25.82</v>
       </c>
       <c r="K157">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6687,7 +6686,7 @@
         <v>167</v>
       </c>
       <c r="B158">
-        <v>10.7</v>
+        <v>10.93</v>
       </c>
       <c r="C158" s="2">
         <v>50</v>
@@ -6699,7 +6698,7 @@
         <v>319.25</v>
       </c>
       <c r="F158" s="2">
-        <v>535</v>
+        <v>546.5</v>
       </c>
       <c r="G158">
         <v>0.01</v>
@@ -6714,7 +6713,7 @@
         <v>6.38</v>
       </c>
       <c r="K158">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -6731,7 +6730,7 @@
         <v>38824.21</v>
       </c>
       <c r="F159" s="2">
-        <v>95842.39</v>
+        <v>96162.81</v>
       </c>
       <c r="G159">
         <v>1.06</v>
@@ -6740,13 +6739,13 @@
         <v>5.1230000000000002</v>
       </c>
       <c r="I159">
-        <v>6.3819999999999997</v>
+        <v>6.3959999999999999</v>
       </c>
       <c r="J159">
         <v>13.85</v>
       </c>
       <c r="K159">
-        <v>2.4700000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6754,7 +6753,7 @@
         <v>169</v>
       </c>
       <c r="B160">
-        <v>146.80000000000001</v>
+        <v>148.1</v>
       </c>
       <c r="C160">
         <v>25</v>
@@ -6766,7 +6765,7 @@
         <v>588.99</v>
       </c>
       <c r="F160" s="2">
-        <v>3670</v>
+        <v>3702.5</v>
       </c>
       <c r="G160">
         <v>0.04</v>
@@ -6775,13 +6774,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I160">
-        <v>17.163</v>
+        <v>17.315000000000001</v>
       </c>
       <c r="J160">
         <v>23.55</v>
       </c>
       <c r="K160">
-        <v>6.23</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6798,7 +6797,7 @@
         <v>588.99</v>
       </c>
       <c r="F161" s="2">
-        <v>3670</v>
+        <v>3702.5</v>
       </c>
       <c r="G161">
         <v>0.04</v>
@@ -6807,13 +6806,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I161">
-        <v>17.163</v>
+        <v>17.315000000000001</v>
       </c>
       <c r="J161">
         <v>23.56</v>
       </c>
       <c r="K161">
-        <v>6.23</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6821,7 +6820,7 @@
         <v>171</v>
       </c>
       <c r="B162">
-        <v>12.72</v>
+        <v>13.08</v>
       </c>
       <c r="C162">
         <v>100.636</v>
@@ -6833,7 +6832,7 @@
         <v>974.23</v>
       </c>
       <c r="F162" s="2">
-        <v>1280.0899999999999</v>
+        <v>1316.32</v>
       </c>
       <c r="G162">
         <v>0.01</v>
@@ -6842,13 +6841,13 @@
         <v>2.5630000000000002</v>
       </c>
       <c r="I162">
-        <v>4.9619999999999997</v>
+        <v>5.1029999999999998</v>
       </c>
       <c r="J162">
         <v>9.68</v>
       </c>
       <c r="K162">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6856,7 +6855,7 @@
         <v>172</v>
       </c>
       <c r="B163">
-        <v>6.92</v>
+        <v>7.1</v>
       </c>
       <c r="C163">
         <v>843.2</v>
@@ -6868,22 +6867,22 @@
         <v>2173.27</v>
       </c>
       <c r="F163" s="2">
-        <v>5834.94</v>
+        <v>5986.72</v>
       </c>
       <c r="G163">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H163">
         <v>0.33200000000000002</v>
       </c>
       <c r="I163">
-        <v>20.841999999999999</v>
+        <v>21.384</v>
       </c>
       <c r="J163">
         <v>2.57</v>
       </c>
       <c r="K163">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6891,7 +6890,7 @@
         <v>173</v>
       </c>
       <c r="B164">
-        <v>73.3</v>
+        <v>75.45</v>
       </c>
       <c r="C164">
         <v>200</v>
@@ -6903,22 +6902,22 @@
         <v>3765.39</v>
       </c>
       <c r="F164" s="2">
-        <v>14660</v>
+        <v>15090</v>
       </c>
       <c r="G164">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H164">
         <v>3.3340000000000001</v>
       </c>
       <c r="I164">
-        <v>21.986999999999998</v>
+        <v>22.632000000000001</v>
       </c>
       <c r="J164">
         <v>18.82</v>
       </c>
       <c r="K164">
-        <v>3.89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6926,7 +6925,7 @@
         <v>174</v>
       </c>
       <c r="B165">
-        <v>122</v>
+        <v>130.6</v>
       </c>
       <c r="C165">
         <v>101.574</v>
@@ -6938,22 +6937,22 @@
         <v>4060.93</v>
       </c>
       <c r="F165" s="2">
-        <v>12392.03</v>
+        <v>13265.56</v>
       </c>
       <c r="G165">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H165">
         <v>4.9960000000000004</v>
       </c>
       <c r="I165">
-        <v>24.419</v>
+        <v>26.140999999999998</v>
       </c>
       <c r="J165">
         <v>39.979999999999997</v>
       </c>
       <c r="K165">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6961,7 +6960,7 @@
         <v>175</v>
       </c>
       <c r="B166">
-        <v>161.19999999999999</v>
+        <v>163.5</v>
       </c>
       <c r="C166">
         <v>44.85</v>
@@ -6973,7 +6972,7 @@
         <v>1714.87</v>
       </c>
       <c r="F166" s="2">
-        <v>7229.82</v>
+        <v>7332.98</v>
       </c>
       <c r="G166">
         <v>0.08</v>
@@ -6982,13 +6981,13 @@
         <v>6.7389999999999999</v>
       </c>
       <c r="I166">
-        <v>23.92</v>
+        <v>24.262</v>
       </c>
       <c r="J166">
         <v>38.229999999999997</v>
       </c>
       <c r="K166">
-        <v>4.21</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6996,7 +6995,7 @@
         <v>176</v>
       </c>
       <c r="B167">
-        <v>38.200000000000003</v>
+        <v>38.5</v>
       </c>
       <c r="C167">
         <v>160</v>
@@ -7008,7 +7007,7 @@
         <v>1980.5</v>
       </c>
       <c r="F167" s="2">
-        <v>6112</v>
+        <v>6160</v>
       </c>
       <c r="G167">
         <v>7.0000000000000007E-2</v>
@@ -7017,13 +7016,13 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="I167">
-        <v>17.527999999999999</v>
+        <v>17.666</v>
       </c>
       <c r="J167">
         <v>12.37</v>
       </c>
       <c r="K167">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7031,7 +7030,7 @@
         <v>177</v>
       </c>
       <c r="B168">
-        <v>56</v>
+        <v>56.85</v>
       </c>
       <c r="C168">
         <v>92.04</v>
@@ -7043,7 +7042,7 @@
         <v>1786.2</v>
       </c>
       <c r="F168" s="2">
-        <v>5154.24</v>
+        <v>5232.47</v>
       </c>
       <c r="G168">
         <v>0.06</v>
@@ -7052,13 +7051,13 @@
         <v>4.2389999999999999</v>
       </c>
       <c r="I168">
-        <v>13.209</v>
+        <v>13.41</v>
       </c>
       <c r="J168">
         <v>19.399999999999999</v>
       </c>
       <c r="K168">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7066,7 +7065,7 @@
         <v>178</v>
       </c>
       <c r="B169">
-        <v>261.2</v>
+        <v>271.2</v>
       </c>
       <c r="C169">
         <v>350</v>
@@ -7078,22 +7077,22 @@
         <v>7291.14</v>
       </c>
       <c r="F169" s="2">
-        <v>91420</v>
+        <v>94920</v>
       </c>
       <c r="G169">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="H169">
         <v>6.6319999999999997</v>
       </c>
       <c r="I169">
-        <v>39.381999999999998</v>
+        <v>40.889000000000003</v>
       </c>
       <c r="J169">
         <v>20.83</v>
       </c>
       <c r="K169">
-        <v>12.53</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7101,7 +7100,7 @@
         <v>179</v>
       </c>
       <c r="B170">
-        <v>36.85</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="C170">
         <v>30</v>
@@ -7113,7 +7112,7 @@
         <v>512.29999999999995</v>
       </c>
       <c r="F170" s="2">
-        <v>1105.5</v>
+        <v>1136.4000000000001</v>
       </c>
       <c r="G170">
         <v>0.01</v>
@@ -7122,13 +7121,13 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="I170">
-        <v>43.183</v>
+        <v>44.39</v>
       </c>
       <c r="J170">
         <v>17.07</v>
       </c>
       <c r="K170">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7136,7 +7135,7 @@
         <v>180</v>
       </c>
       <c r="B171">
-        <v>40.950000000000003</v>
+        <v>40.68</v>
       </c>
       <c r="C171">
         <v>232</v>
@@ -7148,22 +7147,22 @@
         <v>3019.85</v>
       </c>
       <c r="F171" s="2">
-        <v>9500.4</v>
+        <v>9437.76</v>
       </c>
       <c r="G171">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H171">
         <v>1.165</v>
       </c>
       <c r="I171">
-        <v>35.145000000000003</v>
+        <v>34.912999999999997</v>
       </c>
       <c r="J171">
         <v>13.01</v>
       </c>
       <c r="K171">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7171,7 +7170,7 @@
         <v>181</v>
       </c>
       <c r="B172">
-        <v>158</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="C172" s="2">
         <v>44.302999999999997</v>
@@ -7183,7 +7182,7 @@
         <v>1910.4</v>
       </c>
       <c r="F172" s="2">
-        <v>6999.87</v>
+        <v>7185.95</v>
       </c>
       <c r="G172">
         <v>0.08</v>
@@ -7192,21 +7191,21 @@
         <v>2.9740000000000002</v>
       </c>
       <c r="I172">
-        <v>53.121000000000002</v>
+        <v>54.533999999999999</v>
       </c>
       <c r="J172">
         <v>43.12</v>
       </c>
       <c r="K172">
-        <v>3.66</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>298</v>
+      <c r="A173" t="s">
+        <v>297</v>
       </c>
       <c r="B173">
-        <v>24.16</v>
+        <v>22.94</v>
       </c>
       <c r="C173" s="2">
         <v>250</v>
@@ -7218,10 +7217,10 @@
         <v>32</v>
       </c>
       <c r="F173" s="2">
-        <v>6040</v>
+        <v>5735</v>
       </c>
       <c r="G173">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H173" t="s">
         <v>32</v>
@@ -7250,22 +7249,22 @@
         <v>29189.08</v>
       </c>
       <c r="F174" s="2">
-        <v>167728.89000000001</v>
+        <v>172799.16</v>
       </c>
       <c r="G174">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H174">
         <v>2.2469999999999999</v>
       </c>
       <c r="I174">
-        <v>29.385999999999999</v>
+        <v>30.363</v>
       </c>
       <c r="J174">
         <v>11.92</v>
       </c>
       <c r="K174">
-        <v>5.75</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7273,7 +7272,7 @@
         <v>183</v>
       </c>
       <c r="B175">
-        <v>25.55</v>
+        <v>26.64</v>
       </c>
       <c r="C175">
         <v>120</v>
@@ -7285,22 +7284,22 @@
         <v>1459.4</v>
       </c>
       <c r="F175" s="2">
-        <v>3066</v>
+        <v>3196.8</v>
       </c>
       <c r="G175">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H175">
         <v>0.55900000000000005</v>
       </c>
       <c r="I175">
-        <v>45.692</v>
+        <v>47.642000000000003</v>
       </c>
       <c r="J175">
         <v>12.16</v>
       </c>
       <c r="K175">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7308,7 +7307,7 @@
         <v>184</v>
       </c>
       <c r="B176">
-        <v>170.2</v>
+        <v>173.2</v>
       </c>
       <c r="C176">
         <v>70</v>
@@ -7320,7 +7319,7 @@
         <v>1546.52</v>
       </c>
       <c r="F176" s="2">
-        <v>11914</v>
+        <v>12124</v>
       </c>
       <c r="G176">
         <v>0.13</v>
@@ -7329,21 +7328,21 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="I176">
-        <v>29.016999999999999</v>
+        <v>29.527999999999999</v>
       </c>
       <c r="J176">
         <v>22.09</v>
       </c>
       <c r="K176">
-        <v>7.7</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" t="s">
         <v>185</v>
       </c>
       <c r="B177">
-        <v>120.2</v>
+        <v>123.3</v>
       </c>
       <c r="C177" s="2">
         <v>20</v>
@@ -7355,7 +7354,7 @@
         <v>387.61</v>
       </c>
       <c r="F177" s="2">
-        <v>2404</v>
+        <v>2466</v>
       </c>
       <c r="G177">
         <v>0.03</v>
@@ -7364,13 +7363,13 @@
         <v>4.4950000000000001</v>
       </c>
       <c r="I177">
-        <v>26.742999999999999</v>
+        <v>27.433</v>
       </c>
       <c r="J177">
         <v>19.38</v>
       </c>
       <c r="K177">
-        <v>6.2</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7387,22 +7386,22 @@
         <v>3393.53</v>
       </c>
       <c r="F178" s="2">
-        <v>17384</v>
+        <v>17786.8</v>
       </c>
       <c r="G178">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H178">
         <v>2.7029999999999998</v>
       </c>
       <c r="I178">
-        <v>30.629000000000001</v>
+        <v>31.338999999999999</v>
       </c>
       <c r="J178">
         <v>16.16</v>
       </c>
       <c r="K178">
-        <v>5.12</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7410,7 +7409,7 @@
         <v>187</v>
       </c>
       <c r="B179">
-        <v>27.9</v>
+        <v>28.74</v>
       </c>
       <c r="C179" s="2">
         <v>3000</v>
@@ -7422,22 +7421,22 @@
         <v>61139.53</v>
       </c>
       <c r="F179" s="2">
-        <v>83700</v>
+        <v>86220</v>
       </c>
       <c r="G179">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="H179">
         <v>3.2450000000000001</v>
       </c>
       <c r="I179">
-        <v>8.5969999999999995</v>
+        <v>8.8559999999999999</v>
       </c>
       <c r="J179">
         <v>20.37</v>
       </c>
       <c r="K179">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7445,7 +7444,7 @@
         <v>188</v>
       </c>
       <c r="B180">
-        <v>12.86</v>
+        <v>12.85</v>
       </c>
       <c r="C180" s="2">
         <v>1281.25</v>
@@ -7457,7 +7456,7 @@
         <v>13993.3</v>
       </c>
       <c r="F180" s="2">
-        <v>16476.88</v>
+        <v>16464.060000000001</v>
       </c>
       <c r="G180">
         <v>0.18</v>
@@ -7466,7 +7465,7 @@
         <v>1.008</v>
       </c>
       <c r="I180">
-        <v>12.757</v>
+        <v>12.747999999999999</v>
       </c>
       <c r="J180">
         <v>10.92</v>
@@ -7480,7 +7479,7 @@
         <v>189</v>
       </c>
       <c r="B181">
-        <v>14.26</v>
+        <v>14.52</v>
       </c>
       <c r="C181" s="2">
         <v>1250</v>
@@ -7492,7 +7491,7 @@
         <v>15530.02</v>
       </c>
       <c r="F181" s="2">
-        <v>17825</v>
+        <v>18150</v>
       </c>
       <c r="G181">
         <v>0.2</v>
@@ -7501,13 +7500,13 @@
         <v>1.6140000000000001</v>
       </c>
       <c r="I181">
-        <v>8.8350000000000009</v>
+        <v>8.9960000000000004</v>
       </c>
       <c r="J181">
         <v>12.42</v>
       </c>
       <c r="K181">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7515,7 +7514,7 @@
         <v>190</v>
       </c>
       <c r="B182">
-        <v>17.36</v>
+        <v>17.86</v>
       </c>
       <c r="C182" s="2">
         <v>2500</v>
@@ -7527,22 +7526,22 @@
         <v>40429.949999999997</v>
       </c>
       <c r="F182" s="2">
-        <v>43400</v>
+        <v>44650</v>
       </c>
       <c r="G182">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="H182">
         <v>1.893</v>
       </c>
       <c r="I182">
-        <v>9.1709999999999994</v>
+        <v>9.4350000000000005</v>
       </c>
       <c r="J182">
         <v>16.170000000000002</v>
       </c>
       <c r="K182">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7550,7 +7549,7 @@
         <v>191</v>
       </c>
       <c r="B183">
-        <v>32.75</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C183" s="2">
         <v>2054.7939999999999</v>
@@ -7562,22 +7561,22 @@
         <v>63783.8</v>
       </c>
       <c r="F183" s="2">
-        <v>67294.5</v>
+        <v>69246.559999999998</v>
       </c>
       <c r="G183">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="H183">
         <v>3.972</v>
       </c>
       <c r="I183">
-        <v>8.2439999999999998</v>
+        <v>8.484</v>
       </c>
       <c r="J183">
         <v>31.04</v>
       </c>
       <c r="K183">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7585,7 +7584,7 @@
         <v>192</v>
       </c>
       <c r="B184">
-        <v>21.38</v>
+        <v>21.72</v>
       </c>
       <c r="C184" s="2">
         <v>2000</v>
@@ -7597,22 +7596,22 @@
         <v>38480.25</v>
       </c>
       <c r="F184" s="2">
-        <v>42760</v>
+        <v>43440</v>
       </c>
       <c r="G184">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="H184">
         <v>2.5179999999999998</v>
       </c>
       <c r="I184">
-        <v>8.4920000000000009</v>
+        <v>8.6270000000000007</v>
       </c>
       <c r="J184">
         <v>19.239999999999998</v>
       </c>
       <c r="K184">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7620,7 +7619,7 @@
         <v>193</v>
       </c>
       <c r="B185">
-        <v>93.9</v>
+        <v>94.6</v>
       </c>
       <c r="C185" s="2">
         <v>4000</v>
@@ -7632,22 +7631,22 @@
         <v>105033.22</v>
       </c>
       <c r="F185" s="2">
-        <v>375600</v>
+        <v>378400</v>
       </c>
       <c r="G185">
-        <v>4.16</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="H185">
         <v>5.306</v>
       </c>
       <c r="I185">
-        <v>17.696999999999999</v>
+        <v>17.829000000000001</v>
       </c>
       <c r="J185">
         <v>26.25</v>
       </c>
       <c r="K185">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7655,7 +7654,7 @@
         <v>194</v>
       </c>
       <c r="B186">
-        <v>25.8</v>
+        <v>26.32</v>
       </c>
       <c r="C186" s="2">
         <v>1500</v>
@@ -7667,7 +7666,7 @@
         <v>17592.099999999999</v>
       </c>
       <c r="F186" s="2">
-        <v>38700</v>
+        <v>39480</v>
       </c>
       <c r="G186">
         <v>0.43</v>
@@ -7676,13 +7675,13 @@
         <v>1.909</v>
       </c>
       <c r="I186">
-        <v>13.513</v>
+        <v>13.785</v>
       </c>
       <c r="J186">
         <v>11.72</v>
       </c>
       <c r="K186">
-        <v>2.19</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7690,7 +7689,7 @@
         <v>195</v>
       </c>
       <c r="B187">
-        <v>26.6</v>
+        <v>26.82</v>
       </c>
       <c r="C187" s="2">
         <v>2500</v>
@@ -7702,30 +7701,30 @@
         <v>34201.360000000001</v>
       </c>
       <c r="F187" s="2">
-        <v>66500</v>
+        <v>67050</v>
       </c>
       <c r="G187">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="H187">
         <v>2.41</v>
       </c>
       <c r="I187">
-        <v>11.037000000000001</v>
+        <v>11.128</v>
       </c>
       <c r="J187">
         <v>13.68</v>
       </c>
       <c r="K187">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="A188" t="s">
         <v>196</v>
       </c>
       <c r="B188">
-        <v>35.65</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="C188" s="2">
         <v>6000</v>
@@ -7737,7 +7736,7 @@
         <v>172291.56</v>
       </c>
       <c r="F188" s="2">
-        <v>213900</v>
+        <v>216720</v>
       </c>
       <c r="G188">
         <v>2.37</v>
@@ -7746,13 +7745,13 @@
         <v>3.6960000000000002</v>
       </c>
       <c r="I188">
-        <v>9.6449999999999996</v>
+        <v>9.7720000000000002</v>
       </c>
       <c r="J188">
         <v>28.71</v>
       </c>
       <c r="K188">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7769,22 +7768,22 @@
         <v>562475.09</v>
       </c>
       <c r="F189" s="2">
-        <v>966156.38</v>
+        <v>979820.62</v>
       </c>
       <c r="G189">
-        <v>10.71</v>
+        <v>10.73</v>
       </c>
       <c r="H189">
         <v>3.1920000000000002</v>
       </c>
       <c r="I189">
-        <v>11.603999999999999</v>
+        <v>11.768000000000001</v>
       </c>
       <c r="J189">
         <v>21.56</v>
       </c>
       <c r="K189">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7792,7 +7791,7 @@
         <v>198</v>
       </c>
       <c r="B190">
-        <v>174.2</v>
+        <v>176.4</v>
       </c>
       <c r="C190">
         <v>120</v>
@@ -7804,7 +7803,7 @@
         <v>3581.9</v>
       </c>
       <c r="F190" s="2">
-        <v>20904</v>
+        <v>21168</v>
       </c>
       <c r="G190">
         <v>0.23</v>
@@ -7813,13 +7812,13 @@
         <v>4.5069999999999997</v>
       </c>
       <c r="I190">
-        <v>38.652999999999999</v>
+        <v>39.142000000000003</v>
       </c>
       <c r="J190">
         <v>29.84</v>
       </c>
       <c r="K190">
-        <v>5.83</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7827,7 +7826,7 @@
         <v>199</v>
       </c>
       <c r="B191">
-        <v>11.04</v>
+        <v>11.38</v>
       </c>
       <c r="C191">
         <v>101.925</v>
@@ -7839,7 +7838,7 @@
         <v>1231.8699999999999</v>
       </c>
       <c r="F191" s="2">
-        <v>1125.25</v>
+        <v>1159.9100000000001</v>
       </c>
       <c r="G191">
         <v>0.01</v>
@@ -7848,13 +7847,13 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="I191">
-        <v>22.677</v>
+        <v>23.375</v>
       </c>
       <c r="J191">
         <v>12.08</v>
       </c>
       <c r="K191">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7862,7 +7861,7 @@
         <v>200</v>
       </c>
       <c r="B192">
-        <v>16.86</v>
+        <v>16.84</v>
       </c>
       <c r="C192">
         <v>100</v>
@@ -7874,7 +7873,7 @@
         <v>1701.14</v>
       </c>
       <c r="F192" s="2">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7883,13 +7882,13 @@
         <v>0.379</v>
       </c>
       <c r="I192">
-        <v>44.508000000000003</v>
+        <v>44.456000000000003</v>
       </c>
       <c r="J192">
         <v>17.010000000000002</v>
       </c>
       <c r="K192">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7897,7 +7896,7 @@
         <v>201</v>
       </c>
       <c r="B193">
-        <v>27.45</v>
+        <v>26.9</v>
       </c>
       <c r="C193">
         <v>60</v>
@@ -7909,7 +7908,7 @@
         <v>1235.3499999999999</v>
       </c>
       <c r="F193" s="2">
-        <v>1647</v>
+        <v>1614</v>
       </c>
       <c r="G193">
         <v>0.02</v>
@@ -7918,13 +7917,13 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="I193">
-        <v>8.5960000000000001</v>
+        <v>8.4239999999999995</v>
       </c>
       <c r="J193">
         <v>20.58</v>
       </c>
       <c r="K193">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7932,7 +7931,7 @@
         <v>202</v>
       </c>
       <c r="B194">
-        <v>12.46</v>
+        <v>13.03</v>
       </c>
       <c r="C194">
         <v>120</v>
@@ -7944,7 +7943,7 @@
         <v>1471.53</v>
       </c>
       <c r="F194" s="2">
-        <v>1495.2</v>
+        <v>1563.6</v>
       </c>
       <c r="G194">
         <v>0.02</v>
@@ -7953,13 +7952,13 @@
         <v>1.147</v>
       </c>
       <c r="I194">
-        <v>10.865</v>
+        <v>11.362</v>
       </c>
       <c r="J194">
         <v>12.26</v>
       </c>
       <c r="K194">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7967,7 +7966,7 @@
         <v>203</v>
       </c>
       <c r="B195">
-        <v>11.44</v>
+        <v>11.25</v>
       </c>
       <c r="C195">
         <v>71.427999999999997</v>
@@ -7979,7 +7978,7 @@
         <v>842.43</v>
       </c>
       <c r="F195" s="2">
-        <v>817.14</v>
+        <v>803.57</v>
       </c>
       <c r="G195">
         <v>0.01</v>
@@ -7988,13 +7987,13 @@
         <v>0.318</v>
       </c>
       <c r="I195">
-        <v>35.933999999999997</v>
+        <v>35.337000000000003</v>
       </c>
       <c r="J195">
         <v>11.79</v>
       </c>
       <c r="K195">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8002,7 +8001,7 @@
         <v>204</v>
       </c>
       <c r="B196">
-        <v>156.80000000000001</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="C196">
         <v>25</v>
@@ -8014,7 +8013,7 @@
         <v>1170.45</v>
       </c>
       <c r="F196" s="2">
-        <v>3920</v>
+        <v>3955</v>
       </c>
       <c r="G196">
         <v>0.04</v>
@@ -8023,13 +8022,13 @@
         <v>9.1140000000000008</v>
       </c>
       <c r="I196">
-        <v>17.204999999999998</v>
+        <v>17.358000000000001</v>
       </c>
       <c r="J196">
         <v>46.81</v>
       </c>
       <c r="K196">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8037,7 +8036,7 @@
         <v>205</v>
       </c>
       <c r="B197">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C197" s="2">
         <v>249.73500000000001</v>
@@ -8049,7 +8048,7 @@
         <v>1084.1099999999999</v>
       </c>
       <c r="F197" s="2">
-        <v>6692.9</v>
+        <v>6767.82</v>
       </c>
       <c r="G197">
         <v>7.0000000000000007E-2</v>
@@ -8058,13 +8057,13 @@
         <v>1.6579999999999999</v>
       </c>
       <c r="I197">
-        <v>16.167000000000002</v>
+        <v>16.347999999999999</v>
       </c>
       <c r="J197">
         <v>4.34</v>
       </c>
       <c r="K197">
-        <v>6.17</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8103,7 +8102,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" t="s">
         <v>207</v>
       </c>
       <c r="B199">
@@ -8151,7 +8150,7 @@
         <v>53873.83</v>
       </c>
       <c r="F200" s="2">
-        <v>70542.789999999994</v>
+        <v>70971.199999999997</v>
       </c>
       <c r="G200">
         <v>0.78</v>
@@ -8160,13 +8159,13 @@
         <v>0.65</v>
       </c>
       <c r="I200">
-        <v>22.725000000000001</v>
+        <v>22.863</v>
       </c>
       <c r="J200">
         <v>11.29</v>
       </c>
       <c r="K200">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8174,7 +8173,7 @@
         <v>209</v>
       </c>
       <c r="B201">
-        <v>153.80000000000001</v>
+        <v>158</v>
       </c>
       <c r="C201">
         <v>150</v>
@@ -8186,7 +8185,7 @@
         <v>4742.4799999999996</v>
       </c>
       <c r="F201" s="2">
-        <v>23070</v>
+        <v>23700</v>
       </c>
       <c r="G201">
         <v>0.26</v>
@@ -8195,13 +8194,13 @@
         <v>7.2469999999999999</v>
       </c>
       <c r="I201">
-        <v>21.222000000000001</v>
+        <v>21.802</v>
       </c>
       <c r="J201">
         <v>31.61</v>
       </c>
       <c r="K201">
-        <v>4.8600000000000003</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8209,7 +8208,7 @@
         <v>210</v>
       </c>
       <c r="B202">
-        <v>13.22</v>
+        <v>13.74</v>
       </c>
       <c r="C202">
         <v>66</v>
@@ -8221,7 +8220,7 @@
         <v>994.3</v>
       </c>
       <c r="F202" s="2">
-        <v>872.52</v>
+        <v>906.84</v>
       </c>
       <c r="G202">
         <v>0.01</v>
@@ -8230,13 +8229,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I202">
-        <v>21.521999999999998</v>
+        <v>22.369</v>
       </c>
       <c r="J202">
         <v>15.06</v>
       </c>
       <c r="K202">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8244,7 +8243,7 @@
         <v>211</v>
       </c>
       <c r="B203">
-        <v>13.6</v>
+        <v>13.92</v>
       </c>
       <c r="C203">
         <v>50</v>
@@ -8256,7 +8255,7 @@
         <v>442.72</v>
       </c>
       <c r="F203" s="2">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="G203">
         <v>0.01</v>
@@ -8265,13 +8264,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="I203">
-        <v>26.844999999999999</v>
+        <v>27.477</v>
       </c>
       <c r="J203">
         <v>8.85</v>
       </c>
       <c r="K203">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8279,7 +8278,7 @@
         <v>212</v>
       </c>
       <c r="B204">
-        <v>18.38</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="C204">
         <v>105</v>
@@ -8291,7 +8290,7 @@
         <v>1050.79</v>
       </c>
       <c r="F204" s="2">
-        <v>1929.9</v>
+        <v>2106.3000000000002</v>
       </c>
       <c r="G204">
         <v>0.02</v>
@@ -8300,13 +8299,13 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I204">
-        <v>20.234999999999999</v>
+        <v>22.085000000000001</v>
       </c>
       <c r="J204">
         <v>10</v>
       </c>
       <c r="K204">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8314,7 +8313,7 @@
         <v>213</v>
       </c>
       <c r="B205">
-        <v>15.7</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="C205">
         <v>60</v>
@@ -8326,7 +8325,7 @@
         <v>819.22</v>
       </c>
       <c r="F205" s="2">
-        <v>942</v>
+        <v>981</v>
       </c>
       <c r="G205">
         <v>0.01</v>
@@ -8335,13 +8334,13 @@
         <v>0.183</v>
       </c>
       <c r="I205">
-        <v>85.792000000000002</v>
+        <v>89.343999999999994</v>
       </c>
       <c r="J205">
         <v>13.65</v>
       </c>
       <c r="K205">
-        <v>1.1399999999999999</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8349,7 +8348,7 @@
         <v>214</v>
       </c>
       <c r="B206">
-        <v>13.4</v>
+        <v>14.11</v>
       </c>
       <c r="C206">
         <v>30</v>
@@ -8361,7 +8360,7 @@
         <v>317.36</v>
       </c>
       <c r="F206" s="2">
-        <v>402</v>
+        <v>423.3</v>
       </c>
       <c r="G206" t="s">
         <v>32</v>
@@ -8376,7 +8375,7 @@
         <v>10.57</v>
       </c>
       <c r="K206">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8384,7 +8383,7 @@
         <v>215</v>
       </c>
       <c r="B207">
-        <v>16.72</v>
+        <v>17.54</v>
       </c>
       <c r="C207">
         <v>127.55800000000001</v>
@@ -8396,7 +8395,7 @@
         <v>1768.65</v>
       </c>
       <c r="F207" s="2">
-        <v>2132.77</v>
+        <v>2237.37</v>
       </c>
       <c r="G207">
         <v>0.02</v>
@@ -8411,7 +8410,7 @@
         <v>13.86</v>
       </c>
       <c r="K207">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8419,7 +8418,7 @@
         <v>216</v>
       </c>
       <c r="B208">
-        <v>15.86</v>
+        <v>16.5</v>
       </c>
       <c r="C208">
         <v>79.814999999999998</v>
@@ -8431,7 +8430,7 @@
         <v>1666.07</v>
       </c>
       <c r="F208" s="2">
-        <v>1265.8699999999999</v>
+        <v>1316.95</v>
       </c>
       <c r="G208">
         <v>0.01</v>
@@ -8440,13 +8439,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I208">
-        <v>20.853999999999999</v>
+        <v>21.696000000000002</v>
       </c>
       <c r="J208">
         <v>20.87</v>
       </c>
       <c r="K208">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8454,7 +8453,7 @@
         <v>217</v>
       </c>
       <c r="B209">
-        <v>15.36</v>
+        <v>15.79</v>
       </c>
       <c r="C209">
         <v>30</v>
@@ -8466,7 +8465,7 @@
         <v>398.59</v>
       </c>
       <c r="F209">
-        <v>460.8</v>
+        <v>473.7</v>
       </c>
       <c r="G209">
         <v>0.01</v>
@@ -8475,13 +8474,13 @@
         <v>2.012</v>
       </c>
       <c r="I209">
-        <v>7.6340000000000003</v>
+        <v>7.8470000000000004</v>
       </c>
       <c r="J209">
         <v>13.28</v>
       </c>
       <c r="K209">
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8489,7 +8488,7 @@
         <v>218</v>
       </c>
       <c r="B210">
-        <v>14.16</v>
+        <v>14.86</v>
       </c>
       <c r="C210">
         <v>45.893999999999998</v>
@@ -8501,7 +8500,7 @@
         <v>591.83000000000004</v>
       </c>
       <c r="F210">
-        <v>649.86</v>
+        <v>681.98</v>
       </c>
       <c r="G210">
         <v>0.01</v>
@@ -8516,7 +8515,7 @@
         <v>12.89</v>
       </c>
       <c r="K210">
-        <v>1.0900000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8524,7 +8523,7 @@
         <v>219</v>
       </c>
       <c r="B211">
-        <v>12.34</v>
+        <v>12.84</v>
       </c>
       <c r="C211">
         <v>29.1</v>
@@ -8536,7 +8535,7 @@
         <v>269.44</v>
       </c>
       <c r="F211">
-        <v>359.09</v>
+        <v>373.64</v>
       </c>
       <c r="G211" t="s">
         <v>32</v>
@@ -8551,7 +8550,7 @@
         <v>9.25</v>
       </c>
       <c r="K211">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8559,7 +8558,7 @@
         <v>220</v>
       </c>
       <c r="B212">
-        <v>11.44</v>
+        <v>12.59</v>
       </c>
       <c r="C212">
         <v>53</v>
@@ -8571,7 +8570,7 @@
         <v>612.03</v>
       </c>
       <c r="F212">
-        <v>606.32000000000005</v>
+        <v>667.27</v>
       </c>
       <c r="G212">
         <v>0.01</v>
@@ -8580,13 +8579,13 @@
         <v>0.505</v>
       </c>
       <c r="I212">
-        <v>22.657</v>
+        <v>24.934999999999999</v>
       </c>
       <c r="J212">
         <v>11.54</v>
       </c>
       <c r="K212">
-        <v>0.99</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8594,7 +8593,7 @@
         <v>221</v>
       </c>
       <c r="B213">
-        <v>13.64</v>
+        <v>14.25</v>
       </c>
       <c r="C213">
         <v>50</v>
@@ -8606,7 +8605,7 @@
         <v>702.25</v>
       </c>
       <c r="F213">
-        <v>682</v>
+        <v>712.5</v>
       </c>
       <c r="G213">
         <v>0.01</v>
@@ -8615,13 +8614,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="I213">
-        <v>19.733000000000001</v>
+        <v>20.616</v>
       </c>
       <c r="J213">
         <v>14.04</v>
       </c>
       <c r="K213">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8629,7 +8628,7 @@
         <v>222</v>
       </c>
       <c r="B214">
-        <v>13.68</v>
+        <v>14</v>
       </c>
       <c r="C214">
         <v>30</v>
@@ -8641,7 +8640,7 @@
         <v>385.64</v>
       </c>
       <c r="F214" s="2">
-        <v>410.4</v>
+        <v>420</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -8650,13 +8649,13 @@
         <v>0.217</v>
       </c>
       <c r="I214">
-        <v>63.040999999999997</v>
+        <v>64.516000000000005</v>
       </c>
       <c r="J214">
         <v>12.85</v>
       </c>
       <c r="K214">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8664,7 +8663,7 @@
         <v>223</v>
       </c>
       <c r="B215">
-        <v>7.32</v>
+        <v>7.46</v>
       </c>
       <c r="C215">
         <v>40</v>
@@ -8676,7 +8675,7 @@
         <v>247.5</v>
       </c>
       <c r="F215" s="2">
-        <v>292.8</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="G215" t="s">
         <v>32</v>
@@ -8691,7 +8690,7 @@
         <v>6.18</v>
       </c>
       <c r="K215">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8699,7 +8698,7 @@
         <v>224</v>
       </c>
       <c r="B216">
-        <v>48.5</v>
+        <v>51</v>
       </c>
       <c r="C216">
         <v>115.83</v>
@@ -8711,7 +8710,7 @@
         <v>2068.44</v>
       </c>
       <c r="F216" s="2">
-        <v>5617.76</v>
+        <v>5907.33</v>
       </c>
       <c r="G216">
         <v>0.06</v>
@@ -8720,13 +8719,13 @@
         <v>4.13</v>
       </c>
       <c r="I216">
-        <v>11.742000000000001</v>
+        <v>12.347</v>
       </c>
       <c r="J216">
         <v>17.850000000000001</v>
       </c>
       <c r="K216">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8734,7 +8733,7 @@
         <v>225</v>
       </c>
       <c r="B217">
-        <v>178</v>
+        <v>178.1</v>
       </c>
       <c r="C217">
         <v>150</v>
@@ -8746,16 +8745,16 @@
         <v>5568.56</v>
       </c>
       <c r="F217" s="2">
-        <v>26700</v>
+        <v>26715</v>
       </c>
       <c r="G217">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H217">
         <v>7.9119999999999999</v>
       </c>
       <c r="I217">
-        <v>22.497</v>
+        <v>22.509</v>
       </c>
       <c r="J217">
         <v>37.119999999999997</v>
@@ -8769,7 +8768,7 @@
         <v>226</v>
       </c>
       <c r="B218">
-        <v>120.2</v>
+        <v>128.6</v>
       </c>
       <c r="C218">
         <v>100</v>
@@ -8781,22 +8780,22 @@
         <v>2174.38</v>
       </c>
       <c r="F218" s="2">
-        <v>12020</v>
+        <v>12860</v>
       </c>
       <c r="G218">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H218">
         <v>3.1179999999999999</v>
       </c>
       <c r="I218">
-        <v>38.555</v>
+        <v>41.249000000000002</v>
       </c>
       <c r="J218">
         <v>21.74</v>
       </c>
       <c r="K218">
-        <v>5.52</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8804,7 +8803,7 @@
         <v>227</v>
       </c>
       <c r="B219">
-        <v>35.549999999999997</v>
+        <v>37.14</v>
       </c>
       <c r="C219">
         <v>30</v>
@@ -8816,7 +8815,7 @@
         <v>460.26</v>
       </c>
       <c r="F219" s="2">
-        <v>1066.5</v>
+        <v>1114.2</v>
       </c>
       <c r="G219">
         <v>0.01</v>
@@ -8825,13 +8824,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="I219">
-        <v>78.475999999999999</v>
+        <v>81.986000000000004</v>
       </c>
       <c r="J219">
         <v>15.34</v>
       </c>
       <c r="K219">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8839,7 +8838,7 @@
         <v>228</v>
       </c>
       <c r="B220">
-        <v>25.8</v>
+        <v>26.54</v>
       </c>
       <c r="C220">
         <v>52.5</v>
@@ -8851,7 +8850,7 @@
         <v>1145.97</v>
       </c>
       <c r="F220" s="2">
-        <v>1354.5</v>
+        <v>1393.35</v>
       </c>
       <c r="G220">
         <v>0.02</v>
@@ -8860,13 +8859,13 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I220">
-        <v>9.3079999999999998</v>
+        <v>9.5749999999999993</v>
       </c>
       <c r="J220">
         <v>21.82</v>
       </c>
       <c r="K220">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8874,7 +8873,7 @@
         <v>229</v>
       </c>
       <c r="B221">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="C221">
         <v>30</v>
@@ -8886,7 +8885,7 @@
         <v>202.63</v>
       </c>
       <c r="F221">
-        <v>180.9</v>
+        <v>182.4</v>
       </c>
       <c r="G221" t="s">
         <v>32</v>
@@ -8901,7 +8900,7 @@
         <v>6.75</v>
       </c>
       <c r="K221">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8909,7 +8908,7 @@
         <v>230</v>
       </c>
       <c r="B222">
-        <v>16.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="C222">
         <v>30</v>
@@ -8921,7 +8920,7 @@
         <v>472.24</v>
       </c>
       <c r="F222">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="G222">
         <v>0.01</v>
@@ -8930,13 +8929,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I222">
-        <v>71.72</v>
+        <v>78.716999999999999</v>
       </c>
       <c r="J222">
         <v>15.74</v>
       </c>
       <c r="K222">
-        <v>1.04</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8944,7 +8943,7 @@
         <v>231</v>
       </c>
       <c r="B223">
-        <v>13.06</v>
+        <v>13.46</v>
       </c>
       <c r="C223">
         <v>40</v>
@@ -8956,7 +8955,7 @@
         <v>444.9</v>
       </c>
       <c r="F223">
-        <v>522.4</v>
+        <v>538.4</v>
       </c>
       <c r="G223">
         <v>0.01</v>
@@ -8965,13 +8964,13 @@
         <v>0.749</v>
       </c>
       <c r="I223">
-        <v>17.436</v>
+        <v>17.97</v>
       </c>
       <c r="J223">
         <v>11.12</v>
       </c>
       <c r="K223">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8979,7 +8978,7 @@
         <v>232</v>
       </c>
       <c r="B224">
-        <v>17</v>
+        <v>18.16</v>
       </c>
       <c r="C224">
         <v>40</v>
@@ -8991,7 +8990,7 @@
         <v>617.19000000000005</v>
       </c>
       <c r="F224">
-        <v>680</v>
+        <v>726.4</v>
       </c>
       <c r="G224">
         <v>0.01</v>
@@ -9000,13 +8999,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I224">
-        <v>8.2910000000000004</v>
+        <v>8.8569999999999993</v>
       </c>
       <c r="J224">
         <v>15.42</v>
       </c>
       <c r="K224">
-        <v>1.1000000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9014,7 +9013,7 @@
         <v>233</v>
       </c>
       <c r="B225">
-        <v>8.56</v>
+        <v>8.99</v>
       </c>
       <c r="C225">
         <v>43</v>
@@ -9026,7 +9025,7 @@
         <v>309.45999999999998</v>
       </c>
       <c r="F225" s="2">
-        <v>368.08</v>
+        <v>386.57</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -9035,13 +9034,13 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I225">
-        <v>87.221999999999994</v>
+        <v>91.603999999999999</v>
       </c>
       <c r="J225">
         <v>7.19</v>
       </c>
       <c r="K225">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -9049,7 +9048,7 @@
         <v>234</v>
       </c>
       <c r="B226">
-        <v>9.76</v>
+        <v>10.28</v>
       </c>
       <c r="C226" s="2">
         <v>23</v>
@@ -9061,7 +9060,7 @@
         <v>161.93</v>
       </c>
       <c r="F226" s="2">
-        <v>224.48</v>
+        <v>236.44</v>
       </c>
       <c r="G226" t="s">
         <v>32</v>
@@ -9076,15 +9075,15 @@
         <v>7.04</v>
       </c>
       <c r="K226">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" t="s">
         <v>235</v>
       </c>
       <c r="B227">
-        <v>84.5</v>
+        <v>86.9</v>
       </c>
       <c r="C227" s="2">
         <v>77.507000000000005</v>
@@ -9096,7 +9095,7 @@
         <v>450.47</v>
       </c>
       <c r="F227" s="2">
-        <v>6549.34</v>
+        <v>6735.36</v>
       </c>
       <c r="G227">
         <v>7.0000000000000007E-2</v>
@@ -9105,13 +9104,13 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="I227">
-        <v>56.822000000000003</v>
+        <v>58.436</v>
       </c>
       <c r="J227">
         <v>5.81</v>
       </c>
       <c r="K227">
-        <v>14.53</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9128,7 +9127,7 @@
         <v>29085.3</v>
       </c>
       <c r="F228" s="2">
-        <v>90532.29</v>
+        <v>93330.7</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -9137,13 +9136,13 @@
         <v>2.11</v>
       </c>
       <c r="I228">
-        <v>22.574000000000002</v>
+        <v>23.256</v>
       </c>
       <c r="J228">
         <v>17.329999999999998</v>
       </c>
       <c r="K228">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9151,7 +9150,7 @@
         <v>237</v>
       </c>
       <c r="B229">
-        <v>133.80000000000001</v>
+        <v>135.1</v>
       </c>
       <c r="C229">
         <v>30</v>
@@ -9163,7 +9162,7 @@
         <v>457.58</v>
       </c>
       <c r="F229" s="2">
-        <v>4014</v>
+        <v>4053</v>
       </c>
       <c r="G229">
         <v>0.04</v>
@@ -9172,13 +9171,13 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="I229">
-        <v>41.514000000000003</v>
+        <v>41.917000000000002</v>
       </c>
       <c r="J229">
         <v>15.25</v>
       </c>
       <c r="K229">
-        <v>8.77</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9186,7 +9185,7 @@
         <v>238</v>
       </c>
       <c r="B230" s="2">
-        <v>5.4</v>
+        <v>5.54</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -9198,7 +9197,7 @@
         <v>116.65</v>
       </c>
       <c r="F230" s="2">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G230">
         <v>0.01</v>
@@ -9213,7 +9212,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K230">
-        <v>4.62</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9221,7 +9220,7 @@
         <v>239</v>
       </c>
       <c r="B231">
-        <v>257.39999999999998</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="C231">
         <v>120</v>
@@ -9233,30 +9232,30 @@
         <v>4364</v>
       </c>
       <c r="F231" s="2">
-        <v>30888</v>
+        <v>31968</v>
       </c>
       <c r="G231">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H231">
         <v>13.367000000000001</v>
       </c>
       <c r="I231">
-        <v>19.256</v>
+        <v>19.93</v>
       </c>
       <c r="J231">
         <v>36.36</v>
       </c>
       <c r="K231">
-        <v>7.07</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>240</v>
       </c>
-      <c r="B232">
-        <v>992.6</v>
+      <c r="B232" s="2">
+        <v>1001.5</v>
       </c>
       <c r="C232">
         <v>80</v>
@@ -9268,7 +9267,7 @@
         <v>5489</v>
       </c>
       <c r="F232" s="2">
-        <v>79408</v>
+        <v>80120</v>
       </c>
       <c r="G232">
         <v>0.88</v>
@@ -9277,21 +9276,21 @@
         <v>24.7</v>
       </c>
       <c r="I232">
-        <v>40.186</v>
+        <v>40.545999999999999</v>
       </c>
       <c r="J232">
         <v>68.61</v>
       </c>
       <c r="K232">
-        <v>14.46</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="A233" t="s">
         <v>241</v>
       </c>
       <c r="B233">
-        <v>11.28</v>
+        <v>11.3</v>
       </c>
       <c r="C233" s="2">
         <v>300</v>
@@ -9303,7 +9302,7 @@
         <v>577.71</v>
       </c>
       <c r="F233" s="2">
-        <v>3384</v>
+        <v>3390</v>
       </c>
       <c r="G233">
         <v>0.04</v>
@@ -9312,13 +9311,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I233">
-        <v>20.391999999999999</v>
+        <v>20.428999999999998</v>
       </c>
       <c r="J233">
         <v>1.92</v>
       </c>
       <c r="K233">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9335,22 +9334,22 @@
         <v>11004.94</v>
       </c>
       <c r="F234" s="2">
-        <v>118234</v>
+        <v>120085</v>
       </c>
       <c r="G234">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H234">
         <v>6.0739999999999998</v>
       </c>
       <c r="I234">
-        <v>30.629000000000001</v>
+        <v>31.106999999999999</v>
       </c>
       <c r="J234">
         <v>17.47</v>
       </c>
       <c r="K234">
-        <v>10.74</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9358,7 +9357,7 @@
         <v>243</v>
       </c>
       <c r="B235">
-        <v>42.95</v>
+        <v>42.54</v>
       </c>
       <c r="C235" s="2">
         <v>5000</v>
@@ -9370,22 +9369,22 @@
         <v>91069</v>
       </c>
       <c r="F235" s="2">
-        <v>214750</v>
+        <v>212700</v>
       </c>
       <c r="G235">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="H235">
         <v>5.01</v>
       </c>
       <c r="I235">
-        <v>8.5719999999999992</v>
+        <v>8.49</v>
       </c>
       <c r="J235">
         <v>18.21</v>
       </c>
       <c r="K235">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -9393,7 +9392,7 @@
         <v>244</v>
       </c>
       <c r="B236">
-        <v>58.6</v>
+        <v>59.3</v>
       </c>
       <c r="C236">
         <v>770</v>
@@ -9405,7 +9404,7 @@
         <v>18637</v>
       </c>
       <c r="F236" s="2">
-        <v>45122</v>
+        <v>45661</v>
       </c>
       <c r="G236">
         <v>0.5</v>
@@ -9414,13 +9413,13 @@
         <v>4.2030000000000003</v>
       </c>
       <c r="I236">
-        <v>13.943</v>
+        <v>14.11</v>
       </c>
       <c r="J236">
         <v>24.2</v>
       </c>
       <c r="K236">
-        <v>2.42</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9428,7 +9427,7 @@
         <v>245</v>
       </c>
       <c r="B237">
-        <v>10.46</v>
+        <v>10.76</v>
       </c>
       <c r="C237" s="2">
         <v>898.72900000000004</v>
@@ -9440,22 +9439,22 @@
         <v>10792</v>
       </c>
       <c r="F237" s="2">
-        <v>9400.7099999999991</v>
+        <v>9670.32</v>
       </c>
       <c r="G237">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H237">
         <v>0.69199999999999995</v>
       </c>
       <c r="I237">
-        <v>15.113</v>
+        <v>15.547000000000001</v>
       </c>
       <c r="J237">
         <v>12</v>
       </c>
       <c r="K237">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9463,7 +9462,7 @@
         <v>246</v>
       </c>
       <c r="B238">
-        <v>98.9</v>
+        <v>102.2</v>
       </c>
       <c r="C238" s="2">
         <v>33.999000000000002</v>
@@ -9475,7 +9474,7 @@
         <v>709.2</v>
       </c>
       <c r="F238" s="2">
-        <v>3362.5</v>
+        <v>3474.7</v>
       </c>
       <c r="G238">
         <v>0.04</v>
@@ -9484,13 +9483,13 @@
         <v>5.2549999999999999</v>
       </c>
       <c r="I238">
-        <v>18.818999999999999</v>
+        <v>19.446999999999999</v>
       </c>
       <c r="J238">
         <v>20.85</v>
       </c>
       <c r="K238">
-        <v>4.74</v>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9507,22 +9506,22 @@
         <v>121207.2</v>
       </c>
       <c r="F239" s="2">
-        <v>272635.21000000002</v>
+        <v>271506.02</v>
       </c>
       <c r="G239">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="H239">
         <v>4.34</v>
       </c>
       <c r="I239">
-        <v>9.3729999999999993</v>
+        <v>9.3339999999999996</v>
       </c>
       <c r="J239">
         <v>18.079999999999998</v>
       </c>
       <c r="K239">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9530,7 +9529,7 @@
         <v>248</v>
       </c>
       <c r="B240">
-        <v>75.2</v>
+        <v>78.8</v>
       </c>
       <c r="C240">
         <v>75</v>
@@ -9542,7 +9541,7 @@
         <v>1943</v>
       </c>
       <c r="F240" s="2">
-        <v>5640</v>
+        <v>5910</v>
       </c>
       <c r="G240">
         <v>0.06</v>
@@ -9551,13 +9550,13 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="I240">
-        <v>24.298999999999999</v>
+        <v>25.463000000000001</v>
       </c>
       <c r="J240">
         <v>25.9</v>
       </c>
       <c r="K240">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9565,7 +9564,7 @@
         <v>249</v>
       </c>
       <c r="B241">
-        <v>142.80000000000001</v>
+        <v>144.1</v>
       </c>
       <c r="C241">
         <v>35</v>
@@ -9577,7 +9576,7 @@
         <v>814.29</v>
       </c>
       <c r="F241" s="2">
-        <v>4998</v>
+        <v>5043.5</v>
       </c>
       <c r="G241">
         <v>0.06</v>
@@ -9586,13 +9585,13 @@
         <v>7.0030000000000001</v>
       </c>
       <c r="I241">
-        <v>20.391999999999999</v>
+        <v>20.577999999999999</v>
       </c>
       <c r="J241">
         <v>23.26</v>
       </c>
       <c r="K241">
-        <v>6.13</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9600,7 +9599,7 @@
         <v>250</v>
       </c>
       <c r="B242">
-        <v>248.6</v>
+        <v>256</v>
       </c>
       <c r="C242">
         <v>732.56100000000004</v>
@@ -9612,22 +9611,22 @@
         <v>20994.04</v>
       </c>
       <c r="F242" s="2">
-        <v>182114.66</v>
+        <v>187535.62</v>
       </c>
       <c r="G242">
-        <v>2.02</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H242">
         <v>2.577</v>
       </c>
       <c r="I242">
-        <v>96.456000000000003</v>
+        <v>99.328000000000003</v>
       </c>
       <c r="J242">
         <v>28.65</v>
       </c>
       <c r="K242">
-        <v>8.67</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9635,7 +9634,7 @@
         <v>251</v>
       </c>
       <c r="B243">
-        <v>42.65</v>
+        <v>43.18</v>
       </c>
       <c r="C243" s="2">
         <v>250</v>
@@ -9647,7 +9646,7 @@
         <v>5317.85</v>
       </c>
       <c r="F243" s="2">
-        <v>10662.5</v>
+        <v>10795</v>
       </c>
       <c r="G243">
         <v>0.12</v>
@@ -9662,7 +9661,7 @@
         <v>21.27</v>
       </c>
       <c r="K243">
-        <v>2</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9670,7 +9669,7 @@
         <v>252</v>
       </c>
       <c r="B244">
-        <v>24.6</v>
+        <v>25.32</v>
       </c>
       <c r="C244" s="2">
         <v>160.92500000000001</v>
@@ -9682,7 +9681,7 @@
         <v>495.52</v>
       </c>
       <c r="F244" s="2">
-        <v>3958.76</v>
+        <v>4074.62</v>
       </c>
       <c r="G244">
         <v>0.04</v>
@@ -9691,21 +9690,21 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="I244">
-        <v>47.798999999999999</v>
+        <v>49.198</v>
       </c>
       <c r="J244">
         <v>3.07</v>
       </c>
       <c r="K244">
-        <v>7.98</v>
+        <v>8.2200000000000006</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A245" t="s">
         <v>253</v>
       </c>
       <c r="B245">
-        <v>14.46</v>
+        <v>14.7</v>
       </c>
       <c r="C245" s="2">
         <v>4166.5929999999998</v>
@@ -9717,7 +9716,7 @@
         <v>257811</v>
       </c>
       <c r="F245" s="2">
-        <v>60248.93</v>
+        <v>61248.92</v>
       </c>
       <c r="G245">
         <v>0.67</v>
@@ -9726,7 +9725,7 @@
         <v>1.665</v>
       </c>
       <c r="I245">
-        <v>8.6829999999999998</v>
+        <v>8.8279999999999994</v>
       </c>
       <c r="J245">
         <v>61.87</v>
@@ -9749,22 +9748,22 @@
         <v>287375.7</v>
       </c>
       <c r="F246" s="2">
-        <v>267622.84999999998</v>
+        <v>274607.65999999997</v>
       </c>
       <c r="G246">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="H246">
         <v>1.7310000000000001</v>
       </c>
       <c r="I246">
-        <v>27.376999999999999</v>
+        <v>28.106999999999999</v>
       </c>
       <c r="J246">
         <v>53.02</v>
       </c>
       <c r="K246">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9772,7 +9771,7 @@
         <v>255</v>
       </c>
       <c r="B247">
-        <v>5.2</v>
+        <v>5.38</v>
       </c>
       <c r="C247">
         <v>171.697</v>
@@ -9784,7 +9783,7 @@
         <v>1746.23</v>
       </c>
       <c r="F247">
-        <v>892.82</v>
+        <v>923.73</v>
       </c>
       <c r="G247">
         <v>0.01</v>
@@ -9799,7 +9798,7 @@
         <v>10.17</v>
       </c>
       <c r="K247">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9807,7 +9806,7 @@
         <v>256</v>
       </c>
       <c r="B248">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="C248">
         <v>11.8</v>
@@ -9819,7 +9818,7 @@
         <v>86.31</v>
       </c>
       <c r="F248">
-        <v>161.66</v>
+        <v>166.38</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
@@ -9828,13 +9827,13 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I248">
-        <v>53.529000000000003</v>
+        <v>55.091999999999999</v>
       </c>
       <c r="J248">
         <v>7.31</v>
       </c>
       <c r="K248">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9842,7 +9841,7 @@
         <v>257</v>
       </c>
       <c r="B249">
-        <v>5.17</v>
+        <v>5.27</v>
       </c>
       <c r="C249">
         <v>66</v>
@@ -9854,7 +9853,7 @@
         <v>500.29</v>
       </c>
       <c r="F249">
-        <v>341.22</v>
+        <v>347.82</v>
       </c>
       <c r="G249" t="s">
         <v>32</v>
@@ -9863,13 +9862,13 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="I249">
-        <v>19.431000000000001</v>
+        <v>19.806999999999999</v>
       </c>
       <c r="J249">
         <v>7.58</v>
       </c>
       <c r="K249">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9877,7 +9876,7 @@
         <v>258</v>
       </c>
       <c r="B250">
-        <v>9.36</v>
+        <v>9.58</v>
       </c>
       <c r="C250">
         <v>51</v>
@@ -9889,7 +9888,7 @@
         <v>549.69000000000005</v>
       </c>
       <c r="F250">
-        <v>477.36</v>
+        <v>488.58</v>
       </c>
       <c r="G250">
         <v>0.01</v>
@@ -9898,13 +9897,13 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="I250">
-        <v>14.678000000000001</v>
+        <v>15.023</v>
       </c>
       <c r="J250">
         <v>10.77</v>
       </c>
       <c r="K250">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9912,7 +9911,7 @@
         <v>259</v>
       </c>
       <c r="B251">
-        <v>9.14</v>
+        <v>9.01</v>
       </c>
       <c r="C251">
         <v>61.37</v>
@@ -9924,7 +9923,7 @@
         <v>514.29</v>
       </c>
       <c r="F251">
-        <v>560.91999999999996</v>
+        <v>552.94000000000005</v>
       </c>
       <c r="G251">
         <v>0.01</v>
@@ -9933,13 +9932,13 @@
         <v>0.67</v>
       </c>
       <c r="I251">
-        <v>13.634</v>
+        <v>13.44</v>
       </c>
       <c r="J251">
         <v>8.3800000000000008</v>
       </c>
       <c r="K251">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9947,7 +9946,7 @@
         <v>260</v>
       </c>
       <c r="B252">
-        <v>4.21</v>
+        <v>4.2</v>
       </c>
       <c r="C252">
         <v>88</v>
@@ -9959,7 +9958,7 @@
         <v>744.87</v>
       </c>
       <c r="F252">
-        <v>370.48</v>
+        <v>369.6</v>
       </c>
       <c r="G252" t="s">
         <v>32</v>
@@ -9982,7 +9981,7 @@
         <v>261</v>
       </c>
       <c r="B253">
-        <v>4.72</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C253">
         <v>103.765</v>
@@ -9994,7 +9993,7 @@
         <v>771.32</v>
       </c>
       <c r="F253">
-        <v>489.77</v>
+        <v>499.11</v>
       </c>
       <c r="G253">
         <v>0.01</v>
@@ -10003,13 +10002,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I253">
-        <v>32.348999999999997</v>
+        <v>32.966000000000001</v>
       </c>
       <c r="J253">
         <v>7.43</v>
       </c>
       <c r="K253">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -10017,7 +10016,7 @@
         <v>262</v>
       </c>
       <c r="B254">
-        <v>4.1900000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="C254">
         <v>57.24</v>
@@ -10029,7 +10028,7 @@
         <v>243.04</v>
       </c>
       <c r="F254">
-        <v>239.84</v>
+        <v>243.84</v>
       </c>
       <c r="G254" t="s">
         <v>32</v>
@@ -10044,7 +10043,7 @@
         <v>4.24</v>
       </c>
       <c r="K254">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -10052,7 +10051,7 @@
         <v>263</v>
       </c>
       <c r="B255">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
       <c r="C255">
         <v>137.5</v>
@@ -10064,7 +10063,7 @@
         <v>1195.8</v>
       </c>
       <c r="F255" s="2">
-        <v>952.88</v>
+        <v>950.13</v>
       </c>
       <c r="G255">
         <v>0.01</v>
@@ -10073,7 +10072,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="I255">
-        <v>35.715000000000003</v>
+        <v>35.612000000000002</v>
       </c>
       <c r="J255">
         <v>8.69</v>
@@ -10087,7 +10086,7 @@
         <v>264</v>
       </c>
       <c r="B256">
-        <v>5.5</v>
+        <v>5.57</v>
       </c>
       <c r="C256">
         <v>107.50700000000001</v>
@@ -10099,7 +10098,7 @@
         <v>869.57</v>
       </c>
       <c r="F256" s="2">
-        <v>591.29</v>
+        <v>598.80999999999995</v>
       </c>
       <c r="G256">
         <v>0.01</v>
@@ -10108,13 +10107,13 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="I256">
-        <v>39.844000000000001</v>
+        <v>40.350999999999999</v>
       </c>
       <c r="J256">
         <v>8.08</v>
       </c>
       <c r="K256">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -10122,7 +10121,7 @@
         <v>265</v>
       </c>
       <c r="B257">
-        <v>8.33</v>
+        <v>8.32</v>
       </c>
       <c r="C257">
         <v>275.60700000000003</v>
@@ -10134,7 +10133,7 @@
         <v>2250.7800000000002</v>
       </c>
       <c r="F257" s="2">
-        <v>2295.81</v>
+        <v>2293.0500000000002</v>
       </c>
       <c r="G257">
         <v>0.03</v>
@@ -10143,13 +10142,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="I257">
-        <v>12.26</v>
+        <v>12.244999999999999</v>
       </c>
       <c r="J257">
         <v>8.16</v>
       </c>
       <c r="K257">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -10157,7 +10156,7 @@
         <v>266</v>
       </c>
       <c r="B258">
-        <v>9.99</v>
+        <v>10.1</v>
       </c>
       <c r="C258">
         <v>186.50899999999999</v>
@@ -10169,7 +10168,7 @@
         <v>2308.79</v>
       </c>
       <c r="F258" s="2">
-        <v>1863.22</v>
+        <v>1883.74</v>
       </c>
       <c r="G258">
         <v>0.02</v>
@@ -10178,13 +10177,13 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="I258">
-        <v>33.408999999999999</v>
+        <v>33.776000000000003</v>
       </c>
       <c r="J258">
         <v>12.37</v>
       </c>
       <c r="K258">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10192,7 +10191,7 @@
         <v>267</v>
       </c>
       <c r="B259">
-        <v>6.97</v>
+        <v>7</v>
       </c>
       <c r="C259">
         <v>186.94399999999999</v>
@@ -10204,7 +10203,7 @@
         <v>1454.16</v>
       </c>
       <c r="F259" s="2">
-        <v>1303</v>
+        <v>1308.6099999999999</v>
       </c>
       <c r="G259">
         <v>0.01</v>
@@ -10213,7 +10212,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I259">
-        <v>90.423000000000002</v>
+        <v>90.811999999999998</v>
       </c>
       <c r="J259">
         <v>7.77</v>
@@ -10227,7 +10226,7 @@
         <v>268</v>
       </c>
       <c r="B260">
-        <v>4.58</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C260">
         <v>118</v>
@@ -10239,7 +10238,7 @@
         <v>835.72</v>
       </c>
       <c r="F260" s="2">
-        <v>540.44000000000005</v>
+        <v>543.98</v>
       </c>
       <c r="G260">
         <v>0.01</v>
@@ -10248,13 +10247,13 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I260">
-        <v>66.474000000000004</v>
+        <v>66.91</v>
       </c>
       <c r="J260">
         <v>7.08</v>
       </c>
       <c r="K260">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10262,7 +10261,7 @@
         <v>269</v>
       </c>
       <c r="B261">
-        <v>3.66</v>
+        <v>3.74</v>
       </c>
       <c r="C261">
         <v>73.275999999999996</v>
@@ -10274,7 +10273,7 @@
         <v>515.41</v>
       </c>
       <c r="F261" s="2">
-        <v>268.19</v>
+        <v>274.05</v>
       </c>
       <c r="G261" t="s">
         <v>32</v>
@@ -10283,13 +10282,13 @@
         <v>0.111</v>
       </c>
       <c r="I261">
-        <v>33.027999999999999</v>
+        <v>33.75</v>
       </c>
       <c r="J261">
         <v>7.03</v>
       </c>
       <c r="K261">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10297,7 +10296,7 @@
         <v>270</v>
       </c>
       <c r="B262">
-        <v>8.9600000000000009</v>
+        <v>9.11</v>
       </c>
       <c r="C262">
         <v>162.881</v>
@@ -10309,7 +10308,7 @@
         <v>1363.65</v>
       </c>
       <c r="F262" s="2">
-        <v>1459.41</v>
+        <v>1483.85</v>
       </c>
       <c r="G262">
         <v>0.02</v>
@@ -10318,13 +10317,13 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I262">
-        <v>16.501000000000001</v>
+        <v>16.777999999999999</v>
       </c>
       <c r="J262">
         <v>8.3699999999999992</v>
       </c>
       <c r="K262">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10332,7 +10331,7 @@
         <v>271</v>
       </c>
       <c r="B263">
-        <v>5.67</v>
+        <v>5.77</v>
       </c>
       <c r="C263">
         <v>141.00800000000001</v>
@@ -10344,7 +10343,7 @@
         <v>1222.58</v>
       </c>
       <c r="F263">
-        <v>799.52</v>
+        <v>813.62</v>
       </c>
       <c r="G263">
         <v>0.01</v>
@@ -10353,13 +10352,13 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="I263">
-        <v>13.473000000000001</v>
+        <v>13.711</v>
       </c>
       <c r="J263">
         <v>8.67</v>
       </c>
       <c r="K263">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -10367,7 +10366,7 @@
         <v>272</v>
       </c>
       <c r="B264">
-        <v>8.2200000000000006</v>
+        <v>8.35</v>
       </c>
       <c r="C264" s="2">
         <v>102.002</v>
@@ -10379,7 +10378,7 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="F264" s="2">
-        <v>838.46</v>
+        <v>851.72</v>
       </c>
       <c r="G264">
         <v>0.01</v>
@@ -10388,21 +10387,21 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I264">
-        <v>17.163</v>
+        <v>17.434999999999999</v>
       </c>
       <c r="J264">
         <v>10.11</v>
       </c>
       <c r="K264">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" t="s">
         <v>273</v>
       </c>
       <c r="B265">
-        <v>8.01</v>
+        <v>8.33</v>
       </c>
       <c r="C265" s="2">
         <v>60.5</v>
@@ -10414,7 +10413,7 @@
         <v>582.99</v>
       </c>
       <c r="F265" s="2">
-        <v>484.61</v>
+        <v>503.97</v>
       </c>
       <c r="G265">
         <v>0.01</v>
@@ -10429,7 +10428,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="K265">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10446,7 +10445,7 @@
         <v>18786.89</v>
       </c>
       <c r="F266" s="2">
-        <v>14930.9</v>
+        <v>15097.53</v>
       </c>
       <c r="G266">
         <v>0.18</v>
@@ -10455,13 +10454,13 @@
         <v>0.127</v>
       </c>
       <c r="I266">
-        <v>20.835000000000001</v>
+        <v>21.018000000000001</v>
       </c>
       <c r="J266">
         <v>8.69</v>
       </c>
       <c r="K266">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10469,7 +10468,7 @@
         <v>275</v>
       </c>
       <c r="B267">
-        <v>20</v>
+        <v>19.95</v>
       </c>
       <c r="C267">
         <v>375</v>
@@ -10481,7 +10480,7 @@
         <v>5177.7</v>
       </c>
       <c r="F267" s="2">
-        <v>7500</v>
+        <v>7481.25</v>
       </c>
       <c r="G267">
         <v>0.08</v>
@@ -10490,7 +10489,7 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="I267">
-        <v>21.594999999999999</v>
+        <v>21.541</v>
       </c>
       <c r="J267">
         <v>13.8</v>
@@ -10504,7 +10503,7 @@
         <v>276</v>
       </c>
       <c r="B268">
-        <v>39.15</v>
+        <v>39.78</v>
       </c>
       <c r="C268">
         <v>260.45699999999999</v>
@@ -10516,7 +10515,7 @@
         <v>6961</v>
       </c>
       <c r="F268" s="2">
-        <v>10196.89</v>
+        <v>10360.98</v>
       </c>
       <c r="G268">
         <v>0.11</v>
@@ -10525,13 +10524,13 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="I268">
-        <v>27.541</v>
+        <v>27.984000000000002</v>
       </c>
       <c r="J268">
         <v>26.72</v>
       </c>
       <c r="K268">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10539,7 +10538,7 @@
         <v>277</v>
       </c>
       <c r="B269">
-        <v>89.3</v>
+        <v>92</v>
       </c>
       <c r="C269">
         <v>200</v>
@@ -10551,7 +10550,7 @@
         <v>4813</v>
       </c>
       <c r="F269" s="2">
-        <v>17860</v>
+        <v>18400</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -10560,13 +10559,13 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="I269">
-        <v>39.866</v>
+        <v>41.070999999999998</v>
       </c>
       <c r="J269">
         <v>24.06</v>
       </c>
       <c r="K269">
-        <v>3.71</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10574,7 +10573,7 @@
         <v>278</v>
       </c>
       <c r="B270">
-        <v>33.200000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C270">
         <v>233.93</v>
@@ -10586,7 +10585,7 @@
         <v>3990</v>
       </c>
       <c r="F270" s="2">
-        <v>7766.48</v>
+        <v>8257.73</v>
       </c>
       <c r="G270">
         <v>0.09</v>
@@ -10595,13 +10594,13 @@
         <v>1.145</v>
       </c>
       <c r="I270">
-        <v>29.001999999999999</v>
+        <v>30.835999999999999</v>
       </c>
       <c r="J270">
         <v>17.05</v>
       </c>
       <c r="K270">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10609,7 +10608,7 @@
         <v>279</v>
       </c>
       <c r="B271">
-        <v>12.7</v>
+        <v>13.43</v>
       </c>
       <c r="C271" s="2">
         <v>523.25900000000001</v>
@@ -10621,10 +10620,10 @@
         <v>5136</v>
       </c>
       <c r="F271" s="2">
-        <v>6645.39</v>
+        <v>7027.37</v>
       </c>
       <c r="G271">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H271">
         <v>-1.7310000000000001</v>
@@ -10636,7 +10635,7 @@
         <v>9.81</v>
       </c>
       <c r="K271">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10644,7 +10643,7 @@
         <v>280</v>
       </c>
       <c r="B272">
-        <v>42.5</v>
+        <v>46.1</v>
       </c>
       <c r="C272" s="2">
         <v>30.234000000000002</v>
@@ -10656,10 +10655,10 @@
         <v>32</v>
       </c>
       <c r="F272" s="2">
-        <v>1284.95</v>
+        <v>1393.79</v>
       </c>
       <c r="G272">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H272" t="s">
         <v>32</v>
@@ -10749,7 +10748,7 @@
         <v>283</v>
       </c>
       <c r="B275">
-        <v>13.12</v>
+        <v>13.09</v>
       </c>
       <c r="C275">
         <v>339.3</v>
@@ -10761,7 +10760,7 @@
         <v>2968.84</v>
       </c>
       <c r="F275" s="2">
-        <v>4451.62</v>
+        <v>4441.4399999999996</v>
       </c>
       <c r="G275">
         <v>0.05</v>
@@ -10784,7 +10783,7 @@
         <v>284</v>
       </c>
       <c r="B276">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="C276">
         <v>93.332999999999998</v>
@@ -10796,7 +10795,7 @@
         <v>992.46</v>
       </c>
       <c r="F276" s="2">
-        <v>2071.9899999999998</v>
+        <v>2053.33</v>
       </c>
       <c r="G276">
         <v>0.02</v>
@@ -10811,7 +10810,7 @@
         <v>10.63</v>
       </c>
       <c r="K276">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10819,7 +10818,7 @@
         <v>285</v>
       </c>
       <c r="B277">
-        <v>19.18</v>
+        <v>19.41</v>
       </c>
       <c r="C277">
         <v>475</v>
@@ -10831,7 +10830,7 @@
         <v>14824.3</v>
       </c>
       <c r="F277" s="2">
-        <v>9110.5</v>
+        <v>9219.75</v>
       </c>
       <c r="G277">
         <v>0.1</v>
@@ -10840,13 +10839,13 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="I277">
-        <v>7.2229999999999999</v>
+        <v>7.31</v>
       </c>
       <c r="J277">
         <v>31.2</v>
       </c>
       <c r="K277">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10854,7 +10853,7 @@
         <v>286</v>
       </c>
       <c r="B278">
-        <v>14.56</v>
+        <v>15.72</v>
       </c>
       <c r="C278">
         <v>500</v>
@@ -10866,22 +10865,22 @@
         <v>847.1</v>
       </c>
       <c r="F278" s="2">
-        <v>7280</v>
+        <v>7860</v>
       </c>
       <c r="G278">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H278">
         <v>0.54500000000000004</v>
       </c>
       <c r="I278">
-        <v>26.718</v>
+        <v>28.847000000000001</v>
       </c>
       <c r="J278">
         <v>1.69</v>
       </c>
       <c r="K278">
-        <v>8.59</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10889,7 +10888,7 @@
         <v>287</v>
       </c>
       <c r="B279">
-        <v>39.200000000000003</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C279" s="2">
         <v>50</v>
@@ -10901,7 +10900,7 @@
         <v>630.74</v>
       </c>
       <c r="F279" s="2">
-        <v>1960</v>
+        <v>2010</v>
       </c>
       <c r="G279">
         <v>0.02</v>
@@ -10910,13 +10909,13 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="I279">
-        <v>17.841999999999999</v>
+        <v>18.297000000000001</v>
       </c>
       <c r="J279">
         <v>12.61</v>
       </c>
       <c r="K279">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10924,7 +10923,7 @@
         <v>288</v>
       </c>
       <c r="B280">
-        <v>4.76</v>
+        <v>4.83</v>
       </c>
       <c r="C280" s="2">
         <v>200</v>
@@ -10936,7 +10935,7 @@
         <v>404.74</v>
       </c>
       <c r="F280" s="2">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="G280">
         <v>0.01</v>
@@ -10945,21 +10944,21 @@
         <v>0.16</v>
       </c>
       <c r="I280">
-        <v>29.759</v>
+        <v>30.196000000000002</v>
       </c>
       <c r="J280">
         <v>2.02</v>
       </c>
       <c r="K280">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
+      <c r="A281" t="s">
         <v>289</v>
       </c>
       <c r="B281">
-        <v>24.08</v>
+        <v>24.92</v>
       </c>
       <c r="C281" s="2">
         <v>1438.6469999999999</v>
@@ -10971,22 +10970,22 @@
         <v>15037.78</v>
       </c>
       <c r="F281" s="2">
-        <v>34642.620000000003</v>
+        <v>35851.08</v>
       </c>
       <c r="G281">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H281">
         <v>0.45400000000000001</v>
       </c>
       <c r="I281">
-        <v>53.014000000000003</v>
+        <v>54.863</v>
       </c>
       <c r="J281">
         <v>10.45</v>
       </c>
       <c r="K281">
-        <v>2.2999999999999998</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -11003,22 +11002,22 @@
         <v>97503.94</v>
       </c>
       <c r="F282" s="2">
-        <v>156200.48000000001</v>
+        <v>159800.76</v>
       </c>
       <c r="G282">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H282">
         <v>0.68500000000000005</v>
       </c>
       <c r="I282">
-        <v>24.643999999999998</v>
+        <v>25.189</v>
       </c>
       <c r="J282">
         <v>13.97</v>
       </c>
       <c r="K282">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -11026,7 +11025,7 @@
         <v>291</v>
       </c>
       <c r="C283" s="2">
-        <v>341865.01400000002</v>
+        <v>342049.58399999997</v>
       </c>
       <c r="D283" s="2">
         <v>573294.26</v>
@@ -11035,19 +11034,19 @@
         <v>3176092.17</v>
       </c>
       <c r="F283" s="2">
-        <v>9020740.0899999999</v>
+        <v>9126036.6199999992</v>
       </c>
       <c r="H283">
-        <v>1.677</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="I283">
-        <v>15.273999999999999</v>
+        <v>15.446</v>
       </c>
       <c r="J283">
         <v>9.2899999999999991</v>
       </c>
       <c r="K283">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C8906-C0E2-4BCA-9911-A7A0BE3B7514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0D43F7-752A-4BC0-BE20-9CD9EDFD5297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="299">
   <si>
     <t>المؤشرات المالية اليومية</t>
   </si>
@@ -922,7 +922,7 @@
     <t>اس ام سي للرعاية الصحية</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/06/30</t>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/07/03</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>64.25</v>
+        <v>63.6</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1373,7 +1373,7 @@
         <v>345.55</v>
       </c>
       <c r="F5">
-        <v>963.75</v>
+        <v>954</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1388,7 +1388,7 @@
         <v>23.03</v>
       </c>
       <c r="K5">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>24.32</v>
+        <v>24.78</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1408,22 +1408,22 @@
         <v>1473620</v>
       </c>
       <c r="F6" s="2">
-        <v>5885440</v>
+        <v>5996760</v>
       </c>
       <c r="G6">
-        <v>64.489999999999995</v>
+        <v>64.73</v>
       </c>
       <c r="H6">
         <v>1.627</v>
       </c>
       <c r="I6">
-        <v>14.949</v>
+        <v>15.231</v>
       </c>
       <c r="J6">
         <v>6.08</v>
       </c>
       <c r="K6">
-        <v>3.99</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>7.22</v>
+        <v>7.94</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1443,10 +1443,10 @@
         <v>10987</v>
       </c>
       <c r="F7" s="2">
-        <v>12064.62</v>
+        <v>13267.74</v>
       </c>
       <c r="G7">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H7">
         <v>-2.3170000000000002</v>
@@ -1458,7 +1458,7 @@
         <v>6.57</v>
       </c>
       <c r="K7">
-        <v>1.0900000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>79.900000000000006</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1478,7 +1478,7 @@
         <v>6010</v>
       </c>
       <c r="F8" s="2">
-        <v>7111.1</v>
+        <v>7298</v>
       </c>
       <c r="G8">
         <v>0.08</v>
@@ -1487,13 +1487,13 @@
         <v>2.8090000000000002</v>
       </c>
       <c r="I8">
-        <v>28.445</v>
+        <v>29.193000000000001</v>
       </c>
       <c r="J8">
         <v>67.52</v>
       </c>
       <c r="K8">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>13.7</v>
+        <v>13.06</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1513,22 +1513,22 @@
         <v>6418.9</v>
       </c>
       <c r="F9" s="2">
-        <v>15468.15</v>
+        <v>14745.55</v>
       </c>
       <c r="G9">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H9">
         <v>0.71899999999999997</v>
       </c>
       <c r="I9">
-        <v>19.047999999999998</v>
+        <v>18.158000000000001</v>
       </c>
       <c r="J9">
         <v>5.68</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>24.48</v>
+        <v>23.62</v>
       </c>
       <c r="C10">
         <v>922.851</v>
@@ -1548,22 +1548,22 @@
         <v>14127.19</v>
       </c>
       <c r="F10" s="2">
-        <v>22591.39</v>
+        <v>21797.74</v>
       </c>
       <c r="G10">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H10">
         <v>2.4369999999999998</v>
       </c>
       <c r="I10">
-        <v>10.042999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="J10">
         <v>15.3</v>
       </c>
       <c r="K10">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>127.4</v>
+        <v>126.8</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1583,7 +1583,7 @@
         <v>1438.5</v>
       </c>
       <c r="F11" s="2">
-        <v>12740</v>
+        <v>12680</v>
       </c>
       <c r="G11">
         <v>0.14000000000000001</v>
@@ -1592,13 +1592,13 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="I11">
-        <v>35.319000000000003</v>
+        <v>35.152000000000001</v>
       </c>
       <c r="J11">
         <v>14.38</v>
       </c>
       <c r="K11">
-        <v>8.85</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1615,22 +1615,22 @@
         <v>1512947.14</v>
       </c>
       <c r="F12" s="2">
-        <v>5956379.0099999998</v>
+        <v>6067503.0300000003</v>
       </c>
       <c r="G12">
-        <v>65.27</v>
+        <v>65.5</v>
       </c>
       <c r="H12">
         <v>1.6</v>
       </c>
       <c r="I12">
-        <v>14.957000000000001</v>
+        <v>15.233000000000001</v>
       </c>
       <c r="J12">
         <v>6.15</v>
       </c>
       <c r="K12">
-        <v>3.94</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>8.1199999999999992</v>
+        <v>8.44</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1650,7 +1650,7 @@
         <v>382.18</v>
       </c>
       <c r="F13">
-        <v>620.89</v>
+        <v>645.36</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1665,7 +1665,7 @@
         <v>4.99</v>
       </c>
       <c r="K13">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>28.98</v>
+        <v>28.32</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1685,7 +1685,7 @@
         <v>1611.65</v>
       </c>
       <c r="F14" s="2">
-        <v>2511.58</v>
+        <v>2454.38</v>
       </c>
       <c r="G14">
         <v>0.03</v>
@@ -1700,7 +1700,7 @@
         <v>18.59</v>
       </c>
       <c r="K14">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>26.94</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -1720,7 +1720,7 @@
         <v>598.46</v>
       </c>
       <c r="F15">
-        <v>740.85</v>
+        <v>742.5</v>
       </c>
       <c r="G15">
         <v>0.01</v>
@@ -1729,13 +1729,13 @@
         <v>1.198</v>
       </c>
       <c r="I15">
-        <v>22.49</v>
+        <v>22.54</v>
       </c>
       <c r="J15">
         <v>21.76</v>
       </c>
       <c r="K15">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1743,10 +1743,10 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="C16" s="2">
-        <v>3802.7849999999999</v>
+        <v>3888.7629999999999</v>
       </c>
       <c r="D16" s="2">
         <v>3439.81</v>
@@ -1755,22 +1755,22 @@
         <v>53273.5</v>
       </c>
       <c r="F16" s="2">
-        <v>203829.28</v>
+        <v>207659.94</v>
       </c>
       <c r="G16">
-        <v>2.23</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H16">
-        <v>0.90500000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I16">
-        <v>59.255000000000003</v>
+        <v>60.369</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>13.69</v>
       </c>
       <c r="K16">
-        <v>3.82</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>23.56</v>
+        <v>23.39</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1790,7 +1790,7 @@
         <v>366.9</v>
       </c>
       <c r="F17">
-        <v>661.56</v>
+        <v>656.79</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1799,13 +1799,13 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17">
-        <v>68.912000000000006</v>
+        <v>68.415000000000006</v>
       </c>
       <c r="J17">
         <v>13.06</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>31.7</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1825,7 +1825,7 @@
         <v>590.22</v>
       </c>
       <c r="F18" s="2">
-        <v>1610.36</v>
+        <v>1635.76</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1834,13 +1834,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="I18">
-        <v>43.231000000000002</v>
+        <v>43.912999999999997</v>
       </c>
       <c r="J18">
         <v>11.61</v>
       </c>
       <c r="K18">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>55.75</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1860,7 +1860,7 @@
         <v>913</v>
       </c>
       <c r="F19" s="2">
-        <v>2856</v>
+        <v>2843.25</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1869,13 +1869,13 @@
         <v>4.7839999999999998</v>
       </c>
       <c r="I19">
-        <v>11.704000000000001</v>
+        <v>11.651999999999999</v>
       </c>
       <c r="J19">
         <v>17.899999999999999</v>
       </c>
       <c r="K19">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>126.4</v>
+        <v>125</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1895,7 +1895,7 @@
         <v>1049.6199999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>3981.6</v>
+        <v>3937.5</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1904,13 +1904,13 @@
         <v>15.114000000000001</v>
       </c>
       <c r="I20">
-        <v>8.3629999999999995</v>
+        <v>8.27</v>
       </c>
       <c r="J20">
         <v>33.32</v>
       </c>
       <c r="K20">
-        <v>3.79</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>63.4</v>
+        <v>65.55</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1930,7 +1930,7 @@
         <v>1210.1199999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5706</v>
+        <v>5899.5</v>
       </c>
       <c r="G21">
         <v>0.06</v>
@@ -1939,13 +1939,13 @@
         <v>2.4220000000000002</v>
       </c>
       <c r="I21">
-        <v>26.172999999999998</v>
+        <v>27.06</v>
       </c>
       <c r="J21">
         <v>13.44</v>
       </c>
       <c r="K21">
-        <v>4.71</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>37.4</v>
+        <v>36.5</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1965,7 +1965,7 @@
         <v>564.17999999999995</v>
       </c>
       <c r="F22" s="2">
-        <v>1496</v>
+        <v>1460</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1974,13 +1974,13 @@
         <v>2.718</v>
       </c>
       <c r="I22">
-        <v>13.762</v>
+        <v>13.430999999999999</v>
       </c>
       <c r="J22">
         <v>14.1</v>
       </c>
       <c r="K22">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>13.11</v>
+        <v>13.67</v>
       </c>
       <c r="C23">
         <v>67.45</v>
@@ -2000,7 +2000,7 @@
         <v>728.24</v>
       </c>
       <c r="F23">
-        <v>884.27</v>
+        <v>922.04</v>
       </c>
       <c r="G23">
         <v>0.01</v>
@@ -2015,7 +2015,7 @@
         <v>10.79</v>
       </c>
       <c r="K23">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>54.65</v>
+        <v>56.75</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2035,22 +2035,22 @@
         <v>156110</v>
       </c>
       <c r="F24" s="2">
-        <v>163950</v>
+        <v>170250</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="H24">
         <v>2.7E-2</v>
       </c>
       <c r="I24">
-        <v>2049.375</v>
+        <v>2128.125</v>
       </c>
       <c r="J24">
         <v>52.03</v>
       </c>
       <c r="K24">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>107.2</v>
+        <v>108.5</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2070,7 +2070,7 @@
         <v>19286</v>
       </c>
       <c r="F25" s="2">
-        <v>51030.95</v>
+        <v>51649.8</v>
       </c>
       <c r="G25">
         <v>0.56000000000000005</v>
@@ -2079,13 +2079,13 @@
         <v>7.2910000000000004</v>
       </c>
       <c r="I25">
-        <v>14.702</v>
+        <v>14.88</v>
       </c>
       <c r="J25">
         <v>40.51</v>
       </c>
       <c r="K25">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,7 +2093,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>9.6</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2105,7 +2105,7 @@
         <v>10484.4</v>
       </c>
       <c r="F26" s="2">
-        <v>6421.57</v>
+        <v>6608.87</v>
       </c>
       <c r="G26">
         <v>7.0000000000000007E-2</v>
@@ -2114,13 +2114,13 @@
         <v>1.601</v>
       </c>
       <c r="I26">
-        <v>5.9980000000000002</v>
+        <v>6.173</v>
       </c>
       <c r="J26">
         <v>15.67</v>
       </c>
       <c r="K26">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>23.32</v>
+        <v>22.74</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2140,7 +2140,7 @@
         <v>346.35</v>
       </c>
       <c r="F27">
-        <v>738.45</v>
+        <v>720.08</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2155,7 +2155,7 @@
         <v>10.93</v>
       </c>
       <c r="K27">
-        <v>2.13</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,7 +2163,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>43.66</v>
+        <v>43.8</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2175,7 +2175,7 @@
         <v>772.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1436.41</v>
+        <v>1441.02</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2184,13 +2184,13 @@
         <v>2.7930000000000001</v>
       </c>
       <c r="I28">
-        <v>15.63</v>
+        <v>15.68</v>
       </c>
       <c r="J28">
         <v>23.47</v>
       </c>
       <c r="K28">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>37.08</v>
+        <v>37.1</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2210,7 +2210,7 @@
         <v>3475.91</v>
       </c>
       <c r="F29" s="2">
-        <v>2565.94</v>
+        <v>2567.3200000000002</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2233,7 +2233,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>35.26</v>
       </c>
       <c r="C30">
         <v>11.5</v>
@@ -2245,7 +2245,7 @@
         <v>141.80000000000001</v>
       </c>
       <c r="F30">
-        <v>414</v>
+        <v>405.49</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2260,7 +2260,7 @@
         <v>12.33</v>
       </c>
       <c r="K30">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>6.4</v>
+        <v>6.43</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -2280,7 +2280,7 @@
         <v>441.49</v>
       </c>
       <c r="F31" s="2">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="G31">
         <v>0.01</v>
@@ -2289,13 +2289,13 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="I31">
-        <v>8.3339999999999996</v>
+        <v>8.3740000000000006</v>
       </c>
       <c r="J31">
         <v>2.2000000000000002</v>
       </c>
       <c r="K31">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>28.82</v>
+        <v>28.64</v>
       </c>
       <c r="C32">
         <v>23.52</v>
@@ -2315,7 +2315,7 @@
         <v>194.63</v>
       </c>
       <c r="F32">
-        <v>677.85</v>
+        <v>673.61</v>
       </c>
       <c r="G32">
         <v>0.01</v>
@@ -2330,7 +2330,7 @@
         <v>8.27</v>
       </c>
       <c r="K32">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>16.829999999999998</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2350,7 +2350,7 @@
         <v>242.28</v>
       </c>
       <c r="F33">
-        <v>595.78</v>
+        <v>581.27</v>
       </c>
       <c r="G33">
         <v>0.01</v>
@@ -2365,7 +2365,7 @@
         <v>6.84</v>
       </c>
       <c r="K33">
-        <v>2.4500000000000002</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>102.2</v>
+        <v>104.1</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2385,7 +2385,7 @@
         <v>4075.05</v>
       </c>
       <c r="F34" s="2">
-        <v>17246.25</v>
+        <v>17566.88</v>
       </c>
       <c r="G34">
         <v>0.19</v>
@@ -2394,13 +2394,13 @@
         <v>5.6559999999999997</v>
       </c>
       <c r="I34">
-        <v>18.067</v>
+        <v>18.402999999999999</v>
       </c>
       <c r="J34">
         <v>24.14</v>
       </c>
       <c r="K34">
-        <v>4.2300000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>44.1</v>
+        <v>45.22</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2420,7 +2420,7 @@
         <v>474.58</v>
       </c>
       <c r="F35" s="2">
-        <v>2646</v>
+        <v>2713.2</v>
       </c>
       <c r="G35">
         <v>0.03</v>
@@ -2429,13 +2429,13 @@
         <v>0.72</v>
       </c>
       <c r="I35">
-        <v>61.264000000000003</v>
+        <v>62.82</v>
       </c>
       <c r="J35">
         <v>7.9</v>
       </c>
       <c r="K35">
-        <v>5.57</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2443,7 +2443,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>16.77</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2455,7 +2455,7 @@
         <v>9853</v>
       </c>
       <c r="F36" s="2">
-        <v>11392.2</v>
+        <v>11480.51</v>
       </c>
       <c r="G36">
         <v>0.12</v>
@@ -2464,13 +2464,13 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I36">
-        <v>59.645000000000003</v>
+        <v>60.106999999999999</v>
       </c>
       <c r="J36">
         <v>14.5</v>
       </c>
       <c r="K36">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
       <c r="C37">
         <v>562.5</v>
@@ -2490,7 +2490,7 @@
         <v>11252.6</v>
       </c>
       <c r="F37" s="2">
-        <v>16987.5</v>
+        <v>17212.5</v>
       </c>
       <c r="G37">
         <v>0.19</v>
@@ -2499,13 +2499,13 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="I37">
-        <v>50.844999999999999</v>
+        <v>51.518999999999998</v>
       </c>
       <c r="J37">
         <v>20</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>64.3</v>
+        <v>63.25</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2525,7 +2525,7 @@
         <v>533.52</v>
       </c>
       <c r="F38" s="2">
-        <v>2383.6</v>
+        <v>2344.6799999999998</v>
       </c>
       <c r="G38">
         <v>0.03</v>
@@ -2534,13 +2534,13 @@
         <v>1.825</v>
       </c>
       <c r="I38">
-        <v>35.228999999999999</v>
+        <v>34.652999999999999</v>
       </c>
       <c r="J38">
         <v>14.39</v>
       </c>
       <c r="K38">
-        <v>4.46</v>
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>19.82</v>
+        <v>19.86</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2560,7 +2560,7 @@
         <v>15430</v>
       </c>
       <c r="F39" s="2">
-        <v>14534.66</v>
+        <v>14563.99</v>
       </c>
       <c r="G39">
         <v>0.16</v>
@@ -2569,7 +2569,7 @@
         <v>0.6</v>
       </c>
       <c r="I39">
-        <v>33.033000000000001</v>
+        <v>33.098999999999997</v>
       </c>
       <c r="J39">
         <v>21.04</v>
@@ -2583,7 +2583,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>30.98</v>
+        <v>30.5</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2595,7 +2595,7 @@
         <v>2915</v>
       </c>
       <c r="F40" s="2">
-        <v>8054.8</v>
+        <v>7930</v>
       </c>
       <c r="G40">
         <v>0.09</v>
@@ -2610,7 +2610,7 @@
         <v>11.21</v>
       </c>
       <c r="K40">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2618,7 +2618,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>5.17</v>
+        <v>5.25</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2630,10 +2630,10 @@
         <v>10731.37</v>
       </c>
       <c r="F41" s="2">
-        <v>7755</v>
+        <v>7875</v>
       </c>
       <c r="G41">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H41">
         <v>-1.3380000000000001</v>
@@ -2645,7 +2645,7 @@
         <v>7.15</v>
       </c>
       <c r="K41">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>31.66</v>
+        <v>31.12</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2665,7 +2665,7 @@
         <v>93.41</v>
       </c>
       <c r="F42">
-        <v>474.9</v>
+        <v>466.8</v>
       </c>
       <c r="G42">
         <v>0.01</v>
@@ -2680,7 +2680,7 @@
         <v>6.22</v>
       </c>
       <c r="K42">
-        <v>5.08</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>8.24</v>
+        <v>8.25</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2700,7 +2700,7 @@
         <v>2053.0500000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>1400.8</v>
+        <v>1402.5</v>
       </c>
       <c r="G43">
         <v>0.02</v>
@@ -2709,7 +2709,7 @@
         <v>0.437</v>
       </c>
       <c r="I43">
-        <v>18.876000000000001</v>
+        <v>18.899000000000001</v>
       </c>
       <c r="J43">
         <v>12.07</v>
@@ -2723,7 +2723,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>17.399999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2735,7 +2735,7 @@
         <v>1846.52</v>
       </c>
       <c r="F44" s="2">
-        <v>2436</v>
+        <v>2450</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2744,13 +2744,13 @@
         <v>1.101</v>
       </c>
       <c r="I44">
-        <v>15.81</v>
+        <v>15.901</v>
       </c>
       <c r="J44">
         <v>13.18</v>
       </c>
       <c r="K44">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2758,7 +2758,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="C45">
         <v>180</v>
@@ -2770,7 +2770,7 @@
         <v>2264.7800000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>1411.2</v>
+        <v>1404</v>
       </c>
       <c r="G45">
         <v>0.02</v>
@@ -2779,13 +2779,13 @@
         <v>0.317</v>
       </c>
       <c r="I45">
-        <v>24.722999999999999</v>
+        <v>24.597000000000001</v>
       </c>
       <c r="J45">
         <v>12.58</v>
       </c>
       <c r="K45">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>17</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="C46">
         <v>55</v>
@@ -2805,7 +2805,7 @@
         <v>824.47</v>
       </c>
       <c r="F46">
-        <v>935</v>
+        <v>939.4</v>
       </c>
       <c r="G46">
         <v>0.01</v>
@@ -2814,7 +2814,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="I46">
-        <v>21.172999999999998</v>
+        <v>21.271999999999998</v>
       </c>
       <c r="J46">
         <v>14.99</v>
@@ -2828,7 +2828,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2840,7 +2840,7 @@
         <v>289.64999999999998</v>
       </c>
       <c r="F47">
-        <v>591.75</v>
+        <v>585</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2849,13 +2849,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I47">
-        <v>6575</v>
+        <v>6500</v>
       </c>
       <c r="J47">
         <v>12.87</v>
       </c>
       <c r="K47">
-        <v>2.04</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2875,7 +2875,7 @@
         <v>107.08</v>
       </c>
       <c r="F48">
-        <v>490.52</v>
+        <v>504.08</v>
       </c>
       <c r="G48">
         <v>0.01</v>
@@ -2890,7 +2890,7 @@
         <v>0.47</v>
       </c>
       <c r="K48">
-        <v>4.58</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>23.56</v>
+        <v>23.32</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2910,7 +2910,7 @@
         <v>2586.1</v>
       </c>
       <c r="F49" s="2">
-        <v>2356</v>
+        <v>2332</v>
       </c>
       <c r="G49">
         <v>0.03</v>
@@ -2919,13 +2919,13 @@
         <v>1.296</v>
       </c>
       <c r="I49">
-        <v>18.178999999999998</v>
+        <v>17.992999999999999</v>
       </c>
       <c r="J49">
         <v>25.86</v>
       </c>
       <c r="K49">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>34.06</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="C50">
         <v>202.5</v>
@@ -2945,7 +2945,7 @@
         <v>4985.1000000000004</v>
       </c>
       <c r="F50" s="2">
-        <v>6897.15</v>
+        <v>7055.1</v>
       </c>
       <c r="G50">
         <v>0.08</v>
@@ -2954,13 +2954,13 @@
         <v>2.2109999999999999</v>
       </c>
       <c r="I50">
-        <v>15.404</v>
+        <v>15.756</v>
       </c>
       <c r="J50">
         <v>24.61</v>
       </c>
       <c r="K50">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>39.58</v>
+        <v>39.5</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2980,7 +2980,7 @@
         <v>2349</v>
       </c>
       <c r="F51" s="2">
-        <v>6055.74</v>
+        <v>6043.5</v>
       </c>
       <c r="G51">
         <v>7.0000000000000007E-2</v>
@@ -2989,7 +2989,7 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="I51">
-        <v>14.536</v>
+        <v>14.506</v>
       </c>
       <c r="J51">
         <v>15.35</v>
@@ -3003,7 +3003,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>51.05</v>
+        <v>50.95</v>
       </c>
       <c r="C52">
         <v>110.559</v>
@@ -3015,7 +3015,7 @@
         <v>2770.28</v>
       </c>
       <c r="F52" s="2">
-        <v>5644.04</v>
+        <v>5632.98</v>
       </c>
       <c r="G52">
         <v>0.06</v>
@@ -3024,7 +3024,7 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="I52">
-        <v>17.571000000000002</v>
+        <v>17.536000000000001</v>
       </c>
       <c r="J52">
         <v>25.05</v>
@@ -3038,7 +3038,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>28.72</v>
+        <v>28.86</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3050,7 +3050,7 @@
         <v>3398</v>
       </c>
       <c r="F53" s="2">
-        <v>4020.8</v>
+        <v>4040.4</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3059,7 +3059,7 @@
         <v>1.4930000000000001</v>
       </c>
       <c r="I53">
-        <v>19.238</v>
+        <v>19.332000000000001</v>
       </c>
       <c r="J53">
         <v>24.27</v>
@@ -3073,7 +3073,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>20.32</v>
+        <v>20.02</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3085,22 +3085,22 @@
         <v>2635.99</v>
       </c>
       <c r="F54" s="2">
-        <v>3200.4</v>
+        <v>3153.15</v>
       </c>
       <c r="G54">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H54">
         <v>0.81699999999999995</v>
       </c>
       <c r="I54">
-        <v>24.861000000000001</v>
+        <v>24.494</v>
       </c>
       <c r="J54">
         <v>16.73</v>
       </c>
       <c r="K54">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>31.16</v>
+        <v>31.3</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3120,7 +3120,7 @@
         <v>2267</v>
       </c>
       <c r="F55" s="2">
-        <v>2679.76</v>
+        <v>2691.8</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3129,7 +3129,7 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="I55">
-        <v>11.073</v>
+        <v>11.122999999999999</v>
       </c>
       <c r="J55">
         <v>26.36</v>
@@ -3143,7 +3143,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>11.12</v>
+        <v>10.97</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -3155,7 +3155,7 @@
         <v>1192.03</v>
       </c>
       <c r="F56" s="2">
-        <v>1000.8</v>
+        <v>987.3</v>
       </c>
       <c r="G56">
         <v>0.01</v>
@@ -3164,13 +3164,13 @@
         <v>0.85</v>
       </c>
       <c r="I56">
-        <v>13.084</v>
+        <v>12.907</v>
       </c>
       <c r="J56">
         <v>13.24</v>
       </c>
       <c r="K56">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>7.65</v>
+        <v>7.61</v>
       </c>
       <c r="C57">
         <v>108.7</v>
@@ -3190,7 +3190,7 @@
         <v>1101.25</v>
       </c>
       <c r="F57">
-        <v>831.56</v>
+        <v>827.21</v>
       </c>
       <c r="G57">
         <v>0.01</v>
@@ -3213,7 +3213,7 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>32.119999999999997</v>
+        <v>31.34</v>
       </c>
       <c r="C58">
         <v>120</v>
@@ -3225,7 +3225,7 @@
         <v>1856.93</v>
       </c>
       <c r="F58" s="2">
-        <v>3854.4</v>
+        <v>3760.8</v>
       </c>
       <c r="G58">
         <v>0.04</v>
@@ -3234,13 +3234,13 @@
         <v>2.6339999999999999</v>
       </c>
       <c r="I58">
-        <v>12.196</v>
+        <v>11.9</v>
       </c>
       <c r="J58">
         <v>15.47</v>
       </c>
       <c r="K58">
-        <v>2.0699999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="2">
-        <v>14979.156000000001</v>
+        <v>15065.134</v>
       </c>
       <c r="D59" s="2">
         <v>11270.63</v>
@@ -3257,22 +3257,22 @@
         <v>340669.09</v>
       </c>
       <c r="F59" s="2">
-        <v>579290.17000000004</v>
+        <v>591003.26</v>
       </c>
       <c r="G59">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="H59">
-        <v>0.752</v>
+        <v>0.748</v>
       </c>
       <c r="I59">
-        <v>39.25</v>
+        <v>40.085000000000001</v>
       </c>
       <c r="J59">
-        <v>22.74</v>
+        <v>22.61</v>
       </c>
       <c r="K59">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3280,7 +3280,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>160.80000000000001</v>
+        <v>157</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3292,7 +3292,7 @@
         <v>2700.53</v>
       </c>
       <c r="F60" s="2">
-        <v>12864</v>
+        <v>12560</v>
       </c>
       <c r="G60">
         <v>0.14000000000000001</v>
@@ -3301,13 +3301,13 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="I60">
-        <v>21.036999999999999</v>
+        <v>20.54</v>
       </c>
       <c r="J60">
         <v>33.75</v>
       </c>
       <c r="K60">
-        <v>4.76</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>27.82</v>
+        <v>27.5</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3327,7 +3327,7 @@
         <v>825.67</v>
       </c>
       <c r="F61" s="2">
-        <v>1544.01</v>
+        <v>1526.25</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3336,13 +3336,13 @@
         <v>1.379</v>
       </c>
       <c r="I61">
-        <v>20.172000000000001</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="J61">
         <v>14.87</v>
       </c>
       <c r="K61">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>52.8</v>
+        <v>52.15</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3362,7 +3362,7 @@
         <v>964.6</v>
       </c>
       <c r="F62" s="2">
-        <v>3168</v>
+        <v>3129</v>
       </c>
       <c r="G62">
         <v>0.03</v>
@@ -3371,13 +3371,13 @@
         <v>1.89</v>
       </c>
       <c r="I62">
-        <v>27.937999999999999</v>
+        <v>27.594999999999999</v>
       </c>
       <c r="J62">
         <v>16.07</v>
       </c>
       <c r="K62">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>8.41</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3397,7 +3397,7 @@
         <v>930.83</v>
       </c>
       <c r="F63" s="2">
-        <v>9461.25</v>
+        <v>9528.75</v>
       </c>
       <c r="G63">
         <v>0.1</v>
@@ -3406,13 +3406,13 @@
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>21.027999999999999</v>
+        <v>21.178000000000001</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>10.16</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>29.98</v>
+        <v>31.9</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3432,7 +3432,7 @@
         <v>1444.71</v>
       </c>
       <c r="F64" s="2">
-        <v>2998</v>
+        <v>3190</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3447,7 +3447,7 @@
         <v>14.44</v>
       </c>
       <c r="K64">
-        <v>2.0699999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>147</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3467,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>980.78</v>
+        <v>948.76</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3490,7 +3490,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>22.59</v>
+        <v>22.29</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3502,7 +3502,7 @@
         <v>908.22</v>
       </c>
       <c r="F66" s="2">
-        <v>1006.38</v>
+        <v>993.02</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3517,7 +3517,7 @@
         <v>20.38</v>
       </c>
       <c r="K66">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>54.75</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3537,7 +3537,7 @@
         <v>1078.5999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>3501.04</v>
+        <v>3517.03</v>
       </c>
       <c r="G67">
         <v>0.04</v>
@@ -3546,13 +3546,13 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="I67">
-        <v>12.898999999999999</v>
+        <v>12.958</v>
       </c>
       <c r="J67">
         <v>16.86</v>
       </c>
       <c r="K67">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3560,7 +3560,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>33.42</v>
+        <v>33.9</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3572,7 +3572,7 @@
         <v>490.64</v>
       </c>
       <c r="F68" s="2">
-        <v>1336.8</v>
+        <v>1356</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3581,13 +3581,13 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="I68">
-        <v>15.87</v>
+        <v>16.097999999999999</v>
       </c>
       <c r="J68">
         <v>12.26</v>
       </c>
       <c r="K68">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.34</v>
+        <v>2.37</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3607,7 +3607,7 @@
         <v>409.58</v>
       </c>
       <c r="F69" s="2">
-        <v>1404</v>
+        <v>1422</v>
       </c>
       <c r="G69">
         <v>0.02</v>
@@ -3622,7 +3622,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3642,7 +3642,7 @@
         <v>123.96</v>
       </c>
       <c r="F70">
-        <v>429.62</v>
+        <v>452.95</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3657,7 +3657,7 @@
         <v>0.63</v>
       </c>
       <c r="K70">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>29.2</v>
+        <v>29.02</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3677,7 +3677,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="F71">
-        <v>350.4</v>
+        <v>348.24</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3692,7 +3692,7 @@
         <v>12.81</v>
       </c>
       <c r="K71">
-        <v>2.27</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>141.4</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3712,7 +3712,7 @@
         <v>2899.91</v>
       </c>
       <c r="F72" s="2">
-        <v>21210</v>
+        <v>21420</v>
       </c>
       <c r="G72">
         <v>0.23</v>
@@ -3721,13 +3721,13 @@
         <v>6.0270000000000001</v>
       </c>
       <c r="I72">
-        <v>23.459</v>
+        <v>23.690999999999999</v>
       </c>
       <c r="J72">
         <v>19.329999999999998</v>
       </c>
       <c r="K72">
-        <v>7.31</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>43.18</v>
+        <v>43.08</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3747,7 +3747,7 @@
         <v>528.99</v>
       </c>
       <c r="F73" s="2">
-        <v>1727.2</v>
+        <v>1723.2</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3756,13 +3756,13 @@
         <v>2.0289999999999999</v>
       </c>
       <c r="I73">
-        <v>21.283999999999999</v>
+        <v>21.234000000000002</v>
       </c>
       <c r="J73">
         <v>13.22</v>
       </c>
       <c r="K73">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3770,7 +3770,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>66.3</v>
+        <v>65.45</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3782,7 +3782,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="F74">
-        <v>828.75</v>
+        <v>818.13</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3791,13 +3791,13 @@
         <v>1.913</v>
       </c>
       <c r="I74">
-        <v>34.661000000000001</v>
+        <v>34.216999999999999</v>
       </c>
       <c r="J74">
         <v>12.89</v>
       </c>
       <c r="K74">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3814,7 +3814,7 @@
         <v>13621.27</v>
       </c>
       <c r="F75" s="2">
-        <v>62810.23</v>
+        <v>62933.33</v>
       </c>
       <c r="G75">
         <v>0.67</v>
@@ -3823,13 +3823,13 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="I75">
-        <v>21.268000000000001</v>
+        <v>21.244</v>
       </c>
       <c r="J75">
         <v>5.27</v>
       </c>
       <c r="K75">
-        <v>4.6100000000000003</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>5.1100000000000003</v>
+        <v>5.07</v>
       </c>
       <c r="C76">
         <v>475</v>
@@ -3849,7 +3849,7 @@
         <v>613.96</v>
       </c>
       <c r="F76" s="2">
-        <v>2427.25</v>
+        <v>2408.25</v>
       </c>
       <c r="G76">
         <v>0.03</v>
@@ -3858,13 +3858,13 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="I76">
-        <v>23.998000000000001</v>
+        <v>23.811</v>
       </c>
       <c r="J76">
         <v>1.29</v>
       </c>
       <c r="K76">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3872,7 +3872,7 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="C77">
         <v>175</v>
@@ -3884,7 +3884,7 @@
         <v>167.63</v>
       </c>
       <c r="F77">
-        <v>523.25</v>
+        <v>537.25</v>
       </c>
       <c r="G77">
         <v>0.01</v>
@@ -3899,7 +3899,7 @@
         <v>0.95</v>
       </c>
       <c r="K77">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3907,7 +3907,7 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>138.5</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="C78">
         <v>15</v>
@@ -3919,7 +3919,7 @@
         <v>410.42</v>
       </c>
       <c r="F78" s="2">
-        <v>2077.5</v>
+        <v>2037</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -3928,13 +3928,13 @@
         <v>6.5970000000000004</v>
       </c>
       <c r="I78">
-        <v>20.995000000000001</v>
+        <v>20.585999999999999</v>
       </c>
       <c r="J78">
         <v>27.36</v>
       </c>
       <c r="K78">
-        <v>5.0599999999999996</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="C79">
         <v>400</v>
@@ -3954,7 +3954,7 @@
         <v>586.20000000000005</v>
       </c>
       <c r="F79" s="2">
-        <v>2428</v>
+        <v>2388</v>
       </c>
       <c r="G79">
         <v>0.03</v>
@@ -3963,13 +3963,13 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="I79">
-        <v>18.864999999999998</v>
+        <v>18.553999999999998</v>
       </c>
       <c r="J79">
         <v>1.46</v>
       </c>
       <c r="K79">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>53.85</v>
+        <v>53.2</v>
       </c>
       <c r="C80">
         <v>26.5</v>
@@ -3989,7 +3989,7 @@
         <v>375.3</v>
       </c>
       <c r="F80" s="2">
-        <v>1427.03</v>
+        <v>1409.8</v>
       </c>
       <c r="G80">
         <v>0.02</v>
@@ -3998,13 +3998,13 @@
         <v>3.528</v>
       </c>
       <c r="I80">
-        <v>15.262</v>
+        <v>15.077999999999999</v>
       </c>
       <c r="J80">
         <v>14.16</v>
       </c>
       <c r="K80">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>12.28</v>
+        <v>13.5</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4024,7 +4024,7 @@
         <v>257.07</v>
       </c>
       <c r="F81">
-        <v>736.8</v>
+        <v>810</v>
       </c>
       <c r="G81">
         <v>0.01</v>
@@ -4039,7 +4039,7 @@
         <v>4.28</v>
       </c>
       <c r="K81">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>120.8</v>
+        <v>120.7</v>
       </c>
       <c r="C82">
         <v>82</v>
@@ -4059,7 +4059,7 @@
         <v>1432.29</v>
       </c>
       <c r="F82" s="2">
-        <v>9905.6</v>
+        <v>9897.4</v>
       </c>
       <c r="G82">
         <v>0.11</v>
@@ -4068,7 +4068,7 @@
         <v>4.3449999999999998</v>
       </c>
       <c r="I82">
-        <v>27.798999999999999</v>
+        <v>27.776</v>
       </c>
       <c r="J82">
         <v>17.46</v>
@@ -4091,7 +4091,7 @@
         <v>3842.87</v>
       </c>
       <c r="F83" s="2">
-        <v>19525.43</v>
+        <v>19487.7</v>
       </c>
       <c r="G83">
         <v>0.23</v>
@@ -4100,13 +4100,13 @@
         <v>0.45</v>
       </c>
       <c r="I83">
-        <v>23.459</v>
+        <v>23.298999999999999</v>
       </c>
       <c r="J83">
         <v>3.12</v>
       </c>
       <c r="K83">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>32.880000000000003</v>
+        <v>34</v>
       </c>
       <c r="C84">
         <v>81.599999999999994</v>
@@ -4126,7 +4126,7 @@
         <v>1494</v>
       </c>
       <c r="F84" s="2">
-        <v>2683.01</v>
+        <v>2774.4</v>
       </c>
       <c r="G84">
         <v>0.03</v>
@@ -4135,13 +4135,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I84">
-        <v>59.49</v>
+        <v>61.515999999999998</v>
       </c>
       <c r="J84">
         <v>18.3</v>
       </c>
       <c r="K84">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>48.96</v>
+        <v>49.6</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -4161,7 +4161,7 @@
         <v>2423.3200000000002</v>
       </c>
       <c r="F85" s="2">
-        <v>9204.48</v>
+        <v>9324.7999999999993</v>
       </c>
       <c r="G85">
         <v>0.1</v>
@@ -4170,13 +4170,13 @@
         <v>1.88</v>
       </c>
       <c r="I85">
-        <v>26.038</v>
+        <v>26.378</v>
       </c>
       <c r="J85">
         <v>12.89</v>
       </c>
       <c r="K85">
-        <v>3.79</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4184,7 +4184,7 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>14.12</v>
+        <v>14</v>
       </c>
       <c r="C86">
         <v>125</v>
@@ -4196,7 +4196,7 @@
         <v>897.57</v>
       </c>
       <c r="F86" s="2">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="G86">
         <v>0.02</v>
@@ -4205,13 +4205,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="I86">
-        <v>40.415999999999997</v>
+        <v>40.073</v>
       </c>
       <c r="J86">
         <v>7.18</v>
       </c>
       <c r="K86">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>72.400000000000006</v>
+        <v>71.75</v>
       </c>
       <c r="C87">
         <v>78.165999999999997</v>
@@ -4231,7 +4231,7 @@
         <v>2821.3</v>
       </c>
       <c r="F87" s="2">
-        <v>5659.22</v>
+        <v>5608.41</v>
       </c>
       <c r="G87">
         <v>0.06</v>
@@ -4240,13 +4240,13 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="I87">
-        <v>17.324999999999999</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="J87">
         <v>36.090000000000003</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4289,7 +4289,7 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>61.65</v>
+        <v>61.2</v>
       </c>
       <c r="C89">
         <v>55</v>
@@ -4301,7 +4301,7 @@
         <v>1265.3900000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>3390.75</v>
+        <v>3366</v>
       </c>
       <c r="G89">
         <v>0.04</v>
@@ -4310,13 +4310,13 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="I89">
-        <v>17.965</v>
+        <v>17.834</v>
       </c>
       <c r="J89">
         <v>23</v>
       </c>
       <c r="K89">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>187.8</v>
+        <v>187</v>
       </c>
       <c r="C90">
         <v>80</v>
@@ -4336,7 +4336,7 @@
         <v>1449</v>
       </c>
       <c r="F90" s="2">
-        <v>15024</v>
+        <v>14960</v>
       </c>
       <c r="G90">
         <v>0.16</v>
@@ -4345,13 +4345,13 @@
         <v>7.5759999999999996</v>
       </c>
       <c r="I90">
-        <v>24.788</v>
+        <v>24.683</v>
       </c>
       <c r="J90">
         <v>18.11</v>
       </c>
       <c r="K90">
-        <v>10.36</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>296</v>
       </c>
       <c r="B91">
-        <v>82.2</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="C91">
         <v>170.851</v>
@@ -4371,7 +4371,7 @@
         <v>32</v>
       </c>
       <c r="F91" s="2">
-        <v>14043.95</v>
+        <v>13557.03</v>
       </c>
       <c r="G91">
         <v>0.15</v>
@@ -4403,7 +4403,7 @@
         <v>11201.01</v>
       </c>
       <c r="F92" s="2">
-        <v>54655.71</v>
+        <v>54225.94</v>
       </c>
       <c r="G92">
         <v>0.59</v>
@@ -4412,13 +4412,13 @@
         <v>2.1320000000000001</v>
       </c>
       <c r="I92">
-        <v>23.189</v>
+        <v>23.222000000000001</v>
       </c>
       <c r="J92">
         <v>13.63</v>
       </c>
       <c r="K92">
-        <v>4.88</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>102</v>
       </c>
       <c r="B93">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C93">
         <v>10.897</v>
@@ -4438,7 +4438,7 @@
         <v>39.29</v>
       </c>
       <c r="F93" s="2">
-        <v>1057.01</v>
+        <v>1089.7</v>
       </c>
       <c r="G93">
         <v>0.01</v>
@@ -4453,7 +4453,7 @@
         <v>3.6</v>
       </c>
       <c r="K93">
-        <v>26.9</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
         <v>103</v>
       </c>
       <c r="B94">
-        <v>30.92</v>
+        <v>30.9</v>
       </c>
       <c r="C94">
         <v>13.5</v>
@@ -4473,7 +4473,7 @@
         <v>64.38</v>
       </c>
       <c r="F94" s="2">
-        <v>417.42</v>
+        <v>417.15</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -4488,7 +4488,7 @@
         <v>4.76</v>
       </c>
       <c r="K94">
-        <v>6.48</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>13.62</v>
+        <v>13.35</v>
       </c>
       <c r="C95">
         <v>81.25</v>
@@ -4508,7 +4508,7 @@
         <v>1043.97</v>
       </c>
       <c r="F95" s="2">
-        <v>1106.6300000000001</v>
+        <v>1084.69</v>
       </c>
       <c r="G95">
         <v>0.01</v>
@@ -4523,7 +4523,7 @@
         <v>12.84</v>
       </c>
       <c r="K95">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4531,7 +4531,7 @@
         <v>105</v>
       </c>
       <c r="B96">
-        <v>13.26</v>
+        <v>13.3</v>
       </c>
       <c r="C96">
         <v>57.5</v>
@@ -4543,7 +4543,7 @@
         <v>293.3</v>
       </c>
       <c r="F96" s="2">
-        <v>762.45</v>
+        <v>764.75</v>
       </c>
       <c r="G96">
         <v>0.01</v>
@@ -4558,7 +4558,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K96">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4566,7 +4566,7 @@
         <v>106</v>
       </c>
       <c r="B97">
-        <v>4.09</v>
+        <v>4.18</v>
       </c>
       <c r="C97">
         <v>400</v>
@@ -4578,7 +4578,7 @@
         <v>614.85</v>
       </c>
       <c r="F97" s="2">
-        <v>1636</v>
+        <v>1672</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -4587,13 +4587,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I97">
-        <v>15.305999999999999</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="J97">
         <v>1.53</v>
       </c>
       <c r="K97">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4601,7 +4601,7 @@
         <v>107</v>
       </c>
       <c r="B98">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="C98">
         <v>275</v>
@@ -4613,7 +4613,7 @@
         <v>465.35</v>
       </c>
       <c r="F98" s="2">
-        <v>965.25</v>
+        <v>981.75</v>
       </c>
       <c r="G98">
         <v>0.01</v>
@@ -4622,13 +4622,13 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I98">
-        <v>83.933999999999997</v>
+        <v>85.369</v>
       </c>
       <c r="J98">
         <v>1.69</v>
       </c>
       <c r="K98">
-        <v>2.0699999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
         <v>2521.14</v>
       </c>
       <c r="F99" s="2">
-        <v>5944.76</v>
+        <v>6010.04</v>
       </c>
       <c r="G99">
         <v>0.06</v>
@@ -4654,13 +4654,13 @@
         <v>-0.121</v>
       </c>
       <c r="I99">
-        <v>21.974</v>
+        <v>22.417000000000002</v>
       </c>
       <c r="J99">
         <v>3.01</v>
       </c>
       <c r="K99">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,7 @@
         <v>109</v>
       </c>
       <c r="B100">
-        <v>25.38</v>
+        <v>24.98</v>
       </c>
       <c r="C100">
         <v>300</v>
@@ -4680,7 +4680,7 @@
         <v>5992</v>
       </c>
       <c r="F100" s="2">
-        <v>7614</v>
+        <v>7494</v>
       </c>
       <c r="G100">
         <v>0.08</v>
@@ -4695,7 +4695,7 @@
         <v>19.97</v>
       </c>
       <c r="K100">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4703,7 +4703,7 @@
         <v>110</v>
       </c>
       <c r="B101">
-        <v>2.13</v>
+        <v>2.54</v>
       </c>
       <c r="C101">
         <v>315</v>
@@ -4715,7 +4715,7 @@
         <v>191.56</v>
       </c>
       <c r="F101" s="2">
-        <v>670.95</v>
+        <v>800.1</v>
       </c>
       <c r="G101">
         <v>0.01</v>
@@ -4730,7 +4730,7 @@
         <v>0.6</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,7 @@
         <v>111</v>
       </c>
       <c r="B102">
-        <v>129.6</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="C102" s="2">
         <v>52.383000000000003</v>
@@ -4750,22 +4750,22 @@
         <v>1238</v>
       </c>
       <c r="F102" s="2">
-        <v>6788.84</v>
+        <v>7291.71</v>
       </c>
       <c r="G102">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H102">
         <v>8.266</v>
       </c>
       <c r="I102">
-        <v>15.678000000000001</v>
+        <v>16.838999999999999</v>
       </c>
       <c r="J102">
         <v>23.63</v>
       </c>
       <c r="K102">
-        <v>5.48</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4808,7 +4808,7 @@
         <v>113</v>
       </c>
       <c r="B104">
-        <v>25.5</v>
+        <v>26.02</v>
       </c>
       <c r="C104">
         <v>65</v>
@@ -4820,7 +4820,7 @@
         <v>522.6</v>
       </c>
       <c r="F104" s="2">
-        <v>1657.5</v>
+        <v>1691.3</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4829,13 +4829,13 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I104">
-        <v>96.986000000000004</v>
+        <v>98.963999999999999</v>
       </c>
       <c r="J104">
         <v>8.0399999999999991</v>
       </c>
       <c r="K104">
-        <v>3.17</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4843,7 +4843,7 @@
         <v>114</v>
       </c>
       <c r="B105">
-        <v>160.9</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="C105">
         <v>43</v>
@@ -4855,22 +4855,22 @@
         <v>781.31</v>
       </c>
       <c r="F105" s="2">
-        <v>6918.7</v>
+        <v>6931.6</v>
       </c>
       <c r="G105">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H105">
         <v>3.9769999999999999</v>
       </c>
       <c r="I105">
-        <v>40.46</v>
+        <v>40.534999999999997</v>
       </c>
       <c r="J105">
         <v>18.16</v>
       </c>
       <c r="K105">
-        <v>8.85</v>
+        <v>8.8699999999999992</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4878,7 +4878,7 @@
         <v>115</v>
       </c>
       <c r="B106">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C106">
         <v>42.087000000000003</v>
@@ -4890,7 +4890,7 @@
         <v>789.11</v>
       </c>
       <c r="F106" s="2">
-        <v>2777.74</v>
+        <v>2693.57</v>
       </c>
       <c r="G106">
         <v>0.03</v>
@@ -4899,13 +4899,13 @@
         <v>1.669</v>
       </c>
       <c r="I106">
-        <v>39.534999999999997</v>
+        <v>38.337000000000003</v>
       </c>
       <c r="J106">
         <v>18.739999999999998</v>
       </c>
       <c r="K106">
-        <v>3.52</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>24.11</v>
+        <v>24.46</v>
       </c>
       <c r="C107">
         <v>64.680000000000007</v>
@@ -4925,7 +4925,7 @@
         <v>906.39</v>
       </c>
       <c r="F107" s="2">
-        <v>1559.43</v>
+        <v>1582.07</v>
       </c>
       <c r="G107">
         <v>0.02</v>
@@ -4940,7 +4940,7 @@
         <v>14.01</v>
       </c>
       <c r="K107">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>117</v>
       </c>
       <c r="B108">
-        <v>14.08</v>
+        <v>14.36</v>
       </c>
       <c r="C108">
         <v>15.808</v>
@@ -4960,7 +4960,7 @@
         <v>73.14</v>
       </c>
       <c r="F108">
-        <v>222.58</v>
+        <v>227</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -4975,7 +4975,7 @@
         <v>4.62</v>
       </c>
       <c r="K108">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4983,7 +4983,7 @@
         <v>118</v>
       </c>
       <c r="B109">
-        <v>109</v>
+        <v>108.6</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4995,7 +4995,7 @@
         <v>23.69</v>
       </c>
       <c r="F109" s="2">
-        <v>327</v>
+        <v>325.8</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -5004,13 +5004,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="I109">
-        <v>228.67099999999999</v>
+        <v>227.83199999999999</v>
       </c>
       <c r="J109">
         <v>7.89</v>
       </c>
       <c r="K109">
-        <v>13.8</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5018,7 +5018,7 @@
         <v>119</v>
       </c>
       <c r="B110">
-        <v>56.55</v>
+        <v>56.3</v>
       </c>
       <c r="C110" s="2">
         <v>25.5</v>
@@ -5030,7 +5030,7 @@
         <v>284.67</v>
       </c>
       <c r="F110" s="2">
-        <v>1442.03</v>
+        <v>1435.65</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -5039,13 +5039,13 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="I110">
-        <v>28.312999999999999</v>
+        <v>28.187999999999999</v>
       </c>
       <c r="J110">
         <v>11.16</v>
       </c>
       <c r="K110">
-        <v>5.0599999999999996</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
         <v>120</v>
       </c>
       <c r="B111">
-        <v>2.2999999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="C111" s="2">
         <v>8423.6329999999998</v>
@@ -5065,7 +5065,7 @@
         <v>1608.2</v>
       </c>
       <c r="F111" s="2">
-        <v>19374.36</v>
+        <v>19795.54</v>
       </c>
       <c r="G111">
         <v>0.21</v>
@@ -5074,13 +5074,13 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I111">
-        <v>31.620999999999999</v>
+        <v>32.308999999999997</v>
       </c>
       <c r="J111">
         <v>0.19</v>
       </c>
       <c r="K111">
-        <v>12.04</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
         <v>121</v>
       </c>
       <c r="B112">
-        <v>16.78</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -5100,7 +5100,7 @@
         <v>74.260000000000005</v>
       </c>
       <c r="F112" s="2">
-        <v>587.29999999999995</v>
+        <v>574.70000000000005</v>
       </c>
       <c r="G112">
         <v>0.01</v>
@@ -5109,13 +5109,13 @@
         <v>0.154</v>
       </c>
       <c r="I112">
-        <v>109.163</v>
+        <v>106.821</v>
       </c>
       <c r="J112">
         <v>2.12</v>
       </c>
       <c r="K112">
-        <v>7.9</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
         <v>122</v>
       </c>
       <c r="B113">
-        <v>28</v>
+        <v>27.68</v>
       </c>
       <c r="C113" s="2">
         <v>209.83600000000001</v>
@@ -5135,7 +5135,7 @@
         <v>1277.28</v>
       </c>
       <c r="F113" s="2">
-        <v>5875.41</v>
+        <v>5808.26</v>
       </c>
       <c r="G113">
         <v>0.06</v>
@@ -5144,13 +5144,13 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="I113">
-        <v>27.864000000000001</v>
+        <v>27.545000000000002</v>
       </c>
       <c r="J113">
         <v>6.08</v>
       </c>
       <c r="K113">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5167,7 +5167,7 @@
         <v>14266.63</v>
       </c>
       <c r="F114" s="2">
-        <v>56775.71</v>
+        <v>57611.17</v>
       </c>
       <c r="G114">
         <v>0.62</v>
@@ -5176,13 +5176,13 @@
         <v>0.111</v>
       </c>
       <c r="I114">
-        <v>29.681000000000001</v>
+        <v>30.189</v>
       </c>
       <c r="J114">
         <v>1.33</v>
       </c>
       <c r="K114">
-        <v>3.98</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>124</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>16.71</v>
       </c>
       <c r="C115">
         <v>40</v>
@@ -5202,7 +5202,7 @@
         <v>199.72</v>
       </c>
       <c r="F115" s="2">
-        <v>680</v>
+        <v>668.4</v>
       </c>
       <c r="G115">
         <v>0.01</v>
@@ -5217,7 +5217,7 @@
         <v>4.99</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
         <v>125</v>
       </c>
       <c r="B116">
-        <v>104</v>
+        <v>106.8</v>
       </c>
       <c r="C116">
         <v>55</v>
@@ -5237,7 +5237,7 @@
         <v>1420.63</v>
       </c>
       <c r="F116" s="2">
-        <v>5720</v>
+        <v>5874</v>
       </c>
       <c r="G116">
         <v>0.06</v>
@@ -5246,13 +5246,13 @@
         <v>3.976</v>
       </c>
       <c r="I116">
-        <v>26.155000000000001</v>
+        <v>26.859000000000002</v>
       </c>
       <c r="J116">
         <v>25.82</v>
       </c>
       <c r="K116">
-        <v>4.0199999999999996</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>126</v>
       </c>
       <c r="B117">
-        <v>35.700000000000003</v>
+        <v>35.92</v>
       </c>
       <c r="C117">
         <v>332.5</v>
@@ -5272,7 +5272,7 @@
         <v>4401.58</v>
       </c>
       <c r="F117" s="2">
-        <v>11870.25</v>
+        <v>11943.4</v>
       </c>
       <c r="G117">
         <v>0.13</v>
@@ -5281,13 +5281,13 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="I117">
-        <v>20.885000000000002</v>
+        <v>21.013000000000002</v>
       </c>
       <c r="J117">
         <v>13.23</v>
       </c>
       <c r="K117">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5295,7 +5295,7 @@
         <v>127</v>
       </c>
       <c r="B118">
-        <v>193.4</v>
+        <v>190</v>
       </c>
       <c r="C118">
         <v>80</v>
@@ -5307,22 +5307,22 @@
         <v>3251.98</v>
       </c>
       <c r="F118" s="2">
-        <v>15472</v>
+        <v>15200</v>
       </c>
       <c r="G118">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H118">
         <v>1.8220000000000001</v>
       </c>
       <c r="I118">
-        <v>106.14700000000001</v>
+        <v>104.28100000000001</v>
       </c>
       <c r="J118">
         <v>40.64</v>
       </c>
       <c r="K118">
-        <v>4.75</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5339,22 +5339,22 @@
         <v>9273.91</v>
       </c>
       <c r="F119" s="2">
-        <v>33742.25</v>
+        <v>33685.800000000003</v>
       </c>
       <c r="G119">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="H119">
         <v>1.7789999999999999</v>
       </c>
       <c r="I119">
-        <v>35.444000000000003</v>
+        <v>35.396000000000001</v>
       </c>
       <c r="J119">
         <v>18.27</v>
       </c>
       <c r="K119">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5362,7 +5362,7 @@
         <v>129</v>
       </c>
       <c r="B120">
-        <v>88.25</v>
+        <v>87.3</v>
       </c>
       <c r="C120">
         <v>80</v>
@@ -5374,7 +5374,7 @@
         <v>1569.05</v>
       </c>
       <c r="F120" s="2">
-        <v>7060</v>
+        <v>6984</v>
       </c>
       <c r="G120">
         <v>0.08</v>
@@ -5383,13 +5383,13 @@
         <v>6.8</v>
       </c>
       <c r="I120">
-        <v>12.977</v>
+        <v>12.837</v>
       </c>
       <c r="J120">
         <v>19.61</v>
       </c>
       <c r="K120">
-        <v>4.49</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>130</v>
       </c>
       <c r="B121">
-        <v>29.8</v>
+        <v>30.08</v>
       </c>
       <c r="C121">
         <v>36</v>
@@ -5409,7 +5409,7 @@
         <v>331.15</v>
       </c>
       <c r="F121" s="2">
-        <v>1072.8</v>
+        <v>1082.8800000000001</v>
       </c>
       <c r="G121">
         <v>0.01</v>
@@ -5424,7 +5424,7 @@
         <v>9.19</v>
       </c>
       <c r="K121">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
         <v>131</v>
       </c>
       <c r="B122">
-        <v>63</v>
+        <v>60.65</v>
       </c>
       <c r="C122">
         <v>70</v>
@@ -5444,7 +5444,7 @@
         <v>853.88</v>
       </c>
       <c r="F122" s="2">
-        <v>4410</v>
+        <v>4245.5</v>
       </c>
       <c r="G122">
         <v>0.05</v>
@@ -5453,13 +5453,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I122">
-        <v>114.575</v>
+        <v>110.301</v>
       </c>
       <c r="J122">
         <v>12.19</v>
       </c>
       <c r="K122">
-        <v>5.16</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5467,7 +5467,7 @@
         <v>132</v>
       </c>
       <c r="B123">
-        <v>5.74</v>
+        <v>5.88</v>
       </c>
       <c r="C123" s="2">
         <v>101.25</v>
@@ -5479,7 +5479,7 @@
         <v>207.79</v>
       </c>
       <c r="F123" s="2">
-        <v>581.17999999999995</v>
+        <v>595.35</v>
       </c>
       <c r="G123">
         <v>0.01</v>
@@ -5488,13 +5488,13 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="I123">
-        <v>24.815000000000001</v>
+        <v>25.42</v>
       </c>
       <c r="J123">
         <v>2.0499999999999998</v>
       </c>
       <c r="K123">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5502,7 +5502,7 @@
         <v>133</v>
       </c>
       <c r="B124">
-        <v>12.54</v>
+        <v>12.56</v>
       </c>
       <c r="C124" s="2">
         <v>1200</v>
@@ -5514,7 +5514,7 @@
         <v>1686.2</v>
       </c>
       <c r="F124" s="2">
-        <v>15048</v>
+        <v>15072</v>
       </c>
       <c r="G124">
         <v>0.16</v>
@@ -5523,13 +5523,13 @@
         <v>0.81</v>
       </c>
       <c r="I124">
-        <v>15.483000000000001</v>
+        <v>15.507</v>
       </c>
       <c r="J124">
         <v>1.4</v>
       </c>
       <c r="K124">
-        <v>8.92</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
         <v>134</v>
       </c>
       <c r="B125">
-        <v>39.200000000000003</v>
+        <v>39.96</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -5549,7 +5549,7 @@
         <v>240.19</v>
       </c>
       <c r="F125" s="2">
-        <v>784</v>
+        <v>799.2</v>
       </c>
       <c r="G125">
         <v>0.01</v>
@@ -5558,13 +5558,13 @@
         <v>1.23</v>
       </c>
       <c r="I125">
-        <v>31.882000000000001</v>
+        <v>32.500999999999998</v>
       </c>
       <c r="J125">
         <v>12</v>
       </c>
       <c r="K125">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5572,7 +5572,7 @@
         <v>135</v>
       </c>
       <c r="B126">
-        <v>7.14</v>
+        <v>7.25</v>
       </c>
       <c r="C126">
         <v>350</v>
@@ -5584,7 +5584,7 @@
         <v>474.37</v>
       </c>
       <c r="F126" s="2">
-        <v>2499</v>
+        <v>2537.5</v>
       </c>
       <c r="G126">
         <v>0.03</v>
@@ -5593,13 +5593,13 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="I126">
-        <v>60.244999999999997</v>
+        <v>61.173999999999999</v>
       </c>
       <c r="J126">
         <v>1.35</v>
       </c>
       <c r="K126">
-        <v>5.26</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5607,7 +5607,7 @@
         <v>136</v>
       </c>
       <c r="B127">
-        <v>33.04</v>
+        <v>31.9</v>
       </c>
       <c r="C127">
         <v>115.5</v>
@@ -5619,7 +5619,7 @@
         <v>400.6</v>
       </c>
       <c r="F127" s="2">
-        <v>3816.12</v>
+        <v>3684.45</v>
       </c>
       <c r="G127">
         <v>0.04</v>
@@ -5628,13 +5628,13 @@
         <v>0.64</v>
       </c>
       <c r="I127">
-        <v>51.59</v>
+        <v>49.81</v>
       </c>
       <c r="J127">
         <v>3.46</v>
       </c>
       <c r="K127">
-        <v>9.52</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
         <v>137</v>
       </c>
       <c r="B128">
-        <v>24.62</v>
+        <v>29</v>
       </c>
       <c r="C128" s="2">
         <v>114.76600000000001</v>
@@ -5654,10 +5654,10 @@
         <v>32</v>
       </c>
       <c r="F128" s="2">
-        <v>2825.54</v>
+        <v>3328.21</v>
       </c>
       <c r="G128">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H128" t="s">
         <v>32</v>
@@ -5686,22 +5686,22 @@
         <v>5763.23</v>
       </c>
       <c r="F129" s="2">
-        <v>38096.639999999999</v>
+        <v>38329.089999999997</v>
       </c>
       <c r="G129">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="H129">
         <v>0.82099999999999995</v>
       </c>
       <c r="I129">
-        <v>19.907</v>
+        <v>19.744</v>
       </c>
       <c r="J129">
         <v>2.76</v>
       </c>
       <c r="K129">
-        <v>6.61</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5709,7 +5709,7 @@
         <v>139</v>
       </c>
       <c r="B130">
-        <v>7.78</v>
+        <v>7.88</v>
       </c>
       <c r="C130">
         <v>900</v>
@@ -5721,7 +5721,7 @@
         <v>1352.04</v>
       </c>
       <c r="F130" s="2">
-        <v>7002</v>
+        <v>7092</v>
       </c>
       <c r="G130">
         <v>0.08</v>
@@ -5730,13 +5730,13 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="I130">
-        <v>14.606999999999999</v>
+        <v>14.795</v>
       </c>
       <c r="J130">
         <v>1.5</v>
       </c>
       <c r="K130">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
         <v>140</v>
       </c>
       <c r="B131">
-        <v>18.440000000000001</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="C131">
         <v>45</v>
@@ -5756,7 +5756,7 @@
         <v>690.64</v>
       </c>
       <c r="F131">
-        <v>829.8</v>
+        <v>812.7</v>
       </c>
       <c r="G131">
         <v>0.01</v>
@@ -5765,13 +5765,13 @@
         <v>0.54</v>
       </c>
       <c r="I131">
-        <v>34.148000000000003</v>
+        <v>33.444000000000003</v>
       </c>
       <c r="J131">
         <v>15.34</v>
       </c>
       <c r="K131">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5779,7 +5779,7 @@
         <v>141</v>
       </c>
       <c r="B132">
-        <v>16.41</v>
+        <v>16.05</v>
       </c>
       <c r="C132">
         <v>31.5</v>
@@ -5791,7 +5791,7 @@
         <v>261.01</v>
       </c>
       <c r="F132">
-        <v>516.91999999999996</v>
+        <v>505.58</v>
       </c>
       <c r="G132">
         <v>0.01</v>
@@ -5806,7 +5806,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="K132">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5814,7 +5814,7 @@
         <v>142</v>
       </c>
       <c r="B133">
-        <v>38.22</v>
+        <v>36.6</v>
       </c>
       <c r="C133" s="2">
         <v>6.5</v>
@@ -5826,7 +5826,7 @@
         <v>20.41</v>
       </c>
       <c r="F133" s="2">
-        <v>248.43</v>
+        <v>237.9</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -5841,7 +5841,7 @@
         <v>3.14</v>
       </c>
       <c r="K133">
-        <v>12.17</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5849,7 +5849,7 @@
         <v>143</v>
       </c>
       <c r="B134">
-        <v>6.1</v>
+        <v>6.45</v>
       </c>
       <c r="C134" s="2">
         <v>1143</v>
@@ -5861,7 +5861,7 @@
         <v>1357.23</v>
       </c>
       <c r="F134" s="2">
-        <v>6972.3</v>
+        <v>7372.35</v>
       </c>
       <c r="G134">
         <v>0.08</v>
@@ -5870,13 +5870,13 @@
         <v>0.25</v>
       </c>
       <c r="I134">
-        <v>24.428000000000001</v>
+        <v>25.829000000000001</v>
       </c>
       <c r="J134">
         <v>1.18</v>
       </c>
       <c r="K134">
-        <v>5.13</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5884,7 +5884,7 @@
         <v>144</v>
       </c>
       <c r="B135">
-        <v>72</v>
+        <v>78.45</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -5896,7 +5896,7 @@
         <v>1050</v>
       </c>
       <c r="F135" s="2">
-        <v>4320</v>
+        <v>4707</v>
       </c>
       <c r="G135">
         <v>0.05</v>
@@ -5905,13 +5905,13 @@
         <v>3.41</v>
       </c>
       <c r="I135">
-        <v>21.114000000000001</v>
+        <v>23.004999999999999</v>
       </c>
       <c r="J135">
         <v>17.5</v>
       </c>
       <c r="K135">
-        <v>4.1100000000000003</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5919,7 +5919,7 @@
         <v>145</v>
       </c>
       <c r="B136">
-        <v>78.3</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="C136">
         <v>85</v>
@@ -5931,7 +5931,7 @@
         <v>1496.75</v>
       </c>
       <c r="F136" s="2">
-        <v>6655.5</v>
+        <v>6706.5</v>
       </c>
       <c r="G136">
         <v>7.0000000000000007E-2</v>
@@ -5940,13 +5940,13 @@
         <v>4.47</v>
       </c>
       <c r="I136">
-        <v>17.515999999999998</v>
+        <v>17.651</v>
       </c>
       <c r="J136">
         <v>17.600000000000001</v>
       </c>
       <c r="K136">
-        <v>4.4400000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5954,7 +5954,7 @@
         <v>146</v>
       </c>
       <c r="B137">
-        <v>127.7</v>
+        <v>130.5</v>
       </c>
       <c r="C137" s="2">
         <v>130</v>
@@ -5966,7 +5966,7 @@
         <v>2449.1</v>
       </c>
       <c r="F137" s="2">
-        <v>16601</v>
+        <v>16965</v>
       </c>
       <c r="G137">
         <v>0.18</v>
@@ -5975,13 +5975,13 @@
         <v>6.4850000000000003</v>
       </c>
       <c r="I137">
-        <v>19.692</v>
+        <v>20.123999999999999</v>
       </c>
       <c r="J137">
         <v>18.829999999999998</v>
       </c>
       <c r="K137">
-        <v>6.77</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5998,7 +5998,7 @@
         <v>8677.18</v>
       </c>
       <c r="F138" s="2">
-        <v>43145.95</v>
+        <v>44399.03</v>
       </c>
       <c r="G138">
         <v>0.48</v>
@@ -6007,13 +6007,13 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="I138">
-        <v>19.119</v>
+        <v>19.695</v>
       </c>
       <c r="J138">
         <v>3.61</v>
       </c>
       <c r="K138">
-        <v>4.97</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6021,7 +6021,7 @@
         <v>148</v>
       </c>
       <c r="B139">
-        <v>27.74</v>
+        <v>26.84</v>
       </c>
       <c r="C139">
         <v>300</v>
@@ -6033,7 +6033,7 @@
         <v>4798.75</v>
       </c>
       <c r="F139" s="2">
-        <v>8322</v>
+        <v>8052</v>
       </c>
       <c r="G139">
         <v>0.09</v>
@@ -6042,13 +6042,13 @@
         <v>32.716000000000001</v>
       </c>
       <c r="I139">
-        <v>0.84699999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="J139">
         <v>15.99</v>
       </c>
       <c r="K139">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
         <v>149</v>
       </c>
       <c r="B140">
-        <v>29.84</v>
+        <v>29.2</v>
       </c>
       <c r="C140">
         <v>23.151</v>
@@ -6068,7 +6068,7 @@
         <v>243.46</v>
       </c>
       <c r="F140" s="2">
-        <v>690.83</v>
+        <v>676.01</v>
       </c>
       <c r="G140">
         <v>0.01</v>
@@ -6083,7 +6083,7 @@
         <v>10.51</v>
       </c>
       <c r="K140">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6091,7 +6091,7 @@
         <v>150</v>
       </c>
       <c r="B141">
-        <v>273.60000000000002</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="C141" s="2">
         <v>32.5</v>
@@ -6103,7 +6103,7 @@
         <v>1649.77</v>
       </c>
       <c r="F141" s="2">
-        <v>8892</v>
+        <v>9184.5</v>
       </c>
       <c r="G141">
         <v>0.1</v>
@@ -6112,13 +6112,13 @@
         <v>14.863</v>
       </c>
       <c r="I141">
-        <v>18.407</v>
+        <v>19.013000000000002</v>
       </c>
       <c r="J141">
         <v>50.76</v>
       </c>
       <c r="K141">
-        <v>5.38</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6126,7 +6126,7 @@
         <v>151</v>
       </c>
       <c r="B142">
-        <v>50.7</v>
+        <v>51.25</v>
       </c>
       <c r="C142" s="2">
         <v>1000</v>
@@ -6138,22 +6138,22 @@
         <v>19703.05</v>
       </c>
       <c r="F142" s="2">
-        <v>50700</v>
+        <v>51250</v>
       </c>
       <c r="G142">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H142">
         <v>2.3519999999999999</v>
       </c>
       <c r="I142">
-        <v>21.555</v>
+        <v>21.789000000000001</v>
       </c>
       <c r="J142">
         <v>19.7</v>
       </c>
       <c r="K142">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6161,7 +6161,7 @@
         <v>152</v>
       </c>
       <c r="B143">
-        <v>97.15</v>
+        <v>96.8</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -6173,7 +6173,7 @@
         <v>700.9</v>
       </c>
       <c r="F143" s="2">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="G143">
         <v>0.02</v>
@@ -6182,13 +6182,13 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I143">
-        <v>20.713999999999999</v>
+        <v>20.638999999999999</v>
       </c>
       <c r="J143">
         <v>35.04</v>
       </c>
       <c r="K143">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6196,7 +6196,7 @@
         <v>153</v>
       </c>
       <c r="B144">
-        <v>53.85</v>
+        <v>54.6</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -6208,7 +6208,7 @@
         <v>277.77999999999997</v>
       </c>
       <c r="F144" s="2">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="G144">
         <v>0.01</v>
@@ -6217,13 +6217,13 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="I144">
-        <v>41.28</v>
+        <v>41.854999999999997</v>
       </c>
       <c r="J144">
         <v>13.88</v>
       </c>
       <c r="K144">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6231,7 +6231,7 @@
         <v>154</v>
       </c>
       <c r="B145">
-        <v>54.3</v>
+        <v>54.65</v>
       </c>
       <c r="C145">
         <v>55.5</v>
@@ -6243,7 +6243,7 @@
         <v>951.96</v>
       </c>
       <c r="F145" s="2">
-        <v>3013.65</v>
+        <v>3033.08</v>
       </c>
       <c r="G145">
         <v>0.03</v>
@@ -6252,13 +6252,13 @@
         <v>4.556</v>
       </c>
       <c r="I145">
-        <v>11.919</v>
+        <v>11.996</v>
       </c>
       <c r="J145">
         <v>17.149999999999999</v>
       </c>
       <c r="K145">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6266,7 +6266,7 @@
         <v>155</v>
       </c>
       <c r="B146">
-        <v>32.299999999999997</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="C146">
         <v>81.831999999999994</v>
@@ -6278,7 +6278,7 @@
         <v>328.2</v>
       </c>
       <c r="F146" s="2">
-        <v>2643.17</v>
+        <v>2661.18</v>
       </c>
       <c r="G146">
         <v>0.03</v>
@@ -6287,13 +6287,13 @@
         <v>2.5579999999999998</v>
       </c>
       <c r="I146">
-        <v>12.625999999999999</v>
+        <v>12.712</v>
       </c>
       <c r="J146">
         <v>4.01</v>
       </c>
       <c r="K146">
-        <v>8.0500000000000007</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6301,7 +6301,7 @@
         <v>156</v>
       </c>
       <c r="B147">
-        <v>41.94</v>
+        <v>43.68</v>
       </c>
       <c r="C147">
         <v>51.314999999999998</v>
@@ -6313,7 +6313,7 @@
         <v>1099.18</v>
       </c>
       <c r="F147" s="2">
-        <v>2152.15</v>
+        <v>2241.44</v>
       </c>
       <c r="G147">
         <v>0.02</v>
@@ -6322,13 +6322,13 @@
         <v>4.33</v>
       </c>
       <c r="I147">
-        <v>9.6859999999999999</v>
+        <v>10.087</v>
       </c>
       <c r="J147">
         <v>21.42</v>
       </c>
       <c r="K147">
-        <v>1.95</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>157</v>
       </c>
       <c r="B148">
-        <v>3.86</v>
+        <v>4.03</v>
       </c>
       <c r="C148">
         <v>540</v>
@@ -6348,7 +6348,7 @@
         <v>706.75</v>
       </c>
       <c r="F148" s="2">
-        <v>2084.4</v>
+        <v>2176.1999999999998</v>
       </c>
       <c r="G148">
         <v>0.02</v>
@@ -6357,13 +6357,13 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I148">
-        <v>11.907</v>
+        <v>12.430999999999999</v>
       </c>
       <c r="J148">
         <v>1.3</v>
       </c>
       <c r="K148">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6371,7 +6371,7 @@
         <v>158</v>
       </c>
       <c r="B149">
-        <v>43.72</v>
+        <v>43.2</v>
       </c>
       <c r="C149">
         <v>30</v>
@@ -6383,7 +6383,7 @@
         <v>481.8</v>
       </c>
       <c r="F149" s="2">
-        <v>1311.6</v>
+        <v>1296</v>
       </c>
       <c r="G149">
         <v>0.01</v>
@@ -6392,13 +6392,13 @@
         <v>0.876</v>
       </c>
       <c r="I149">
-        <v>49.908000000000001</v>
+        <v>49.314999999999998</v>
       </c>
       <c r="J149">
         <v>16.059999999999999</v>
       </c>
       <c r="K149">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6406,7 +6406,7 @@
         <v>159</v>
       </c>
       <c r="B150">
-        <v>11.06</v>
+        <v>11.2</v>
       </c>
       <c r="C150">
         <v>126.38800000000001</v>
@@ -6418,7 +6418,7 @@
         <v>1184.5</v>
       </c>
       <c r="F150" s="2">
-        <v>1397.85</v>
+        <v>1415.55</v>
       </c>
       <c r="G150">
         <v>0.02</v>
@@ -6427,13 +6427,13 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I150">
-        <v>188.898</v>
+        <v>191.29</v>
       </c>
       <c r="J150">
         <v>9.3699999999999992</v>
       </c>
       <c r="K150">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6441,7 +6441,7 @@
         <v>160</v>
       </c>
       <c r="B151">
-        <v>43.62</v>
+        <v>44.86</v>
       </c>
       <c r="C151">
         <v>35.356999999999999</v>
@@ -6453,7 +6453,7 @@
         <v>301.48</v>
       </c>
       <c r="F151" s="2">
-        <v>1542.27</v>
+        <v>1586.12</v>
       </c>
       <c r="G151">
         <v>0.02</v>
@@ -6462,13 +6462,13 @@
         <v>1.718</v>
       </c>
       <c r="I151">
-        <v>25.395</v>
+        <v>26.117000000000001</v>
       </c>
       <c r="J151">
         <v>8.52</v>
       </c>
       <c r="K151">
-        <v>5.1100000000000003</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6476,7 +6476,7 @@
         <v>161</v>
       </c>
       <c r="B152">
-        <v>21.12</v>
+        <v>21.65</v>
       </c>
       <c r="C152">
         <v>301.64</v>
@@ -6488,7 +6488,7 @@
         <v>4400.12</v>
       </c>
       <c r="F152" s="2">
-        <v>6370.64</v>
+        <v>6530.51</v>
       </c>
       <c r="G152">
         <v>7.0000000000000007E-2</v>
@@ -6497,13 +6497,13 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="I152">
-        <v>8.2010000000000005</v>
+        <v>8.407</v>
       </c>
       <c r="J152">
         <v>14.58</v>
       </c>
       <c r="K152">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
         <v>162</v>
       </c>
       <c r="B153">
-        <v>17.25</v>
+        <v>17.12</v>
       </c>
       <c r="C153">
         <v>30</v>
@@ -6523,7 +6523,7 @@
         <v>303.17</v>
       </c>
       <c r="F153">
-        <v>517.5</v>
+        <v>513.6</v>
       </c>
       <c r="G153">
         <v>0.01</v>
@@ -6532,13 +6532,13 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I153">
-        <v>60.81</v>
+        <v>60.351999999999997</v>
       </c>
       <c r="J153">
         <v>10.1</v>
       </c>
       <c r="K153">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6546,7 +6546,7 @@
         <v>163</v>
       </c>
       <c r="B154">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="C154">
         <v>39.176000000000002</v>
@@ -6558,7 +6558,7 @@
         <v>172.43</v>
       </c>
       <c r="F154">
-        <v>438.77</v>
+        <v>440.73</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -6573,7 +6573,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K154">
-        <v>2.54</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>165</v>
       </c>
       <c r="B156">
-        <v>16.940000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="C156">
         <v>30</v>
@@ -6628,7 +6628,7 @@
         <v>352.65</v>
       </c>
       <c r="F156" s="2">
-        <v>508.2</v>
+        <v>504</v>
       </c>
       <c r="G156">
         <v>0.01</v>
@@ -6643,7 +6643,7 @@
         <v>11.75</v>
       </c>
       <c r="K156">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6651,7 +6651,7 @@
         <v>166</v>
       </c>
       <c r="B157">
-        <v>44.18</v>
+        <v>44.04</v>
       </c>
       <c r="C157">
         <v>30</v>
@@ -6663,7 +6663,7 @@
         <v>774.6</v>
       </c>
       <c r="F157" s="2">
-        <v>1325.4</v>
+        <v>1321.2</v>
       </c>
       <c r="G157">
         <v>0.01</v>
@@ -6672,13 +6672,13 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="I157">
-        <v>17.204000000000001</v>
+        <v>17.149000000000001</v>
       </c>
       <c r="J157">
         <v>25.82</v>
       </c>
       <c r="K157">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6686,7 +6686,7 @@
         <v>167</v>
       </c>
       <c r="B158">
-        <v>10.93</v>
+        <v>11.09</v>
       </c>
       <c r="C158" s="2">
         <v>50</v>
@@ -6698,7 +6698,7 @@
         <v>319.25</v>
       </c>
       <c r="F158" s="2">
-        <v>546.5</v>
+        <v>554.5</v>
       </c>
       <c r="G158">
         <v>0.01</v>
@@ -6713,7 +6713,7 @@
         <v>6.38</v>
       </c>
       <c r="K158">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,22 +6730,22 @@
         <v>38824.21</v>
       </c>
       <c r="F159" s="2">
-        <v>96162.81</v>
+        <v>97150.5</v>
       </c>
       <c r="G159">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H159">
         <v>5.1230000000000002</v>
       </c>
       <c r="I159">
-        <v>6.3959999999999999</v>
+        <v>6.4640000000000004</v>
       </c>
       <c r="J159">
         <v>13.85</v>
       </c>
       <c r="K159">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6753,7 +6753,7 @@
         <v>169</v>
       </c>
       <c r="B160">
-        <v>148.1</v>
+        <v>150.1</v>
       </c>
       <c r="C160">
         <v>25</v>
@@ -6765,7 +6765,7 @@
         <v>588.99</v>
       </c>
       <c r="F160" s="2">
-        <v>3702.5</v>
+        <v>3752.5</v>
       </c>
       <c r="G160">
         <v>0.04</v>
@@ -6774,13 +6774,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I160">
-        <v>17.315000000000001</v>
+        <v>17.547999999999998</v>
       </c>
       <c r="J160">
         <v>23.55</v>
       </c>
       <c r="K160">
-        <v>6.28</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6797,7 +6797,7 @@
         <v>588.99</v>
       </c>
       <c r="F161" s="2">
-        <v>3702.5</v>
+        <v>3752.5</v>
       </c>
       <c r="G161">
         <v>0.04</v>
@@ -6806,13 +6806,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I161">
-        <v>17.315000000000001</v>
+        <v>17.548999999999999</v>
       </c>
       <c r="J161">
         <v>23.56</v>
       </c>
       <c r="K161">
-        <v>6.29</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6820,7 +6820,7 @@
         <v>171</v>
       </c>
       <c r="B162">
-        <v>13.08</v>
+        <v>13.68</v>
       </c>
       <c r="C162">
         <v>100.636</v>
@@ -6832,7 +6832,7 @@
         <v>974.23</v>
       </c>
       <c r="F162" s="2">
-        <v>1316.32</v>
+        <v>1376.7</v>
       </c>
       <c r="G162">
         <v>0.01</v>
@@ -6841,13 +6841,13 @@
         <v>2.5630000000000002</v>
       </c>
       <c r="I162">
-        <v>5.1029999999999998</v>
+        <v>5.3369999999999997</v>
       </c>
       <c r="J162">
         <v>9.68</v>
       </c>
       <c r="K162">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6855,7 +6855,7 @@
         <v>172</v>
       </c>
       <c r="B163">
-        <v>7.1</v>
+        <v>7.26</v>
       </c>
       <c r="C163">
         <v>843.2</v>
@@ -6867,7 +6867,7 @@
         <v>2173.27</v>
       </c>
       <c r="F163" s="2">
-        <v>5986.72</v>
+        <v>6121.63</v>
       </c>
       <c r="G163">
         <v>7.0000000000000007E-2</v>
@@ -6876,13 +6876,13 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="I163">
-        <v>21.384</v>
+        <v>21.866</v>
       </c>
       <c r="J163">
         <v>2.57</v>
       </c>
       <c r="K163">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6890,7 +6890,7 @@
         <v>173</v>
       </c>
       <c r="B164">
-        <v>75.45</v>
+        <v>76.25</v>
       </c>
       <c r="C164">
         <v>200</v>
@@ -6902,22 +6902,22 @@
         <v>3765.39</v>
       </c>
       <c r="F164" s="2">
-        <v>15090</v>
+        <v>15250</v>
       </c>
       <c r="G164">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H164">
         <v>3.3340000000000001</v>
       </c>
       <c r="I164">
-        <v>22.632000000000001</v>
+        <v>22.872</v>
       </c>
       <c r="J164">
         <v>18.82</v>
       </c>
       <c r="K164">
-        <v>4</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6925,7 +6925,7 @@
         <v>174</v>
       </c>
       <c r="B165">
-        <v>130.6</v>
+        <v>129.6</v>
       </c>
       <c r="C165">
         <v>101.574</v>
@@ -6937,22 +6937,22 @@
         <v>4060.93</v>
       </c>
       <c r="F165" s="2">
-        <v>13265.56</v>
+        <v>13163.99</v>
       </c>
       <c r="G165">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H165">
         <v>4.9960000000000004</v>
       </c>
       <c r="I165">
-        <v>26.140999999999998</v>
+        <v>25.94</v>
       </c>
       <c r="J165">
         <v>39.979999999999997</v>
       </c>
       <c r="K165">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>175</v>
       </c>
       <c r="B166">
-        <v>163.5</v>
+        <v>165.5</v>
       </c>
       <c r="C166">
         <v>44.85</v>
@@ -6972,7 +6972,7 @@
         <v>1714.87</v>
       </c>
       <c r="F166" s="2">
-        <v>7332.98</v>
+        <v>7422.68</v>
       </c>
       <c r="G166">
         <v>0.08</v>
@@ -6981,13 +6981,13 @@
         <v>6.7389999999999999</v>
       </c>
       <c r="I166">
-        <v>24.262</v>
+        <v>24.558</v>
       </c>
       <c r="J166">
         <v>38.229999999999997</v>
       </c>
       <c r="K166">
-        <v>4.2699999999999996</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6995,7 +6995,7 @@
         <v>176</v>
       </c>
       <c r="B167">
-        <v>38.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="C167">
         <v>160</v>
@@ -7007,7 +7007,7 @@
         <v>1980.5</v>
       </c>
       <c r="F167" s="2">
-        <v>6160</v>
+        <v>6128</v>
       </c>
       <c r="G167">
         <v>7.0000000000000007E-2</v>
@@ -7016,13 +7016,13 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="I167">
-        <v>17.666</v>
+        <v>17.574000000000002</v>
       </c>
       <c r="J167">
         <v>12.37</v>
       </c>
       <c r="K167">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7030,7 +7030,7 @@
         <v>177</v>
       </c>
       <c r="B168">
-        <v>56.85</v>
+        <v>57.8</v>
       </c>
       <c r="C168">
         <v>92.04</v>
@@ -7042,7 +7042,7 @@
         <v>1786.2</v>
       </c>
       <c r="F168" s="2">
-        <v>5232.47</v>
+        <v>5319.91</v>
       </c>
       <c r="G168">
         <v>0.06</v>
@@ -7051,13 +7051,13 @@
         <v>4.2389999999999999</v>
       </c>
       <c r="I168">
-        <v>13.41</v>
+        <v>13.634</v>
       </c>
       <c r="J168">
         <v>19.399999999999999</v>
       </c>
       <c r="K168">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7065,7 +7065,7 @@
         <v>178</v>
       </c>
       <c r="B169">
-        <v>271.2</v>
+        <v>269</v>
       </c>
       <c r="C169">
         <v>350</v>
@@ -7077,22 +7077,22 @@
         <v>7291.14</v>
       </c>
       <c r="F169" s="2">
-        <v>94920</v>
+        <v>94150</v>
       </c>
       <c r="G169">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="H169">
         <v>6.6319999999999997</v>
       </c>
       <c r="I169">
-        <v>40.889000000000003</v>
+        <v>40.558</v>
       </c>
       <c r="J169">
         <v>20.83</v>
       </c>
       <c r="K169">
-        <v>13.01</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7100,7 +7100,7 @@
         <v>179</v>
       </c>
       <c r="B170">
-        <v>37.880000000000003</v>
+        <v>37.56</v>
       </c>
       <c r="C170">
         <v>30</v>
@@ -7112,7 +7112,7 @@
         <v>512.29999999999995</v>
       </c>
       <c r="F170" s="2">
-        <v>1136.4000000000001</v>
+        <v>1126.8</v>
       </c>
       <c r="G170">
         <v>0.01</v>
@@ -7121,13 +7121,13 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="I170">
-        <v>44.39</v>
+        <v>44.015000000000001</v>
       </c>
       <c r="J170">
         <v>17.07</v>
       </c>
       <c r="K170">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7135,7 +7135,7 @@
         <v>180</v>
       </c>
       <c r="B171">
-        <v>40.68</v>
+        <v>41</v>
       </c>
       <c r="C171">
         <v>232</v>
@@ -7147,7 +7147,7 @@
         <v>3019.85</v>
       </c>
       <c r="F171" s="2">
-        <v>9437.76</v>
+        <v>9512</v>
       </c>
       <c r="G171">
         <v>0.1</v>
@@ -7156,13 +7156,13 @@
         <v>1.165</v>
       </c>
       <c r="I171">
-        <v>34.912999999999997</v>
+        <v>35.186999999999998</v>
       </c>
       <c r="J171">
         <v>13.01</v>
       </c>
       <c r="K171">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
         <v>181</v>
       </c>
       <c r="B172">
-        <v>162.19999999999999</v>
+        <v>160</v>
       </c>
       <c r="C172" s="2">
         <v>44.302999999999997</v>
@@ -7182,7 +7182,7 @@
         <v>1910.4</v>
       </c>
       <c r="F172" s="2">
-        <v>7185.95</v>
+        <v>7088.48</v>
       </c>
       <c r="G172">
         <v>0.08</v>
@@ -7191,13 +7191,13 @@
         <v>2.9740000000000002</v>
       </c>
       <c r="I172">
-        <v>54.533999999999999</v>
+        <v>53.793999999999997</v>
       </c>
       <c r="J172">
         <v>43.12</v>
       </c>
       <c r="K172">
-        <v>3.76</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7205,7 +7205,7 @@
         <v>297</v>
       </c>
       <c r="B173">
-        <v>22.94</v>
+        <v>22.15</v>
       </c>
       <c r="C173" s="2">
         <v>250</v>
@@ -7217,7 +7217,7 @@
         <v>32</v>
       </c>
       <c r="F173" s="2">
-        <v>5735</v>
+        <v>5537.5</v>
       </c>
       <c r="G173">
         <v>0.06</v>
@@ -7249,22 +7249,22 @@
         <v>29189.08</v>
       </c>
       <c r="F174" s="2">
-        <v>172799.16</v>
+        <v>172197.69</v>
       </c>
       <c r="G174">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H174">
         <v>2.2469999999999999</v>
       </c>
       <c r="I174">
-        <v>30.363</v>
+        <v>30.289000000000001</v>
       </c>
       <c r="J174">
         <v>11.92</v>
       </c>
       <c r="K174">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>183</v>
       </c>
       <c r="B175">
-        <v>26.64</v>
+        <v>26.26</v>
       </c>
       <c r="C175">
         <v>120</v>
@@ -7284,22 +7284,22 @@
         <v>1459.4</v>
       </c>
       <c r="F175" s="2">
-        <v>3196.8</v>
+        <v>3151.2</v>
       </c>
       <c r="G175">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H175">
         <v>0.55900000000000005</v>
       </c>
       <c r="I175">
-        <v>47.642000000000003</v>
+        <v>46.962000000000003</v>
       </c>
       <c r="J175">
         <v>12.16</v>
       </c>
       <c r="K175">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7307,7 +7307,7 @@
         <v>184</v>
       </c>
       <c r="B176">
-        <v>173.2</v>
+        <v>167.2</v>
       </c>
       <c r="C176">
         <v>70</v>
@@ -7319,7 +7319,7 @@
         <v>1546.52</v>
       </c>
       <c r="F176" s="2">
-        <v>12124</v>
+        <v>11704</v>
       </c>
       <c r="G176">
         <v>0.13</v>
@@ -7328,13 +7328,13 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="I176">
-        <v>29.527999999999999</v>
+        <v>28.506</v>
       </c>
       <c r="J176">
         <v>22.09</v>
       </c>
       <c r="K176">
-        <v>7.83</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7342,7 +7342,7 @@
         <v>185</v>
       </c>
       <c r="B177">
-        <v>123.3</v>
+        <v>121.1</v>
       </c>
       <c r="C177" s="2">
         <v>20</v>
@@ -7354,7 +7354,7 @@
         <v>387.61</v>
       </c>
       <c r="F177" s="2">
-        <v>2466</v>
+        <v>2422</v>
       </c>
       <c r="G177">
         <v>0.03</v>
@@ -7363,13 +7363,13 @@
         <v>4.4950000000000001</v>
       </c>
       <c r="I177">
-        <v>27.433</v>
+        <v>26.943999999999999</v>
       </c>
       <c r="J177">
         <v>19.38</v>
       </c>
       <c r="K177">
-        <v>6.36</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7386,22 +7386,22 @@
         <v>3393.53</v>
       </c>
       <c r="F178" s="2">
-        <v>17786.8</v>
+        <v>17277.2</v>
       </c>
       <c r="G178">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H178">
         <v>2.7029999999999998</v>
       </c>
       <c r="I178">
-        <v>31.338999999999999</v>
+        <v>30.440999999999999</v>
       </c>
       <c r="J178">
         <v>16.16</v>
       </c>
       <c r="K178">
-        <v>5.24</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7409,7 +7409,7 @@
         <v>187</v>
       </c>
       <c r="B179">
-        <v>28.74</v>
+        <v>29.08</v>
       </c>
       <c r="C179" s="2">
         <v>3000</v>
@@ -7421,7 +7421,7 @@
         <v>61139.53</v>
       </c>
       <c r="F179" s="2">
-        <v>86220</v>
+        <v>87240</v>
       </c>
       <c r="G179">
         <v>0.94</v>
@@ -7430,13 +7430,13 @@
         <v>3.2450000000000001</v>
       </c>
       <c r="I179">
-        <v>8.8559999999999999</v>
+        <v>8.9610000000000003</v>
       </c>
       <c r="J179">
         <v>20.37</v>
       </c>
       <c r="K179">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7444,7 +7444,7 @@
         <v>188</v>
       </c>
       <c r="B180">
-        <v>12.85</v>
+        <v>12.44</v>
       </c>
       <c r="C180" s="2">
         <v>1281.25</v>
@@ -7456,22 +7456,22 @@
         <v>13993.3</v>
       </c>
       <c r="F180" s="2">
-        <v>16464.060000000001</v>
+        <v>15938.75</v>
       </c>
       <c r="G180">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H180">
         <v>1.008</v>
       </c>
       <c r="I180">
-        <v>12.747999999999999</v>
+        <v>12.340999999999999</v>
       </c>
       <c r="J180">
         <v>10.92</v>
       </c>
       <c r="K180">
-        <v>1.17</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>189</v>
       </c>
       <c r="B181">
-        <v>14.52</v>
+        <v>14.66</v>
       </c>
       <c r="C181" s="2">
         <v>1250</v>
@@ -7491,7 +7491,7 @@
         <v>15530.02</v>
       </c>
       <c r="F181" s="2">
-        <v>18150</v>
+        <v>18325</v>
       </c>
       <c r="G181">
         <v>0.2</v>
@@ -7500,13 +7500,13 @@
         <v>1.6140000000000001</v>
       </c>
       <c r="I181">
-        <v>8.9960000000000004</v>
+        <v>9.0830000000000002</v>
       </c>
       <c r="J181">
         <v>12.42</v>
       </c>
       <c r="K181">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7514,7 +7514,7 @@
         <v>190</v>
       </c>
       <c r="B182">
-        <v>17.86</v>
+        <v>18</v>
       </c>
       <c r="C182" s="2">
         <v>2500</v>
@@ -7526,7 +7526,7 @@
         <v>40429.949999999997</v>
       </c>
       <c r="F182" s="2">
-        <v>44650</v>
+        <v>45000</v>
       </c>
       <c r="G182">
         <v>0.49</v>
@@ -7535,13 +7535,13 @@
         <v>1.893</v>
       </c>
       <c r="I182">
-        <v>9.4350000000000005</v>
+        <v>9.5090000000000003</v>
       </c>
       <c r="J182">
         <v>16.170000000000002</v>
       </c>
       <c r="K182">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7549,7 +7549,7 @@
         <v>191</v>
       </c>
       <c r="B183">
-        <v>33.700000000000003</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="C183" s="2">
         <v>2054.7939999999999</v>
@@ -7561,22 +7561,22 @@
         <v>63783.8</v>
       </c>
       <c r="F183" s="2">
-        <v>69246.559999999998</v>
+        <v>70931.490000000005</v>
       </c>
       <c r="G183">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="H183">
         <v>3.972</v>
       </c>
       <c r="I183">
-        <v>8.484</v>
+        <v>8.69</v>
       </c>
       <c r="J183">
         <v>31.04</v>
       </c>
       <c r="K183">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7584,7 +7584,7 @@
         <v>192</v>
       </c>
       <c r="B184">
-        <v>21.72</v>
+        <v>22.14</v>
       </c>
       <c r="C184" s="2">
         <v>2000</v>
@@ -7596,7 +7596,7 @@
         <v>38480.25</v>
       </c>
       <c r="F184" s="2">
-        <v>43440</v>
+        <v>44280</v>
       </c>
       <c r="G184">
         <v>0.48</v>
@@ -7605,13 +7605,13 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="I184">
-        <v>8.6270000000000007</v>
+        <v>8.7940000000000005</v>
       </c>
       <c r="J184">
         <v>19.239999999999998</v>
       </c>
       <c r="K184">
-        <v>1.1200000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
         <v>193</v>
       </c>
       <c r="B185">
-        <v>94.6</v>
+        <v>96</v>
       </c>
       <c r="C185" s="2">
         <v>4000</v>
@@ -7631,22 +7631,22 @@
         <v>105033.22</v>
       </c>
       <c r="F185" s="2">
-        <v>378400</v>
+        <v>384000</v>
       </c>
       <c r="G185">
-        <v>4.1500000000000004</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="H185">
         <v>5.306</v>
       </c>
       <c r="I185">
-        <v>17.829000000000001</v>
+        <v>18.093</v>
       </c>
       <c r="J185">
         <v>26.25</v>
       </c>
       <c r="K185">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7654,7 +7654,7 @@
         <v>194</v>
       </c>
       <c r="B186">
-        <v>26.32</v>
+        <v>26.66</v>
       </c>
       <c r="C186" s="2">
         <v>1500</v>
@@ -7666,7 +7666,7 @@
         <v>17592.099999999999</v>
       </c>
       <c r="F186" s="2">
-        <v>39480</v>
+        <v>39990</v>
       </c>
       <c r="G186">
         <v>0.43</v>
@@ -7675,13 +7675,13 @@
         <v>1.909</v>
       </c>
       <c r="I186">
-        <v>13.785</v>
+        <v>13.962999999999999</v>
       </c>
       <c r="J186">
         <v>11.72</v>
       </c>
       <c r="K186">
-        <v>2.2400000000000002</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7689,7 +7689,7 @@
         <v>195</v>
       </c>
       <c r="B187">
-        <v>26.82</v>
+        <v>27.14</v>
       </c>
       <c r="C187" s="2">
         <v>2500</v>
@@ -7701,7 +7701,7 @@
         <v>34201.360000000001</v>
       </c>
       <c r="F187" s="2">
-        <v>67050</v>
+        <v>67850</v>
       </c>
       <c r="G187">
         <v>0.73</v>
@@ -7710,13 +7710,13 @@
         <v>2.41</v>
       </c>
       <c r="I187">
-        <v>11.128</v>
+        <v>11.260999999999999</v>
       </c>
       <c r="J187">
         <v>13.68</v>
       </c>
       <c r="K187">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7724,7 +7724,7 @@
         <v>196</v>
       </c>
       <c r="B188">
-        <v>36.119999999999997</v>
+        <v>37.32</v>
       </c>
       <c r="C188" s="2">
         <v>6000</v>
@@ -7736,22 +7736,22 @@
         <v>172291.56</v>
       </c>
       <c r="F188" s="2">
-        <v>216720</v>
+        <v>223920</v>
       </c>
       <c r="G188">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="H188">
         <v>3.6960000000000002</v>
       </c>
       <c r="I188">
-        <v>9.7720000000000002</v>
+        <v>10.097</v>
       </c>
       <c r="J188">
         <v>28.71</v>
       </c>
       <c r="K188">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7768,22 +7768,22 @@
         <v>562475.09</v>
       </c>
       <c r="F189" s="2">
-        <v>979820.62</v>
+        <v>997475.24</v>
       </c>
       <c r="G189">
-        <v>10.73</v>
+        <v>10.77</v>
       </c>
       <c r="H189">
         <v>3.1920000000000002</v>
       </c>
       <c r="I189">
-        <v>11.768000000000001</v>
+        <v>11.98</v>
       </c>
       <c r="J189">
         <v>21.56</v>
       </c>
       <c r="K189">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7791,7 +7791,7 @@
         <v>198</v>
       </c>
       <c r="B190">
-        <v>176.4</v>
+        <v>177.3</v>
       </c>
       <c r="C190">
         <v>120</v>
@@ -7803,7 +7803,7 @@
         <v>3581.9</v>
       </c>
       <c r="F190" s="2">
-        <v>21168</v>
+        <v>21276</v>
       </c>
       <c r="G190">
         <v>0.23</v>
@@ -7812,13 +7812,13 @@
         <v>4.5069999999999997</v>
       </c>
       <c r="I190">
-        <v>39.142000000000003</v>
+        <v>39.341000000000001</v>
       </c>
       <c r="J190">
         <v>29.84</v>
       </c>
       <c r="K190">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7826,7 +7826,7 @@
         <v>199</v>
       </c>
       <c r="B191">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="C191">
         <v>101.925</v>
@@ -7838,7 +7838,7 @@
         <v>1231.8699999999999</v>
       </c>
       <c r="F191" s="2">
-        <v>1159.9100000000001</v>
+        <v>1174.18</v>
       </c>
       <c r="G191">
         <v>0.01</v>
@@ -7847,13 +7847,13 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="I191">
-        <v>23.375</v>
+        <v>23.663</v>
       </c>
       <c r="J191">
         <v>12.08</v>
       </c>
       <c r="K191">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7861,7 +7861,7 @@
         <v>200</v>
       </c>
       <c r="B192">
-        <v>16.84</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C192">
         <v>100</v>
@@ -7873,7 +7873,7 @@
         <v>1701.14</v>
       </c>
       <c r="F192" s="2">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7882,13 +7882,13 @@
         <v>0.379</v>
       </c>
       <c r="I192">
-        <v>44.456000000000003</v>
+        <v>44.72</v>
       </c>
       <c r="J192">
         <v>17.010000000000002</v>
       </c>
       <c r="K192">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7896,7 +7896,7 @@
         <v>201</v>
       </c>
       <c r="B193">
-        <v>26.9</v>
+        <v>28.32</v>
       </c>
       <c r="C193">
         <v>60</v>
@@ -7908,7 +7908,7 @@
         <v>1235.3499999999999</v>
       </c>
       <c r="F193" s="2">
-        <v>1614</v>
+        <v>1699.2</v>
       </c>
       <c r="G193">
         <v>0.02</v>
@@ -7917,13 +7917,13 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="I193">
-        <v>8.4239999999999995</v>
+        <v>8.8680000000000003</v>
       </c>
       <c r="J193">
         <v>20.58</v>
       </c>
       <c r="K193">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
         <v>202</v>
       </c>
       <c r="B194">
-        <v>13.03</v>
+        <v>13.41</v>
       </c>
       <c r="C194">
         <v>120</v>
@@ -7943,7 +7943,7 @@
         <v>1471.53</v>
       </c>
       <c r="F194" s="2">
-        <v>1563.6</v>
+        <v>1609.2</v>
       </c>
       <c r="G194">
         <v>0.02</v>
@@ -7952,13 +7952,13 @@
         <v>1.147</v>
       </c>
       <c r="I194">
-        <v>11.362</v>
+        <v>11.693</v>
       </c>
       <c r="J194">
         <v>12.26</v>
       </c>
       <c r="K194">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7966,7 +7966,7 @@
         <v>203</v>
       </c>
       <c r="B195">
-        <v>11.25</v>
+        <v>11.33</v>
       </c>
       <c r="C195">
         <v>71.427999999999997</v>
@@ -7978,7 +7978,7 @@
         <v>842.43</v>
       </c>
       <c r="F195" s="2">
-        <v>803.57</v>
+        <v>809.28</v>
       </c>
       <c r="G195">
         <v>0.01</v>
@@ -7987,13 +7987,13 @@
         <v>0.318</v>
       </c>
       <c r="I195">
-        <v>35.337000000000003</v>
+        <v>35.588000000000001</v>
       </c>
       <c r="J195">
         <v>11.79</v>
       </c>
       <c r="K195">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8001,7 +8001,7 @@
         <v>204</v>
       </c>
       <c r="B196">
-        <v>158.19999999999999</v>
+        <v>156.6</v>
       </c>
       <c r="C196">
         <v>25</v>
@@ -8013,7 +8013,7 @@
         <v>1170.45</v>
       </c>
       <c r="F196" s="2">
-        <v>3955</v>
+        <v>3915</v>
       </c>
       <c r="G196">
         <v>0.04</v>
@@ -8022,13 +8022,13 @@
         <v>9.1140000000000008</v>
       </c>
       <c r="I196">
-        <v>17.358000000000001</v>
+        <v>17.183</v>
       </c>
       <c r="J196">
         <v>46.81</v>
       </c>
       <c r="K196">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8036,7 +8036,7 @@
         <v>205</v>
       </c>
       <c r="B197">
-        <v>27.1</v>
+        <v>27.38</v>
       </c>
       <c r="C197" s="2">
         <v>249.73500000000001</v>
@@ -8048,7 +8048,7 @@
         <v>1084.1099999999999</v>
       </c>
       <c r="F197" s="2">
-        <v>6767.82</v>
+        <v>6837.74</v>
       </c>
       <c r="G197">
         <v>7.0000000000000007E-2</v>
@@ -8057,13 +8057,13 @@
         <v>1.6579999999999999</v>
       </c>
       <c r="I197">
-        <v>16.347999999999999</v>
+        <v>16.516999999999999</v>
       </c>
       <c r="J197">
         <v>4.34</v>
       </c>
       <c r="K197">
-        <v>6.24</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8071,7 +8071,7 @@
         <v>206</v>
       </c>
       <c r="B198">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="C198" s="2">
         <v>218.29499999999999</v>
@@ -8083,7 +8083,7 @@
         <v>224.38</v>
       </c>
       <c r="F198" s="2">
-        <v>755.3</v>
+        <v>766.22</v>
       </c>
       <c r="G198">
         <v>0.01</v>
@@ -8092,13 +8092,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I198">
-        <v>77.387</v>
+        <v>78.506</v>
       </c>
       <c r="J198">
         <v>1.02</v>
       </c>
       <c r="K198">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8106,7 +8106,7 @@
         <v>207</v>
       </c>
       <c r="B199">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="C199" s="2">
         <v>3705.8820000000001</v>
@@ -8118,22 +8118,22 @@
         <v>41330.67</v>
       </c>
       <c r="F199" s="2">
-        <v>31500</v>
+        <v>31129.41</v>
       </c>
       <c r="G199">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H199">
         <v>0.39700000000000002</v>
       </c>
       <c r="I199">
-        <v>21.393000000000001</v>
+        <v>21.141999999999999</v>
       </c>
       <c r="J199">
         <v>11.15</v>
       </c>
       <c r="K199">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8150,16 +8150,16 @@
         <v>53873.83</v>
       </c>
       <c r="F200" s="2">
-        <v>70971.199999999997</v>
+        <v>70910.23</v>
       </c>
       <c r="G200">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="H200">
         <v>0.65</v>
       </c>
       <c r="I200">
-        <v>22.863</v>
+        <v>22.843</v>
       </c>
       <c r="J200">
         <v>11.29</v>
@@ -8173,7 +8173,7 @@
         <v>209</v>
       </c>
       <c r="B201">
-        <v>158</v>
+        <v>157.6</v>
       </c>
       <c r="C201">
         <v>150</v>
@@ -8185,7 +8185,7 @@
         <v>4742.4799999999996</v>
       </c>
       <c r="F201" s="2">
-        <v>23700</v>
+        <v>23640</v>
       </c>
       <c r="G201">
         <v>0.26</v>
@@ -8194,13 +8194,13 @@
         <v>7.2469999999999999</v>
       </c>
       <c r="I201">
-        <v>21.802</v>
+        <v>21.747</v>
       </c>
       <c r="J201">
         <v>31.61</v>
       </c>
       <c r="K201">
-        <v>4.99</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8208,7 +8208,7 @@
         <v>210</v>
       </c>
       <c r="B202">
-        <v>13.74</v>
+        <v>13.46</v>
       </c>
       <c r="C202">
         <v>66</v>
@@ -8220,7 +8220,7 @@
         <v>994.3</v>
       </c>
       <c r="F202" s="2">
-        <v>906.84</v>
+        <v>888.36</v>
       </c>
       <c r="G202">
         <v>0.01</v>
@@ -8229,13 +8229,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I202">
-        <v>22.369</v>
+        <v>21.913</v>
       </c>
       <c r="J202">
         <v>15.06</v>
       </c>
       <c r="K202">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8243,7 +8243,7 @@
         <v>211</v>
       </c>
       <c r="B203">
-        <v>13.92</v>
+        <v>13.4</v>
       </c>
       <c r="C203">
         <v>50</v>
@@ -8255,7 +8255,7 @@
         <v>442.72</v>
       </c>
       <c r="F203" s="2">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="G203">
         <v>0.01</v>
@@ -8264,13 +8264,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="I203">
-        <v>27.477</v>
+        <v>26.45</v>
       </c>
       <c r="J203">
         <v>8.85</v>
       </c>
       <c r="K203">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8278,7 +8278,7 @@
         <v>212</v>
       </c>
       <c r="B204">
-        <v>20.059999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="C204">
         <v>105</v>
@@ -8290,7 +8290,7 @@
         <v>1050.79</v>
       </c>
       <c r="F204" s="2">
-        <v>2106.3000000000002</v>
+        <v>2047.5</v>
       </c>
       <c r="G204">
         <v>0.02</v>
@@ -8299,13 +8299,13 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I204">
-        <v>22.085000000000001</v>
+        <v>21.469000000000001</v>
       </c>
       <c r="J204">
         <v>10</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8313,7 +8313,7 @@
         <v>213</v>
       </c>
       <c r="B205">
-        <v>16.350000000000001</v>
+        <v>16</v>
       </c>
       <c r="C205">
         <v>60</v>
@@ -8325,7 +8325,7 @@
         <v>819.22</v>
       </c>
       <c r="F205" s="2">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="G205">
         <v>0.01</v>
@@ -8334,13 +8334,13 @@
         <v>0.183</v>
       </c>
       <c r="I205">
-        <v>89.343999999999994</v>
+        <v>87.430999999999997</v>
       </c>
       <c r="J205">
         <v>13.65</v>
       </c>
       <c r="K205">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8348,7 +8348,7 @@
         <v>214</v>
       </c>
       <c r="B206">
-        <v>14.11</v>
+        <v>13.68</v>
       </c>
       <c r="C206">
         <v>30</v>
@@ -8360,7 +8360,7 @@
         <v>317.36</v>
       </c>
       <c r="F206" s="2">
-        <v>423.3</v>
+        <v>410.4</v>
       </c>
       <c r="G206" t="s">
         <v>32</v>
@@ -8375,7 +8375,7 @@
         <v>10.57</v>
       </c>
       <c r="K206">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8383,7 +8383,7 @@
         <v>215</v>
       </c>
       <c r="B207">
-        <v>17.54</v>
+        <v>16.46</v>
       </c>
       <c r="C207">
         <v>127.55800000000001</v>
@@ -8395,7 +8395,7 @@
         <v>1768.65</v>
       </c>
       <c r="F207" s="2">
-        <v>2237.37</v>
+        <v>2099.6</v>
       </c>
       <c r="G207">
         <v>0.02</v>
@@ -8410,7 +8410,7 @@
         <v>13.86</v>
       </c>
       <c r="K207">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8418,7 +8418,7 @@
         <v>216</v>
       </c>
       <c r="B208">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="C208">
         <v>79.814999999999998</v>
@@ -8430,7 +8430,7 @@
         <v>1666.07</v>
       </c>
       <c r="F208" s="2">
-        <v>1316.95</v>
+        <v>1293</v>
       </c>
       <c r="G208">
         <v>0.01</v>
@@ -8439,13 +8439,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I208">
-        <v>21.696000000000002</v>
+        <v>21.300999999999998</v>
       </c>
       <c r="J208">
         <v>20.87</v>
       </c>
       <c r="K208">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8453,7 +8453,7 @@
         <v>217</v>
       </c>
       <c r="B209">
-        <v>15.79</v>
+        <v>15.39</v>
       </c>
       <c r="C209">
         <v>30</v>
@@ -8465,22 +8465,22 @@
         <v>398.59</v>
       </c>
       <c r="F209">
-        <v>473.7</v>
-      </c>
-      <c r="G209">
-        <v>0.01</v>
+        <v>461.7</v>
+      </c>
+      <c r="G209" t="s">
+        <v>32</v>
       </c>
       <c r="H209">
         <v>2.012</v>
       </c>
       <c r="I209">
-        <v>7.8470000000000004</v>
+        <v>7.649</v>
       </c>
       <c r="J209">
         <v>13.28</v>
       </c>
       <c r="K209">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8488,7 +8488,7 @@
         <v>218</v>
       </c>
       <c r="B210">
-        <v>14.86</v>
+        <v>14.94</v>
       </c>
       <c r="C210">
         <v>45.893999999999998</v>
@@ -8500,7 +8500,7 @@
         <v>591.83000000000004</v>
       </c>
       <c r="F210">
-        <v>681.98</v>
+        <v>685.66</v>
       </c>
       <c r="G210">
         <v>0.01</v>
@@ -8523,7 +8523,7 @@
         <v>219</v>
       </c>
       <c r="B211">
-        <v>12.84</v>
+        <v>12.32</v>
       </c>
       <c r="C211">
         <v>29.1</v>
@@ -8535,7 +8535,7 @@
         <v>269.44</v>
       </c>
       <c r="F211">
-        <v>373.64</v>
+        <v>358.51</v>
       </c>
       <c r="G211" t="s">
         <v>32</v>
@@ -8550,7 +8550,7 @@
         <v>9.25</v>
       </c>
       <c r="K211">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8558,7 +8558,7 @@
         <v>220</v>
       </c>
       <c r="B212">
-        <v>12.59</v>
+        <v>12.03</v>
       </c>
       <c r="C212">
         <v>53</v>
@@ -8570,7 +8570,7 @@
         <v>612.03</v>
       </c>
       <c r="F212">
-        <v>667.27</v>
+        <v>637.59</v>
       </c>
       <c r="G212">
         <v>0.01</v>
@@ -8579,13 +8579,13 @@
         <v>0.505</v>
       </c>
       <c r="I212">
-        <v>24.934999999999999</v>
+        <v>23.826000000000001</v>
       </c>
       <c r="J212">
         <v>11.54</v>
       </c>
       <c r="K212">
-        <v>1.0900000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8593,7 +8593,7 @@
         <v>221</v>
       </c>
       <c r="B213">
-        <v>14.25</v>
+        <v>13.77</v>
       </c>
       <c r="C213">
         <v>50</v>
@@ -8605,7 +8605,7 @@
         <v>702.25</v>
       </c>
       <c r="F213">
-        <v>712.5</v>
+        <v>688.5</v>
       </c>
       <c r="G213">
         <v>0.01</v>
@@ -8614,13 +8614,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="I213">
-        <v>20.616</v>
+        <v>19.920999999999999</v>
       </c>
       <c r="J213">
         <v>14.04</v>
       </c>
       <c r="K213">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8628,7 +8628,7 @@
         <v>222</v>
       </c>
       <c r="B214">
-        <v>14</v>
+        <v>13.78</v>
       </c>
       <c r="C214">
         <v>30</v>
@@ -8640,7 +8640,7 @@
         <v>385.64</v>
       </c>
       <c r="F214" s="2">
-        <v>420</v>
+        <v>413.4</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -8649,13 +8649,13 @@
         <v>0.217</v>
       </c>
       <c r="I214">
-        <v>64.516000000000005</v>
+        <v>63.502000000000002</v>
       </c>
       <c r="J214">
         <v>12.85</v>
       </c>
       <c r="K214">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8663,7 +8663,7 @@
         <v>223</v>
       </c>
       <c r="B215">
-        <v>7.46</v>
+        <v>7.35</v>
       </c>
       <c r="C215">
         <v>40</v>
@@ -8675,7 +8675,7 @@
         <v>247.5</v>
       </c>
       <c r="F215" s="2">
-        <v>298.39999999999998</v>
+        <v>294</v>
       </c>
       <c r="G215" t="s">
         <v>32</v>
@@ -8690,7 +8690,7 @@
         <v>6.18</v>
       </c>
       <c r="K215">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8698,7 +8698,7 @@
         <v>224</v>
       </c>
       <c r="B216">
-        <v>51</v>
+        <v>50.6</v>
       </c>
       <c r="C216">
         <v>115.83</v>
@@ -8710,7 +8710,7 @@
         <v>2068.44</v>
       </c>
       <c r="F216" s="2">
-        <v>5907.33</v>
+        <v>5861</v>
       </c>
       <c r="G216">
         <v>0.06</v>
@@ -8719,13 +8719,13 @@
         <v>4.13</v>
       </c>
       <c r="I216">
-        <v>12.347</v>
+        <v>12.25</v>
       </c>
       <c r="J216">
         <v>17.850000000000001</v>
       </c>
       <c r="K216">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8733,7 +8733,7 @@
         <v>225</v>
       </c>
       <c r="B217">
-        <v>178.1</v>
+        <v>176</v>
       </c>
       <c r="C217">
         <v>150</v>
@@ -8745,22 +8745,22 @@
         <v>5568.56</v>
       </c>
       <c r="F217" s="2">
-        <v>26715</v>
+        <v>26400</v>
       </c>
       <c r="G217">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H217">
         <v>7.9119999999999999</v>
       </c>
       <c r="I217">
-        <v>22.509</v>
+        <v>22.244</v>
       </c>
       <c r="J217">
         <v>37.119999999999997</v>
       </c>
       <c r="K217">
-        <v>4.79</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8768,7 +8768,7 @@
         <v>226</v>
       </c>
       <c r="B218">
-        <v>128.6</v>
+        <v>123.3</v>
       </c>
       <c r="C218">
         <v>100</v>
@@ -8780,22 +8780,22 @@
         <v>2174.38</v>
       </c>
       <c r="F218" s="2">
-        <v>12860</v>
+        <v>12330</v>
       </c>
       <c r="G218">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H218">
         <v>3.1179999999999999</v>
       </c>
       <c r="I218">
-        <v>41.249000000000002</v>
+        <v>39.548999999999999</v>
       </c>
       <c r="J218">
         <v>21.74</v>
       </c>
       <c r="K218">
-        <v>5.91</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8803,7 +8803,7 @@
         <v>227</v>
       </c>
       <c r="B219">
-        <v>37.14</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="C219">
         <v>30</v>
@@ -8815,7 +8815,7 @@
         <v>460.26</v>
       </c>
       <c r="F219" s="2">
-        <v>1114.2</v>
+        <v>1083.5999999999999</v>
       </c>
       <c r="G219">
         <v>0.01</v>
@@ -8824,13 +8824,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="I219">
-        <v>81.986000000000004</v>
+        <v>79.734999999999999</v>
       </c>
       <c r="J219">
         <v>15.34</v>
       </c>
       <c r="K219">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8838,7 +8838,7 @@
         <v>228</v>
       </c>
       <c r="B220">
-        <v>26.54</v>
+        <v>26.6</v>
       </c>
       <c r="C220">
         <v>52.5</v>
@@ -8850,7 +8850,7 @@
         <v>1145.97</v>
       </c>
       <c r="F220" s="2">
-        <v>1393.35</v>
+        <v>1396.5</v>
       </c>
       <c r="G220">
         <v>0.02</v>
@@ -8859,7 +8859,7 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I220">
-        <v>9.5749999999999993</v>
+        <v>9.5969999999999995</v>
       </c>
       <c r="J220">
         <v>21.82</v>
@@ -8873,7 +8873,7 @@
         <v>229</v>
       </c>
       <c r="B221">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="C221">
         <v>30</v>
@@ -8885,7 +8885,7 @@
         <v>202.63</v>
       </c>
       <c r="F221">
-        <v>182.4</v>
+        <v>177.6</v>
       </c>
       <c r="G221" t="s">
         <v>32</v>
@@ -8900,7 +8900,7 @@
         <v>6.75</v>
       </c>
       <c r="K221">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8908,7 +8908,7 @@
         <v>230</v>
       </c>
       <c r="B222">
-        <v>18</v>
+        <v>17.97</v>
       </c>
       <c r="C222">
         <v>30</v>
@@ -8920,7 +8920,7 @@
         <v>472.24</v>
       </c>
       <c r="F222">
-        <v>540</v>
+        <v>539.1</v>
       </c>
       <c r="G222">
         <v>0.01</v>
@@ -8929,7 +8929,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I222">
-        <v>78.716999999999999</v>
+        <v>78.585999999999999</v>
       </c>
       <c r="J222">
         <v>15.74</v>
@@ -8943,7 +8943,7 @@
         <v>231</v>
       </c>
       <c r="B223">
-        <v>13.46</v>
+        <v>13</v>
       </c>
       <c r="C223">
         <v>40</v>
@@ -8955,7 +8955,7 @@
         <v>444.9</v>
       </c>
       <c r="F223">
-        <v>538.4</v>
+        <v>520</v>
       </c>
       <c r="G223">
         <v>0.01</v>
@@ -8964,13 +8964,13 @@
         <v>0.749</v>
       </c>
       <c r="I223">
-        <v>17.97</v>
+        <v>17.356000000000002</v>
       </c>
       <c r="J223">
         <v>11.12</v>
       </c>
       <c r="K223">
-        <v>1.21</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8978,7 +8978,7 @@
         <v>232</v>
       </c>
       <c r="B224">
-        <v>18.16</v>
+        <v>17.53</v>
       </c>
       <c r="C224">
         <v>40</v>
@@ -8990,7 +8990,7 @@
         <v>617.19000000000005</v>
       </c>
       <c r="F224">
-        <v>726.4</v>
+        <v>701.2</v>
       </c>
       <c r="G224">
         <v>0.01</v>
@@ -8999,13 +8999,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I224">
-        <v>8.8569999999999993</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="J224">
         <v>15.42</v>
       </c>
       <c r="K224">
-        <v>1.17</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
         <v>233</v>
       </c>
       <c r="B225">
-        <v>8.99</v>
+        <v>8.6</v>
       </c>
       <c r="C225">
         <v>43</v>
@@ -9025,7 +9025,7 @@
         <v>309.45999999999998</v>
       </c>
       <c r="F225" s="2">
-        <v>386.57</v>
+        <v>369.8</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -9034,13 +9034,13 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I225">
-        <v>91.603999999999999</v>
+        <v>87.63</v>
       </c>
       <c r="J225">
         <v>7.19</v>
       </c>
       <c r="K225">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -9048,7 +9048,7 @@
         <v>234</v>
       </c>
       <c r="B226">
-        <v>10.28</v>
+        <v>9.98</v>
       </c>
       <c r="C226" s="2">
         <v>23</v>
@@ -9060,7 +9060,7 @@
         <v>161.93</v>
       </c>
       <c r="F226" s="2">
-        <v>236.44</v>
+        <v>229.54</v>
       </c>
       <c r="G226" t="s">
         <v>32</v>
@@ -9075,7 +9075,7 @@
         <v>7.04</v>
       </c>
       <c r="K226">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9083,7 +9083,7 @@
         <v>235</v>
       </c>
       <c r="B227">
-        <v>86.9</v>
+        <v>86</v>
       </c>
       <c r="C227" s="2">
         <v>77.507000000000005</v>
@@ -9095,7 +9095,7 @@
         <v>450.47</v>
       </c>
       <c r="F227" s="2">
-        <v>6735.36</v>
+        <v>6665.6</v>
       </c>
       <c r="G227">
         <v>7.0000000000000007E-2</v>
@@ -9104,13 +9104,13 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="I227">
-        <v>58.436</v>
+        <v>57.83</v>
       </c>
       <c r="J227">
         <v>5.81</v>
       </c>
       <c r="K227">
-        <v>14.95</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9127,22 +9127,22 @@
         <v>29085.3</v>
       </c>
       <c r="F228" s="2">
-        <v>93330.7</v>
+        <v>91822.16</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="H228">
         <v>2.11</v>
       </c>
       <c r="I228">
-        <v>23.256</v>
+        <v>22.908000000000001</v>
       </c>
       <c r="J228">
         <v>17.329999999999998</v>
       </c>
       <c r="K228">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9150,7 +9150,7 @@
         <v>237</v>
       </c>
       <c r="B229">
-        <v>135.1</v>
+        <v>134.5</v>
       </c>
       <c r="C229">
         <v>30</v>
@@ -9162,7 +9162,7 @@
         <v>457.58</v>
       </c>
       <c r="F229" s="2">
-        <v>4053</v>
+        <v>4035</v>
       </c>
       <c r="G229">
         <v>0.04</v>
@@ -9171,13 +9171,13 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="I229">
-        <v>41.917000000000002</v>
+        <v>41.731000000000002</v>
       </c>
       <c r="J229">
         <v>15.25</v>
       </c>
       <c r="K229">
-        <v>8.85</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9220,7 +9220,7 @@
         <v>239</v>
       </c>
       <c r="B231">
-        <v>266.39999999999998</v>
+        <v>265</v>
       </c>
       <c r="C231">
         <v>120</v>
@@ -9232,22 +9232,22 @@
         <v>4364</v>
       </c>
       <c r="F231" s="2">
-        <v>31968</v>
+        <v>31800</v>
       </c>
       <c r="G231">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H231">
         <v>13.367000000000001</v>
       </c>
       <c r="I231">
-        <v>19.93</v>
+        <v>19.824999999999999</v>
       </c>
       <c r="J231">
         <v>36.36</v>
       </c>
       <c r="K231">
-        <v>7.32</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -9255,7 +9255,7 @@
         <v>240</v>
       </c>
       <c r="B232" s="2">
-        <v>1001.5</v>
+        <v>961.5</v>
       </c>
       <c r="C232">
         <v>80</v>
@@ -9267,22 +9267,22 @@
         <v>5489</v>
       </c>
       <c r="F232" s="2">
-        <v>80120</v>
+        <v>76920</v>
       </c>
       <c r="G232">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="H232">
         <v>24.7</v>
       </c>
       <c r="I232">
-        <v>40.545999999999999</v>
+        <v>38.927</v>
       </c>
       <c r="J232">
         <v>68.61</v>
       </c>
       <c r="K232">
-        <v>14.59</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9290,7 +9290,7 @@
         <v>241</v>
       </c>
       <c r="B233">
-        <v>11.3</v>
+        <v>11.41</v>
       </c>
       <c r="C233" s="2">
         <v>300</v>
@@ -9302,7 +9302,7 @@
         <v>577.71</v>
       </c>
       <c r="F233" s="2">
-        <v>3390</v>
+        <v>3423</v>
       </c>
       <c r="G233">
         <v>0.04</v>
@@ -9311,13 +9311,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I233">
-        <v>20.428999999999998</v>
+        <v>20.626999999999999</v>
       </c>
       <c r="J233">
         <v>1.92</v>
       </c>
       <c r="K233">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9334,22 +9334,22 @@
         <v>11004.94</v>
       </c>
       <c r="F234" s="2">
-        <v>120085</v>
+        <v>116732</v>
       </c>
       <c r="G234">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="H234">
         <v>6.0739999999999998</v>
       </c>
       <c r="I234">
-        <v>31.106999999999999</v>
+        <v>30.234000000000002</v>
       </c>
       <c r="J234">
         <v>17.47</v>
       </c>
       <c r="K234">
-        <v>10.91</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9357,7 +9357,7 @@
         <v>243</v>
       </c>
       <c r="B235">
-        <v>42.54</v>
+        <v>42.5</v>
       </c>
       <c r="C235" s="2">
         <v>5000</v>
@@ -9369,16 +9369,16 @@
         <v>91069</v>
       </c>
       <c r="F235" s="2">
-        <v>212700</v>
+        <v>212500</v>
       </c>
       <c r="G235">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="H235">
         <v>5.01</v>
       </c>
       <c r="I235">
-        <v>8.49</v>
+        <v>8.4819999999999993</v>
       </c>
       <c r="J235">
         <v>18.21</v>
@@ -9392,7 +9392,7 @@
         <v>244</v>
       </c>
       <c r="B236">
-        <v>59.3</v>
+        <v>59.6</v>
       </c>
       <c r="C236">
         <v>770</v>
@@ -9404,7 +9404,7 @@
         <v>18637</v>
       </c>
       <c r="F236" s="2">
-        <v>45661</v>
+        <v>45892</v>
       </c>
       <c r="G236">
         <v>0.5</v>
@@ -9413,13 +9413,13 @@
         <v>4.2030000000000003</v>
       </c>
       <c r="I236">
-        <v>14.11</v>
+        <v>14.180999999999999</v>
       </c>
       <c r="J236">
         <v>24.2</v>
       </c>
       <c r="K236">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9427,7 +9427,7 @@
         <v>245</v>
       </c>
       <c r="B237">
-        <v>10.76</v>
+        <v>10.63</v>
       </c>
       <c r="C237" s="2">
         <v>898.72900000000004</v>
@@ -9439,22 +9439,22 @@
         <v>10792</v>
       </c>
       <c r="F237" s="2">
-        <v>9670.32</v>
+        <v>9553.49</v>
       </c>
       <c r="G237">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H237">
         <v>0.69199999999999995</v>
       </c>
       <c r="I237">
-        <v>15.547000000000001</v>
+        <v>15.359</v>
       </c>
       <c r="J237">
         <v>12</v>
       </c>
       <c r="K237">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9462,7 +9462,7 @@
         <v>246</v>
       </c>
       <c r="B238">
-        <v>102.2</v>
+        <v>101.3</v>
       </c>
       <c r="C238" s="2">
         <v>33.999000000000002</v>
@@ -9474,7 +9474,7 @@
         <v>709.2</v>
       </c>
       <c r="F238" s="2">
-        <v>3474.7</v>
+        <v>3444.1</v>
       </c>
       <c r="G238">
         <v>0.04</v>
@@ -9483,13 +9483,13 @@
         <v>5.2549999999999999</v>
       </c>
       <c r="I238">
-        <v>19.446999999999999</v>
+        <v>19.276</v>
       </c>
       <c r="J238">
         <v>20.85</v>
       </c>
       <c r="K238">
-        <v>4.8899999999999997</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9506,16 +9506,16 @@
         <v>121207.2</v>
       </c>
       <c r="F239" s="2">
-        <v>271506.02</v>
+        <v>271389.59000000003</v>
       </c>
       <c r="G239">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="H239">
         <v>4.34</v>
       </c>
       <c r="I239">
-        <v>9.3339999999999996</v>
+        <v>9.33</v>
       </c>
       <c r="J239">
         <v>18.079999999999998</v>
@@ -9529,7 +9529,7 @@
         <v>248</v>
       </c>
       <c r="B240">
-        <v>78.8</v>
+        <v>78</v>
       </c>
       <c r="C240">
         <v>75</v>
@@ -9541,7 +9541,7 @@
         <v>1943</v>
       </c>
       <c r="F240" s="2">
-        <v>5910</v>
+        <v>5850</v>
       </c>
       <c r="G240">
         <v>0.06</v>
@@ -9550,13 +9550,13 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="I240">
-        <v>25.463000000000001</v>
+        <v>25.204000000000001</v>
       </c>
       <c r="J240">
         <v>25.9</v>
       </c>
       <c r="K240">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9564,7 +9564,7 @@
         <v>249</v>
       </c>
       <c r="B241">
-        <v>144.1</v>
+        <v>143.1</v>
       </c>
       <c r="C241">
         <v>35</v>
@@ -9576,22 +9576,22 @@
         <v>814.29</v>
       </c>
       <c r="F241" s="2">
-        <v>5043.5</v>
+        <v>5008.5</v>
       </c>
       <c r="G241">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H241">
         <v>7.0030000000000001</v>
       </c>
       <c r="I241">
-        <v>20.577999999999999</v>
+        <v>20.434999999999999</v>
       </c>
       <c r="J241">
         <v>23.26</v>
       </c>
       <c r="K241">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9599,10 +9599,10 @@
         <v>250</v>
       </c>
       <c r="B242">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C242">
-        <v>732.56100000000004</v>
+        <v>766.49</v>
       </c>
       <c r="D242" s="2">
         <v>1888.04</v>
@@ -9611,22 +9611,22 @@
         <v>20994.04</v>
       </c>
       <c r="F242" s="2">
-        <v>187535.62</v>
+        <v>188556.54</v>
       </c>
       <c r="G242">
-        <v>2.0499999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="H242">
-        <v>2.577</v>
+        <v>2.4630000000000001</v>
       </c>
       <c r="I242">
-        <v>99.328000000000003</v>
+        <v>99.867999999999995</v>
       </c>
       <c r="J242">
-        <v>28.65</v>
+        <v>27.38</v>
       </c>
       <c r="K242">
-        <v>8.93</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9634,7 +9634,7 @@
         <v>251</v>
       </c>
       <c r="B243">
-        <v>43.18</v>
+        <v>43.4</v>
       </c>
       <c r="C243" s="2">
         <v>250</v>
@@ -9646,7 +9646,7 @@
         <v>5317.85</v>
       </c>
       <c r="F243" s="2">
-        <v>10795</v>
+        <v>10850</v>
       </c>
       <c r="G243">
         <v>0.12</v>
@@ -9661,7 +9661,7 @@
         <v>21.27</v>
       </c>
       <c r="K243">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9669,7 +9669,7 @@
         <v>252</v>
       </c>
       <c r="B244">
-        <v>25.32</v>
+        <v>26</v>
       </c>
       <c r="C244" s="2">
         <v>160.92500000000001</v>
@@ -9681,22 +9681,22 @@
         <v>495.52</v>
       </c>
       <c r="F244" s="2">
-        <v>4074.62</v>
+        <v>4184.05</v>
       </c>
       <c r="G244">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H244">
         <v>0.51500000000000001</v>
       </c>
       <c r="I244">
-        <v>49.198</v>
+        <v>50.518999999999998</v>
       </c>
       <c r="J244">
         <v>3.07</v>
       </c>
       <c r="K244">
-        <v>8.2200000000000006</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9704,7 +9704,7 @@
         <v>253</v>
       </c>
       <c r="B245">
-        <v>14.7</v>
+        <v>15.07</v>
       </c>
       <c r="C245" s="2">
         <v>4166.5929999999998</v>
@@ -9716,22 +9716,22 @@
         <v>257811</v>
       </c>
       <c r="F245" s="2">
-        <v>61248.92</v>
+        <v>62790.559999999998</v>
       </c>
       <c r="G245">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="H245">
         <v>1.665</v>
       </c>
       <c r="I245">
-        <v>8.8279999999999994</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="J245">
         <v>61.87</v>
       </c>
       <c r="K245">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9739,7 +9739,7 @@
         <v>254</v>
       </c>
       <c r="C246" s="2">
-        <v>5420.0789999999997</v>
+        <v>5454.0079999999998</v>
       </c>
       <c r="D246" s="2">
         <v>9384.58</v>
@@ -9748,19 +9748,19 @@
         <v>287375.7</v>
       </c>
       <c r="F246" s="2">
-        <v>274607.65999999997</v>
+        <v>277239.65000000002</v>
       </c>
       <c r="G246">
         <v>3</v>
       </c>
       <c r="H246">
-        <v>1.7310000000000001</v>
+        <v>1.7210000000000001</v>
       </c>
       <c r="I246">
-        <v>28.106999999999999</v>
+        <v>28.381</v>
       </c>
       <c r="J246">
-        <v>53.02</v>
+        <v>52.69</v>
       </c>
       <c r="K246">
         <v>0.96</v>
@@ -9771,7 +9771,7 @@
         <v>255</v>
       </c>
       <c r="B247">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="C247">
         <v>171.697</v>
@@ -9783,7 +9783,7 @@
         <v>1746.23</v>
       </c>
       <c r="F247">
-        <v>923.73</v>
+        <v>928.88</v>
       </c>
       <c r="G247">
         <v>0.01</v>
@@ -9798,7 +9798,7 @@
         <v>10.17</v>
       </c>
       <c r="K247">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9806,7 +9806,7 @@
         <v>256</v>
       </c>
       <c r="B248">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C248">
         <v>11.8</v>
@@ -9818,7 +9818,7 @@
         <v>86.31</v>
       </c>
       <c r="F248">
-        <v>166.38</v>
+        <v>164.02</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
@@ -9827,13 +9827,13 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I248">
-        <v>55.091999999999999</v>
+        <v>54.311</v>
       </c>
       <c r="J248">
         <v>7.31</v>
       </c>
       <c r="K248">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9841,7 +9841,7 @@
         <v>257</v>
       </c>
       <c r="B249">
-        <v>5.27</v>
+        <v>5.41</v>
       </c>
       <c r="C249">
         <v>66</v>
@@ -9853,7 +9853,7 @@
         <v>500.29</v>
       </c>
       <c r="F249">
-        <v>347.82</v>
+        <v>357.06</v>
       </c>
       <c r="G249" t="s">
         <v>32</v>
@@ -9862,13 +9862,13 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="I249">
-        <v>19.806999999999999</v>
+        <v>20.332999999999998</v>
       </c>
       <c r="J249">
         <v>7.58</v>
       </c>
       <c r="K249">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9876,7 +9876,7 @@
         <v>258</v>
       </c>
       <c r="B250">
-        <v>9.58</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="C250">
         <v>51</v>
@@ -9888,7 +9888,7 @@
         <v>549.69000000000005</v>
       </c>
       <c r="F250">
-        <v>488.58</v>
+        <v>490.62</v>
       </c>
       <c r="G250">
         <v>0.01</v>
@@ -9897,13 +9897,13 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="I250">
-        <v>15.023</v>
+        <v>15.086</v>
       </c>
       <c r="J250">
         <v>10.77</v>
       </c>
       <c r="K250">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9911,7 +9911,7 @@
         <v>259</v>
       </c>
       <c r="B251">
-        <v>9.01</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C251">
         <v>61.37</v>
@@ -9923,7 +9923,7 @@
         <v>514.29</v>
       </c>
       <c r="F251">
-        <v>552.94000000000005</v>
+        <v>565.83000000000004</v>
       </c>
       <c r="G251">
         <v>0.01</v>
@@ -9932,13 +9932,13 @@
         <v>0.67</v>
       </c>
       <c r="I251">
-        <v>13.44</v>
+        <v>13.753</v>
       </c>
       <c r="J251">
         <v>8.3800000000000008</v>
       </c>
       <c r="K251">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>260</v>
       </c>
       <c r="B252">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="C252">
         <v>88</v>
@@ -9958,7 +9958,7 @@
         <v>744.87</v>
       </c>
       <c r="F252">
-        <v>369.6</v>
+        <v>373.12</v>
       </c>
       <c r="G252" t="s">
         <v>32</v>
@@ -9973,7 +9973,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="K252">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -9981,7 +9981,7 @@
         <v>261</v>
       </c>
       <c r="B253">
-        <v>4.8099999999999996</v>
+        <v>4.74</v>
       </c>
       <c r="C253">
         <v>103.765</v>
@@ -9993,7 +9993,7 @@
         <v>771.32</v>
       </c>
       <c r="F253">
-        <v>499.11</v>
+        <v>491.85</v>
       </c>
       <c r="G253">
         <v>0.01</v>
@@ -10002,13 +10002,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I253">
-        <v>32.966000000000001</v>
+        <v>32.485999999999997</v>
       </c>
       <c r="J253">
         <v>7.43</v>
       </c>
       <c r="K253">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -10016,7 +10016,7 @@
         <v>262</v>
       </c>
       <c r="B254">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C254">
         <v>57.24</v>
@@ -10028,7 +10028,7 @@
         <v>243.04</v>
       </c>
       <c r="F254">
-        <v>243.84</v>
+        <v>243.27</v>
       </c>
       <c r="G254" t="s">
         <v>32</v>
@@ -10051,7 +10051,7 @@
         <v>263</v>
       </c>
       <c r="B255">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
       <c r="C255">
         <v>137.5</v>
@@ -10063,7 +10063,7 @@
         <v>1195.8</v>
       </c>
       <c r="F255" s="2">
-        <v>950.13</v>
+        <v>957</v>
       </c>
       <c r="G255">
         <v>0.01</v>
@@ -10072,13 +10072,13 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="I255">
-        <v>35.612000000000002</v>
+        <v>35.869</v>
       </c>
       <c r="J255">
         <v>8.69</v>
       </c>
       <c r="K255">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -10086,7 +10086,7 @@
         <v>264</v>
       </c>
       <c r="B256">
-        <v>5.57</v>
+        <v>5.52</v>
       </c>
       <c r="C256">
         <v>107.50700000000001</v>
@@ -10098,7 +10098,7 @@
         <v>869.57</v>
       </c>
       <c r="F256" s="2">
-        <v>598.80999999999995</v>
+        <v>593.44000000000005</v>
       </c>
       <c r="G256">
         <v>0.01</v>
@@ -10107,7 +10107,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="I256">
-        <v>40.350999999999999</v>
+        <v>39.988999999999997</v>
       </c>
       <c r="J256">
         <v>8.08</v>
@@ -10121,7 +10121,7 @@
         <v>265</v>
       </c>
       <c r="B257">
-        <v>8.32</v>
+        <v>8.27</v>
       </c>
       <c r="C257">
         <v>275.60700000000003</v>
@@ -10133,16 +10133,16 @@
         <v>2250.7800000000002</v>
       </c>
       <c r="F257" s="2">
-        <v>2293.0500000000002</v>
+        <v>2279.27</v>
       </c>
       <c r="G257">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H257">
         <v>0.67900000000000005</v>
       </c>
       <c r="I257">
-        <v>12.244999999999999</v>
+        <v>12.172000000000001</v>
       </c>
       <c r="J257">
         <v>8.16</v>
@@ -10156,7 +10156,7 @@
         <v>266</v>
       </c>
       <c r="B258">
-        <v>10.1</v>
+        <v>10.18</v>
       </c>
       <c r="C258">
         <v>186.50899999999999</v>
@@ -10168,7 +10168,7 @@
         <v>2308.79</v>
       </c>
       <c r="F258" s="2">
-        <v>1883.74</v>
+        <v>1898.66</v>
       </c>
       <c r="G258">
         <v>0.02</v>
@@ -10177,13 +10177,13 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="I258">
-        <v>33.776000000000003</v>
+        <v>34.043999999999997</v>
       </c>
       <c r="J258">
         <v>12.37</v>
       </c>
       <c r="K258">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10191,7 +10191,7 @@
         <v>267</v>
       </c>
       <c r="B259">
-        <v>7</v>
+        <v>6.92</v>
       </c>
       <c r="C259">
         <v>186.94399999999999</v>
@@ -10203,7 +10203,7 @@
         <v>1454.16</v>
       </c>
       <c r="F259" s="2">
-        <v>1308.6099999999999</v>
+        <v>1293.6500000000001</v>
       </c>
       <c r="G259">
         <v>0.01</v>
@@ -10212,13 +10212,13 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I259">
-        <v>90.811999999999998</v>
+        <v>89.774000000000001</v>
       </c>
       <c r="J259">
         <v>7.77</v>
       </c>
       <c r="K259">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -10226,7 +10226,7 @@
         <v>268</v>
       </c>
       <c r="B260">
-        <v>4.6100000000000003</v>
+        <v>4.72</v>
       </c>
       <c r="C260">
         <v>118</v>
@@ -10238,7 +10238,7 @@
         <v>835.72</v>
       </c>
       <c r="F260" s="2">
-        <v>543.98</v>
+        <v>556.96</v>
       </c>
       <c r="G260">
         <v>0.01</v>
@@ -10247,13 +10247,13 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I260">
-        <v>66.91</v>
+        <v>68.506</v>
       </c>
       <c r="J260">
         <v>7.08</v>
       </c>
       <c r="K260">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10296,7 +10296,7 @@
         <v>270</v>
       </c>
       <c r="B262">
-        <v>9.11</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C262">
         <v>162.881</v>
@@ -10308,7 +10308,7 @@
         <v>1363.65</v>
       </c>
       <c r="F262" s="2">
-        <v>1483.85</v>
+        <v>1498.51</v>
       </c>
       <c r="G262">
         <v>0.02</v>
@@ -10317,13 +10317,13 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I262">
-        <v>16.777999999999999</v>
+        <v>16.943000000000001</v>
       </c>
       <c r="J262">
         <v>8.3699999999999992</v>
       </c>
       <c r="K262">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10331,7 +10331,7 @@
         <v>271</v>
       </c>
       <c r="B263">
-        <v>5.77</v>
+        <v>5.69</v>
       </c>
       <c r="C263">
         <v>141.00800000000001</v>
@@ -10343,7 +10343,7 @@
         <v>1222.58</v>
       </c>
       <c r="F263">
-        <v>813.62</v>
+        <v>802.34</v>
       </c>
       <c r="G263">
         <v>0.01</v>
@@ -10352,13 +10352,13 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="I263">
-        <v>13.711</v>
+        <v>13.521000000000001</v>
       </c>
       <c r="J263">
         <v>8.67</v>
       </c>
       <c r="K263">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
         <v>272</v>
       </c>
       <c r="B264">
-        <v>8.35</v>
+        <v>8.36</v>
       </c>
       <c r="C264" s="2">
         <v>102.002</v>
@@ -10378,7 +10378,7 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="F264" s="2">
-        <v>851.72</v>
+        <v>852.74</v>
       </c>
       <c r="G264">
         <v>0.01</v>
@@ -10387,7 +10387,7 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I264">
-        <v>17.434999999999999</v>
+        <v>17.456</v>
       </c>
       <c r="J264">
         <v>10.11</v>
@@ -10401,7 +10401,7 @@
         <v>273</v>
       </c>
       <c r="B265">
-        <v>8.33</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="C265" s="2">
         <v>60.5</v>
@@ -10413,7 +10413,7 @@
         <v>582.99</v>
       </c>
       <c r="F265" s="2">
-        <v>503.97</v>
+        <v>511.83</v>
       </c>
       <c r="G265">
         <v>0.01</v>
@@ -10428,7 +10428,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="K265">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10445,22 +10445,22 @@
         <v>18786.89</v>
       </c>
       <c r="F266" s="2">
-        <v>15097.53</v>
+        <v>15133.1</v>
       </c>
       <c r="G266">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H266">
         <v>0.127</v>
       </c>
       <c r="I266">
-        <v>21.018000000000001</v>
+        <v>21.048999999999999</v>
       </c>
       <c r="J266">
         <v>8.69</v>
       </c>
       <c r="K266">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10468,7 +10468,7 @@
         <v>275</v>
       </c>
       <c r="B267">
-        <v>19.95</v>
+        <v>19.05</v>
       </c>
       <c r="C267">
         <v>375</v>
@@ -10480,7 +10480,7 @@
         <v>5177.7</v>
       </c>
       <c r="F267" s="2">
-        <v>7481.25</v>
+        <v>7143.75</v>
       </c>
       <c r="G267">
         <v>0.08</v>
@@ -10489,13 +10489,13 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="I267">
-        <v>21.541</v>
+        <v>20.568999999999999</v>
       </c>
       <c r="J267">
         <v>13.8</v>
       </c>
       <c r="K267">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
         <v>276</v>
       </c>
       <c r="B268">
-        <v>39.78</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="C268">
         <v>260.45699999999999</v>
@@ -10515,7 +10515,7 @@
         <v>6961</v>
       </c>
       <c r="F268" s="2">
-        <v>10360.98</v>
+        <v>10647.48</v>
       </c>
       <c r="G268">
         <v>0.11</v>
@@ -10524,13 +10524,13 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="I268">
-        <v>27.984000000000002</v>
+        <v>28.757999999999999</v>
       </c>
       <c r="J268">
         <v>26.72</v>
       </c>
       <c r="K268">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10538,7 +10538,7 @@
         <v>277</v>
       </c>
       <c r="B269">
-        <v>92</v>
+        <v>91.45</v>
       </c>
       <c r="C269">
         <v>200</v>
@@ -10550,7 +10550,7 @@
         <v>4813</v>
       </c>
       <c r="F269" s="2">
-        <v>18400</v>
+        <v>18290</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -10559,13 +10559,13 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="I269">
-        <v>41.070999999999998</v>
+        <v>40.825000000000003</v>
       </c>
       <c r="J269">
         <v>24.06</v>
       </c>
       <c r="K269">
-        <v>3.82</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10573,7 +10573,7 @@
         <v>278</v>
       </c>
       <c r="B270">
-        <v>35.299999999999997</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="C270">
         <v>233.93</v>
@@ -10585,7 +10585,7 @@
         <v>3990</v>
       </c>
       <c r="F270" s="2">
-        <v>8257.73</v>
+        <v>7948.94</v>
       </c>
       <c r="G270">
         <v>0.09</v>
@@ -10594,13 +10594,13 @@
         <v>1.145</v>
       </c>
       <c r="I270">
-        <v>30.835999999999999</v>
+        <v>29.683</v>
       </c>
       <c r="J270">
         <v>17.05</v>
       </c>
       <c r="K270">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,7 @@
         <v>279</v>
       </c>
       <c r="B271">
-        <v>13.43</v>
+        <v>13.57</v>
       </c>
       <c r="C271" s="2">
         <v>523.25900000000001</v>
@@ -10620,7 +10620,7 @@
         <v>5136</v>
       </c>
       <c r="F271" s="2">
-        <v>7027.37</v>
+        <v>7100.62</v>
       </c>
       <c r="G271">
         <v>0.08</v>
@@ -10635,7 +10635,7 @@
         <v>9.81</v>
       </c>
       <c r="K271">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10643,7 +10643,7 @@
         <v>280</v>
       </c>
       <c r="B272">
-        <v>46.1</v>
+        <v>46.5</v>
       </c>
       <c r="C272" s="2">
         <v>30.234000000000002</v>
@@ -10655,7 +10655,7 @@
         <v>32</v>
       </c>
       <c r="F272" s="2">
-        <v>1393.79</v>
+        <v>1405.88</v>
       </c>
       <c r="G272">
         <v>0.02</v>
@@ -10678,7 +10678,7 @@
         <v>281</v>
       </c>
       <c r="B273">
-        <v>20.12</v>
+        <v>19.82</v>
       </c>
       <c r="C273" s="2">
         <v>1180.0219999999999</v>
@@ -10690,22 +10690,22 @@
         <v>14415.73</v>
       </c>
       <c r="F273" s="2">
-        <v>23742.04</v>
+        <v>23388.04</v>
       </c>
       <c r="G273">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H273">
         <v>0.95499999999999996</v>
       </c>
       <c r="I273">
-        <v>21.065999999999999</v>
+        <v>20.751999999999999</v>
       </c>
       <c r="J273">
         <v>12.21</v>
       </c>
       <c r="K273">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -10713,7 +10713,7 @@
         <v>282</v>
       </c>
       <c r="B274">
-        <v>19.2</v>
+        <v>18.89</v>
       </c>
       <c r="C274" s="2">
         <v>1080</v>
@@ -10725,22 +10725,22 @@
         <v>21304.55</v>
       </c>
       <c r="F274" s="2">
-        <v>20736</v>
+        <v>20401.2</v>
       </c>
       <c r="G274">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H274">
         <v>0.79900000000000004</v>
       </c>
       <c r="I274">
-        <v>24.039000000000001</v>
+        <v>23.651</v>
       </c>
       <c r="J274">
         <v>19.72</v>
       </c>
       <c r="K274">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -10748,7 +10748,7 @@
         <v>283</v>
       </c>
       <c r="B275">
-        <v>13.09</v>
+        <v>13.03</v>
       </c>
       <c r="C275">
         <v>339.3</v>
@@ -10760,7 +10760,7 @@
         <v>2968.84</v>
       </c>
       <c r="F275" s="2">
-        <v>4441.4399999999996</v>
+        <v>4421.08</v>
       </c>
       <c r="G275">
         <v>0.05</v>
@@ -10775,7 +10775,7 @@
         <v>8.74</v>
       </c>
       <c r="K275">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -10783,7 +10783,7 @@
         <v>284</v>
       </c>
       <c r="B276">
-        <v>22</v>
+        <v>21.42</v>
       </c>
       <c r="C276">
         <v>93.332999999999998</v>
@@ -10795,7 +10795,7 @@
         <v>992.46</v>
       </c>
       <c r="F276" s="2">
-        <v>2053.33</v>
+        <v>1999.19</v>
       </c>
       <c r="G276">
         <v>0.02</v>
@@ -10810,7 +10810,7 @@
         <v>10.63</v>
       </c>
       <c r="K276">
-        <v>2.06</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10818,7 +10818,7 @@
         <v>285</v>
       </c>
       <c r="B277">
-        <v>19.41</v>
+        <v>19.48</v>
       </c>
       <c r="C277">
         <v>475</v>
@@ -10830,7 +10830,7 @@
         <v>14824.3</v>
       </c>
       <c r="F277" s="2">
-        <v>9219.75</v>
+        <v>9253</v>
       </c>
       <c r="G277">
         <v>0.1</v>
@@ -10839,7 +10839,7 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="I277">
-        <v>7.31</v>
+        <v>7.3360000000000003</v>
       </c>
       <c r="J277">
         <v>31.2</v>
@@ -10853,7 +10853,7 @@
         <v>286</v>
       </c>
       <c r="B278">
-        <v>15.72</v>
+        <v>15.13</v>
       </c>
       <c r="C278">
         <v>500</v>
@@ -10865,22 +10865,22 @@
         <v>847.1</v>
       </c>
       <c r="F278" s="2">
-        <v>7860</v>
+        <v>7565</v>
       </c>
       <c r="G278">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H278">
         <v>0.54500000000000004</v>
       </c>
       <c r="I278">
-        <v>28.847000000000001</v>
+        <v>27.763999999999999</v>
       </c>
       <c r="J278">
         <v>1.69</v>
       </c>
       <c r="K278">
-        <v>9.27</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10888,7 +10888,7 @@
         <v>287</v>
       </c>
       <c r="B279">
-        <v>40.200000000000003</v>
+        <v>40.22</v>
       </c>
       <c r="C279" s="2">
         <v>50</v>
@@ -10900,7 +10900,7 @@
         <v>630.74</v>
       </c>
       <c r="F279" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.02</v>
@@ -10909,7 +10909,7 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="I279">
-        <v>18.297000000000001</v>
+        <v>18.306000000000001</v>
       </c>
       <c r="J279">
         <v>12.61</v>
@@ -10923,7 +10923,7 @@
         <v>288</v>
       </c>
       <c r="B280">
-        <v>4.83</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C280" s="2">
         <v>200</v>
@@ -10935,7 +10935,7 @@
         <v>404.74</v>
       </c>
       <c r="F280" s="2">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G280">
         <v>0.01</v>
@@ -10944,13 +10944,13 @@
         <v>0.16</v>
       </c>
       <c r="I280">
-        <v>30.196000000000002</v>
+        <v>30.071000000000002</v>
       </c>
       <c r="J280">
         <v>2.02</v>
       </c>
       <c r="K280">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10958,7 +10958,7 @@
         <v>289</v>
       </c>
       <c r="B281">
-        <v>24.92</v>
+        <v>24.93</v>
       </c>
       <c r="C281" s="2">
         <v>1438.6469999999999</v>
@@ -10970,7 +10970,7 @@
         <v>15037.78</v>
       </c>
       <c r="F281" s="2">
-        <v>35851.08</v>
+        <v>35865.47</v>
       </c>
       <c r="G281">
         <v>0.39</v>
@@ -10979,7 +10979,7 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="I281">
-        <v>54.863</v>
+        <v>54.884999999999998</v>
       </c>
       <c r="J281">
         <v>10.45</v>
@@ -11002,22 +11002,22 @@
         <v>97503.94</v>
       </c>
       <c r="F282" s="2">
-        <v>159800.76</v>
+        <v>158402.65</v>
       </c>
       <c r="G282">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H282">
         <v>0.68500000000000005</v>
       </c>
       <c r="I282">
-        <v>25.189</v>
+        <v>24.943999999999999</v>
       </c>
       <c r="J282">
         <v>13.97</v>
       </c>
       <c r="K282">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -11025,7 +11025,7 @@
         <v>291</v>
       </c>
       <c r="C283" s="2">
-        <v>342049.58399999997</v>
+        <v>342169.49099999998</v>
       </c>
       <c r="D283" s="2">
         <v>573294.26</v>
@@ -11034,19 +11034,19 @@
         <v>3176092.17</v>
       </c>
       <c r="F283" s="2">
-        <v>9126036.6199999992</v>
+        <v>9264670.9000000004</v>
       </c>
       <c r="H283">
-        <v>1.6759999999999999</v>
+        <v>1.675</v>
       </c>
       <c r="I283">
-        <v>15.446</v>
+        <v>15.682</v>
       </c>
       <c r="J283">
-        <v>9.2899999999999991</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="K283">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D519EA5-89BF-43A3-9DFF-655DAE1EDAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB502576-EEF2-4D8B-9FF0-35F5BF1FE466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="302">
   <si>
     <t>المؤشرات المالية اليومية</t>
   </si>
@@ -919,9 +919,6 @@
     <t>اس ام سي للرعاية الصحية</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/07/27</t>
-  </si>
-  <si>
     <t>العبيكان للزجاج</t>
   </si>
   <si>
@@ -932,6 +929,9 @@
   </si>
   <si>
     <t>عزم</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/08/03</t>
   </si>
 </sst>
 </file>
@@ -973,11 +973,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,9 +1291,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K295"/>
+  <dimension ref="A1:K293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
@@ -1320,7 +1319,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1371,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>61.6</v>
+        <v>60.1</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1383,7 +1382,7 @@
         <v>345.55</v>
       </c>
       <c r="F5">
-        <v>924</v>
+        <v>901.5</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1398,7 +1397,7 @@
         <v>23.03</v>
       </c>
       <c r="K5">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1406,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>24.11</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1418,22 +1417,22 @@
         <v>1473620</v>
       </c>
       <c r="F6" s="2">
-        <v>5834620</v>
+        <v>5808000</v>
       </c>
       <c r="G6">
-        <v>64.69</v>
+        <v>64.91</v>
       </c>
       <c r="H6">
         <v>1.627</v>
       </c>
       <c r="I6">
-        <v>14.819000000000001</v>
+        <v>14.752000000000001</v>
       </c>
       <c r="J6">
         <v>6.08</v>
       </c>
       <c r="K6">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1441,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>7.19</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1453,7 +1452,7 @@
         <v>10987</v>
       </c>
       <c r="F7" s="2">
-        <v>12014.49</v>
+        <v>11697</v>
       </c>
       <c r="G7">
         <v>0.13</v>
@@ -1468,7 +1467,7 @@
         <v>6.57</v>
       </c>
       <c r="K7">
-        <v>1.0900000000000001</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1476,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>84.65</v>
+        <v>73.8</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1488,22 +1487,22 @@
         <v>6010</v>
       </c>
       <c r="F8" s="2">
-        <v>7533.85</v>
+        <v>6568.2</v>
       </c>
       <c r="G8">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H8">
         <v>2.8090000000000002</v>
       </c>
       <c r="I8">
-        <v>30.135999999999999</v>
+        <v>26.273</v>
       </c>
       <c r="J8">
         <v>67.52</v>
       </c>
       <c r="K8">
-        <v>1.25</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1511,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>12.99</v>
+        <v>12.55</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1523,7 +1522,7 @@
         <v>6418.9</v>
       </c>
       <c r="F9" s="2">
-        <v>14666.52</v>
+        <v>14169.73</v>
       </c>
       <c r="G9">
         <v>0.16</v>
@@ -1532,13 +1531,13 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="I9">
-        <v>18.061</v>
+        <v>17.449000000000002</v>
       </c>
       <c r="J9">
         <v>5.68</v>
       </c>
       <c r="K9">
-        <v>2.2799999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1546,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>22.12</v>
+        <v>21.9</v>
       </c>
       <c r="C10">
         <v>922.851</v>
@@ -1558,7 +1557,7 @@
         <v>14127.19</v>
       </c>
       <c r="F10" s="2">
-        <v>20413.46</v>
+        <v>20210.439999999999</v>
       </c>
       <c r="G10">
         <v>0.23</v>
@@ -1567,13 +1566,13 @@
         <v>2.4369999999999998</v>
       </c>
       <c r="I10">
-        <v>9.0749999999999993</v>
+        <v>8.9849999999999994</v>
       </c>
       <c r="J10">
         <v>15.3</v>
       </c>
       <c r="K10">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1581,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>124.9</v>
+        <v>119.8</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1593,22 +1592,22 @@
         <v>1438.5</v>
       </c>
       <c r="F11" s="2">
-        <v>12490</v>
+        <v>11980</v>
       </c>
       <c r="G11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H11">
         <v>3.6070000000000002</v>
       </c>
       <c r="I11">
-        <v>34.625999999999998</v>
+        <v>33.212000000000003</v>
       </c>
       <c r="J11">
         <v>14.38</v>
       </c>
       <c r="K11">
-        <v>8.68</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1625,22 +1624,22 @@
         <v>1512947.14</v>
       </c>
       <c r="F12" s="2">
-        <v>5902662.3200000003</v>
+        <v>5873526.8700000001</v>
       </c>
       <c r="G12">
-        <v>65.44</v>
+        <v>65.64</v>
       </c>
       <c r="H12">
         <v>1.6</v>
       </c>
       <c r="I12">
-        <v>14.821999999999999</v>
+        <v>14.749000000000001</v>
       </c>
       <c r="J12">
         <v>6.15</v>
       </c>
       <c r="K12">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7.93</v>
+        <v>7.78</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1660,7 +1659,7 @@
         <v>382.18</v>
       </c>
       <c r="F13">
-        <v>606.36</v>
+        <v>594.89</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1675,7 +1674,7 @@
         <v>4.99</v>
       </c>
       <c r="K13">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1683,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>28.36</v>
+        <v>27.62</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1695,7 +1694,7 @@
         <v>1611.65</v>
       </c>
       <c r="F14" s="2">
-        <v>2457.85</v>
+        <v>2393.71</v>
       </c>
       <c r="G14">
         <v>0.03</v>
@@ -1710,7 +1709,7 @@
         <v>18.59</v>
       </c>
       <c r="K14">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1718,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>26.64</v>
+        <v>26.44</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -1730,7 +1729,7 @@
         <v>598.46</v>
       </c>
       <c r="F15">
-        <v>732.6</v>
+        <v>727.1</v>
       </c>
       <c r="G15">
         <v>0.01</v>
@@ -1739,13 +1738,13 @@
         <v>1.198</v>
       </c>
       <c r="I15">
-        <v>22.24</v>
+        <v>22.073</v>
       </c>
       <c r="J15">
         <v>21.76</v>
       </c>
       <c r="K15">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1753,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>52.3</v>
+        <v>51.1</v>
       </c>
       <c r="C16" s="2">
         <v>3888.7629999999999</v>
@@ -1765,22 +1764,22 @@
         <v>53273.5</v>
       </c>
       <c r="F16" s="2">
-        <v>203382.3</v>
+        <v>198715.79</v>
       </c>
       <c r="G16">
-        <v>2.25</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H16">
         <v>0.88500000000000001</v>
       </c>
       <c r="I16">
-        <v>59.125999999999998</v>
+        <v>57.768999999999998</v>
       </c>
       <c r="J16">
         <v>13.69</v>
       </c>
       <c r="K16">
-        <v>3.81</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1788,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>23.29</v>
+        <v>22.28</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1800,7 +1799,7 @@
         <v>366.9</v>
       </c>
       <c r="F17">
-        <v>653.98</v>
+        <v>625.62</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1809,13 +1808,13 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17">
-        <v>68.122</v>
+        <v>65.168000000000006</v>
       </c>
       <c r="J17">
         <v>13.06</v>
       </c>
       <c r="K17">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1823,7 +1822,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>34.619999999999997</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1835,7 +1834,7 @@
         <v>590.22</v>
       </c>
       <c r="F18" s="2">
-        <v>1758.7</v>
+        <v>1733.3</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1844,13 +1843,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="I18">
-        <v>47.213000000000001</v>
+        <v>46.530999999999999</v>
       </c>
       <c r="J18">
         <v>11.61</v>
       </c>
       <c r="K18">
-        <v>2.97</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1858,7 +1857,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>50.55</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1870,7 +1869,7 @@
         <v>913</v>
       </c>
       <c r="F19" s="2">
-        <v>2805</v>
+        <v>2578.0500000000002</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1879,13 +1878,13 @@
         <v>4.7839999999999998</v>
       </c>
       <c r="I19">
-        <v>11.494999999999999</v>
+        <v>10.565</v>
       </c>
       <c r="J19">
         <v>17.899999999999999</v>
       </c>
       <c r="K19">
-        <v>3.07</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1893,7 +1892,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>115.1</v>
+        <v>106.6</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1905,7 +1904,7 @@
         <v>1134.45</v>
       </c>
       <c r="F20" s="2">
-        <v>3625.65</v>
+        <v>3357.9</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1914,13 +1913,13 @@
         <v>12.131</v>
       </c>
       <c r="I20">
-        <v>9.4879999999999995</v>
+        <v>8.7870000000000008</v>
       </c>
       <c r="J20">
         <v>36.01</v>
       </c>
       <c r="K20">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1928,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>69.05</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1940,22 +1939,22 @@
         <v>1210.1199999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>6214.5</v>
+        <v>5791.5</v>
       </c>
       <c r="G21">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H21">
         <v>2.4220000000000002</v>
       </c>
       <c r="I21">
-        <v>28.504999999999999</v>
+        <v>26.565000000000001</v>
       </c>
       <c r="J21">
         <v>13.44</v>
       </c>
       <c r="K21">
-        <v>5.13</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1963,7 +1962,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>34.340000000000003</v>
+        <v>30.88</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1975,22 +1974,22 @@
         <v>564.17999999999995</v>
       </c>
       <c r="F22" s="2">
-        <v>1373.6</v>
+        <v>1235.2</v>
       </c>
       <c r="G22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H22">
         <v>2.718</v>
       </c>
       <c r="I22">
-        <v>12.635999999999999</v>
+        <v>11.363</v>
       </c>
       <c r="J22">
         <v>14.1</v>
       </c>
       <c r="K22">
-        <v>2.4300000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1998,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>12.72</v>
+        <v>12.57</v>
       </c>
       <c r="C23">
         <v>67.45</v>
@@ -2010,7 +2009,7 @@
         <v>728.24</v>
       </c>
       <c r="F23">
-        <v>857.96</v>
+        <v>847.85</v>
       </c>
       <c r="G23">
         <v>0.01</v>
@@ -2025,7 +2024,7 @@
         <v>10.79</v>
       </c>
       <c r="K23">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2033,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>55.15</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2045,22 +2044,22 @@
         <v>156110</v>
       </c>
       <c r="F24" s="2">
-        <v>165450</v>
+        <v>162000</v>
       </c>
       <c r="G24">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H24">
         <v>2.7E-2</v>
       </c>
       <c r="I24">
-        <v>2068.125</v>
+        <v>2025</v>
       </c>
       <c r="J24">
         <v>52.03</v>
       </c>
       <c r="K24">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2068,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>120.5</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2080,22 +2079,22 @@
         <v>19286</v>
       </c>
       <c r="F25" s="2">
-        <v>56648.17</v>
+        <v>57362.22</v>
       </c>
       <c r="G25">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="H25">
         <v>7.2910000000000004</v>
       </c>
       <c r="I25">
-        <v>16.32</v>
+        <v>16.526</v>
       </c>
       <c r="J25">
         <v>40.51</v>
       </c>
       <c r="K25">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2103,7 +2102,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>9.42</v>
+        <v>9.34</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2115,7 +2114,7 @@
         <v>10484.4</v>
       </c>
       <c r="F26" s="2">
-        <v>6301.17</v>
+        <v>6247.66</v>
       </c>
       <c r="G26">
         <v>7.0000000000000007E-2</v>
@@ -2124,13 +2123,13 @@
         <v>1.601</v>
       </c>
       <c r="I26">
-        <v>5.8849999999999998</v>
+        <v>5.835</v>
       </c>
       <c r="J26">
         <v>15.67</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2138,7 +2137,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>21.24</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2150,7 +2149,7 @@
         <v>346.35</v>
       </c>
       <c r="F27">
-        <v>696.65</v>
+        <v>672.59</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2165,7 +2164,7 @@
         <v>10.93</v>
       </c>
       <c r="K27">
-        <v>2.0099999999999998</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2173,7 +2172,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>41.4</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2185,22 +2184,22 @@
         <v>772.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1362.06</v>
+        <v>1309.42</v>
       </c>
       <c r="G28">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H28">
         <v>2.7930000000000001</v>
       </c>
       <c r="I28">
-        <v>14.821</v>
+        <v>14.247999999999999</v>
       </c>
       <c r="J28">
         <v>23.47</v>
       </c>
       <c r="K28">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2208,7 +2207,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>37.020000000000003</v>
+        <v>36.5</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2220,7 +2219,7 @@
         <v>3475.91</v>
       </c>
       <c r="F29" s="2">
-        <v>2561.7800000000002</v>
+        <v>2525.8000000000002</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2235,7 +2234,7 @@
         <v>50.22</v>
       </c>
       <c r="K29">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2243,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>33.96</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="C30">
         <v>11.5</v>
@@ -2255,7 +2254,7 @@
         <v>141.80000000000001</v>
       </c>
       <c r="F30">
-        <v>390.54</v>
+        <v>379.27</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2270,7 +2269,7 @@
         <v>12.33</v>
       </c>
       <c r="K30">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2278,7 +2277,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>6.23</v>
+        <v>5.88</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -2290,7 +2289,7 @@
         <v>441.49</v>
       </c>
       <c r="F31" s="2">
-        <v>1246</v>
+        <v>1176</v>
       </c>
       <c r="G31">
         <v>0.01</v>
@@ -2299,13 +2298,13 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="I31">
-        <v>8.1129999999999995</v>
+        <v>7.657</v>
       </c>
       <c r="J31">
         <v>2.2000000000000002</v>
       </c>
       <c r="K31">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2313,7 +2312,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>25.76</v>
+        <v>26.24</v>
       </c>
       <c r="C32">
         <v>23.52</v>
@@ -2325,7 +2324,7 @@
         <v>194.63</v>
       </c>
       <c r="F32">
-        <v>605.88</v>
+        <v>617.16</v>
       </c>
       <c r="G32">
         <v>0.01</v>
@@ -2340,7 +2339,7 @@
         <v>8.27</v>
       </c>
       <c r="K32">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2348,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>17.5</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2360,7 +2359,7 @@
         <v>242.28</v>
       </c>
       <c r="F33">
-        <v>619.5</v>
+        <v>593.29999999999995</v>
       </c>
       <c r="G33">
         <v>0.01</v>
@@ -2375,7 +2374,7 @@
         <v>6.84</v>
       </c>
       <c r="K33">
-        <v>2.5499999999999998</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2383,7 +2382,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>103.8</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2395,22 +2394,22 @@
         <v>4075.05</v>
       </c>
       <c r="F34" s="2">
-        <v>17516.25</v>
+        <v>15862.5</v>
       </c>
       <c r="G34">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H34">
         <v>5.6559999999999997</v>
       </c>
       <c r="I34">
-        <v>18.350000000000001</v>
+        <v>16.617999999999999</v>
       </c>
       <c r="J34">
         <v>24.14</v>
       </c>
       <c r="K34">
-        <v>4.29</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2418,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>40.9</v>
+        <v>41.48</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2430,7 +2429,7 @@
         <v>474.58</v>
       </c>
       <c r="F35" s="2">
-        <v>2454</v>
+        <v>2488.8000000000002</v>
       </c>
       <c r="G35">
         <v>0.03</v>
@@ -2439,13 +2438,13 @@
         <v>0.72</v>
       </c>
       <c r="I35">
-        <v>56.817999999999998</v>
+        <v>57.624000000000002</v>
       </c>
       <c r="J35">
         <v>7.9</v>
       </c>
       <c r="K35">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2453,7 +2452,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17.84</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2465,7 +2464,7 @@
         <v>9853</v>
       </c>
       <c r="F36" s="2">
-        <v>12227.76</v>
+        <v>12119.07</v>
       </c>
       <c r="G36">
         <v>0.14000000000000001</v>
@@ -2474,13 +2473,13 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I36">
-        <v>64.019000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="J36">
         <v>14.5</v>
       </c>
       <c r="K36">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2488,7 +2487,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>30.04</v>
       </c>
       <c r="C37">
         <v>562.5</v>
@@ -2500,7 +2499,7 @@
         <v>11252.6</v>
       </c>
       <c r="F37" s="2">
-        <v>16875</v>
+        <v>16897.5</v>
       </c>
       <c r="G37">
         <v>0.19</v>
@@ -2509,13 +2508,13 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="I37">
-        <v>50.508000000000003</v>
+        <v>50.576000000000001</v>
       </c>
       <c r="J37">
         <v>20</v>
       </c>
       <c r="K37">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2523,7 +2522,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>58</v>
+        <v>54.6</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2535,7 +2534,7 @@
         <v>533.52</v>
       </c>
       <c r="F38" s="2">
-        <v>2150.06</v>
+        <v>2024.02</v>
       </c>
       <c r="G38">
         <v>0.02</v>
@@ -2544,13 +2543,13 @@
         <v>1.825</v>
       </c>
       <c r="I38">
-        <v>31.777000000000001</v>
+        <v>29.914000000000001</v>
       </c>
       <c r="J38">
         <v>14.39</v>
       </c>
       <c r="K38">
-        <v>4.0199999999999996</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2558,7 +2557,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>18.3</v>
+        <v>17.84</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2570,7 +2569,7 @@
         <v>15430</v>
       </c>
       <c r="F39" s="2">
-        <v>13419.99</v>
+        <v>13082.66</v>
       </c>
       <c r="G39">
         <v>0.15</v>
@@ -2579,13 +2578,13 @@
         <v>0.6</v>
       </c>
       <c r="I39">
-        <v>30.498999999999999</v>
+        <v>29.733000000000001</v>
       </c>
       <c r="J39">
         <v>21.04</v>
       </c>
       <c r="K39">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2593,7 +2592,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>31.58</v>
+        <v>30.56</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2605,7 +2604,7 @@
         <v>2915</v>
       </c>
       <c r="F40" s="2">
-        <v>8210.7999999999993</v>
+        <v>7945.6</v>
       </c>
       <c r="G40">
         <v>0.09</v>
@@ -2620,7 +2619,7 @@
         <v>11.21</v>
       </c>
       <c r="K40">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2628,7 +2627,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>4.5999999999999996</v>
+        <v>4.55</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2640,7 +2639,7 @@
         <v>10731.37</v>
       </c>
       <c r="F41" s="2">
-        <v>6900</v>
+        <v>6825</v>
       </c>
       <c r="G41">
         <v>0.08</v>
@@ -2655,7 +2654,7 @@
         <v>7.15</v>
       </c>
       <c r="K41">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2663,7 +2662,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>28.52</v>
+        <v>27.24</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2675,7 +2674,7 @@
         <v>93.41</v>
       </c>
       <c r="F42">
-        <v>427.8</v>
+        <v>408.6</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2690,7 +2689,7 @@
         <v>6.22</v>
       </c>
       <c r="K42">
-        <v>4.57</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2698,7 +2697,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>8.08</v>
+        <v>8.01</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2710,7 +2709,7 @@
         <v>2053.0500000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>1373.6</v>
+        <v>1361.7</v>
       </c>
       <c r="G43">
         <v>0.02</v>
@@ -2719,7 +2718,7 @@
         <v>0.437</v>
       </c>
       <c r="I43">
-        <v>18.509</v>
+        <v>18.349</v>
       </c>
       <c r="J43">
         <v>12.07</v>
@@ -2733,7 +2732,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>16.739999999999998</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2745,7 +2744,7 @@
         <v>1846.52</v>
       </c>
       <c r="F44" s="2">
-        <v>2343.6</v>
+        <v>2380</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2754,13 +2753,13 @@
         <v>1.101</v>
       </c>
       <c r="I44">
-        <v>15.211</v>
+        <v>15.446999999999999</v>
       </c>
       <c r="J44">
         <v>13.18</v>
       </c>
       <c r="K44">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2768,7 +2767,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>8.49</v>
+        <v>8.02</v>
       </c>
       <c r="C45">
         <v>180</v>
@@ -2780,7 +2779,7 @@
         <v>2264.7800000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>1528.2</v>
+        <v>1443.6</v>
       </c>
       <c r="G45">
         <v>0.02</v>
@@ -2789,13 +2788,13 @@
         <v>0.317</v>
       </c>
       <c r="I45">
-        <v>26.771999999999998</v>
+        <v>25.29</v>
       </c>
       <c r="J45">
         <v>12.58</v>
       </c>
       <c r="K45">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2803,7 +2802,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>15.88</v>
+        <v>15.41</v>
       </c>
       <c r="C46">
         <v>55</v>
@@ -2815,7 +2814,7 @@
         <v>824.47</v>
       </c>
       <c r="F46">
-        <v>873.4</v>
+        <v>847.55</v>
       </c>
       <c r="G46">
         <v>0.01</v>
@@ -2824,13 +2823,13 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="I46">
-        <v>19.777999999999999</v>
+        <v>19.192</v>
       </c>
       <c r="J46">
         <v>14.99</v>
       </c>
       <c r="K46">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2838,7 +2837,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>26.04</v>
+        <v>25.3</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2850,7 +2849,7 @@
         <v>289.64999999999998</v>
       </c>
       <c r="F47">
-        <v>585.9</v>
+        <v>569.25</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2859,13 +2858,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I47">
-        <v>6510</v>
+        <v>6325</v>
       </c>
       <c r="J47">
         <v>12.87</v>
       </c>
       <c r="K47">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2873,7 +2872,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2885,7 +2884,7 @@
         <v>107.08</v>
       </c>
       <c r="F48">
-        <v>495.04</v>
+        <v>483.73</v>
       </c>
       <c r="G48">
         <v>0.01</v>
@@ -2900,7 +2899,7 @@
         <v>0.47</v>
       </c>
       <c r="K48">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2908,7 +2907,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>22.68</v>
+        <v>20.6</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2920,22 +2919,22 @@
         <v>2586.1</v>
       </c>
       <c r="F49" s="2">
-        <v>2268</v>
+        <v>2060</v>
       </c>
       <c r="G49">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H49">
         <v>1.296</v>
       </c>
       <c r="I49">
-        <v>17.5</v>
+        <v>15.895</v>
       </c>
       <c r="J49">
         <v>25.86</v>
       </c>
       <c r="K49">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2943,7 +2942,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>35.200000000000003</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="C50">
         <v>202.5</v>
@@ -2955,22 +2954,22 @@
         <v>4985.1000000000004</v>
       </c>
       <c r="F50" s="2">
-        <v>7128</v>
+        <v>6706.8</v>
       </c>
       <c r="G50">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H50">
         <v>2.2109999999999999</v>
       </c>
       <c r="I50">
-        <v>15.919</v>
+        <v>14.978</v>
       </c>
       <c r="J50">
         <v>24.61</v>
       </c>
       <c r="K50">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2978,7 +2977,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>39.58</v>
+        <v>38.28</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2990,7 +2989,7 @@
         <v>2349</v>
       </c>
       <c r="F51" s="2">
-        <v>6055.74</v>
+        <v>5856.84</v>
       </c>
       <c r="G51">
         <v>7.0000000000000007E-2</v>
@@ -2999,13 +2998,13 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="I51">
-        <v>14.536</v>
+        <v>14.058</v>
       </c>
       <c r="J51">
         <v>15.35</v>
       </c>
       <c r="K51">
-        <v>2.57</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3013,7 +3012,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>47.72</v>
+        <v>45.22</v>
       </c>
       <c r="C52">
         <v>110.559</v>
@@ -3025,7 +3024,7 @@
         <v>2770.28</v>
       </c>
       <c r="F52" s="2">
-        <v>5275.88</v>
+        <v>4999.4799999999996</v>
       </c>
       <c r="G52">
         <v>0.06</v>
@@ -3034,13 +3033,13 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="I52">
-        <v>16.425000000000001</v>
+        <v>15.564</v>
       </c>
       <c r="J52">
         <v>25.05</v>
       </c>
       <c r="K52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3048,7 +3047,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>26.52</v>
+        <v>26.12</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3060,7 +3059,7 @@
         <v>3398</v>
       </c>
       <c r="F53" s="2">
-        <v>3712.8</v>
+        <v>3656.8</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3069,13 +3068,13 @@
         <v>1.4930000000000001</v>
       </c>
       <c r="I53">
-        <v>17.763999999999999</v>
+        <v>17.495999999999999</v>
       </c>
       <c r="J53">
         <v>24.27</v>
       </c>
       <c r="K53">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3083,7 +3082,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>18.02</v>
+        <v>16.91</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3095,7 +3094,7 @@
         <v>2635.99</v>
       </c>
       <c r="F54" s="2">
-        <v>2838.15</v>
+        <v>2663.33</v>
       </c>
       <c r="G54">
         <v>0.03</v>
@@ -3104,13 +3103,13 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="I54">
-        <v>22.047000000000001</v>
+        <v>20.689</v>
       </c>
       <c r="J54">
         <v>16.73</v>
       </c>
       <c r="K54">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3118,7 +3117,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>28.46</v>
+        <v>28.18</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3130,7 +3129,7 @@
         <v>2267</v>
       </c>
       <c r="F55" s="2">
-        <v>2447.56</v>
+        <v>2423.48</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3139,13 +3138,13 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="I55">
-        <v>10.113</v>
+        <v>10.013999999999999</v>
       </c>
       <c r="J55">
         <v>26.36</v>
       </c>
       <c r="K55">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3153,7 +3152,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>10.66</v>
+        <v>10.35</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -3165,7 +3164,7 @@
         <v>1192.03</v>
       </c>
       <c r="F56" s="2">
-        <v>959.4</v>
+        <v>931.5</v>
       </c>
       <c r="G56">
         <v>0.01</v>
@@ -3174,13 +3173,13 @@
         <v>0.85</v>
       </c>
       <c r="I56">
-        <v>12.542</v>
+        <v>12.178000000000001</v>
       </c>
       <c r="J56">
         <v>13.24</v>
       </c>
       <c r="K56">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3188,7 +3187,7 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>6.99</v>
+        <v>6.79</v>
       </c>
       <c r="C57">
         <v>108.7</v>
@@ -3200,7 +3199,7 @@
         <v>1101.25</v>
       </c>
       <c r="F57">
-        <v>759.81</v>
+        <v>738.07</v>
       </c>
       <c r="G57">
         <v>0.01</v>
@@ -3215,7 +3214,7 @@
         <v>10.130000000000001</v>
       </c>
       <c r="K57">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3223,7 +3222,7 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>31.36</v>
+        <v>31.46</v>
       </c>
       <c r="C58">
         <v>120</v>
@@ -3235,7 +3234,7 @@
         <v>1856.93</v>
       </c>
       <c r="F58" s="2">
-        <v>3763.2</v>
+        <v>3775.2</v>
       </c>
       <c r="G58">
         <v>0.04</v>
@@ -3244,13 +3243,13 @@
         <v>2.6339999999999999</v>
       </c>
       <c r="I58">
-        <v>11.907999999999999</v>
+        <v>11.946</v>
       </c>
       <c r="J58">
         <v>15.47</v>
       </c>
       <c r="K58">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3267,22 +3266,22 @@
         <v>340753.91999999998</v>
       </c>
       <c r="F59" s="2">
-        <v>582940.18999999994</v>
+        <v>570035.41</v>
       </c>
       <c r="G59">
-        <v>6.51</v>
+        <v>6.41</v>
       </c>
       <c r="H59">
         <v>0.74199999999999999</v>
       </c>
       <c r="I59">
-        <v>39.847999999999999</v>
+        <v>38.966000000000001</v>
       </c>
       <c r="J59">
         <v>22.62</v>
       </c>
       <c r="K59">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3290,7 +3289,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>146.4</v>
+        <v>141</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3302,7 +3301,7 @@
         <v>2700.53</v>
       </c>
       <c r="F60" s="2">
-        <v>11712</v>
+        <v>11280</v>
       </c>
       <c r="G60">
         <v>0.13</v>
@@ -3311,13 +3310,13 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="I60">
-        <v>19.152999999999999</v>
+        <v>18.446999999999999</v>
       </c>
       <c r="J60">
         <v>33.75</v>
       </c>
       <c r="K60">
-        <v>4.33</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3325,7 +3324,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3337,7 +3336,7 @@
         <v>825.67</v>
       </c>
       <c r="F61" s="2">
-        <v>1520.7</v>
+        <v>1498.5</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3346,13 +3345,13 @@
         <v>1.379</v>
       </c>
       <c r="I61">
-        <v>19.867999999999999</v>
+        <v>19.577000000000002</v>
       </c>
       <c r="J61">
         <v>14.87</v>
       </c>
       <c r="K61">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3360,7 +3359,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>53.95</v>
+        <v>54</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3372,7 +3371,7 @@
         <v>964.6</v>
       </c>
       <c r="F62" s="2">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="G62">
         <v>0.04</v>
@@ -3381,7 +3380,7 @@
         <v>1.89</v>
       </c>
       <c r="I62">
-        <v>28.547000000000001</v>
+        <v>28.573</v>
       </c>
       <c r="J62">
         <v>16.07</v>
@@ -3395,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>8.77</v>
+        <v>8.83</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3407,7 +3406,7 @@
         <v>930.83</v>
       </c>
       <c r="F63" s="2">
-        <v>9866.25</v>
+        <v>9933.75</v>
       </c>
       <c r="G63">
         <v>0.11</v>
@@ -3416,13 +3415,13 @@
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>21.928000000000001</v>
+        <v>22.077999999999999</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>10.59</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3430,7 +3429,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>31.3</v>
+        <v>30.52</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3442,7 +3441,7 @@
         <v>1444.71</v>
       </c>
       <c r="F64" s="2">
-        <v>3130</v>
+        <v>3052</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3457,7 +3456,7 @@
         <v>14.44</v>
       </c>
       <c r="K64">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3465,7 +3464,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>136.69999999999999</v>
+        <v>135</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3477,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>912.06</v>
+        <v>900.72</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3500,7 +3499,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>20.96</v>
+        <v>20.25</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3512,7 +3511,7 @@
         <v>908.22</v>
       </c>
       <c r="F66" s="2">
-        <v>933.77</v>
+        <v>902.14</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3527,7 +3526,7 @@
         <v>20.38</v>
       </c>
       <c r="K66">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3535,7 +3534,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>54</v>
+        <v>56.45</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3547,7 +3546,7 @@
         <v>1078.5999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>3453.08</v>
+        <v>3609.75</v>
       </c>
       <c r="G67">
         <v>0.04</v>
@@ -3556,13 +3555,13 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="I67">
-        <v>12.723000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="J67">
         <v>16.86</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3570,7 +3569,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>33.08</v>
+        <v>33.14</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3582,7 +3581,7 @@
         <v>490.64</v>
       </c>
       <c r="F68" s="2">
-        <v>1323.2</v>
+        <v>1325.6</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3591,13 +3590,13 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="I68">
-        <v>15.709</v>
+        <v>15.737</v>
       </c>
       <c r="J68">
         <v>12.26</v>
       </c>
       <c r="K68">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3605,7 +3604,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.3199999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3617,7 +3616,7 @@
         <v>409.58</v>
       </c>
       <c r="F69" s="2">
-        <v>1392</v>
+        <v>1362</v>
       </c>
       <c r="G69">
         <v>0.02</v>
@@ -3632,7 +3631,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>3.39</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3640,7 +3639,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3652,7 +3651,7 @@
         <v>123.96</v>
       </c>
       <c r="F70">
-        <v>421.85</v>
+        <v>414.07</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3667,7 +3666,7 @@
         <v>0.63</v>
       </c>
       <c r="K70">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3675,7 +3674,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>26.4</v>
+        <v>26.02</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3687,7 +3686,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="F71">
-        <v>316.8</v>
+        <v>312.24</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3702,7 +3701,7 @@
         <v>12.81</v>
       </c>
       <c r="K71">
-        <v>2.0499999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3710,7 +3709,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>129</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3722,22 +3721,22 @@
         <v>2899.91</v>
       </c>
       <c r="F72" s="2">
-        <v>19350</v>
+        <v>20070</v>
       </c>
       <c r="G72">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H72">
         <v>6.0270000000000001</v>
       </c>
       <c r="I72">
-        <v>21.402000000000001</v>
+        <v>22.198</v>
       </c>
       <c r="J72">
         <v>19.329999999999998</v>
       </c>
       <c r="K72">
-        <v>6.67</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3745,7 +3744,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>41.1</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3757,7 +3756,7 @@
         <v>528.99</v>
       </c>
       <c r="F73" s="2">
-        <v>1644</v>
+        <v>1592</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3766,13 +3765,13 @@
         <v>2.0289999999999999</v>
       </c>
       <c r="I73">
-        <v>20.257999999999999</v>
+        <v>19.617000000000001</v>
       </c>
       <c r="J73">
         <v>13.22</v>
       </c>
       <c r="K73">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3780,7 +3779,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>61.5</v>
+        <v>59.5</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3792,7 +3791,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="F74">
-        <v>768.75</v>
+        <v>743.75</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3801,21 +3800,21 @@
         <v>1.913</v>
       </c>
       <c r="I74">
-        <v>32.151000000000003</v>
+        <v>31.106000000000002</v>
       </c>
       <c r="J74">
         <v>12.89</v>
       </c>
       <c r="K74">
-        <v>4.76</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>298</v>
+      <c r="A75" t="s">
+        <v>297</v>
       </c>
       <c r="B75">
-        <v>36.32</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="C75" s="2">
         <v>32</v>
@@ -3827,7 +3826,7 @@
         <v>536.54</v>
       </c>
       <c r="F75" s="2">
-        <v>1162.24</v>
+        <v>1065.5999999999999</v>
       </c>
       <c r="G75">
         <v>0.01</v>
@@ -3842,7 +3841,7 @@
         <v>16.760000000000002</v>
       </c>
       <c r="K75">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3859,22 +3858,22 @@
         <v>14157.81</v>
       </c>
       <c r="F76" s="2">
-        <v>61143.7</v>
+        <v>61302.12</v>
       </c>
       <c r="G76">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="H76">
         <v>0.93400000000000005</v>
       </c>
       <c r="I76">
-        <v>20.210999999999999</v>
+        <v>20.370999999999999</v>
       </c>
       <c r="J76">
         <v>5.41</v>
       </c>
       <c r="K76">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3882,7 +3881,7 @@
         <v>86</v>
       </c>
       <c r="B77">
-        <v>4.76</v>
+        <v>4.63</v>
       </c>
       <c r="C77">
         <v>475</v>
@@ -3894,22 +3893,22 @@
         <v>613.96</v>
       </c>
       <c r="F77" s="2">
-        <v>2261</v>
+        <v>2199.25</v>
       </c>
       <c r="G77">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H77">
         <v>0.21299999999999999</v>
       </c>
       <c r="I77">
-        <v>22.355</v>
+        <v>21.744</v>
       </c>
       <c r="J77">
         <v>1.29</v>
       </c>
       <c r="K77">
-        <v>3.68</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3917,7 +3916,7 @@
         <v>87</v>
       </c>
       <c r="B78">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C78">
         <v>175</v>
@@ -3929,7 +3928,7 @@
         <v>167.63</v>
       </c>
       <c r="F78" s="2">
-        <v>514.5</v>
+        <v>511</v>
       </c>
       <c r="G78">
         <v>0.01</v>
@@ -3944,7 +3943,7 @@
         <v>0.95</v>
       </c>
       <c r="K78">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3952,7 +3951,7 @@
         <v>88</v>
       </c>
       <c r="B79">
-        <v>128.69999999999999</v>
+        <v>126</v>
       </c>
       <c r="C79">
         <v>15</v>
@@ -3964,7 +3963,7 @@
         <v>410.42</v>
       </c>
       <c r="F79" s="2">
-        <v>1930.5</v>
+        <v>1890</v>
       </c>
       <c r="G79">
         <v>0.02</v>
@@ -3973,13 +3972,13 @@
         <v>6.5970000000000004</v>
       </c>
       <c r="I79">
-        <v>19.509</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J79">
         <v>27.36</v>
       </c>
       <c r="K79">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3987,7 +3986,7 @@
         <v>89</v>
       </c>
       <c r="B80">
-        <v>6.33</v>
+        <v>6.16</v>
       </c>
       <c r="C80">
         <v>400</v>
@@ -3999,7 +3998,7 @@
         <v>586.20000000000005</v>
       </c>
       <c r="F80" s="2">
-        <v>2532</v>
+        <v>2464</v>
       </c>
       <c r="G80">
         <v>0.03</v>
@@ -4008,13 +4007,13 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="I80">
-        <v>19.672999999999998</v>
+        <v>19.145</v>
       </c>
       <c r="J80">
         <v>1.46</v>
       </c>
       <c r="K80">
-        <v>4.3099999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4022,7 +4021,7 @@
         <v>90</v>
       </c>
       <c r="B81">
-        <v>53.5</v>
+        <v>51.9</v>
       </c>
       <c r="C81">
         <v>26.5</v>
@@ -4034,7 +4033,7 @@
         <v>375.3</v>
       </c>
       <c r="F81" s="2">
-        <v>1417.75</v>
+        <v>1375.35</v>
       </c>
       <c r="G81">
         <v>0.02</v>
@@ -4043,13 +4042,13 @@
         <v>3.528</v>
       </c>
       <c r="I81">
-        <v>15.163</v>
+        <v>14.709</v>
       </c>
       <c r="J81">
         <v>14.16</v>
       </c>
       <c r="K81">
-        <v>3.77</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4057,7 +4056,7 @@
         <v>91</v>
       </c>
       <c r="B82">
-        <v>12.07</v>
+        <v>11.34</v>
       </c>
       <c r="C82">
         <v>60</v>
@@ -4069,7 +4068,7 @@
         <v>257.07</v>
       </c>
       <c r="F82" s="2">
-        <v>724.2</v>
+        <v>680.4</v>
       </c>
       <c r="G82">
         <v>0.01</v>
@@ -4084,15 +4083,15 @@
         <v>4.28</v>
       </c>
       <c r="K82">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>92</v>
       </c>
       <c r="B83">
-        <v>114.9</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2">
         <v>82</v>
@@ -4104,7 +4103,7 @@
         <v>1432.29</v>
       </c>
       <c r="F83" s="2">
-        <v>9421.7999999999993</v>
+        <v>9348</v>
       </c>
       <c r="G83">
         <v>0.1</v>
@@ -4113,13 +4112,13 @@
         <v>4.3449999999999998</v>
       </c>
       <c r="I83">
-        <v>26.440999999999999</v>
+        <v>26.234000000000002</v>
       </c>
       <c r="J83">
         <v>17.46</v>
       </c>
       <c r="K83">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4136,22 +4135,22 @@
         <v>3842.87</v>
       </c>
       <c r="F84" s="2">
-        <v>18801.75</v>
+        <v>18468</v>
       </c>
       <c r="G84">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H84">
         <v>0.45</v>
       </c>
       <c r="I84">
-        <v>22.556999999999999</v>
+        <v>22.189</v>
       </c>
       <c r="J84">
         <v>3.12</v>
       </c>
       <c r="K84">
-        <v>4.8899999999999997</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4159,7 +4158,7 @@
         <v>94</v>
       </c>
       <c r="B85">
-        <v>34</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="C85">
         <v>81.599999999999994</v>
@@ -4171,7 +4170,7 @@
         <v>1494</v>
       </c>
       <c r="F85" s="2">
-        <v>2774.4</v>
+        <v>2717.28</v>
       </c>
       <c r="G85">
         <v>0.03</v>
@@ -4180,13 +4179,13 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I85">
-        <v>61.515999999999998</v>
+        <v>60.25</v>
       </c>
       <c r="J85">
         <v>18.3</v>
       </c>
       <c r="K85">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4194,7 +4193,7 @@
         <v>95</v>
       </c>
       <c r="B86">
-        <v>50.1</v>
+        <v>49.14</v>
       </c>
       <c r="C86">
         <v>188</v>
@@ -4206,7 +4205,7 @@
         <v>2423.3200000000002</v>
       </c>
       <c r="F86" s="2">
-        <v>9418.7999999999993</v>
+        <v>9238.32</v>
       </c>
       <c r="G86">
         <v>0.1</v>
@@ -4215,13 +4214,13 @@
         <v>1.88</v>
       </c>
       <c r="I86">
-        <v>26.643999999999998</v>
+        <v>26.132999999999999</v>
       </c>
       <c r="J86">
         <v>12.89</v>
       </c>
       <c r="K86">
-        <v>3.88</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,7 +4228,7 @@
         <v>96</v>
       </c>
       <c r="B87">
-        <v>13.57</v>
+        <v>13.3</v>
       </c>
       <c r="C87">
         <v>125</v>
@@ -4241,7 +4240,7 @@
         <v>897.57</v>
       </c>
       <c r="F87" s="2">
-        <v>1696.25</v>
+        <v>1662.5</v>
       </c>
       <c r="G87">
         <v>0.02</v>
@@ -4250,13 +4249,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="I87">
-        <v>38.841999999999999</v>
+        <v>38.069000000000003</v>
       </c>
       <c r="J87">
         <v>7.18</v>
       </c>
       <c r="K87">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4264,7 +4263,7 @@
         <v>97</v>
       </c>
       <c r="B88">
-        <v>70.25</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C88">
         <v>78.165999999999997</v>
@@ -4276,7 +4275,7 @@
         <v>2821.3</v>
       </c>
       <c r="F88" s="2">
-        <v>5491.16</v>
+        <v>5581.05</v>
       </c>
       <c r="G88">
         <v>0.06</v>
@@ -4285,13 +4284,13 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="I88">
-        <v>16.811</v>
+        <v>17.085999999999999</v>
       </c>
       <c r="J88">
         <v>36.090000000000003</v>
       </c>
       <c r="K88">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4299,7 +4298,7 @@
         <v>98</v>
       </c>
       <c r="B89">
-        <v>62.7</v>
+        <v>61.85</v>
       </c>
       <c r="C89">
         <v>43</v>
@@ -4311,7 +4310,7 @@
         <v>850.43</v>
       </c>
       <c r="F89" s="2">
-        <v>2696.1</v>
+        <v>2659.55</v>
       </c>
       <c r="G89">
         <v>0.03</v>
@@ -4320,13 +4319,13 @@
         <v>4.3630000000000004</v>
       </c>
       <c r="I89">
-        <v>14.372</v>
+        <v>14.177</v>
       </c>
       <c r="J89">
         <v>19.77</v>
       </c>
       <c r="K89">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4334,7 +4333,7 @@
         <v>99</v>
       </c>
       <c r="B90">
-        <v>61.8</v>
+        <v>59.55</v>
       </c>
       <c r="C90">
         <v>55</v>
@@ -4346,7 +4345,7 @@
         <v>1265.3900000000001</v>
       </c>
       <c r="F90" s="2">
-        <v>3399</v>
+        <v>3275.25</v>
       </c>
       <c r="G90">
         <v>0.04</v>
@@ -4355,13 +4354,13 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="I90">
-        <v>18.007999999999999</v>
+        <v>17.353000000000002</v>
       </c>
       <c r="J90">
         <v>23</v>
       </c>
       <c r="K90">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4369,7 +4368,7 @@
         <v>100</v>
       </c>
       <c r="B91">
-        <v>171.8</v>
+        <v>170.6</v>
       </c>
       <c r="C91">
         <v>80</v>
@@ -4381,7 +4380,7 @@
         <v>1449</v>
       </c>
       <c r="F91" s="2">
-        <v>13744</v>
+        <v>13648</v>
       </c>
       <c r="G91">
         <v>0.15</v>
@@ -4390,21 +4389,21 @@
         <v>7.5759999999999996</v>
       </c>
       <c r="I91">
-        <v>22.675999999999998</v>
+        <v>22.518000000000001</v>
       </c>
       <c r="J91">
         <v>18.11</v>
       </c>
       <c r="K91">
-        <v>9.48</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" t="s">
         <v>295</v>
       </c>
       <c r="B92">
-        <v>71.45</v>
+        <v>70.95</v>
       </c>
       <c r="C92">
         <v>170.851</v>
@@ -4416,7 +4415,7 @@
         <v>1790.9</v>
       </c>
       <c r="F92" s="2">
-        <v>12207.3</v>
+        <v>12121.88</v>
       </c>
       <c r="G92">
         <v>0.14000000000000001</v>
@@ -4425,13 +4424,13 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="I92">
-        <v>28.242999999999999</v>
+        <v>28.045000000000002</v>
       </c>
       <c r="J92">
         <v>10.48</v>
       </c>
       <c r="K92">
-        <v>6.81</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4448,7 +4447,7 @@
         <v>12991.91</v>
       </c>
       <c r="F93" s="2">
-        <v>51427.01</v>
+        <v>50903.83</v>
       </c>
       <c r="G93">
         <v>0.56999999999999995</v>
@@ -4457,13 +4456,13 @@
         <v>2.6579999999999999</v>
       </c>
       <c r="I93">
-        <v>23.552</v>
+        <v>23.312999999999999</v>
       </c>
       <c r="J93">
         <v>15.81</v>
       </c>
       <c r="K93">
-        <v>3.96</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4471,7 +4470,7 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>104</v>
+        <v>102.7</v>
       </c>
       <c r="C94">
         <v>10.897</v>
@@ -4483,7 +4482,7 @@
         <v>39.29</v>
       </c>
       <c r="F94" s="2">
-        <v>1133.29</v>
+        <v>1119.1199999999999</v>
       </c>
       <c r="G94">
         <v>0.01</v>
@@ -4498,7 +4497,7 @@
         <v>3.6</v>
       </c>
       <c r="K94">
-        <v>28.84</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,7 +4505,7 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>34.159999999999997</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="C95">
         <v>13.5</v>
@@ -4518,7 +4517,7 @@
         <v>64.38</v>
       </c>
       <c r="F95" s="2">
-        <v>461.16</v>
+        <v>463.59</v>
       </c>
       <c r="G95">
         <v>0.01</v>
@@ -4533,7 +4532,7 @@
         <v>4.76</v>
       </c>
       <c r="K95">
-        <v>7.16</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4541,7 +4540,7 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="C96">
         <v>81.25</v>
@@ -4553,7 +4552,7 @@
         <v>1043.97</v>
       </c>
       <c r="F96" s="2">
-        <v>1031.8800000000001</v>
+        <v>1016.44</v>
       </c>
       <c r="G96">
         <v>0.01</v>
@@ -4568,7 +4567,7 @@
         <v>12.84</v>
       </c>
       <c r="K96">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4576,7 +4575,7 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>12.59</v>
+        <v>13.09</v>
       </c>
       <c r="C97">
         <v>57.5</v>
@@ -4588,7 +4587,7 @@
         <v>293.3</v>
       </c>
       <c r="F97" s="2">
-        <v>723.93</v>
+        <v>752.68</v>
       </c>
       <c r="G97">
         <v>0.01</v>
@@ -4603,7 +4602,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K97">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4611,7 +4610,7 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>4.07</v>
+        <v>3.86</v>
       </c>
       <c r="C98">
         <v>400</v>
@@ -4623,7 +4622,7 @@
         <v>614.85</v>
       </c>
       <c r="F98" s="2">
-        <v>1628</v>
+        <v>1544</v>
       </c>
       <c r="G98">
         <v>0.02</v>
@@ -4632,21 +4631,21 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I98">
-        <v>15.231999999999999</v>
+        <v>14.446</v>
       </c>
       <c r="J98">
         <v>1.53</v>
       </c>
       <c r="K98">
-        <v>2.64</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="B99">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="C99">
         <v>275</v>
@@ -4658,7 +4657,7 @@
         <v>465.35</v>
       </c>
       <c r="F99" s="2">
-        <v>918.5</v>
+        <v>885.5</v>
       </c>
       <c r="G99">
         <v>0.01</v>
@@ -4667,13 +4666,13 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I99">
-        <v>79.869</v>
+        <v>77</v>
       </c>
       <c r="J99">
         <v>1.69</v>
       </c>
       <c r="K99">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4690,7 +4689,7 @@
         <v>2521.14</v>
       </c>
       <c r="F100" s="2">
-        <v>5896.76</v>
+        <v>5781.33</v>
       </c>
       <c r="G100">
         <v>7.0000000000000007E-2</v>
@@ -4699,13 +4698,13 @@
         <v>-0.121</v>
       </c>
       <c r="I100">
-        <v>21.510999999999999</v>
+        <v>20.523</v>
       </c>
       <c r="J100">
         <v>3.01</v>
       </c>
       <c r="K100">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4713,7 +4712,7 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>26.08</v>
+        <v>25.96</v>
       </c>
       <c r="C101">
         <v>300</v>
@@ -4725,7 +4724,7 @@
         <v>5992</v>
       </c>
       <c r="F101" s="2">
-        <v>7824</v>
+        <v>7788</v>
       </c>
       <c r="G101">
         <v>0.09</v>
@@ -4740,7 +4739,7 @@
         <v>19.97</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4748,7 +4747,7 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>2.39</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C102" s="2">
         <v>315</v>
@@ -4760,7 +4759,7 @@
         <v>191.56</v>
       </c>
       <c r="F102" s="2">
-        <v>752.85</v>
+        <v>796.95</v>
       </c>
       <c r="G102">
         <v>0.01</v>
@@ -4775,7 +4774,7 @@
         <v>0.6</v>
       </c>
       <c r="K102">
-        <v>3.93</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4783,7 +4782,7 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>139.19999999999999</v>
+        <v>140</v>
       </c>
       <c r="C103" s="2">
         <v>52.383000000000003</v>
@@ -4795,7 +4794,7 @@
         <v>1238</v>
       </c>
       <c r="F103" s="2">
-        <v>7291.71</v>
+        <v>7333.62</v>
       </c>
       <c r="G103">
         <v>0.08</v>
@@ -4804,13 +4803,13 @@
         <v>8.266</v>
       </c>
       <c r="I103">
-        <v>16.838999999999999</v>
+        <v>16.936</v>
       </c>
       <c r="J103">
         <v>23.63</v>
       </c>
       <c r="K103">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4818,7 +4817,7 @@
         <v>112</v>
       </c>
       <c r="B104">
-        <v>1.22</v>
+        <v>0.94</v>
       </c>
       <c r="C104" s="2">
         <v>1156.472</v>
@@ -4830,22 +4829,22 @@
         <v>504.42</v>
       </c>
       <c r="F104" s="2">
-        <v>1410.9</v>
+        <v>1087.08</v>
       </c>
       <c r="G104">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H104">
         <v>1E-3</v>
       </c>
       <c r="I104">
-        <v>1343.7139999999999</v>
+        <v>1035.3140000000001</v>
       </c>
       <c r="J104">
         <v>0.43</v>
       </c>
       <c r="K104">
-        <v>2.79</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4853,7 +4852,7 @@
         <v>113</v>
       </c>
       <c r="B105">
-        <v>24.7</v>
+        <v>24.14</v>
       </c>
       <c r="C105">
         <v>65</v>
@@ -4865,7 +4864,7 @@
         <v>522.6</v>
       </c>
       <c r="F105" s="2">
-        <v>1605.5</v>
+        <v>1569.1</v>
       </c>
       <c r="G105">
         <v>0.02</v>
@@ -4874,13 +4873,13 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I105">
-        <v>93.942999999999998</v>
+        <v>91.813000000000002</v>
       </c>
       <c r="J105">
         <v>8.0399999999999991</v>
       </c>
       <c r="K105">
-        <v>3.07</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4888,7 +4887,7 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>165.8</v>
+        <v>165.2</v>
       </c>
       <c r="C106">
         <v>43</v>
@@ -4900,7 +4899,7 @@
         <v>781.31</v>
       </c>
       <c r="F106" s="2">
-        <v>7129.4</v>
+        <v>7103.6</v>
       </c>
       <c r="G106">
         <v>0.08</v>
@@ -4909,13 +4908,13 @@
         <v>3.9769999999999999</v>
       </c>
       <c r="I106">
-        <v>41.692</v>
+        <v>41.540999999999997</v>
       </c>
       <c r="J106">
         <v>18.16</v>
       </c>
       <c r="K106">
-        <v>9.1199999999999992</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4923,7 +4922,7 @@
         <v>115</v>
       </c>
       <c r="B107">
-        <v>63.15</v>
+        <v>60.95</v>
       </c>
       <c r="C107">
         <v>42.087000000000003</v>
@@ -4935,7 +4934,7 @@
         <v>789.11</v>
       </c>
       <c r="F107" s="2">
-        <v>2657.79</v>
+        <v>2565.1999999999998</v>
       </c>
       <c r="G107">
         <v>0.03</v>
@@ -4944,13 +4943,13 @@
         <v>1.669</v>
       </c>
       <c r="I107">
-        <v>37.826999999999998</v>
+        <v>36.51</v>
       </c>
       <c r="J107">
         <v>18.739999999999998</v>
       </c>
       <c r="K107">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4958,7 +4957,7 @@
         <v>116</v>
       </c>
       <c r="B108">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="C108">
         <v>64.680000000000007</v>
@@ -4970,7 +4969,7 @@
         <v>906.39</v>
       </c>
       <c r="F108" s="2">
-        <v>1701.08</v>
+        <v>1642.87</v>
       </c>
       <c r="G108">
         <v>0.02</v>
@@ -4985,7 +4984,7 @@
         <v>14.01</v>
       </c>
       <c r="K108">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4993,7 +4992,7 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>14.24</v>
+        <v>13.4</v>
       </c>
       <c r="C109">
         <v>15.808</v>
@@ -5005,7 +5004,7 @@
         <v>73.14</v>
       </c>
       <c r="F109" s="2">
-        <v>225.11</v>
+        <v>211.83</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -5020,7 +5019,7 @@
         <v>4.62</v>
       </c>
       <c r="K109">
-        <v>3.07</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5028,7 +5027,7 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>101.9</v>
+        <v>102.4</v>
       </c>
       <c r="C110" s="2">
         <v>3</v>
@@ -5040,7 +5039,7 @@
         <v>23.69</v>
       </c>
       <c r="F110" s="2">
-        <v>305.7</v>
+        <v>307.2</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -5049,13 +5048,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="I110">
-        <v>213.77600000000001</v>
+        <v>214.82499999999999</v>
       </c>
       <c r="J110">
         <v>7.89</v>
       </c>
       <c r="K110">
-        <v>12.9</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5063,7 +5062,7 @@
         <v>119</v>
       </c>
       <c r="B111">
-        <v>52.5</v>
+        <v>51.15</v>
       </c>
       <c r="C111" s="2">
         <v>25.5</v>
@@ -5075,7 +5074,7 @@
         <v>284.67</v>
       </c>
       <c r="F111" s="2">
-        <v>1338.75</v>
+        <v>1304.33</v>
       </c>
       <c r="G111">
         <v>0.01</v>
@@ -5084,13 +5083,13 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="I111">
-        <v>26.286000000000001</v>
+        <v>25.61</v>
       </c>
       <c r="J111">
         <v>11.16</v>
       </c>
       <c r="K111">
-        <v>4.7</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5098,7 +5097,7 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="C112" s="2">
         <v>8423.6329999999998</v>
@@ -5110,22 +5109,22 @@
         <v>1608.2</v>
       </c>
       <c r="F112" s="2">
-        <v>18953.169999999998</v>
+        <v>18279.28</v>
       </c>
       <c r="G112">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H112">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I112">
-        <v>30.934000000000001</v>
+        <v>29.834</v>
       </c>
       <c r="J112">
         <v>0.19</v>
       </c>
       <c r="K112">
-        <v>11.78</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5133,7 +5132,7 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>15.9</v>
+        <v>15.36</v>
       </c>
       <c r="C113" s="2">
         <v>35</v>
@@ -5145,7 +5144,7 @@
         <v>74.260000000000005</v>
       </c>
       <c r="F113" s="2">
-        <v>556.5</v>
+        <v>537.6</v>
       </c>
       <c r="G113">
         <v>0.01</v>
@@ -5154,21 +5153,21 @@
         <v>0.154</v>
       </c>
       <c r="I113">
-        <v>103.438</v>
+        <v>99.924999999999997</v>
       </c>
       <c r="J113">
         <v>2.12</v>
       </c>
       <c r="K113">
-        <v>7.49</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" t="s">
         <v>122</v>
       </c>
       <c r="B114">
-        <v>26.82</v>
+        <v>26.3</v>
       </c>
       <c r="C114" s="2">
         <v>209.83600000000001</v>
@@ -5180,7 +5179,7 @@
         <v>1277.28</v>
       </c>
       <c r="F114" s="2">
-        <v>5627.8</v>
+        <v>5518.69</v>
       </c>
       <c r="G114">
         <v>0.06</v>
@@ -5189,48 +5188,48 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="I114">
-        <v>26.689</v>
+        <v>26.172000000000001</v>
       </c>
       <c r="J114">
         <v>6.08</v>
       </c>
       <c r="K114">
-        <v>4.4000000000000004</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B115">
-        <v>10.18</v>
+        <v>12.37</v>
       </c>
       <c r="C115">
         <v>114.4</v>
       </c>
-      <c r="D115" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>32</v>
+      <c r="D115">
+        <v>37.47</v>
+      </c>
+      <c r="E115" s="2">
+        <v>171.1</v>
       </c>
       <c r="F115" s="2">
-        <v>1164.5899999999999</v>
+        <v>1415.13</v>
       </c>
       <c r="G115">
-        <v>0.01</v>
-      </c>
-      <c r="H115" t="s">
-        <v>32</v>
-      </c>
-      <c r="I115" t="s">
-        <v>32</v>
-      </c>
-      <c r="J115" t="s">
-        <v>32</v>
-      </c>
-      <c r="K115" t="s">
-        <v>32</v>
+        <v>0.02</v>
+      </c>
+      <c r="H115">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="I115">
+        <v>37.767000000000003</v>
+      </c>
+      <c r="J115">
+        <v>1.49</v>
+      </c>
+      <c r="K115">
+        <v>8.27</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5241,28 +5240,28 @@
         <v>10865.799000000001</v>
       </c>
       <c r="D116" s="2">
-        <v>1198.6199999999999</v>
+        <v>1236.0899999999999</v>
       </c>
       <c r="E116" s="2">
-        <v>14266.63</v>
+        <v>14437.73</v>
       </c>
       <c r="F116" s="2">
-        <v>58544.85</v>
+        <v>57460.480000000003</v>
       </c>
       <c r="G116">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="H116">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="I116">
-        <v>29.788</v>
+        <v>29.184000000000001</v>
       </c>
       <c r="J116">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="K116">
-        <v>4.0999999999999996</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5270,7 +5269,7 @@
         <v>124</v>
       </c>
       <c r="B117">
-        <v>16.2</v>
+        <v>16.32</v>
       </c>
       <c r="C117">
         <v>40</v>
@@ -5282,7 +5281,7 @@
         <v>203.16</v>
       </c>
       <c r="F117" s="2">
-        <v>648</v>
+        <v>652.79999999999995</v>
       </c>
       <c r="G117">
         <v>0.01</v>
@@ -5297,7 +5296,7 @@
         <v>5.07</v>
       </c>
       <c r="K117">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5305,7 +5304,7 @@
         <v>125</v>
       </c>
       <c r="B118">
-        <v>98.9</v>
+        <v>96.4</v>
       </c>
       <c r="C118">
         <v>55</v>
@@ -5317,7 +5316,7 @@
         <v>1420.63</v>
       </c>
       <c r="F118" s="2">
-        <v>5439.5</v>
+        <v>5302</v>
       </c>
       <c r="G118">
         <v>0.06</v>
@@ -5326,21 +5325,21 @@
         <v>3.976</v>
       </c>
       <c r="I118">
-        <v>24.873000000000001</v>
+        <v>24.244</v>
       </c>
       <c r="J118">
         <v>25.82</v>
       </c>
       <c r="K118">
-        <v>3.82</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" t="s">
         <v>126</v>
       </c>
       <c r="B119">
-        <v>32.24</v>
+        <v>30.64</v>
       </c>
       <c r="C119">
         <v>332.5</v>
@@ -5352,22 +5351,22 @@
         <v>4401.58</v>
       </c>
       <c r="F119" s="2">
-        <v>10719.8</v>
+        <v>10187.799999999999</v>
       </c>
       <c r="G119">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H119">
         <v>1.7090000000000001</v>
       </c>
       <c r="I119">
-        <v>18.86</v>
+        <v>17.923999999999999</v>
       </c>
       <c r="J119">
         <v>13.23</v>
       </c>
       <c r="K119">
-        <v>2.4300000000000002</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5375,7 +5374,7 @@
         <v>127</v>
       </c>
       <c r="B120">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C120">
         <v>80</v>
@@ -5387,7 +5386,7 @@
         <v>3251.98</v>
       </c>
       <c r="F120" s="2">
-        <v>14480</v>
+        <v>14400</v>
       </c>
       <c r="G120">
         <v>0.16</v>
@@ -5396,13 +5395,13 @@
         <v>1.8220000000000001</v>
       </c>
       <c r="I120">
-        <v>99.340999999999994</v>
+        <v>98.792000000000002</v>
       </c>
       <c r="J120">
         <v>40.64</v>
       </c>
       <c r="K120">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5419,22 +5418,22 @@
         <v>9277.35</v>
       </c>
       <c r="F121" s="2">
-        <v>31287.3</v>
+        <v>30542.6</v>
       </c>
       <c r="G121">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H121">
         <v>1.8140000000000001</v>
       </c>
       <c r="I121">
-        <v>32.845999999999997</v>
+        <v>32.042999999999999</v>
       </c>
       <c r="J121">
         <v>18.28</v>
       </c>
       <c r="K121">
-        <v>3.37</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5442,7 +5441,7 @@
         <v>129</v>
       </c>
       <c r="B122">
-        <v>88.6</v>
+        <v>89.75</v>
       </c>
       <c r="C122">
         <v>80</v>
@@ -5454,7 +5453,7 @@
         <v>1569.05</v>
       </c>
       <c r="F122" s="2">
-        <v>7088</v>
+        <v>7180</v>
       </c>
       <c r="G122">
         <v>0.08</v>
@@ -5463,13 +5462,13 @@
         <v>6.8</v>
       </c>
       <c r="I122">
-        <v>13.028</v>
+        <v>13.198</v>
       </c>
       <c r="J122">
         <v>19.61</v>
       </c>
       <c r="K122">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5477,7 +5476,7 @@
         <v>130</v>
       </c>
       <c r="B123">
-        <v>28</v>
+        <v>28.44</v>
       </c>
       <c r="C123" s="2">
         <v>36</v>
@@ -5489,7 +5488,7 @@
         <v>331.15</v>
       </c>
       <c r="F123" s="2">
-        <v>1008</v>
+        <v>1023.84</v>
       </c>
       <c r="G123">
         <v>0.01</v>
@@ -5504,7 +5503,7 @@
         <v>9.19</v>
       </c>
       <c r="K123">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5512,7 +5511,7 @@
         <v>131</v>
       </c>
       <c r="B124">
-        <v>54.85</v>
+        <v>51.25</v>
       </c>
       <c r="C124" s="2">
         <v>70</v>
@@ -5524,7 +5523,7 @@
         <v>853.88</v>
       </c>
       <c r="F124" s="2">
-        <v>3839.5</v>
+        <v>3587.5</v>
       </c>
       <c r="G124">
         <v>0.04</v>
@@ -5533,13 +5532,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I124">
-        <v>99.753</v>
+        <v>93.206000000000003</v>
       </c>
       <c r="J124">
         <v>12.19</v>
       </c>
       <c r="K124">
-        <v>4.49</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5547,7 +5546,7 @@
         <v>132</v>
       </c>
       <c r="B125">
-        <v>5.75</v>
+        <v>5.66</v>
       </c>
       <c r="C125">
         <v>101.25</v>
@@ -5559,7 +5558,7 @@
         <v>207.79</v>
       </c>
       <c r="F125" s="2">
-        <v>582.19000000000005</v>
+        <v>573.08000000000004</v>
       </c>
       <c r="G125">
         <v>0.01</v>
@@ -5568,13 +5567,13 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="I125">
-        <v>24.858000000000001</v>
+        <v>24.469000000000001</v>
       </c>
       <c r="J125">
         <v>2.0499999999999998</v>
       </c>
       <c r="K125">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5582,7 +5581,7 @@
         <v>133</v>
       </c>
       <c r="B126">
-        <v>12.83</v>
+        <v>12.79</v>
       </c>
       <c r="C126" s="2">
         <v>1200</v>
@@ -5594,7 +5593,7 @@
         <v>1686.2</v>
       </c>
       <c r="F126" s="2">
-        <v>15396</v>
+        <v>15348</v>
       </c>
       <c r="G126">
         <v>0.17</v>
@@ -5603,13 +5602,13 @@
         <v>0.81</v>
       </c>
       <c r="I126">
-        <v>15.840999999999999</v>
+        <v>15.791</v>
       </c>
       <c r="J126">
         <v>1.4</v>
       </c>
       <c r="K126">
-        <v>9.1300000000000008</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5617,7 +5616,7 @@
         <v>134</v>
       </c>
       <c r="B127">
-        <v>39</v>
+        <v>37.979999999999997</v>
       </c>
       <c r="C127">
         <v>20</v>
@@ -5629,7 +5628,7 @@
         <v>240.37</v>
       </c>
       <c r="F127" s="2">
-        <v>780</v>
+        <v>759.6</v>
       </c>
       <c r="G127">
         <v>0.01</v>
@@ -5638,13 +5637,13 @@
         <v>1.107</v>
       </c>
       <c r="I127">
-        <v>35.246000000000002</v>
+        <v>34.323999999999998</v>
       </c>
       <c r="J127">
         <v>12.01</v>
       </c>
       <c r="K127">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5652,7 +5651,7 @@
         <v>135</v>
       </c>
       <c r="B128">
-        <v>7.1</v>
+        <v>7.03</v>
       </c>
       <c r="C128" s="2">
         <v>350</v>
@@ -5664,7 +5663,7 @@
         <v>474.37</v>
       </c>
       <c r="F128" s="2">
-        <v>2485</v>
+        <v>2460.5</v>
       </c>
       <c r="G128">
         <v>0.03</v>
@@ -5673,21 +5672,21 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="I128">
-        <v>59.908000000000001</v>
+        <v>59.317</v>
       </c>
       <c r="J128">
         <v>1.35</v>
       </c>
       <c r="K128">
-        <v>5.23</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" t="s">
         <v>136</v>
       </c>
       <c r="B129">
-        <v>30.56</v>
+        <v>29.7</v>
       </c>
       <c r="C129" s="2">
         <v>115.5</v>
@@ -5699,7 +5698,7 @@
         <v>400.6</v>
       </c>
       <c r="F129" s="2">
-        <v>3529.68</v>
+        <v>3430.35</v>
       </c>
       <c r="G129">
         <v>0.04</v>
@@ -5708,13 +5707,13 @@
         <v>0.64</v>
       </c>
       <c r="I129">
-        <v>47.716999999999999</v>
+        <v>46.374000000000002</v>
       </c>
       <c r="J129">
         <v>3.46</v>
       </c>
       <c r="K129">
-        <v>8.81</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5722,7 +5721,7 @@
         <v>137</v>
       </c>
       <c r="B130">
-        <v>29.46</v>
+        <v>28.14</v>
       </c>
       <c r="C130">
         <v>114.76600000000001</v>
@@ -5734,7 +5733,7 @@
         <v>32</v>
       </c>
       <c r="F130" s="2">
-        <v>3381.01</v>
+        <v>3229.52</v>
       </c>
       <c r="G130">
         <v>0.04</v>
@@ -5766,7 +5765,7 @@
         <v>5763.41</v>
       </c>
       <c r="F131" s="2">
-        <v>38089.379999999997</v>
+        <v>37592.39</v>
       </c>
       <c r="G131">
         <v>0.43</v>
@@ -5775,13 +5774,13 @@
         <v>0.82</v>
       </c>
       <c r="I131">
-        <v>19.646000000000001</v>
+        <v>19.434999999999999</v>
       </c>
       <c r="J131">
         <v>2.76</v>
       </c>
       <c r="K131">
-        <v>6.61</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5789,7 +5788,7 @@
         <v>139</v>
       </c>
       <c r="B132">
-        <v>7.51</v>
+        <v>7.3</v>
       </c>
       <c r="C132">
         <v>900</v>
@@ -5801,7 +5800,7 @@
         <v>1352.04</v>
       </c>
       <c r="F132" s="2">
-        <v>6759</v>
+        <v>6570</v>
       </c>
       <c r="G132">
         <v>7.0000000000000007E-2</v>
@@ -5810,13 +5809,13 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="I132">
-        <v>14.1</v>
+        <v>13.706</v>
       </c>
       <c r="J132">
         <v>1.5</v>
       </c>
       <c r="K132">
-        <v>4.99</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5824,7 +5823,7 @@
         <v>140</v>
       </c>
       <c r="B133">
-        <v>17.02</v>
+        <v>16.45</v>
       </c>
       <c r="C133" s="2">
         <v>45</v>
@@ -5836,7 +5835,7 @@
         <v>690.64</v>
       </c>
       <c r="F133" s="2">
-        <v>765.9</v>
+        <v>740.25</v>
       </c>
       <c r="G133">
         <v>0.01</v>
@@ -5845,13 +5844,13 @@
         <v>0.54</v>
       </c>
       <c r="I133">
-        <v>31.518000000000001</v>
+        <v>30.462</v>
       </c>
       <c r="J133">
         <v>15.34</v>
       </c>
       <c r="K133">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5859,7 +5858,7 @@
         <v>141</v>
       </c>
       <c r="B134">
-        <v>15.31</v>
+        <v>14.81</v>
       </c>
       <c r="C134" s="2">
         <v>31.5</v>
@@ -5871,7 +5870,7 @@
         <v>261.01</v>
       </c>
       <c r="F134" s="2">
-        <v>482.27</v>
+        <v>466.52</v>
       </c>
       <c r="G134">
         <v>0.01</v>
@@ -5886,7 +5885,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="K134">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5894,7 +5893,7 @@
         <v>142</v>
       </c>
       <c r="B135">
-        <v>32.64</v>
+        <v>38.68</v>
       </c>
       <c r="C135">
         <v>6.5</v>
@@ -5906,7 +5905,7 @@
         <v>20.41</v>
       </c>
       <c r="F135" s="2">
-        <v>212.16</v>
+        <v>251.42</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
@@ -5921,7 +5920,7 @@
         <v>3.14</v>
       </c>
       <c r="K135">
-        <v>10.39</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5929,7 +5928,7 @@
         <v>143</v>
       </c>
       <c r="B136">
-        <v>6.02</v>
+        <v>5.85</v>
       </c>
       <c r="C136" s="2">
         <v>1143</v>
@@ -5941,22 +5940,22 @@
         <v>1357.23</v>
       </c>
       <c r="F136" s="2">
-        <v>6880.86</v>
+        <v>6686.55</v>
       </c>
       <c r="G136">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H136">
         <v>0.25</v>
       </c>
       <c r="I136">
-        <v>24.106999999999999</v>
+        <v>23.427</v>
       </c>
       <c r="J136">
         <v>1.18</v>
       </c>
       <c r="K136">
-        <v>5.0599999999999996</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5964,7 +5963,7 @@
         <v>144</v>
       </c>
       <c r="B137">
-        <v>68.55</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2">
         <v>60</v>
@@ -5976,30 +5975,30 @@
         <v>1050</v>
       </c>
       <c r="F137" s="2">
-        <v>4113</v>
+        <v>3900</v>
       </c>
       <c r="G137">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H137">
         <v>3.41</v>
       </c>
       <c r="I137">
-        <v>20.102</v>
+        <v>19.061</v>
       </c>
       <c r="J137">
         <v>17.5</v>
       </c>
       <c r="K137">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" t="s">
         <v>145</v>
       </c>
       <c r="B138">
-        <v>76.400000000000006</v>
+        <v>73.75</v>
       </c>
       <c r="C138" s="2">
         <v>85</v>
@@ -6011,7 +6010,7 @@
         <v>1496.75</v>
       </c>
       <c r="F138" s="2">
-        <v>6494</v>
+        <v>6268.75</v>
       </c>
       <c r="G138">
         <v>7.0000000000000007E-2</v>
@@ -6020,13 +6019,13 @@
         <v>4.47</v>
       </c>
       <c r="I138">
-        <v>17.091000000000001</v>
+        <v>16.498000000000001</v>
       </c>
       <c r="J138">
         <v>17.600000000000001</v>
       </c>
       <c r="K138">
-        <v>4.33</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6034,7 +6033,7 @@
         <v>146</v>
       </c>
       <c r="B139">
-        <v>129.4</v>
+        <v>123.8</v>
       </c>
       <c r="C139">
         <v>130</v>
@@ -6046,22 +6045,22 @@
         <v>2449.1</v>
       </c>
       <c r="F139" s="2">
-        <v>16822</v>
+        <v>16094</v>
       </c>
       <c r="G139">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H139">
         <v>6.4850000000000003</v>
       </c>
       <c r="I139">
-        <v>19.954000000000001</v>
+        <v>19.091000000000001</v>
       </c>
       <c r="J139">
         <v>18.829999999999998</v>
       </c>
       <c r="K139">
-        <v>6.86</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6078,22 +6077,22 @@
         <v>8677.18</v>
       </c>
       <c r="F140" s="2">
-        <v>42529.19</v>
+        <v>40977.49</v>
       </c>
       <c r="G140">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="H140">
         <v>0.91500000000000004</v>
       </c>
       <c r="I140">
-        <v>18.873000000000001</v>
+        <v>18.163</v>
       </c>
       <c r="J140">
         <v>3.61</v>
       </c>
       <c r="K140">
-        <v>4.9000000000000004</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6101,7 +6100,7 @@
         <v>148</v>
       </c>
       <c r="B141">
-        <v>25.6</v>
+        <v>24.44</v>
       </c>
       <c r="C141" s="2">
         <v>300</v>
@@ -6113,22 +6112,22 @@
         <v>4798.75</v>
       </c>
       <c r="F141" s="2">
-        <v>7680</v>
+        <v>7332</v>
       </c>
       <c r="G141">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H141">
         <v>32.716000000000001</v>
       </c>
       <c r="I141">
-        <v>0.78200000000000003</v>
+        <v>0.747</v>
       </c>
       <c r="J141">
         <v>15.99</v>
       </c>
       <c r="K141">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6136,7 +6135,7 @@
         <v>149</v>
       </c>
       <c r="B142">
-        <v>27.28</v>
+        <v>26.34</v>
       </c>
       <c r="C142" s="2">
         <v>23.151</v>
@@ -6148,7 +6147,7 @@
         <v>243.46</v>
       </c>
       <c r="F142" s="2">
-        <v>631.55999999999995</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="G142">
         <v>0.01</v>
@@ -6163,7 +6162,7 @@
         <v>10.51</v>
       </c>
       <c r="K142">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6171,7 +6170,7 @@
         <v>150</v>
       </c>
       <c r="B143">
-        <v>266.39999999999998</v>
+        <v>267.2</v>
       </c>
       <c r="C143">
         <v>32.5</v>
@@ -6183,7 +6182,7 @@
         <v>1649.77</v>
       </c>
       <c r="F143" s="2">
-        <v>8658</v>
+        <v>8684</v>
       </c>
       <c r="G143">
         <v>0.1</v>
@@ -6192,13 +6191,13 @@
         <v>14.863</v>
       </c>
       <c r="I143">
-        <v>17.922999999999998</v>
+        <v>17.977</v>
       </c>
       <c r="J143">
         <v>50.76</v>
       </c>
       <c r="K143">
-        <v>5.24</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6206,7 +6205,7 @@
         <v>151</v>
       </c>
       <c r="B144">
-        <v>47.84</v>
+        <v>47.26</v>
       </c>
       <c r="C144" s="2">
         <v>1000</v>
@@ -6218,7 +6217,7 @@
         <v>19703.05</v>
       </c>
       <c r="F144" s="2">
-        <v>47840</v>
+        <v>47260</v>
       </c>
       <c r="G144">
         <v>0.53</v>
@@ -6227,13 +6226,13 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="I144">
-        <v>20.338999999999999</v>
+        <v>20.091999999999999</v>
       </c>
       <c r="J144">
         <v>19.7</v>
       </c>
       <c r="K144">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6241,7 +6240,7 @@
         <v>152</v>
       </c>
       <c r="B145">
-        <v>88.8</v>
+        <v>88.2</v>
       </c>
       <c r="C145">
         <v>20</v>
@@ -6253,7 +6252,7 @@
         <v>700.9</v>
       </c>
       <c r="F145" s="2">
-        <v>1776</v>
+        <v>1764</v>
       </c>
       <c r="G145">
         <v>0.02</v>
@@ -6262,13 +6261,13 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I145">
-        <v>18.933</v>
+        <v>18.805</v>
       </c>
       <c r="J145">
         <v>35.04</v>
       </c>
       <c r="K145">
-        <v>2.5299999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6276,7 +6275,7 @@
         <v>153</v>
       </c>
       <c r="B146">
-        <v>51.2</v>
+        <v>49.3</v>
       </c>
       <c r="C146">
         <v>20</v>
@@ -6288,7 +6287,7 @@
         <v>277.77999999999997</v>
       </c>
       <c r="F146" s="2">
-        <v>1024</v>
+        <v>986</v>
       </c>
       <c r="G146">
         <v>0.01</v>
@@ -6297,13 +6296,13 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="I146">
-        <v>39.247999999999998</v>
+        <v>37.792000000000002</v>
       </c>
       <c r="J146">
         <v>13.88</v>
       </c>
       <c r="K146">
-        <v>3.68</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6311,7 +6310,7 @@
         <v>154</v>
       </c>
       <c r="B147">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="C147">
         <v>55.5</v>
@@ -6323,22 +6322,22 @@
         <v>951.96</v>
       </c>
       <c r="F147" s="2">
-        <v>3085.8</v>
+        <v>3146.85</v>
       </c>
       <c r="G147">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H147">
         <v>4.556</v>
       </c>
       <c r="I147">
-        <v>12.204000000000001</v>
+        <v>12.446</v>
       </c>
       <c r="J147">
         <v>17.149999999999999</v>
       </c>
       <c r="K147">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6346,7 +6345,7 @@
         <v>155</v>
       </c>
       <c r="B148">
-        <v>32.659999999999997</v>
+        <v>32.46</v>
       </c>
       <c r="C148">
         <v>81.831999999999994</v>
@@ -6358,7 +6357,7 @@
         <v>328.2</v>
       </c>
       <c r="F148" s="2">
-        <v>2672.63</v>
+        <v>2656.27</v>
       </c>
       <c r="G148">
         <v>0.03</v>
@@ -6367,13 +6366,13 @@
         <v>2.5579999999999998</v>
       </c>
       <c r="I148">
-        <v>12.766999999999999</v>
+        <v>12.689</v>
       </c>
       <c r="J148">
         <v>4.01</v>
       </c>
       <c r="K148">
-        <v>8.14</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6381,7 +6380,7 @@
         <v>156</v>
       </c>
       <c r="B149">
-        <v>45.04</v>
+        <v>44.3</v>
       </c>
       <c r="C149">
         <v>51.314999999999998</v>
@@ -6393,7 +6392,7 @@
         <v>1099.18</v>
       </c>
       <c r="F149" s="2">
-        <v>2311.23</v>
+        <v>2273.25</v>
       </c>
       <c r="G149">
         <v>0.03</v>
@@ -6402,13 +6401,13 @@
         <v>4.33</v>
       </c>
       <c r="I149">
-        <v>10.401999999999999</v>
+        <v>10.231</v>
       </c>
       <c r="J149">
         <v>21.42</v>
       </c>
       <c r="K149">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6416,7 +6415,7 @@
         <v>157</v>
       </c>
       <c r="B150">
-        <v>4.04</v>
+        <v>3.98</v>
       </c>
       <c r="C150">
         <v>540</v>
@@ -6428,7 +6427,7 @@
         <v>706.75</v>
       </c>
       <c r="F150" s="2">
-        <v>2181.6</v>
+        <v>2149.1999999999998</v>
       </c>
       <c r="G150">
         <v>0.02</v>
@@ -6437,13 +6436,13 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I150">
-        <v>12.462</v>
+        <v>12.276999999999999</v>
       </c>
       <c r="J150">
         <v>1.3</v>
       </c>
       <c r="K150">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6451,7 +6450,7 @@
         <v>158</v>
       </c>
       <c r="B151">
-        <v>41.8</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="C151">
         <v>30</v>
@@ -6463,7 +6462,7 @@
         <v>481.8</v>
       </c>
       <c r="F151" s="2">
-        <v>1254</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="G151">
         <v>0.01</v>
@@ -6472,13 +6471,13 @@
         <v>0.876</v>
       </c>
       <c r="I151">
-        <v>47.716000000000001</v>
+        <v>45.798999999999999</v>
       </c>
       <c r="J151">
         <v>16.059999999999999</v>
       </c>
       <c r="K151">
-        <v>2.6</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6486,7 +6485,7 @@
         <v>159</v>
       </c>
       <c r="B152">
-        <v>11.01</v>
+        <v>10.79</v>
       </c>
       <c r="C152">
         <v>126.38800000000001</v>
@@ -6498,7 +6497,7 @@
         <v>1184.5</v>
       </c>
       <c r="F152" s="2">
-        <v>1391.53</v>
+        <v>1363.73</v>
       </c>
       <c r="G152">
         <v>0.02</v>
@@ -6507,13 +6506,13 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I152">
-        <v>188.04400000000001</v>
+        <v>184.28700000000001</v>
       </c>
       <c r="J152">
         <v>9.3699999999999992</v>
       </c>
       <c r="K152">
-        <v>1.17</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6521,7 +6520,7 @@
         <v>160</v>
       </c>
       <c r="B153">
-        <v>42.18</v>
+        <v>41.1</v>
       </c>
       <c r="C153">
         <v>35.356999999999999</v>
@@ -6533,7 +6532,7 @@
         <v>301.48</v>
       </c>
       <c r="F153" s="2">
-        <v>1491.36</v>
+        <v>1453.17</v>
       </c>
       <c r="G153">
         <v>0.02</v>
@@ -6542,13 +6541,13 @@
         <v>1.718</v>
       </c>
       <c r="I153">
-        <v>24.556999999999999</v>
+        <v>23.928000000000001</v>
       </c>
       <c r="J153">
         <v>8.52</v>
       </c>
       <c r="K153">
-        <v>4.9400000000000004</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6556,7 +6555,7 @@
         <v>161</v>
       </c>
       <c r="B154">
-        <v>20.73</v>
+        <v>20.39</v>
       </c>
       <c r="C154">
         <v>301.64</v>
@@ -6568,7 +6567,7 @@
         <v>4400.12</v>
       </c>
       <c r="F154" s="2">
-        <v>6253</v>
+        <v>6150.44</v>
       </c>
       <c r="G154">
         <v>7.0000000000000007E-2</v>
@@ -6577,13 +6576,13 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="I154">
-        <v>8.0500000000000007</v>
+        <v>7.9180000000000001</v>
       </c>
       <c r="J154">
         <v>14.58</v>
       </c>
       <c r="K154">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6591,7 +6590,7 @@
         <v>162</v>
       </c>
       <c r="B155">
-        <v>16.57</v>
+        <v>16.02</v>
       </c>
       <c r="C155">
         <v>30</v>
@@ -6603,7 +6602,7 @@
         <v>303.17</v>
       </c>
       <c r="F155">
-        <v>497.1</v>
+        <v>480.6</v>
       </c>
       <c r="G155">
         <v>0.01</v>
@@ -6612,13 +6611,13 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I155">
-        <v>58.412999999999997</v>
+        <v>56.473999999999997</v>
       </c>
       <c r="J155">
         <v>10.1</v>
       </c>
       <c r="K155">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6626,7 +6625,7 @@
         <v>163</v>
       </c>
       <c r="B156">
-        <v>10.66</v>
+        <v>10.17</v>
       </c>
       <c r="C156">
         <v>39.176000000000002</v>
@@ -6638,7 +6637,7 @@
         <v>172.43</v>
       </c>
       <c r="F156" s="2">
-        <v>417.62</v>
+        <v>398.42</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -6653,7 +6652,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K156">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6661,7 +6660,7 @@
         <v>164</v>
       </c>
       <c r="B157">
-        <v>90.6</v>
+        <v>87.75</v>
       </c>
       <c r="C157">
         <v>6.6980000000000004</v>
@@ -6673,7 +6672,7 @@
         <v>74.41</v>
       </c>
       <c r="F157" s="2">
-        <v>606.84</v>
+        <v>587.75</v>
       </c>
       <c r="G157">
         <v>0.01</v>
@@ -6688,7 +6687,7 @@
         <v>11.1</v>
       </c>
       <c r="K157">
-        <v>8.15</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6696,7 +6695,7 @@
         <v>165</v>
       </c>
       <c r="B158">
-        <v>16.64</v>
+        <v>16.37</v>
       </c>
       <c r="C158" s="2">
         <v>30</v>
@@ -6708,7 +6707,7 @@
         <v>352.65</v>
       </c>
       <c r="F158" s="2">
-        <v>499.2</v>
+        <v>491.1</v>
       </c>
       <c r="G158">
         <v>0.01</v>
@@ -6723,15 +6722,15 @@
         <v>11.75</v>
       </c>
       <c r="K158">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" t="s">
         <v>166</v>
       </c>
       <c r="B159">
-        <v>42.7</v>
+        <v>42.66</v>
       </c>
       <c r="C159" s="2">
         <v>30</v>
@@ -6743,7 +6742,7 @@
         <v>774.6</v>
       </c>
       <c r="F159" s="2">
-        <v>1281</v>
+        <v>1279.8</v>
       </c>
       <c r="G159">
         <v>0.01</v>
@@ -6752,7 +6751,7 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="I159">
-        <v>16.626999999999999</v>
+        <v>16.611999999999998</v>
       </c>
       <c r="J159">
         <v>25.82</v>
@@ -6766,7 +6765,7 @@
         <v>167</v>
       </c>
       <c r="B160">
-        <v>10.59</v>
+        <v>10.61</v>
       </c>
       <c r="C160">
         <v>50</v>
@@ -6778,7 +6777,7 @@
         <v>319.25</v>
       </c>
       <c r="F160" s="2">
-        <v>529.5</v>
+        <v>530.5</v>
       </c>
       <c r="G160">
         <v>0.01</v>
@@ -6793,7 +6792,7 @@
         <v>6.38</v>
       </c>
       <c r="K160">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6810,7 +6809,7 @@
         <v>38824.21</v>
       </c>
       <c r="F161" s="2">
-        <v>92081.97</v>
+        <v>90800.48</v>
       </c>
       <c r="G161">
         <v>1.04</v>
@@ -6819,13 +6818,13 @@
         <v>5.1230000000000002</v>
       </c>
       <c r="I161">
-        <v>6.1289999999999996</v>
+        <v>6.0460000000000003</v>
       </c>
       <c r="J161">
         <v>13.85</v>
       </c>
       <c r="K161">
-        <v>2.37</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6833,7 +6832,7 @@
         <v>169</v>
       </c>
       <c r="B162">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C162">
         <v>25</v>
@@ -6845,7 +6844,7 @@
         <v>588.99</v>
       </c>
       <c r="F162" s="2">
-        <v>3300</v>
+        <v>3175</v>
       </c>
       <c r="G162">
         <v>0.04</v>
@@ -6854,13 +6853,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I162">
-        <v>15.432</v>
+        <v>14.848000000000001</v>
       </c>
       <c r="J162">
         <v>23.55</v>
       </c>
       <c r="K162">
-        <v>5.6</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6877,7 +6876,7 @@
         <v>588.99</v>
       </c>
       <c r="F163" s="2">
-        <v>3300</v>
+        <v>3175</v>
       </c>
       <c r="G163">
         <v>0.04</v>
@@ -6886,13 +6885,13 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I163">
-        <v>15.433</v>
+        <v>14.848000000000001</v>
       </c>
       <c r="J163">
         <v>23.56</v>
       </c>
       <c r="K163">
-        <v>5.6</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6900,7 +6899,7 @@
         <v>171</v>
       </c>
       <c r="B164">
-        <v>12.84</v>
+        <v>12.55</v>
       </c>
       <c r="C164">
         <v>100.636</v>
@@ -6912,7 +6911,7 @@
         <v>974.23</v>
       </c>
       <c r="F164" s="2">
-        <v>1292.17</v>
+        <v>1262.98</v>
       </c>
       <c r="G164">
         <v>0.01</v>
@@ -6921,13 +6920,13 @@
         <v>2.5630000000000002</v>
       </c>
       <c r="I164">
-        <v>5.0090000000000003</v>
+        <v>4.8959999999999999</v>
       </c>
       <c r="J164">
         <v>9.68</v>
       </c>
       <c r="K164">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6935,7 +6934,7 @@
         <v>172</v>
       </c>
       <c r="B165">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="C165">
         <v>843.2</v>
@@ -6947,7 +6946,7 @@
         <v>2173.27</v>
       </c>
       <c r="F165" s="2">
-        <v>6180.66</v>
+        <v>6189.09</v>
       </c>
       <c r="G165">
         <v>7.0000000000000007E-2</v>
@@ -6956,7 +6955,7 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="I165">
-        <v>22.076000000000001</v>
+        <v>22.106999999999999</v>
       </c>
       <c r="J165">
         <v>2.57</v>
@@ -6970,7 +6969,7 @@
         <v>173</v>
       </c>
       <c r="B166">
-        <v>77.5</v>
+        <v>76.55</v>
       </c>
       <c r="C166">
         <v>200</v>
@@ -6982,7 +6981,7 @@
         <v>3765.39</v>
       </c>
       <c r="F166" s="2">
-        <v>15500</v>
+        <v>15310</v>
       </c>
       <c r="G166">
         <v>0.17</v>
@@ -6991,13 +6990,13 @@
         <v>3.3340000000000001</v>
       </c>
       <c r="I166">
-        <v>23.247</v>
+        <v>22.962</v>
       </c>
       <c r="J166">
         <v>18.82</v>
       </c>
       <c r="K166">
-        <v>4.1100000000000003</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -7005,7 +7004,7 @@
         <v>174</v>
       </c>
       <c r="B167">
-        <v>133</v>
+        <v>135.5</v>
       </c>
       <c r="C167">
         <v>101.574</v>
@@ -7017,7 +7016,7 @@
         <v>4060.93</v>
       </c>
       <c r="F167" s="2">
-        <v>13509.34</v>
+        <v>13763.28</v>
       </c>
       <c r="G167">
         <v>0.15</v>
@@ -7026,13 +7025,13 @@
         <v>4.9960000000000004</v>
       </c>
       <c r="I167">
-        <v>26.620999999999999</v>
+        <v>27.120999999999999</v>
       </c>
       <c r="J167">
         <v>39.979999999999997</v>
       </c>
       <c r="K167">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7040,7 +7039,7 @@
         <v>175</v>
       </c>
       <c r="B168">
-        <v>165.7</v>
+        <v>165.2</v>
       </c>
       <c r="C168">
         <v>44.85</v>
@@ -7052,7 +7051,7 @@
         <v>1714.87</v>
       </c>
       <c r="F168" s="2">
-        <v>7431.65</v>
+        <v>7409.22</v>
       </c>
       <c r="G168">
         <v>0.08</v>
@@ -7061,13 +7060,13 @@
         <v>6.7389999999999999</v>
       </c>
       <c r="I168">
-        <v>24.588000000000001</v>
+        <v>24.513999999999999</v>
       </c>
       <c r="J168">
         <v>38.229999999999997</v>
       </c>
       <c r="K168">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7075,7 +7074,7 @@
         <v>176</v>
       </c>
       <c r="B169">
-        <v>36.04</v>
+        <v>35.92</v>
       </c>
       <c r="C169">
         <v>160</v>
@@ -7087,7 +7086,7 @@
         <v>1980.5</v>
       </c>
       <c r="F169" s="2">
-        <v>5766.4</v>
+        <v>5747.2</v>
       </c>
       <c r="G169">
         <v>0.06</v>
@@ -7096,13 +7095,13 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="I169">
-        <v>16.536999999999999</v>
+        <v>16.481999999999999</v>
       </c>
       <c r="J169">
         <v>12.37</v>
       </c>
       <c r="K169">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7110,7 +7109,7 @@
         <v>177</v>
       </c>
       <c r="B170">
-        <v>58.45</v>
+        <v>58.4</v>
       </c>
       <c r="C170">
         <v>92.04</v>
@@ -7122,7 +7121,7 @@
         <v>1786.2</v>
       </c>
       <c r="F170" s="2">
-        <v>5379.74</v>
+        <v>5375.14</v>
       </c>
       <c r="G170">
         <v>0.06</v>
@@ -7131,13 +7130,13 @@
         <v>4.2389999999999999</v>
       </c>
       <c r="I170">
-        <v>13.787000000000001</v>
+        <v>13.776</v>
       </c>
       <c r="J170">
         <v>19.399999999999999</v>
       </c>
       <c r="K170">
-        <v>3.01</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7145,7 +7144,7 @@
         <v>178</v>
       </c>
       <c r="B171">
-        <v>261.39999999999998</v>
+        <v>260</v>
       </c>
       <c r="C171">
         <v>350</v>
@@ -7157,22 +7156,22 @@
         <v>7291.14</v>
       </c>
       <c r="F171" s="2">
-        <v>91490</v>
+        <v>91000</v>
       </c>
       <c r="G171">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="H171">
         <v>6.6319999999999997</v>
       </c>
       <c r="I171">
-        <v>39.411999999999999</v>
+        <v>39.201000000000001</v>
       </c>
       <c r="J171">
         <v>20.83</v>
       </c>
       <c r="K171">
-        <v>12.54</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7180,7 +7179,7 @@
         <v>179</v>
       </c>
       <c r="B172">
-        <v>36.44</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="C172" s="2">
         <v>30</v>
@@ -7192,7 +7191,7 @@
         <v>512.29999999999995</v>
       </c>
       <c r="F172" s="2">
-        <v>1093.2</v>
+        <v>1053.5999999999999</v>
       </c>
       <c r="G172">
         <v>0.01</v>
@@ -7201,13 +7200,13 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="I172">
-        <v>42.703000000000003</v>
+        <v>41.155999999999999</v>
       </c>
       <c r="J172">
         <v>17.07</v>
       </c>
       <c r="K172">
-        <v>2.13</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7215,7 +7214,7 @@
         <v>180</v>
       </c>
       <c r="B173">
-        <v>39.24</v>
+        <v>38.86</v>
       </c>
       <c r="C173" s="2">
         <v>232</v>
@@ -7227,7 +7226,7 @@
         <v>3019.85</v>
       </c>
       <c r="F173" s="2">
-        <v>9103.68</v>
+        <v>9015.52</v>
       </c>
       <c r="G173">
         <v>0.1</v>
@@ -7236,21 +7235,21 @@
         <v>1.165</v>
       </c>
       <c r="I173">
-        <v>33.677</v>
+        <v>33.350999999999999</v>
       </c>
       <c r="J173">
         <v>13.01</v>
       </c>
       <c r="K173">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" t="s">
         <v>181</v>
       </c>
       <c r="B174">
-        <v>175.4</v>
+        <v>171.5</v>
       </c>
       <c r="C174" s="2">
         <v>44.302999999999997</v>
@@ -7262,22 +7261,22 @@
         <v>1910.4</v>
       </c>
       <c r="F174" s="2">
-        <v>7770.75</v>
+        <v>7597.96</v>
       </c>
       <c r="G174">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H174">
         <v>2.9740000000000002</v>
       </c>
       <c r="I174">
-        <v>58.972000000000001</v>
+        <v>57.66</v>
       </c>
       <c r="J174">
         <v>43.12</v>
       </c>
       <c r="K174">
-        <v>4.0599999999999996</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7285,7 +7284,7 @@
         <v>296</v>
       </c>
       <c r="B175">
-        <v>21.05</v>
+        <v>19.45</v>
       </c>
       <c r="C175">
         <v>250</v>
@@ -7297,22 +7296,22 @@
         <v>856.36</v>
       </c>
       <c r="F175" s="2">
-        <v>5262.5</v>
+        <v>4862.5</v>
       </c>
       <c r="G175">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H175">
         <v>0.66300000000000003</v>
       </c>
       <c r="I175">
-        <v>31.768000000000001</v>
+        <v>29.353999999999999</v>
       </c>
       <c r="J175">
         <v>3.42</v>
       </c>
       <c r="K175">
-        <v>6.14</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7329,22 +7328,22 @@
         <v>30045.439999999999</v>
       </c>
       <c r="F176" s="2">
-        <v>169780.09</v>
+        <v>168586.49</v>
       </c>
       <c r="G176">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H176">
         <v>2.3149999999999999</v>
       </c>
       <c r="I176">
-        <v>29.954999999999998</v>
+        <v>29.744</v>
       </c>
       <c r="J176">
         <v>12.27</v>
       </c>
       <c r="K176">
-        <v>5.65</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7352,7 +7351,7 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>24.44</v>
+        <v>25.18</v>
       </c>
       <c r="C177" s="2">
         <v>120</v>
@@ -7364,7 +7363,7 @@
         <v>1459.4</v>
       </c>
       <c r="F177" s="2">
-        <v>2932.8</v>
+        <v>3021.6</v>
       </c>
       <c r="G177">
         <v>0.03</v>
@@ -7373,21 +7372,21 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="I177">
-        <v>43.707000000000001</v>
+        <v>45.030999999999999</v>
       </c>
       <c r="J177">
         <v>12.16</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178">
-        <v>172.4</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="C178" s="2">
         <v>70</v>
@@ -7399,7 +7398,7 @@
         <v>1546.52</v>
       </c>
       <c r="F178" s="2">
-        <v>12068</v>
+        <v>11319</v>
       </c>
       <c r="G178">
         <v>0.13</v>
@@ -7408,13 +7407,13 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="I178">
-        <v>29.391999999999999</v>
+        <v>27.568000000000001</v>
       </c>
       <c r="J178">
         <v>22.09</v>
       </c>
       <c r="K178">
-        <v>7.8</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7422,7 +7421,7 @@
         <v>185</v>
       </c>
       <c r="B179">
-        <v>118</v>
+        <v>118.9</v>
       </c>
       <c r="C179" s="2">
         <v>20</v>
@@ -7434,7 +7433,7 @@
         <v>387.61</v>
       </c>
       <c r="F179" s="2">
-        <v>2360</v>
+        <v>2378</v>
       </c>
       <c r="G179">
         <v>0.03</v>
@@ -7443,13 +7442,13 @@
         <v>4.4950000000000001</v>
       </c>
       <c r="I179">
-        <v>26.254000000000001</v>
+        <v>26.454000000000001</v>
       </c>
       <c r="J179">
         <v>19.38</v>
       </c>
       <c r="K179">
-        <v>6.08</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7466,7 +7465,7 @@
         <v>3393.53</v>
       </c>
       <c r="F180" s="2">
-        <v>17360.8</v>
+        <v>16718.599999999999</v>
       </c>
       <c r="G180">
         <v>0.19</v>
@@ -7475,13 +7474,13 @@
         <v>2.7029999999999998</v>
       </c>
       <c r="I180">
-        <v>30.588000000000001</v>
+        <v>29.456</v>
       </c>
       <c r="J180">
         <v>16.16</v>
       </c>
       <c r="K180">
-        <v>5.12</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7489,7 +7488,7 @@
         <v>187</v>
       </c>
       <c r="B181">
-        <v>28.02</v>
+        <v>28</v>
       </c>
       <c r="C181" s="2">
         <v>3000</v>
@@ -7501,16 +7500,16 @@
         <v>61139.53</v>
       </c>
       <c r="F181" s="2">
-        <v>84060</v>
+        <v>84000</v>
       </c>
       <c r="G181">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="H181">
         <v>3.2450000000000001</v>
       </c>
       <c r="I181">
-        <v>8.6340000000000003</v>
+        <v>8.6280000000000001</v>
       </c>
       <c r="J181">
         <v>20.37</v>
@@ -7524,7 +7523,7 @@
         <v>188</v>
       </c>
       <c r="B182">
-        <v>12.7</v>
+        <v>12.55</v>
       </c>
       <c r="C182" s="2">
         <v>1281.25</v>
@@ -7536,7 +7535,7 @@
         <v>13993.3</v>
       </c>
       <c r="F182" s="2">
-        <v>16271.88</v>
+        <v>16079.69</v>
       </c>
       <c r="G182">
         <v>0.18</v>
@@ -7545,13 +7544,13 @@
         <v>1.008</v>
       </c>
       <c r="I182">
-        <v>12.599</v>
+        <v>12.45</v>
       </c>
       <c r="J182">
         <v>10.92</v>
       </c>
       <c r="K182">
-        <v>1.1599999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7559,7 +7558,7 @@
         <v>189</v>
       </c>
       <c r="B183">
-        <v>14.5</v>
+        <v>14.16</v>
       </c>
       <c r="C183" s="2">
         <v>1250</v>
@@ -7571,7 +7570,7 @@
         <v>15530.02</v>
       </c>
       <c r="F183" s="2">
-        <v>18125</v>
+        <v>17700</v>
       </c>
       <c r="G183">
         <v>0.2</v>
@@ -7580,13 +7579,13 @@
         <v>1.6140000000000001</v>
       </c>
       <c r="I183">
-        <v>8.9830000000000005</v>
+        <v>8.7729999999999997</v>
       </c>
       <c r="J183">
         <v>12.42</v>
       </c>
       <c r="K183">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7594,7 +7593,7 @@
         <v>190</v>
       </c>
       <c r="B184">
-        <v>17.86</v>
+        <v>17.27</v>
       </c>
       <c r="C184" s="2">
         <v>2500</v>
@@ -7606,22 +7605,22 @@
         <v>40429.949999999997</v>
       </c>
       <c r="F184" s="2">
-        <v>44650</v>
+        <v>43175</v>
       </c>
       <c r="G184">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H184">
         <v>1.893</v>
       </c>
       <c r="I184">
-        <v>9.4350000000000005</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="J184">
         <v>16.170000000000002</v>
       </c>
       <c r="K184">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7629,7 +7628,7 @@
         <v>191</v>
       </c>
       <c r="B185">
-        <v>32.700000000000003</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="C185" s="2">
         <v>2054.7939999999999</v>
@@ -7641,7 +7640,7 @@
         <v>63783.8</v>
       </c>
       <c r="F185" s="2">
-        <v>67191.759999999995</v>
+        <v>66082.179999999993</v>
       </c>
       <c r="G185">
         <v>0.74</v>
@@ -7650,13 +7649,13 @@
         <v>3.972</v>
       </c>
       <c r="I185">
-        <v>8.2319999999999993</v>
+        <v>8.0960000000000001</v>
       </c>
       <c r="J185">
         <v>31.04</v>
       </c>
       <c r="K185">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7664,7 +7663,7 @@
         <v>192</v>
       </c>
       <c r="B186">
-        <v>21.75</v>
+        <v>21.59</v>
       </c>
       <c r="C186" s="2">
         <v>2000</v>
@@ -7676,7 +7675,7 @@
         <v>38480.25</v>
       </c>
       <c r="F186" s="2">
-        <v>43500</v>
+        <v>43180</v>
       </c>
       <c r="G186">
         <v>0.48</v>
@@ -7685,13 +7684,13 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="I186">
-        <v>8.6389999999999993</v>
+        <v>8.5749999999999993</v>
       </c>
       <c r="J186">
         <v>19.239999999999998</v>
       </c>
       <c r="K186">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7699,7 +7698,7 @@
         <v>193</v>
       </c>
       <c r="B187">
-        <v>94.9</v>
+        <v>94.5</v>
       </c>
       <c r="C187" s="2">
         <v>4000</v>
@@ -7711,22 +7710,22 @@
         <v>105033.22</v>
       </c>
       <c r="F187" s="2">
-        <v>379600</v>
+        <v>378000</v>
       </c>
       <c r="G187">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="H187">
         <v>5.306</v>
       </c>
       <c r="I187">
-        <v>17.885999999999999</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="J187">
         <v>26.25</v>
       </c>
       <c r="K187">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7734,7 +7733,7 @@
         <v>194</v>
       </c>
       <c r="B188">
-        <v>25.96</v>
+        <v>26.22</v>
       </c>
       <c r="C188" s="2">
         <v>1500</v>
@@ -7746,30 +7745,30 @@
         <v>17592.099999999999</v>
       </c>
       <c r="F188" s="2">
-        <v>38940</v>
+        <v>39330</v>
       </c>
       <c r="G188">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="H188">
         <v>1.909</v>
       </c>
       <c r="I188">
-        <v>13.597</v>
+        <v>13.733000000000001</v>
       </c>
       <c r="J188">
         <v>11.72</v>
       </c>
       <c r="K188">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189">
-        <v>25.92</v>
+        <v>26.02</v>
       </c>
       <c r="C189" s="2">
         <v>2500</v>
@@ -7781,22 +7780,22 @@
         <v>34201.360000000001</v>
       </c>
       <c r="F189" s="2">
-        <v>64800</v>
+        <v>65050</v>
       </c>
       <c r="G189">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="H189">
         <v>2.41</v>
       </c>
       <c r="I189">
-        <v>10.755000000000001</v>
+        <v>10.795999999999999</v>
       </c>
       <c r="J189">
         <v>13.68</v>
       </c>
       <c r="K189">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7804,7 +7803,7 @@
         <v>196</v>
       </c>
       <c r="B190">
-        <v>36.840000000000003</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C190" s="2">
         <v>6000</v>
@@ -7816,22 +7815,22 @@
         <v>172291.56</v>
       </c>
       <c r="F190" s="2">
-        <v>221040</v>
+        <v>223800</v>
       </c>
       <c r="G190">
-        <v>2.4500000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="H190">
         <v>3.6960000000000002</v>
       </c>
       <c r="I190">
-        <v>9.9670000000000005</v>
+        <v>10.090999999999999</v>
       </c>
       <c r="J190">
         <v>28.71</v>
       </c>
       <c r="K190">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7848,16 +7847,16 @@
         <v>562475.09</v>
       </c>
       <c r="F191" s="2">
-        <v>978178.64</v>
+        <v>976396.87</v>
       </c>
       <c r="G191">
-        <v>10.84</v>
+        <v>10.91</v>
       </c>
       <c r="H191">
         <v>3.1920000000000002</v>
       </c>
       <c r="I191">
-        <v>11.747999999999999</v>
+        <v>11.727</v>
       </c>
       <c r="J191">
         <v>21.56</v>
@@ -7871,7 +7870,7 @@
         <v>198</v>
       </c>
       <c r="B192">
-        <v>167.9</v>
+        <v>165.6</v>
       </c>
       <c r="C192">
         <v>120</v>
@@ -7883,7 +7882,7 @@
         <v>3581.9</v>
       </c>
       <c r="F192" s="2">
-        <v>20148</v>
+        <v>19872</v>
       </c>
       <c r="G192">
         <v>0.22</v>
@@ -7892,13 +7891,13 @@
         <v>4.5069999999999997</v>
       </c>
       <c r="I192">
-        <v>37.255000000000003</v>
+        <v>36.744999999999997</v>
       </c>
       <c r="J192">
         <v>29.84</v>
       </c>
       <c r="K192">
-        <v>5.62</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7906,7 +7905,7 @@
         <v>199</v>
       </c>
       <c r="B193">
-        <v>11.72</v>
+        <v>11.42</v>
       </c>
       <c r="C193">
         <v>101.925</v>
@@ -7918,7 +7917,7 @@
         <v>1231.8699999999999</v>
       </c>
       <c r="F193" s="2">
-        <v>1194.56</v>
+        <v>1163.98</v>
       </c>
       <c r="G193">
         <v>0.01</v>
@@ -7927,13 +7926,13 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="I193">
-        <v>24.074000000000002</v>
+        <v>23.457000000000001</v>
       </c>
       <c r="J193">
         <v>12.08</v>
       </c>
       <c r="K193">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7941,7 +7940,7 @@
         <v>200</v>
       </c>
       <c r="B194">
-        <v>22.4</v>
+        <v>22.96</v>
       </c>
       <c r="C194">
         <v>100</v>
@@ -7953,22 +7952,22 @@
         <v>1701.14</v>
       </c>
       <c r="F194" s="2">
-        <v>2240</v>
+        <v>2296</v>
       </c>
       <c r="G194">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H194">
         <v>0.379</v>
       </c>
       <c r="I194">
-        <v>59.134</v>
+        <v>60.612000000000002</v>
       </c>
       <c r="J194">
         <v>17.010000000000002</v>
       </c>
       <c r="K194">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7976,7 +7975,7 @@
         <v>201</v>
       </c>
       <c r="B195">
-        <v>26.54</v>
+        <v>24.87</v>
       </c>
       <c r="C195">
         <v>60</v>
@@ -7988,7 +7987,7 @@
         <v>1235.3499999999999</v>
       </c>
       <c r="F195" s="2">
-        <v>1592.4</v>
+        <v>1492.2</v>
       </c>
       <c r="G195">
         <v>0.02</v>
@@ -7997,13 +7996,13 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="I195">
-        <v>8.3109999999999999</v>
+        <v>7.7880000000000003</v>
       </c>
       <c r="J195">
         <v>20.58</v>
       </c>
       <c r="K195">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8011,7 +8010,7 @@
         <v>202</v>
       </c>
       <c r="B196">
-        <v>12.92</v>
+        <v>12.64</v>
       </c>
       <c r="C196">
         <v>120</v>
@@ -8023,7 +8022,7 @@
         <v>1471.53</v>
       </c>
       <c r="F196" s="2">
-        <v>1550.4</v>
+        <v>1516.8</v>
       </c>
       <c r="G196">
         <v>0.02</v>
@@ -8032,13 +8031,13 @@
         <v>1.147</v>
       </c>
       <c r="I196">
-        <v>11.266</v>
+        <v>11.022</v>
       </c>
       <c r="J196">
         <v>12.26</v>
       </c>
       <c r="K196">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,7 +8045,7 @@
         <v>203</v>
       </c>
       <c r="B197">
-        <v>11.39</v>
+        <v>11.03</v>
       </c>
       <c r="C197" s="2">
         <v>71.427999999999997</v>
@@ -8058,7 +8057,7 @@
         <v>842.43</v>
       </c>
       <c r="F197" s="2">
-        <v>813.56</v>
+        <v>787.85</v>
       </c>
       <c r="G197">
         <v>0.01</v>
@@ -8067,13 +8066,13 @@
         <v>0.318</v>
       </c>
       <c r="I197">
-        <v>35.776000000000003</v>
+        <v>34.645000000000003</v>
       </c>
       <c r="J197">
         <v>11.79</v>
       </c>
       <c r="K197">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8081,7 +8080,7 @@
         <v>204</v>
       </c>
       <c r="B198">
-        <v>164.4</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="C198" s="2">
         <v>25</v>
@@ -8093,7 +8092,7 @@
         <v>1170.45</v>
       </c>
       <c r="F198" s="2">
-        <v>4110</v>
+        <v>4042.5</v>
       </c>
       <c r="G198">
         <v>0.05</v>
@@ -8102,13 +8101,13 @@
         <v>9.1140000000000008</v>
       </c>
       <c r="I198">
-        <v>18.038</v>
+        <v>17.742000000000001</v>
       </c>
       <c r="J198">
         <v>46.81</v>
       </c>
       <c r="K198">
-        <v>3.51</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8116,7 +8115,7 @@
         <v>205</v>
       </c>
       <c r="B199">
-        <v>25.98</v>
+        <v>24.83</v>
       </c>
       <c r="C199" s="2">
         <v>249.73500000000001</v>
@@ -8128,7 +8127,7 @@
         <v>1084.1099999999999</v>
       </c>
       <c r="F199" s="2">
-        <v>6488.12</v>
+        <v>6200.92</v>
       </c>
       <c r="G199">
         <v>7.0000000000000007E-2</v>
@@ -8137,21 +8136,21 @@
         <v>1.6579999999999999</v>
       </c>
       <c r="I199">
-        <v>15.672000000000001</v>
+        <v>14.978999999999999</v>
       </c>
       <c r="J199">
         <v>4.34</v>
       </c>
       <c r="K199">
-        <v>5.98</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>300</v>
+      <c r="A200" t="s">
+        <v>299</v>
       </c>
       <c r="B200">
-        <v>3.23</v>
+        <v>3.13</v>
       </c>
       <c r="C200" s="2">
         <v>218.29499999999999</v>
@@ -8163,7 +8162,7 @@
         <v>224.38</v>
       </c>
       <c r="F200" s="2">
-        <v>705.09</v>
+        <v>683.26</v>
       </c>
       <c r="G200">
         <v>0.01</v>
@@ -8172,13 +8171,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I200">
-        <v>72.242000000000004</v>
+        <v>70.006</v>
       </c>
       <c r="J200">
         <v>1.02</v>
       </c>
       <c r="K200">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8186,7 +8185,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>8.23</v>
+        <v>7.96</v>
       </c>
       <c r="C201" s="2">
         <v>3705.8820000000001</v>
@@ -8198,22 +8197,22 @@
         <v>41330.67</v>
       </c>
       <c r="F201" s="2">
-        <v>30499.41</v>
+        <v>29498.82</v>
       </c>
       <c r="G201">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H201">
         <v>0.39700000000000002</v>
       </c>
       <c r="I201">
-        <v>20.713999999999999</v>
+        <v>20.033999999999999</v>
       </c>
       <c r="J201">
         <v>11.15</v>
       </c>
       <c r="K201">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8230,7 +8229,7 @@
         <v>53873.83</v>
       </c>
       <c r="F202" s="2">
-        <v>69341.539999999994</v>
+        <v>67554.33</v>
       </c>
       <c r="G202">
         <v>0.77</v>
@@ -8239,13 +8238,13 @@
         <v>0.65</v>
       </c>
       <c r="I202">
-        <v>22.338000000000001</v>
+        <v>21.762</v>
       </c>
       <c r="J202">
         <v>11.29</v>
       </c>
       <c r="K202">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8253,7 +8252,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>138</v>
+        <v>131.4</v>
       </c>
       <c r="C203">
         <v>150</v>
@@ -8265,22 +8264,22 @@
         <v>4742.4799999999996</v>
       </c>
       <c r="F203" s="2">
-        <v>20700</v>
+        <v>19710</v>
       </c>
       <c r="G203">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H203">
         <v>7.2469999999999999</v>
       </c>
       <c r="I203">
-        <v>19.042000000000002</v>
+        <v>18.131</v>
       </c>
       <c r="J203">
         <v>31.61</v>
       </c>
       <c r="K203">
-        <v>4.3600000000000003</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8288,7 +8287,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>12.79</v>
+        <v>12.74</v>
       </c>
       <c r="C204">
         <v>66</v>
@@ -8300,7 +8299,7 @@
         <v>994.3</v>
       </c>
       <c r="F204" s="2">
-        <v>844.14</v>
+        <v>840.84</v>
       </c>
       <c r="G204">
         <v>0.01</v>
@@ -8309,7 +8308,7 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I204">
-        <v>20.821999999999999</v>
+        <v>20.74</v>
       </c>
       <c r="J204">
         <v>15.06</v>
@@ -8323,7 +8322,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>12.91</v>
+        <v>12.79</v>
       </c>
       <c r="C205">
         <v>50</v>
@@ -8335,7 +8334,7 @@
         <v>442.72</v>
       </c>
       <c r="F205" s="2">
-        <v>645.5</v>
+        <v>639.5</v>
       </c>
       <c r="G205">
         <v>0.01</v>
@@ -8344,13 +8343,13 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="I205">
-        <v>25.483000000000001</v>
+        <v>25.245999999999999</v>
       </c>
       <c r="J205">
         <v>8.85</v>
       </c>
       <c r="K205">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8358,7 +8357,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>17.8</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="C206">
         <v>105</v>
@@ -8370,7 +8369,7 @@
         <v>1050.79</v>
       </c>
       <c r="F206" s="2">
-        <v>1869</v>
+        <v>1748.25</v>
       </c>
       <c r="G206">
         <v>0.02</v>
@@ -8379,13 +8378,13 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I206">
-        <v>19.597000000000001</v>
+        <v>18.331</v>
       </c>
       <c r="J206">
         <v>10</v>
       </c>
       <c r="K206">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8393,7 +8392,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>14.24</v>
+        <v>14.02</v>
       </c>
       <c r="C207">
         <v>60</v>
@@ -8405,7 +8404,7 @@
         <v>819.22</v>
       </c>
       <c r="F207" s="2">
-        <v>854.4</v>
+        <v>841.2</v>
       </c>
       <c r="G207">
         <v>0.01</v>
@@ -8414,13 +8413,13 @@
         <v>0.183</v>
       </c>
       <c r="I207">
-        <v>77.813999999999993</v>
+        <v>76.611999999999995</v>
       </c>
       <c r="J207">
         <v>13.65</v>
       </c>
       <c r="K207">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8428,7 +8427,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>13.13</v>
+        <v>12.7</v>
       </c>
       <c r="C208">
         <v>30</v>
@@ -8440,7 +8439,7 @@
         <v>317.36</v>
       </c>
       <c r="F208" s="2">
-        <v>393.9</v>
+        <v>381</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -8455,7 +8454,7 @@
         <v>10.57</v>
       </c>
       <c r="K208">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8463,7 +8462,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>14.35</v>
+        <v>13.8</v>
       </c>
       <c r="C209">
         <v>127.55800000000001</v>
@@ -8475,7 +8474,7 @@
         <v>1768.65</v>
       </c>
       <c r="F209" s="2">
-        <v>1830.46</v>
+        <v>1760.3</v>
       </c>
       <c r="G209">
         <v>0.02</v>
@@ -8490,7 +8489,7 @@
         <v>13.86</v>
       </c>
       <c r="K209">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8498,7 +8497,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>15.2</v>
+        <v>14.53</v>
       </c>
       <c r="C210">
         <v>79.814999999999998</v>
@@ -8510,7 +8509,7 @@
         <v>1666.07</v>
       </c>
       <c r="F210" s="2">
-        <v>1213.19</v>
+        <v>1159.71</v>
       </c>
       <c r="G210">
         <v>0.01</v>
@@ -8519,13 +8518,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I210">
-        <v>19.986000000000001</v>
+        <v>19.105</v>
       </c>
       <c r="J210">
         <v>20.87</v>
       </c>
       <c r="K210">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8533,7 +8532,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="C211">
         <v>30</v>
@@ -8545,7 +8544,7 @@
         <v>398.59</v>
       </c>
       <c r="F211">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G211" t="s">
         <v>32</v>
@@ -8554,13 +8553,13 @@
         <v>2.012</v>
       </c>
       <c r="I211">
-        <v>7.2560000000000002</v>
+        <v>7.0069999999999997</v>
       </c>
       <c r="J211">
         <v>13.28</v>
       </c>
       <c r="K211">
-        <v>1.0900000000000001</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8568,7 +8567,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>14.23</v>
+        <v>14.12</v>
       </c>
       <c r="C212">
         <v>45.893999999999998</v>
@@ -8580,7 +8579,7 @@
         <v>591.83000000000004</v>
       </c>
       <c r="F212">
-        <v>653.07000000000005</v>
+        <v>648.02</v>
       </c>
       <c r="G212">
         <v>0.01</v>
@@ -8595,7 +8594,7 @@
         <v>12.89</v>
       </c>
       <c r="K212">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8603,7 +8602,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>10.77</v>
+        <v>10.98</v>
       </c>
       <c r="C213">
         <v>29.1</v>
@@ -8615,7 +8614,7 @@
         <v>269.44</v>
       </c>
       <c r="F213">
-        <v>313.41000000000003</v>
+        <v>319.52</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -8630,7 +8629,7 @@
         <v>9.25</v>
       </c>
       <c r="K213">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8638,7 +8637,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C214">
         <v>53</v>
@@ -8650,7 +8649,7 @@
         <v>612.03</v>
       </c>
       <c r="F214" s="2">
-        <v>598.9</v>
+        <v>583</v>
       </c>
       <c r="G214">
         <v>0.01</v>
@@ -8659,13 +8658,13 @@
         <v>0.505</v>
       </c>
       <c r="I214">
-        <v>22.38</v>
+        <v>21.786000000000001</v>
       </c>
       <c r="J214">
         <v>11.54</v>
       </c>
       <c r="K214">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8673,7 +8672,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>12.83</v>
+        <v>12.4</v>
       </c>
       <c r="C215">
         <v>50</v>
@@ -8685,7 +8684,7 @@
         <v>702.25</v>
       </c>
       <c r="F215" s="2">
-        <v>641.5</v>
+        <v>620</v>
       </c>
       <c r="G215">
         <v>0.01</v>
@@ -8694,13 +8693,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="I215">
-        <v>18.561</v>
+        <v>17.939</v>
       </c>
       <c r="J215">
         <v>14.04</v>
       </c>
       <c r="K215">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8708,7 +8707,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>12.94</v>
+        <v>12.5</v>
       </c>
       <c r="C216">
         <v>30</v>
@@ -8720,7 +8719,7 @@
         <v>385.64</v>
       </c>
       <c r="F216" s="2">
-        <v>388.2</v>
+        <v>375</v>
       </c>
       <c r="G216" t="s">
         <v>32</v>
@@ -8729,13 +8728,13 @@
         <v>0.217</v>
       </c>
       <c r="I216">
-        <v>59.631</v>
+        <v>57.603000000000002</v>
       </c>
       <c r="J216">
         <v>12.85</v>
       </c>
       <c r="K216">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8743,7 +8742,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>6.74</v>
+        <v>6.49</v>
       </c>
       <c r="C217">
         <v>40</v>
@@ -8755,7 +8754,7 @@
         <v>247.5</v>
       </c>
       <c r="F217" s="2">
-        <v>269.60000000000002</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="G217" t="s">
         <v>32</v>
@@ -8770,7 +8769,7 @@
         <v>6.18</v>
       </c>
       <c r="K217">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8778,7 +8777,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>44.84</v>
+        <v>44.98</v>
       </c>
       <c r="C218">
         <v>115.83</v>
@@ -8790,7 +8789,7 @@
         <v>2068.44</v>
       </c>
       <c r="F218" s="2">
-        <v>5193.82</v>
+        <v>5210.03</v>
       </c>
       <c r="G218">
         <v>0.06</v>
@@ -8799,7 +8798,7 @@
         <v>4.13</v>
       </c>
       <c r="I218">
-        <v>10.855</v>
+        <v>10.888999999999999</v>
       </c>
       <c r="J218">
         <v>17.850000000000001</v>
@@ -8813,7 +8812,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>163.1</v>
+        <v>164.6</v>
       </c>
       <c r="C219">
         <v>150</v>
@@ -8825,22 +8824,22 @@
         <v>5568.56</v>
       </c>
       <c r="F219" s="2">
-        <v>24465</v>
+        <v>24690</v>
       </c>
       <c r="G219">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H219">
         <v>7.9119999999999999</v>
       </c>
       <c r="I219">
-        <v>20.614000000000001</v>
+        <v>20.803000000000001</v>
       </c>
       <c r="J219">
         <v>37.119999999999997</v>
       </c>
       <c r="K219">
-        <v>4.3899999999999997</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8848,7 +8847,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>117.7</v>
+        <v>116.9</v>
       </c>
       <c r="C220">
         <v>100</v>
@@ -8860,7 +8859,7 @@
         <v>2174.38</v>
       </c>
       <c r="F220" s="2">
-        <v>11770</v>
+        <v>11690</v>
       </c>
       <c r="G220">
         <v>0.13</v>
@@ -8869,13 +8868,13 @@
         <v>3.1179999999999999</v>
       </c>
       <c r="I220">
-        <v>37.753</v>
+        <v>37.496000000000002</v>
       </c>
       <c r="J220">
         <v>21.74</v>
       </c>
       <c r="K220">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8883,7 +8882,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>33.700000000000003</v>
+        <v>32</v>
       </c>
       <c r="C221">
         <v>30</v>
@@ -8895,7 +8894,7 @@
         <v>460.26</v>
       </c>
       <c r="F221" s="2">
-        <v>1011</v>
+        <v>960</v>
       </c>
       <c r="G221">
         <v>0.01</v>
@@ -8904,13 +8903,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="I221">
-        <v>74.391999999999996</v>
+        <v>70.64</v>
       </c>
       <c r="J221">
         <v>15.34</v>
       </c>
       <c r="K221">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8918,7 +8917,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>25.6</v>
+        <v>24.6</v>
       </c>
       <c r="C222">
         <v>52.5</v>
@@ -8930,7 +8929,7 @@
         <v>1145.97</v>
       </c>
       <c r="F222" s="2">
-        <v>1344</v>
+        <v>1291.5</v>
       </c>
       <c r="G222">
         <v>0.01</v>
@@ -8939,13 +8938,13 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I222">
-        <v>9.2360000000000007</v>
+        <v>8.875</v>
       </c>
       <c r="J222">
         <v>21.82</v>
       </c>
       <c r="K222">
-        <v>1.17</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8953,7 +8952,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>5.26</v>
+        <v>5.03</v>
       </c>
       <c r="C223">
         <v>30</v>
@@ -8965,7 +8964,7 @@
         <v>202.63</v>
       </c>
       <c r="F223">
-        <v>157.80000000000001</v>
+        <v>150.9</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -8980,7 +8979,7 @@
         <v>6.75</v>
       </c>
       <c r="K223">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8988,7 +8987,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>18.2</v>
+        <v>17.25</v>
       </c>
       <c r="C224">
         <v>30</v>
@@ -9000,7 +8999,7 @@
         <v>472.24</v>
       </c>
       <c r="F224">
-        <v>546</v>
+        <v>517.5</v>
       </c>
       <c r="G224">
         <v>0.01</v>
@@ -9009,13 +9008,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="I224">
-        <v>79.590999999999994</v>
+        <v>75.436999999999998</v>
       </c>
       <c r="J224">
         <v>15.74</v>
       </c>
       <c r="K224">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9023,7 +9022,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>13</v>
+        <v>12.56</v>
       </c>
       <c r="C225">
         <v>40</v>
@@ -9035,7 +9034,7 @@
         <v>444.9</v>
       </c>
       <c r="F225" s="2">
-        <v>520</v>
+        <v>502.4</v>
       </c>
       <c r="G225">
         <v>0.01</v>
@@ -9044,13 +9043,13 @@
         <v>0.749</v>
       </c>
       <c r="I225">
-        <v>17.356000000000002</v>
+        <v>16.768999999999998</v>
       </c>
       <c r="J225">
         <v>11.12</v>
       </c>
       <c r="K225">
-        <v>1.1599999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -9058,7 +9057,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>16.41</v>
+        <v>15.92</v>
       </c>
       <c r="C226" s="2">
         <v>40</v>
@@ -9070,7 +9069,7 @@
         <v>617.19000000000005</v>
       </c>
       <c r="F226" s="2">
-        <v>656.4</v>
+        <v>636.79999999999995</v>
       </c>
       <c r="G226">
         <v>0.01</v>
@@ -9079,13 +9078,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I226">
-        <v>8.0030000000000001</v>
+        <v>7.7640000000000002</v>
       </c>
       <c r="J226">
         <v>15.42</v>
       </c>
       <c r="K226">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9093,7 +9092,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>7.81</v>
+        <v>7.58</v>
       </c>
       <c r="C227" s="2">
         <v>43</v>
@@ -9105,7 +9104,7 @@
         <v>309.45999999999998</v>
       </c>
       <c r="F227" s="2">
-        <v>335.83</v>
+        <v>325.94</v>
       </c>
       <c r="G227" t="s">
         <v>32</v>
@@ -9114,21 +9113,21 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I227">
-        <v>79.58</v>
+        <v>77.236000000000004</v>
       </c>
       <c r="J227">
         <v>7.19</v>
       </c>
       <c r="K227">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="A228" t="s">
         <v>233</v>
       </c>
       <c r="B228">
-        <v>9.2100000000000009</v>
+        <v>8.9</v>
       </c>
       <c r="C228" s="2">
         <v>23</v>
@@ -9140,7 +9139,7 @@
         <v>161.93</v>
       </c>
       <c r="F228" s="2">
-        <v>211.83</v>
+        <v>204.7</v>
       </c>
       <c r="G228" t="s">
         <v>32</v>
@@ -9155,7 +9154,7 @@
         <v>7.04</v>
       </c>
       <c r="K228">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9163,7 +9162,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>87.35</v>
+        <v>89.5</v>
       </c>
       <c r="C229">
         <v>77.507000000000005</v>
@@ -9175,7 +9174,7 @@
         <v>450.47</v>
       </c>
       <c r="F229" s="2">
-        <v>6770.24</v>
+        <v>6936.88</v>
       </c>
       <c r="G229">
         <v>0.08</v>
@@ -9184,13 +9183,13 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="I229">
-        <v>58.738</v>
+        <v>60.183999999999997</v>
       </c>
       <c r="J229">
         <v>5.81</v>
       </c>
       <c r="K229">
-        <v>15.02</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9208,7 +9207,7 @@
         <v>29085.3</v>
       </c>
       <c r="F230" s="2">
-        <v>84635.19</v>
+        <v>83425.59</v>
       </c>
       <c r="G230">
         <v>0.93</v>
@@ -9217,13 +9216,13 @@
         <v>2.11</v>
       </c>
       <c r="I230">
-        <v>21.138999999999999</v>
+        <v>20.85</v>
       </c>
       <c r="J230">
         <v>17.329999999999998</v>
       </c>
       <c r="K230">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9266,7 +9265,7 @@
         <v>237</v>
       </c>
       <c r="B232" s="2">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
       <c r="C232">
         <v>100</v>
@@ -9278,7 +9277,7 @@
         <v>116.65</v>
       </c>
       <c r="F232" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G232">
         <v>0.01</v>
@@ -9293,7 +9292,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K232">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9301,7 +9300,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>252</v>
+        <v>242.8</v>
       </c>
       <c r="C233" s="2">
         <v>120</v>
@@ -9313,30 +9312,30 @@
         <v>4364</v>
       </c>
       <c r="F233" s="2">
-        <v>30240</v>
+        <v>29136</v>
       </c>
       <c r="G233">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H233">
         <v>13.367000000000001</v>
       </c>
       <c r="I233">
-        <v>18.852</v>
+        <v>18.164000000000001</v>
       </c>
       <c r="J233">
         <v>36.36</v>
       </c>
       <c r="K233">
-        <v>6.92</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="A234" t="s">
         <v>239</v>
       </c>
       <c r="B234">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C234" s="2">
         <v>80</v>
@@ -9348,22 +9347,22 @@
         <v>5489</v>
       </c>
       <c r="F234" s="2">
-        <v>73520</v>
+        <v>71840</v>
       </c>
       <c r="G234">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="H234">
         <v>24.7</v>
       </c>
       <c r="I234">
-        <v>37.206000000000003</v>
+        <v>36.356000000000002</v>
       </c>
       <c r="J234">
         <v>68.61</v>
       </c>
       <c r="K234">
-        <v>13.39</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9371,7 +9370,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>10.82</v>
+        <v>10.61</v>
       </c>
       <c r="C235" s="2">
         <v>300</v>
@@ -9383,7 +9382,7 @@
         <v>577.71</v>
       </c>
       <c r="F235" s="2">
-        <v>3246</v>
+        <v>3183</v>
       </c>
       <c r="G235">
         <v>0.04</v>
@@ -9392,21 +9391,21 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="I235">
-        <v>19.561</v>
+        <v>19.181000000000001</v>
       </c>
       <c r="J235">
         <v>1.92</v>
       </c>
       <c r="K235">
-        <v>5.61</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B236">
-        <v>29.96</v>
+        <v>29.5</v>
       </c>
       <c r="C236">
         <v>60</v>
@@ -9418,7 +9417,7 @@
         <v>119.99</v>
       </c>
       <c r="F236" s="2">
-        <v>1797.6</v>
+        <v>1770</v>
       </c>
       <c r="G236">
         <v>0.02</v>
@@ -9427,13 +9426,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I236">
-        <v>52.576000000000001</v>
+        <v>51.768999999999998</v>
       </c>
       <c r="J236">
         <v>1.99</v>
       </c>
       <c r="K236">
-        <v>14.98</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9450,22 +9449,22 @@
         <v>11124.93</v>
       </c>
       <c r="F237" s="2">
-        <v>113267.6</v>
+        <v>110389</v>
       </c>
       <c r="G237">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H237">
         <v>5.5949999999999998</v>
       </c>
       <c r="I237">
-        <v>29.077000000000002</v>
+        <v>28.335999999999999</v>
       </c>
       <c r="J237">
         <v>16.12</v>
       </c>
       <c r="K237">
-        <v>10.18</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9473,7 +9472,7 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>42.22</v>
+        <v>41.82</v>
       </c>
       <c r="C238" s="2">
         <v>5000</v>
@@ -9485,7 +9484,7 @@
         <v>91069</v>
       </c>
       <c r="F238" s="2">
-        <v>211100</v>
+        <v>209100</v>
       </c>
       <c r="G238">
         <v>2.34</v>
@@ -9494,21 +9493,21 @@
         <v>5.01</v>
       </c>
       <c r="I238">
-        <v>8.4260000000000002</v>
+        <v>8.3460000000000001</v>
       </c>
       <c r="J238">
         <v>18.21</v>
       </c>
       <c r="K238">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="A239" t="s">
         <v>243</v>
       </c>
       <c r="B239">
-        <v>60.05</v>
+        <v>60.95</v>
       </c>
       <c r="C239" s="2">
         <v>770</v>
@@ -9520,22 +9519,22 @@
         <v>18637</v>
       </c>
       <c r="F239" s="2">
-        <v>46238.5</v>
+        <v>46931.5</v>
       </c>
       <c r="G239">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H239">
         <v>4.2030000000000003</v>
       </c>
       <c r="I239">
-        <v>14.288</v>
+        <v>14.502000000000001</v>
       </c>
       <c r="J239">
         <v>24.2</v>
       </c>
       <c r="K239">
-        <v>2.48</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9543,7 +9542,7 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>10.34</v>
+        <v>10.49</v>
       </c>
       <c r="C240">
         <v>898.72900000000004</v>
@@ -9555,22 +9554,22 @@
         <v>10792</v>
       </c>
       <c r="F240" s="2">
-        <v>9292.86</v>
+        <v>9427.67</v>
       </c>
       <c r="G240">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H240">
         <v>0.69199999999999995</v>
       </c>
       <c r="I240">
-        <v>14.94</v>
+        <v>15.157</v>
       </c>
       <c r="J240">
         <v>12</v>
       </c>
       <c r="K240">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9578,7 +9577,7 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>99.85</v>
+        <v>95.9</v>
       </c>
       <c r="C241">
         <v>33.999000000000002</v>
@@ -9590,7 +9589,7 @@
         <v>766</v>
       </c>
       <c r="F241" s="2">
-        <v>3394.8</v>
+        <v>3260.5</v>
       </c>
       <c r="G241">
         <v>0.04</v>
@@ -9599,13 +9598,13 @@
         <v>6.5590000000000002</v>
       </c>
       <c r="I241">
-        <v>15.223000000000001</v>
+        <v>14.621</v>
       </c>
       <c r="J241">
         <v>22.53</v>
       </c>
       <c r="K241">
-        <v>4.43</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9622,22 +9621,22 @@
         <v>121264</v>
       </c>
       <c r="F242" s="2">
-        <v>270026.15999999997</v>
+        <v>268719.67</v>
       </c>
       <c r="G242">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="H242">
         <v>4.3460000000000001</v>
       </c>
       <c r="I242">
-        <v>9.2690000000000001</v>
+        <v>9.2240000000000002</v>
       </c>
       <c r="J242">
         <v>18.09</v>
       </c>
       <c r="K242">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9645,7 +9644,7 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="C243" s="2">
         <v>75</v>
@@ -9657,7 +9656,7 @@
         <v>1943</v>
       </c>
       <c r="F243" s="2">
-        <v>5775</v>
+        <v>5752.5</v>
       </c>
       <c r="G243">
         <v>0.06</v>
@@ -9666,13 +9665,13 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="I243">
-        <v>24.881</v>
+        <v>24.783999999999999</v>
       </c>
       <c r="J243">
         <v>25.9</v>
       </c>
       <c r="K243">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9680,7 +9679,7 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>132.80000000000001</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="C244" s="2">
         <v>35</v>
@@ -9692,7 +9691,7 @@
         <v>814.29</v>
       </c>
       <c r="F244" s="2">
-        <v>4648</v>
+        <v>4490.5</v>
       </c>
       <c r="G244">
         <v>0.05</v>
@@ -9701,13 +9700,13 @@
         <v>7.0030000000000001</v>
       </c>
       <c r="I244">
-        <v>18.963999999999999</v>
+        <v>18.321000000000002</v>
       </c>
       <c r="J244">
         <v>23.26</v>
       </c>
       <c r="K244">
-        <v>5.7</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9715,7 +9714,7 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>223.3</v>
+        <v>213.5</v>
       </c>
       <c r="C245" s="2">
         <v>766.49</v>
@@ -9727,30 +9726,30 @@
         <v>20994.04</v>
       </c>
       <c r="F245" s="2">
-        <v>171157.22</v>
+        <v>163645.62</v>
       </c>
       <c r="G245">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H245">
         <v>2.4630000000000001</v>
       </c>
       <c r="I245">
-        <v>90.653000000000006</v>
+        <v>86.674000000000007</v>
       </c>
       <c r="J245">
         <v>27.38</v>
       </c>
       <c r="K245">
-        <v>8.15</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+      <c r="A246" t="s">
         <v>250</v>
       </c>
       <c r="B246">
-        <v>40.44</v>
+        <v>41</v>
       </c>
       <c r="C246" s="2">
         <v>250</v>
@@ -9762,7 +9761,7 @@
         <v>5317.85</v>
       </c>
       <c r="F246" s="2">
-        <v>10110</v>
+        <v>10250</v>
       </c>
       <c r="G246">
         <v>0.11</v>
@@ -9777,7 +9776,7 @@
         <v>21.27</v>
       </c>
       <c r="K246">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9785,7 +9784,7 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>27.2</v>
+        <v>27.44</v>
       </c>
       <c r="C247">
         <v>160.92500000000001</v>
@@ -9797,7 +9796,7 @@
         <v>495.52</v>
       </c>
       <c r="F247" s="2">
-        <v>4377.16</v>
+        <v>4415.78</v>
       </c>
       <c r="G247">
         <v>0.05</v>
@@ -9806,13 +9805,13 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="I247">
-        <v>52.850999999999999</v>
+        <v>53.317</v>
       </c>
       <c r="J247">
         <v>3.07</v>
       </c>
       <c r="K247">
-        <v>8.83</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9820,7 +9819,7 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>14.94</v>
+        <v>14.71</v>
       </c>
       <c r="C248" s="2">
         <v>4166.5929999999998</v>
@@ -9832,22 +9831,22 @@
         <v>257811</v>
       </c>
       <c r="F248" s="2">
-        <v>62248.9</v>
+        <v>61290.58</v>
       </c>
       <c r="G248">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="H248">
         <v>1.665</v>
       </c>
       <c r="I248">
-        <v>8.9719999999999995</v>
+        <v>8.8339999999999996</v>
       </c>
       <c r="J248">
         <v>61.87</v>
       </c>
       <c r="K248">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9864,22 +9863,22 @@
         <v>287375.7</v>
       </c>
       <c r="F249" s="2">
-        <v>258316.28</v>
+        <v>249844.98</v>
       </c>
       <c r="G249">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H249">
         <v>1.7210000000000001</v>
       </c>
       <c r="I249">
-        <v>26.443999999999999</v>
+        <v>25.527000000000001</v>
       </c>
       <c r="J249">
         <v>52.69</v>
       </c>
       <c r="K249">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9887,7 +9886,7 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>5.37</v>
+        <v>5.28</v>
       </c>
       <c r="C250">
         <v>171.697</v>
@@ -9899,7 +9898,7 @@
         <v>1746.23</v>
       </c>
       <c r="F250">
-        <v>922.01</v>
+        <v>906.56</v>
       </c>
       <c r="G250">
         <v>0.01</v>
@@ -9914,7 +9913,7 @@
         <v>10.17</v>
       </c>
       <c r="K250">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9922,7 +9921,7 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="C251">
         <v>11.8</v>
@@ -9934,7 +9933,7 @@
         <v>86.31</v>
       </c>
       <c r="F251">
-        <v>161.19</v>
+        <v>161.66</v>
       </c>
       <c r="G251" t="s">
         <v>32</v>
@@ -9943,13 +9942,13 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I251">
-        <v>53.374000000000002</v>
+        <v>53.529000000000003</v>
       </c>
       <c r="J251">
         <v>7.31</v>
       </c>
       <c r="K251">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9957,7 +9956,7 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>5.4</v>
+        <v>5.43</v>
       </c>
       <c r="C252">
         <v>66</v>
@@ -9969,7 +9968,7 @@
         <v>500.29</v>
       </c>
       <c r="F252">
-        <v>356.4</v>
+        <v>358.38</v>
       </c>
       <c r="G252" t="s">
         <v>32</v>
@@ -9978,7 +9977,7 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="I252">
-        <v>20.295999999999999</v>
+        <v>20.408000000000001</v>
       </c>
       <c r="J252">
         <v>7.58</v>
@@ -9992,7 +9991,7 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>9.69</v>
+        <v>9.66</v>
       </c>
       <c r="C253">
         <v>51</v>
@@ -10004,7 +10003,7 @@
         <v>549.69000000000005</v>
       </c>
       <c r="F253">
-        <v>494.19</v>
+        <v>492.66</v>
       </c>
       <c r="G253">
         <v>0.01</v>
@@ -10013,7 +10012,7 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="I253">
-        <v>15.196</v>
+        <v>15.148999999999999</v>
       </c>
       <c r="J253">
         <v>10.77</v>
@@ -10027,7 +10026,7 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>9.4</v>
+        <v>9.25</v>
       </c>
       <c r="C254">
         <v>61.37</v>
@@ -10039,7 +10038,7 @@
         <v>514.29</v>
       </c>
       <c r="F254">
-        <v>576.88</v>
+        <v>567.66999999999996</v>
       </c>
       <c r="G254">
         <v>0.01</v>
@@ -10048,13 +10047,13 @@
         <v>0.67</v>
       </c>
       <c r="I254">
-        <v>14.022</v>
+        <v>13.798</v>
       </c>
       <c r="J254">
         <v>8.3800000000000008</v>
       </c>
       <c r="K254">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -10062,7 +10061,7 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>4.3</v>
+        <v>4.16</v>
       </c>
       <c r="C255">
         <v>88</v>
@@ -10074,7 +10073,7 @@
         <v>744.87</v>
       </c>
       <c r="F255" s="2">
-        <v>378.4</v>
+        <v>366.08</v>
       </c>
       <c r="G255" t="s">
         <v>32</v>
@@ -10089,7 +10088,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="K255">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -10097,7 +10096,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>4.8600000000000003</v>
+        <v>4.63</v>
       </c>
       <c r="C256">
         <v>103.765</v>
@@ -10109,7 +10108,7 @@
         <v>771.32</v>
       </c>
       <c r="F256" s="2">
-        <v>504.3</v>
+        <v>480.43</v>
       </c>
       <c r="G256">
         <v>0.01</v>
@@ -10118,13 +10117,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I256">
-        <v>33.308999999999997</v>
+        <v>31.731999999999999</v>
       </c>
       <c r="J256">
         <v>7.43</v>
       </c>
       <c r="K256">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -10132,7 +10131,7 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>4.0599999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="C257">
         <v>57.24</v>
@@ -10144,7 +10143,7 @@
         <v>243.04</v>
       </c>
       <c r="F257" s="2">
-        <v>232.39</v>
+        <v>234.11</v>
       </c>
       <c r="G257" t="s">
         <v>32</v>
@@ -10159,7 +10158,7 @@
         <v>4.24</v>
       </c>
       <c r="K257">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -10167,7 +10166,7 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>6.98</v>
+        <v>6.9</v>
       </c>
       <c r="C258">
         <v>137.5</v>
@@ -10179,7 +10178,7 @@
         <v>1195.8</v>
       </c>
       <c r="F258" s="2">
-        <v>959.75</v>
+        <v>948.75</v>
       </c>
       <c r="G258">
         <v>0.01</v>
@@ -10188,13 +10187,13 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="I258">
-        <v>35.972000000000001</v>
+        <v>35.56</v>
       </c>
       <c r="J258">
         <v>8.69</v>
       </c>
       <c r="K258">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10202,7 +10201,7 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="C259">
         <v>107.50700000000001</v>
@@ -10214,7 +10213,7 @@
         <v>869.57</v>
       </c>
       <c r="F259" s="2">
-        <v>589.14</v>
+        <v>584.84</v>
       </c>
       <c r="G259">
         <v>0.01</v>
@@ -10223,7 +10222,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="I259">
-        <v>39.698999999999998</v>
+        <v>39.408999999999999</v>
       </c>
       <c r="J259">
         <v>8.08</v>
@@ -10237,7 +10236,7 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>8.3800000000000008</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="C260">
         <v>275.60700000000003</v>
@@ -10249,7 +10248,7 @@
         <v>2250.7800000000002</v>
       </c>
       <c r="F260" s="2">
-        <v>2309.59</v>
+        <v>2284.7800000000002</v>
       </c>
       <c r="G260">
         <v>0.03</v>
@@ -10258,13 +10257,13 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="I260">
-        <v>12.334</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="J260">
         <v>8.16</v>
       </c>
       <c r="K260">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10272,7 +10271,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>10.29</v>
+        <v>10.26</v>
       </c>
       <c r="C261">
         <v>186.50899999999999</v>
@@ -10284,7 +10283,7 @@
         <v>2308.79</v>
       </c>
       <c r="F261" s="2">
-        <v>1919.18</v>
+        <v>1913.58</v>
       </c>
       <c r="G261">
         <v>0.02</v>
@@ -10293,13 +10292,13 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="I261">
-        <v>34.411999999999999</v>
+        <v>34.311</v>
       </c>
       <c r="J261">
         <v>12.37</v>
       </c>
       <c r="K261">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10307,7 +10306,7 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>6.96</v>
+        <v>6.89</v>
       </c>
       <c r="C262">
         <v>186.94399999999999</v>
@@ -10319,7 +10318,7 @@
         <v>1454.16</v>
       </c>
       <c r="F262" s="2">
-        <v>1301.1300000000001</v>
+        <v>1288.04</v>
       </c>
       <c r="G262">
         <v>0.01</v>
@@ -10328,13 +10327,13 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I262">
-        <v>90.293000000000006</v>
+        <v>89.385000000000005</v>
       </c>
       <c r="J262">
         <v>7.77</v>
       </c>
       <c r="K262">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10377,7 +10376,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>3.73</v>
+        <v>3.64</v>
       </c>
       <c r="C264" s="2">
         <v>73.275999999999996</v>
@@ -10389,7 +10388,7 @@
         <v>515.41</v>
       </c>
       <c r="F264" s="2">
-        <v>273.32</v>
+        <v>266.72000000000003</v>
       </c>
       <c r="G264" t="s">
         <v>32</v>
@@ -10398,13 +10397,13 @@
         <v>0.111</v>
       </c>
       <c r="I264">
-        <v>33.659999999999997</v>
+        <v>32.847000000000001</v>
       </c>
       <c r="J264">
         <v>7.03</v>
       </c>
       <c r="K264">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -10412,7 +10411,7 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>9.25</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C265" s="2">
         <v>162.881</v>
@@ -10424,7 +10423,7 @@
         <v>1363.65</v>
       </c>
       <c r="F265" s="2">
-        <v>1506.65</v>
+        <v>1501.76</v>
       </c>
       <c r="G265">
         <v>0.02</v>
@@ -10433,7 +10432,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I265">
-        <v>17.035</v>
+        <v>16.98</v>
       </c>
       <c r="J265">
         <v>8.3699999999999992</v>
@@ -10443,11 +10442,11 @@
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+      <c r="A266" t="s">
         <v>270</v>
       </c>
       <c r="B266">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="C266" s="2">
         <v>141.00800000000001</v>
@@ -10459,7 +10458,7 @@
         <v>1222.58</v>
       </c>
       <c r="F266" s="2">
-        <v>812.21</v>
+        <v>810.8</v>
       </c>
       <c r="G266">
         <v>0.01</v>
@@ -10468,7 +10467,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="I266">
-        <v>13.686999999999999</v>
+        <v>13.663</v>
       </c>
       <c r="J266">
         <v>8.67</v>
@@ -10482,7 +10481,7 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>8.1999999999999993</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="C267">
         <v>102.002</v>
@@ -10494,7 +10493,7 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="F267" s="2">
-        <v>836.42</v>
+        <v>828.26</v>
       </c>
       <c r="G267">
         <v>0.01</v>
@@ -10503,13 +10502,13 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="I267">
-        <v>17.122</v>
+        <v>16.954999999999998</v>
       </c>
       <c r="J267">
         <v>10.11</v>
       </c>
       <c r="K267">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10517,7 +10516,7 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>8.17</v>
+        <v>7.87</v>
       </c>
       <c r="C268">
         <v>60.5</v>
@@ -10529,7 +10528,7 @@
         <v>582.99</v>
       </c>
       <c r="F268" s="2">
-        <v>494.29</v>
+        <v>476.14</v>
       </c>
       <c r="G268">
         <v>0.01</v>
@@ -10544,7 +10543,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="K268">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10561,7 +10560,7 @@
         <v>18786.89</v>
       </c>
       <c r="F269" s="2">
-        <v>15159.62</v>
+        <v>15003.4</v>
       </c>
       <c r="G269">
         <v>0.18</v>
@@ -10570,13 +10569,13 @@
         <v>0.127</v>
       </c>
       <c r="I269">
-        <v>21.14</v>
+        <v>20.96</v>
       </c>
       <c r="J269">
         <v>8.69</v>
       </c>
       <c r="K269">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10584,7 +10583,7 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>18.75</v>
+        <v>18.97</v>
       </c>
       <c r="C270">
         <v>375</v>
@@ -10596,7 +10595,7 @@
         <v>5177.7</v>
       </c>
       <c r="F270" s="2">
-        <v>7031.25</v>
+        <v>7113.75</v>
       </c>
       <c r="G270">
         <v>0.08</v>
@@ -10605,13 +10604,13 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="I270">
-        <v>20.245000000000001</v>
+        <v>20.483000000000001</v>
       </c>
       <c r="J270">
         <v>13.8</v>
       </c>
       <c r="K270">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10619,7 +10618,7 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>40.299999999999997</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="C271" s="2">
         <v>260.45699999999999</v>
@@ -10631,7 +10630,7 @@
         <v>6961</v>
       </c>
       <c r="F271" s="2">
-        <v>10496.42</v>
+        <v>10340.14</v>
       </c>
       <c r="G271">
         <v>0.12</v>
@@ -10640,13 +10639,13 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="I271">
-        <v>28.35</v>
+        <v>27.928000000000001</v>
       </c>
       <c r="J271">
         <v>26.72</v>
       </c>
       <c r="K271">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10654,7 +10653,7 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>82.4</v>
+        <v>81</v>
       </c>
       <c r="C272" s="2">
         <v>200</v>
@@ -10666,7 +10665,7 @@
         <v>4813</v>
       </c>
       <c r="F272" s="2">
-        <v>16480</v>
+        <v>16200</v>
       </c>
       <c r="G272">
         <v>0.18</v>
@@ -10675,13 +10674,13 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="I272">
-        <v>36.784999999999997</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="J272">
         <v>24.06</v>
       </c>
       <c r="K272">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10689,7 +10688,7 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C273" s="2">
         <v>233.93</v>
@@ -10701,7 +10700,7 @@
         <v>3990</v>
       </c>
       <c r="F273" s="2">
-        <v>7485.76</v>
+        <v>7462.37</v>
       </c>
       <c r="G273">
         <v>0.08</v>
@@ -10710,7 +10709,7 @@
         <v>1.145</v>
       </c>
       <c r="I273">
-        <v>27.952999999999999</v>
+        <v>27.866</v>
       </c>
       <c r="J273">
         <v>17.05</v>
@@ -10724,7 +10723,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>13.2</v>
+        <v>12.54</v>
       </c>
       <c r="C274" s="2">
         <v>523.25900000000001</v>
@@ -10736,10 +10735,10 @@
         <v>5136</v>
       </c>
       <c r="F274" s="2">
-        <v>6907.02</v>
+        <v>6561.67</v>
       </c>
       <c r="G274">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H274">
         <v>-1.7310000000000001</v>
@@ -10751,7 +10750,7 @@
         <v>9.81</v>
       </c>
       <c r="K274">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -10759,7 +10758,7 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>41.58</v>
+        <v>39.18</v>
       </c>
       <c r="C275">
         <v>30.234000000000002</v>
@@ -10771,7 +10770,7 @@
         <v>32</v>
       </c>
       <c r="F275" s="2">
-        <v>1257.1300000000001</v>
+        <v>1184.57</v>
       </c>
       <c r="G275">
         <v>0.01</v>
@@ -10794,7 +10793,7 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>20.07</v>
+        <v>18.96</v>
       </c>
       <c r="C276" s="2">
         <v>1180.0219999999999</v>
@@ -10806,22 +10805,22 @@
         <v>14415.73</v>
       </c>
       <c r="F276" s="2">
-        <v>23683.040000000001</v>
+        <v>22373.22</v>
       </c>
       <c r="G276">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H276">
         <v>0.95499999999999996</v>
       </c>
       <c r="I276">
-        <v>21.013999999999999</v>
+        <v>19.852</v>
       </c>
       <c r="J276">
         <v>12.21</v>
       </c>
       <c r="K276">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10829,7 +10828,7 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>19.5</v>
+        <v>18.27</v>
       </c>
       <c r="C277" s="2">
         <v>1080</v>
@@ -10841,22 +10840,22 @@
         <v>21304.55</v>
       </c>
       <c r="F277" s="2">
-        <v>21060</v>
+        <v>19731.599999999999</v>
       </c>
       <c r="G277">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H277">
         <v>0.79900000000000004</v>
       </c>
       <c r="I277">
-        <v>24.414999999999999</v>
+        <v>22.875</v>
       </c>
       <c r="J277">
         <v>19.72</v>
       </c>
       <c r="K277">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10864,7 +10863,7 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>12.78</v>
+        <v>12.46</v>
       </c>
       <c r="C278">
         <v>339.3</v>
@@ -10876,7 +10875,7 @@
         <v>2968.84</v>
       </c>
       <c r="F278" s="2">
-        <v>4336.25</v>
+        <v>4227.68</v>
       </c>
       <c r="G278">
         <v>0.05</v>
@@ -10891,7 +10890,7 @@
         <v>8.74</v>
       </c>
       <c r="K278">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10899,7 +10898,7 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>20.2</v>
+        <v>18.98</v>
       </c>
       <c r="C279" s="2">
         <v>93.332999999999998</v>
@@ -10911,7 +10910,7 @@
         <v>992.46</v>
       </c>
       <c r="F279" s="2">
-        <v>1885.33</v>
+        <v>1771.46</v>
       </c>
       <c r="G279">
         <v>0.02</v>
@@ -10926,7 +10925,7 @@
         <v>10.63</v>
       </c>
       <c r="K279">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10934,7 +10933,7 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>21.69</v>
+        <v>20.5</v>
       </c>
       <c r="C280" s="2">
         <v>475</v>
@@ -10946,7 +10945,7 @@
         <v>14824.3</v>
       </c>
       <c r="F280" s="2">
-        <v>10302.75</v>
+        <v>9737.5</v>
       </c>
       <c r="G280">
         <v>0.11</v>
@@ -10955,13 +10954,13 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="I280">
-        <v>8.1690000000000005</v>
+        <v>7.72</v>
       </c>
       <c r="J280">
         <v>31.2</v>
       </c>
       <c r="K280">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10969,7 +10968,7 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>15.23</v>
+        <v>14.75</v>
       </c>
       <c r="C281" s="2">
         <v>500</v>
@@ -10981,7 +10980,7 @@
         <v>847.1</v>
       </c>
       <c r="F281" s="2">
-        <v>7615</v>
+        <v>7375</v>
       </c>
       <c r="G281">
         <v>0.08</v>
@@ -10990,21 +10989,21 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="I281">
-        <v>27.948</v>
+        <v>27.067</v>
       </c>
       <c r="J281">
         <v>1.69</v>
       </c>
       <c r="K281">
-        <v>8.98</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
+      <c r="A282" t="s">
         <v>286</v>
       </c>
       <c r="B282">
-        <v>41.7</v>
+        <v>39.44</v>
       </c>
       <c r="C282" s="2">
         <v>50</v>
@@ -11016,7 +11015,7 @@
         <v>630.74</v>
       </c>
       <c r="F282" s="2">
-        <v>2085</v>
+        <v>1972</v>
       </c>
       <c r="G282">
         <v>0.02</v>
@@ -11025,21 +11024,21 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="I282">
-        <v>18.98</v>
+        <v>17.951000000000001</v>
       </c>
       <c r="J282">
         <v>12.61</v>
       </c>
       <c r="K282">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
+      <c r="A283" t="s">
         <v>287</v>
       </c>
       <c r="B283">
-        <v>4.5599999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C283" s="2">
         <v>200</v>
@@ -11051,7 +11050,7 @@
         <v>404.74</v>
       </c>
       <c r="F283" s="2">
-        <v>912</v>
+        <v>880</v>
       </c>
       <c r="G283">
         <v>0.01</v>
@@ -11060,21 +11059,21 @@
         <v>0.16</v>
       </c>
       <c r="I283">
-        <v>28.507999999999999</v>
+        <v>27.507999999999999</v>
       </c>
       <c r="J283">
         <v>2.02</v>
       </c>
       <c r="K283">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
+      <c r="A284" t="s">
         <v>288</v>
       </c>
       <c r="B284">
-        <v>23.16</v>
+        <v>23.34</v>
       </c>
       <c r="C284" s="2">
         <v>1438.6469999999999</v>
@@ -11086,22 +11085,22 @@
         <v>15037.78</v>
       </c>
       <c r="F284" s="2">
-        <v>33319.06</v>
+        <v>33578.019999999997</v>
       </c>
       <c r="G284">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="H284">
         <v>0.45400000000000001</v>
       </c>
       <c r="I284">
-        <v>50.988</v>
+        <v>51.384</v>
       </c>
       <c r="J284">
         <v>10.45</v>
       </c>
       <c r="K284">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -11118,22 +11117,22 @@
         <v>97503.94</v>
       </c>
       <c r="F285" s="2">
-        <v>154856.01</v>
+        <v>150508.98000000001</v>
       </c>
       <c r="G285">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H285">
         <v>0.68500000000000005</v>
       </c>
       <c r="I285">
-        <v>24.422000000000001</v>
+        <v>23.777000000000001</v>
       </c>
       <c r="J285">
         <v>13.97</v>
       </c>
       <c r="K285">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -11144,25 +11143,25 @@
         <v>342375.891</v>
       </c>
       <c r="D286" s="2">
-        <v>573888.21</v>
+        <v>573925.68000000005</v>
       </c>
       <c r="E286" s="2">
-        <v>3179541.21</v>
+        <v>3179712.31</v>
       </c>
       <c r="F286" s="2">
-        <v>9019626.3499999996</v>
+        <v>8947713.9100000001</v>
       </c>
       <c r="H286">
         <v>1.6759999999999999</v>
       </c>
       <c r="I286">
-        <v>15.282999999999999</v>
+        <v>15.164</v>
       </c>
       <c r="J286">
         <v>9.2899999999999991</v>
       </c>
       <c r="K286">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -11193,9 +11192,6 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A281">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F0BD2-B55D-4288-92C4-922956CB9D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5462A5-2801-448C-8102-D537A462CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,9 +901,6 @@
     <t>السوق</t>
   </si>
   <si>
-    <t>س :المؤشر سالب لان الشركة سجلت خسائر وفقاً للبيانات المالية لآخر أربعة أرباع (تنتهي في الربع الأول 2025م) لجميع الشركات</t>
-  </si>
-  <si>
     <t>الشركات التي لم تُعلن صافي الدخل، والشركات الخاسرة (آخر أربعة أرباع)، غير مشمولة في حساب نسبة السعر للعائد للقطاعات وللسوق.</t>
   </si>
   <si>
@@ -931,7 +928,10 @@
     <t>عزم</t>
   </si>
   <si>
-    <t xml:space="preserve"> السوق الرئيسية -  2025/08/14</t>
+    <t xml:space="preserve"> السوق الرئيسية -  2025/08/20</t>
+  </si>
+  <si>
+    <t>س :المؤشر سالب لان الشركة سجلت خسائر وفقاً للبيانات المالية لآخر أربعة أرباع (تنتهي في الربع الثاني 2025م) لجميع الشركات</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>57.05</v>
+        <v>57.75</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1382,7 +1382,7 @@
         <v>319.75</v>
       </c>
       <c r="F5">
-        <v>855.75</v>
+        <v>866.25</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -1397,7 +1397,7 @@
         <v>21.31</v>
       </c>
       <c r="K5">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>24.06</v>
+        <v>23.88</v>
       </c>
       <c r="C6" s="2">
         <v>242000</v>
@@ -1417,22 +1417,22 @@
         <v>1483590</v>
       </c>
       <c r="F6" s="2">
-        <v>5822520</v>
+        <v>5778960</v>
       </c>
       <c r="G6">
-        <v>64.89</v>
+        <v>64.63</v>
       </c>
       <c r="H6">
         <v>1.528</v>
       </c>
       <c r="I6">
-        <v>15.747999999999999</v>
+        <v>15.631</v>
       </c>
       <c r="J6">
         <v>6.13</v>
       </c>
       <c r="K6">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>7.12</v>
+        <v>7.52</v>
       </c>
       <c r="C7" s="2">
         <v>1671</v>
@@ -1452,10 +1452,10 @@
         <v>9622</v>
       </c>
       <c r="F7" s="2">
-        <v>11897.52</v>
+        <v>12565.92</v>
       </c>
       <c r="G7">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H7">
         <v>-2.476</v>
@@ -1467,7 +1467,7 @@
         <v>5.75</v>
       </c>
       <c r="K7">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>73.7</v>
+        <v>75.2</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -1487,7 +1487,7 @@
         <v>5895</v>
       </c>
       <c r="F8" s="2">
-        <v>6559.3</v>
+        <v>6692.8</v>
       </c>
       <c r="G8">
         <v>7.0000000000000007E-2</v>
@@ -1496,13 +1496,13 @@
         <v>2.661</v>
       </c>
       <c r="I8">
-        <v>27.698</v>
+        <v>28.262</v>
       </c>
       <c r="J8">
         <v>66.23</v>
       </c>
       <c r="K8">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>14.95</v>
+        <v>14.97</v>
       </c>
       <c r="C9" s="2">
         <v>1129.0619999999999</v>
@@ -1522,7 +1522,7 @@
         <v>6585.2</v>
       </c>
       <c r="F9" s="2">
-        <v>16879.48</v>
+        <v>16902.060000000001</v>
       </c>
       <c r="G9">
         <v>0.19</v>
@@ -1531,7 +1531,7 @@
         <v>0.71</v>
       </c>
       <c r="I9">
-        <v>21.056999999999999</v>
+        <v>21.085000000000001</v>
       </c>
       <c r="J9">
         <v>5.83</v>
@@ -1545,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>21.76</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>922.851</v>
@@ -1557,22 +1557,22 @@
         <v>13767.45</v>
       </c>
       <c r="F10" s="2">
-        <v>20081.240000000002</v>
+        <v>20302.72</v>
       </c>
       <c r="G10">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="H10">
         <v>2.0840000000000001</v>
       </c>
       <c r="I10">
-        <v>10.439</v>
+        <v>10.554</v>
       </c>
       <c r="J10">
         <v>14.91</v>
       </c>
       <c r="K10">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>123.9</v>
+        <v>126.9</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1592,7 +1592,7 @@
         <v>1537.3</v>
       </c>
       <c r="F11" s="2">
-        <v>12390</v>
+        <v>12690</v>
       </c>
       <c r="G11">
         <v>0.14000000000000001</v>
@@ -1601,13 +1601,13 @@
         <v>3.78</v>
       </c>
       <c r="I11">
-        <v>32.777000000000001</v>
+        <v>33.570999999999998</v>
       </c>
       <c r="J11">
         <v>15.37</v>
       </c>
       <c r="K11">
-        <v>8.0500000000000007</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>1521316.7</v>
       </c>
       <c r="F12" s="2">
-        <v>5891183.29</v>
+        <v>5848979.75</v>
       </c>
       <c r="G12">
-        <v>65.650000000000006</v>
+        <v>65.41</v>
       </c>
       <c r="H12">
         <v>1.5</v>
       </c>
       <c r="I12">
-        <v>15.757999999999999</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="J12">
         <v>6.19</v>
       </c>
       <c r="K12">
-        <v>3.87</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7.6</v>
+        <v>7.49</v>
       </c>
       <c r="C13">
         <v>76.463999999999999</v>
@@ -1659,7 +1659,7 @@
         <v>356.38</v>
       </c>
       <c r="F13">
-        <v>581.13</v>
+        <v>572.72</v>
       </c>
       <c r="G13">
         <v>0.01</v>
@@ -1674,7 +1674,7 @@
         <v>4.66</v>
       </c>
       <c r="K13">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>28.02</v>
+        <v>27.24</v>
       </c>
       <c r="C14">
         <v>86.665999999999997</v>
@@ -1694,7 +1694,7 @@
         <v>1617.53</v>
       </c>
       <c r="F14" s="2">
-        <v>2428.38</v>
+        <v>2360.7800000000002</v>
       </c>
       <c r="G14">
         <v>0.03</v>
@@ -1709,7 +1709,7 @@
         <v>18.66</v>
       </c>
       <c r="K14">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>53.65</v>
+        <v>52.75</v>
       </c>
       <c r="C16" s="2">
         <v>3888.7629999999999</v>
@@ -1764,22 +1764,22 @@
         <v>57375.08</v>
       </c>
       <c r="F16" s="2">
-        <v>208632.13</v>
+        <v>205132.25</v>
       </c>
       <c r="G16">
-        <v>2.3199999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="H16">
         <v>1.115</v>
       </c>
       <c r="I16">
-        <v>48.097999999999999</v>
+        <v>47.290999999999997</v>
       </c>
       <c r="J16">
         <v>14.75</v>
       </c>
       <c r="K16">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>22.32</v>
+        <v>23.68</v>
       </c>
       <c r="C17">
         <v>28.08</v>
@@ -1799,7 +1799,7 @@
         <v>368.8</v>
       </c>
       <c r="F17">
-        <v>626.75</v>
+        <v>664.93</v>
       </c>
       <c r="G17">
         <v>0.01</v>
@@ -1808,13 +1808,13 @@
         <v>0.26</v>
       </c>
       <c r="I17">
-        <v>85.855999999999995</v>
+        <v>91.085999999999999</v>
       </c>
       <c r="J17">
         <v>13.13</v>
       </c>
       <c r="K17">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>33.1</v>
+        <v>33.96</v>
       </c>
       <c r="C18">
         <v>50.8</v>
@@ -1834,7 +1834,7 @@
         <v>605.59</v>
       </c>
       <c r="F18" s="2">
-        <v>1681.48</v>
+        <v>1725.17</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1843,13 +1843,13 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="I18">
-        <v>36.411000000000001</v>
+        <v>37.356999999999999</v>
       </c>
       <c r="J18">
         <v>11.92</v>
       </c>
       <c r="K18">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>51.05</v>
+        <v>51.45</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1869,7 +1869,7 @@
         <v>784</v>
       </c>
       <c r="F19" s="2">
-        <v>2603.5500000000002</v>
+        <v>2623.95</v>
       </c>
       <c r="G19">
         <v>0.03</v>
@@ -1878,13 +1878,13 @@
         <v>5.1959999999999997</v>
       </c>
       <c r="I19">
-        <v>9.8239999999999998</v>
+        <v>9.9009999999999998</v>
       </c>
       <c r="J19">
         <v>15.37</v>
       </c>
       <c r="K19">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>106.7</v>
+        <v>110</v>
       </c>
       <c r="C20">
         <v>31.5</v>
@@ -1904,7 +1904,7 @@
         <v>1225.06</v>
       </c>
       <c r="F20" s="2">
-        <v>3361.05</v>
+        <v>3465</v>
       </c>
       <c r="G20">
         <v>0.04</v>
@@ -1913,13 +1913,13 @@
         <v>12.734999999999999</v>
       </c>
       <c r="I20">
-        <v>8.3780000000000001</v>
+        <v>8.6370000000000005</v>
       </c>
       <c r="J20">
         <v>38.89</v>
       </c>
       <c r="K20">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>64.2</v>
+        <v>62.6</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1939,7 +1939,7 @@
         <v>1284.3499999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5778</v>
+        <v>5634</v>
       </c>
       <c r="G21">
         <v>0.06</v>
@@ -1948,13 +1948,13 @@
         <v>2.5470000000000002</v>
       </c>
       <c r="I21">
-        <v>25.204999999999998</v>
+        <v>24.576000000000001</v>
       </c>
       <c r="J21">
         <v>14.27</v>
       </c>
       <c r="K21">
-        <v>4.49</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>30.04</v>
+        <v>30.2</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1974,7 +1974,7 @@
         <v>579.59</v>
       </c>
       <c r="F22" s="2">
-        <v>1201.5999999999999</v>
+        <v>1208</v>
       </c>
       <c r="G22">
         <v>0.01</v>
@@ -1983,13 +1983,13 @@
         <v>2.2170000000000001</v>
       </c>
       <c r="I22">
-        <v>13.552</v>
+        <v>13.625</v>
       </c>
       <c r="J22">
         <v>14.48</v>
       </c>
       <c r="K22">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>10.1</v>
+        <v>10.18</v>
       </c>
       <c r="C23">
         <v>67.45</v>
@@ -2009,7 +2009,7 @@
         <v>300.97000000000003</v>
       </c>
       <c r="F23">
-        <v>681.25</v>
+        <v>686.64</v>
       </c>
       <c r="G23">
         <v>0.01</v>
@@ -2024,7 +2024,7 @@
         <v>4.46</v>
       </c>
       <c r="K23">
-        <v>2.2599999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>57.3</v>
+        <v>57.5</v>
       </c>
       <c r="C24" s="2">
         <v>3000</v>
@@ -2044,10 +2044,10 @@
         <v>153880</v>
       </c>
       <c r="F24" s="2">
-        <v>171900</v>
+        <v>172500</v>
       </c>
       <c r="G24">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H24">
         <v>-2.0569999999999999</v>
@@ -2059,7 +2059,7 @@
         <v>51.29</v>
       </c>
       <c r="K24">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>119.2</v>
+        <v>121.6</v>
       </c>
       <c r="C25">
         <v>476.03500000000003</v>
@@ -2079,22 +2079,22 @@
         <v>20156</v>
       </c>
       <c r="F25" s="2">
-        <v>56743.37</v>
+        <v>57885.86</v>
       </c>
       <c r="G25">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="H25">
         <v>8.0370000000000008</v>
       </c>
       <c r="I25">
-        <v>14.83</v>
+        <v>15.129</v>
       </c>
       <c r="J25">
         <v>42.34</v>
       </c>
       <c r="K25">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>10.15</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C26">
         <v>668.91399999999999</v>
@@ -2114,7 +2114,7 @@
         <v>10480</v>
       </c>
       <c r="F26" s="2">
-        <v>6789.48</v>
+        <v>6822.92</v>
       </c>
       <c r="G26">
         <v>0.08</v>
@@ -2123,13 +2123,13 @@
         <v>1.423</v>
       </c>
       <c r="I26">
-        <v>7.1310000000000002</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="J26">
         <v>15.66</v>
       </c>
       <c r="K26">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>19.77</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="C27">
         <v>31.666</v>
@@ -2149,7 +2149,7 @@
         <v>345.21</v>
       </c>
       <c r="F27">
-        <v>626.04</v>
+        <v>617.79999999999995</v>
       </c>
       <c r="G27">
         <v>0.01</v>
@@ -2164,7 +2164,7 @@
         <v>10.9</v>
       </c>
       <c r="K27">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>41.1</v>
+        <v>40.94</v>
       </c>
       <c r="C28">
         <v>32.9</v>
@@ -2184,7 +2184,7 @@
         <v>792.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1352.19</v>
+        <v>1346.93</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2193,13 +2193,13 @@
         <v>2.59</v>
       </c>
       <c r="I28">
-        <v>15.87</v>
+        <v>15.808999999999999</v>
       </c>
       <c r="J28">
         <v>24.08</v>
       </c>
       <c r="K28">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>36.1</v>
+        <v>36.56</v>
       </c>
       <c r="C29">
         <v>69.2</v>
@@ -2219,7 +2219,7 @@
         <v>3384.53</v>
       </c>
       <c r="F29" s="2">
-        <v>2498.12</v>
+        <v>2529.9499999999998</v>
       </c>
       <c r="G29">
         <v>0.03</v>
@@ -2234,7 +2234,7 @@
         <v>48.9</v>
       </c>
       <c r="K29">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>32.1</v>
+        <v>32.42</v>
       </c>
       <c r="C30">
         <v>11.5</v>
@@ -2254,7 +2254,7 @@
         <v>130.30000000000001</v>
       </c>
       <c r="F30">
-        <v>369.15</v>
+        <v>372.83</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2269,7 +2269,7 @@
         <v>11.33</v>
       </c>
       <c r="K30">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>5.51</v>
+        <v>5.84</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -2289,7 +2289,7 @@
         <v>453.42</v>
       </c>
       <c r="F31" s="2">
-        <v>1102</v>
+        <v>1168</v>
       </c>
       <c r="G31">
         <v>0.01</v>
@@ -2298,13 +2298,13 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="I31">
-        <v>8.4149999999999991</v>
+        <v>8.9190000000000005</v>
       </c>
       <c r="J31">
         <v>2.2599999999999998</v>
       </c>
       <c r="K31">
-        <v>2.4300000000000002</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>26.1</v>
+        <v>26.74</v>
       </c>
       <c r="C32">
         <v>23.52</v>
@@ -2324,7 +2324,7 @@
         <v>342.53</v>
       </c>
       <c r="F32">
-        <v>613.87</v>
+        <v>628.91999999999996</v>
       </c>
       <c r="G32">
         <v>0.01</v>
@@ -2333,13 +2333,13 @@
         <v>3.887</v>
       </c>
       <c r="I32">
-        <v>6.7140000000000004</v>
+        <v>6.8780000000000001</v>
       </c>
       <c r="J32">
         <v>14.56</v>
       </c>
       <c r="K32">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>15.82</v>
+        <v>16.62</v>
       </c>
       <c r="C33">
         <v>35.4</v>
@@ -2359,7 +2359,7 @@
         <v>236.88</v>
       </c>
       <c r="F33">
-        <v>560.03</v>
+        <v>588.35</v>
       </c>
       <c r="G33">
         <v>0.01</v>
@@ -2374,7 +2374,7 @@
         <v>6.69</v>
       </c>
       <c r="K33">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>85.9</v>
+        <v>85.7</v>
       </c>
       <c r="C34">
         <v>168.75</v>
@@ -2394,7 +2394,7 @@
         <v>4331.75</v>
       </c>
       <c r="F34" s="2">
-        <v>14495.63</v>
+        <v>14461.88</v>
       </c>
       <c r="G34">
         <v>0.16</v>
@@ -2403,13 +2403,13 @@
         <v>5.3390000000000004</v>
       </c>
       <c r="I34">
-        <v>16.09</v>
+        <v>16.053000000000001</v>
       </c>
       <c r="J34">
         <v>25.66</v>
       </c>
       <c r="K34">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>38.86</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -2429,7 +2429,7 @@
         <v>500.88</v>
       </c>
       <c r="F35" s="2">
-        <v>2331.6</v>
+        <v>2259.6</v>
       </c>
       <c r="G35">
         <v>0.03</v>
@@ -2438,13 +2438,13 @@
         <v>1.04</v>
       </c>
       <c r="I35">
-        <v>37.383000000000003</v>
+        <v>36.228000000000002</v>
       </c>
       <c r="J35">
         <v>8.34</v>
       </c>
       <c r="K35">
-        <v>4.6500000000000004</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>18.02</v>
+        <v>18.14</v>
       </c>
       <c r="C36">
         <v>679.32</v>
@@ -2464,7 +2464,7 @@
         <v>9062</v>
       </c>
       <c r="F36" s="2">
-        <v>12241.35</v>
+        <v>12322.86</v>
       </c>
       <c r="G36">
         <v>0.14000000000000001</v>
@@ -2473,7 +2473,7 @@
         <v>0.216</v>
       </c>
       <c r="I36">
-        <v>83.274000000000001</v>
+        <v>83.828000000000003</v>
       </c>
       <c r="J36">
         <v>13.33</v>
@@ -2487,7 +2487,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>31.98</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="C37">
         <v>562.5</v>
@@ -2499,7 +2499,7 @@
         <v>11298.4</v>
       </c>
       <c r="F37" s="2">
-        <v>17988.75</v>
+        <v>18213.75</v>
       </c>
       <c r="G37">
         <v>0.2</v>
@@ -2508,13 +2508,13 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="I37">
-        <v>116.961</v>
+        <v>118.42400000000001</v>
       </c>
       <c r="J37">
         <v>20.079999999999998</v>
       </c>
       <c r="K37">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>55.15</v>
+        <v>56.6</v>
       </c>
       <c r="C38">
         <v>37.07</v>
@@ -2534,7 +2534,7 @@
         <v>547.83000000000004</v>
       </c>
       <c r="F38" s="2">
-        <v>2044.41</v>
+        <v>2098.16</v>
       </c>
       <c r="G38">
         <v>0.02</v>
@@ -2543,13 +2543,13 @@
         <v>1.4990000000000001</v>
       </c>
       <c r="I38">
-        <v>36.795999999999999</v>
+        <v>37.762999999999998</v>
       </c>
       <c r="J38">
         <v>14.77</v>
       </c>
       <c r="K38">
-        <v>3.73</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>17.8</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>733.33299999999997</v>
@@ -2569,22 +2569,22 @@
         <v>14890.1</v>
       </c>
       <c r="F39" s="2">
-        <v>13053.33</v>
+        <v>13933.33</v>
       </c>
       <c r="G39">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H39">
         <v>0.20399999999999999</v>
       </c>
       <c r="I39">
-        <v>87.43</v>
+        <v>93.323999999999998</v>
       </c>
       <c r="J39">
         <v>20.3</v>
       </c>
       <c r="K39">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>32.68</v>
+        <v>33.4</v>
       </c>
       <c r="C40">
         <v>260</v>
@@ -2604,10 +2604,10 @@
         <v>3006</v>
       </c>
       <c r="F40" s="2">
-        <v>8496.7999999999993</v>
+        <v>8684</v>
       </c>
       <c r="G40">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H40">
         <v>-0.33800000000000002</v>
@@ -2619,7 +2619,7 @@
         <v>11.56</v>
       </c>
       <c r="K40">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>4.8499999999999996</v>
+        <v>5.03</v>
       </c>
       <c r="C41" s="2">
         <v>1500</v>
@@ -2639,7 +2639,7 @@
         <v>10237.07</v>
       </c>
       <c r="F41" s="2">
-        <v>7275</v>
+        <v>7545</v>
       </c>
       <c r="G41">
         <v>0.08</v>
@@ -2654,7 +2654,7 @@
         <v>6.82</v>
       </c>
       <c r="K41">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2674,7 +2674,7 @@
         <v>81.83</v>
       </c>
       <c r="F42">
-        <v>411</v>
+        <v>409.5</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2689,7 +2689,7 @@
         <v>5.45</v>
       </c>
       <c r="K42">
-        <v>5.0199999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>7.95</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="C43">
         <v>170</v>
@@ -2709,7 +2709,7 @@
         <v>2028.18</v>
       </c>
       <c r="F43" s="2">
-        <v>1351.5</v>
+        <v>1380.4</v>
       </c>
       <c r="G43">
         <v>0.02</v>
@@ -2718,13 +2718,13 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="I43">
-        <v>18.971</v>
+        <v>19.376000000000001</v>
       </c>
       <c r="J43">
         <v>11.93</v>
       </c>
       <c r="K43">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>16.11</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="C44">
         <v>140</v>
@@ -2744,7 +2744,7 @@
         <v>1882.63</v>
       </c>
       <c r="F44" s="2">
-        <v>2255.4</v>
+        <v>2263.8000000000002</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -2753,13 +2753,13 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="I44">
-        <v>13.864000000000001</v>
+        <v>13.916</v>
       </c>
       <c r="J44">
         <v>13.44</v>
       </c>
       <c r="K44">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="C45">
         <v>180</v>
@@ -2779,7 +2779,7 @@
         <v>2275.2600000000002</v>
       </c>
       <c r="F45" s="2">
-        <v>1391.4</v>
+        <v>1395</v>
       </c>
       <c r="G45">
         <v>0.02</v>
@@ -2788,7 +2788,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="I45">
-        <v>23.776</v>
+        <v>23.838000000000001</v>
       </c>
       <c r="J45">
         <v>12.64</v>
@@ -2802,7 +2802,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>14.96</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>55</v>
@@ -2814,7 +2814,7 @@
         <v>834.33</v>
       </c>
       <c r="F46">
-        <v>822.8</v>
+        <v>825</v>
       </c>
       <c r="G46">
         <v>0.01</v>
@@ -2823,7 +2823,7 @@
         <v>0.7</v>
       </c>
       <c r="I46">
-        <v>21.382000000000001</v>
+        <v>21.439</v>
       </c>
       <c r="J46">
         <v>15.16</v>
@@ -2837,7 +2837,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>25.12</v>
+        <v>25.96</v>
       </c>
       <c r="C47">
         <v>22.5</v>
@@ -2849,7 +2849,7 @@
         <v>279.94</v>
       </c>
       <c r="F47">
-        <v>565.20000000000005</v>
+        <v>584.1</v>
       </c>
       <c r="G47">
         <v>0.01</v>
@@ -2858,13 +2858,13 @@
         <v>0.09</v>
       </c>
       <c r="I47">
-        <v>278.423</v>
+        <v>287.733</v>
       </c>
       <c r="J47">
         <v>12.44</v>
       </c>
       <c r="K47">
-        <v>2.0099999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2872,7 +2872,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="C48">
         <v>226.04400000000001</v>
@@ -2884,7 +2884,7 @@
         <v>104.52</v>
       </c>
       <c r="F48">
-        <v>495.04</v>
+        <v>485.99</v>
       </c>
       <c r="G48">
         <v>0.01</v>
@@ -2899,7 +2899,7 @@
         <v>0.46</v>
       </c>
       <c r="K48">
-        <v>4.7300000000000004</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>21.99</v>
+        <v>21.71</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -2919,7 +2919,7 @@
         <v>2521.8000000000002</v>
       </c>
       <c r="F49" s="2">
-        <v>2199</v>
+        <v>2171</v>
       </c>
       <c r="G49">
         <v>0.02</v>
@@ -2928,13 +2928,13 @@
         <v>1.212</v>
       </c>
       <c r="I49">
-        <v>18.143000000000001</v>
+        <v>17.911999999999999</v>
       </c>
       <c r="J49">
         <v>25.21</v>
       </c>
       <c r="K49">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>33.44</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C50">
         <v>202.5</v>
@@ -2954,7 +2954,7 @@
         <v>4903.74</v>
       </c>
       <c r="F50" s="2">
-        <v>6771.6</v>
+        <v>6824.25</v>
       </c>
       <c r="G50">
         <v>0.08</v>
@@ -2963,13 +2963,13 @@
         <v>2.391</v>
       </c>
       <c r="I50">
-        <v>13.986000000000001</v>
+        <v>14.095000000000001</v>
       </c>
       <c r="J50">
         <v>24.21</v>
       </c>
       <c r="K50">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>39.119999999999997</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>153</v>
@@ -2989,7 +2989,7 @@
         <v>2062</v>
       </c>
       <c r="F51" s="2">
-        <v>5985.36</v>
+        <v>5967</v>
       </c>
       <c r="G51">
         <v>7.0000000000000007E-2</v>
@@ -2998,13 +2998,13 @@
         <v>2.7759999999999998</v>
       </c>
       <c r="I51">
-        <v>14.089</v>
+        <v>14.045999999999999</v>
       </c>
       <c r="J51">
         <v>13.47</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>43.56</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>110.559</v>
@@ -3024,7 +3024,7 @@
         <v>2724.21</v>
       </c>
       <c r="F52" s="2">
-        <v>4815.95</v>
+        <v>4754.04</v>
       </c>
       <c r="G52">
         <v>0.05</v>
@@ -3033,13 +3033,13 @@
         <v>2.798</v>
       </c>
       <c r="I52">
-        <v>15.566000000000001</v>
+        <v>15.366</v>
       </c>
       <c r="J52">
         <v>24.64</v>
       </c>
       <c r="K52">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>26.02</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3059,7 +3059,7 @@
         <v>3316</v>
       </c>
       <c r="F53" s="2">
-        <v>3642.8</v>
+        <v>3640</v>
       </c>
       <c r="G53">
         <v>0.04</v>
@@ -3068,7 +3068,7 @@
         <v>1.3859999999999999</v>
       </c>
       <c r="I53">
-        <v>18.777000000000001</v>
+        <v>18.762</v>
       </c>
       <c r="J53">
         <v>23.68</v>
@@ -3082,7 +3082,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>16.34</v>
+        <v>16.04</v>
       </c>
       <c r="C54">
         <v>157.5</v>
@@ -3094,7 +3094,7 @@
         <v>2657.61</v>
       </c>
       <c r="F54" s="2">
-        <v>2573.5500000000002</v>
+        <v>2526.3000000000002</v>
       </c>
       <c r="G54">
         <v>0.03</v>
@@ -3103,13 +3103,13 @@
         <v>0.70199999999999996</v>
       </c>
       <c r="I54">
-        <v>23.273</v>
+        <v>22.844999999999999</v>
       </c>
       <c r="J54">
         <v>16.87</v>
       </c>
       <c r="K54">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>27.08</v>
+        <v>26.84</v>
       </c>
       <c r="C55">
         <v>86</v>
@@ -3129,7 +3129,7 @@
         <v>2301</v>
       </c>
       <c r="F55" s="2">
-        <v>2328.88</v>
+        <v>2308.2399999999998</v>
       </c>
       <c r="G55">
         <v>0.03</v>
@@ -3138,13 +3138,13 @@
         <v>2.8370000000000002</v>
       </c>
       <c r="I55">
-        <v>9.5440000000000005</v>
+        <v>9.4589999999999996</v>
       </c>
       <c r="J55">
         <v>26.75</v>
       </c>
       <c r="K55">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>10.48</v>
+        <v>10.6</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -3164,7 +3164,7 @@
         <v>1188.4100000000001</v>
       </c>
       <c r="F56" s="2">
-        <v>943.2</v>
+        <v>954</v>
       </c>
       <c r="G56">
         <v>0.01</v>
@@ -3173,13 +3173,13 @@
         <v>0.65900000000000003</v>
       </c>
       <c r="I56">
-        <v>15.91</v>
+        <v>16.093</v>
       </c>
       <c r="J56">
         <v>13.2</v>
       </c>
       <c r="K56">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3187,7 +3187,7 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="C57">
         <v>108.7</v>
@@ -3199,7 +3199,7 @@
         <v>1077.8599999999999</v>
       </c>
       <c r="F57">
-        <v>721.77</v>
+        <v>725.03</v>
       </c>
       <c r="G57">
         <v>0.01</v>
@@ -3214,7 +3214,7 @@
         <v>9.91</v>
       </c>
       <c r="K57">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>29.94</v>
+        <v>29.9</v>
       </c>
       <c r="C58">
         <v>120</v>
@@ -3234,7 +3234,7 @@
         <v>1762.83</v>
       </c>
       <c r="F58" s="2">
-        <v>3592.8</v>
+        <v>3588</v>
       </c>
       <c r="G58">
         <v>0.04</v>
@@ -3243,7 +3243,7 @@
         <v>2.5760000000000001</v>
       </c>
       <c r="I58">
-        <v>11.624000000000001</v>
+        <v>11.609</v>
       </c>
       <c r="J58">
         <v>14.69</v>
@@ -3266,16 +3266,16 @@
         <v>341149.37</v>
       </c>
       <c r="F59" s="2">
-        <v>589668.93999999994</v>
+        <v>589600.48</v>
       </c>
       <c r="G59">
-        <v>6.62</v>
+        <v>6.64</v>
       </c>
       <c r="H59">
         <v>0.32600000000000001</v>
       </c>
       <c r="I59">
-        <v>26.981999999999999</v>
+        <v>26.905999999999999</v>
       </c>
       <c r="J59">
         <v>22.64</v>
@@ -3289,7 +3289,7 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>150</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -3301,7 +3301,7 @@
         <v>2635.33</v>
       </c>
       <c r="F60" s="2">
-        <v>12000</v>
+        <v>11656</v>
       </c>
       <c r="G60">
         <v>0.13</v>
@@ -3310,13 +3310,13 @@
         <v>7.7210000000000001</v>
       </c>
       <c r="I60">
-        <v>19.428000000000001</v>
+        <v>18.870999999999999</v>
       </c>
       <c r="J60">
         <v>32.94</v>
       </c>
       <c r="K60">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C61">
         <v>55.5</v>
@@ -3336,7 +3336,7 @@
         <v>817.64</v>
       </c>
       <c r="F61" s="2">
-        <v>1520.7</v>
+        <v>1537.35</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3345,13 +3345,13 @@
         <v>1.4410000000000001</v>
       </c>
       <c r="I61">
-        <v>19.010999999999999</v>
+        <v>19.219000000000001</v>
       </c>
       <c r="J61">
         <v>14.73</v>
       </c>
       <c r="K61">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>58.65</v>
+        <v>58.35</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -3371,7 +3371,7 @@
         <v>1014.76</v>
       </c>
       <c r="F62" s="2">
-        <v>3519</v>
+        <v>3501</v>
       </c>
       <c r="G62">
         <v>0.04</v>
@@ -3380,13 +3380,13 @@
         <v>2.3439999999999999</v>
       </c>
       <c r="I62">
-        <v>25.021000000000001</v>
+        <v>24.893000000000001</v>
       </c>
       <c r="J62">
         <v>16.91</v>
       </c>
       <c r="K62">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>9.61</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="C63" s="2">
         <v>1125</v>
@@ -3406,7 +3406,7 @@
         <v>1071.6600000000001</v>
       </c>
       <c r="F63" s="2">
-        <v>10811.25</v>
+        <v>10631.25</v>
       </c>
       <c r="G63">
         <v>0.12</v>
@@ -3415,13 +3415,13 @@
         <v>0.432</v>
       </c>
       <c r="I63">
-        <v>22.242999999999999</v>
+        <v>21.873000000000001</v>
       </c>
       <c r="J63">
         <v>0.95</v>
       </c>
       <c r="K63">
-        <v>10.08</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -3441,7 +3441,7 @@
         <v>1558.01</v>
       </c>
       <c r="F64" s="2">
-        <v>3050</v>
+        <v>3020</v>
       </c>
       <c r="G64">
         <v>0.03</v>
@@ -3450,13 +3450,13 @@
         <v>0.50800000000000001</v>
       </c>
       <c r="I64">
-        <v>60.039000000000001</v>
+        <v>59.448</v>
       </c>
       <c r="J64">
         <v>15.58</v>
       </c>
       <c r="K64">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3464,7 +3464,7 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>150.6</v>
+        <v>150.5</v>
       </c>
       <c r="C65">
         <v>6.6719999999999997</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="F65" s="2">
-        <v>1004.8</v>
+        <v>1004.14</v>
       </c>
       <c r="G65">
         <v>0.01</v>
@@ -3499,7 +3499,7 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>20.21</v>
+        <v>19.93</v>
       </c>
       <c r="C66">
         <v>44.55</v>
@@ -3511,7 +3511,7 @@
         <v>913.31</v>
       </c>
       <c r="F66" s="2">
-        <v>900.36</v>
+        <v>887.88</v>
       </c>
       <c r="G66">
         <v>0.01</v>
@@ -3526,7 +3526,7 @@
         <v>20.5</v>
       </c>
       <c r="K66">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>56.9</v>
+        <v>58.8</v>
       </c>
       <c r="C67">
         <v>63.945999999999998</v>
@@ -3546,7 +3546,7 @@
         <v>1182.7</v>
       </c>
       <c r="F67" s="2">
-        <v>3638.53</v>
+        <v>3760.02</v>
       </c>
       <c r="G67">
         <v>0.04</v>
@@ -3555,13 +3555,13 @@
         <v>4.923</v>
       </c>
       <c r="I67">
-        <v>11.558</v>
+        <v>11.944000000000001</v>
       </c>
       <c r="J67">
         <v>18.489999999999998</v>
       </c>
       <c r="K67">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3569,7 +3569,7 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>33.5</v>
+        <v>33.18</v>
       </c>
       <c r="C68">
         <v>40</v>
@@ -3581,7 +3581,7 @@
         <v>498.79</v>
       </c>
       <c r="F68" s="2">
-        <v>1340</v>
+        <v>1327.2</v>
       </c>
       <c r="G68">
         <v>0.01</v>
@@ -3590,13 +3590,13 @@
         <v>2.3079999999999998</v>
       </c>
       <c r="I68">
-        <v>14.513</v>
+        <v>14.374000000000001</v>
       </c>
       <c r="J68">
         <v>12.46</v>
       </c>
       <c r="K68">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2.27</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C69">
         <v>600</v>
@@ -3616,7 +3616,7 @@
         <v>411.18</v>
       </c>
       <c r="F69" s="2">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="G69">
         <v>0.02</v>
@@ -3631,7 +3631,7 @@
         <v>0.68</v>
       </c>
       <c r="K69">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="C70">
         <v>194.4</v>
@@ -3651,7 +3651,7 @@
         <v>118.86</v>
       </c>
       <c r="F70">
-        <v>406.3</v>
+        <v>408.24</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -3666,7 +3666,7 @@
         <v>0.61</v>
       </c>
       <c r="K70">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -3686,7 +3686,7 @@
         <v>155.80000000000001</v>
       </c>
       <c r="F71">
-        <v>319.2</v>
+        <v>326.39999999999998</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -3701,7 +3701,7 @@
         <v>12.98</v>
       </c>
       <c r="K71">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,7 +3709,7 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>136.69999999999999</v>
+        <v>136.1</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -3721,7 +3721,7 @@
         <v>2914.54</v>
       </c>
       <c r="F72" s="2">
-        <v>20505</v>
+        <v>20415</v>
       </c>
       <c r="G72">
         <v>0.23</v>
@@ -3730,13 +3730,13 @@
         <v>6.827</v>
       </c>
       <c r="I72">
-        <v>20.021999999999998</v>
+        <v>19.934000000000001</v>
       </c>
       <c r="J72">
         <v>19.43</v>
       </c>
       <c r="K72">
-        <v>7.03</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>41.4</v>
+        <v>41.06</v>
       </c>
       <c r="C73">
         <v>40</v>
@@ -3756,7 +3756,7 @@
         <v>485.91</v>
       </c>
       <c r="F73" s="2">
-        <v>1656</v>
+        <v>1642.4</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3765,13 +3765,13 @@
         <v>2.0430000000000001</v>
       </c>
       <c r="I73">
-        <v>20.265999999999998</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J73">
         <v>12.14</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>57.8</v>
+        <v>58.35</v>
       </c>
       <c r="C74">
         <v>12.5</v>
@@ -3791,7 +3791,7 @@
         <v>153.94</v>
       </c>
       <c r="F74">
-        <v>722.5</v>
+        <v>729.38</v>
       </c>
       <c r="G74">
         <v>0.01</v>
@@ -3800,21 +3800,21 @@
         <v>1.3460000000000001</v>
       </c>
       <c r="I74">
-        <v>42.929000000000002</v>
+        <v>43.338000000000001</v>
       </c>
       <c r="J74">
         <v>12.31</v>
       </c>
       <c r="K74">
-        <v>4.6900000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B75">
-        <v>30.82</v>
+        <v>30.4</v>
       </c>
       <c r="C75" s="2">
         <v>32</v>
@@ -3826,7 +3826,7 @@
         <v>555.17999999999995</v>
       </c>
       <c r="F75" s="2">
-        <v>986.24</v>
+        <v>972.8</v>
       </c>
       <c r="G75">
         <v>0.01</v>
@@ -3841,7 +3841,7 @@
         <v>17.34</v>
       </c>
       <c r="K75">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
         <v>14487.61</v>
       </c>
       <c r="F76" s="2">
-        <v>63741.88</v>
+        <v>63175.06</v>
       </c>
       <c r="G76">
         <v>0.7</v>
@@ -3867,13 +3867,13 @@
         <v>1.0640000000000001</v>
       </c>
       <c r="I76">
-        <v>20.228999999999999</v>
+        <v>20.042000000000002</v>
       </c>
       <c r="J76">
         <v>5.54</v>
       </c>
       <c r="K76">
-        <v>4.4000000000000004</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
         <v>86</v>
       </c>
       <c r="B77">
-        <v>4.7699999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="C77">
         <v>475</v>
@@ -3893,7 +3893,7 @@
         <v>644.05999999999995</v>
       </c>
       <c r="F77" s="2">
-        <v>2265.75</v>
+        <v>2289.5</v>
       </c>
       <c r="G77">
         <v>0.03</v>
@@ -3902,13 +3902,13 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="I77">
-        <v>28.873999999999999</v>
+        <v>29.175999999999998</v>
       </c>
       <c r="J77">
         <v>1.35</v>
       </c>
       <c r="K77">
-        <v>3.51</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>87</v>
       </c>
       <c r="B78">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="C78">
         <v>175</v>
@@ -3928,7 +3928,7 @@
         <v>160.33000000000001</v>
       </c>
       <c r="F78" s="2">
-        <v>502.25</v>
+        <v>505.75</v>
       </c>
       <c r="G78">
         <v>0.01</v>
@@ -3943,7 +3943,7 @@
         <v>0.91</v>
       </c>
       <c r="K78">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
         <v>88</v>
       </c>
       <c r="B79">
-        <v>128.1</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="C79">
         <v>15</v>
@@ -3963,7 +3963,7 @@
         <v>444.18</v>
       </c>
       <c r="F79" s="2">
-        <v>1921.5</v>
+        <v>2005.5</v>
       </c>
       <c r="G79">
         <v>0.02</v>
@@ -3972,13 +3972,13 @@
         <v>7.2069999999999999</v>
       </c>
       <c r="I79">
-        <v>17.774999999999999</v>
+        <v>18.552</v>
       </c>
       <c r="J79">
         <v>29.61</v>
       </c>
       <c r="K79">
-        <v>4.32</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>89</v>
       </c>
       <c r="B80">
-        <v>5.83</v>
+        <v>5.95</v>
       </c>
       <c r="C80">
         <v>400</v>
@@ -3998,7 +3998,7 @@
         <v>613.9</v>
       </c>
       <c r="F80" s="2">
-        <v>2332</v>
+        <v>2380</v>
       </c>
       <c r="G80">
         <v>0.03</v>
@@ -4007,13 +4007,13 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="I80">
-        <v>19.052</v>
+        <v>19.443999999999999</v>
       </c>
       <c r="J80">
         <v>1.53</v>
       </c>
       <c r="K80">
-        <v>3.79</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4021,7 +4021,7 @@
         <v>90</v>
       </c>
       <c r="B81">
-        <v>56.65</v>
+        <v>55.8</v>
       </c>
       <c r="C81">
         <v>26.5</v>
@@ -4033,7 +4033,7 @@
         <v>348</v>
       </c>
       <c r="F81" s="2">
-        <v>1501.23</v>
+        <v>1478.7</v>
       </c>
       <c r="G81">
         <v>0.02</v>
@@ -4042,13 +4042,13 @@
         <v>3.758</v>
       </c>
       <c r="I81">
-        <v>15.071999999999999</v>
+        <v>14.846</v>
       </c>
       <c r="J81">
         <v>13.13</v>
       </c>
       <c r="K81">
-        <v>4.3099999999999996</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4056,7 +4056,7 @@
         <v>91</v>
       </c>
       <c r="B82">
-        <v>12.63</v>
+        <v>11.88</v>
       </c>
       <c r="C82">
         <v>60</v>
@@ -4068,7 +4068,7 @@
         <v>225.89</v>
       </c>
       <c r="F82" s="2">
-        <v>757.8</v>
+        <v>712.8</v>
       </c>
       <c r="G82">
         <v>0.01</v>
@@ -4083,7 +4083,7 @@
         <v>3.76</v>
       </c>
       <c r="K82">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4091,7 +4091,7 @@
         <v>92</v>
       </c>
       <c r="B83">
-        <v>105.8</v>
+        <v>102.9</v>
       </c>
       <c r="C83" s="2">
         <v>82</v>
@@ -4103,22 +4103,22 @@
         <v>1494.96</v>
       </c>
       <c r="F83" s="2">
-        <v>8675.6</v>
+        <v>8437.7999999999993</v>
       </c>
       <c r="G83">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H83">
         <v>4.25</v>
       </c>
       <c r="I83">
-        <v>24.890999999999998</v>
+        <v>24.209</v>
       </c>
       <c r="J83">
         <v>18.23</v>
       </c>
       <c r="K83">
-        <v>5.8</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4135,22 +4135,22 @@
         <v>3931.32</v>
       </c>
       <c r="F84" s="2">
-        <v>17956.13</v>
+        <v>17810.05</v>
       </c>
       <c r="G84">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H84">
         <v>0.46200000000000002</v>
       </c>
       <c r="I84">
-        <v>22.053000000000001</v>
+        <v>21.914999999999999</v>
       </c>
       <c r="J84">
         <v>3.19</v>
       </c>
       <c r="K84">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4158,7 +4158,7 @@
         <v>94</v>
       </c>
       <c r="B85">
-        <v>35.4</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C85">
         <v>81.599999999999994</v>
@@ -4170,7 +4170,7 @@
         <v>1447</v>
       </c>
       <c r="F85" s="2">
-        <v>2888.64</v>
+        <v>2798.88</v>
       </c>
       <c r="G85">
         <v>0.03</v>
@@ -4179,13 +4179,13 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="I85">
-        <v>53.002000000000002</v>
+        <v>51.354999999999997</v>
       </c>
       <c r="J85">
         <v>17.73</v>
       </c>
       <c r="K85">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
         <v>95</v>
       </c>
       <c r="B86">
-        <v>46.7</v>
+        <v>46.24</v>
       </c>
       <c r="C86">
         <v>188</v>
@@ -4205,7 +4205,7 @@
         <v>2537.54</v>
       </c>
       <c r="F86" s="2">
-        <v>8779.6</v>
+        <v>8693.1200000000008</v>
       </c>
       <c r="G86">
         <v>0.1</v>
@@ -4214,13 +4214,13 @@
         <v>1.992</v>
       </c>
       <c r="I86">
-        <v>23.446999999999999</v>
+        <v>23.216000000000001</v>
       </c>
       <c r="J86">
         <v>13.49</v>
       </c>
       <c r="K86">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>96</v>
       </c>
       <c r="B87">
-        <v>13.37</v>
+        <v>13.48</v>
       </c>
       <c r="C87">
         <v>125</v>
@@ -4240,7 +4240,7 @@
         <v>932.84</v>
       </c>
       <c r="F87" s="2">
-        <v>1671.25</v>
+        <v>1685</v>
       </c>
       <c r="G87">
         <v>0.02</v>
@@ -4249,13 +4249,13 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="I87">
-        <v>39.258000000000003</v>
+        <v>39.581000000000003</v>
       </c>
       <c r="J87">
         <v>7.46</v>
       </c>
       <c r="K87">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>97</v>
       </c>
       <c r="B88">
-        <v>69.95</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="C88">
         <v>78.165999999999997</v>
@@ -4275,7 +4275,7 @@
         <v>2826.6</v>
       </c>
       <c r="F88" s="2">
-        <v>5467.71</v>
+        <v>5538.06</v>
       </c>
       <c r="G88">
         <v>0.06</v>
@@ -4284,13 +4284,13 @@
         <v>4.3769999999999998</v>
       </c>
       <c r="I88">
-        <v>15.981999999999999</v>
+        <v>16.187999999999999</v>
       </c>
       <c r="J88">
         <v>36.159999999999997</v>
       </c>
       <c r="K88">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>98</v>
       </c>
       <c r="B89">
-        <v>62.35</v>
+        <v>62.85</v>
       </c>
       <c r="C89">
         <v>43</v>
@@ -4310,7 +4310,7 @@
         <v>875.86</v>
       </c>
       <c r="F89" s="2">
-        <v>2681.05</v>
+        <v>2702.55</v>
       </c>
       <c r="G89">
         <v>0.03</v>
@@ -4319,13 +4319,13 @@
         <v>4.4370000000000003</v>
       </c>
       <c r="I89">
-        <v>14.05</v>
+        <v>14.163</v>
       </c>
       <c r="J89">
         <v>20.36</v>
       </c>
       <c r="K89">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4333,7 +4333,7 @@
         <v>99</v>
       </c>
       <c r="B90">
-        <v>58.6</v>
+        <v>61.9</v>
       </c>
       <c r="C90">
         <v>55</v>
@@ -4345,7 +4345,7 @@
         <v>1319.6</v>
       </c>
       <c r="F90" s="2">
-        <v>3223</v>
+        <v>3404.5</v>
       </c>
       <c r="G90">
         <v>0.04</v>
@@ -4354,13 +4354,13 @@
         <v>3.581</v>
       </c>
       <c r="I90">
-        <v>16.364999999999998</v>
+        <v>17.286000000000001</v>
       </c>
       <c r="J90">
         <v>23.99</v>
       </c>
       <c r="K90">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>100</v>
       </c>
       <c r="B91">
-        <v>171.6</v>
+        <v>170.3</v>
       </c>
       <c r="C91">
         <v>80</v>
@@ -4380,7 +4380,7 @@
         <v>1496.84</v>
       </c>
       <c r="F91" s="2">
-        <v>13728</v>
+        <v>13624</v>
       </c>
       <c r="G91">
         <v>0.15</v>
@@ -4389,21 +4389,21 @@
         <v>7.6609999999999996</v>
       </c>
       <c r="I91">
-        <v>22.399000000000001</v>
+        <v>22.228999999999999</v>
       </c>
       <c r="J91">
         <v>18.71</v>
       </c>
       <c r="K91">
-        <v>9.17</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B92">
-        <v>77.900000000000006</v>
+        <v>80.05</v>
       </c>
       <c r="C92">
         <v>170.851</v>
@@ -4415,7 +4415,7 @@
         <v>3376.37</v>
       </c>
       <c r="F92" s="2">
-        <v>13309.29</v>
+        <v>13676.62</v>
       </c>
       <c r="G92">
         <v>0.15</v>
@@ -4430,7 +4430,7 @@
         <v>19.760000000000002</v>
       </c>
       <c r="K92">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4447,7 +4447,7 @@
         <v>14812.65</v>
       </c>
       <c r="F93" s="2">
-        <v>51748.54</v>
+        <v>52122.73</v>
       </c>
       <c r="G93">
         <v>0.57999999999999996</v>
@@ -4456,13 +4456,13 @@
         <v>1.3939999999999999</v>
       </c>
       <c r="I93">
-        <v>21.187999999999999</v>
+        <v>21.190999999999999</v>
       </c>
       <c r="J93">
         <v>18.03</v>
       </c>
       <c r="K93">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>106</v>
+        <v>102.3</v>
       </c>
       <c r="C94">
         <v>10.897</v>
@@ -4482,7 +4482,7 @@
         <v>55.6</v>
       </c>
       <c r="F94" s="2">
-        <v>1155.08</v>
+        <v>1114.76</v>
       </c>
       <c r="G94">
         <v>0.01</v>
@@ -4497,7 +4497,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K94">
-        <v>20.77</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4505,7 +4505,7 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>33.119999999999997</v>
+        <v>32.92</v>
       </c>
       <c r="C95">
         <v>13.5</v>
@@ -4517,7 +4517,7 @@
         <v>64.38</v>
       </c>
       <c r="F95" s="2">
-        <v>447.12</v>
+        <v>444.42</v>
       </c>
       <c r="G95" t="s">
         <v>32</v>
@@ -4532,7 +4532,7 @@
         <v>4.76</v>
       </c>
       <c r="K95">
-        <v>6.94</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>12.41</v>
+        <v>12.53</v>
       </c>
       <c r="C96">
         <v>81.25</v>
@@ -4552,7 +4552,7 @@
         <v>1041</v>
       </c>
       <c r="F96" s="2">
-        <v>1008.31</v>
+        <v>1018.06</v>
       </c>
       <c r="G96">
         <v>0.01</v>
@@ -4567,7 +4567,7 @@
         <v>12.81</v>
       </c>
       <c r="K96">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4575,7 +4575,7 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>12.34</v>
+        <v>13.12</v>
       </c>
       <c r="C97">
         <v>57.5</v>
@@ -4587,7 +4587,7 @@
         <v>269</v>
       </c>
       <c r="F97" s="2">
-        <v>709.55</v>
+        <v>754.4</v>
       </c>
       <c r="G97">
         <v>0.01</v>
@@ -4602,7 +4602,7 @@
         <v>4.67</v>
       </c>
       <c r="K97">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
       <c r="C98">
         <v>400</v>
@@ -4622,7 +4622,7 @@
         <v>624.82000000000005</v>
       </c>
       <c r="F98" s="2">
-        <v>1468</v>
+        <v>1480</v>
       </c>
       <c r="G98">
         <v>0.02</v>
@@ -4631,13 +4631,13 @@
         <v>0.224</v>
       </c>
       <c r="I98">
-        <v>16.413</v>
+        <v>16.547000000000001</v>
       </c>
       <c r="J98">
         <v>1.56</v>
       </c>
       <c r="K98">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="C99">
         <v>275</v>
@@ -4657,7 +4657,7 @@
         <v>483.99</v>
       </c>
       <c r="F99" s="2">
-        <v>877.25</v>
+        <v>860.75</v>
       </c>
       <c r="G99">
         <v>0.01</v>
@@ -4666,13 +4666,13 @@
         <v>3.9E-2</v>
       </c>
       <c r="I99">
-        <v>81.984999999999999</v>
+        <v>80.442999999999998</v>
       </c>
       <c r="J99">
         <v>1.75</v>
       </c>
       <c r="K99">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4689,7 +4689,7 @@
         <v>2538.79</v>
       </c>
       <c r="F100" s="2">
-        <v>5665.31</v>
+        <v>5672.39</v>
       </c>
       <c r="G100">
         <v>0.06</v>
@@ -4698,7 +4698,7 @@
         <v>-0.13400000000000001</v>
       </c>
       <c r="I100">
-        <v>23.42</v>
+        <v>23.375</v>
       </c>
       <c r="J100">
         <v>3.03</v>
@@ -4712,7 +4712,7 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>25.48</v>
+        <v>25.92</v>
       </c>
       <c r="C101">
         <v>300</v>
@@ -4724,7 +4724,7 @@
         <v>5923</v>
       </c>
       <c r="F101" s="2">
-        <v>7644</v>
+        <v>7776</v>
       </c>
       <c r="G101">
         <v>0.09</v>
@@ -4739,7 +4739,7 @@
         <v>19.739999999999998</v>
       </c>
       <c r="K101">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4747,7 +4747,7 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>2.2799999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C102" s="2">
         <v>315</v>
@@ -4756,10 +4756,10 @@
         <v>-21.79</v>
       </c>
       <c r="E102" s="2">
-        <v>191.56</v>
+        <v>192.48</v>
       </c>
       <c r="F102" s="2">
-        <v>718.2</v>
+        <v>724.5</v>
       </c>
       <c r="G102">
         <v>0.01</v>
@@ -4771,10 +4771,10 @@
         <v>14</v>
       </c>
       <c r="J102">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K102">
-        <v>3.74</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4782,7 +4782,7 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>148.30000000000001</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="C103" s="2">
         <v>52.383000000000003</v>
@@ -4794,7 +4794,7 @@
         <v>1267</v>
       </c>
       <c r="F103" s="2">
-        <v>7768.4</v>
+        <v>7894.12</v>
       </c>
       <c r="G103">
         <v>0.09</v>
@@ -4803,13 +4803,13 @@
         <v>8.2469999999999999</v>
       </c>
       <c r="I103">
-        <v>17.981999999999999</v>
+        <v>18.273</v>
       </c>
       <c r="J103">
         <v>24.18</v>
       </c>
       <c r="K103">
-        <v>6.13</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
         <v>112</v>
       </c>
       <c r="B104">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C104" s="2">
         <v>1156.472</v>
@@ -4829,7 +4829,7 @@
         <v>500.64</v>
       </c>
       <c r="F104" s="2">
-        <v>1110.21</v>
+        <v>1098.6500000000001</v>
       </c>
       <c r="G104">
         <v>0.01</v>
@@ -4844,7 +4844,7 @@
         <v>0.43</v>
       </c>
       <c r="K104">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>113</v>
       </c>
       <c r="B105">
-        <v>22.31</v>
+        <v>22.56</v>
       </c>
       <c r="C105">
         <v>65</v>
@@ -4864,7 +4864,7 @@
         <v>531.30999999999995</v>
       </c>
       <c r="F105" s="2">
-        <v>1450.15</v>
+        <v>1466.4</v>
       </c>
       <c r="G105">
         <v>0.02</v>
@@ -4873,13 +4873,13 @@
         <v>0.32</v>
       </c>
       <c r="I105">
-        <v>69.617999999999995</v>
+        <v>70.397999999999996</v>
       </c>
       <c r="J105">
         <v>8.17</v>
       </c>
       <c r="K105">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>166</v>
+        <v>168.3</v>
       </c>
       <c r="C106">
         <v>43</v>
@@ -4899,7 +4899,7 @@
         <v>822.79</v>
       </c>
       <c r="F106" s="2">
-        <v>7138</v>
+        <v>7236.9</v>
       </c>
       <c r="G106">
         <v>0.08</v>
@@ -4908,13 +4908,13 @@
         <v>4.1589999999999998</v>
       </c>
       <c r="I106">
-        <v>39.914999999999999</v>
+        <v>40.468000000000004</v>
       </c>
       <c r="J106">
         <v>19.13</v>
       </c>
       <c r="K106">
-        <v>8.67</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4922,7 +4922,7 @@
         <v>115</v>
       </c>
       <c r="B107">
-        <v>62.65</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C107">
         <v>42.087000000000003</v>
@@ -4934,7 +4934,7 @@
         <v>802.99</v>
       </c>
       <c r="F107" s="2">
-        <v>2636.75</v>
+        <v>2718.82</v>
       </c>
       <c r="G107">
         <v>0.03</v>
@@ -4943,13 +4943,13 @@
         <v>1.74</v>
       </c>
       <c r="I107">
-        <v>36.000999999999998</v>
+        <v>37.122</v>
       </c>
       <c r="J107">
         <v>19.07</v>
       </c>
       <c r="K107">
-        <v>3.28</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>116</v>
       </c>
       <c r="B108">
-        <v>22.55</v>
+        <v>23.16</v>
       </c>
       <c r="C108">
         <v>64.680000000000007</v>
@@ -4969,7 +4969,7 @@
         <v>907.29</v>
       </c>
       <c r="F108" s="2">
-        <v>1458.53</v>
+        <v>1497.99</v>
       </c>
       <c r="G108">
         <v>0.02</v>
@@ -4984,7 +4984,7 @@
         <v>14.02</v>
       </c>
       <c r="K108">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>13.4</v>
+        <v>13.21</v>
       </c>
       <c r="C109">
         <v>15.808</v>
@@ -5004,7 +5004,7 @@
         <v>62.59</v>
       </c>
       <c r="F109" s="2">
-        <v>211.83</v>
+        <v>208.82</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -5019,7 +5019,7 @@
         <v>3.95</v>
       </c>
       <c r="K109">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>101.5</v>
+        <v>104.9</v>
       </c>
       <c r="C110" s="2">
         <v>3</v>
@@ -5039,7 +5039,7 @@
         <v>24.78</v>
       </c>
       <c r="F110" s="2">
-        <v>304.5</v>
+        <v>314.7</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -5048,13 +5048,13 @@
         <v>0.497</v>
       </c>
       <c r="I110">
-        <v>204.36199999999999</v>
+        <v>211.208</v>
       </c>
       <c r="J110">
         <v>8.26</v>
       </c>
       <c r="K110">
-        <v>12.28</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5062,7 +5062,7 @@
         <v>119</v>
       </c>
       <c r="B111">
-        <v>51.15</v>
+        <v>51.6</v>
       </c>
       <c r="C111" s="2">
         <v>25.5</v>
@@ -5074,7 +5074,7 @@
         <v>290.22000000000003</v>
       </c>
       <c r="F111" s="2">
-        <v>1304.33</v>
+        <v>1315.8</v>
       </c>
       <c r="G111">
         <v>0.01</v>
@@ -5083,13 +5083,13 @@
         <v>2.0760000000000001</v>
       </c>
       <c r="I111">
-        <v>24.637</v>
+        <v>24.853999999999999</v>
       </c>
       <c r="J111">
         <v>11.38</v>
       </c>
       <c r="K111">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5097,7 +5097,7 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="C112" s="2">
         <v>8423.6329999999998</v>
@@ -5109,7 +5109,7 @@
         <v>1355.19</v>
       </c>
       <c r="F112" s="2">
-        <v>17689.63</v>
+        <v>17773.87</v>
       </c>
       <c r="G112">
         <v>0.2</v>
@@ -5118,13 +5118,13 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="I112">
-        <v>27.54</v>
+        <v>27.670999999999999</v>
       </c>
       <c r="J112">
         <v>0.16</v>
       </c>
       <c r="K112">
-        <v>13.05</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>16.170000000000002</v>
+        <v>15.95</v>
       </c>
       <c r="C113" s="2">
         <v>35</v>
@@ -5144,7 +5144,7 @@
         <v>74.84</v>
       </c>
       <c r="F113" s="2">
-        <v>565.95000000000005</v>
+        <v>558.25</v>
       </c>
       <c r="G113">
         <v>0.01</v>
@@ -5153,13 +5153,13 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="I113">
-        <v>112.514</v>
+        <v>110.98399999999999</v>
       </c>
       <c r="J113">
         <v>2.13</v>
       </c>
       <c r="K113">
-        <v>7.56</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5167,7 +5167,7 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>23.11</v>
+        <v>23.2</v>
       </c>
       <c r="C114" s="2">
         <v>209.83600000000001</v>
@@ -5179,7 +5179,7 @@
         <v>1302.8</v>
       </c>
       <c r="F114" s="2">
-        <v>4849.3100000000004</v>
+        <v>4868.2</v>
       </c>
       <c r="G114">
         <v>0.05</v>
@@ -5188,21 +5188,21 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="I114">
-        <v>23.74</v>
+        <v>23.832999999999998</v>
       </c>
       <c r="J114">
         <v>6.2</v>
       </c>
       <c r="K114">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B115">
-        <v>11.81</v>
+        <v>11.87</v>
       </c>
       <c r="C115">
         <v>114.4</v>
@@ -5214,7 +5214,7 @@
         <v>176.8</v>
       </c>
       <c r="F115" s="2">
-        <v>1351.06</v>
+        <v>1357.93</v>
       </c>
       <c r="G115">
         <v>0.02</v>
@@ -5223,13 +5223,13 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="I115">
-        <v>32.951999999999998</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="J115">
         <v>1.54</v>
       </c>
       <c r="K115">
-        <v>7.64</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5243,10 +5243,10 @@
         <v>1231.9100000000001</v>
       </c>
       <c r="E116" s="2">
-        <v>14233.8</v>
+        <v>14234.72</v>
       </c>
       <c r="F116" s="2">
-        <v>56200.85</v>
+        <v>56810.95</v>
       </c>
       <c r="G116">
         <v>0.64</v>
@@ -5255,13 +5255,13 @@
         <v>0.113</v>
       </c>
       <c r="I116">
-        <v>27.276</v>
+        <v>27.547000000000001</v>
       </c>
       <c r="J116">
         <v>1.31</v>
       </c>
       <c r="K116">
-        <v>3.95</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5269,7 +5269,7 @@
         <v>124</v>
       </c>
       <c r="B117">
-        <v>15.97</v>
+        <v>15.52</v>
       </c>
       <c r="C117">
         <v>40</v>
@@ -5281,7 +5281,7 @@
         <v>199.75</v>
       </c>
       <c r="F117" s="2">
-        <v>638.79999999999995</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="G117">
         <v>0.01</v>
@@ -5296,7 +5296,7 @@
         <v>4.99</v>
       </c>
       <c r="K117">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>125</v>
       </c>
       <c r="B118">
-        <v>87.65</v>
+        <v>87.05</v>
       </c>
       <c r="C118">
         <v>55</v>
@@ -5316,7 +5316,7 @@
         <v>1265.05</v>
       </c>
       <c r="F118" s="2">
-        <v>4820.75</v>
+        <v>4787.75</v>
       </c>
       <c r="G118">
         <v>0.05</v>
@@ -5325,13 +5325,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="I118">
-        <v>328.16500000000002</v>
+        <v>325.91800000000001</v>
       </c>
       <c r="J118">
         <v>23</v>
       </c>
       <c r="K118">
-        <v>3.81</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
         <v>126</v>
       </c>
       <c r="B119">
-        <v>29.38</v>
+        <v>30</v>
       </c>
       <c r="C119">
         <v>332.5</v>
@@ -5351,7 +5351,7 @@
         <v>4472.32</v>
       </c>
       <c r="F119" s="2">
-        <v>9768.85</v>
+        <v>9975</v>
       </c>
       <c r="G119">
         <v>0.11</v>
@@ -5360,13 +5360,13 @@
         <v>1.575</v>
       </c>
       <c r="I119">
-        <v>18.649999999999999</v>
+        <v>19.042999999999999</v>
       </c>
       <c r="J119">
         <v>13.45</v>
       </c>
       <c r="K119">
-        <v>2.1800000000000002</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5374,7 +5374,7 @@
         <v>127</v>
       </c>
       <c r="B120">
-        <v>175.5</v>
+        <v>167.2</v>
       </c>
       <c r="C120">
         <v>80</v>
@@ -5386,22 +5386,22 @@
         <v>3292.66</v>
       </c>
       <c r="F120" s="2">
-        <v>14040</v>
+        <v>13376</v>
       </c>
       <c r="G120">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H120">
         <v>0.68300000000000005</v>
       </c>
       <c r="I120">
-        <v>257.09500000000003</v>
+        <v>244.93600000000001</v>
       </c>
       <c r="J120">
         <v>41.15</v>
       </c>
       <c r="K120">
-        <v>4.26</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5418,22 +5418,22 @@
         <v>9229.7800000000007</v>
       </c>
       <c r="F121" s="2">
-        <v>29268.400000000001</v>
+        <v>28759.55</v>
       </c>
       <c r="G121">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="H121">
         <v>1.1519999999999999</v>
       </c>
       <c r="I121">
-        <v>48.271999999999998</v>
+        <v>47.444000000000003</v>
       </c>
       <c r="J121">
         <v>18.190000000000001</v>
       </c>
       <c r="K121">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
         <v>129</v>
       </c>
       <c r="B122">
-        <v>88.75</v>
+        <v>87.6</v>
       </c>
       <c r="C122">
         <v>80</v>
@@ -5453,7 +5453,7 @@
         <v>1621.99</v>
       </c>
       <c r="F122" s="2">
-        <v>7100</v>
+        <v>7008</v>
       </c>
       <c r="G122">
         <v>0.08</v>
@@ -5462,13 +5462,13 @@
         <v>7.024</v>
       </c>
       <c r="I122">
-        <v>12.635</v>
+        <v>12.471</v>
       </c>
       <c r="J122">
         <v>20.27</v>
       </c>
       <c r="K122">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>130</v>
       </c>
       <c r="B123">
-        <v>28.86</v>
+        <v>29.18</v>
       </c>
       <c r="C123" s="2">
         <v>36</v>
@@ -5488,7 +5488,7 @@
         <v>336.23</v>
       </c>
       <c r="F123" s="2">
-        <v>1038.96</v>
+        <v>1050.48</v>
       </c>
       <c r="G123">
         <v>0.01</v>
@@ -5497,13 +5497,13 @@
         <v>0.128</v>
       </c>
       <c r="I123">
-        <v>225.86</v>
+        <v>228.36500000000001</v>
       </c>
       <c r="J123">
         <v>9.33</v>
       </c>
       <c r="K123">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5511,7 +5511,7 @@
         <v>131</v>
       </c>
       <c r="B124">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C124" s="2">
         <v>70</v>
@@ -5523,7 +5523,7 @@
         <v>883.3</v>
       </c>
       <c r="F124" s="2">
-        <v>3703</v>
+        <v>3696</v>
       </c>
       <c r="G124">
         <v>0.04</v>
@@ -5532,13 +5532,13 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="I124">
-        <v>66.912999999999997</v>
+        <v>66.787000000000006</v>
       </c>
       <c r="J124">
         <v>12.61</v>
       </c>
       <c r="K124">
-        <v>4.1900000000000004</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
         <v>132</v>
       </c>
       <c r="B125">
-        <v>5.7</v>
+        <v>5.53</v>
       </c>
       <c r="C125">
         <v>101.25</v>
@@ -5558,7 +5558,7 @@
         <v>202.32</v>
       </c>
       <c r="F125" s="2">
-        <v>577.13</v>
+        <v>559.91</v>
       </c>
       <c r="G125">
         <v>0.01</v>
@@ -5567,13 +5567,13 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="I125">
-        <v>23.545999999999999</v>
+        <v>22.844000000000001</v>
       </c>
       <c r="J125">
         <v>1.99</v>
       </c>
       <c r="K125">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5581,7 +5581,7 @@
         <v>133</v>
       </c>
       <c r="B126">
-        <v>12.48</v>
+        <v>12.73</v>
       </c>
       <c r="C126" s="2">
         <v>1200</v>
@@ -5593,7 +5593,7 @@
         <v>1655.8</v>
       </c>
       <c r="F126" s="2">
-        <v>14976</v>
+        <v>15276</v>
       </c>
       <c r="G126">
         <v>0.17</v>
@@ -5602,13 +5602,13 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="I126">
-        <v>15.006</v>
+        <v>15.305999999999999</v>
       </c>
       <c r="J126">
         <v>1.37</v>
       </c>
       <c r="K126">
-        <v>9.0399999999999991</v>
+        <v>9.2200000000000006</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>134</v>
       </c>
       <c r="B127">
-        <v>40.880000000000003</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="C127">
         <v>20</v>
@@ -5628,7 +5628,7 @@
         <v>245.65</v>
       </c>
       <c r="F127" s="2">
-        <v>817.6</v>
+        <v>792.4</v>
       </c>
       <c r="G127">
         <v>0.01</v>
@@ -5637,13 +5637,13 @@
         <v>1.282</v>
       </c>
       <c r="I127">
-        <v>31.887</v>
+        <v>30.904</v>
       </c>
       <c r="J127">
         <v>12.28</v>
       </c>
       <c r="K127">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>135</v>
       </c>
       <c r="B128">
-        <v>7.02</v>
+        <v>6.99</v>
       </c>
       <c r="C128" s="2">
         <v>350</v>
@@ -5663,7 +5663,7 @@
         <v>475.83</v>
       </c>
       <c r="F128" s="2">
-        <v>2457</v>
+        <v>2446.5</v>
       </c>
       <c r="G128">
         <v>0.03</v>
@@ -5672,13 +5672,13 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="I128">
-        <v>51.423000000000002</v>
+        <v>51.203000000000003</v>
       </c>
       <c r="J128">
         <v>1.35</v>
       </c>
       <c r="K128">
-        <v>5.16</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5686,7 +5686,7 @@
         <v>136</v>
       </c>
       <c r="B129">
-        <v>24.13</v>
+        <v>23.94</v>
       </c>
       <c r="C129" s="2">
         <v>115.5</v>
@@ -5698,7 +5698,7 @@
         <v>400.21</v>
       </c>
       <c r="F129" s="2">
-        <v>2787.02</v>
+        <v>2765.07</v>
       </c>
       <c r="G129">
         <v>0.03</v>
@@ -5707,13 +5707,13 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="I129">
-        <v>51.119</v>
+        <v>50.716000000000001</v>
       </c>
       <c r="J129">
         <v>3.46</v>
       </c>
       <c r="K129">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5721,7 +5721,7 @@
         <v>137</v>
       </c>
       <c r="B130">
-        <v>25.44</v>
+        <v>22.81</v>
       </c>
       <c r="C130">
         <v>114.76600000000001</v>
@@ -5733,7 +5733,7 @@
         <v>32</v>
       </c>
       <c r="F130" s="2">
-        <v>2919.65</v>
+        <v>2617.81</v>
       </c>
       <c r="G130">
         <v>0.03</v>
@@ -5765,7 +5765,7 @@
         <v>5821.33</v>
       </c>
       <c r="F131" s="2">
-        <v>36376.36</v>
+        <v>36212.17</v>
       </c>
       <c r="G131">
         <v>0.41</v>
@@ -5774,13 +5774,13 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="I131">
-        <v>18.878</v>
+        <v>18.954999999999998</v>
       </c>
       <c r="J131">
         <v>2.79</v>
       </c>
       <c r="K131">
-        <v>6.25</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5788,7 +5788,7 @@
         <v>139</v>
       </c>
       <c r="B132">
-        <v>7.42</v>
+        <v>7.7</v>
       </c>
       <c r="C132">
         <v>900</v>
@@ -5800,22 +5800,22 @@
         <v>1293.92</v>
       </c>
       <c r="F132" s="2">
-        <v>6678</v>
+        <v>6930</v>
       </c>
       <c r="G132">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H132">
         <v>0.53</v>
       </c>
       <c r="I132">
-        <v>13.993</v>
+        <v>14.521000000000001</v>
       </c>
       <c r="J132">
         <v>1.43</v>
       </c>
       <c r="K132">
-        <v>5.16</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5823,7 +5823,7 @@
         <v>140</v>
       </c>
       <c r="B133">
-        <v>16.100000000000001</v>
+        <v>15.93</v>
       </c>
       <c r="C133" s="2">
         <v>45</v>
@@ -5835,7 +5835,7 @@
         <v>698.59</v>
       </c>
       <c r="F133" s="2">
-        <v>724.5</v>
+        <v>716.85</v>
       </c>
       <c r="G133">
         <v>0.01</v>
@@ -5844,13 +5844,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I133">
-        <v>28.245000000000001</v>
+        <v>27.946999999999999</v>
       </c>
       <c r="J133">
         <v>15.52</v>
       </c>
       <c r="K133">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5858,7 +5858,7 @@
         <v>141</v>
       </c>
       <c r="B134">
-        <v>15.18</v>
+        <v>15.25</v>
       </c>
       <c r="C134" s="2">
         <v>31.5</v>
@@ -5870,7 +5870,7 @@
         <v>254.39</v>
       </c>
       <c r="F134" s="2">
-        <v>478.17</v>
+        <v>480.38</v>
       </c>
       <c r="G134">
         <v>0.01</v>
@@ -5885,7 +5885,7 @@
         <v>8.07</v>
       </c>
       <c r="K134">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>142</v>
       </c>
       <c r="B135">
-        <v>40.04</v>
+        <v>41.1</v>
       </c>
       <c r="C135">
         <v>6.5</v>
@@ -5905,7 +5905,7 @@
         <v>15.94</v>
       </c>
       <c r="F135" s="2">
-        <v>260.26</v>
+        <v>267.14999999999998</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
@@ -5920,7 +5920,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="K135">
-        <v>16.32</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
         <v>143</v>
       </c>
       <c r="B136">
-        <v>5.59</v>
+        <v>5.55</v>
       </c>
       <c r="C136" s="2">
         <v>1143</v>
@@ -5940,7 +5940,7 @@
         <v>1493.38</v>
       </c>
       <c r="F136" s="2">
-        <v>6389.37</v>
+        <v>6343.65</v>
       </c>
       <c r="G136">
         <v>7.0000000000000007E-2</v>
@@ -5949,13 +5949,13 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="I136">
-        <v>24.492999999999999</v>
+        <v>24.318000000000001</v>
       </c>
       <c r="J136">
         <v>1.3</v>
       </c>
       <c r="K136">
-        <v>4.2699999999999996</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5963,7 +5963,7 @@
         <v>144</v>
       </c>
       <c r="B137">
-        <v>58.4</v>
+        <v>58.65</v>
       </c>
       <c r="C137" s="2">
         <v>60</v>
@@ -5975,7 +5975,7 @@
         <v>1021</v>
       </c>
       <c r="F137" s="2">
-        <v>3504</v>
+        <v>3519</v>
       </c>
       <c r="G137">
         <v>0.04</v>
@@ -5984,13 +5984,13 @@
         <v>2.863</v>
       </c>
       <c r="I137">
-        <v>20.395</v>
+        <v>20.483000000000001</v>
       </c>
       <c r="J137">
         <v>17.010000000000002</v>
       </c>
       <c r="K137">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5998,7 +5998,7 @@
         <v>145</v>
       </c>
       <c r="B138">
-        <v>66</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C138" s="2">
         <v>85</v>
@@ -6010,7 +6010,7 @@
         <v>1530.55</v>
       </c>
       <c r="F138" s="2">
-        <v>5610</v>
+        <v>5703.5</v>
       </c>
       <c r="G138">
         <v>0.06</v>
@@ -6019,13 +6019,13 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="I138">
-        <v>15.135</v>
+        <v>15.388</v>
       </c>
       <c r="J138">
         <v>18</v>
       </c>
       <c r="K138">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6033,7 +6033,7 @@
         <v>146</v>
       </c>
       <c r="B139">
-        <v>115</v>
+        <v>114.1</v>
       </c>
       <c r="C139">
         <v>130</v>
@@ -6045,7 +6045,7 @@
         <v>2688.5</v>
       </c>
       <c r="F139" s="2">
-        <v>14950</v>
+        <v>14833</v>
       </c>
       <c r="G139">
         <v>0.17</v>
@@ -6054,13 +6054,13 @@
         <v>6.4130000000000003</v>
       </c>
       <c r="I139">
-        <v>17.931999999999999</v>
+        <v>17.791</v>
       </c>
       <c r="J139">
         <v>20.68</v>
       </c>
       <c r="K139">
-        <v>5.56</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6077,22 +6077,22 @@
         <v>8996.27</v>
       </c>
       <c r="F140" s="2">
-        <v>38594.300000000003</v>
+        <v>38793.53</v>
       </c>
       <c r="G140">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="H140">
         <v>0.88</v>
       </c>
       <c r="I140">
-        <v>17.690999999999999</v>
+        <v>17.78</v>
       </c>
       <c r="J140">
         <v>3.75</v>
       </c>
       <c r="K140">
-        <v>4.29</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
         <v>148</v>
       </c>
       <c r="B141">
-        <v>24.6</v>
+        <v>24.01</v>
       </c>
       <c r="C141" s="2">
         <v>300</v>
@@ -6112,7 +6112,7 @@
         <v>4898.59</v>
       </c>
       <c r="F141" s="2">
-        <v>7380</v>
+        <v>7203</v>
       </c>
       <c r="G141">
         <v>0.08</v>
@@ -6121,13 +6121,13 @@
         <v>32.616999999999997</v>
       </c>
       <c r="I141">
-        <v>0.754</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="J141">
         <v>16.32</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
         <v>149</v>
       </c>
       <c r="B142">
-        <v>26.12</v>
+        <v>26.48</v>
       </c>
       <c r="C142" s="2">
         <v>23.151</v>
@@ -6147,7 +6147,7 @@
         <v>227.96</v>
       </c>
       <c r="F142" s="2">
-        <v>604.70000000000005</v>
+        <v>613.04</v>
       </c>
       <c r="G142">
         <v>0.01</v>
@@ -6162,7 +6162,7 @@
         <v>9.84</v>
       </c>
       <c r="K142">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6170,7 +6170,7 @@
         <v>150</v>
       </c>
       <c r="B143">
-        <v>273.8</v>
+        <v>270.39999999999998</v>
       </c>
       <c r="C143">
         <v>32.5</v>
@@ -6182,7 +6182,7 @@
         <v>1772.55</v>
       </c>
       <c r="F143" s="2">
-        <v>8898.5</v>
+        <v>8788</v>
       </c>
       <c r="G143">
         <v>0.1</v>
@@ -6191,13 +6191,13 @@
         <v>14.552</v>
       </c>
       <c r="I143">
-        <v>18.815000000000001</v>
+        <v>18.581</v>
       </c>
       <c r="J143">
         <v>54.54</v>
       </c>
       <c r="K143">
-        <v>5.0199999999999996</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>151</v>
       </c>
       <c r="B144">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
       <c r="C144" s="2">
         <v>1000</v>
@@ -6217,7 +6217,7 @@
         <v>19363.28</v>
       </c>
       <c r="F144" s="2">
-        <v>46600</v>
+        <v>46500</v>
       </c>
       <c r="G144">
         <v>0.52</v>
@@ -6226,7 +6226,7 @@
         <v>2.379</v>
       </c>
       <c r="I144">
-        <v>19.585999999999999</v>
+        <v>19.544</v>
       </c>
       <c r="J144">
         <v>19.36</v>
@@ -6240,7 +6240,7 @@
         <v>152</v>
       </c>
       <c r="B145">
-        <v>81.650000000000006</v>
+        <v>82.8</v>
       </c>
       <c r="C145">
         <v>20</v>
@@ -6252,7 +6252,7 @@
         <v>656.6</v>
       </c>
       <c r="F145" s="2">
-        <v>1633</v>
+        <v>1656</v>
       </c>
       <c r="G145">
         <v>0.02</v>
@@ -6261,13 +6261,13 @@
         <v>3.5150000000000001</v>
       </c>
       <c r="I145">
-        <v>23.228999999999999</v>
+        <v>23.556000000000001</v>
       </c>
       <c r="J145">
         <v>32.83</v>
       </c>
       <c r="K145">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6275,7 +6275,7 @@
         <v>153</v>
       </c>
       <c r="B146">
-        <v>51.05</v>
+        <v>52.45</v>
       </c>
       <c r="C146">
         <v>20</v>
@@ -6287,7 +6287,7 @@
         <v>282.23</v>
       </c>
       <c r="F146" s="2">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="G146">
         <v>0.01</v>
@@ -6296,13 +6296,13 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="I146">
-        <v>51.512999999999998</v>
+        <v>52.926000000000002</v>
       </c>
       <c r="J146">
         <v>14.11</v>
       </c>
       <c r="K146">
-        <v>3.61</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6310,7 +6310,7 @@
         <v>154</v>
       </c>
       <c r="B147">
-        <v>52.9</v>
+        <v>51.55</v>
       </c>
       <c r="C147">
         <v>55.5</v>
@@ -6322,7 +6322,7 @@
         <v>1002.99</v>
       </c>
       <c r="F147" s="2">
-        <v>2935.95</v>
+        <v>2861.03</v>
       </c>
       <c r="G147">
         <v>0.03</v>
@@ -6331,13 +6331,13 @@
         <v>4.6619999999999999</v>
       </c>
       <c r="I147">
-        <v>11.347</v>
+        <v>11.057</v>
       </c>
       <c r="J147">
         <v>18.07</v>
       </c>
       <c r="K147">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6345,7 +6345,7 @@
         <v>155</v>
       </c>
       <c r="B148">
-        <v>30.96</v>
+        <v>31.4</v>
       </c>
       <c r="C148">
         <v>81.831999999999994</v>
@@ -6357,7 +6357,7 @@
         <v>296.86</v>
       </c>
       <c r="F148" s="2">
-        <v>2533.52</v>
+        <v>2569.52</v>
       </c>
       <c r="G148">
         <v>0.03</v>
@@ -6366,13 +6366,13 @@
         <v>2.621</v>
       </c>
       <c r="I148">
-        <v>11.811</v>
+        <v>11.978999999999999</v>
       </c>
       <c r="J148">
         <v>3.62</v>
       </c>
       <c r="K148">
-        <v>8.5299999999999994</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6380,7 +6380,7 @@
         <v>156</v>
       </c>
       <c r="B149">
-        <v>41.9</v>
+        <v>42.42</v>
       </c>
       <c r="C149">
         <v>51.314999999999998</v>
@@ -6392,7 +6392,7 @@
         <v>1123.4100000000001</v>
       </c>
       <c r="F149" s="2">
-        <v>2150.1</v>
+        <v>2176.7800000000002</v>
       </c>
       <c r="G149">
         <v>0.02</v>
@@ -6401,13 +6401,13 @@
         <v>4.476</v>
       </c>
       <c r="I149">
-        <v>9.36</v>
+        <v>9.4770000000000003</v>
       </c>
       <c r="J149">
         <v>21.89</v>
       </c>
       <c r="K149">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
         <v>157</v>
       </c>
       <c r="B150">
-        <v>4.08</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C150">
         <v>540</v>
@@ -6427,7 +6427,7 @@
         <v>740.71</v>
       </c>
       <c r="F150" s="2">
-        <v>2203.1999999999998</v>
+        <v>2214</v>
       </c>
       <c r="G150">
         <v>0.02</v>
@@ -6436,13 +6436,13 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="I150">
-        <v>12.521000000000001</v>
+        <v>12.583</v>
       </c>
       <c r="J150">
         <v>1.37</v>
       </c>
       <c r="K150">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
         <v>158</v>
       </c>
       <c r="B151">
-        <v>40.840000000000003</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="C151">
         <v>30</v>
@@ -6462,7 +6462,7 @@
         <v>485.4</v>
       </c>
       <c r="F151" s="2">
-        <v>1225.2</v>
+        <v>1219.8</v>
       </c>
       <c r="G151">
         <v>0.01</v>
@@ -6471,13 +6471,13 @@
         <v>1.2629999999999999</v>
       </c>
       <c r="I151">
-        <v>32.335000000000001</v>
+        <v>32.192999999999998</v>
       </c>
       <c r="J151">
         <v>16.18</v>
       </c>
       <c r="K151">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6485,7 +6485,7 @@
         <v>159</v>
       </c>
       <c r="B152">
-        <v>10.27</v>
+        <v>10.3</v>
       </c>
       <c r="C152">
         <v>126.38800000000001</v>
@@ -6497,7 +6497,7 @@
         <v>1176.8</v>
       </c>
       <c r="F152" s="2">
-        <v>1298</v>
+        <v>1301.8</v>
       </c>
       <c r="G152">
         <v>0.01</v>
@@ -6506,7 +6506,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I152">
-        <v>370.85700000000003</v>
+        <v>371.94200000000001</v>
       </c>
       <c r="J152">
         <v>9.31</v>
@@ -6520,7 +6520,7 @@
         <v>160</v>
       </c>
       <c r="B153">
-        <v>43.64</v>
+        <v>45.5</v>
       </c>
       <c r="C153">
         <v>35.356999999999999</v>
@@ -6532,7 +6532,7 @@
         <v>304.47000000000003</v>
       </c>
       <c r="F153" s="2">
-        <v>1542.98</v>
+        <v>1608.74</v>
       </c>
       <c r="G153">
         <v>0.02</v>
@@ -6541,13 +6541,13 @@
         <v>1.3540000000000001</v>
       </c>
       <c r="I153">
-        <v>32.231999999999999</v>
+        <v>33.606000000000002</v>
       </c>
       <c r="J153">
         <v>8.61</v>
       </c>
       <c r="K153">
-        <v>5.0599999999999996</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6555,7 +6555,7 @@
         <v>161</v>
       </c>
       <c r="B154">
-        <v>21.34</v>
+        <v>21.35</v>
       </c>
       <c r="C154">
         <v>301.64</v>
@@ -6567,7 +6567,7 @@
         <v>4456.5200000000004</v>
       </c>
       <c r="F154" s="2">
-        <v>6437</v>
+        <v>6440.01</v>
       </c>
       <c r="G154">
         <v>7.0000000000000007E-2</v>
@@ -6576,7 +6576,7 @@
         <v>2.5859999999999999</v>
       </c>
       <c r="I154">
-        <v>8.2509999999999994</v>
+        <v>8.2550000000000008</v>
       </c>
       <c r="J154">
         <v>14.77</v>
@@ -6590,7 +6590,7 @@
         <v>162</v>
       </c>
       <c r="B155">
-        <v>15.71</v>
+        <v>15.9</v>
       </c>
       <c r="C155">
         <v>30</v>
@@ -6602,7 +6602,7 @@
         <v>303.33</v>
       </c>
       <c r="F155">
-        <v>471.3</v>
+        <v>477</v>
       </c>
       <c r="G155">
         <v>0.01</v>
@@ -6611,13 +6611,13 @@
         <v>0.35</v>
       </c>
       <c r="I155">
-        <v>44.884999999999998</v>
+        <v>45.427999999999997</v>
       </c>
       <c r="J155">
         <v>10.11</v>
       </c>
       <c r="K155">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6625,7 +6625,7 @@
         <v>163</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>10.24</v>
       </c>
       <c r="C156">
         <v>39.176000000000002</v>
@@ -6637,7 +6637,7 @@
         <v>155.05000000000001</v>
       </c>
       <c r="F156" s="2">
-        <v>391.76</v>
+        <v>401.16</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -6652,7 +6652,7 @@
         <v>3.95</v>
       </c>
       <c r="K156">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6660,7 +6660,7 @@
         <v>164</v>
       </c>
       <c r="B157">
-        <v>87.6</v>
+        <v>88.8</v>
       </c>
       <c r="C157">
         <v>6.6980000000000004</v>
@@ -6672,7 +6672,7 @@
         <v>63.96</v>
       </c>
       <c r="F157" s="2">
-        <v>586.74</v>
+        <v>594.78</v>
       </c>
       <c r="G157">
         <v>0.01</v>
@@ -6687,7 +6687,7 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="K157">
-        <v>9.17</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6695,7 +6695,7 @@
         <v>165</v>
       </c>
       <c r="B158">
-        <v>16.399999999999999</v>
+        <v>16.48</v>
       </c>
       <c r="C158" s="2">
         <v>30</v>
@@ -6707,7 +6707,7 @@
         <v>352.97</v>
       </c>
       <c r="F158" s="2">
-        <v>492</v>
+        <v>494.4</v>
       </c>
       <c r="G158">
         <v>0.01</v>
@@ -6722,7 +6722,7 @@
         <v>11.76</v>
       </c>
       <c r="K158">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
         <v>166</v>
       </c>
       <c r="B159">
-        <v>43.48</v>
+        <v>45.64</v>
       </c>
       <c r="C159" s="2">
         <v>30</v>
@@ -6742,22 +6742,22 @@
         <v>793.02</v>
       </c>
       <c r="F159" s="2">
-        <v>1304.4000000000001</v>
+        <v>1369.2</v>
       </c>
       <c r="G159">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H159">
         <v>2.6629999999999998</v>
       </c>
       <c r="I159">
-        <v>16.327000000000002</v>
+        <v>17.138000000000002</v>
       </c>
       <c r="J159">
         <v>26.43</v>
       </c>
       <c r="K159">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6765,7 +6765,7 @@
         <v>167</v>
       </c>
       <c r="B160">
-        <v>10.72</v>
+        <v>10.6</v>
       </c>
       <c r="C160">
         <v>50</v>
@@ -6777,7 +6777,7 @@
         <v>336.82</v>
       </c>
       <c r="F160" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G160">
         <v>0.01</v>
@@ -6792,7 +6792,7 @@
         <v>6.73</v>
       </c>
       <c r="K160">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6809,22 +6809,22 @@
         <v>38793.519999999997</v>
       </c>
       <c r="F161" s="2">
-        <v>90245.35</v>
+        <v>90067.26</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="H161">
         <v>5.1180000000000003</v>
       </c>
       <c r="I161">
-        <v>6.016</v>
+        <v>6.0030000000000001</v>
       </c>
       <c r="J161">
         <v>13.84</v>
       </c>
       <c r="K161">
-        <v>2.33</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6832,7 +6832,7 @@
         <v>169</v>
       </c>
       <c r="B162">
-        <v>122.2</v>
+        <v>122.5</v>
       </c>
       <c r="C162">
         <v>25</v>
@@ -6844,7 +6844,7 @@
         <v>511.86</v>
       </c>
       <c r="F162" s="2">
-        <v>3055</v>
+        <v>3062.5</v>
       </c>
       <c r="G162">
         <v>0.03</v>
@@ -6853,13 +6853,13 @@
         <v>7.3070000000000004</v>
       </c>
       <c r="I162">
-        <v>16.722999999999999</v>
+        <v>16.763999999999999</v>
       </c>
       <c r="J162">
         <v>20.47</v>
       </c>
       <c r="K162">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6876,7 +6876,7 @@
         <v>511.86</v>
       </c>
       <c r="F163" s="2">
-        <v>3055</v>
+        <v>3062.5</v>
       </c>
       <c r="G163">
         <v>0.03</v>
@@ -6885,13 +6885,13 @@
         <v>7.3070000000000004</v>
       </c>
       <c r="I163">
-        <v>16.722999999999999</v>
+        <v>16.763999999999999</v>
       </c>
       <c r="J163">
         <v>20.47</v>
       </c>
       <c r="K163">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6899,7 +6899,7 @@
         <v>171</v>
       </c>
       <c r="B164">
-        <v>12.38</v>
+        <v>12.34</v>
       </c>
       <c r="C164">
         <v>100.636</v>
@@ -6911,7 +6911,7 @@
         <v>992.02</v>
       </c>
       <c r="F164" s="2">
-        <v>1245.8699999999999</v>
+        <v>1241.8499999999999</v>
       </c>
       <c r="G164">
         <v>0.01</v>
@@ -6920,7 +6920,7 @@
         <v>3.22</v>
       </c>
       <c r="I164">
-        <v>3.8439999999999999</v>
+        <v>3.831</v>
       </c>
       <c r="J164">
         <v>9.85</v>
@@ -6934,7 +6934,7 @@
         <v>172</v>
       </c>
       <c r="B165">
-        <v>7.1</v>
+        <v>7.09</v>
       </c>
       <c r="C165">
         <v>843.2</v>
@@ -6946,7 +6946,7 @@
         <v>2200.52</v>
       </c>
       <c r="F165" s="2">
-        <v>5986.72</v>
+        <v>5978.29</v>
       </c>
       <c r="G165">
         <v>7.0000000000000007E-2</v>
@@ -6955,13 +6955,13 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="I165">
-        <v>21.635000000000002</v>
+        <v>21.603999999999999</v>
       </c>
       <c r="J165">
         <v>2.6</v>
       </c>
       <c r="K165">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6969,7 +6969,7 @@
         <v>173</v>
       </c>
       <c r="B166">
-        <v>74.599999999999994</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C166">
         <v>200</v>
@@ -6981,22 +6981,22 @@
         <v>3552.35</v>
       </c>
       <c r="F166" s="2">
-        <v>14920</v>
+        <v>14720</v>
       </c>
       <c r="G166">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H166">
         <v>3.5049999999999999</v>
       </c>
       <c r="I166">
-        <v>21.283000000000001</v>
+        <v>20.997</v>
       </c>
       <c r="J166">
         <v>17.760000000000002</v>
       </c>
       <c r="K166">
-        <v>4.2</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -7004,7 +7004,7 @@
         <v>174</v>
       </c>
       <c r="B167">
-        <v>132.30000000000001</v>
+        <v>131</v>
       </c>
       <c r="C167">
         <v>101.574</v>
@@ -7016,7 +7016,7 @@
         <v>4134.63</v>
       </c>
       <c r="F167" s="2">
-        <v>13438.24</v>
+        <v>13306.19</v>
       </c>
       <c r="G167">
         <v>0.15</v>
@@ -7025,13 +7025,13 @@
         <v>5.1180000000000003</v>
       </c>
       <c r="I167">
-        <v>25.847999999999999</v>
+        <v>25.594000000000001</v>
       </c>
       <c r="J167">
         <v>40.700000000000003</v>
       </c>
       <c r="K167">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7039,7 +7039,7 @@
         <v>175</v>
       </c>
       <c r="B168">
-        <v>175.6</v>
+        <v>171.2</v>
       </c>
       <c r="C168">
         <v>44.85</v>
@@ -7051,7 +7051,7 @@
         <v>1705.43</v>
       </c>
       <c r="F168" s="2">
-        <v>7875.66</v>
+        <v>7678.32</v>
       </c>
       <c r="G168">
         <v>0.09</v>
@@ -7060,13 +7060,13 @@
         <v>6.9720000000000004</v>
       </c>
       <c r="I168">
-        <v>25.186</v>
+        <v>24.555</v>
       </c>
       <c r="J168">
         <v>38.020000000000003</v>
       </c>
       <c r="K168">
-        <v>4.6100000000000003</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7074,7 +7074,7 @@
         <v>176</v>
       </c>
       <c r="B169">
-        <v>34</v>
+        <v>33.86</v>
       </c>
       <c r="C169">
         <v>160</v>
@@ -7086,7 +7086,7 @@
         <v>1987.44</v>
       </c>
       <c r="F169" s="2">
-        <v>5440</v>
+        <v>5417.6</v>
       </c>
       <c r="G169">
         <v>0.06</v>
@@ -7095,13 +7095,13 @@
         <v>1.83</v>
       </c>
       <c r="I169">
-        <v>18.579999999999998</v>
+        <v>18.503</v>
       </c>
       <c r="J169">
         <v>12.42</v>
       </c>
       <c r="K169">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7144,7 +7144,7 @@
         <v>178</v>
       </c>
       <c r="B171">
-        <v>254</v>
+        <v>247.4</v>
       </c>
       <c r="C171">
         <v>350</v>
@@ -7156,22 +7156,22 @@
         <v>7494.92</v>
       </c>
       <c r="F171" s="2">
-        <v>88900</v>
+        <v>86590</v>
       </c>
       <c r="G171">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="H171">
         <v>6.7350000000000003</v>
       </c>
       <c r="I171">
-        <v>37.710999999999999</v>
+        <v>36.731999999999999</v>
       </c>
       <c r="J171">
         <v>21.41</v>
       </c>
       <c r="K171">
-        <v>11.86</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7179,7 +7179,7 @@
         <v>179</v>
       </c>
       <c r="B172">
-        <v>36.119999999999997</v>
+        <v>37.18</v>
       </c>
       <c r="C172" s="2">
         <v>30</v>
@@ -7191,7 +7191,7 @@
         <v>524.1</v>
       </c>
       <c r="F172" s="2">
-        <v>1083.5999999999999</v>
+        <v>1115.4000000000001</v>
       </c>
       <c r="G172">
         <v>0.01</v>
@@ -7200,13 +7200,13 @@
         <v>1</v>
       </c>
       <c r="I172">
-        <v>36.119999999999997</v>
+        <v>37.18</v>
       </c>
       <c r="J172">
         <v>17.47</v>
       </c>
       <c r="K172">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7214,7 +7214,7 @@
         <v>180</v>
       </c>
       <c r="B173">
-        <v>39.380000000000003</v>
+        <v>39.28</v>
       </c>
       <c r="C173" s="2">
         <v>232</v>
@@ -7226,7 +7226,7 @@
         <v>3034.45</v>
       </c>
       <c r="F173" s="2">
-        <v>9136.16</v>
+        <v>9112.9599999999991</v>
       </c>
       <c r="G173">
         <v>0.1</v>
@@ -7235,13 +7235,13 @@
         <v>1.274</v>
       </c>
       <c r="I173">
-        <v>30.905000000000001</v>
+        <v>30.826000000000001</v>
       </c>
       <c r="J173">
         <v>13.07</v>
       </c>
       <c r="K173">
-        <v>3.01</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7249,7 +7249,7 @@
         <v>181</v>
       </c>
       <c r="B174">
-        <v>174.6</v>
+        <v>168</v>
       </c>
       <c r="C174" s="2">
         <v>44.302999999999997</v>
@@ -7261,30 +7261,30 @@
         <v>1908.4</v>
       </c>
       <c r="F174" s="2">
-        <v>7735.3</v>
+        <v>7442.9</v>
       </c>
       <c r="G174">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H174">
         <v>4.1719999999999997</v>
       </c>
       <c r="I174">
-        <v>41.85</v>
+        <v>40.268000000000001</v>
       </c>
       <c r="J174">
         <v>43.07</v>
       </c>
       <c r="K174">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B175">
-        <v>20.03</v>
+        <v>20.29</v>
       </c>
       <c r="C175">
         <v>250</v>
@@ -7296,7 +7296,7 @@
         <v>992.35</v>
       </c>
       <c r="F175" s="2">
-        <v>5007.5</v>
+        <v>5072.5</v>
       </c>
       <c r="G175">
         <v>0.06</v>
@@ -7305,13 +7305,13 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="I175">
-        <v>33.146000000000001</v>
+        <v>33.576999999999998</v>
       </c>
       <c r="J175">
         <v>3.96</v>
       </c>
       <c r="K175">
-        <v>5.04</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7328,22 +7328,22 @@
         <v>30330.2</v>
       </c>
       <c r="F176" s="2">
-        <v>166088.95999999999</v>
+        <v>162995.92000000001</v>
       </c>
       <c r="G176">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="H176">
         <v>2.3849999999999998</v>
       </c>
       <c r="I176">
-        <v>28.446000000000002</v>
+        <v>27.916</v>
       </c>
       <c r="J176">
         <v>12.39</v>
       </c>
       <c r="K176">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7351,7 +7351,7 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>26.2</v>
+        <v>26.8</v>
       </c>
       <c r="C177" s="2">
         <v>120</v>
@@ -7363,7 +7363,7 @@
         <v>1503.7</v>
       </c>
       <c r="F177" s="2">
-        <v>3144</v>
+        <v>3216</v>
       </c>
       <c r="G177">
         <v>0.04</v>
@@ -7372,13 +7372,13 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="I177">
-        <v>45.499000000000002</v>
+        <v>46.540999999999997</v>
       </c>
       <c r="J177">
         <v>12.53</v>
       </c>
       <c r="K177">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7386,7 +7386,7 @@
         <v>184</v>
       </c>
       <c r="B178">
-        <v>162.6</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="C178" s="2">
         <v>70</v>
@@ -7398,7 +7398,7 @@
         <v>1681.79</v>
       </c>
       <c r="F178" s="2">
-        <v>11382</v>
+        <v>11186</v>
       </c>
       <c r="G178">
         <v>0.13</v>
@@ -7407,13 +7407,13 @@
         <v>6.2240000000000002</v>
       </c>
       <c r="I178">
-        <v>26.126000000000001</v>
+        <v>25.675999999999998</v>
       </c>
       <c r="J178">
         <v>24.02</v>
       </c>
       <c r="K178">
-        <v>6.76</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7421,7 +7421,7 @@
         <v>185</v>
       </c>
       <c r="B179">
-        <v>123.1</v>
+        <v>126.1</v>
       </c>
       <c r="C179" s="2">
         <v>20</v>
@@ -7433,7 +7433,7 @@
         <v>385.17</v>
       </c>
       <c r="F179" s="2">
-        <v>2462</v>
+        <v>2522</v>
       </c>
       <c r="G179">
         <v>0.03</v>
@@ -7442,13 +7442,13 @@
         <v>4.6449999999999996</v>
       </c>
       <c r="I179">
-        <v>26.504000000000001</v>
+        <v>27.15</v>
       </c>
       <c r="J179">
         <v>19.25</v>
       </c>
       <c r="K179">
-        <v>6.39</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
         <v>3570.66</v>
       </c>
       <c r="F180" s="2">
-        <v>16988</v>
+        <v>16924</v>
       </c>
       <c r="G180">
         <v>0.2</v>
@@ -7474,13 +7474,13 @@
         <v>2.8460000000000001</v>
       </c>
       <c r="I180">
-        <v>28.425000000000001</v>
+        <v>28.318000000000001</v>
       </c>
       <c r="J180">
         <v>17</v>
       </c>
       <c r="K180">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7488,7 +7488,7 @@
         <v>187</v>
       </c>
       <c r="B181">
-        <v>26.84</v>
+        <v>26.96</v>
       </c>
       <c r="C181" s="2">
         <v>3000</v>
@@ -7500,7 +7500,7 @@
         <v>60962.53</v>
       </c>
       <c r="F181" s="2">
-        <v>80520</v>
+        <v>80880</v>
       </c>
       <c r="G181">
         <v>0.9</v>
@@ -7509,7 +7509,7 @@
         <v>3.331</v>
       </c>
       <c r="I181">
-        <v>8.0559999999999992</v>
+        <v>8.0920000000000005</v>
       </c>
       <c r="J181">
         <v>20.32</v>
@@ -7523,7 +7523,7 @@
         <v>188</v>
       </c>
       <c r="B182">
-        <v>12.39</v>
+        <v>12.47</v>
       </c>
       <c r="C182" s="2">
         <v>1281.25</v>
@@ -7535,7 +7535,7 @@
         <v>14216.15</v>
       </c>
       <c r="F182" s="2">
-        <v>15874.69</v>
+        <v>15977.19</v>
       </c>
       <c r="G182">
         <v>0.18</v>
@@ -7544,13 +7544,13 @@
         <v>1.0580000000000001</v>
       </c>
       <c r="I182">
-        <v>11.706</v>
+        <v>11.782</v>
       </c>
       <c r="J182">
         <v>11.09</v>
       </c>
       <c r="K182">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
         <v>189</v>
       </c>
       <c r="B183">
-        <v>13.76</v>
+        <v>14.14</v>
       </c>
       <c r="C183" s="2">
         <v>1250</v>
@@ -7570,22 +7570,22 @@
         <v>15933</v>
       </c>
       <c r="F183" s="2">
-        <v>17200</v>
+        <v>17675</v>
       </c>
       <c r="G183">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H183">
         <v>1.635</v>
       </c>
       <c r="I183">
-        <v>8.4160000000000004</v>
+        <v>8.6479999999999997</v>
       </c>
       <c r="J183">
         <v>12.74</v>
       </c>
       <c r="K183">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7593,7 +7593,7 @@
         <v>190</v>
       </c>
       <c r="B184">
-        <v>16.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="C184" s="2">
         <v>2500</v>
@@ -7605,16 +7605,16 @@
         <v>40876.230000000003</v>
       </c>
       <c r="F184" s="2">
-        <v>42250</v>
+        <v>42500</v>
       </c>
       <c r="G184">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="H184">
         <v>2.0019999999999998</v>
       </c>
       <c r="I184">
-        <v>8.4390000000000001</v>
+        <v>8.4890000000000008</v>
       </c>
       <c r="J184">
         <v>16.350000000000001</v>
@@ -7628,7 +7628,7 @@
         <v>191</v>
       </c>
       <c r="B185">
-        <v>31.96</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="C185" s="2">
         <v>2054.7939999999999</v>
@@ -7640,22 +7640,22 @@
         <v>64097.96</v>
       </c>
       <c r="F185" s="2">
-        <v>65671.22</v>
+        <v>66082.179999999993</v>
       </c>
       <c r="G185">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="H185">
         <v>4.0250000000000004</v>
       </c>
       <c r="I185">
-        <v>7.9390000000000001</v>
+        <v>7.9889999999999999</v>
       </c>
       <c r="J185">
         <v>31.19</v>
       </c>
       <c r="K185">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7663,7 +7663,7 @@
         <v>192</v>
       </c>
       <c r="B186">
-        <v>21.7</v>
+        <v>22.25</v>
       </c>
       <c r="C186" s="2">
         <v>2000</v>
@@ -7675,22 +7675,22 @@
         <v>39677.64</v>
       </c>
       <c r="F186" s="2">
-        <v>43400</v>
+        <v>44500</v>
       </c>
       <c r="G186">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H186">
         <v>2.57</v>
       </c>
       <c r="I186">
-        <v>8.4429999999999996</v>
+        <v>8.657</v>
       </c>
       <c r="J186">
         <v>19.829999999999998</v>
       </c>
       <c r="K186">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7698,7 +7698,7 @@
         <v>193</v>
       </c>
       <c r="B187">
-        <v>94.5</v>
+        <v>96.1</v>
       </c>
       <c r="C187" s="2">
         <v>4000</v>
@@ -7710,22 +7710,22 @@
         <v>104986.99</v>
       </c>
       <c r="F187" s="2">
-        <v>378000</v>
+        <v>384400</v>
       </c>
       <c r="G187">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="H187">
         <v>5.6689999999999996</v>
       </c>
       <c r="I187">
-        <v>16.669</v>
+        <v>16.951000000000001</v>
       </c>
       <c r="J187">
         <v>26.24</v>
       </c>
       <c r="K187">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7733,7 +7733,7 @@
         <v>194</v>
       </c>
       <c r="B188">
-        <v>25.34</v>
+        <v>26.72</v>
       </c>
       <c r="C188" s="2">
         <v>1500</v>
@@ -7745,22 +7745,22 @@
         <v>18318.52</v>
       </c>
       <c r="F188" s="2">
-        <v>38010</v>
+        <v>40080</v>
       </c>
       <c r="G188">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="H188">
         <v>1.9730000000000001</v>
       </c>
       <c r="I188">
-        <v>12.846</v>
+        <v>13.545999999999999</v>
       </c>
       <c r="J188">
         <v>12.21</v>
       </c>
       <c r="K188">
-        <v>2.0699999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
         <v>195</v>
       </c>
       <c r="B189">
-        <v>25.46</v>
+        <v>25.58</v>
       </c>
       <c r="C189" s="2">
         <v>2500</v>
@@ -7780,22 +7780,22 @@
         <v>34148.6</v>
       </c>
       <c r="F189" s="2">
-        <v>63650</v>
+        <v>63950</v>
       </c>
       <c r="G189">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="H189">
         <v>2.4729999999999999</v>
       </c>
       <c r="I189">
-        <v>10.295999999999999</v>
+        <v>10.345000000000001</v>
       </c>
       <c r="J189">
         <v>13.65</v>
       </c>
       <c r="K189">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7803,7 +7803,7 @@
         <v>196</v>
       </c>
       <c r="B190">
-        <v>36.18</v>
+        <v>36</v>
       </c>
       <c r="C190" s="2">
         <v>6000</v>
@@ -7815,7 +7815,7 @@
         <v>178560.15</v>
       </c>
       <c r="F190" s="2">
-        <v>217080</v>
+        <v>216000</v>
       </c>
       <c r="G190">
         <v>2.42</v>
@@ -7824,13 +7824,13 @@
         <v>3.847</v>
       </c>
       <c r="I190">
-        <v>9.4039999999999999</v>
+        <v>9.3569999999999993</v>
       </c>
       <c r="J190">
         <v>29.76</v>
       </c>
       <c r="K190">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7847,22 +7847,22 @@
         <v>571777.77</v>
       </c>
       <c r="F191" s="2">
-        <v>961655.91</v>
+        <v>972044.37</v>
       </c>
       <c r="G191">
-        <v>10.71</v>
+        <v>10.89</v>
       </c>
       <c r="H191">
         <v>3.3239999999999998</v>
       </c>
       <c r="I191">
-        <v>11.090999999999999</v>
+        <v>11.21</v>
       </c>
       <c r="J191">
         <v>21.92</v>
       </c>
       <c r="K191">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7870,7 +7870,7 @@
         <v>198</v>
       </c>
       <c r="B192">
-        <v>168.9</v>
+        <v>173.5</v>
       </c>
       <c r="C192">
         <v>120</v>
@@ -7882,7 +7882,7 @@
         <v>3270.6</v>
       </c>
       <c r="F192" s="2">
-        <v>20268</v>
+        <v>20820</v>
       </c>
       <c r="G192">
         <v>0.23</v>
@@ -7891,13 +7891,13 @@
         <v>3.9430000000000001</v>
       </c>
       <c r="I192">
-        <v>42.831000000000003</v>
+        <v>43.997999999999998</v>
       </c>
       <c r="J192">
         <v>27.25</v>
       </c>
       <c r="K192">
-        <v>6.19</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7905,7 +7905,7 @@
         <v>199</v>
       </c>
       <c r="B193">
-        <v>12.89</v>
+        <v>12.55</v>
       </c>
       <c r="C193">
         <v>101.925</v>
@@ -7917,7 +7917,7 @@
         <v>1251.51</v>
       </c>
       <c r="F193" s="2">
-        <v>1313.81</v>
+        <v>1279.1600000000001</v>
       </c>
       <c r="G193">
         <v>0.01</v>
@@ -7926,13 +7926,13 @@
         <v>0.60599999999999998</v>
       </c>
       <c r="I193">
-        <v>21.265000000000001</v>
+        <v>20.704999999999998</v>
       </c>
       <c r="J193">
         <v>12.27</v>
       </c>
       <c r="K193">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7940,7 +7940,7 @@
         <v>200</v>
       </c>
       <c r="B194">
-        <v>22.5</v>
+        <v>22.07</v>
       </c>
       <c r="C194">
         <v>100</v>
@@ -7952,22 +7952,22 @@
         <v>1713.18</v>
       </c>
       <c r="F194" s="2">
-        <v>2250</v>
+        <v>2207</v>
       </c>
       <c r="G194">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H194">
         <v>0.438</v>
       </c>
       <c r="I194">
-        <v>51.405000000000001</v>
+        <v>50.421999999999997</v>
       </c>
       <c r="J194">
         <v>17.13</v>
       </c>
       <c r="K194">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7975,7 +7975,7 @@
         <v>201</v>
       </c>
       <c r="B195">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="C195">
         <v>60</v>
@@ -7987,7 +7987,7 @@
         <v>1059.21</v>
       </c>
       <c r="F195" s="2">
-        <v>1422</v>
+        <v>1434</v>
       </c>
       <c r="G195">
         <v>0.02</v>
@@ -8002,7 +8002,7 @@
         <v>17.649999999999999</v>
       </c>
       <c r="K195">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8010,7 +8010,7 @@
         <v>202</v>
       </c>
       <c r="B196">
-        <v>12.39</v>
+        <v>12.45</v>
       </c>
       <c r="C196">
         <v>120</v>
@@ -8022,7 +8022,7 @@
         <v>1436.21</v>
       </c>
       <c r="F196" s="2">
-        <v>1486.8</v>
+        <v>1494</v>
       </c>
       <c r="G196">
         <v>0.02</v>
@@ -8031,13 +8031,13 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="I196">
-        <v>12.944000000000001</v>
+        <v>13.007</v>
       </c>
       <c r="J196">
         <v>11.96</v>
       </c>
       <c r="K196">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8045,7 +8045,7 @@
         <v>203</v>
       </c>
       <c r="B197">
-        <v>11.1</v>
+        <v>11.34</v>
       </c>
       <c r="C197" s="2">
         <v>71.427999999999997</v>
@@ -8057,7 +8057,7 @@
         <v>845.61</v>
       </c>
       <c r="F197" s="2">
-        <v>792.85</v>
+        <v>809.99</v>
       </c>
       <c r="G197">
         <v>0.01</v>
@@ -8066,13 +8066,13 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="I197">
-        <v>56.753</v>
+        <v>57.98</v>
       </c>
       <c r="J197">
         <v>11.83</v>
       </c>
       <c r="K197">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8080,7 +8080,7 @@
         <v>204</v>
       </c>
       <c r="B198">
-        <v>157</v>
+        <v>158.4</v>
       </c>
       <c r="C198" s="2">
         <v>25</v>
@@ -8092,7 +8092,7 @@
         <v>1230.26</v>
       </c>
       <c r="F198" s="2">
-        <v>3925</v>
+        <v>3960</v>
       </c>
       <c r="G198">
         <v>0.04</v>
@@ -8101,13 +8101,13 @@
         <v>9.6319999999999997</v>
       </c>
       <c r="I198">
-        <v>16.298999999999999</v>
+        <v>16.443999999999999</v>
       </c>
       <c r="J198">
         <v>49.21</v>
       </c>
       <c r="K198">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8115,7 +8115,7 @@
         <v>205</v>
       </c>
       <c r="B199">
-        <v>25.98</v>
+        <v>26.7</v>
       </c>
       <c r="C199" s="2">
         <v>249.73500000000001</v>
@@ -8127,7 +8127,7 @@
         <v>1121.51</v>
       </c>
       <c r="F199" s="2">
-        <v>6488.12</v>
+        <v>6667.92</v>
       </c>
       <c r="G199">
         <v>7.0000000000000007E-2</v>
@@ -8136,21 +8136,21 @@
         <v>1.7190000000000001</v>
       </c>
       <c r="I199">
-        <v>15.117000000000001</v>
+        <v>15.536</v>
       </c>
       <c r="J199">
         <v>4.49</v>
       </c>
       <c r="K199">
-        <v>5.78</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B200">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="C200" s="2">
         <v>218.29499999999999</v>
@@ -8162,7 +8162,7 @@
         <v>225.95</v>
       </c>
       <c r="F200" s="2">
-        <v>676.71</v>
+        <v>670.17</v>
       </c>
       <c r="G200">
         <v>0.01</v>
@@ -8171,13 +8171,13 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I200">
-        <v>81.043000000000006</v>
+        <v>80.259</v>
       </c>
       <c r="J200">
         <v>1.03</v>
       </c>
       <c r="K200">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8185,7 +8185,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>7.95</v>
+        <v>7.67</v>
       </c>
       <c r="C201" s="2">
         <v>3705.8820000000001</v>
@@ -8197,22 +8197,22 @@
         <v>43140.17</v>
       </c>
       <c r="F201" s="2">
-        <v>29461.759999999998</v>
+        <v>28424.11</v>
       </c>
       <c r="G201">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="H201">
         <v>0.33800000000000002</v>
       </c>
       <c r="I201">
-        <v>23.507000000000001</v>
+        <v>22.678999999999998</v>
       </c>
       <c r="J201">
         <v>11.64</v>
       </c>
       <c r="K201">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8229,16 +8229,16 @@
         <v>55294.21</v>
       </c>
       <c r="F202" s="2">
-        <v>68085.05</v>
+        <v>67766.350000000006</v>
       </c>
       <c r="G202">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="H202">
         <v>0.54600000000000004</v>
       </c>
       <c r="I202">
-        <v>25.259</v>
+        <v>25.132999999999999</v>
       </c>
       <c r="J202">
         <v>11.59</v>
@@ -8252,7 +8252,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>124.1</v>
+        <v>126.4</v>
       </c>
       <c r="C203">
         <v>150</v>
@@ -8264,7 +8264,7 @@
         <v>4963.1400000000003</v>
       </c>
       <c r="F203" s="2">
-        <v>18615</v>
+        <v>18960</v>
       </c>
       <c r="G203">
         <v>0.21</v>
@@ -8273,13 +8273,13 @@
         <v>7.298</v>
       </c>
       <c r="I203">
-        <v>17.004999999999999</v>
+        <v>17.32</v>
       </c>
       <c r="J203">
         <v>33.08</v>
       </c>
       <c r="K203">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8287,7 +8287,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>12.42</v>
+        <v>12.51</v>
       </c>
       <c r="C204">
         <v>66</v>
@@ -8299,7 +8299,7 @@
         <v>978.58</v>
       </c>
       <c r="F204" s="2">
-        <v>819.72</v>
+        <v>825.66</v>
       </c>
       <c r="G204">
         <v>0.01</v>
@@ -8308,13 +8308,13 @@
         <v>0.50800000000000001</v>
       </c>
       <c r="I204">
-        <v>24.454000000000001</v>
+        <v>24.631</v>
       </c>
       <c r="J204">
         <v>14.82</v>
       </c>
       <c r="K204">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8322,7 +8322,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>13.25</v>
+        <v>13.41</v>
       </c>
       <c r="C205">
         <v>50</v>
@@ -8334,7 +8334,7 @@
         <v>451.34</v>
       </c>
       <c r="F205" s="2">
-        <v>662.5</v>
+        <v>670.5</v>
       </c>
       <c r="G205">
         <v>0.01</v>
@@ -8343,13 +8343,13 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="I205">
-        <v>20.8</v>
+        <v>21.050999999999998</v>
       </c>
       <c r="J205">
         <v>9.02</v>
       </c>
       <c r="K205">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8392,7 +8392,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>14.59</v>
+        <v>14.2</v>
       </c>
       <c r="C207">
         <v>60</v>
@@ -8404,7 +8404,7 @@
         <v>827.73</v>
       </c>
       <c r="F207" s="2">
-        <v>875.4</v>
+        <v>852</v>
       </c>
       <c r="G207">
         <v>0.01</v>
@@ -8413,13 +8413,13 @@
         <v>0.318</v>
       </c>
       <c r="I207">
-        <v>45.832000000000001</v>
+        <v>44.606999999999999</v>
       </c>
       <c r="J207">
         <v>13.79</v>
       </c>
       <c r="K207">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8427,7 +8427,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>12.27</v>
+        <v>12.21</v>
       </c>
       <c r="C208">
         <v>30</v>
@@ -8439,7 +8439,7 @@
         <v>313.64999999999998</v>
       </c>
       <c r="F208" s="2">
-        <v>368.1</v>
+        <v>366.3</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -8454,7 +8454,7 @@
         <v>10.45</v>
       </c>
       <c r="K208">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8462,7 +8462,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>12.5</v>
+        <v>12.29</v>
       </c>
       <c r="C209">
         <v>127.55800000000001</v>
@@ -8474,7 +8474,7 @@
         <v>1719.29</v>
       </c>
       <c r="F209" s="2">
-        <v>1594.48</v>
+        <v>1567.69</v>
       </c>
       <c r="G209">
         <v>0.02</v>
@@ -8489,7 +8489,7 @@
         <v>13.47</v>
       </c>
       <c r="K209">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8497,7 +8497,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>13.68</v>
+        <v>13.83</v>
       </c>
       <c r="C210">
         <v>79.814999999999998</v>
@@ -8509,7 +8509,7 @@
         <v>1634.95</v>
       </c>
       <c r="F210" s="2">
-        <v>1091.8699999999999</v>
+        <v>1103.8399999999999</v>
       </c>
       <c r="G210">
         <v>0.01</v>
@@ -8518,13 +8518,13 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I210">
-        <v>820.95399999999995</v>
+        <v>829.95399999999995</v>
       </c>
       <c r="J210">
         <v>20.48</v>
       </c>
       <c r="K210">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8532,7 +8532,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>13.99</v>
+        <v>14.2</v>
       </c>
       <c r="C211">
         <v>30</v>
@@ -8544,7 +8544,7 @@
         <v>412</v>
       </c>
       <c r="F211">
-        <v>419.7</v>
+        <v>426</v>
       </c>
       <c r="G211" t="s">
         <v>32</v>
@@ -8553,13 +8553,13 @@
         <v>1.7310000000000001</v>
       </c>
       <c r="I211">
-        <v>8.0820000000000007</v>
+        <v>8.2029999999999994</v>
       </c>
       <c r="J211">
         <v>13.73</v>
       </c>
       <c r="K211">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8567,7 +8567,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>12.39</v>
+        <v>12.69</v>
       </c>
       <c r="C212">
         <v>45.893999999999998</v>
@@ -8579,7 +8579,7 @@
         <v>563.95000000000005</v>
       </c>
       <c r="F212">
-        <v>568.63</v>
+        <v>582.39</v>
       </c>
       <c r="G212">
         <v>0.01</v>
@@ -8594,7 +8594,7 @@
         <v>12.28</v>
       </c>
       <c r="K212">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8602,7 +8602,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>10.97</v>
+        <v>11.21</v>
       </c>
       <c r="C213">
         <v>29.1</v>
@@ -8614,7 +8614,7 @@
         <v>270.77999999999997</v>
       </c>
       <c r="F213">
-        <v>319.23</v>
+        <v>326.20999999999998</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -8629,7 +8629,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="K213">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8637,7 +8637,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>10.87</v>
+        <v>10.5</v>
       </c>
       <c r="C214">
         <v>53</v>
@@ -8649,7 +8649,7 @@
         <v>617.17999999999995</v>
       </c>
       <c r="F214" s="2">
-        <v>576.11</v>
+        <v>556.5</v>
       </c>
       <c r="G214">
         <v>0.01</v>
@@ -8658,13 +8658,13 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="I214">
-        <v>30.873999999999999</v>
+        <v>29.823</v>
       </c>
       <c r="J214">
         <v>11.64</v>
       </c>
       <c r="K214">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>11.1</v>
+        <v>11.21</v>
       </c>
       <c r="C215">
         <v>50</v>
@@ -8684,7 +8684,7 @@
         <v>608.54999999999995</v>
       </c>
       <c r="F215" s="2">
-        <v>555</v>
+        <v>560.5</v>
       </c>
       <c r="G215">
         <v>0.01</v>
@@ -8699,7 +8699,7 @@
         <v>12.17</v>
       </c>
       <c r="K215">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8707,7 +8707,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>14.14</v>
+        <v>13.78</v>
       </c>
       <c r="C216">
         <v>30</v>
@@ -8719,7 +8719,7 @@
         <v>370.52</v>
       </c>
       <c r="F216" s="2">
-        <v>424.2</v>
+        <v>413.4</v>
       </c>
       <c r="G216" t="s">
         <v>32</v>
@@ -8734,7 +8734,7 @@
         <v>12.35</v>
       </c>
       <c r="K216">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8742,7 +8742,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C217">
         <v>40</v>
@@ -8754,7 +8754,7 @@
         <v>165.96</v>
       </c>
       <c r="F217" s="2">
-        <v>214.4</v>
+        <v>215.2</v>
       </c>
       <c r="G217" t="s">
         <v>32</v>
@@ -8777,7 +8777,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>48.26</v>
+        <v>46.66</v>
       </c>
       <c r="C218">
         <v>115.83</v>
@@ -8789,7 +8789,7 @@
         <v>2120.48</v>
       </c>
       <c r="F218" s="2">
-        <v>5589.96</v>
+        <v>5404.63</v>
       </c>
       <c r="G218">
         <v>0.06</v>
@@ -8798,13 +8798,13 @@
         <v>4.2089999999999996</v>
       </c>
       <c r="I218">
-        <v>11.465</v>
+        <v>11.085000000000001</v>
       </c>
       <c r="J218">
         <v>18.3</v>
       </c>
       <c r="K218">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8812,7 +8812,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>156.19999999999999</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="C219">
         <v>150</v>
@@ -8824,22 +8824,22 @@
         <v>5243.99</v>
       </c>
       <c r="F219" s="2">
-        <v>23430</v>
+        <v>22695</v>
       </c>
       <c r="G219">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H219">
         <v>7.1230000000000002</v>
       </c>
       <c r="I219">
-        <v>21.928000000000001</v>
+        <v>21.24</v>
       </c>
       <c r="J219">
         <v>34.950000000000003</v>
       </c>
       <c r="K219">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8847,7 +8847,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>118.6</v>
+        <v>122.4</v>
       </c>
       <c r="C220">
         <v>100</v>
@@ -8859,22 +8859,22 @@
         <v>2287.39</v>
       </c>
       <c r="F220" s="2">
-        <v>11860</v>
+        <v>12240</v>
       </c>
       <c r="G220">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H220">
         <v>3.3359999999999999</v>
       </c>
       <c r="I220">
-        <v>35.552999999999997</v>
+        <v>36.692</v>
       </c>
       <c r="J220">
         <v>22.87</v>
       </c>
       <c r="K220">
-        <v>5.18</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8917,7 +8917,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>24.6</v>
+        <v>24.88</v>
       </c>
       <c r="C222">
         <v>52.5</v>
@@ -8929,7 +8929,7 @@
         <v>1126.8</v>
       </c>
       <c r="F222" s="2">
-        <v>1291.5</v>
+        <v>1306.2</v>
       </c>
       <c r="G222">
         <v>0.01</v>
@@ -8938,13 +8938,13 @@
         <v>2.423</v>
       </c>
       <c r="I222">
-        <v>10.154</v>
+        <v>10.269</v>
       </c>
       <c r="J222">
         <v>21.46</v>
       </c>
       <c r="K222">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>4.9000000000000004</v>
+        <v>5.03</v>
       </c>
       <c r="C223">
         <v>30</v>
@@ -8964,7 +8964,7 @@
         <v>173.55</v>
       </c>
       <c r="F223">
-        <v>147</v>
+        <v>150.9</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -8979,7 +8979,7 @@
         <v>5.78</v>
       </c>
       <c r="K223">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8987,7 +8987,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>16.899999999999999</v>
+        <v>16.78</v>
       </c>
       <c r="C224">
         <v>30</v>
@@ -8999,7 +8999,7 @@
         <v>473.78</v>
       </c>
       <c r="F224">
-        <v>507</v>
+        <v>503.4</v>
       </c>
       <c r="G224">
         <v>0.01</v>
@@ -9008,13 +9008,13 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="I224">
-        <v>100.197</v>
+        <v>99.486000000000004</v>
       </c>
       <c r="J224">
         <v>15.79</v>
       </c>
       <c r="K224">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9022,7 +9022,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>13.01</v>
+        <v>12.74</v>
       </c>
       <c r="C225">
         <v>40</v>
@@ -9034,7 +9034,7 @@
         <v>448.32</v>
       </c>
       <c r="F225" s="2">
-        <v>520.4</v>
+        <v>509.6</v>
       </c>
       <c r="G225">
         <v>0.01</v>
@@ -9043,13 +9043,13 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="I225">
-        <v>19.439</v>
+        <v>19.036000000000001</v>
       </c>
       <c r="J225">
         <v>11.2</v>
       </c>
       <c r="K225">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -9057,7 +9057,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>15.2</v>
+        <v>15.41</v>
       </c>
       <c r="C226" s="2">
         <v>40</v>
@@ -9069,7 +9069,7 @@
         <v>617.82000000000005</v>
       </c>
       <c r="F226" s="2">
-        <v>608</v>
+        <v>616.4</v>
       </c>
       <c r="G226">
         <v>0.01</v>
@@ -9078,13 +9078,13 @@
         <v>1.351</v>
       </c>
       <c r="I226">
-        <v>11.247999999999999</v>
+        <v>11.404</v>
       </c>
       <c r="J226">
         <v>15.44</v>
       </c>
       <c r="K226">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9092,7 +9092,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>7.84</v>
+        <v>7.85</v>
       </c>
       <c r="C227" s="2">
         <v>43</v>
@@ -9104,7 +9104,7 @@
         <v>315.04000000000002</v>
       </c>
       <c r="F227" s="2">
-        <v>337.12</v>
+        <v>337.55</v>
       </c>
       <c r="G227" t="s">
         <v>32</v>
@@ -9113,7 +9113,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I227">
-        <v>1348.48</v>
+        <v>1350.2</v>
       </c>
       <c r="J227">
         <v>7.32</v>
@@ -9127,7 +9127,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>9.3800000000000008</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C228" s="2">
         <v>23</v>
@@ -9139,7 +9139,7 @@
         <v>162.1</v>
       </c>
       <c r="F228" s="2">
-        <v>215.74</v>
+        <v>211.6</v>
       </c>
       <c r="G228" t="s">
         <v>32</v>
@@ -9154,7 +9154,7 @@
         <v>7.04</v>
       </c>
       <c r="K228">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9162,7 +9162,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>94.2</v>
+        <v>95.9</v>
       </c>
       <c r="C229">
         <v>77.507000000000005</v>
@@ -9174,7 +9174,7 @@
         <v>507.3</v>
       </c>
       <c r="F229" s="2">
-        <v>7301.16</v>
+        <v>7432.92</v>
       </c>
       <c r="G229">
         <v>0.08</v>
@@ -9183,13 +9183,13 @@
         <v>1.954</v>
       </c>
       <c r="I229">
-        <v>48.210999999999999</v>
+        <v>49.081000000000003</v>
       </c>
       <c r="J229">
         <v>6.54</v>
       </c>
       <c r="K229">
-        <v>14.39</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9207,7 +9207,7 @@
         <v>28885.26</v>
       </c>
       <c r="F230" s="2">
-        <v>81642.67</v>
+        <v>81564.84</v>
       </c>
       <c r="G230">
         <v>0.9</v>
@@ -9216,13 +9216,13 @@
         <v>1.7689999999999999</v>
       </c>
       <c r="I230">
-        <v>21.594999999999999</v>
+        <v>21.577000000000002</v>
       </c>
       <c r="J230">
         <v>17.21</v>
       </c>
       <c r="K230">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9230,7 +9230,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>130.6</v>
+        <v>130.1</v>
       </c>
       <c r="C231">
         <v>30</v>
@@ -9242,7 +9242,7 @@
         <v>389.59</v>
       </c>
       <c r="F231" s="2">
-        <v>3918</v>
+        <v>3903</v>
       </c>
       <c r="G231">
         <v>0.04</v>
@@ -9251,13 +9251,13 @@
         <v>2.8660000000000001</v>
       </c>
       <c r="I231">
-        <v>45.573999999999998</v>
+        <v>45.399000000000001</v>
       </c>
       <c r="J231">
         <v>12.98</v>
       </c>
       <c r="K231">
-        <v>10.050000000000001</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -9265,7 +9265,7 @@
         <v>237</v>
       </c>
       <c r="B232" s="2">
-        <v>5.21</v>
+        <v>5.27</v>
       </c>
       <c r="C232">
         <v>100</v>
@@ -9277,7 +9277,7 @@
         <v>126.59</v>
       </c>
       <c r="F232" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G232">
         <v>0.01</v>
@@ -9292,7 +9292,7 @@
         <v>1.26</v>
       </c>
       <c r="K232">
-        <v>4.1100000000000003</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9300,7 +9300,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>243.5</v>
+        <v>245.7</v>
       </c>
       <c r="C233" s="2">
         <v>120</v>
@@ -9312,7 +9312,7 @@
         <v>3598</v>
       </c>
       <c r="F233" s="2">
-        <v>29220</v>
+        <v>29484</v>
       </c>
       <c r="G233">
         <v>0.33</v>
@@ -9321,13 +9321,13 @@
         <v>13.308</v>
       </c>
       <c r="I233">
-        <v>18.295999999999999</v>
+        <v>18.462</v>
       </c>
       <c r="J233">
         <v>29.98</v>
       </c>
       <c r="K233">
-        <v>8.1199999999999992</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9335,7 +9335,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C234" s="2">
         <v>80</v>
@@ -9347,22 +9347,22 @@
         <v>3265</v>
       </c>
       <c r="F234" s="2">
-        <v>70480</v>
+        <v>70080</v>
       </c>
       <c r="G234">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="H234">
         <v>26</v>
       </c>
       <c r="I234">
-        <v>33.884</v>
+        <v>33.692</v>
       </c>
       <c r="J234">
         <v>40.81</v>
       </c>
       <c r="K234">
-        <v>21.58</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9370,7 +9370,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>10.32</v>
+        <v>10.72</v>
       </c>
       <c r="C235" s="2">
         <v>300</v>
@@ -9382,30 +9382,30 @@
         <v>607.16</v>
       </c>
       <c r="F235" s="2">
-        <v>3096</v>
+        <v>3216</v>
       </c>
       <c r="G235">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H235">
         <v>0.47399999999999998</v>
       </c>
       <c r="I235">
-        <v>21.771999999999998</v>
+        <v>22.616</v>
       </c>
       <c r="J235">
         <v>2.02</v>
       </c>
       <c r="K235">
-        <v>5.09</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B236">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="C236">
         <v>60</v>
@@ -9417,7 +9417,7 @@
         <v>128.06</v>
       </c>
       <c r="F236" s="2">
-        <v>1590</v>
+        <v>1620</v>
       </c>
       <c r="G236">
         <v>0.02</v>
@@ -9426,13 +9426,13 @@
         <v>0.59</v>
       </c>
       <c r="I236">
-        <v>44.94</v>
+        <v>45.787999999999997</v>
       </c>
       <c r="J236">
         <v>2.13</v>
       </c>
       <c r="K236">
-        <v>12.41</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9449,7 +9449,7 @@
         <v>8114.4</v>
       </c>
       <c r="F237" s="2">
-        <v>108825</v>
+        <v>108830</v>
       </c>
       <c r="G237">
         <v>1.22</v>
@@ -9472,7 +9472,7 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>42.72</v>
+        <v>42.88</v>
       </c>
       <c r="C238" s="2">
         <v>5000</v>
@@ -9484,22 +9484,22 @@
         <v>82699</v>
       </c>
       <c r="F238" s="2">
-        <v>213600</v>
+        <v>214400</v>
       </c>
       <c r="G238">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H238">
         <v>5.1139999999999999</v>
       </c>
       <c r="I238">
-        <v>8.3529999999999998</v>
+        <v>8.3840000000000003</v>
       </c>
       <c r="J238">
         <v>16.53</v>
       </c>
       <c r="K238">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9507,7 +9507,7 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>64.25</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="C239" s="2">
         <v>770</v>
@@ -9519,22 +9519,22 @@
         <v>19451</v>
       </c>
       <c r="F239" s="2">
-        <v>49472.5</v>
+        <v>50165.5</v>
       </c>
       <c r="G239">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H239">
         <v>4.4219999999999997</v>
       </c>
       <c r="I239">
-        <v>14.529</v>
+        <v>14.731999999999999</v>
       </c>
       <c r="J239">
         <v>25.26</v>
       </c>
       <c r="K239">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9542,7 +9542,7 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>10.7</v>
+        <v>10.72</v>
       </c>
       <c r="C240">
         <v>898.72900000000004</v>
@@ -9554,7 +9554,7 @@
         <v>10460</v>
       </c>
       <c r="F240" s="2">
-        <v>9616.4</v>
+        <v>9634.3700000000008</v>
       </c>
       <c r="G240">
         <v>0.11</v>
@@ -9563,13 +9563,13 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="I240">
-        <v>14.932</v>
+        <v>14.96</v>
       </c>
       <c r="J240">
         <v>11.63</v>
       </c>
       <c r="K240">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9577,7 +9577,7 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>103.2</v>
+        <v>102.6</v>
       </c>
       <c r="C241">
         <v>33.999000000000002</v>
@@ -9589,7 +9589,7 @@
         <v>827</v>
       </c>
       <c r="F241" s="2">
-        <v>3508.7</v>
+        <v>3488.3</v>
       </c>
       <c r="G241">
         <v>0.04</v>
@@ -9598,13 +9598,13 @@
         <v>6.9059999999999997</v>
       </c>
       <c r="I241">
-        <v>14.942</v>
+        <v>14.855</v>
       </c>
       <c r="J241">
         <v>24.32</v>
       </c>
       <c r="K241">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9621,22 +9621,22 @@
         <v>113437</v>
       </c>
       <c r="F242" s="2">
-        <v>276197.59999999998</v>
+        <v>277688.17</v>
       </c>
       <c r="G242">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="H242">
         <v>4.4539999999999997</v>
       </c>
       <c r="I242">
-        <v>9.2509999999999994</v>
+        <v>9.3010000000000002</v>
       </c>
       <c r="J242">
         <v>16.920000000000002</v>
       </c>
       <c r="K242">
-        <v>2.4300000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9644,7 +9644,7 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>75.45</v>
+        <v>74.3</v>
       </c>
       <c r="C243" s="2">
         <v>75</v>
@@ -9656,7 +9656,7 @@
         <v>1928.2</v>
       </c>
       <c r="F243" s="2">
-        <v>5658.75</v>
+        <v>5572.5</v>
       </c>
       <c r="G243">
         <v>0.06</v>
@@ -9665,13 +9665,13 @@
         <v>3.04</v>
       </c>
       <c r="I243">
-        <v>24.818999999999999</v>
+        <v>24.44</v>
       </c>
       <c r="J243">
         <v>25.7</v>
       </c>
       <c r="K243">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9679,7 +9679,7 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>127.7</v>
+        <v>130.1</v>
       </c>
       <c r="C244" s="2">
         <v>35</v>
@@ -9691,7 +9691,7 @@
         <v>824.68</v>
       </c>
       <c r="F244" s="2">
-        <v>4469.5</v>
+        <v>4553.5</v>
       </c>
       <c r="G244">
         <v>0.05</v>
@@ -9700,13 +9700,13 @@
         <v>6.5670000000000002</v>
       </c>
       <c r="I244">
-        <v>19.443999999999999</v>
+        <v>19.809000000000001</v>
       </c>
       <c r="J244">
         <v>23.56</v>
       </c>
       <c r="K244">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9714,7 +9714,7 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>228.5</v>
+        <v>226.6</v>
       </c>
       <c r="C245" s="2">
         <v>766.49</v>
@@ -9726,22 +9726,22 @@
         <v>21472.38</v>
       </c>
       <c r="F245" s="2">
-        <v>175142.97</v>
+        <v>173686.63</v>
       </c>
       <c r="G245">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H245">
         <v>2.2690000000000001</v>
       </c>
       <c r="I245">
-        <v>100.7</v>
+        <v>99.863</v>
       </c>
       <c r="J245">
         <v>28.01</v>
       </c>
       <c r="K245">
-        <v>8.15</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9749,7 +9749,7 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>40.14</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C246" s="2">
         <v>250</v>
@@ -9761,7 +9761,7 @@
         <v>5423.66</v>
       </c>
       <c r="F246" s="2">
-        <v>10035</v>
+        <v>10200</v>
       </c>
       <c r="G246">
         <v>0.11</v>
@@ -9770,13 +9770,13 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="I246">
-        <v>234.517</v>
+        <v>238.37299999999999</v>
       </c>
       <c r="J246">
         <v>21.69</v>
       </c>
       <c r="K246">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9784,7 +9784,7 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>25.38</v>
+        <v>25.56</v>
       </c>
       <c r="C247">
         <v>160.92500000000001</v>
@@ -9796,7 +9796,7 @@
         <v>470.1</v>
       </c>
       <c r="F247" s="2">
-        <v>4084.28</v>
+        <v>4113.24</v>
       </c>
       <c r="G247">
         <v>0.05</v>
@@ -9805,13 +9805,13 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="I247">
-        <v>49.137</v>
+        <v>49.484999999999999</v>
       </c>
       <c r="J247">
         <v>2.92</v>
       </c>
       <c r="K247">
-        <v>8.68</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9819,7 +9819,7 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>14.42</v>
+        <v>14.64</v>
       </c>
       <c r="C248" s="2">
         <v>4166.5929999999998</v>
@@ -9831,16 +9831,16 @@
         <v>259985</v>
       </c>
       <c r="F248" s="2">
-        <v>60082.27</v>
+        <v>60998.92</v>
       </c>
       <c r="G248">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="H248">
         <v>1.891</v>
       </c>
       <c r="I248">
-        <v>7.6269999999999998</v>
+        <v>7.7430000000000003</v>
       </c>
       <c r="J248">
         <v>62.39</v>
@@ -9863,7 +9863,7 @@
         <v>290104.02</v>
       </c>
       <c r="F249" s="2">
-        <v>259472.77</v>
+        <v>259124.79</v>
       </c>
       <c r="G249">
         <v>2.89</v>
@@ -9872,7 +9872,7 @@
         <v>1.87</v>
       </c>
       <c r="I249">
-        <v>25.437999999999999</v>
+        <v>25.404</v>
       </c>
       <c r="J249">
         <v>53.19</v>
@@ -9886,7 +9886,7 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="C250">
         <v>171.697</v>
@@ -9898,7 +9898,7 @@
         <v>1771.58</v>
       </c>
       <c r="F250">
-        <v>904.84</v>
+        <v>911.71</v>
       </c>
       <c r="G250">
         <v>0.01</v>
@@ -9921,7 +9921,7 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>13.46</v>
+        <v>13.39</v>
       </c>
       <c r="C251">
         <v>11.8</v>
@@ -9933,7 +9933,7 @@
         <v>91.28</v>
       </c>
       <c r="F251">
-        <v>158.83000000000001</v>
+        <v>158</v>
       </c>
       <c r="G251" t="s">
         <v>32</v>
@@ -9942,13 +9942,13 @@
         <v>0.24</v>
       </c>
       <c r="I251">
-        <v>56.122999999999998</v>
+        <v>55.83</v>
       </c>
       <c r="J251">
         <v>7.73</v>
       </c>
       <c r="K251">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9956,7 +9956,7 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>5.22</v>
+        <v>5.24</v>
       </c>
       <c r="C252">
         <v>66</v>
@@ -9968,7 +9968,7 @@
         <v>532.41999999999996</v>
       </c>
       <c r="F252">
-        <v>344.52</v>
+        <v>345.84</v>
       </c>
       <c r="G252" t="s">
         <v>32</v>
@@ -9977,7 +9977,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="I252">
-        <v>9.3409999999999993</v>
+        <v>9.3770000000000007</v>
       </c>
       <c r="J252">
         <v>8.06</v>
@@ -9991,7 +9991,7 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>9.6</v>
+        <v>9.66</v>
       </c>
       <c r="C253">
         <v>51</v>
@@ -10003,7 +10003,7 @@
         <v>550.47</v>
       </c>
       <c r="F253">
-        <v>489.6</v>
+        <v>492.66</v>
       </c>
       <c r="G253">
         <v>0.01</v>
@@ -10012,13 +10012,13 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="I253">
-        <v>14.345000000000001</v>
+        <v>14.433999999999999</v>
       </c>
       <c r="J253">
         <v>10.79</v>
       </c>
       <c r="K253">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -10026,7 +10026,7 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>9.43</v>
+        <v>9.01</v>
       </c>
       <c r="C254">
         <v>61.37</v>
@@ -10038,7 +10038,7 @@
         <v>513.15</v>
       </c>
       <c r="F254">
-        <v>578.72</v>
+        <v>552.94000000000005</v>
       </c>
       <c r="G254">
         <v>0.01</v>
@@ -10047,13 +10047,13 @@
         <v>0.625</v>
       </c>
       <c r="I254">
-        <v>15.082000000000001</v>
+        <v>14.41</v>
       </c>
       <c r="J254">
         <v>8.36</v>
       </c>
       <c r="K254">
-        <v>1.1200000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>4.6500000000000004</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C256">
         <v>103.765</v>
@@ -10108,7 +10108,7 @@
         <v>743.19</v>
       </c>
       <c r="F256" s="2">
-        <v>482.51</v>
+        <v>486.66</v>
       </c>
       <c r="G256">
         <v>0.01</v>
@@ -10123,7 +10123,7 @@
         <v>7.16</v>
       </c>
       <c r="K256">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -10131,7 +10131,7 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="C257">
         <v>57.24</v>
@@ -10143,7 +10143,7 @@
         <v>243.55</v>
       </c>
       <c r="F257" s="2">
-        <v>242.7</v>
+        <v>243.27</v>
       </c>
       <c r="G257" t="s">
         <v>32</v>
@@ -10166,7 +10166,7 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>6.97</v>
+        <v>6.99</v>
       </c>
       <c r="C258">
         <v>137.5</v>
@@ -10178,7 +10178,7 @@
         <v>1170.58</v>
       </c>
       <c r="F258" s="2">
-        <v>958.38</v>
+        <v>961.13</v>
       </c>
       <c r="G258">
         <v>0.01</v>
@@ -10187,13 +10187,13 @@
         <v>0.153</v>
       </c>
       <c r="I258">
-        <v>45.572000000000003</v>
+        <v>45.701999999999998</v>
       </c>
       <c r="J258">
         <v>8.51</v>
       </c>
       <c r="K258">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10201,7 +10201,7 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>5.58</v>
+        <v>5.5</v>
       </c>
       <c r="C259">
         <v>107.50700000000001</v>
@@ -10213,7 +10213,7 @@
         <v>858.48</v>
       </c>
       <c r="F259" s="2">
-        <v>599.89</v>
+        <v>591.29</v>
       </c>
       <c r="G259">
         <v>0.01</v>
@@ -10222,13 +10222,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="I259">
-        <v>61.338000000000001</v>
+        <v>60.459000000000003</v>
       </c>
       <c r="J259">
         <v>7.98</v>
       </c>
       <c r="K259">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -10271,7 +10271,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>10.220000000000001</v>
+        <v>10.19</v>
       </c>
       <c r="C261">
         <v>186.50899999999999</v>
@@ -10283,7 +10283,7 @@
         <v>2218.67</v>
       </c>
       <c r="F261" s="2">
-        <v>1906.12</v>
+        <v>1900.53</v>
       </c>
       <c r="G261">
         <v>0.02</v>
@@ -10292,7 +10292,7 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="I261">
-        <v>21.129000000000001</v>
+        <v>21.067</v>
       </c>
       <c r="J261">
         <v>11.89</v>
@@ -10306,7 +10306,7 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="C262">
         <v>186.94399999999999</v>
@@ -10318,7 +10318,7 @@
         <v>1426.42</v>
       </c>
       <c r="F262" s="2">
-        <v>1230.0899999999999</v>
+        <v>1243.18</v>
       </c>
       <c r="G262">
         <v>0.01</v>
@@ -10333,7 +10333,7 @@
         <v>7.63</v>
       </c>
       <c r="K262">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="C263">
         <v>118</v>
@@ -10353,7 +10353,7 @@
         <v>818.84</v>
       </c>
       <c r="F263">
-        <v>531</v>
+        <v>532.17999999999995</v>
       </c>
       <c r="G263">
         <v>0.01</v>
@@ -10362,7 +10362,7 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="I263">
-        <v>6.7910000000000004</v>
+        <v>6.806</v>
       </c>
       <c r="J263">
         <v>6.93</v>
@@ -10376,7 +10376,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="C264" s="2">
         <v>73.275999999999996</v>
@@ -10388,7 +10388,7 @@
         <v>523.12</v>
       </c>
       <c r="F264" s="2">
-        <v>270.39</v>
+        <v>272.58999999999997</v>
       </c>
       <c r="G264" t="s">
         <v>32</v>
@@ -10397,13 +10397,13 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="I264">
-        <v>18.829000000000001</v>
+        <v>18.981999999999999</v>
       </c>
       <c r="J264">
         <v>7.13</v>
       </c>
       <c r="K264">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -10411,7 +10411,7 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>9.16</v>
+        <v>9.1</v>
       </c>
       <c r="C265" s="2">
         <v>162.881</v>
@@ -10423,7 +10423,7 @@
         <v>1358.14</v>
       </c>
       <c r="F265" s="2">
-        <v>1491.99</v>
+        <v>1482.22</v>
       </c>
       <c r="G265">
         <v>0.02</v>
@@ -10432,7 +10432,7 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="I265">
-        <v>17.326000000000001</v>
+        <v>17.213000000000001</v>
       </c>
       <c r="J265">
         <v>8.33</v>
@@ -10481,7 +10481,7 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>8.1199999999999992</v>
+        <v>8.15</v>
       </c>
       <c r="C267">
         <v>102.002</v>
@@ -10493,7 +10493,7 @@
         <v>1022.93</v>
       </c>
       <c r="F267" s="2">
-        <v>828.26</v>
+        <v>831.32</v>
       </c>
       <c r="G267">
         <v>0.01</v>
@@ -10502,13 +10502,13 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="I267">
-        <v>17.003</v>
+        <v>17.065999999999999</v>
       </c>
       <c r="J267">
         <v>10.02</v>
       </c>
       <c r="K267">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10516,7 +10516,7 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>7.64</v>
+        <v>8.06</v>
       </c>
       <c r="C268">
         <v>60.5</v>
@@ -10528,7 +10528,7 @@
         <v>562.16</v>
       </c>
       <c r="F268" s="2">
-        <v>462.22</v>
+        <v>487.63</v>
       </c>
       <c r="G268">
         <v>0.01</v>
@@ -10543,7 +10543,7 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="K268">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10560,7 +10560,7 @@
         <v>18612.79</v>
       </c>
       <c r="F269" s="2">
-        <v>14897.95</v>
+        <v>14911.04</v>
       </c>
       <c r="G269">
         <v>0.18</v>
@@ -10569,7 +10569,7 @@
         <v>0.183</v>
       </c>
       <c r="I269">
-        <v>16.545000000000002</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="J269">
         <v>8.61</v>
@@ -10583,7 +10583,7 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>17.71</v>
+        <v>17.77</v>
       </c>
       <c r="C270">
         <v>375</v>
@@ -10595,7 +10595,7 @@
         <v>5275.3</v>
       </c>
       <c r="F270" s="2">
-        <v>6641.25</v>
+        <v>6663.75</v>
       </c>
       <c r="G270">
         <v>7.0000000000000007E-2</v>
@@ -10604,13 +10604,13 @@
         <v>1.216</v>
       </c>
       <c r="I270">
-        <v>14.567</v>
+        <v>14.616</v>
       </c>
       <c r="J270">
         <v>14.06</v>
       </c>
       <c r="K270">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10618,7 +10618,7 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>37.08</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="C271" s="2">
         <v>260.45699999999999</v>
@@ -10630,7 +10630,7 @@
         <v>6807</v>
       </c>
       <c r="F271" s="2">
-        <v>9657.75</v>
+        <v>9668.16</v>
       </c>
       <c r="G271">
         <v>0.11</v>
@@ -10639,13 +10639,13 @@
         <v>1.4890000000000001</v>
       </c>
       <c r="I271">
-        <v>24.905999999999999</v>
+        <v>24.933</v>
       </c>
       <c r="J271">
         <v>26.13</v>
       </c>
       <c r="K271">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10653,7 +10653,7 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>76.8</v>
+        <v>76.95</v>
       </c>
       <c r="C272" s="2">
         <v>200</v>
@@ -10665,7 +10665,7 @@
         <v>4070</v>
       </c>
       <c r="F272" s="2">
-        <v>15360</v>
+        <v>15390</v>
       </c>
       <c r="G272">
         <v>0.17</v>
@@ -10674,13 +10674,13 @@
         <v>2.2450000000000001</v>
       </c>
       <c r="I272">
-        <v>34.209000000000003</v>
+        <v>34.276000000000003</v>
       </c>
       <c r="J272">
         <v>20.350000000000001</v>
       </c>
       <c r="K272">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10688,7 +10688,7 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>32.700000000000003</v>
+        <v>32.42</v>
       </c>
       <c r="C273" s="2">
         <v>233.93</v>
@@ -10700,22 +10700,22 @@
         <v>3997</v>
       </c>
       <c r="F273" s="2">
-        <v>7649.51</v>
+        <v>7584.01</v>
       </c>
       <c r="G273">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H273">
         <v>1.032</v>
       </c>
       <c r="I273">
-        <v>31.673999999999999</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="J273">
         <v>17.079999999999998</v>
       </c>
       <c r="K273">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -10723,7 +10723,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>11.8</v>
+        <v>12.46</v>
       </c>
       <c r="C274" s="2">
         <v>523.25900000000001</v>
@@ -10735,7 +10735,7 @@
         <v>5093</v>
       </c>
       <c r="F274" s="2">
-        <v>6174.46</v>
+        <v>6519.81</v>
       </c>
       <c r="G274">
         <v>7.0000000000000007E-2</v>
@@ -10750,7 +10750,7 @@
         <v>9.73</v>
       </c>
       <c r="K274">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -10758,7 +10758,7 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>46</v>
+        <v>42.94</v>
       </c>
       <c r="C275">
         <v>30.234000000000002</v>
@@ -10770,10 +10770,10 @@
         <v>32</v>
       </c>
       <c r="F275" s="2">
-        <v>1390.76</v>
+        <v>1298.25</v>
       </c>
       <c r="G275">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H275" t="s">
         <v>32</v>
@@ -10793,7 +10793,7 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>18.3</v>
+        <v>18.68</v>
       </c>
       <c r="C276" s="2">
         <v>1180.0219999999999</v>
@@ -10805,22 +10805,22 @@
         <v>14373.67</v>
       </c>
       <c r="F276" s="2">
-        <v>21594.400000000001</v>
+        <v>22042.81</v>
       </c>
       <c r="G276">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H276">
         <v>0.89100000000000001</v>
       </c>
       <c r="I276">
-        <v>20.533999999999999</v>
+        <v>20.96</v>
       </c>
       <c r="J276">
         <v>12.18</v>
       </c>
       <c r="K276">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10828,7 +10828,7 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>18.399999999999999</v>
+        <v>19.88</v>
       </c>
       <c r="C277" s="2">
         <v>1080</v>
@@ -10840,22 +10840,22 @@
         <v>21528.91</v>
       </c>
       <c r="F277" s="2">
-        <v>19872</v>
+        <v>21470.400000000001</v>
       </c>
       <c r="G277">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="H277">
         <v>0.86699999999999999</v>
       </c>
       <c r="I277">
-        <v>21.228000000000002</v>
+        <v>22.936</v>
       </c>
       <c r="J277">
         <v>19.93</v>
       </c>
       <c r="K277">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10863,7 +10863,7 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>12.44</v>
+        <v>12.63</v>
       </c>
       <c r="C278">
         <v>339.3</v>
@@ -10875,7 +10875,7 @@
         <v>2929.66</v>
       </c>
       <c r="F278" s="2">
-        <v>4220.8900000000003</v>
+        <v>4285.3599999999997</v>
       </c>
       <c r="G278">
         <v>0.05</v>
@@ -10890,7 +10890,7 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="K278">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -10898,7 +10898,7 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>18.12</v>
+        <v>18.39</v>
       </c>
       <c r="C279" s="2">
         <v>93.332999999999998</v>
@@ -10910,7 +10910,7 @@
         <v>982.32</v>
       </c>
       <c r="F279" s="2">
-        <v>1691.19</v>
+        <v>1716.39</v>
       </c>
       <c r="G279">
         <v>0.02</v>
@@ -10925,7 +10925,7 @@
         <v>10.52</v>
       </c>
       <c r="K279">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10933,7 +10933,7 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>20.34</v>
+        <v>20.88</v>
       </c>
       <c r="C280" s="2">
         <v>475</v>
@@ -10945,7 +10945,7 @@
         <v>15116.4</v>
       </c>
       <c r="F280" s="2">
-        <v>9661.5</v>
+        <v>9918</v>
       </c>
       <c r="G280">
         <v>0.11</v>
@@ -10954,13 +10954,13 @@
         <v>2.91</v>
       </c>
       <c r="I280">
-        <v>6.99</v>
+        <v>7.1760000000000002</v>
       </c>
       <c r="J280">
         <v>31.82</v>
       </c>
       <c r="K280">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>12.7</v>
+        <v>13.14</v>
       </c>
       <c r="C281" s="2">
         <v>500</v>
@@ -10980,7 +10980,7 @@
         <v>910.37</v>
       </c>
       <c r="F281" s="2">
-        <v>6350</v>
+        <v>6570</v>
       </c>
       <c r="G281">
         <v>7.0000000000000007E-2</v>
@@ -10989,13 +10989,13 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="I281">
-        <v>23.31</v>
+        <v>24.117999999999999</v>
       </c>
       <c r="J281">
         <v>1.82</v>
       </c>
       <c r="K281">
-        <v>6.97</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -11003,7 +11003,7 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>37.94</v>
+        <v>38.5</v>
       </c>
       <c r="C282" s="2">
         <v>50</v>
@@ -11015,7 +11015,7 @@
         <v>655</v>
       </c>
       <c r="F282" s="2">
-        <v>1897</v>
+        <v>1925</v>
       </c>
       <c r="G282">
         <v>0.02</v>
@@ -11024,13 +11024,13 @@
         <v>2.2509999999999999</v>
       </c>
       <c r="I282">
-        <v>16.853999999999999</v>
+        <v>17.103000000000002</v>
       </c>
       <c r="J282">
         <v>13.1</v>
       </c>
       <c r="K282">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -11038,7 +11038,7 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>4.7699999999999996</v>
+        <v>4.83</v>
       </c>
       <c r="C283" s="2">
         <v>200</v>
@@ -11050,7 +11050,7 @@
         <v>414.22</v>
       </c>
       <c r="F283" s="2">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="G283">
         <v>0.01</v>
@@ -11059,13 +11059,13 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="I283">
-        <v>28.274999999999999</v>
+        <v>28.63</v>
       </c>
       <c r="J283">
         <v>2.0699999999999998</v>
       </c>
       <c r="K283">
-        <v>2.2999999999999998</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>22.8</v>
+        <v>22.83</v>
       </c>
       <c r="C284" s="2">
         <v>1438.6469999999999</v>
@@ -11085,7 +11085,7 @@
         <v>15274.46</v>
       </c>
       <c r="F284" s="2">
-        <v>32801.15</v>
+        <v>32844.31</v>
       </c>
       <c r="G284">
         <v>0.37</v>
@@ -11094,13 +11094,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="I284">
-        <v>46.671999999999997</v>
+        <v>46.734000000000002</v>
       </c>
       <c r="J284">
         <v>10.61</v>
       </c>
       <c r="K284">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -11117,22 +11117,22 @@
         <v>97427.31</v>
       </c>
       <c r="F285" s="2">
-        <v>145915.85999999999</v>
+        <v>148862.25</v>
       </c>
       <c r="G285">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H285">
         <v>0.76600000000000001</v>
       </c>
       <c r="I285">
-        <v>21.98</v>
+        <v>22.411999999999999</v>
       </c>
       <c r="J285">
         <v>13.96</v>
       </c>
       <c r="K285">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -11146,42 +11146,42 @@
         <v>546812.49</v>
       </c>
       <c r="E286" s="2">
-        <v>3193376.62</v>
+        <v>3193377.54</v>
       </c>
       <c r="F286" s="2">
-        <v>8973474.1199999992</v>
+        <v>8941778.1500000004</v>
       </c>
       <c r="H286">
         <v>1.597</v>
       </c>
       <c r="I286">
-        <v>15.42</v>
+        <v>15.36</v>
       </c>
       <c r="J286">
         <v>9.33</v>
       </c>
       <c r="K286">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
